--- a/MSC_skewness.xlsx
+++ b/MSC_skewness.xlsx
@@ -75,7 +75,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E554"/>
+  <dimension ref="A1:E556"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -106,13 +106,13 @@
         <v>0.88469290733337402</v>
       </c>
       <c r="C2" s="2">
-        <v>0.86717170476913452</v>
+        <v>0.86691051721572876</v>
       </c>
       <c r="D2" s="2">
         <v>0.8245728611946106</v>
       </c>
       <c r="E2" s="2">
-        <v>0.79396569728851318</v>
+        <v>0.7935594916343689</v>
       </c>
     </row>
     <row r="3">
@@ -123,13 +123,13 @@
         <v>0.87288045883178711</v>
       </c>
       <c r="C3" s="2">
-        <v>0.83117347955703735</v>
+        <v>0.83063691854476929</v>
       </c>
       <c r="D3" s="2">
         <v>0.79138636589050293</v>
       </c>
       <c r="E3" s="2">
-        <v>0.75858062505722046</v>
+        <v>0.75815677642822266</v>
       </c>
     </row>
     <row r="4">
@@ -140,13 +140,13 @@
         <v>0.88555455207824707</v>
       </c>
       <c r="C4" s="2">
-        <v>0.84204888343811035</v>
+        <v>0.84163111448287964</v>
       </c>
       <c r="D4" s="2">
         <v>0.74737828969955444</v>
       </c>
       <c r="E4" s="2">
-        <v>0.71449089050292969</v>
+        <v>0.71408414840698242</v>
       </c>
     </row>
     <row r="5">
@@ -157,13 +157,13 @@
         <v>0.77309525012969971</v>
       </c>
       <c r="C5" s="2">
-        <v>0.74845516681671143</v>
+        <v>0.74810326099395752</v>
       </c>
       <c r="D5" s="2">
         <v>0.70175653696060181</v>
       </c>
       <c r="E5" s="2">
-        <v>0.6685326099395752</v>
+        <v>0.66810750961303711</v>
       </c>
     </row>
     <row r="6">
@@ -174,13 +174,13 @@
         <v>0.70664113759994507</v>
       </c>
       <c r="C6" s="2">
-        <v>0.68097925186157227</v>
+        <v>0.6805155873298645</v>
       </c>
       <c r="D6" s="2">
         <v>0.69672882556915283</v>
       </c>
       <c r="E6" s="2">
-        <v>0.66467297077178955</v>
+        <v>0.66423875093460083</v>
       </c>
     </row>
     <row r="7">
@@ -191,13 +191,13 @@
         <v>0.62545400857925415</v>
       </c>
       <c r="C7" s="2">
-        <v>0.58165532350540161</v>
+        <v>0.5811430811882019</v>
       </c>
       <c r="D7" s="2">
         <v>0.64241719245910645</v>
       </c>
       <c r="E7" s="2">
-        <v>0.61071276664733887</v>
+        <v>0.61026835441589355</v>
       </c>
     </row>
     <row r="8">
@@ -208,13 +208,13 @@
         <v>0.48332974314689636</v>
       </c>
       <c r="C8" s="2">
-        <v>0.44995233416557312</v>
+        <v>0.44964835047721863</v>
       </c>
       <c r="D8" s="2">
         <v>0.59014445543289185</v>
       </c>
       <c r="E8" s="2">
-        <v>0.56120377779006958</v>
+        <v>0.56078433990478516</v>
       </c>
     </row>
     <row r="9">
@@ -225,13 +225,13 @@
         <v>0.38240408897399902</v>
       </c>
       <c r="C9" s="2">
-        <v>0.34682461619377136</v>
+        <v>0.34627130627632141</v>
       </c>
       <c r="D9" s="2">
         <v>0.54714661836624146</v>
       </c>
       <c r="E9" s="2">
-        <v>0.52212578058242798</v>
+        <v>0.52169865369796753</v>
       </c>
     </row>
     <row r="10">
@@ -242,13 +242,13 @@
         <v>0.65650749206542969</v>
       </c>
       <c r="C10" s="2">
-        <v>0.63379621505737305</v>
+        <v>0.63328844308853149</v>
       </c>
       <c r="D10" s="2">
         <v>0.5068967342376709</v>
       </c>
       <c r="E10" s="2">
-        <v>0.48338696360588074</v>
+        <v>0.48293885588645935</v>
       </c>
     </row>
     <row r="11">
@@ -259,13 +259,13 @@
         <v>0.39588823914527893</v>
       </c>
       <c r="C11" s="2">
-        <v>0.38152968883514404</v>
+        <v>0.38117688894271851</v>
       </c>
       <c r="D11" s="2">
         <v>0.47223973274230957</v>
       </c>
       <c r="E11" s="2">
-        <v>0.44970178604125977</v>
+        <v>0.44926217198371887</v>
       </c>
     </row>
     <row r="12">
@@ -276,13 +276,13 @@
         <v>0.40242576599121094</v>
       </c>
       <c r="C12" s="2">
-        <v>0.38559255003929138</v>
+        <v>0.38528123497962952</v>
       </c>
       <c r="D12" s="2">
         <v>0.44589698314666748</v>
       </c>
       <c r="E12" s="2">
-        <v>0.42593264579772949</v>
+        <v>0.42550742626190186</v>
       </c>
     </row>
     <row r="13">
@@ -293,13 +293,13 @@
         <v>0.49857404828071594</v>
       </c>
       <c r="C13" s="2">
-        <v>0.49034684896469116</v>
+        <v>0.48985996842384338</v>
       </c>
       <c r="D13" s="2">
         <v>0.42059344053268433</v>
       </c>
       <c r="E13" s="2">
-        <v>0.40130329132080078</v>
+        <v>0.40087586641311646</v>
       </c>
     </row>
     <row r="14">
@@ -310,13 +310,13 @@
         <v>0.41084620356559753</v>
       </c>
       <c r="C14" s="2">
-        <v>0.39980596303939819</v>
+        <v>0.39926472306251526</v>
       </c>
       <c r="D14" s="2">
-        <v>0.40260231494903564</v>
+        <v>0.40260231494903565</v>
       </c>
       <c r="E14" s="2">
-        <v>0.38830116391181946</v>
+        <v>0.38790053129196167</v>
       </c>
     </row>
     <row r="15">
@@ -327,13 +327,13 @@
         <v>0.3947279155254364</v>
       </c>
       <c r="C15" s="2">
-        <v>0.37781244516372681</v>
+        <v>0.37742561101913452</v>
       </c>
       <c r="D15" s="2">
         <v>0.34784984588623047</v>
       </c>
       <c r="E15" s="2">
-        <v>0.33257514238357544</v>
+        <v>0.33220976591110229</v>
       </c>
     </row>
     <row r="16">
@@ -344,13 +344,13 @@
         <v>0.38836926221847534</v>
       </c>
       <c r="C16" s="2">
-        <v>0.36773309111595154</v>
+        <v>0.36735042929649353</v>
       </c>
       <c r="D16" s="2">
         <v>0.31815412640571594</v>
       </c>
       <c r="E16" s="2">
-        <v>0.30229896306991577</v>
+        <v>0.30194231867790222</v>
       </c>
     </row>
     <row r="17">
@@ -361,13 +361,13 @@
         <v>0.25559788942337036</v>
       </c>
       <c r="C17" s="2">
-        <v>0.22828812897205353</v>
+        <v>0.22796426713466644</v>
       </c>
       <c r="D17" s="2">
         <v>0.29021283984184265</v>
       </c>
       <c r="E17" s="2">
-        <v>0.27109429240226746</v>
+        <v>0.27074891328811646</v>
       </c>
     </row>
     <row r="18">
@@ -378,13 +378,13 @@
         <v>0.22048401832580566</v>
       </c>
       <c r="C18" s="2">
-        <v>0.22980546951293945</v>
+        <v>0.2294931560754776</v>
       </c>
       <c r="D18" s="2">
         <v>0.25320655107498169</v>
       </c>
       <c r="E18" s="2">
-        <v>0.2382480651140213</v>
+        <v>0.23794034123420715</v>
       </c>
     </row>
     <row r="19">
@@ -395,13 +395,13 @@
         <v>0.16373516619205475</v>
       </c>
       <c r="C19" s="2">
-        <v>0.13226209580898285</v>
+        <v>0.13207150995731354</v>
       </c>
       <c r="D19" s="2">
         <v>0.23847326636314392</v>
       </c>
       <c r="E19" s="2">
-        <v>0.2219485342502594</v>
+        <v>0.22168463468551636</v>
       </c>
     </row>
     <row r="20">
@@ -412,13 +412,13 @@
         <v>0.12862695753574371</v>
       </c>
       <c r="C20" s="2">
-        <v>0.10904416441917419</v>
+        <v>0.10876985639333725</v>
       </c>
       <c r="D20" s="2">
         <v>0.20348916947841644</v>
       </c>
       <c r="E20" s="2">
-        <v>0.18613079190254211</v>
+        <v>0.18588833510875702</v>
       </c>
     </row>
     <row r="21">
@@ -429,13 +429,13 @@
         <v>0.15095406770706177</v>
       </c>
       <c r="C21" s="2">
-        <v>0.10475034266710281</v>
+        <v>0.10454080998897553</v>
       </c>
       <c r="D21" s="2">
         <v>0.18256673216819763</v>
       </c>
       <c r="E21" s="2">
-        <v>0.16269195079803467</v>
+        <v>0.1624545156955719</v>
       </c>
     </row>
     <row r="22">
@@ -446,13 +446,13 @@
         <v>0.16551756858825684</v>
       </c>
       <c r="C22" s="2">
-        <v>0.19473093748092651</v>
+        <v>0.19458270072937012</v>
       </c>
       <c r="D22" s="2">
-        <v>0.16056980192661285</v>
+        <v>0.16056980192661286</v>
       </c>
       <c r="E22" s="2">
-        <v>0.14186261594295502</v>
+        <v>0.14163191616535187</v>
       </c>
     </row>
     <row r="23">
@@ -463,13 +463,13 @@
         <v>0.27824649214744568</v>
       </c>
       <c r="C23" s="2">
-        <v>0.25311017036437988</v>
+        <v>0.25296339392662048</v>
       </c>
       <c r="D23" s="2">
         <v>0.12920628488063812</v>
       </c>
       <c r="E23" s="2">
-        <v>0.10625934600830078</v>
+        <v>0.10603266954421997</v>
       </c>
     </row>
     <row r="24">
@@ -480,13 +480,13 @@
         <v>0.079871043562889099</v>
       </c>
       <c r="C24" s="2">
-        <v>0.055452734231948853</v>
+        <v>0.055258836597204208</v>
       </c>
       <c r="D24" s="2">
         <v>0.078575022518634796</v>
       </c>
       <c r="E24" s="2">
-        <v>0.068525999784469604</v>
+        <v>0.068311192095279694</v>
       </c>
     </row>
     <row r="25">
@@ -497,13 +497,13 @@
         <v>0.20006734132766724</v>
       </c>
       <c r="C25" s="2">
-        <v>0.15678344666957855</v>
+        <v>0.156446173787117</v>
       </c>
       <c r="D25" s="2">
         <v>0.012595728971064091</v>
       </c>
       <c r="E25" s="2">
-        <v>0.0023343462962657213</v>
+        <v>0.002156098373234272</v>
       </c>
     </row>
     <row r="26">
@@ -514,13 +514,13 @@
         <v>0.057625520974397659</v>
       </c>
       <c r="C26" s="2">
-        <v>0.040824234485626221</v>
+        <v>0.040560856461524963</v>
       </c>
       <c r="D26" s="2">
         <v>-0.0073789660818874836</v>
       </c>
       <c r="E26" s="2">
-        <v>-0.011536174453794956</v>
+        <v>-0.011685073375701904</v>
       </c>
     </row>
     <row r="27">
@@ -531,13 +531,13 @@
         <v>-0.061787586659193039</v>
       </c>
       <c r="C27" s="2">
-        <v>-0.090624041855335236</v>
+        <v>-0.09090009331703186</v>
       </c>
       <c r="D27" s="2">
         <v>-0.025387313216924667</v>
       </c>
       <c r="E27" s="2">
-        <v>-0.027272902429103851</v>
+        <v>-0.027415409684181213</v>
       </c>
     </row>
     <row r="28">
@@ -548,13 +548,13 @@
         <v>-0.2919461727142334</v>
       </c>
       <c r="C28" s="2">
-        <v>-0.20733802020549774</v>
+        <v>-0.20742179453372955</v>
       </c>
       <c r="D28" s="2">
         <v>-0.045855499804019928</v>
       </c>
       <c r="E28" s="2">
-        <v>-0.049788005650043488</v>
+        <v>-0.049941141158342362</v>
       </c>
     </row>
     <row r="29">
@@ -565,13 +565,13 @@
         <v>-0.4651867151260376</v>
       </c>
       <c r="C29" s="2">
-        <v>-0.48668068647384644</v>
+        <v>-0.48662599921226502</v>
       </c>
       <c r="D29" s="2">
-        <v>-0.029576383531093597</v>
+        <v>-0.029576383531093598</v>
       </c>
       <c r="E29" s="2">
-        <v>-0.028267510235309601</v>
+        <v>-0.028420997783541679</v>
       </c>
     </row>
     <row r="30">
@@ -579,16 +579,16 @@
         <v>29342</v>
       </c>
       <c r="B30" s="2">
-        <v>-0.028818186372518539</v>
+        <v>-0.02881818637251854</v>
       </c>
       <c r="C30" s="2">
-        <v>-0.02008434571325779</v>
+        <v>-0.020029736682772637</v>
       </c>
       <c r="D30" s="2">
-        <v>-0.021370768547058105</v>
+        <v>-0.021370768547058106</v>
       </c>
       <c r="E30" s="2">
-        <v>-0.017576338723301888</v>
+        <v>-0.017716340720653534</v>
       </c>
     </row>
     <row r="31">
@@ -599,13 +599,13 @@
         <v>0.0034424467012286186</v>
       </c>
       <c r="C31" s="2">
-        <v>0.05310039222240448</v>
+        <v>0.053009673953056335</v>
       </c>
       <c r="D31" s="2">
         <v>-0.023533502593636513</v>
       </c>
       <c r="E31" s="2">
-        <v>-0.02138039655983448</v>
+        <v>-0.021488163620233536</v>
       </c>
     </row>
     <row r="32">
@@ -616,13 +616,13 @@
         <v>0.094032801687717438</v>
       </c>
       <c r="C32" s="2">
-        <v>0.050474237650632858</v>
+        <v>0.050231821835041046</v>
       </c>
       <c r="D32" s="2">
         <v>-0.025298869237303734</v>
       </c>
       <c r="E32" s="2">
-        <v>-0.026984158903360367</v>
+        <v>-0.027071721851825714</v>
       </c>
     </row>
     <row r="33">
@@ -630,16 +630,16 @@
         <v>29434</v>
       </c>
       <c r="B33" s="2">
-        <v>0.22638309001922607</v>
+        <v>0.22638309001922608</v>
       </c>
       <c r="C33" s="2">
-        <v>0.24913719296455383</v>
+        <v>0.248940110206604</v>
       </c>
       <c r="D33" s="2">
         <v>-0.0035604927688837051</v>
       </c>
       <c r="E33" s="2">
-        <v>-0.011647908017039299</v>
+        <v>-0.011739900335669518</v>
       </c>
     </row>
     <row r="34">
@@ -650,13 +650,13 @@
         <v>0.27391788363456726</v>
       </c>
       <c r="C34" s="2">
-        <v>0.25300398468971252</v>
+        <v>0.25278809666633606</v>
       </c>
       <c r="D34" s="2">
         <v>-0.0050321710295975208</v>
       </c>
       <c r="E34" s="2">
-        <v>-0.016858406364917755</v>
+        <v>-0.016963634639978409</v>
       </c>
     </row>
     <row r="35">
@@ -667,13 +667,13 @@
         <v>0.038160912692546844</v>
       </c>
       <c r="C35" s="2">
-        <v>0.0065877153538167477</v>
+        <v>0.006614448968321085</v>
       </c>
       <c r="D35" s="2">
         <v>0.0051453695632517338</v>
       </c>
       <c r="E35" s="2">
-        <v>-0.0049009327776730061</v>
+        <v>-0.0050299395807087422</v>
       </c>
     </row>
     <row r="36">
@@ -684,13 +684,13 @@
         <v>-0.077675886452198029</v>
       </c>
       <c r="C36" s="2">
-        <v>-0.14105789363384247</v>
+        <v>-0.14115211367607117</v>
       </c>
       <c r="D36" s="2">
         <v>-0.0081244409084320068</v>
       </c>
       <c r="E36" s="2">
-        <v>-0.0051720165647566319</v>
+        <v>-0.0053087356500327587</v>
       </c>
     </row>
     <row r="37">
@@ -701,13 +701,13 @@
         <v>-0.096300780773162842</v>
       </c>
       <c r="C37" s="2">
-        <v>-0.069311767816543579</v>
+        <v>-0.069435402750968933</v>
       </c>
       <c r="D37" s="2">
         <v>-0.014161118306219578</v>
       </c>
       <c r="E37" s="2">
-        <v>-0.014693988487124443</v>
+        <v>-0.014802364632487297</v>
       </c>
     </row>
     <row r="38">
@@ -718,13 +718,13 @@
         <v>-0.4784318208694458</v>
       </c>
       <c r="C38" s="2">
-        <v>-0.53357517719268799</v>
+        <v>-0.53363960981369019</v>
       </c>
       <c r="D38" s="2">
         <v>-0.021746126934885979</v>
       </c>
       <c r="E38" s="2">
-        <v>-0.042220626026391983</v>
+        <v>-0.042318210005760193</v>
       </c>
     </row>
     <row r="39">
@@ -735,13 +735,13 @@
         <v>0.062779679894447327</v>
       </c>
       <c r="C39" s="2">
-        <v>0.087532922625541687</v>
+        <v>0.087373517453670502</v>
       </c>
       <c r="D39" s="2">
         <v>-0.064160771667957306</v>
       </c>
       <c r="E39" s="2">
-        <v>-0.09275875985622406</v>
+        <v>-0.092826738953590393</v>
       </c>
     </row>
     <row r="40">
@@ -752,13 +752,13 @@
         <v>-0.11598584800958633</v>
       </c>
       <c r="C40" s="2">
-        <v>0.050660636276006699</v>
+        <v>0.050500508397817612</v>
       </c>
       <c r="D40" s="2">
         <v>-0.039606906473636627</v>
       </c>
       <c r="E40" s="2">
-        <v>-0.070030145347118378</v>
+        <v>-0.070130906999111176</v>
       </c>
     </row>
     <row r="41">
@@ -769,13 +769,13 @@
         <v>0.039702706038951874</v>
       </c>
       <c r="C41" s="2">
-        <v>-0.03522351011633873</v>
+        <v>-0.035210836678743362</v>
       </c>
       <c r="D41" s="2">
         <v>0.014545240439474583</v>
       </c>
       <c r="E41" s="2">
-        <v>-0.022446943446993828</v>
+        <v>-0.022559212520718575</v>
       </c>
     </row>
     <row r="42">
@@ -786,13 +786,13 @@
         <v>0.15811800956726074</v>
       </c>
       <c r="C42" s="2">
-        <v>0.0013974652392789721</v>
+        <v>0.0012975023128092289</v>
       </c>
       <c r="D42" s="2">
         <v>0.085671938955783844</v>
       </c>
       <c r="E42" s="2">
-        <v>0.042186044156551361</v>
+        <v>0.042083904147148132</v>
       </c>
     </row>
     <row r="43">
@@ -803,13 +803,13 @@
         <v>-0.10781393945217133</v>
       </c>
       <c r="C43" s="2">
-        <v>-0.20183925330638885</v>
+        <v>-0.20178864896297455</v>
       </c>
       <c r="D43" s="2">
         <v>0.17572179436683655</v>
       </c>
       <c r="E43" s="2">
-        <v>0.13259541988372803</v>
+        <v>0.13249439001083374</v>
       </c>
     </row>
     <row r="44">
@@ -820,13 +820,13 @@
         <v>0.25914570689201355</v>
       </c>
       <c r="C44" s="2">
-        <v>0.21114525198936462</v>
+        <v>0.2108769416809082</v>
       </c>
       <c r="D44" s="2">
         <v>0.19842638075351715</v>
       </c>
       <c r="E44" s="2">
-        <v>0.14733172953128815</v>
+        <v>0.14726635813713074</v>
       </c>
     </row>
     <row r="45">
@@ -837,13 +837,13 @@
         <v>0.40969344973564148</v>
       </c>
       <c r="C45" s="2">
-        <v>0.28719094395637512</v>
+        <v>0.2869931161403656</v>
       </c>
       <c r="D45" s="2">
         <v>0.20961125195026398</v>
       </c>
       <c r="E45" s="2">
-        <v>0.13347689807415009</v>
+        <v>0.1334010511636734</v>
       </c>
     </row>
     <row r="46">
@@ -854,13 +854,13 @@
         <v>0.54383951425552368</v>
       </c>
       <c r="C46" s="2">
-        <v>0.51238512992858887</v>
+        <v>0.51235264539718628</v>
       </c>
       <c r="D46" s="2">
         <v>0.22558611631393433</v>
       </c>
       <c r="E46" s="2">
-        <v>0.15609912574291229</v>
+        <v>0.15600225329399109</v>
       </c>
     </row>
     <row r="47">
@@ -871,13 +871,13 @@
         <v>0.33201688528060913</v>
       </c>
       <c r="C47" s="2">
-        <v>0.28010913729667664</v>
+        <v>0.2800547182559967</v>
       </c>
       <c r="D47" s="2">
         <v>0.21201112866401672</v>
       </c>
       <c r="E47" s="2">
-        <v>0.15659414231777191</v>
+        <v>0.15651075541973114</v>
       </c>
     </row>
     <row r="48">
@@ -888,13 +888,13 @@
         <v>0.26712098717689514</v>
       </c>
       <c r="C48" s="2">
-        <v>0.22015973925590515</v>
+        <v>0.22032126784324646</v>
       </c>
       <c r="D48" s="2">
         <v>0.25146535038948059</v>
       </c>
       <c r="E48" s="2">
-        <v>0.20458036661148071</v>
+        <v>0.20450375974178314</v>
       </c>
     </row>
     <row r="49">
@@ -905,13 +905,13 @@
         <v>-0.015322070568799973</v>
       </c>
       <c r="C49" s="2">
-        <v>-0.074032783508300781</v>
+        <v>-0.074287295341491699</v>
       </c>
       <c r="D49" s="2">
         <v>0.21374198794364929</v>
       </c>
       <c r="E49" s="2">
-        <v>0.16552278399467468</v>
+        <v>0.16543591022491455</v>
       </c>
     </row>
     <row r="50">
@@ -922,13 +922,13 @@
         <v>0.18347656726837158</v>
       </c>
       <c r="C50" s="2">
-        <v>0.16837655007839203</v>
+        <v>0.16820009052753449</v>
       </c>
       <c r="D50" s="2">
-        <v>0.22338783740997314</v>
+        <v>0.22338783740997315</v>
       </c>
       <c r="E50" s="2">
-        <v>0.19311070442199707</v>
+        <v>0.19305242598056793</v>
       </c>
     </row>
     <row r="51">
@@ -939,13 +939,13 @@
         <v>0.035943042486906052</v>
       </c>
       <c r="C51" s="2">
-        <v>0.0058525418862700462</v>
+        <v>0.0058739702217280865</v>
       </c>
       <c r="D51" s="2">
         <v>0.20047073066234589</v>
       </c>
       <c r="E51" s="2">
-        <v>0.17816302180290222</v>
+        <v>0.17808505892753601</v>
       </c>
     </row>
     <row r="52">
@@ -956,13 +956,13 @@
         <v>0.24727413058280945</v>
       </c>
       <c r="C52" s="2">
-        <v>0.23003683984279633</v>
+        <v>0.23014840483665466</v>
       </c>
       <c r="D52" s="2">
         <v>0.22260907292366028</v>
       </c>
       <c r="E52" s="2">
-        <v>0.20244769752025604</v>
+        <v>0.20234903693199158</v>
       </c>
     </row>
     <row r="53">
@@ -973,13 +973,13 @@
         <v>-0.080364547669887543</v>
       </c>
       <c r="C53" s="2">
-        <v>-0.14037302136421204</v>
+        <v>-0.1407337486743927</v>
       </c>
       <c r="D53" s="2">
         <v>0.2460559755563736</v>
       </c>
       <c r="E53" s="2">
-        <v>0.22026926279067993</v>
+        <v>0.22014512121677399</v>
       </c>
     </row>
     <row r="54">
@@ -987,16 +987,16 @@
         <v>30072</v>
       </c>
       <c r="B54" s="2">
-        <v>0.49650606513023376</v>
+        <v>0.49650606513023377</v>
       </c>
       <c r="C54" s="2">
-        <v>0.53548216819763184</v>
+        <v>0.53554177284240723</v>
       </c>
       <c r="D54" s="2">
-        <v>0.29818177223205566</v>
+        <v>0.29818177223205567</v>
       </c>
       <c r="E54" s="2">
-        <v>0.27515760064125061</v>
+        <v>0.27504119277000427</v>
       </c>
     </row>
     <row r="55">
@@ -1007,13 +1007,13 @@
         <v>0.33758550882339478</v>
       </c>
       <c r="C55" s="2">
-        <v>0.37785607576370239</v>
+        <v>0.37764635682106018</v>
       </c>
       <c r="D55" s="2">
         <v>0.30217429995536804</v>
       </c>
       <c r="E55" s="2">
-        <v>0.2802882194519043</v>
+        <v>0.28016561269760132</v>
       </c>
     </row>
     <row r="56">
@@ -1024,13 +1024,13 @@
         <v>0.53126192092895508</v>
       </c>
       <c r="C56" s="2">
-        <v>0.49867123365402222</v>
+        <v>0.49843046069145203</v>
       </c>
       <c r="D56" s="2">
         <v>0.30992338061332703</v>
       </c>
       <c r="E56" s="2">
-        <v>0.29562878608703613</v>
+        <v>0.29548430442810059</v>
       </c>
     </row>
     <row r="57">
@@ -1041,13 +1041,13 @@
         <v>0.4781431257724762</v>
       </c>
       <c r="C57" s="2">
-        <v>0.38055378198623657</v>
+        <v>0.3804861307144165</v>
       </c>
       <c r="D57" s="2">
         <v>0.32807862758636475</v>
       </c>
       <c r="E57" s="2">
-        <v>0.30599701404571533</v>
+        <v>0.30579358339309692</v>
       </c>
     </row>
     <row r="58">
@@ -1058,13 +1058,13 @@
         <v>0.45381012558937073</v>
       </c>
       <c r="C58" s="2">
-        <v>0.41996228694915771</v>
+        <v>0.41977730393409729</v>
       </c>
       <c r="D58" s="2">
         <v>0.41713285446166992</v>
       </c>
       <c r="E58" s="2">
-        <v>0.40043240785598755</v>
+        <v>0.40025556087493896</v>
       </c>
     </row>
     <row r="59">
@@ -1075,13 +1075,13 @@
         <v>0.21940921247005463</v>
       </c>
       <c r="C59" s="2">
-        <v>0.21455195546150208</v>
+        <v>0.21431979537010193</v>
       </c>
       <c r="D59" s="2">
         <v>0.39297589659690857</v>
       </c>
       <c r="E59" s="2">
-        <v>0.38236799836158752</v>
+        <v>0.3821539580821991</v>
       </c>
     </row>
     <row r="60">
@@ -1092,13 +1092,13 @@
         <v>0.10568485409021378</v>
       </c>
       <c r="C60" s="2">
-        <v>0.14391766488552094</v>
+        <v>0.14374220371246338</v>
       </c>
       <c r="D60" s="2">
         <v>0.35300782322883606</v>
       </c>
       <c r="E60" s="2">
-        <v>0.33631080389022827</v>
+        <v>0.33606535196304321</v>
       </c>
     </row>
     <row r="61">
@@ -1109,13 +1109,13 @@
         <v>0.41067126393318176</v>
       </c>
       <c r="C61" s="2">
-        <v>0.32335087656974792</v>
+        <v>0.32293209433555603</v>
       </c>
       <c r="D61" s="2">
         <v>0.39139395952224731</v>
       </c>
       <c r="E61" s="2">
-        <v>0.371713787317276</v>
+        <v>0.371480792760849</v>
       </c>
     </row>
     <row r="62">
@@ -1126,13 +1126,13 @@
         <v>0.72112351655960083</v>
       </c>
       <c r="C62" s="2">
-        <v>0.70954549312591553</v>
+        <v>0.70942401885986328</v>
       </c>
       <c r="D62" s="2">
         <v>0.33974581956863403</v>
       </c>
       <c r="E62" s="2">
-        <v>0.3155873715877533</v>
+        <v>0.31532341241836548</v>
       </c>
     </row>
     <row r="63">
@@ -1143,13 +1143,13 @@
         <v>0.27909347414970398</v>
       </c>
       <c r="C63" s="2">
-        <v>0.37290257215499878</v>
+        <v>0.37262719869613647</v>
       </c>
       <c r="D63" s="2">
         <v>0.36902338266372681</v>
       </c>
       <c r="E63" s="2">
-        <v>0.3471093475818634</v>
+        <v>0.34685662388801575</v>
       </c>
     </row>
     <row r="64">
@@ -1160,13 +1160,13 @@
         <v>-0.022126967087388039</v>
       </c>
       <c r="C64" s="2">
-        <v>-0.03665875643491745</v>
+        <v>-0.037151146680116653</v>
       </c>
       <c r="D64" s="2">
         <v>0.42787268757820129</v>
       </c>
       <c r="E64" s="2">
-        <v>0.40715762972831726</v>
+        <v>0.40688139200210571</v>
       </c>
     </row>
     <row r="65">
@@ -1177,13 +1177,13 @@
         <v>0.87673693895339966</v>
       </c>
       <c r="C65" s="2">
-        <v>0.8172982931137085</v>
+        <v>0.8171694278717041</v>
       </c>
       <c r="D65" s="2">
         <v>0.55708658695220947</v>
       </c>
       <c r="E65" s="2">
-        <v>0.52403539419174194</v>
+        <v>0.5237351655960083</v>
       </c>
     </row>
     <row r="66">
@@ -1194,13 +1194,13 @@
         <v>0.01331007108092308</v>
       </c>
       <c r="C66" s="2">
-        <v>-0.12458407133817673</v>
+        <v>-0.1249302476644516</v>
       </c>
       <c r="D66" s="2">
         <v>0.62337994575500488</v>
       </c>
       <c r="E66" s="2">
-        <v>0.59725105762481689</v>
+        <v>0.59695440530776978</v>
       </c>
     </row>
     <row r="67">
@@ -1211,13 +1211,13 @@
         <v>0.7173081636428833</v>
       </c>
       <c r="C67" s="2">
-        <v>0.70366013050079346</v>
+        <v>0.70357638597488403</v>
       </c>
       <c r="D67" s="2">
         <v>0.63638961315155029</v>
       </c>
       <c r="E67" s="2">
-        <v>0.60464656352996826</v>
+        <v>0.6043320894241333</v>
       </c>
     </row>
     <row r="68">
@@ -1228,13 +1228,13 @@
         <v>0.74905288219451904</v>
       </c>
       <c r="C68" s="2">
-        <v>0.75498658418655396</v>
+        <v>0.75454270839691162</v>
       </c>
       <c r="D68" s="2">
         <v>0.67220479249954224</v>
       </c>
       <c r="E68" s="2">
-        <v>0.63060826063156128</v>
+        <v>0.63027298450469971</v>
       </c>
     </row>
     <row r="69">
@@ -1245,13 +1245,13 @@
         <v>1.2686100006103516</v>
       </c>
       <c r="C69" s="2">
-        <v>1.1958174705505371</v>
+        <v>1.1954261064529419</v>
       </c>
       <c r="D69" s="2">
         <v>0.71861350536346436</v>
       </c>
       <c r="E69" s="2">
-        <v>0.67521798610687256</v>
+        <v>0.67491865158081055</v>
       </c>
     </row>
     <row r="70">
@@ -1262,13 +1262,13 @@
         <v>1.0073114633560181</v>
       </c>
       <c r="C70" s="2">
-        <v>0.98229187726974487</v>
+        <v>0.98190528154373169</v>
       </c>
       <c r="D70" s="2">
         <v>0.69472086429595947</v>
       </c>
       <c r="E70" s="2">
-        <v>0.64624172449111938</v>
+        <v>0.64588707685470581</v>
       </c>
     </row>
     <row r="71">
@@ -1279,13 +1279,13 @@
         <v>0.83821052312850952</v>
       </c>
       <c r="C71" s="2">
-        <v>0.77610486745834351</v>
+        <v>0.77582335472106934</v>
       </c>
       <c r="D71" s="2">
         <v>0.78124850988388062</v>
       </c>
       <c r="E71" s="2">
-        <v>0.7391623854637146</v>
+        <v>0.7387385368347168</v>
       </c>
     </row>
     <row r="72">
@@ -1296,13 +1296,13 @@
         <v>0.60143023729324341</v>
       </c>
       <c r="C72" s="2">
-        <v>0.60655796527862549</v>
+        <v>0.60609507560729981</v>
       </c>
       <c r="D72" s="2">
         <v>0.75283944606781006</v>
       </c>
       <c r="E72" s="2">
-        <v>0.70404011011123657</v>
+        <v>0.70364069938659668</v>
       </c>
     </row>
     <row r="73">
@@ -1313,13 +1313,13 @@
         <v>0.39555132389068604</v>
       </c>
       <c r="C73" s="2">
-        <v>0.36482891440391541</v>
+        <v>0.36465960741043091</v>
       </c>
       <c r="D73" s="2">
         <v>0.79837191104888916</v>
       </c>
       <c r="E73" s="2">
-        <v>0.75019437074661255</v>
+        <v>0.74981975555419922</v>
       </c>
     </row>
     <row r="74">
@@ -1330,13 +1330,13 @@
         <v>0.66170322895050049</v>
       </c>
       <c r="C74" s="2">
-        <v>0.55651175975799561</v>
+        <v>0.55588549375534058</v>
       </c>
       <c r="D74" s="2">
         <v>0.69522100687026978</v>
       </c>
       <c r="E74" s="2">
-        <v>0.64919751882553101</v>
+        <v>0.64879953861236572</v>
       </c>
     </row>
     <row r="75">
@@ -1347,13 +1347,13 @@
         <v>0.79205882549285889</v>
       </c>
       <c r="C75" s="2">
-        <v>0.71170175075531006</v>
+        <v>0.71073287725448608</v>
       </c>
       <c r="D75" s="2">
         <v>0.68917214870452881</v>
       </c>
       <c r="E75" s="2">
-        <v>0.64328885078430176</v>
+        <v>0.64293277263641357</v>
       </c>
     </row>
     <row r="76">
@@ -1364,13 +1364,13 @@
         <v>0.46162635087966919</v>
       </c>
       <c r="C76" s="2">
-        <v>0.38756000995635986</v>
+        <v>0.38769572973251343</v>
       </c>
       <c r="D76" s="2">
         <v>0.72731488943099976</v>
       </c>
       <c r="E76" s="2">
-        <v>0.68322718143463135</v>
+        <v>0.68283939361572266</v>
       </c>
     </row>
     <row r="77">
@@ -1381,13 +1381,13 @@
         <v>1.1588454246520996</v>
       </c>
       <c r="C77" s="2">
-        <v>1.1703745126724243</v>
+        <v>1.1701542139053345</v>
       </c>
       <c r="D77" s="2">
         <v>0.76698648929595947</v>
       </c>
       <c r="E77" s="2">
-        <v>0.71688753366470337</v>
+        <v>0.71652382612228394</v>
       </c>
     </row>
     <row r="78">
@@ -1398,13 +1398,13 @@
         <v>0.34025192260742188</v>
       </c>
       <c r="C78" s="2">
-        <v>0.286845862865448</v>
+        <v>0.28624406456947327</v>
       </c>
       <c r="D78" s="2">
         <v>0.89094090461730957</v>
       </c>
       <c r="E78" s="2">
-        <v>0.8399931788444519</v>
+        <v>0.83956491947174072</v>
       </c>
     </row>
     <row r="79">
@@ -1415,13 +1415,13 @@
         <v>0.95287138223648071</v>
       </c>
       <c r="C79" s="2">
-        <v>0.92911428213119507</v>
+        <v>0.92910444736480713</v>
       </c>
       <c r="D79" s="2">
-        <v>0.90085816383361816</v>
+        <v>0.90085816383361817</v>
       </c>
       <c r="E79" s="2">
-        <v>0.83902597427368164</v>
+        <v>0.83866804838180542</v>
       </c>
     </row>
     <row r="80">
@@ -1429,16 +1429,16 @@
         <v>30864</v>
       </c>
       <c r="B80" s="2">
-        <v>1.1814954280853271</v>
+        <v>1.1814954280853272</v>
       </c>
       <c r="C80" s="2">
-        <v>1.1355494260787964</v>
+        <v>1.1349829435348511</v>
       </c>
       <c r="D80" s="2">
         <v>0.90620630979537964</v>
       </c>
       <c r="E80" s="2">
-        <v>0.88682854175567627</v>
+        <v>0.8865247368812561</v>
       </c>
     </row>
     <row r="81">
@@ -1449,13 +1449,13 @@
         <v>0.95847427845001221</v>
       </c>
       <c r="C81" s="2">
-        <v>0.90950131416320801</v>
+        <v>0.90925496816635132</v>
       </c>
       <c r="D81" s="2">
         <v>0.88257771730422974</v>
       </c>
       <c r="E81" s="2">
-        <v>0.86705970764160156</v>
+        <v>0.86669176816940308</v>
       </c>
     </row>
     <row r="82">
@@ -1466,13 +1466,13 @@
         <v>1.5111415386199951</v>
       </c>
       <c r="C82" s="2">
-        <v>1.4727796316146851</v>
+        <v>1.4720293283462525</v>
       </c>
       <c r="D82" s="2">
         <v>0.8697052001953125</v>
       </c>
       <c r="E82" s="2">
-        <v>0.85639238357543945</v>
+        <v>0.85609662532806397</v>
       </c>
     </row>
     <row r="83">
@@ -1483,13 +1483,13 @@
         <v>0.75095808506011963</v>
       </c>
       <c r="C83" s="2">
-        <v>0.54780721664428711</v>
+        <v>0.54781395196914673</v>
       </c>
       <c r="D83" s="2">
         <v>0.90522098541259766</v>
       </c>
       <c r="E83" s="2">
-        <v>0.89697116613388062</v>
+        <v>0.89670974016189575</v>
       </c>
     </row>
     <row r="84">
@@ -1500,13 +1500,13 @@
         <v>0.84019225835800171</v>
       </c>
       <c r="C84" s="2">
-        <v>1.1419243812561035</v>
+        <v>1.1414427757263184</v>
       </c>
       <c r="D84" s="2">
         <v>0.89982110261917114</v>
       </c>
       <c r="E84" s="2">
-        <v>0.89253455400466919</v>
+        <v>0.89224588871002197</v>
       </c>
     </row>
     <row r="85">
@@ -1517,13 +1517,13 @@
         <v>0.24896910786628723</v>
       </c>
       <c r="C85" s="2">
-        <v>0.20964060723781586</v>
+        <v>0.20919923484325409</v>
       </c>
       <c r="D85" s="2">
         <v>0.89444327354431152</v>
       </c>
       <c r="E85" s="2">
-        <v>0.88760137557983398</v>
+        <v>0.88732677698135376</v>
       </c>
     </row>
     <row r="86">
@@ -1534,13 +1534,13 @@
         <v>1.0429925918579102</v>
       </c>
       <c r="C86" s="2">
-        <v>1.0743688344955444</v>
+        <v>1.0747977495193482</v>
       </c>
       <c r="D86" s="2">
         <v>0.88364994525909424</v>
       </c>
       <c r="E86" s="2">
-        <v>0.87174326181411743</v>
+        <v>0.87141865491867065</v>
       </c>
     </row>
     <row r="87">
@@ -1551,13 +1551,13 @@
         <v>0.65989404916763306</v>
       </c>
       <c r="C87" s="2">
-        <v>0.65205478668212891</v>
+        <v>0.65176212787628174</v>
       </c>
       <c r="D87" s="2">
         <v>0.81324732303619385</v>
       </c>
       <c r="E87" s="2">
-        <v>0.81850522756576538</v>
+        <v>0.81822347640991211</v>
       </c>
     </row>
     <row r="88">
@@ -1568,13 +1568,13 @@
         <v>0.90427273511886597</v>
       </c>
       <c r="C88" s="2">
-        <v>0.88918465375900269</v>
+        <v>0.88893008232116699</v>
       </c>
       <c r="D88" s="2">
         <v>0.83905458450317383</v>
       </c>
       <c r="E88" s="2">
-        <v>0.8603021502494812</v>
+        <v>0.85994654893875122</v>
       </c>
     </row>
     <row r="89">
@@ -1582,16 +1582,16 @@
         <v>31138</v>
       </c>
       <c r="B89" s="2">
-        <v>1.1330947875976562</v>
+        <v>1.1330947875976563</v>
       </c>
       <c r="C89" s="2">
-        <v>1.0911509990692139</v>
+        <v>1.0907107591629028</v>
       </c>
       <c r="D89" s="2">
         <v>0.91542172431945801</v>
       </c>
       <c r="E89" s="2">
-        <v>0.91045832633972168</v>
+        <v>0.91008460521697998</v>
       </c>
     </row>
     <row r="90">
@@ -1602,13 +1602,13 @@
         <v>0.86133444309234619</v>
       </c>
       <c r="C90" s="2">
-        <v>0.76677799224853516</v>
+        <v>0.76608169078826904</v>
       </c>
       <c r="D90" s="2">
-        <v>0.99562674760818481</v>
+        <v>0.99562674760818482</v>
       </c>
       <c r="E90" s="2">
-        <v>0.9973912239074707</v>
+        <v>0.9970664381980896</v>
       </c>
     </row>
     <row r="91">
@@ -1616,16 +1616,16 @@
         <v>31199</v>
       </c>
       <c r="B91" s="2">
-        <v>0.87751764059066772</v>
+        <v>0.87751764059066773</v>
       </c>
       <c r="C91" s="2">
-        <v>0.99363762140274048</v>
+        <v>0.99327266216278076</v>
       </c>
       <c r="D91" s="2">
         <v>1.004464864730835</v>
       </c>
       <c r="E91" s="2">
-        <v>1.0136970281600952</v>
+        <v>1.0132888555526733</v>
       </c>
     </row>
     <row r="92">
@@ -1636,13 +1636,13 @@
         <v>0.98322391510009766</v>
       </c>
       <c r="C92" s="2">
-        <v>0.92397958040237427</v>
+        <v>0.92332202196121216</v>
       </c>
       <c r="D92" s="2">
         <v>1.0346298217773438</v>
       </c>
       <c r="E92" s="2">
-        <v>1.0393832921981812</v>
+        <v>1.0389515161514282</v>
       </c>
     </row>
     <row r="93">
@@ -1653,13 +1653,13 @@
         <v>1.5274962186813354</v>
       </c>
       <c r="C93" s="2">
-        <v>1.5933296680450439</v>
+        <v>1.5926852226257324</v>
       </c>
       <c r="D93" s="2">
         <v>1.0411319732666016</v>
       </c>
       <c r="E93" s="2">
-        <v>1.0391727685928345</v>
+        <v>1.0387160778045654</v>
       </c>
     </row>
     <row r="94">
@@ -1670,13 +1670,13 @@
         <v>0.97081458568572998</v>
       </c>
       <c r="C94" s="2">
-        <v>0.99203675985336304</v>
+        <v>0.99203580617904663</v>
       </c>
       <c r="D94" s="2">
         <v>1.0259832143783569</v>
       </c>
       <c r="E94" s="2">
-        <v>1.0146830081939697</v>
+        <v>1.0141960382461548</v>
       </c>
     </row>
     <row r="95">
@@ -1687,13 +1687,13 @@
         <v>1.1225353479385376</v>
       </c>
       <c r="C95" s="2">
-        <v>1.2211213111877441</v>
+        <v>1.2207992076873779</v>
       </c>
       <c r="D95" s="2">
         <v>1.0800504684448242</v>
       </c>
       <c r="E95" s="2">
-        <v>1.0737051963806152</v>
+        <v>1.0733013153076172</v>
       </c>
     </row>
     <row r="96">
@@ -1704,13 +1704,13 @@
         <v>0.93137860298156738</v>
       </c>
       <c r="C96" s="2">
-        <v>0.88323110342025757</v>
+        <v>0.88272619247436523</v>
       </c>
       <c r="D96" s="2">
         <v>0.99741452932357788</v>
       </c>
       <c r="E96" s="2">
-        <v>0.94687920808792114</v>
+        <v>0.94646269083023071</v>
       </c>
     </row>
     <row r="97">
@@ -1721,13 +1721,13 @@
         <v>0.9627920389175415</v>
       </c>
       <c r="C97" s="2">
-        <v>0.88728970289230347</v>
+        <v>0.88681149482727051</v>
       </c>
       <c r="D97" s="2">
         <v>0.94559592008590698</v>
       </c>
       <c r="E97" s="2">
-        <v>0.90025895833969116</v>
+        <v>0.8998674750328064</v>
       </c>
     </row>
     <row r="98">
@@ -1738,13 +1738,13 @@
         <v>0.99675625562667847</v>
       </c>
       <c r="C98" s="2">
-        <v>0.8707430362701416</v>
+        <v>0.87002980709075928</v>
       </c>
       <c r="D98" s="2">
         <v>0.8402131199836731</v>
       </c>
       <c r="E98" s="2">
-        <v>0.77860665321350098</v>
+        <v>0.77823668718338013</v>
       </c>
     </row>
     <row r="99">
@@ -1755,13 +1755,13 @@
         <v>1.347939133644104</v>
       </c>
       <c r="C99" s="2">
-        <v>1.297978401184082</v>
+        <v>1.2980289459228516</v>
       </c>
       <c r="D99" s="2">
         <v>0.798350989818573</v>
       </c>
       <c r="E99" s="2">
-        <v>0.72651565074920654</v>
+        <v>0.72609823942184448</v>
       </c>
     </row>
     <row r="100">
@@ -1772,13 +1772,13 @@
         <v>0.1337946355342865</v>
       </c>
       <c r="C100" s="2">
-        <v>-0.14779646694660187</v>
+        <v>-0.14827428758144379</v>
       </c>
       <c r="D100" s="2">
         <v>0.68779623508453369</v>
       </c>
       <c r="E100" s="2">
-        <v>0.59403723478317261</v>
+        <v>0.59362673759460449</v>
       </c>
     </row>
     <row r="101">
@@ -1789,13 +1789,13 @@
         <v>0.51685655117034912</v>
       </c>
       <c r="C101" s="2">
-        <v>0.50439733266830444</v>
+        <v>0.50396490097045899</v>
       </c>
       <c r="D101" s="2">
         <v>0.5831073522567749</v>
       </c>
       <c r="E101" s="2">
-        <v>0.45998850464820862</v>
+        <v>0.45950892567634583</v>
       </c>
     </row>
     <row r="102">
@@ -1806,13 +1806,13 @@
         <v>0.57905077934265137</v>
       </c>
       <c r="C102" s="2">
-        <v>0.49845871329307556</v>
+        <v>0.49800822138786316</v>
       </c>
       <c r="D102" s="2">
         <v>0.47884836792945862</v>
       </c>
       <c r="E102" s="2">
-        <v>0.35697063803672791</v>
+        <v>0.35653999447822571</v>
       </c>
     </row>
     <row r="103">
@@ -1823,13 +1823,13 @@
         <v>0.59405559301376343</v>
       </c>
       <c r="C103" s="2">
-        <v>0.52321785688400269</v>
+        <v>0.52278983592987061</v>
       </c>
       <c r="D103" s="2">
         <v>0.43610408902168274</v>
       </c>
       <c r="E103" s="2">
-        <v>0.30394542217254639</v>
+        <v>0.30350762605667114</v>
       </c>
     </row>
     <row r="104">
@@ -1840,13 +1840,13 @@
         <v>0.12754246592521667</v>
       </c>
       <c r="C104" s="2">
-        <v>0.028815396130084991</v>
+        <v>0.028555717319250107</v>
       </c>
       <c r="D104" s="2">
         <v>0.31868463754653931</v>
       </c>
       <c r="E104" s="2">
-        <v>0.17824123799800873</v>
+        <v>0.17771099507808685</v>
       </c>
     </row>
     <row r="105">
@@ -1857,13 +1857,13 @@
         <v>-0.010821492411196232</v>
       </c>
       <c r="C105" s="2">
-        <v>-0.32320740818977356</v>
+        <v>-0.32433423399925232</v>
       </c>
       <c r="D105" s="2">
         <v>0.34865710139274597</v>
       </c>
       <c r="E105" s="2">
-        <v>0.25364792346954346</v>
+        <v>0.25314566493034363</v>
       </c>
     </row>
     <row r="106">
@@ -1874,13 +1874,13 @@
         <v>0.024461500346660614</v>
       </c>
       <c r="C106" s="2">
-        <v>-0.03987116739153862</v>
+        <v>-0.039908844977617264</v>
       </c>
       <c r="D106" s="2">
         <v>0.36496809124946594</v>
       </c>
       <c r="E106" s="2">
-        <v>0.26980131864547729</v>
+        <v>0.26924499869346619</v>
       </c>
     </row>
     <row r="107">
@@ -1891,13 +1891,13 @@
         <v>0.61205774545669556</v>
       </c>
       <c r="C107" s="2">
-        <v>0.39351615309715271</v>
+        <v>0.39273840188980103</v>
       </c>
       <c r="D107" s="2">
         <v>0.40837714076042175</v>
       </c>
       <c r="E107" s="2">
-        <v>0.31524825096130371</v>
+        <v>0.3146674633026123</v>
       </c>
     </row>
     <row r="108">
@@ -1908,13 +1908,13 @@
         <v>0.29116383194923401</v>
       </c>
       <c r="C108" s="2">
-        <v>0.16664072871208191</v>
+        <v>0.16585925221443176</v>
       </c>
       <c r="D108" s="2">
         <v>0.45248091220855713</v>
       </c>
       <c r="E108" s="2">
-        <v>0.35506159067153931</v>
+        <v>0.35450103878974915</v>
       </c>
     </row>
     <row r="109">
@@ -1925,13 +1925,13 @@
         <v>0.40354686975479126</v>
       </c>
       <c r="C109" s="2">
-        <v>0.53086364269256592</v>
+        <v>0.53063762187957764</v>
       </c>
       <c r="D109" s="2">
         <v>0.59081572294235229</v>
       </c>
       <c r="E109" s="2">
-        <v>0.48425737023353577</v>
+        <v>0.48374044895172119</v>
       </c>
     </row>
     <row r="110">
@@ -1942,13 +1942,13 @@
         <v>0.66365551948547363</v>
       </c>
       <c r="C110" s="2">
-        <v>0.64977806806564331</v>
+        <v>0.64885914325714111</v>
       </c>
       <c r="D110" s="2">
         <v>0.74648410081863403</v>
       </c>
       <c r="E110" s="2">
-        <v>0.66952681541442871</v>
+        <v>0.66908770799636841</v>
       </c>
     </row>
     <row r="111">
@@ -1959,13 +1959,13 @@
         <v>0.96973216533660889</v>
       </c>
       <c r="C111" s="2">
-        <v>0.90748101472854614</v>
+        <v>0.90681028366088867</v>
       </c>
       <c r="D111" s="2">
         <v>0.87780612707138062</v>
       </c>
       <c r="E111" s="2">
-        <v>0.78355860710144043</v>
+        <v>0.78308689594268799</v>
       </c>
     </row>
     <row r="112">
@@ -1976,13 +1976,13 @@
         <v>0.99098950624465942</v>
       </c>
       <c r="C112" s="2">
-        <v>0.88153785467147827</v>
+        <v>0.88129204511642456</v>
       </c>
       <c r="D112" s="2">
         <v>0.98098856210708618</v>
       </c>
       <c r="E112" s="2">
-        <v>0.89146947860717773</v>
+        <v>0.89104557037353516</v>
       </c>
     </row>
     <row r="113">
@@ -1993,13 +1993,13 @@
         <v>1.3725557327270508</v>
       </c>
       <c r="C113" s="2">
-        <v>1.1915775537490845</v>
+        <v>1.191710352897644</v>
       </c>
       <c r="D113" s="2">
         <v>1.1153632402420044</v>
       </c>
       <c r="E113" s="2">
-        <v>1.0450836420059204</v>
+        <v>1.0447037220001221</v>
       </c>
     </row>
     <row r="114">
@@ -2010,13 +2010,13 @@
         <v>1.3901938199996948</v>
       </c>
       <c r="C114" s="2">
-        <v>1.3442176580429077</v>
+        <v>1.343791127204895</v>
       </c>
       <c r="D114" s="2">
         <v>1.2578468322753906</v>
       </c>
       <c r="E114" s="2">
-        <v>1.1685032844543457</v>
+        <v>1.1680663824081421</v>
       </c>
     </row>
     <row r="115">
@@ -2027,13 +2027,13 @@
         <v>1.2063601016998291</v>
       </c>
       <c r="C115" s="2">
-        <v>0.98641490936279297</v>
+        <v>0.98608410358428955</v>
       </c>
       <c r="D115" s="2">
-        <v>1.2326499223709106</v>
+        <v>1.2326499223709107</v>
       </c>
       <c r="E115" s="2">
-        <v>1.1121867895126343</v>
+        <v>1.1118345260620117</v>
       </c>
     </row>
     <row r="116">
@@ -2044,13 +2044,13 @@
         <v>1.5406996011734009</v>
       </c>
       <c r="C116" s="2">
-        <v>1.3647139072418213</v>
+        <v>1.3643659353256226</v>
       </c>
       <c r="D116" s="2">
         <v>1.2275859117507935</v>
       </c>
       <c r="E116" s="2">
-        <v>1.1006492376327515</v>
+        <v>1.1003462076187134</v>
       </c>
     </row>
     <row r="117">
@@ -2061,13 +2061,13 @@
         <v>1.5005362033843994</v>
       </c>
       <c r="C117" s="2">
-        <v>1.5491682291030884</v>
+        <v>1.5487824678421021</v>
       </c>
       <c r="D117" s="2">
         <v>1.1623567342758179</v>
       </c>
       <c r="E117" s="2">
-        <v>1.054418683052063</v>
+        <v>1.0541092157363892</v>
       </c>
     </row>
     <row r="118">
@@ -2078,13 +2078,13 @@
         <v>1.6858992576599121</v>
       </c>
       <c r="C118" s="2">
-        <v>1.6416400671005249</v>
+        <v>1.640902042388916</v>
       </c>
       <c r="D118" s="2">
         <v>1.1071981191635132</v>
       </c>
       <c r="E118" s="2">
-        <v>0.99935585260391235</v>
+        <v>0.99893778562545776</v>
       </c>
     </row>
     <row r="119">
@@ -2095,13 +2095,13 @@
         <v>0.43688303232192993</v>
       </c>
       <c r="C119" s="2">
-        <v>0.14293025434017181</v>
+        <v>0.14277210831642151</v>
       </c>
       <c r="D119" s="2">
         <v>1.0871602296829224</v>
       </c>
       <c r="E119" s="2">
-        <v>0.97035598754882812</v>
+        <v>0.9699629545211792</v>
       </c>
     </row>
     <row r="120">
@@ -2112,13 +2112,13 @@
         <v>0.92415553331375122</v>
       </c>
       <c r="C120" s="2">
-        <v>0.8036428689956665</v>
+        <v>0.80341541767120361</v>
       </c>
       <c r="D120" s="2">
         <v>1.0592646598815918</v>
       </c>
       <c r="E120" s="2">
-        <v>0.95202672481536865</v>
+        <v>0.95164948701858521</v>
       </c>
     </row>
     <row r="121">
@@ -2129,13 +2129,13 @@
         <v>0.40392753481864929</v>
       </c>
       <c r="C121" s="2">
-        <v>0.46546280384063721</v>
+        <v>0.46515932679176331</v>
       </c>
       <c r="D121" s="2">
         <v>1.0128895044326782</v>
       </c>
       <c r="E121" s="2">
-        <v>0.93851488828659058</v>
+        <v>0.93815445899963379</v>
       </c>
     </row>
     <row r="122">
@@ -2146,13 +2146,13 @@
         <v>0.87612801790237427</v>
       </c>
       <c r="C122" s="2">
-        <v>0.69601213932037354</v>
+        <v>0.69516754150390625</v>
       </c>
       <c r="D122" s="2">
         <v>0.90189272165298462</v>
       </c>
       <c r="E122" s="2">
-        <v>0.79318475723266602</v>
+        <v>0.79279470443725586</v>
       </c>
     </row>
     <row r="123">
@@ -2163,13 +2163,13 @@
         <v>1.2098530530929565</v>
       </c>
       <c r="C123" s="2">
-        <v>1.0832188129425049</v>
+        <v>1.0830175876617432</v>
       </c>
       <c r="D123" s="2">
         <v>0.83154535293579102</v>
       </c>
       <c r="E123" s="2">
-        <v>0.71817845106124878</v>
+        <v>0.71782028675079346</v>
       </c>
     </row>
     <row r="124">
@@ -2180,13 +2180,13 @@
         <v>0.95529943704605103</v>
       </c>
       <c r="C124" s="2">
-        <v>0.82145166397094727</v>
+        <v>0.82126319408416748</v>
       </c>
       <c r="D124" s="2">
         <v>0.90723186731338501</v>
       </c>
       <c r="E124" s="2">
-        <v>0.82030999660491943</v>
+        <v>0.81991302967071533</v>
       </c>
     </row>
     <row r="125">
@@ -2197,13 +2197,13 @@
         <v>1.1233233213424683</v>
       </c>
       <c r="C125" s="2">
-        <v>1.2431071996688843</v>
+        <v>1.2429102659225464</v>
       </c>
       <c r="D125" s="2">
         <v>0.92720144987106323</v>
       </c>
       <c r="E125" s="2">
-        <v>0.83515453338623047</v>
+        <v>0.83472907543182373</v>
       </c>
     </row>
     <row r="126">
@@ -2214,13 +2214,13 @@
         <v>0.50156509876251221</v>
       </c>
       <c r="C126" s="2">
-        <v>0.24119716882705688</v>
+        <v>0.24054460227489472</v>
       </c>
       <c r="D126" s="2">
         <v>1.0568108558654785</v>
       </c>
       <c r="E126" s="2">
-        <v>0.95358055830001831</v>
+        <v>0.95315897464752197</v>
       </c>
     </row>
     <row r="127">
@@ -2231,13 +2231,13 @@
         <v>1.0527728796005249</v>
       </c>
       <c r="C127" s="2">
-        <v>0.96658307313919067</v>
+        <v>0.9661322832107544</v>
       </c>
       <c r="D127" s="2">
         <v>0.98809897899627686</v>
       </c>
       <c r="E127" s="2">
-        <v>0.89988332986831665</v>
+        <v>0.89955276250839233</v>
       </c>
     </row>
     <row r="128">
@@ -2248,13 +2248,13 @@
         <v>1.1180621385574341</v>
       </c>
       <c r="C128" s="2">
-        <v>1.0621141195297241</v>
+        <v>1.0616071224212646</v>
       </c>
       <c r="D128" s="2">
         <v>0.9396626353263855</v>
       </c>
       <c r="E128" s="2">
-        <v>0.85450905561447144</v>
+        <v>0.85416829586029053</v>
       </c>
     </row>
     <row r="129">
@@ -2265,13 +2265,13 @@
         <v>1.1038813591003418</v>
       </c>
       <c r="C129" s="2">
-        <v>0.93724358081817627</v>
+        <v>0.93676000833511353</v>
       </c>
       <c r="D129" s="2">
-        <v>0.98103624582290649</v>
+        <v>0.9810362458229065</v>
       </c>
       <c r="E129" s="2">
-        <v>0.8981366753578186</v>
+        <v>0.89779031276702881</v>
       </c>
     </row>
     <row r="130">
@@ -2282,13 +2282,13 @@
         <v>1.5704125165939331</v>
       </c>
       <c r="C130" s="2">
-        <v>1.5312973260879517</v>
+        <v>1.5310283899307251</v>
       </c>
       <c r="D130" s="2">
         <v>1.0273183584213257</v>
       </c>
       <c r="E130" s="2">
-        <v>0.94021189212799072</v>
+        <v>0.93979734182357788</v>
       </c>
     </row>
     <row r="131">
@@ -2299,13 +2299,13 @@
         <v>0.25772073864936829</v>
       </c>
       <c r="C131" s="2">
-        <v>0.2127370685338974</v>
+        <v>0.21271149814128876</v>
       </c>
       <c r="D131" s="2">
         <v>1.094713568687439</v>
       </c>
       <c r="E131" s="2">
-        <v>1.0339661836624146</v>
+        <v>1.0336830615997315</v>
       </c>
     </row>
     <row r="132">
@@ -2316,13 +2316,13 @@
         <v>0.7739260196685791</v>
       </c>
       <c r="C132" s="2">
-        <v>0.67485052347183228</v>
+        <v>0.67455744743347168</v>
       </c>
       <c r="D132" s="2">
         <v>1.0888017416000366</v>
       </c>
       <c r="E132" s="2">
-        <v>1.0446780920028687</v>
+        <v>1.0443735122680664</v>
       </c>
     </row>
     <row r="133">
@@ -2333,13 +2333,13 @@
         <v>1.3276619911193848</v>
       </c>
       <c r="C133" s="2">
-        <v>1.2141001224517822</v>
+        <v>1.2138609886169434</v>
       </c>
       <c r="D133" s="2">
         <v>1.0259606838226318</v>
       </c>
       <c r="E133" s="2">
-        <v>0.95188206434249878</v>
+        <v>0.9516216516494751</v>
       </c>
     </row>
     <row r="134">
@@ -2350,13 +2350,13 @@
         <v>1.5398620367050171</v>
       </c>
       <c r="C134" s="2">
-        <v>1.6217838525772095</v>
+        <v>1.6209739446640015</v>
       </c>
       <c r="D134" s="2">
         <v>0.9701153039932251</v>
       </c>
       <c r="E134" s="2">
-        <v>0.87867206335067749</v>
+        <v>0.87845730781555176</v>
       </c>
     </row>
     <row r="135">
@@ -2364,16 +2364,16 @@
         <v>32540</v>
       </c>
       <c r="B135" s="2">
-        <v>1.108122706413269</v>
+        <v>1.1081227064132691</v>
       </c>
       <c r="C135" s="2">
-        <v>1.0849858522415161</v>
+        <v>1.0855159759521484</v>
       </c>
       <c r="D135" s="2">
         <v>0.90150004625320435</v>
       </c>
       <c r="E135" s="2">
-        <v>0.80241358280181885</v>
+        <v>0.8021090030670166</v>
       </c>
     </row>
     <row r="136">
@@ -2384,13 +2384,13 @@
         <v>0.9995657205581665</v>
       </c>
       <c r="C136" s="2">
-        <v>1.062990665435791</v>
+        <v>1.0623465776443482</v>
       </c>
       <c r="D136" s="2">
         <v>1.0415375232696533</v>
       </c>
       <c r="E136" s="2">
-        <v>0.93991422653198242</v>
+        <v>0.93960040807723999</v>
       </c>
     </row>
     <row r="137">
@@ -2401,13 +2401,13 @@
         <v>0.55249351263046265</v>
       </c>
       <c r="C137" s="2">
-        <v>0.22694970667362213</v>
+        <v>0.22683995962142944</v>
       </c>
       <c r="D137" s="2">
         <v>1.0789514780044556</v>
       </c>
       <c r="E137" s="2">
-        <v>0.98704433441162109</v>
+        <v>0.98676073551177979</v>
       </c>
     </row>
     <row r="138">
@@ -2418,13 +2418,13 @@
         <v>0.60127246379852295</v>
       </c>
       <c r="C138" s="2">
-        <v>0.27835360169410706</v>
+        <v>0.27828076481819153</v>
       </c>
       <c r="D138" s="2">
         <v>1.0438895225524902</v>
       </c>
       <c r="E138" s="2">
-        <v>1.0365579128265381</v>
+        <v>1.0363095998764038</v>
       </c>
     </row>
     <row r="139">
@@ -2435,13 +2435,13 @@
         <v>0.95287501811981201</v>
       </c>
       <c r="C139" s="2">
-        <v>0.84497064352035522</v>
+        <v>0.84389370679855347</v>
       </c>
       <c r="D139" s="2">
         <v>0.98979014158248901</v>
       </c>
       <c r="E139" s="2">
-        <v>0.95950078964233398</v>
+        <v>0.95936208963394165</v>
       </c>
     </row>
     <row r="140">
@@ -2452,13 +2452,13 @@
         <v>1.5180577039718628</v>
       </c>
       <c r="C140" s="2">
-        <v>1.4502432346343994</v>
+        <v>1.4501343965530396</v>
       </c>
       <c r="D140" s="2">
         <v>1.0464777946472168</v>
       </c>
       <c r="E140" s="2">
-        <v>1.0010230541229248</v>
+        <v>1.0007984638214111</v>
       </c>
     </row>
     <row r="141">
@@ -2469,13 +2469,13 @@
         <v>1.1106525659561157</v>
       </c>
       <c r="C141" s="2">
-        <v>1.0990210771560669</v>
+        <v>1.0990005731582642</v>
       </c>
       <c r="D141" s="2">
         <v>1.0369572639465332</v>
       </c>
       <c r="E141" s="2">
-        <v>0.98675823211669922</v>
+        <v>0.98664611577987671</v>
       </c>
     </row>
     <row r="142">
@@ -2486,13 +2486,13 @@
         <v>1.0121045112609863</v>
       </c>
       <c r="C142" s="2">
-        <v>1.6597220897674561</v>
+        <v>1.6598005294799805</v>
       </c>
       <c r="D142" s="2">
         <v>1.0403944253921509</v>
       </c>
       <c r="E142" s="2">
-        <v>1.0320281982421875</v>
+        <v>1.0318704843521118</v>
       </c>
     </row>
     <row r="143">
@@ -2503,13 +2503,13 @@
         <v>1.052966833114624</v>
       </c>
       <c r="C143" s="2">
-        <v>0.92827010154724121</v>
+        <v>0.92844629287719727</v>
       </c>
       <c r="D143" s="2">
         <v>1.0907306671142578</v>
       </c>
       <c r="E143" s="2">
-        <v>1.1053229570388794</v>
+        <v>1.1051644086837769</v>
       </c>
     </row>
     <row r="144">
@@ -2520,13 +2520,13 @@
         <v>1.6183123588562012</v>
       </c>
       <c r="C144" s="2">
-        <v>1.4586859941482544</v>
+        <v>1.4584437608718872</v>
       </c>
       <c r="D144" s="2">
-        <v>1.1236333847045898</v>
+        <v>1.1236333847045899</v>
       </c>
       <c r="E144" s="2">
-        <v>1.1433863639831543</v>
+        <v>1.1433048248291016</v>
       </c>
     </row>
     <row r="145">
@@ -2537,13 +2537,13 @@
         <v>0.91387999057769775</v>
       </c>
       <c r="C145" s="2">
-        <v>0.93460762500762939</v>
+        <v>0.9349750280380249</v>
       </c>
       <c r="D145" s="2">
         <v>1.0465196371078491</v>
       </c>
       <c r="E145" s="2">
-        <v>1.0687819719314575</v>
+        <v>1.0686235427856445</v>
       </c>
     </row>
     <row r="146">
@@ -2554,13 +2554,13 @@
         <v>0.58342814445495605</v>
       </c>
       <c r="C146" s="2">
-        <v>0.63437950611114502</v>
+        <v>0.63385897874832153</v>
       </c>
       <c r="D146" s="2">
         <v>1.0489387512207031</v>
       </c>
       <c r="E146" s="2">
-        <v>1.0577760934829712</v>
+        <v>1.0575642585754395</v>
       </c>
     </row>
     <row r="147">
@@ -2571,13 +2571,13 @@
         <v>1.0542991161346436</v>
       </c>
       <c r="C147" s="2">
-        <v>0.93800586462020874</v>
+        <v>0.93792635202407837</v>
       </c>
       <c r="D147" s="2">
         <v>1.0765870809555054</v>
       </c>
       <c r="E147" s="2">
-        <v>0.98429644107818604</v>
+        <v>0.98402798175811768</v>
       </c>
     </row>
     <row r="148">
@@ -2588,13 +2588,13 @@
         <v>1.248998761177063</v>
       </c>
       <c r="C148" s="2">
-        <v>1.1875414848327637</v>
+        <v>1.1871575117111206</v>
       </c>
       <c r="D148" s="2">
         <v>1.0753378868103027</v>
       </c>
       <c r="E148" s="2">
-        <v>0.98224323987960815</v>
+        <v>0.98186099529266357</v>
       </c>
     </row>
     <row r="149">
@@ -2605,13 +2605,13 @@
         <v>0.82403445243835449</v>
       </c>
       <c r="C149" s="2">
-        <v>0.77880352735519409</v>
+        <v>0.77800285816192627</v>
       </c>
       <c r="D149" s="2">
         <v>1.0183613300323486</v>
       </c>
       <c r="E149" s="2">
-        <v>0.93219786882400513</v>
+        <v>0.93179810047149658</v>
       </c>
     </row>
     <row r="150">
@@ -2622,13 +2622,13 @@
         <v>1.1324241161346436</v>
       </c>
       <c r="C150" s="2">
-        <v>0.99996864795684814</v>
+        <v>0.99946749210357666</v>
       </c>
       <c r="D150" s="2">
         <v>1.0164604187011719</v>
       </c>
       <c r="E150" s="2">
-        <v>0.91420668363571167</v>
+        <v>0.91375428438186646</v>
       </c>
     </row>
     <row r="151">
@@ -2639,13 +2639,13 @@
         <v>1.2609398365020752</v>
       </c>
       <c r="C151" s="2">
-        <v>0.99840539693832397</v>
+        <v>0.99797350168228149</v>
       </c>
       <c r="D151" s="2">
         <v>0.94837933778762817</v>
       </c>
       <c r="E151" s="2">
-        <v>0.82423985004425049</v>
+        <v>0.82381880283355713</v>
       </c>
     </row>
     <row r="152">
@@ -2656,13 +2656,13 @@
         <v>1.041724681854248</v>
       </c>
       <c r="C152" s="2">
-        <v>0.90979087352752686</v>
+        <v>0.90894323587417603</v>
       </c>
       <c r="D152" s="2">
         <v>0.82177597284317017</v>
       </c>
       <c r="E152" s="2">
-        <v>0.70834887027740479</v>
+        <v>0.7079702615737915</v>
       </c>
     </row>
     <row r="153">
@@ -2673,13 +2673,13 @@
         <v>1.1055232286453247</v>
       </c>
       <c r="C153" s="2">
-        <v>1.0082777738571167</v>
+        <v>1.0078780651092529</v>
       </c>
       <c r="D153" s="2">
         <v>0.65232169628143311</v>
       </c>
       <c r="E153" s="2">
-        <v>0.54441112279891968</v>
+        <v>0.54405426979064941</v>
       </c>
     </row>
     <row r="154">
@@ -2690,13 +2690,13 @@
         <v>0.89677160978317261</v>
       </c>
       <c r="C154" s="2">
-        <v>0.77268707752227783</v>
+        <v>0.77258080244064331</v>
       </c>
       <c r="D154" s="2">
         <v>0.48827815055847168</v>
       </c>
       <c r="E154" s="2">
-        <v>0.39662668108940125</v>
+        <v>0.39633938670158386</v>
       </c>
     </row>
     <row r="155">
@@ -2707,13 +2707,13 @@
         <v>-0.029301609843969345</v>
       </c>
       <c r="C155" s="2">
-        <v>-0.17532198131084442</v>
+        <v>-0.17556032538414001</v>
       </c>
       <c r="D155" s="2">
         <v>0.34072479605674744</v>
       </c>
       <c r="E155" s="2">
-        <v>0.24618367850780487</v>
+        <v>0.24592827260494232</v>
       </c>
     </row>
     <row r="156">
@@ -2724,13 +2724,13 @@
         <v>-0.085131451487541199</v>
       </c>
       <c r="C156" s="2">
-        <v>-0.10501287132501602</v>
+        <v>-0.10471092164516449</v>
       </c>
       <c r="D156" s="2">
         <v>0.17210513353347778</v>
       </c>
       <c r="E156" s="2">
-        <v>0.15075813233852386</v>
+        <v>0.15058279037475586</v>
       </c>
     </row>
     <row r="157">
@@ -2741,13 +2741,13 @@
         <v>-0.27608934044837952</v>
       </c>
       <c r="C157" s="2">
-        <v>-0.28789815306663513</v>
+        <v>-0.28808638453483582</v>
       </c>
       <c r="D157" s="2">
         <v>0.079903863370418549</v>
       </c>
       <c r="E157" s="2">
-        <v>0.059559322893619537</v>
+        <v>0.059423763304948807</v>
       </c>
     </row>
     <row r="158">
@@ -2758,13 +2758,13 @@
         <v>-0.65235769748687744</v>
       </c>
       <c r="C158" s="2">
-        <v>-0.55125665664672852</v>
+        <v>-0.55143100023269653</v>
       </c>
       <c r="D158" s="2">
         <v>0.046480540186166763</v>
       </c>
       <c r="E158" s="2">
-        <v>0.040499962866306305</v>
+        <v>0.040362976491451264</v>
       </c>
     </row>
     <row r="159">
@@ -2775,13 +2775,13 @@
         <v>-0.1955561488866806</v>
       </c>
       <c r="C159" s="2">
-        <v>-0.35401830077171326</v>
+        <v>-0.3542325496673584</v>
       </c>
       <c r="D159" s="2">
         <v>-0.065591193735599518</v>
       </c>
       <c r="E159" s="2">
-        <v>-0.074636578559875488</v>
+        <v>-0.074767224490642548</v>
       </c>
     </row>
     <row r="160">
@@ -2792,13 +2792,13 @@
         <v>-0.25663700699806213</v>
       </c>
       <c r="C160" s="2">
-        <v>0.13957542181015015</v>
+        <v>0.1398642361164093</v>
       </c>
       <c r="D160" s="2">
         <v>0.0041405675001442432</v>
       </c>
       <c r="E160" s="2">
-        <v>0.0053213778883218765</v>
+        <v>0.0052114534191787243</v>
       </c>
     </row>
     <row r="161">
@@ -2809,13 +2809,13 @@
         <v>0.21191319823265076</v>
       </c>
       <c r="C161" s="2">
-        <v>0.089001581072807312</v>
+        <v>0.088511936366558075</v>
       </c>
       <c r="D161" s="2">
         <v>0.048113804310560226</v>
       </c>
       <c r="E161" s="2">
-        <v>0.038410864770412445</v>
+        <v>0.03829554095864296</v>
       </c>
     </row>
     <row r="162">
@@ -2826,13 +2826,13 @@
         <v>0.80471330881118774</v>
       </c>
       <c r="C162" s="2">
-        <v>0.83674353361129761</v>
+        <v>0.83633100986480713</v>
       </c>
       <c r="D162" s="2">
         <v>0.078669555485248566</v>
       </c>
       <c r="E162" s="2">
-        <v>0.061370190232992172</v>
+        <v>0.061293374747037888</v>
       </c>
     </row>
     <row r="163">
@@ -2843,13 +2843,13 @@
         <v>-0.11187399923801422</v>
       </c>
       <c r="C163" s="2">
-        <v>-0.26354175806045532</v>
+        <v>-0.2635909914970398</v>
       </c>
       <c r="D163" s="2">
         <v>0.21288938820362091</v>
       </c>
       <c r="E163" s="2">
-        <v>0.17078162729740143</v>
+        <v>0.1706816554069519</v>
       </c>
     </row>
     <row r="164">
@@ -2860,13 +2860,13 @@
         <v>0.59828424453735352</v>
       </c>
       <c r="C164" s="2">
-        <v>0.54429960250854492</v>
+        <v>0.54424774646759033</v>
       </c>
       <c r="D164" s="2">
         <v>0.29645845293998718</v>
       </c>
       <c r="E164" s="2">
-        <v>0.28181451559066772</v>
+        <v>0.28176519274711609</v>
       </c>
     </row>
     <row r="165">
@@ -2877,13 +2877,13 @@
         <v>0.31062766909599304</v>
       </c>
       <c r="C165" s="2">
-        <v>0.19279251992702484</v>
+        <v>0.19304586946964264</v>
       </c>
       <c r="D165" s="2">
         <v>0.28729885816574097</v>
       </c>
       <c r="E165" s="2">
-        <v>0.22673781216144562</v>
+        <v>0.2266697883605957</v>
       </c>
     </row>
     <row r="166">
@@ -2894,13 +2894,13 @@
         <v>-0.0010875595035031438</v>
       </c>
       <c r="C166" s="2">
-        <v>-0.08126424252986908</v>
+        <v>-0.081105895340442658</v>
       </c>
       <c r="D166" s="2">
         <v>0.24615252017974854</v>
       </c>
       <c r="E166" s="2">
-        <v>0.20251639187335968</v>
+        <v>0.202480748295784</v>
       </c>
     </row>
     <row r="167">
@@ -2911,13 +2911,13 @@
         <v>0.55562072992324829</v>
       </c>
       <c r="C167" s="2">
-        <v>0.43344634771347046</v>
+        <v>0.43306350708007813</v>
       </c>
       <c r="D167" s="2">
         <v>0.12478786706924438</v>
       </c>
       <c r="E167" s="2">
-        <v>0.063467495143413544</v>
+        <v>0.06345154345035553</v>
       </c>
     </row>
     <row r="168">
@@ -2928,13 +2928,13 @@
         <v>0.55656552314758301</v>
       </c>
       <c r="C168" s="2">
-        <v>0.64527761936187744</v>
+        <v>0.6455191969871521</v>
       </c>
       <c r="D168" s="2">
         <v>0.13145817816257477</v>
       </c>
       <c r="E168" s="2">
-        <v>0.073115766048431396</v>
+        <v>0.073118306696414948</v>
       </c>
     </row>
     <row r="169">
@@ -2945,13 +2945,13 @@
         <v>-0.33907327055931091</v>
       </c>
       <c r="C169" s="2">
-        <v>-0.35611489415168762</v>
+        <v>-0.35599431395530701</v>
       </c>
       <c r="D169" s="2">
         <v>0.094043642282485962</v>
       </c>
       <c r="E169" s="2">
-        <v>0.040636740624904633</v>
+        <v>0.040627431124448776</v>
       </c>
     </row>
     <row r="170">
@@ -2962,13 +2962,13 @@
         <v>-0.15840400755405426</v>
       </c>
       <c r="C170" s="2">
-        <v>-0.12899118661880493</v>
+        <v>-0.12918937206268311</v>
       </c>
       <c r="D170" s="2">
         <v>0.1315656453371048</v>
       </c>
       <c r="E170" s="2">
-        <v>0.083392009139060974</v>
+        <v>0.083286337554454804</v>
       </c>
     </row>
     <row r="171">
@@ -2979,13 +2979,13 @@
         <v>-0.28756853938102722</v>
       </c>
       <c r="C171" s="2">
-        <v>-0.41469657421112061</v>
+        <v>-0.41493186354637146</v>
       </c>
       <c r="D171" s="2">
         <v>0.14728274941444397</v>
       </c>
       <c r="E171" s="2">
-        <v>0.090210676193237305</v>
+        <v>0.09003940224647522</v>
       </c>
     </row>
     <row r="172">
@@ -2996,13 +2996,13 @@
         <v>-0.051841244101524353</v>
       </c>
       <c r="C172" s="2">
-        <v>-0.17670732736587524</v>
+        <v>-0.17659008502960205</v>
       </c>
       <c r="D172" s="2">
         <v>0.1753523200750351</v>
       </c>
       <c r="E172" s="2">
-        <v>0.1293235570192337</v>
+        <v>0.12913970649242401</v>
       </c>
     </row>
     <row r="173">
@@ -3013,13 +3013,13 @@
         <v>0.26155346632003784</v>
       </c>
       <c r="C173" s="2">
-        <v>0.25198841094970703</v>
+        <v>0.25182983279228211</v>
       </c>
       <c r="D173" s="2">
         <v>0.17849370837211609</v>
       </c>
       <c r="E173" s="2">
-        <v>0.10261152684688568</v>
+        <v>0.10236472636461258</v>
       </c>
     </row>
     <row r="174">
@@ -3030,13 +3030,13 @@
         <v>0.64832568168640137</v>
       </c>
       <c r="C174" s="2">
-        <v>0.57758992910385132</v>
+        <v>0.57697606086730957</v>
       </c>
       <c r="D174" s="2">
         <v>0.36803606152534485</v>
       </c>
       <c r="E174" s="2">
-        <v>0.28351327776908875</v>
+        <v>0.28320807218551636</v>
       </c>
     </row>
     <row r="175">
@@ -3047,13 +3047,13 @@
         <v>0.14036634564399719</v>
       </c>
       <c r="C175" s="2">
-        <v>-0.019896257668733597</v>
+        <v>-0.020328333601355553</v>
       </c>
       <c r="D175" s="2">
         <v>0.47030669450759888</v>
       </c>
       <c r="E175" s="2">
-        <v>0.36717355251312256</v>
+        <v>0.36688095331192017</v>
       </c>
     </row>
     <row r="176">
@@ -3064,13 +3064,13 @@
         <v>0.808246910572052</v>
       </c>
       <c r="C176" s="2">
-        <v>0.78546226024627686</v>
+        <v>0.78496617078781128</v>
       </c>
       <c r="D176" s="2">
         <v>0.49438965320587158</v>
       </c>
       <c r="E176" s="2">
-        <v>0.40475663542747498</v>
+        <v>0.40444782376289368</v>
       </c>
     </row>
     <row r="177">
@@ -3081,13 +3081,13 @@
         <v>0.58483809232711792</v>
       </c>
       <c r="C177" s="2">
-        <v>0.40486934781074524</v>
+        <v>0.40454447269439697</v>
       </c>
       <c r="D177" s="2">
         <v>0.51323997974395752</v>
       </c>
       <c r="E177" s="2">
-        <v>0.4352075457572937</v>
+        <v>0.43484890460968018</v>
       </c>
     </row>
     <row r="178">
@@ -3098,13 +3098,13 @@
         <v>1.3668078184127808</v>
       </c>
       <c r="C178" s="2">
-        <v>1.272000789642334</v>
+        <v>1.2715957164764404</v>
       </c>
       <c r="D178" s="2">
         <v>0.54678082466125488</v>
       </c>
       <c r="E178" s="2">
-        <v>0.47470682859420776</v>
+        <v>0.47425231337547302</v>
       </c>
     </row>
     <row r="179">
@@ -3115,13 +3115,13 @@
         <v>0.76203185319900513</v>
       </c>
       <c r="C179" s="2">
-        <v>0.6239514946937561</v>
+        <v>0.6238667368888855</v>
       </c>
       <c r="D179" s="2">
         <v>0.50989848375320435</v>
       </c>
       <c r="E179" s="2">
-        <v>0.43425226211547852</v>
+        <v>0.43390429019927979</v>
       </c>
     </row>
     <row r="180">
@@ -3132,13 +3132,13 @@
         <v>-0.070822089910507202</v>
       </c>
       <c r="C180" s="2">
-        <v>-0.076448932290077209</v>
+        <v>-0.076830089092254639</v>
       </c>
       <c r="D180" s="2">
         <v>0.64696335792541504</v>
       </c>
       <c r="E180" s="2">
-        <v>0.57954955101013184</v>
+        <v>0.57917672395706177</v>
       </c>
     </row>
     <row r="181">
@@ -3149,13 +3149,13 @@
         <v>0.11781155318021774</v>
       </c>
       <c r="C181" s="2">
-        <v>0.097350813448429108</v>
+        <v>0.097019664943218231</v>
       </c>
       <c r="D181" s="2">
         <v>0.50260907411575317</v>
       </c>
       <c r="E181" s="2">
-        <v>0.50620520114898682</v>
+        <v>0.50588268041610718</v>
       </c>
     </row>
     <row r="182">
@@ -3166,13 +3166,13 @@
         <v>0.56342142820358276</v>
       </c>
       <c r="C182" s="2">
-        <v>0.60748195648193359</v>
+        <v>0.60646045207977295</v>
       </c>
       <c r="D182" s="2">
         <v>0.57563948631286621</v>
       </c>
       <c r="E182" s="2">
-        <v>0.58102989196777344</v>
+        <v>0.58072859048843384</v>
       </c>
     </row>
     <row r="183">
@@ -3183,13 +3183,13 @@
         <v>0.31638434529304504</v>
       </c>
       <c r="C183" s="2">
-        <v>0.21349884569644928</v>
+        <v>0.21384388208389282</v>
       </c>
       <c r="D183" s="2">
         <v>0.60031038522720337</v>
       </c>
       <c r="E183" s="2">
-        <v>0.5882839560508728</v>
+        <v>0.58802485466003418</v>
       </c>
     </row>
     <row r="184">
@@ -3200,13 +3200,13 @@
         <v>1.3739501237869263</v>
       </c>
       <c r="C184" s="2">
-        <v>1.2877794504165649</v>
+        <v>1.2871233224868774</v>
       </c>
       <c r="D184" s="2">
         <v>0.66368454694747925</v>
       </c>
       <c r="E184" s="2">
-        <v>0.63576167821884155</v>
+        <v>0.63542401790618896</v>
       </c>
     </row>
     <row r="185">
@@ -3217,13 +3217,13 @@
         <v>-0.49094125628471375</v>
       </c>
       <c r="C185" s="2">
-        <v>0.12536297738552094</v>
+        <v>0.12532001733779907</v>
       </c>
       <c r="D185" s="2">
         <v>0.7536194920539856</v>
       </c>
       <c r="E185" s="2">
-        <v>0.70502752065658569</v>
+        <v>0.70471662282943726</v>
       </c>
     </row>
     <row r="186">
@@ -3234,13 +3234,13 @@
         <v>1.2421115636825562</v>
       </c>
       <c r="C186" s="2">
-        <v>1.0782914161682129</v>
+        <v>1.0781577825546265</v>
       </c>
       <c r="D186" s="2">
         <v>0.78110557794570923</v>
       </c>
       <c r="E186" s="2">
-        <v>0.70362979173660278</v>
+        <v>0.70331388711929321</v>
       </c>
     </row>
     <row r="187">
@@ -3251,13 +3251,13 @@
         <v>1.5888462066650391</v>
       </c>
       <c r="C187" s="2">
-        <v>1.3372876644134521</v>
+        <v>1.3372617959976196</v>
       </c>
       <c r="D187" s="2">
         <v>0.8157927393913269</v>
       </c>
       <c r="E187" s="2">
-        <v>0.75623095035552979</v>
+        <v>0.75606447458267212</v>
       </c>
     </row>
     <row r="188">
@@ -3268,13 +3268,13 @@
         <v>1.3323990106582642</v>
       </c>
       <c r="C188" s="2">
-        <v>1.0512509346008301</v>
+        <v>1.0504595041275024</v>
       </c>
       <c r="D188" s="2">
         <v>0.71775144338607788</v>
       </c>
       <c r="E188" s="2">
-        <v>0.66042542457580566</v>
+        <v>0.66013157367706299</v>
       </c>
     </row>
     <row r="189">
@@ -3285,13 +3285,13 @@
         <v>0.73859226703643799</v>
       </c>
       <c r="C189" s="2">
-        <v>0.54694336652755737</v>
+        <v>0.54680323600769043</v>
       </c>
       <c r="D189" s="2">
         <v>0.58328336477279663</v>
       </c>
       <c r="E189" s="2">
-        <v>0.49294981360435486</v>
+        <v>0.49271166324615479</v>
       </c>
     </row>
     <row r="190">
@@ -3302,13 +3302,13 @@
         <v>0.36518657207489014</v>
       </c>
       <c r="C190" s="2">
-        <v>0.084771521389484406</v>
+        <v>0.084394738078117371</v>
       </c>
       <c r="D190" s="2">
         <v>0.75908178091049194</v>
       </c>
       <c r="E190" s="2">
-        <v>0.55875533819198608</v>
+        <v>0.55853408575057983</v>
       </c>
     </row>
     <row r="191">
@@ -3319,13 +3319,13 @@
         <v>0.87560582160949707</v>
       </c>
       <c r="C191" s="2">
-        <v>1.0808922052383423</v>
+        <v>1.0812160968780518</v>
       </c>
       <c r="D191" s="2">
         <v>0.7731899619102478</v>
       </c>
       <c r="E191" s="2">
-        <v>0.66366416215896606</v>
+        <v>0.66339564323425293</v>
       </c>
     </row>
     <row r="192">
@@ -3336,13 +3336,13 @@
         <v>-0.56598716974258423</v>
       </c>
       <c r="C192" s="2">
-        <v>-0.64875048398971558</v>
+        <v>-0.64955216646194458</v>
       </c>
       <c r="D192" s="2">
         <v>0.68072623014450073</v>
       </c>
       <c r="E192" s="2">
-        <v>0.66420608758926392</v>
+        <v>0.66387015581130982</v>
       </c>
     </row>
     <row r="193">
@@ -3353,13 +3353,13 @@
         <v>0.16373701393604279</v>
       </c>
       <c r="C193" s="2">
-        <v>-0.21950122714042664</v>
+        <v>-0.21965615451335907</v>
       </c>
       <c r="D193" s="2">
         <v>0.71306675672531128</v>
       </c>
       <c r="E193" s="2">
-        <v>0.70697730779647827</v>
+        <v>0.70664161443710327</v>
       </c>
     </row>
     <row r="194">
@@ -3370,13 +3370,13 @@
         <v>1.0912445783615112</v>
       </c>
       <c r="C194" s="2">
-        <v>0.7176128625869751</v>
+        <v>0.71772181987762451</v>
       </c>
       <c r="D194" s="2">
-        <v>0.72874975204467773</v>
+        <v>0.72874975204467774</v>
       </c>
       <c r="E194" s="2">
-        <v>0.71822363138198853</v>
+        <v>0.71783465147018433</v>
       </c>
     </row>
     <row r="195">
@@ -3387,13 +3387,13 @@
         <v>1.3690851926803589</v>
       </c>
       <c r="C195" s="2">
-        <v>2.0224704742431641</v>
+        <v>2.0219120979309082</v>
       </c>
       <c r="D195" s="2">
         <v>0.79378920793533325</v>
       </c>
       <c r="E195" s="2">
-        <v>0.80133056640625</v>
+        <v>0.8010563850402832</v>
       </c>
     </row>
     <row r="196">
@@ -3404,13 +3404,13 @@
         <v>0.75667262077331543</v>
       </c>
       <c r="C196" s="2">
-        <v>1.3421653509140015</v>
+        <v>1.3415321111679077</v>
       </c>
       <c r="D196" s="2">
         <v>0.71587240695953369</v>
       </c>
       <c r="E196" s="2">
-        <v>0.65686553716659546</v>
+        <v>0.65643066167831421</v>
       </c>
     </row>
     <row r="197">
@@ -3421,13 +3421,13 @@
         <v>1.6234637498855591</v>
       </c>
       <c r="C197" s="2">
-        <v>1.4361917972564697</v>
+        <v>1.4354029893875122</v>
       </c>
       <c r="D197" s="2">
         <v>0.86995917558670044</v>
       </c>
       <c r="E197" s="2">
-        <v>0.79932153224945068</v>
+        <v>0.79903078079223633</v>
       </c>
     </row>
     <row r="198">
@@ -3438,13 +3438,13 @@
         <v>0.87973934412002563</v>
       </c>
       <c r="C198" s="2">
-        <v>0.64816021919250488</v>
+        <v>0.64754021167755127</v>
       </c>
       <c r="D198" s="2">
         <v>1.020658016204834</v>
       </c>
       <c r="E198" s="2">
-        <v>0.98305004835128784</v>
+        <v>0.98280972242355347</v>
       </c>
     </row>
     <row r="199">
@@ -3455,13 +3455,13 @@
         <v>0.95054179430007935</v>
       </c>
       <c r="C199" s="2">
-        <v>0.83273404836654663</v>
+        <v>0.83339023590087891</v>
       </c>
       <c r="D199" s="2">
         <v>0.9815325140953064</v>
       </c>
       <c r="E199" s="2">
-        <v>0.97428601980209351</v>
+        <v>0.97397613525390625</v>
       </c>
     </row>
     <row r="200">
@@ -3472,13 +3472,13 @@
         <v>0.17435459792613983</v>
       </c>
       <c r="C200" s="2">
-        <v>-0.21929314732551575</v>
+        <v>-0.22041517496109009</v>
       </c>
       <c r="D200" s="2">
         <v>0.92877453565597534</v>
       </c>
       <c r="E200" s="2">
-        <v>0.82470607757568359</v>
+        <v>0.82437330484390259</v>
       </c>
     </row>
     <row r="201">
@@ -3489,13 +3489,13 @@
         <v>0.82079362869262695</v>
       </c>
       <c r="C201" s="2">
-        <v>0.63335347175598145</v>
+        <v>0.63384914398193359</v>
       </c>
       <c r="D201" s="2">
         <v>0.91252028942108154</v>
       </c>
       <c r="E201" s="2">
-        <v>0.70400691032409668</v>
+        <v>0.70365619659423828</v>
       </c>
     </row>
     <row r="202">
@@ -3506,13 +3506,13 @@
         <v>1.5200268030166626</v>
       </c>
       <c r="C202" s="2">
-        <v>1.4340555667877197</v>
+        <v>1.4343541860580444</v>
       </c>
       <c r="D202" s="2">
         <v>0.92546617984771729</v>
       </c>
       <c r="E202" s="2">
-        <v>0.7138674259185791</v>
+        <v>0.71360844373703003</v>
       </c>
     </row>
     <row r="203">
@@ -3523,13 +3523,13 @@
         <v>0.73911476135253906</v>
       </c>
       <c r="C203" s="2">
-        <v>0.6387363076210022</v>
+        <v>0.63821965456008911</v>
       </c>
       <c r="D203" s="2">
         <v>0.99118161201477051</v>
       </c>
       <c r="E203" s="2">
-        <v>0.7860601544380188</v>
+        <v>0.78581744432449341</v>
       </c>
     </row>
     <row r="204">
@@ -3540,13 +3540,13 @@
         <v>0.89426332712173462</v>
       </c>
       <c r="C204" s="2">
-        <v>0.67625081539154053</v>
+        <v>0.67548662424087525</v>
       </c>
       <c r="D204" s="2">
         <v>1.0618983507156372</v>
       </c>
       <c r="E204" s="2">
-        <v>0.85527634620666504</v>
+        <v>0.85494911670684814</v>
       </c>
     </row>
     <row r="205">
@@ -3557,13 +3557,13 @@
         <v>0.61038452386856079</v>
       </c>
       <c r="C205" s="2">
-        <v>0.25587290525436401</v>
+        <v>0.2550777792930603</v>
       </c>
       <c r="D205" s="2">
         <v>1.2258979082107544</v>
       </c>
       <c r="E205" s="2">
-        <v>1.0562317371368408</v>
+        <v>1.055910587310791</v>
       </c>
     </row>
     <row r="206">
@@ -3574,13 +3574,13 @@
         <v>1.7399770021438599</v>
       </c>
       <c r="C206" s="2">
-        <v>1.5249367952346802</v>
+        <v>1.5249732732772827</v>
       </c>
       <c r="D206" s="2">
         <v>1.3178203105926514</v>
       </c>
       <c r="E206" s="2">
-        <v>1.1407977342605591</v>
+        <v>1.1403687000274658</v>
       </c>
     </row>
     <row r="207">
@@ -3591,13 +3591,13 @@
         <v>1.4711782932281494</v>
       </c>
       <c r="C207" s="2">
-        <v>1.2978945970535278</v>
+        <v>1.2974212169647217</v>
       </c>
       <c r="D207" s="2">
         <v>1.3398036956787109</v>
       </c>
       <c r="E207" s="2">
-        <v>1.172768235206604</v>
+        <v>1.1723048686981201</v>
       </c>
     </row>
     <row r="208">
@@ -3608,13 +3608,13 @@
         <v>1.5869923830032349</v>
       </c>
       <c r="C208" s="2">
-        <v>1.4556796550750732</v>
+        <v>1.4555755853652954</v>
       </c>
       <c r="D208" s="2">
         <v>1.4396834373474121</v>
       </c>
       <c r="E208" s="2">
-        <v>1.260432243347168</v>
+        <v>1.2600224018096924</v>
       </c>
     </row>
     <row r="209">
@@ -3625,13 +3625,13 @@
         <v>1.65035080909729</v>
       </c>
       <c r="C209" s="2">
-        <v>1.5893054008483887</v>
+        <v>1.5882376432418823</v>
       </c>
       <c r="D209" s="2">
         <v>1.5172851085662842</v>
       </c>
       <c r="E209" s="2">
-        <v>1.3659791946411133</v>
+        <v>1.3656594753265381</v>
       </c>
     </row>
     <row r="210">
@@ -3642,13 +3642,13 @@
         <v>1.6480953693389893</v>
       </c>
       <c r="C210" s="2">
-        <v>1.3944480419158936</v>
+        <v>1.3939721584320068</v>
       </c>
       <c r="D210" s="2">
-        <v>1.6708520650863647</v>
+        <v>1.6708520650863648</v>
       </c>
       <c r="E210" s="2">
-        <v>1.5553963184356689</v>
+        <v>1.5551662445068359</v>
       </c>
     </row>
     <row r="211">
@@ -3659,13 +3659,13 @@
         <v>1.717876672744751</v>
       </c>
       <c r="C211" s="2">
-        <v>1.7217897176742554</v>
+        <v>1.7217797040939331</v>
       </c>
       <c r="D211" s="2">
         <v>1.6549568176269531</v>
       </c>
       <c r="E211" s="2">
-        <v>1.5527552366256714</v>
+        <v>1.5524463653564453</v>
       </c>
     </row>
     <row r="212">
@@ -3676,13 +3676,13 @@
         <v>1.6380329132080078</v>
       </c>
       <c r="C212" s="2">
-        <v>1.4277123212814331</v>
+        <v>1.4276776313781738</v>
       </c>
       <c r="D212" s="2">
         <v>1.5762641429901123</v>
       </c>
       <c r="E212" s="2">
-        <v>1.4754430055618286</v>
+        <v>1.4751173257827759</v>
       </c>
     </row>
     <row r="213">
@@ -3693,13 +3693,13 @@
         <v>1.592678427696228</v>
       </c>
       <c r="C213" s="2">
-        <v>1.6261729001998901</v>
+        <v>1.6262208223342896</v>
       </c>
       <c r="D213" s="2">
         <v>1.5485706329345703</v>
       </c>
       <c r="E213" s="2">
-        <v>1.4486109018325806</v>
+        <v>1.448279619216919</v>
       </c>
     </row>
     <row r="214">
@@ -3710,13 +3710,13 @@
         <v>1.9924862384796143</v>
       </c>
       <c r="C214" s="2">
-        <v>1.9606273174285889</v>
+        <v>1.9606386423110962</v>
       </c>
       <c r="D214" s="2">
         <v>1.5151834487915039</v>
       </c>
       <c r="E214" s="2">
-        <v>1.4081918001174927</v>
+        <v>1.407991886138916</v>
       </c>
     </row>
     <row r="215">
@@ -3727,13 +3727,13 @@
         <v>1.5969207286834717</v>
       </c>
       <c r="C215" s="2">
-        <v>1.5011672973632812</v>
+        <v>1.5004936456680298</v>
       </c>
       <c r="D215" s="2">
         <v>1.4100573062896729</v>
       </c>
       <c r="E215" s="2">
-        <v>1.3207083940505981</v>
+        <v>1.3203803300857544</v>
       </c>
     </row>
     <row r="216">
@@ -3744,13 +3744,13 @@
         <v>0.7629433274269104</v>
       </c>
       <c r="C216" s="2">
-        <v>0.60208398103713989</v>
+        <v>0.60146027803421021</v>
       </c>
       <c r="D216" s="2">
         <v>1.4014599323272705</v>
       </c>
       <c r="E216" s="2">
-        <v>1.2876381874084473</v>
+        <v>1.2872291803359985</v>
       </c>
     </row>
     <row r="217">
@@ -3761,13 +3761,13 @@
         <v>1.3377507925033569</v>
       </c>
       <c r="C217" s="2">
-        <v>1.2141908407211304</v>
+        <v>1.2140363454818726</v>
       </c>
       <c r="D217" s="2">
         <v>1.4594326019287109</v>
       </c>
       <c r="E217" s="2">
-        <v>1.3459106683731079</v>
+        <v>1.3454582691192627</v>
       </c>
     </row>
     <row r="218">
@@ -3778,13 +3778,13 @@
         <v>1.3498668670654297</v>
       </c>
       <c r="C218" s="2">
-        <v>1.2255334854125977</v>
+        <v>1.2256479263305664</v>
       </c>
       <c r="D218" s="2">
         <v>1.3760491609573364</v>
       </c>
       <c r="E218" s="2">
-        <v>1.2531061172485352</v>
+        <v>1.252598762512207</v>
       </c>
     </row>
     <row r="219">
@@ -3795,13 +3795,13 @@
         <v>0.70195966958999634</v>
       </c>
       <c r="C219" s="2">
-        <v>0.60709798336029053</v>
+        <v>0.60546815395355225</v>
       </c>
       <c r="D219" s="2">
         <v>1.2467386722564697</v>
       </c>
       <c r="E219" s="2">
-        <v>1.1659371852874756</v>
+        <v>1.1653214693069458</v>
       </c>
     </row>
     <row r="220">
@@ -3812,13 +3812,13 @@
         <v>1.6405009031295776</v>
       </c>
       <c r="C220" s="2">
-        <v>1.4241571426391602</v>
+        <v>1.4234192371368408</v>
       </c>
       <c r="D220" s="2">
         <v>1.2592763900756836</v>
       </c>
       <c r="E220" s="2">
-        <v>1.1754860877990723</v>
+        <v>1.1748902797698975</v>
       </c>
     </row>
     <row r="221">
@@ -3829,13 +3829,13 @@
         <v>2.1597869396209717</v>
       </c>
       <c r="C221" s="2">
-        <v>1.9521653652191162</v>
+        <v>1.9517391920089722</v>
       </c>
       <c r="D221" s="2">
         <v>1.2806359529495239</v>
       </c>
       <c r="E221" s="2">
-        <v>1.2058370113372803</v>
+        <v>1.2052390575408936</v>
       </c>
     </row>
     <row r="222">
@@ -3846,13 +3846,13 @@
         <v>0.84222668409347534</v>
       </c>
       <c r="C222" s="2">
-        <v>0.79093199968338013</v>
+        <v>0.79048502445220947</v>
       </c>
       <c r="D222" s="2">
         <v>1.3025666475296021</v>
       </c>
       <c r="E222" s="2">
-        <v>1.2221530675888062</v>
+        <v>1.2214998006820679</v>
       </c>
     </row>
     <row r="223">
@@ -3863,13 +3863,13 @@
         <v>0.82869219779968262</v>
       </c>
       <c r="C223" s="2">
-        <v>1.1761064529418945</v>
+        <v>1.1751431226730347</v>
       </c>
       <c r="D223" s="2">
         <v>1.3114937543869019</v>
       </c>
       <c r="E223" s="2">
-        <v>1.2365409135818481</v>
+        <v>1.2358386516571045</v>
       </c>
     </row>
     <row r="224">
@@ -3880,13 +3880,13 @@
         <v>1.709760308265686</v>
       </c>
       <c r="C224" s="2">
-        <v>1.5871076583862305</v>
+        <v>1.5866127014160156</v>
       </c>
       <c r="D224" s="2">
         <v>1.2868443727493286</v>
       </c>
       <c r="E224" s="2">
-        <v>1.2131261825561523</v>
+        <v>1.2126723527908325</v>
       </c>
     </row>
     <row r="225">
@@ -3894,16 +3894,16 @@
         <v>35278</v>
       </c>
       <c r="B225" s="2">
-        <v>0.95517957210540771</v>
+        <v>0.95517957210540772</v>
       </c>
       <c r="C225" s="2">
-        <v>0.87524169683456421</v>
+        <v>0.87460023164749146</v>
       </c>
       <c r="D225" s="2">
         <v>1.3425217866897583</v>
       </c>
       <c r="E225" s="2">
-        <v>1.2802610397338867</v>
+        <v>1.2798749208450317</v>
       </c>
     </row>
     <row r="226">
@@ -3914,13 +3914,13 @@
         <v>1.5351262092590332</v>
       </c>
       <c r="C226" s="2">
-        <v>1.3610358238220215</v>
+        <v>1.3603825569152832</v>
       </c>
       <c r="D226" s="2">
         <v>1.2683688402175903</v>
       </c>
       <c r="E226" s="2">
-        <v>1.2057598829269409</v>
+        <v>1.205428957939148</v>
       </c>
     </row>
     <row r="227">
@@ -3931,13 +3931,13 @@
         <v>1.4302109479904175</v>
       </c>
       <c r="C227" s="2">
-        <v>1.3550238609313965</v>
+        <v>1.3546973466873169</v>
       </c>
       <c r="D227" s="2">
         <v>1.4131536483764648</v>
       </c>
       <c r="E227" s="2">
-        <v>1.3542530536651611</v>
+        <v>1.3539190292358398</v>
       </c>
     </row>
     <row r="228">
@@ -3948,13 +3948,13 @@
         <v>0.48011556267738342</v>
       </c>
       <c r="C228" s="2">
-        <v>0.39636525511741638</v>
+        <v>0.39697167277336121</v>
       </c>
       <c r="D228" s="2">
         <v>1.4169635772705078</v>
       </c>
       <c r="E228" s="2">
-        <v>1.2884345054626465</v>
+        <v>1.2881851196289063</v>
       </c>
     </row>
     <row r="229">
@@ -3965,13 +3965,13 @@
         <v>2.1415979862213135</v>
       </c>
       <c r="C229" s="2">
-        <v>2.0283715724945068</v>
+        <v>2.0282423496246338</v>
       </c>
       <c r="D229" s="2">
         <v>1.3714867830276489</v>
       </c>
       <c r="E229" s="2">
-        <v>1.2096420526504517</v>
+        <v>1.2094435691833496</v>
       </c>
     </row>
     <row r="230">
@@ -3982,13 +3982,13 @@
         <v>1.4924100637435913</v>
       </c>
       <c r="C230" s="2">
-        <v>1.2816545963287354</v>
+        <v>1.2817256450653076</v>
       </c>
       <c r="D230" s="2">
         <v>1.3999699354171753</v>
       </c>
       <c r="E230" s="2">
-        <v>1.2471990585327148</v>
+        <v>1.2470570802688599</v>
       </c>
     </row>
     <row r="231">
@@ -3999,13 +3999,13 @@
         <v>2.1452901363372803</v>
       </c>
       <c r="C231" s="2">
-        <v>2.1273708343505859</v>
+        <v>2.1268959045410156</v>
       </c>
       <c r="D231" s="2">
         <v>1.3249143362045288</v>
       </c>
       <c r="E231" s="2">
-        <v>1.1678000688552856</v>
+        <v>1.167589545249939</v>
       </c>
     </row>
     <row r="232">
@@ -4016,13 +4016,13 @@
         <v>0.86298137903213501</v>
       </c>
       <c r="C232" s="2">
-        <v>0.58373874425888062</v>
+        <v>0.58353716135025024</v>
       </c>
       <c r="D232" s="2">
         <v>1.2097835540771484</v>
       </c>
       <c r="E232" s="2">
-        <v>1.0217790603637695</v>
+        <v>1.0214786529541016</v>
       </c>
     </row>
     <row r="233">
@@ -4033,13 +4033,13 @@
         <v>1.3004688024520874</v>
       </c>
       <c r="C233" s="2">
-        <v>0.87797558307647705</v>
+        <v>0.87793886661529541</v>
       </c>
       <c r="D233" s="2">
         <v>1.3219703435897827</v>
       </c>
       <c r="E233" s="2">
-        <v>1.0538878440856934</v>
+        <v>1.0534986257553101</v>
       </c>
     </row>
     <row r="234">
@@ -4050,13 +4050,13 @@
         <v>1.2115287780761719</v>
       </c>
       <c r="C234" s="2">
-        <v>1.213255763053894</v>
+        <v>1.2131218910217285</v>
       </c>
       <c r="D234" s="2">
         <v>1.226536750793457</v>
       </c>
       <c r="E234" s="2">
-        <v>1.0039576292037964</v>
+        <v>1.0035443305969238</v>
       </c>
     </row>
     <row r="235">
@@ -4067,13 +4067,13 @@
         <v>0.85962575674057007</v>
       </c>
       <c r="C235" s="2">
-        <v>0.64644402265548706</v>
+        <v>0.64517533779144287</v>
       </c>
       <c r="D235" s="2">
         <v>1.2475858926773071</v>
       </c>
       <c r="E235" s="2">
-        <v>1.0399459600448608</v>
+        <v>1.0393962860107422</v>
       </c>
     </row>
     <row r="236">
@@ -4084,13 +4084,13 @@
         <v>0.39403358101844788</v>
       </c>
       <c r="C236" s="2">
-        <v>0.040835406631231308</v>
+        <v>0.039698928594589233</v>
       </c>
       <c r="D236" s="2">
         <v>1.1907250881195068</v>
       </c>
       <c r="E236" s="2">
-        <v>0.95827382802963257</v>
+        <v>0.95770573616027832</v>
       </c>
     </row>
     <row r="237">
@@ -4101,13 +4101,13 @@
         <v>1.4897962808609009</v>
       </c>
       <c r="C237" s="2">
-        <v>0.68534374237060547</v>
+        <v>0.68515157699584961</v>
       </c>
       <c r="D237" s="2">
         <v>1.2677416801452637</v>
       </c>
       <c r="E237" s="2">
-        <v>1.0483382940292358</v>
+        <v>1.0477157831192017</v>
       </c>
     </row>
     <row r="238">
@@ -4118,13 +4118,13 @@
         <v>1.2826958894729614</v>
       </c>
       <c r="C238" s="2">
-        <v>1.5790001153945923</v>
+        <v>1.5786539316177368</v>
       </c>
       <c r="D238" s="2">
         <v>1.1957470178604126</v>
       </c>
       <c r="E238" s="2">
-        <v>0.99981731176376343</v>
+        <v>0.99921160936355591</v>
       </c>
     </row>
     <row r="239">
@@ -4135,13 +4135,13 @@
         <v>1.6818523406982422</v>
       </c>
       <c r="C239" s="2">
-        <v>1.6055494546890259</v>
+        <v>1.6043930053710938</v>
       </c>
       <c r="D239" s="2">
         <v>1.1350691318511963</v>
       </c>
       <c r="E239" s="2">
-        <v>0.92146027088165283</v>
+        <v>0.92074781656265259</v>
       </c>
     </row>
     <row r="240">
@@ -4152,13 +4152,13 @@
         <v>1.6335426568984985</v>
       </c>
       <c r="C240" s="2">
-        <v>1.3923214673995972</v>
+        <v>1.3916810750961304</v>
       </c>
       <c r="D240" s="2">
         <v>1.1523436307907104</v>
       </c>
       <c r="E240" s="2">
-        <v>0.93677824735641479</v>
+        <v>0.93618345260620117</v>
       </c>
     </row>
     <row r="241">
@@ -4169,13 +4169,13 @@
         <v>1.5561305284500122</v>
       </c>
       <c r="C241" s="2">
-        <v>1.3943195343017578</v>
+        <v>1.3936272859573364</v>
       </c>
       <c r="D241" s="2">
         <v>1.2008846998214722</v>
       </c>
       <c r="E241" s="2">
-        <v>1.0000077486038208</v>
+        <v>0.99964320659637451</v>
       </c>
     </row>
     <row r="242">
@@ -4186,13 +4186,13 @@
         <v>0.65251767635345459</v>
       </c>
       <c r="C242" s="2">
-        <v>0.44128632545471191</v>
+        <v>0.44140154123306274</v>
       </c>
       <c r="D242" s="2">
         <v>1.0594527721405029</v>
       </c>
       <c r="E242" s="2">
-        <v>0.91220372915267944</v>
+        <v>0.912006676197052</v>
       </c>
     </row>
     <row r="243">
@@ -4203,13 +4203,13 @@
         <v>0.66542726755142212</v>
       </c>
       <c r="C243" s="2">
-        <v>0.50804245471954346</v>
+        <v>0.50694757699966431</v>
       </c>
       <c r="D243" s="2">
         <v>0.9532167911529541</v>
       </c>
       <c r="E243" s="2">
-        <v>0.73556208610534668</v>
+        <v>0.73531872034072876</v>
       </c>
     </row>
     <row r="244">
@@ -4220,13 +4220,13 @@
         <v>1.0150959491729736</v>
       </c>
       <c r="C244" s="2">
-        <v>0.78430598974227905</v>
+        <v>0.78409641981124878</v>
       </c>
       <c r="D244" s="2">
         <v>0.92334574460983276</v>
       </c>
       <c r="E244" s="2">
-        <v>0.69176745414733887</v>
+        <v>0.69155848026275635</v>
       </c>
     </row>
     <row r="245">
@@ -4237,13 +4237,13 @@
         <v>0.83090418577194214</v>
       </c>
       <c r="C245" s="2">
-        <v>0.6099008321762085</v>
+        <v>0.6108364462852478</v>
       </c>
       <c r="D245" s="2">
         <v>0.82680964469909668</v>
       </c>
       <c r="E245" s="2">
-        <v>0.60137945413589478</v>
+        <v>0.60120266675949097</v>
       </c>
     </row>
     <row r="246">
@@ -4254,13 +4254,13 @@
         <v>0.21690866351127625</v>
       </c>
       <c r="C246" s="2">
-        <v>-0.10489238798618317</v>
+        <v>-0.10357706993818283</v>
       </c>
       <c r="D246" s="2">
         <v>0.69214910268783569</v>
       </c>
       <c r="E246" s="2">
-        <v>0.47607448697090149</v>
+        <v>0.47584396600723267</v>
       </c>
     </row>
     <row r="247">
@@ -4271,13 +4271,13 @@
         <v>0.32657158374786377</v>
       </c>
       <c r="C247" s="2">
-        <v>-0.010775026865303516</v>
+        <v>-0.011538038030266762</v>
       </c>
       <c r="D247" s="2">
         <v>0.65337765216827393</v>
       </c>
       <c r="E247" s="2">
-        <v>0.50683927536010742</v>
+        <v>0.50661164522171021</v>
       </c>
     </row>
     <row r="248">
@@ -4288,13 +4288,13 @@
         <v>1.4130131006240845</v>
       </c>
       <c r="C248" s="2">
-        <v>1.2113981246948242</v>
+        <v>1.2105510234832764</v>
       </c>
       <c r="D248" s="2">
         <v>0.57381993532180786</v>
       </c>
       <c r="E248" s="2">
-        <v>0.43268701434135437</v>
+        <v>0.43258798122406006</v>
       </c>
     </row>
     <row r="249">
@@ -4305,13 +4305,13 @@
         <v>0.764717698097229</v>
       </c>
       <c r="C249" s="2">
-        <v>0.57882922887802124</v>
+        <v>0.57847887277603149</v>
       </c>
       <c r="D249" s="2">
         <v>0.60466235876083374</v>
       </c>
       <c r="E249" s="2">
-        <v>0.45988354086875916</v>
+        <v>0.45986071228981018</v>
       </c>
     </row>
     <row r="250">
@@ -4319,16 +4319,16 @@
         <v>36039</v>
       </c>
       <c r="B250" s="2">
-        <v>0.34418559074401855</v>
+        <v>0.34418559074401856</v>
       </c>
       <c r="C250" s="2">
-        <v>0.26657477021217346</v>
+        <v>0.26539903879165649</v>
       </c>
       <c r="D250" s="2">
         <v>0.58481937646865845</v>
       </c>
       <c r="E250" s="2">
-        <v>0.46838086843490601</v>
+        <v>0.46820741891860962</v>
       </c>
     </row>
     <row r="251">
@@ -4339,13 +4339,13 @@
         <v>0.30357509851455688</v>
       </c>
       <c r="C251" s="2">
-        <v>0.71816956996917725</v>
+        <v>0.71831029653549194</v>
       </c>
       <c r="D251" s="2">
         <v>0.60623729228973389</v>
       </c>
       <c r="E251" s="2">
-        <v>0.46893107891082764</v>
+        <v>0.46853390336036682</v>
       </c>
     </row>
     <row r="252">
@@ -4356,13 +4356,13 @@
         <v>-0.05059230700135231</v>
       </c>
       <c r="C252" s="2">
-        <v>-0.15932804346084595</v>
+        <v>-0.15926510095596314</v>
       </c>
       <c r="D252" s="2">
         <v>0.53157806396484375</v>
       </c>
       <c r="E252" s="2">
-        <v>0.38784614205360413</v>
+        <v>0.38738644123077393</v>
       </c>
     </row>
     <row r="253">
@@ -4370,16 +4370,16 @@
         <v>36130</v>
       </c>
       <c r="B253" s="2">
-        <v>1.2926775217056274</v>
+        <v>1.2926775217056275</v>
       </c>
       <c r="C253" s="2">
-        <v>1.0290746688842773</v>
+        <v>1.0295509099960327</v>
       </c>
       <c r="D253" s="2">
         <v>0.52091187238693237</v>
       </c>
       <c r="E253" s="2">
-        <v>0.38449424505233765</v>
+        <v>0.38414135575294495</v>
       </c>
     </row>
     <row r="254">
@@ -4390,13 +4390,13 @@
         <v>0.65231764316558838</v>
       </c>
       <c r="C254" s="2">
-        <v>0.68637681007385254</v>
+        <v>0.68595677614212036</v>
       </c>
       <c r="D254" s="2">
         <v>0.6122734546661377</v>
       </c>
       <c r="E254" s="2">
-        <v>0.46670779585838318</v>
+        <v>0.46635621786117554</v>
       </c>
     </row>
     <row r="255">
@@ -4407,13 +4407,13 @@
         <v>0.4096699059009552</v>
       </c>
       <c r="C255" s="2">
-        <v>-0.099940463900566101</v>
+        <v>-0.10063855350017548</v>
       </c>
       <c r="D255" s="2">
         <v>0.65969175100326538</v>
       </c>
       <c r="E255" s="2">
-        <v>0.5135577917098999</v>
+        <v>0.5132628083229065</v>
       </c>
     </row>
     <row r="256">
@@ -4424,13 +4424,13 @@
         <v>-0.34536159038543701</v>
       </c>
       <c r="C256" s="2">
-        <v>-0.74053949117660522</v>
+        <v>-0.74186533689498901</v>
       </c>
       <c r="D256" s="2">
         <v>0.67694485187530518</v>
       </c>
       <c r="E256" s="2">
-        <v>0.46594470739364624</v>
+        <v>0.4655994176864624</v>
       </c>
     </row>
     <row r="257">
@@ -4441,13 +4441,13 @@
         <v>1.3170170783996582</v>
       </c>
       <c r="C257" s="2">
-        <v>1.1812312602996826</v>
+        <v>1.1813452243804932</v>
       </c>
       <c r="D257" s="2">
         <v>0.81472593545913696</v>
       </c>
       <c r="E257" s="2">
-        <v>0.60867303609848022</v>
+        <v>0.60825324058532715</v>
       </c>
     </row>
     <row r="258">
@@ -4458,13 +4458,13 @@
         <v>1.5869721174240112</v>
       </c>
       <c r="C258" s="2">
-        <v>1.3187510967254639</v>
+        <v>1.3184126615524292</v>
       </c>
       <c r="D258" s="2">
         <v>0.78165441751480103</v>
       </c>
       <c r="E258" s="2">
-        <v>0.59362012147903442</v>
+        <v>0.59306979179382324</v>
       </c>
     </row>
     <row r="259">
@@ -4475,13 +4475,13 @@
         <v>0.7709500789642334</v>
       </c>
       <c r="C259" s="2">
-        <v>0.6882249116897583</v>
+        <v>0.68755835294723511</v>
       </c>
       <c r="D259" s="2">
         <v>0.8881373405456543</v>
       </c>
       <c r="E259" s="2">
-        <v>0.62836074829101562</v>
+        <v>0.627785325050354</v>
       </c>
     </row>
     <row r="260">
@@ -4492,13 +4492,13 @@
         <v>0.45885300636291504</v>
       </c>
       <c r="C260" s="2">
-        <v>0.2896515429019928</v>
+        <v>0.28933990001678467</v>
       </c>
       <c r="D260" s="2">
         <v>0.83569478988647461</v>
       </c>
       <c r="E260" s="2">
-        <v>0.61934405565261841</v>
+        <v>0.61872559785842896</v>
       </c>
     </row>
     <row r="261">
@@ -4509,13 +4509,13 @@
         <v>1.1894376277923584</v>
       </c>
       <c r="C261" s="2">
-        <v>1.1252269744873047</v>
+        <v>1.1246192455291748</v>
       </c>
       <c r="D261" s="2">
         <v>0.96169596910476685</v>
       </c>
       <c r="E261" s="2">
-        <v>0.76976209878921509</v>
+        <v>0.76914256811141968</v>
       </c>
     </row>
     <row r="262">
@@ -4526,13 +4526,13 @@
         <v>0.99503380060195923</v>
       </c>
       <c r="C262" s="2">
-        <v>0.89359837770462036</v>
+        <v>0.89289987087249756</v>
       </c>
       <c r="D262" s="2">
         <v>0.8937380313873291</v>
       </c>
       <c r="E262" s="2">
-        <v>0.73037940263748169</v>
+        <v>0.72969907522201538</v>
       </c>
     </row>
     <row r="263">
@@ -4543,13 +4543,13 @@
         <v>1.610663890838623</v>
       </c>
       <c r="C263" s="2">
-        <v>0.99904251098632812</v>
+        <v>0.99839675426483154</v>
       </c>
       <c r="D263" s="2">
         <v>0.73482543230056763</v>
       </c>
       <c r="E263" s="2">
-        <v>0.55799102783203125</v>
+        <v>0.55740576982498169</v>
       </c>
     </row>
     <row r="264">
@@ -4560,13 +4560,13 @@
         <v>-0.062313128262758255</v>
       </c>
       <c r="C264" s="2">
-        <v>-0.18109051883220673</v>
+        <v>-0.18217603862285614</v>
       </c>
       <c r="D264" s="2">
         <v>0.79958230257034302</v>
       </c>
       <c r="E264" s="2">
-        <v>0.63016766309738159</v>
+        <v>0.62962448596954346</v>
       </c>
     </row>
     <row r="265">
@@ -4577,13 +4577,13 @@
         <v>0.78864908218383789</v>
       </c>
       <c r="C265" s="2">
-        <v>0.61322283744812012</v>
+        <v>0.61188721656799317</v>
       </c>
       <c r="D265" s="2">
         <v>0.84459418058395386</v>
       </c>
       <c r="E265" s="2">
-        <v>0.64331257343292236</v>
+        <v>0.64276385307312012</v>
       </c>
     </row>
     <row r="266">
@@ -4594,13 +4594,13 @@
         <v>0.70539605617523193</v>
       </c>
       <c r="C266" s="2">
-        <v>0.82678699493408203</v>
+        <v>0.82635366916656494</v>
       </c>
       <c r="D266" s="2">
         <v>0.79766225814819336</v>
       </c>
       <c r="E266" s="2">
-        <v>0.56470412015914917</v>
+        <v>0.56425148248672485</v>
       </c>
     </row>
     <row r="267">
@@ -4611,13 +4611,13 @@
         <v>0.15675865113735199</v>
       </c>
       <c r="C267" s="2">
-        <v>-0.2327442467212677</v>
+        <v>-0.23222710192203522</v>
       </c>
       <c r="D267" s="2">
         <v>0.81984817981719971</v>
       </c>
       <c r="E267" s="2">
-        <v>0.59318208694458008</v>
+        <v>0.5925678014755249</v>
       </c>
     </row>
     <row r="268">
@@ -4628,13 +4628,13 @@
         <v>1.3537617921829224</v>
       </c>
       <c r="C268" s="2">
-        <v>1.3378145694732666</v>
+        <v>1.3375269174575806</v>
       </c>
       <c r="D268" s="2">
         <v>0.65242928266525269</v>
       </c>
       <c r="E268" s="2">
-        <v>0.46716704964637756</v>
+        <v>0.46661993861198425</v>
       </c>
     </row>
     <row r="269">
@@ -4645,13 +4645,13 @@
         <v>0.8639596700668335</v>
       </c>
       <c r="C269" s="2">
-        <v>0.4079558253288269</v>
+        <v>0.40759402513504028</v>
       </c>
       <c r="D269" s="2">
         <v>0.79600381851196289</v>
       </c>
       <c r="E269" s="2">
-        <v>0.55810761451721191</v>
+        <v>0.55765259265899658</v>
       </c>
     </row>
     <row r="270">
@@ -4662,13 +4662,13 @@
         <v>0.76705074310302734</v>
       </c>
       <c r="C270" s="2">
-        <v>0.41775074601173401</v>
+        <v>0.41800805926322937</v>
       </c>
       <c r="D270" s="2">
         <v>0.85385382175445557</v>
       </c>
       <c r="E270" s="2">
-        <v>0.62029331922531128</v>
+        <v>0.61992168426513672</v>
       </c>
     </row>
     <row r="271">
@@ -4679,13 +4679,13 @@
         <v>1.1947067975997925</v>
       </c>
       <c r="C271" s="2">
-        <v>1.1498998403549194</v>
+        <v>1.1477466821670532</v>
       </c>
       <c r="D271" s="2">
         <v>0.93783879280090332</v>
       </c>
       <c r="E271" s="2">
-        <v>0.70002597570419312</v>
+        <v>0.69956278800964355</v>
       </c>
     </row>
     <row r="272">
@@ -4696,13 +4696,13 @@
         <v>0.10389363765716553</v>
       </c>
       <c r="C272" s="2">
-        <v>-0.13509258627891541</v>
+        <v>-0.13513390719890595</v>
       </c>
       <c r="D272" s="2">
         <v>1.095093846321106</v>
       </c>
       <c r="E272" s="2">
-        <v>0.8776511549949646</v>
+        <v>0.87702149152755737</v>
       </c>
     </row>
     <row r="273">
@@ -4710,16 +4710,16 @@
         <v>36739</v>
       </c>
       <c r="B273" s="2">
-        <v>1.2298578023910522</v>
+        <v>1.2298578023910523</v>
       </c>
       <c r="C273" s="2">
-        <v>0.63737452030181885</v>
+        <v>0.63711792230606079</v>
       </c>
       <c r="D273" s="2">
         <v>1.0210686922073364</v>
       </c>
       <c r="E273" s="2">
-        <v>0.76793992519378662</v>
+        <v>0.76730966567993164</v>
       </c>
     </row>
     <row r="274">
@@ -4730,13 +4730,13 @@
         <v>1.3092989921569824</v>
       </c>
       <c r="C274" s="2">
-        <v>1.1728942394256592</v>
+        <v>1.1723089218139648</v>
       </c>
       <c r="D274" s="2">
-        <v>1.0837783813476562</v>
+        <v>1.0837783813476563</v>
       </c>
       <c r="E274" s="2">
-        <v>0.87988388538360596</v>
+        <v>0.87927162647247314</v>
       </c>
     </row>
     <row r="275">
@@ -4747,13 +4747,13 @@
         <v>1.4612609148025513</v>
       </c>
       <c r="C275" s="2">
-        <v>1.5443810224533081</v>
+        <v>1.5431233644485474</v>
       </c>
       <c r="D275" s="2">
         <v>1.153179407119751</v>
       </c>
       <c r="E275" s="2">
-        <v>0.9971470832824707</v>
+        <v>0.99649381637573242</v>
       </c>
     </row>
     <row r="276">
@@ -4764,13 +4764,13 @@
         <v>1.5720547437667847</v>
       </c>
       <c r="C276" s="2">
-        <v>1.3658822774887085</v>
+        <v>1.3649013042449951</v>
       </c>
       <c r="D276" s="2">
         <v>1.0944944620132446</v>
       </c>
       <c r="E276" s="2">
-        <v>0.93508374691009521</v>
+        <v>0.9346928596496582</v>
       </c>
     </row>
     <row r="277">
@@ -4781,13 +4781,13 @@
         <v>0.68753510713577271</v>
       </c>
       <c r="C277" s="2">
-        <v>0.35041359066963196</v>
+        <v>0.35012036561965942</v>
       </c>
       <c r="D277" s="2">
         <v>1.1808677911758423</v>
       </c>
       <c r="E277" s="2">
-        <v>1.046619176864624</v>
+        <v>1.0462468862533569</v>
       </c>
     </row>
     <row r="278">
@@ -4798,13 +4798,13 @@
         <v>1.4283463954925537</v>
       </c>
       <c r="C278" s="2">
-        <v>1.4154512882232666</v>
+        <v>1.4152518510818482</v>
       </c>
       <c r="D278" s="2">
         <v>1.1904867887496948</v>
       </c>
       <c r="E278" s="2">
-        <v>1.1166583299636841</v>
+        <v>1.1162217855453491</v>
       </c>
     </row>
     <row r="279">
@@ -4815,13 +4815,13 @@
         <v>1.3916599750518799</v>
       </c>
       <c r="C279" s="2">
-        <v>1.4731193780899048</v>
+        <v>1.4730076789855957</v>
       </c>
       <c r="D279" s="2">
         <v>1.1723114252090454</v>
       </c>
       <c r="E279" s="2">
-        <v>1.1027313470840454</v>
+        <v>1.1023408174514771</v>
       </c>
     </row>
     <row r="280">
@@ -4829,16 +4829,16 @@
         <v>36951</v>
       </c>
       <c r="B280" s="2">
-        <v>0.66654276847839355</v>
+        <v>0.66654276847839356</v>
       </c>
       <c r="C280" s="2">
-        <v>0.59132981300354004</v>
+        <v>0.59153848886489868</v>
       </c>
       <c r="D280" s="2">
         <v>1.0741112232208252</v>
       </c>
       <c r="E280" s="2">
-        <v>0.99958395957946777</v>
+        <v>0.99940735101699829</v>
       </c>
     </row>
     <row r="281">
@@ -4849,13 +4849,13 @@
         <v>0.88125371932983398</v>
       </c>
       <c r="C281" s="2">
-        <v>0.86872637271881104</v>
+        <v>0.86885237693786621</v>
       </c>
       <c r="D281" s="2">
         <v>0.90581309795379639</v>
       </c>
       <c r="E281" s="2">
-        <v>0.84471166133880615</v>
+        <v>0.84466856718063355</v>
       </c>
     </row>
     <row r="282">
@@ -4866,13 +4866,13 @@
         <v>1.3164287805557251</v>
       </c>
       <c r="C282" s="2">
-        <v>1.2677266597747803</v>
+        <v>1.2668920755386353</v>
       </c>
       <c r="D282" s="2">
         <v>0.85196346044540405</v>
       </c>
       <c r="E282" s="2">
-        <v>0.79735571146011353</v>
+        <v>0.79736286401748657</v>
       </c>
     </row>
     <row r="283">
@@ -4883,13 +4883,13 @@
         <v>1.1457201242446899</v>
       </c>
       <c r="C283" s="2">
-        <v>1.0475521087646484</v>
+        <v>1.0473799705505371</v>
       </c>
       <c r="D283" s="2">
         <v>0.66075843572616577</v>
       </c>
       <c r="E283" s="2">
-        <v>0.62302058935165405</v>
+        <v>0.62304431200027466</v>
       </c>
     </row>
     <row r="284">
@@ -4900,13 +4900,13 @@
         <v>0.57745933532714844</v>
       </c>
       <c r="C284" s="2">
-        <v>0.61605387926101685</v>
+        <v>0.6167222261428833</v>
       </c>
       <c r="D284" s="2">
         <v>0.48775473237037659</v>
       </c>
       <c r="E284" s="2">
-        <v>0.43099775910377502</v>
+        <v>0.43100029230117798</v>
       </c>
     </row>
     <row r="285">
@@ -4917,13 +4917,13 @@
         <v>0.057371422648429871</v>
       </c>
       <c r="C285" s="2">
-        <v>-0.027968097478151321</v>
+        <v>-0.027747670188546181</v>
       </c>
       <c r="D285" s="2">
         <v>0.38621607422828674</v>
       </c>
       <c r="E285" s="2">
-        <v>0.3231702446937561</v>
+        <v>0.32311400771141052</v>
       </c>
     </row>
     <row r="286">
@@ -4934,13 +4934,13 @@
         <v>0.20288874208927155</v>
       </c>
       <c r="C286" s="2">
-        <v>-0.075790069997310638</v>
+        <v>-0.075631201267242432</v>
       </c>
       <c r="D286" s="2">
         <v>0.33505240082740784</v>
       </c>
       <c r="E286" s="2">
-        <v>0.25964424014091492</v>
+        <v>0.25951182842254639</v>
       </c>
     </row>
     <row r="287">
@@ -4951,13 +4951,13 @@
         <v>-0.29249900579452515</v>
       </c>
       <c r="C287" s="2">
-        <v>-0.15356484055519104</v>
+        <v>-0.15361489355564118</v>
       </c>
       <c r="D287" s="2">
         <v>0.17591078579425812</v>
       </c>
       <c r="E287" s="2">
-        <v>0.095705218613147736</v>
+        <v>0.095654234290122986</v>
       </c>
     </row>
     <row r="288">
@@ -4968,13 +4968,13 @@
         <v>-0.16537320613861084</v>
       </c>
       <c r="C288" s="2">
-        <v>-0.25508594512939453</v>
+        <v>-0.25538861751556397</v>
       </c>
       <c r="D288" s="2">
         <v>0.15010015666484833</v>
       </c>
       <c r="E288" s="2">
-        <v>0.12034029513597488</v>
+        <v>0.12030179053544998</v>
       </c>
     </row>
     <row r="289">
@@ -4985,13 +4985,13 @@
         <v>-0.24730530381202698</v>
       </c>
       <c r="C289" s="2">
-        <v>-0.37911778688430786</v>
+        <v>-0.37943819165229797</v>
       </c>
       <c r="D289" s="2">
         <v>0.027002451941370964</v>
       </c>
       <c r="E289" s="2">
-        <v>0.17248097062110901</v>
+        <v>0.17233018577098847</v>
       </c>
     </row>
     <row r="290">
@@ -5002,13 +5002,13 @@
         <v>0.42078080773353577</v>
       </c>
       <c r="C290" s="2">
-        <v>0.29699215292930603</v>
+        <v>0.29643276333808899</v>
       </c>
       <c r="D290" s="2">
         <v>0.18852995336055756</v>
       </c>
       <c r="E290" s="2">
-        <v>0.32441377639770508</v>
+        <v>0.3242485523223877</v>
       </c>
     </row>
     <row r="291">
@@ -5019,13 +5019,13 @@
         <v>-0.11584587395191193</v>
       </c>
       <c r="C291" s="2">
-        <v>-0.2077244371175766</v>
+        <v>-0.20782628655433655</v>
       </c>
       <c r="D291" s="2">
         <v>0.20439910888671875</v>
       </c>
       <c r="E291" s="2">
-        <v>0.37321606278419495</v>
+        <v>0.37299934029579163</v>
       </c>
     </row>
     <row r="292">
@@ -5036,13 +5036,13 @@
         <v>0.91342443227767944</v>
       </c>
       <c r="C292" s="2">
-        <v>1.2692677974700928</v>
+        <v>1.2692079544067383</v>
       </c>
       <c r="D292" s="2">
         <v>0.26482987403869629</v>
       </c>
       <c r="E292" s="2">
-        <v>0.39656049013137817</v>
+        <v>0.39632117748260498</v>
       </c>
     </row>
     <row r="293">
@@ -5053,13 +5053,13 @@
         <v>-0.53041994571685791</v>
       </c>
       <c r="C293" s="2">
-        <v>1.085319995880127</v>
+        <v>1.0849778652191162</v>
       </c>
       <c r="D293" s="2">
         <v>0.30223485827445984</v>
       </c>
       <c r="E293" s="2">
-        <v>0.46654024720191956</v>
+        <v>0.46625292301177979</v>
       </c>
     </row>
     <row r="294">
@@ -5070,13 +5070,13 @@
         <v>1.5111188888549805</v>
       </c>
       <c r="C294" s="2">
-        <v>1.33942711353302</v>
+        <v>1.3395177125930786</v>
       </c>
       <c r="D294" s="2">
-        <v>0.37474364042282104</v>
+        <v>0.37474364042282105</v>
       </c>
       <c r="E294" s="2">
-        <v>0.56129896640777588</v>
+        <v>0.56098753213882446</v>
       </c>
     </row>
     <row r="295">
@@ -5087,13 +5087,13 @@
         <v>0.34571120142936707</v>
       </c>
       <c r="C295" s="2">
-        <v>0.36343041062355042</v>
+        <v>0.36312574148178101</v>
       </c>
       <c r="D295" s="2">
         <v>0.2809697687625885</v>
       </c>
       <c r="E295" s="2">
-        <v>0.45940816402435303</v>
+        <v>0.45920607447624207</v>
       </c>
     </row>
     <row r="296">
@@ -5104,13 +5104,13 @@
         <v>0.25137794017791748</v>
       </c>
       <c r="C296" s="2">
-        <v>0.056535031646490097</v>
+        <v>0.056281551718711853</v>
       </c>
       <c r="D296" s="2">
         <v>0.33217516541481018</v>
       </c>
       <c r="E296" s="2">
-        <v>0.50108975172042847</v>
+        <v>0.50077426433563232</v>
       </c>
     </row>
     <row r="297">
@@ -5121,13 +5121,13 @@
         <v>0.17127160727977753</v>
       </c>
       <c r="C297" s="2">
-        <v>0.37473189830780029</v>
+        <v>0.37399712204933167</v>
       </c>
       <c r="D297" s="2">
         <v>0.20555849373340607</v>
       </c>
       <c r="E297" s="2">
-        <v>0.33365106582641602</v>
+        <v>0.33331426978111267</v>
       </c>
     </row>
     <row r="298">
@@ -5138,13 +5138,13 @@
         <v>0.40527382493019104</v>
       </c>
       <c r="C298" s="2">
-        <v>0.47371047735214233</v>
+        <v>0.47317343950271607</v>
       </c>
       <c r="D298" s="2">
         <v>0.31881454586982727</v>
       </c>
       <c r="E298" s="2">
-        <v>0.24470518529415131</v>
+        <v>0.24438202381134033</v>
       </c>
     </row>
     <row r="299">
@@ -5155,13 +5155,13 @@
         <v>-0.42318412661552429</v>
       </c>
       <c r="C299" s="2">
-        <v>-0.62002474069595337</v>
+        <v>-0.61960041522979736</v>
       </c>
       <c r="D299" s="2">
-        <v>0.1601664125919342</v>
+        <v>0.16016641259193421</v>
       </c>
       <c r="E299" s="2">
-        <v>0.10674005001783371</v>
+        <v>0.10631889849901199</v>
       </c>
     </row>
     <row r="300">
@@ -5172,13 +5172,13 @@
         <v>0.34500259160995483</v>
       </c>
       <c r="C300" s="2">
-        <v>0.16740967333316803</v>
+        <v>0.16628757119178772</v>
       </c>
       <c r="D300" s="2">
         <v>0.19310443103313446</v>
       </c>
       <c r="E300" s="2">
-        <v>0.14701373875141144</v>
+        <v>0.14662088453769684</v>
       </c>
     </row>
     <row r="301">
@@ -5189,13 +5189,13 @@
         <v>-0.22612559795379639</v>
       </c>
       <c r="C301" s="2">
-        <v>-0.23768019676208496</v>
+        <v>-0.23793207108974457</v>
       </c>
       <c r="D301" s="2">
         <v>0.18243901431560516</v>
       </c>
       <c r="E301" s="2">
-        <v>0.14316870272159576</v>
+        <v>0.14279396831989288</v>
       </c>
     </row>
     <row r="302">
@@ -5206,13 +5206,13 @@
         <v>0.48888462781906128</v>
       </c>
       <c r="C302" s="2">
-        <v>0.28480693697929382</v>
+        <v>0.28458759188652039</v>
       </c>
       <c r="D302" s="2">
         <v>0.26868537068367004</v>
       </c>
       <c r="E302" s="2">
-        <v>0.19085387885570526</v>
+        <v>0.19047269225120544</v>
       </c>
     </row>
     <row r="303">
@@ -5223,13 +5223,13 @@
         <v>0.083285599946975708</v>
       </c>
       <c r="C303" s="2">
-        <v>0.097740955650806427</v>
+        <v>0.096949532628059387</v>
       </c>
       <c r="D303" s="2">
         <v>0.32962670922279358</v>
       </c>
       <c r="E303" s="2">
-        <v>0.22978492081165314</v>
+        <v>0.22950612008571625</v>
       </c>
     </row>
     <row r="304">
@@ -5240,13 +5240,13 @@
         <v>0.64215344190597534</v>
       </c>
       <c r="C304" s="2">
-        <v>0.72589361667633057</v>
+        <v>0.72584360837936401</v>
       </c>
       <c r="D304" s="2">
         <v>0.36689767241477966</v>
       </c>
       <c r="E304" s="2">
-        <v>0.26863560080528259</v>
+        <v>0.26835921406745911</v>
       </c>
     </row>
     <row r="305">
@@ -5257,13 +5257,13 @@
         <v>0.155389204621315</v>
       </c>
       <c r="C305" s="2">
-        <v>0.021929686889052391</v>
+        <v>0.021839343011379242</v>
       </c>
       <c r="D305" s="2">
-        <v>0.36518284678459167</v>
+        <v>0.36518284678459168</v>
       </c>
       <c r="E305" s="2">
-        <v>0.28077018260955811</v>
+        <v>0.28057557344436646</v>
       </c>
     </row>
     <row r="306">
@@ -5274,13 +5274,13 @@
         <v>0.94748872518539429</v>
       </c>
       <c r="C306" s="2">
-        <v>0.80389851331710815</v>
+        <v>0.80310559272766113</v>
       </c>
       <c r="D306" s="2">
         <v>0.45017626881599426</v>
       </c>
       <c r="E306" s="2">
-        <v>0.35742610692977905</v>
+        <v>0.35719197988510132</v>
       </c>
     </row>
     <row r="307">
@@ -5291,13 +5291,13 @@
         <v>0.95374596118927002</v>
       </c>
       <c r="C307" s="2">
-        <v>0.82408988475799561</v>
+        <v>0.8244742751121521</v>
       </c>
       <c r="D307" s="2">
-        <v>0.45430102944374084</v>
+        <v>0.45430102944374085</v>
       </c>
       <c r="E307" s="2">
-        <v>0.37437766790390015</v>
+        <v>0.37414184212684631</v>
       </c>
     </row>
     <row r="308">
@@ -5308,13 +5308,13 @@
         <v>-0.087745524942874908</v>
       </c>
       <c r="C308" s="2">
-        <v>-0.2703687846660614</v>
+        <v>-0.2699224054813385</v>
       </c>
       <c r="D308" s="2">
         <v>0.53140485286712646</v>
       </c>
       <c r="E308" s="2">
-        <v>0.44815760850906372</v>
+        <v>0.44794946908950806</v>
       </c>
     </row>
     <row r="309">
@@ -5325,13 +5325,13 @@
         <v>0.32956916093826294</v>
       </c>
       <c r="C309" s="2">
-        <v>0.27662092447280884</v>
+        <v>0.27623468637466431</v>
       </c>
       <c r="D309" s="2">
         <v>0.51833826303482056</v>
       </c>
       <c r="E309" s="2">
-        <v>0.44513317942619324</v>
+        <v>0.4448930025100708</v>
       </c>
     </row>
     <row r="310">
@@ -5342,13 +5342,13 @@
         <v>0.53881531953811646</v>
       </c>
       <c r="C310" s="2">
-        <v>0.45222321152687073</v>
+        <v>0.4516156017780304</v>
       </c>
       <c r="D310" s="2">
         <v>0.47942626476287842</v>
       </c>
       <c r="E310" s="2">
-        <v>0.40642973780632019</v>
+        <v>0.40612906217575073</v>
       </c>
     </row>
     <row r="311">
@@ -5359,13 +5359,13 @@
         <v>0.52600741386413574</v>
       </c>
       <c r="C311" s="2">
-        <v>0.4373708963394165</v>
+        <v>0.43713641166687012</v>
       </c>
       <c r="D311" s="2">
         <v>0.51304388046264648</v>
       </c>
       <c r="E311" s="2">
-        <v>0.42721867561340332</v>
+        <v>0.42696934938430786</v>
       </c>
     </row>
     <row r="312">
@@ -5376,13 +5376,13 @@
         <v>0.77722018957138062</v>
       </c>
       <c r="C312" s="2">
-        <v>0.76176059246063232</v>
+        <v>0.76121801137924194</v>
       </c>
       <c r="D312" s="2">
         <v>0.52808350324630737</v>
       </c>
       <c r="E312" s="2">
-        <v>0.44502419233322144</v>
+        <v>0.4446631669998169</v>
       </c>
     </row>
     <row r="313">
@@ -5393,13 +5393,13 @@
         <v>0.52455389499664307</v>
       </c>
       <c r="C313" s="2">
-        <v>0.69867360591888428</v>
+        <v>0.69833558797836304</v>
       </c>
       <c r="D313" s="2">
         <v>0.66772037744522095</v>
       </c>
       <c r="E313" s="2">
-        <v>0.60551029443740845</v>
+        <v>0.60509943962097168</v>
       </c>
     </row>
     <row r="314">
@@ -5410,13 +5410,13 @@
         <v>-0.19481883943080902</v>
       </c>
       <c r="C314" s="2">
-        <v>-0.32640117406845093</v>
+        <v>-0.32703608274459839</v>
       </c>
       <c r="D314" s="2">
         <v>0.7510601282119751</v>
       </c>
       <c r="E314" s="2">
-        <v>0.67720544338226318</v>
+        <v>0.67675638198852539</v>
       </c>
     </row>
     <row r="315">
@@ -5427,13 +5427,13 @@
         <v>1.2500473260879517</v>
       </c>
       <c r="C315" s="2">
-        <v>0.99099904298782349</v>
+        <v>0.99066817760467529</v>
       </c>
       <c r="D315" s="2">
         <v>0.71953278779983521</v>
       </c>
       <c r="E315" s="2">
-        <v>0.64000296592712402</v>
+        <v>0.63956397771835327</v>
       </c>
     </row>
     <row r="316">
@@ -5441,16 +5441,16 @@
         <v>38047</v>
       </c>
       <c r="B316" s="2">
-        <v>1.0891025066375732</v>
+        <v>1.0891025066375733</v>
       </c>
       <c r="C316" s="2">
-        <v>0.98433953523635864</v>
+        <v>0.98371851444244385</v>
       </c>
       <c r="D316" s="2">
         <v>0.77530133724212646</v>
       </c>
       <c r="E316" s="2">
-        <v>0.69285547733306885</v>
+        <v>0.69234514236450195</v>
       </c>
     </row>
     <row r="317">
@@ -5461,13 +5461,13 @@
         <v>1.1689862012863159</v>
       </c>
       <c r="C317" s="2">
-        <v>1.1740061044692993</v>
+        <v>1.1740043163299561</v>
       </c>
       <c r="D317" s="2">
-        <v>0.65982580184936523</v>
+        <v>0.65982580184936524</v>
       </c>
       <c r="E317" s="2">
-        <v>0.59020811319351196</v>
+        <v>0.58969151973724365</v>
       </c>
     </row>
     <row r="318">
@@ -5478,13 +5478,13 @@
         <v>1.0796271562576294</v>
       </c>
       <c r="C318" s="2">
-        <v>0.92187744379043579</v>
+        <v>0.92114698886871338</v>
       </c>
       <c r="D318" s="2">
         <v>0.67685574293136597</v>
       </c>
       <c r="E318" s="2">
-        <v>0.59767836332321167</v>
+        <v>0.59710103273391724</v>
       </c>
     </row>
     <row r="319">
@@ -5495,13 +5495,13 @@
         <v>0.25506904721260071</v>
       </c>
       <c r="C319" s="2">
-        <v>0.1174006462097168</v>
+        <v>0.11688412725925446</v>
       </c>
       <c r="D319" s="2">
         <v>0.76814621686935425</v>
       </c>
       <c r="E319" s="2">
-        <v>0.69130510091781616</v>
+        <v>0.69072377681732178</v>
       </c>
     </row>
     <row r="320">
@@ -5512,13 +5512,13 @@
         <v>1.0279244184494019</v>
       </c>
       <c r="C320" s="2">
-        <v>0.91304367780685425</v>
+        <v>0.91216641664505005</v>
       </c>
       <c r="D320" s="2">
         <v>0.77619993686676025</v>
       </c>
       <c r="E320" s="2">
-        <v>0.71598958969116211</v>
+        <v>0.71540772914886475</v>
       </c>
     </row>
     <row r="321">
@@ -5529,13 +5529,13 @@
         <v>-0.26205968856811523</v>
       </c>
       <c r="C321" s="2">
-        <v>-0.16206562519073486</v>
+        <v>-0.16266447305679321</v>
       </c>
       <c r="D321" s="2">
         <v>0.75808358192443848</v>
       </c>
       <c r="E321" s="2">
-        <v>0.68180829286575317</v>
+        <v>0.6812359094619751</v>
       </c>
     </row>
     <row r="322">
@@ -5546,13 +5546,13 @@
         <v>0.67782378196716309</v>
       </c>
       <c r="C322" s="2">
-        <v>0.76590561866760254</v>
+        <v>0.76502156257629395</v>
       </c>
       <c r="D322" s="2">
-        <v>0.63281553983688354</v>
+        <v>0.63281553983688355</v>
       </c>
       <c r="E322" s="2">
-        <v>0.62505680322647095</v>
+        <v>0.62440866231918335</v>
       </c>
     </row>
     <row r="323">
@@ -5563,13 +5563,13 @@
         <v>0.62679529190063477</v>
       </c>
       <c r="C323" s="2">
-        <v>0.5162392258644104</v>
+        <v>0.51556843519210816</v>
       </c>
       <c r="D323" s="2">
         <v>0.59207838773727417</v>
       </c>
       <c r="E323" s="2">
-        <v>0.58859747648239136</v>
+        <v>0.58792299032211304</v>
       </c>
     </row>
     <row r="324">
@@ -5580,13 +5580,13 @@
         <v>1.32253098487854</v>
       </c>
       <c r="C324" s="2">
-        <v>1.2131597995758057</v>
+        <v>1.2128236293792725</v>
       </c>
       <c r="D324" s="2">
         <v>0.67519795894622803</v>
       </c>
       <c r="E324" s="2">
-        <v>0.67998713254928589</v>
+        <v>0.67928081750869751</v>
       </c>
     </row>
     <row r="325">
@@ -5597,13 +5597,13 @@
         <v>0.92605489492416382</v>
       </c>
       <c r="C325" s="2">
-        <v>0.67670774459838867</v>
+        <v>0.67617201805114746</v>
       </c>
       <c r="D325" s="2">
         <v>0.66264694929122925</v>
       </c>
       <c r="E325" s="2">
-        <v>0.67020398378372192</v>
+        <v>0.66946077346801758</v>
       </c>
     </row>
     <row r="326">
@@ -5614,13 +5614,13 @@
         <v>0.041573919355869293</v>
       </c>
       <c r="C326" s="2">
-        <v>0.66324257850646973</v>
+        <v>0.66255921125411987</v>
       </c>
       <c r="D326" s="2">
         <v>0.77779829502105713</v>
       </c>
       <c r="E326" s="2">
-        <v>0.77053862810134888</v>
+        <v>0.76979976892471313</v>
       </c>
     </row>
     <row r="327">
@@ -5631,13 +5631,13 @@
         <v>0.71299290657043457</v>
       </c>
       <c r="C327" s="2">
-        <v>0.59374356269836426</v>
+        <v>0.59277617931365967</v>
       </c>
       <c r="D327" s="2">
-        <v>0.81517708301544189</v>
+        <v>0.8151770830154419</v>
       </c>
       <c r="E327" s="2">
-        <v>0.78519773483276367</v>
+        <v>0.78452128171920776</v>
       </c>
     </row>
     <row r="328">
@@ -5648,13 +5648,13 @@
         <v>1.0031448602676392</v>
       </c>
       <c r="C328" s="2">
-        <v>0.93990778923034668</v>
+        <v>0.93910443782806397</v>
       </c>
       <c r="D328" s="2">
         <v>0.82355225086212158</v>
       </c>
       <c r="E328" s="2">
-        <v>0.78958898782730103</v>
+        <v>0.78900569677352905</v>
       </c>
     </row>
     <row r="329">
@@ -5662,16 +5662,16 @@
         <v>38443</v>
       </c>
       <c r="B329" s="2">
-        <v>0.91496580839157104</v>
+        <v>0.91496580839157105</v>
       </c>
       <c r="C329" s="2">
-        <v>0.82499516010284424</v>
+        <v>0.82378596067428589</v>
       </c>
       <c r="D329" s="2">
         <v>0.67846149206161499</v>
       </c>
       <c r="E329" s="2">
-        <v>0.70985007286071777</v>
+        <v>0.70916134119033814</v>
       </c>
     </row>
     <row r="330">
@@ -5682,13 +5682,13 @@
         <v>0.77430212497711182</v>
       </c>
       <c r="C330" s="2">
-        <v>0.74094617366790771</v>
+        <v>0.74038630723953247</v>
       </c>
       <c r="D330" s="2">
         <v>0.67702919244766235</v>
       </c>
       <c r="E330" s="2">
-        <v>0.73438286781311035</v>
+        <v>0.73372852802276611</v>
       </c>
     </row>
     <row r="331">
@@ -5699,13 +5699,13 @@
         <v>1.0142329931259155</v>
       </c>
       <c r="C331" s="2">
-        <v>0.89783757925033569</v>
+        <v>0.89751523733139038</v>
       </c>
       <c r="D331" s="2">
         <v>0.73002344369888306</v>
       </c>
       <c r="E331" s="2">
-        <v>0.75150173902511597</v>
+        <v>0.75091099739074707</v>
       </c>
     </row>
     <row r="332">
@@ -5716,13 +5716,13 @@
         <v>0.70217156410217285</v>
       </c>
       <c r="C332" s="2">
-        <v>0.55576050281524658</v>
+        <v>0.55592817068099976</v>
       </c>
       <c r="D332" s="2">
         <v>0.77954214811325073</v>
       </c>
       <c r="E332" s="2">
-        <v>0.8224676251411438</v>
+        <v>0.82192903757095337</v>
       </c>
     </row>
     <row r="333">
@@ -5733,13 +5733,13 @@
         <v>0.016714487224817276</v>
       </c>
       <c r="C333" s="2">
-        <v>0.49550971388816833</v>
+        <v>0.49422478675842285</v>
       </c>
       <c r="D333" s="2">
         <v>0.76825737953186035</v>
       </c>
       <c r="E333" s="2">
-        <v>0.8195415735244751</v>
+        <v>0.81910538673400879</v>
       </c>
     </row>
     <row r="334">
@@ -5750,13 +5750,13 @@
         <v>0.91316384077072144</v>
       </c>
       <c r="C334" s="2">
-        <v>0.89750254154205322</v>
+        <v>0.89727640151977539</v>
       </c>
       <c r="D334" s="2">
         <v>0.65262711048126221</v>
       </c>
       <c r="E334" s="2">
-        <v>0.69176536798477173</v>
+        <v>0.69136238098144531</v>
       </c>
     </row>
     <row r="335">
@@ -5767,13 +5767,13 @@
         <v>0.51852226257324219</v>
       </c>
       <c r="C335" s="2">
-        <v>0.81731277704238892</v>
+        <v>0.81720143556594849</v>
       </c>
       <c r="D335" s="2">
         <v>0.69968503713607788</v>
       </c>
       <c r="E335" s="2">
-        <v>0.7103501558303833</v>
+        <v>0.70996248722076416</v>
       </c>
     </row>
     <row r="336">
@@ -5784,13 +5784,13 @@
         <v>1.1586616039276123</v>
       </c>
       <c r="C336" s="2">
-        <v>1.2324362993240356</v>
+        <v>1.2319384813308716</v>
       </c>
       <c r="D336" s="2">
         <v>0.73506635427474976</v>
       </c>
       <c r="E336" s="2">
-        <v>0.76391249895095825</v>
+        <v>0.76354134082794189</v>
       </c>
     </row>
     <row r="337">
@@ -5801,13 +5801,13 @@
         <v>0.90158188343048096</v>
       </c>
       <c r="C337" s="2">
-        <v>0.91357356309890747</v>
+        <v>0.9136916995048523</v>
       </c>
       <c r="D337" s="2">
         <v>0.77695095539093018</v>
       </c>
       <c r="E337" s="2">
-        <v>0.79791313409805298</v>
+        <v>0.79748600721359253</v>
       </c>
     </row>
     <row r="338">
@@ -5818,13 +5818,13 @@
         <v>-0.12570691108703613</v>
       </c>
       <c r="C338" s="2">
-        <v>-0.32499060034751892</v>
+        <v>-0.32590115070343018</v>
       </c>
       <c r="D338" s="2">
         <v>0.86762511730194092</v>
       </c>
       <c r="E338" s="2">
-        <v>0.84604281187057495</v>
+        <v>0.84572488069534302</v>
       </c>
     </row>
     <row r="339">
@@ -5835,13 +5835,13 @@
         <v>1.1978235244750977</v>
       </c>
       <c r="C339" s="2">
-        <v>0.90820890665054321</v>
+        <v>0.90778756141662598</v>
       </c>
       <c r="D339" s="2">
         <v>0.82790964841842651</v>
       </c>
       <c r="E339" s="2">
-        <v>0.79987639188766479</v>
+        <v>0.79958045482635498</v>
       </c>
     </row>
     <row r="340">
@@ -5852,13 +5852,13 @@
         <v>1.3326648473739624</v>
       </c>
       <c r="C340" s="2">
-        <v>1.3798989057540894</v>
+        <v>1.3797246217727661</v>
       </c>
       <c r="D340" s="2">
         <v>0.87409299612045288</v>
       </c>
       <c r="E340" s="2">
-        <v>0.85545146465301514</v>
+        <v>0.8551102876663208</v>
       </c>
     </row>
     <row r="341">
@@ -5869,13 +5869,13 @@
         <v>1.079133152961731</v>
       </c>
       <c r="C341" s="2">
-        <v>0.86176592111587524</v>
+        <v>0.86142998933792114</v>
       </c>
       <c r="D341" s="2">
         <v>0.80900168418884277</v>
       </c>
       <c r="E341" s="2">
-        <v>0.76088631153106689</v>
+        <v>0.76052683591842651</v>
       </c>
     </row>
     <row r="342">
@@ -5886,13 +5886,13 @@
         <v>0.83278191089630127</v>
       </c>
       <c r="C342" s="2">
-        <v>0.92867690324783325</v>
+        <v>0.92837464809417725</v>
       </c>
       <c r="D342" s="2">
         <v>0.81848651170730591</v>
       </c>
       <c r="E342" s="2">
-        <v>0.71604073047637939</v>
+        <v>0.71554315090179443</v>
       </c>
     </row>
     <row r="343">
@@ -5903,13 +5903,13 @@
         <v>0.5557246208190918</v>
       </c>
       <c r="C343" s="2">
-        <v>0.48200473189353943</v>
+        <v>0.48197662830352783</v>
       </c>
       <c r="D343" s="2">
         <v>0.96024250984191895</v>
       </c>
       <c r="E343" s="2">
-        <v>0.87306094169616699</v>
+        <v>0.87260198593139648</v>
       </c>
     </row>
     <row r="344">
@@ -5920,13 +5920,13 @@
         <v>0.93417239189147949</v>
       </c>
       <c r="C344" s="2">
-        <v>1.317488431930542</v>
+        <v>1.3169698715209961</v>
       </c>
       <c r="D344" s="2">
         <v>0.83412224054336548</v>
       </c>
       <c r="E344" s="2">
-        <v>0.78891295194625854</v>
+        <v>0.788455069065094</v>
       </c>
     </row>
     <row r="345">
@@ -5937,13 +5937,13 @@
         <v>0.57283961772918701</v>
       </c>
       <c r="C345" s="2">
-        <v>0.38134986162185669</v>
+        <v>0.38068774342536926</v>
       </c>
       <c r="D345" s="2">
         <v>0.82078951597213745</v>
       </c>
       <c r="E345" s="2">
-        <v>0.75843238830566406</v>
+        <v>0.75790596008300781</v>
       </c>
     </row>
     <row r="346">
@@ -5954,13 +5954,13 @@
         <v>0.98694562911987305</v>
       </c>
       <c r="C346" s="2">
-        <v>0.50996345281600952</v>
+        <v>0.50883841514587402</v>
       </c>
       <c r="D346" s="2">
         <v>0.89196252822875977</v>
       </c>
       <c r="E346" s="2">
-        <v>0.84209972620010376</v>
+        <v>0.84151428937911987</v>
       </c>
     </row>
     <row r="347">
@@ -5971,13 +5971,13 @@
         <v>1.1500968933105469</v>
       </c>
       <c r="C347" s="2">
-        <v>1.0881916284561157</v>
+        <v>1.0876284837722778</v>
       </c>
       <c r="D347" s="2">
         <v>0.93152892589569092</v>
       </c>
       <c r="E347" s="2">
-        <v>0.86602646112442017</v>
+        <v>0.8653600811958313</v>
       </c>
     </row>
     <row r="348">
@@ -5988,13 +5988,13 @@
         <v>0.062741167843341827</v>
       </c>
       <c r="C348" s="2">
-        <v>0.15087664127349854</v>
+        <v>0.15046511590480804</v>
       </c>
       <c r="D348" s="2">
         <v>0.98598110675811768</v>
       </c>
       <c r="E348" s="2">
-        <v>0.90909320116043091</v>
+        <v>0.90839493274688721</v>
       </c>
     </row>
     <row r="349">
@@ -6005,13 +6005,13 @@
         <v>1.2126703262329102</v>
       </c>
       <c r="C349" s="2">
-        <v>1.1055736541748047</v>
+        <v>1.1047829389572144</v>
       </c>
       <c r="D349" s="2">
         <v>1.0041536092758179</v>
       </c>
       <c r="E349" s="2">
-        <v>0.92465722560882568</v>
+        <v>0.92391520738601685</v>
       </c>
     </row>
     <row r="350">
@@ -6022,13 +6022,13 @@
         <v>1.719690203666687</v>
       </c>
       <c r="C350" s="2">
-        <v>1.6147724390029907</v>
+        <v>1.6139049530029297</v>
       </c>
       <c r="D350" s="2">
         <v>1.0844240188598633</v>
       </c>
       <c r="E350" s="2">
-        <v>1.0066134929656982</v>
+        <v>1.0058741569519043</v>
       </c>
     </row>
     <row r="351">
@@ -6039,13 +6039,13 @@
         <v>1.1888793706893921</v>
       </c>
       <c r="C351" s="2">
-        <v>1.1440174579620361</v>
+        <v>1.1429866552352905</v>
       </c>
       <c r="D351" s="2">
         <v>1.0903068780899048</v>
       </c>
       <c r="E351" s="2">
-        <v>1.0744118690490723</v>
+        <v>1.0738359689712525</v>
       </c>
     </row>
     <row r="352">
@@ -6056,13 +6056,13 @@
         <v>1.0457944869995117</v>
       </c>
       <c r="C352" s="2">
-        <v>0.8696054220199585</v>
+        <v>0.86929041147232056</v>
       </c>
       <c r="D352" s="2">
         <v>1.0662604570388794</v>
       </c>
       <c r="E352" s="2">
-        <v>1.043102502822876</v>
+        <v>1.042589545249939</v>
       </c>
     </row>
     <row r="353">
@@ -6073,13 +6073,13 @@
         <v>1.097724437713623</v>
       </c>
       <c r="C353" s="2">
-        <v>1.4575642347335815</v>
+        <v>1.4566522836685181</v>
       </c>
       <c r="D353" s="2">
         <v>1.1108037233352661</v>
       </c>
       <c r="E353" s="2">
-        <v>1.093684196472168</v>
+        <v>1.093165397644043</v>
       </c>
     </row>
     <row r="354">
@@ -6090,13 +6090,13 @@
         <v>1.2952731847763062</v>
       </c>
       <c r="C354" s="2">
-        <v>1.1189562082290649</v>
+        <v>1.1183178424835205</v>
       </c>
       <c r="D354" s="2">
         <v>1.0517146587371826</v>
       </c>
       <c r="E354" s="2">
-        <v>1.0390325784683228</v>
+        <v>1.038516640663147</v>
       </c>
     </row>
     <row r="355">
@@ -6107,13 +6107,13 @@
         <v>1.0398914813995361</v>
       </c>
       <c r="C355" s="2">
-        <v>1.120148777961731</v>
+        <v>1.1204947233200073</v>
       </c>
       <c r="D355" s="2">
         <v>0.88831794261932373</v>
       </c>
       <c r="E355" s="2">
-        <v>0.84462255239486694</v>
+        <v>0.84417611360549927</v>
       </c>
     </row>
     <row r="356">
@@ -6124,13 +6124,13 @@
         <v>0.93367987871170044</v>
       </c>
       <c r="C356" s="2">
-        <v>0.8064078688621521</v>
+        <v>0.80641138553619385</v>
       </c>
       <c r="D356" s="2">
         <v>0.84468305110931396</v>
       </c>
       <c r="E356" s="2">
-        <v>0.77821987867355347</v>
+        <v>0.77787566184997559</v>
       </c>
     </row>
     <row r="357">
@@ -6141,13 +6141,13 @@
         <v>0.4636305570602417</v>
       </c>
       <c r="C357" s="2">
-        <v>0.60611140727996826</v>
+        <v>0.60564768314361572</v>
       </c>
       <c r="D357" s="2">
         <v>0.81421780586242676</v>
       </c>
       <c r="E357" s="2">
-        <v>0.752738356590271</v>
+        <v>0.75241529941558838</v>
       </c>
     </row>
     <row r="358">
@@ -6158,13 +6158,13 @@
         <v>0.68086826801300049</v>
       </c>
       <c r="C358" s="2">
-        <v>0.61370933055877686</v>
+        <v>0.61294376850128174</v>
       </c>
       <c r="D358" s="2">
         <v>0.74072188138961792</v>
       </c>
       <c r="E358" s="2">
-        <v>0.61593961715698242</v>
+        <v>0.61561977863311768</v>
       </c>
     </row>
     <row r="359">
@@ -6175,13 +6175,13 @@
         <v>0.24911986291408539</v>
       </c>
       <c r="C359" s="2">
-        <v>-0.13491789996623993</v>
+        <v>-0.13515959680080414</v>
       </c>
       <c r="D359" s="2">
         <v>0.60560154914855957</v>
       </c>
       <c r="E359" s="2">
-        <v>0.49110767245292664</v>
+        <v>0.49080994725227356</v>
       </c>
     </row>
     <row r="360">
@@ -6192,13 +6192,13 @@
         <v>0.7961653470993042</v>
       </c>
       <c r="C360" s="2">
-        <v>0.54639339447021484</v>
+        <v>0.54628229141235352</v>
       </c>
       <c r="D360" s="2">
         <v>0.52908146381378174</v>
       </c>
       <c r="E360" s="2">
-        <v>0.38374894857406616</v>
+        <v>0.38339334726333618</v>
       </c>
     </row>
     <row r="361">
@@ -6209,13 +6209,13 @@
         <v>0.77160722017288208</v>
       </c>
       <c r="C361" s="2">
-        <v>0.64027190208435059</v>
+        <v>0.64014744758605957</v>
       </c>
       <c r="D361" s="2">
         <v>0.45166823267936707</v>
       </c>
       <c r="E361" s="2">
-        <v>0.3426859974861145</v>
+        <v>0.34227520227432251</v>
       </c>
     </row>
     <row r="362">
@@ -6223,16 +6223,16 @@
         <v>39448</v>
       </c>
       <c r="B362" s="2">
-        <v>0.43626126646995544</v>
+        <v>0.43626126646995545</v>
       </c>
       <c r="C362" s="2">
-        <v>0.22637547552585602</v>
+        <v>0.22549223899841309</v>
       </c>
       <c r="D362" s="2">
         <v>0.49149194359779358</v>
       </c>
       <c r="E362" s="2">
-        <v>0.36555483937263489</v>
+        <v>0.3651781976222992</v>
       </c>
     </row>
     <row r="363">
@@ -6243,13 +6243,13 @@
         <v>0.079189814627170563</v>
       </c>
       <c r="C363" s="2">
-        <v>-0.0045312745496630669</v>
+        <v>-0.0049705356359481812</v>
       </c>
       <c r="D363" s="2">
         <v>0.44996628165245056</v>
       </c>
       <c r="E363" s="2">
-        <v>0.32106044888496399</v>
+        <v>0.32079330086708069</v>
       </c>
     </row>
     <row r="364">
@@ -6260,13 +6260,13 @@
         <v>0.35121113061904907</v>
       </c>
       <c r="C364" s="2">
-        <v>0.15392032265663147</v>
+        <v>0.15374545753002167</v>
       </c>
       <c r="D364" s="2">
         <v>0.472135990858078</v>
       </c>
       <c r="E364" s="2">
-        <v>0.40010809898376465</v>
+        <v>0.39982900023460388</v>
       </c>
     </row>
     <row r="365">
@@ -6277,13 +6277,13 @@
         <v>0.23696063458919525</v>
       </c>
       <c r="C365" s="2">
-        <v>0.43684124946594238</v>
+        <v>0.43634793162345886</v>
       </c>
       <c r="D365" s="2">
         <v>0.4344068169593811</v>
       </c>
       <c r="E365" s="2">
-        <v>0.39278149604797363</v>
+        <v>0.39248770475387573</v>
       </c>
     </row>
     <row r="366">
@@ -6294,13 +6294,13 @@
         <v>0.82204407453536987</v>
       </c>
       <c r="C366" s="2">
-        <v>0.81193113327026367</v>
+        <v>0.81177473068237305</v>
       </c>
       <c r="D366" s="2">
         <v>0.42091554403305054</v>
       </c>
       <c r="E366" s="2">
-        <v>0.38710933923721313</v>
+        <v>0.38682901859283447</v>
       </c>
     </row>
     <row r="367">
@@ -6311,13 +6311,13 @@
         <v>0.30713719129562378</v>
       </c>
       <c r="C367" s="2">
-        <v>0.21325980126857758</v>
+        <v>0.21347978711128235</v>
       </c>
       <c r="D367" s="2">
         <v>0.31707838177680969</v>
       </c>
       <c r="E367" s="2">
-        <v>0.31011390686035156</v>
+        <v>0.30995947122573853</v>
       </c>
     </row>
     <row r="368">
@@ -6328,13 +6328,13 @@
         <v>0.44864735007286072</v>
       </c>
       <c r="C368" s="2">
-        <v>0.57651090621948242</v>
+        <v>0.57616174221038818</v>
       </c>
       <c r="D368" s="2">
         <v>0.26228687167167664</v>
       </c>
       <c r="E368" s="2">
-        <v>0.26287984848022461</v>
+        <v>0.26273342967033386</v>
       </c>
     </row>
     <row r="369">
@@ -6345,13 +6345,13 @@
         <v>0.45660275220870972</v>
       </c>
       <c r="C369" s="2">
-        <v>0.48045402765274048</v>
+        <v>0.48021045327186585</v>
       </c>
       <c r="D369" s="2">
         <v>0.15488393604755402</v>
       </c>
       <c r="E369" s="2">
-        <v>0.18760064244270325</v>
+        <v>0.18746337294578552</v>
       </c>
     </row>
     <row r="370">
@@ -6362,13 +6362,13 @@
         <v>0.65018576383590698</v>
       </c>
       <c r="C370" s="2">
-        <v>0.5892224907875061</v>
+        <v>0.58921927213668823</v>
       </c>
       <c r="D370" s="2">
         <v>0.08480565994977951</v>
       </c>
       <c r="E370" s="2">
-        <v>0.10663578659296036</v>
+        <v>0.10648903250694275</v>
       </c>
     </row>
     <row r="371">
@@ -6379,13 +6379,13 @@
         <v>-0.49827328324317932</v>
       </c>
       <c r="C371" s="2">
-        <v>-0.46658360958099365</v>
+        <v>-0.4663335382938385</v>
       </c>
       <c r="D371" s="2">
         <v>-0.052686493843793869</v>
       </c>
       <c r="E371" s="2">
-        <v>-0.032772000879049301</v>
+        <v>-0.032893959432840347</v>
       </c>
     </row>
     <row r="372">
@@ -6396,13 +6396,13 @@
         <v>-0.41393366456031799</v>
       </c>
       <c r="C372" s="2">
-        <v>-0.429637610912323</v>
+        <v>-0.43000501394271851</v>
       </c>
       <c r="D372" s="2">
         <v>-0.11322511732578278</v>
       </c>
       <c r="E372" s="2">
-        <v>-0.093666896224021912</v>
+        <v>-0.093852013349533081</v>
       </c>
     </row>
     <row r="373">
@@ -6413,13 +6413,13 @@
         <v>-0.61541545391082764</v>
       </c>
       <c r="C373" s="2">
-        <v>-0.52359265089035034</v>
+        <v>-0.52368497848510742</v>
       </c>
       <c r="D373" s="2">
         <v>-0.17811037600040436</v>
       </c>
       <c r="E373" s="2">
-        <v>-0.18319422006607056</v>
+        <v>-0.18334738910198212</v>
       </c>
     </row>
     <row r="374">
@@ -6430,13 +6430,13 @@
         <v>-0.39374378323554993</v>
       </c>
       <c r="C374" s="2">
-        <v>-0.29184243083000183</v>
+        <v>-0.29242119193077088</v>
       </c>
       <c r="D374" s="2">
         <v>-0.20896013081073761</v>
       </c>
       <c r="E374" s="2">
-        <v>-0.23982083797454834</v>
+        <v>-0.24001215398311615</v>
       </c>
     </row>
     <row r="375">
@@ -6447,13 +6447,13 @@
         <v>-0.41538530588150024</v>
       </c>
       <c r="C375" s="2">
-        <v>-0.44273892045021057</v>
+        <v>-0.44267216324806213</v>
       </c>
       <c r="D375" s="2">
         <v>-0.31952023506164551</v>
       </c>
       <c r="E375" s="2">
-        <v>-0.36444565653800964</v>
+        <v>-0.36465203762054443</v>
       </c>
     </row>
     <row r="376">
@@ -6464,13 +6464,13 @@
         <v>-0.23771043121814728</v>
       </c>
       <c r="C376" s="2">
-        <v>-0.33479425311088562</v>
+        <v>-0.33514267206192017</v>
       </c>
       <c r="D376" s="2">
         <v>-0.29558879137039185</v>
       </c>
       <c r="E376" s="2">
-        <v>-0.34475862979888916</v>
+        <v>-0.34498250484466553</v>
       </c>
     </row>
     <row r="377">
@@ -6481,13 +6481,13 @@
         <v>-0.13531991839408875</v>
       </c>
       <c r="C377" s="2">
-        <v>-0.22923500835895538</v>
+        <v>-0.22929668426513672</v>
       </c>
       <c r="D377" s="2">
         <v>-0.32506543397903442</v>
       </c>
       <c r="E377" s="2">
-        <v>-0.3695862889289856</v>
+        <v>-0.36981147527694702</v>
       </c>
     </row>
     <row r="378">
@@ -6498,13 +6498,13 @@
         <v>0.17895491421222687</v>
       </c>
       <c r="C378" s="2">
-        <v>-0.02918560802936554</v>
+        <v>-0.029772352427244186</v>
       </c>
       <c r="D378" s="2">
         <v>-0.19304193556308746</v>
       </c>
       <c r="E378" s="2">
-        <v>-0.25731879472732544</v>
+        <v>-0.25758585333824158</v>
       </c>
     </row>
     <row r="379">
@@ -6515,13 +6515,13 @@
         <v>-0.34485521912574768</v>
       </c>
       <c r="C379" s="2">
-        <v>-0.53240072727203369</v>
+        <v>-0.5325397253036499</v>
       </c>
       <c r="D379" s="2">
         <v>-0.13694508373737335</v>
       </c>
       <c r="E379" s="2">
-        <v>-0.21791885793209076</v>
+        <v>-0.21813157200813293</v>
       </c>
     </row>
     <row r="380">
@@ -6532,13 +6532,13 @@
         <v>-0.28289023041725159</v>
       </c>
       <c r="C380" s="2">
-        <v>-0.28940033912658691</v>
+        <v>-0.28930765390396118</v>
       </c>
       <c r="D380" s="2">
         <v>-0.13185589015483856</v>
       </c>
       <c r="E380" s="2">
-        <v>-0.21476274728775024</v>
+        <v>-0.21499687433242798</v>
       </c>
     </row>
     <row r="381">
@@ -6549,13 +6549,13 @@
         <v>-0.67922335863113403</v>
       </c>
       <c r="C381" s="2">
-        <v>-0.65308672189712524</v>
+        <v>-0.65346592664718628</v>
       </c>
       <c r="D381" s="2">
         <v>-0.019411737099289894</v>
       </c>
       <c r="E381" s="2">
-        <v>-0.10459709167480469</v>
+        <v>-0.10483475774526596</v>
       </c>
     </row>
     <row r="382">
@@ -6566,13 +6566,13 @@
         <v>0.57279586791992188</v>
       </c>
       <c r="C382" s="2">
-        <v>0.486814945936203</v>
+        <v>0.48634561896324158</v>
       </c>
       <c r="D382" s="2">
         <v>-0.043574009090662003</v>
       </c>
       <c r="E382" s="2">
-        <v>-0.13532115519046783</v>
+        <v>-0.13560958206653595</v>
       </c>
     </row>
     <row r="383">
@@ -6583,13 +6583,13 @@
         <v>0.11112789064645767</v>
       </c>
       <c r="C383" s="2">
-        <v>0.062756940722465515</v>
+        <v>0.062667466700077057</v>
       </c>
       <c r="D383" s="2">
         <v>0.063766174018383026</v>
       </c>
       <c r="E383" s="2">
-        <v>-0.0088592357933521271</v>
+        <v>-0.0091226194053888321</v>
       </c>
     </row>
     <row r="384">
@@ -6600,13 +6600,13 @@
         <v>-0.36958256363868713</v>
       </c>
       <c r="C384" s="2">
-        <v>-0.41433393955230713</v>
+        <v>-0.41445991396903992</v>
       </c>
       <c r="D384" s="2">
         <v>0.20862975716590881</v>
       </c>
       <c r="E384" s="2">
-        <v>0.13232512772083282</v>
+        <v>0.13196252286434174</v>
       </c>
     </row>
     <row r="385">
@@ -6617,13 +6617,13 @@
         <v>0.77428698539733887</v>
       </c>
       <c r="C385" s="2">
-        <v>0.656696617603302</v>
+        <v>0.65631633996963501</v>
       </c>
       <c r="D385" s="2">
         <v>0.33690136671066284</v>
       </c>
       <c r="E385" s="2">
-        <v>0.24432648718357086</v>
+        <v>0.24392557144165039</v>
       </c>
     </row>
     <row r="386">
@@ -6634,13 +6634,13 @@
         <v>-0.35278037190437317</v>
       </c>
       <c r="C386" s="2">
-        <v>-0.50575160980224609</v>
+        <v>-0.50627005100250244</v>
       </c>
       <c r="D386" s="2">
         <v>0.53222495317459106</v>
       </c>
       <c r="E386" s="2">
-        <v>0.42320409417152405</v>
+        <v>0.42278778553009033</v>
       </c>
     </row>
     <row r="387">
@@ -6651,13 +6651,13 @@
         <v>1.1450165510177612</v>
       </c>
       <c r="C387" s="2">
-        <v>1.1089717149734497</v>
+        <v>1.1086102724075317</v>
       </c>
       <c r="D387" s="2">
         <v>0.58888149261474609</v>
       </c>
       <c r="E387" s="2">
-        <v>0.46620857715606689</v>
+        <v>0.46584761142730713</v>
       </c>
     </row>
     <row r="388">
@@ -6668,13 +6668,13 @@
         <v>0.95891708135604858</v>
       </c>
       <c r="C388" s="2">
-        <v>0.73825860023498535</v>
+        <v>0.73722654581069946</v>
       </c>
       <c r="D388" s="2">
         <v>0.6556931734085083</v>
       </c>
       <c r="E388" s="2">
-        <v>0.53364813327789307</v>
+        <v>0.53331637382507324</v>
       </c>
     </row>
     <row r="389">
@@ -6685,13 +6685,13 @@
         <v>0.87155419588088989</v>
       </c>
       <c r="C389" s="2">
-        <v>0.71861183643341064</v>
+        <v>0.71835976839065552</v>
       </c>
       <c r="D389" s="2">
         <v>0.782004714012146</v>
       </c>
       <c r="E389" s="2">
-        <v>0.67921406030654907</v>
+        <v>0.67882490158081055</v>
       </c>
     </row>
     <row r="390">
@@ -6702,13 +6702,13 @@
         <v>1.0786888599395752</v>
       </c>
       <c r="C390" s="2">
-        <v>0.95681178569793701</v>
+        <v>0.95629400014877319</v>
       </c>
       <c r="D390" s="2">
         <v>0.87720280885696411</v>
       </c>
       <c r="E390" s="2">
-        <v>0.79216206073760986</v>
+        <v>0.79178619384765625</v>
       </c>
     </row>
     <row r="391">
@@ -6719,13 +6719,13 @@
         <v>1.0827047824859619</v>
       </c>
       <c r="C391" s="2">
-        <v>0.87385517358779907</v>
+        <v>0.87388414144515991</v>
       </c>
       <c r="D391" s="2">
-        <v>1.0366883277893066</v>
+        <v>1.0366883277893067</v>
       </c>
       <c r="E391" s="2">
-        <v>0.96356642246246338</v>
+        <v>0.96328383684158325</v>
       </c>
     </row>
     <row r="392">
@@ -6736,13 +6736,13 @@
         <v>0.71243321895599365</v>
       </c>
       <c r="C392" s="2">
-        <v>0.66971278190612793</v>
+        <v>0.66988635063171387</v>
       </c>
       <c r="D392" s="2">
         <v>0.98718959093093872</v>
       </c>
       <c r="E392" s="2">
-        <v>0.91431206464767456</v>
+        <v>0.91407144069671631</v>
       </c>
     </row>
     <row r="393">
@@ -6753,13 +6753,13 @@
         <v>0.76722127199172974</v>
       </c>
       <c r="C393" s="2">
-        <v>0.89575982093811035</v>
+        <v>0.89511662721633911</v>
       </c>
       <c r="D393" s="2">
         <v>1.0241857767105103</v>
       </c>
       <c r="E393" s="2">
-        <v>0.96878409385681152</v>
+        <v>0.96870326995849609</v>
       </c>
     </row>
     <row r="394">
@@ -6770,13 +6770,13 @@
         <v>1.6310696601867676</v>
       </c>
       <c r="C394" s="2">
-        <v>1.6732286214828491</v>
+        <v>1.6729681491851807</v>
       </c>
       <c r="D394" s="2">
         <v>1.0190236568450928</v>
       </c>
       <c r="E394" s="2">
-        <v>0.94986617565155029</v>
+        <v>0.94972419738769531</v>
       </c>
     </row>
     <row r="395">
@@ -6787,13 +6787,13 @@
         <v>1.0825895071029663</v>
       </c>
       <c r="C395" s="2">
-        <v>1.0368874073028564</v>
+        <v>1.0372086763381958</v>
       </c>
       <c r="D395" s="2">
         <v>1.0513321161270142</v>
       </c>
       <c r="E395" s="2">
-        <v>0.99685013294219971</v>
+        <v>0.99676883220672607</v>
       </c>
     </row>
     <row r="396">
@@ -6804,13 +6804,13 @@
         <v>0.6995278000831604</v>
       </c>
       <c r="C396" s="2">
-        <v>0.66568279266357422</v>
+        <v>0.66569846868515015</v>
       </c>
       <c r="D396" s="2">
         <v>0.9437640905380249</v>
       </c>
       <c r="E396" s="2">
-        <v>0.95364803075790405</v>
+        <v>0.95356643199920654</v>
       </c>
     </row>
     <row r="397">
@@ -6821,13 +6821,13 @@
         <v>1.2918829917907715</v>
       </c>
       <c r="C397" s="2">
-        <v>1.2285065650939941</v>
+        <v>1.2289131879806519</v>
       </c>
       <c r="D397" s="2">
         <v>0.97408795356750488</v>
       </c>
       <c r="E397" s="2">
-        <v>1.0088980197906494</v>
+        <v>1.008808970451355</v>
       </c>
     </row>
     <row r="398">
@@ -6838,13 +6838,13 @@
         <v>0.82509505748748779</v>
       </c>
       <c r="C398" s="2">
-        <v>0.54835087060928345</v>
+        <v>0.54754805564880371</v>
       </c>
       <c r="D398" s="2">
         <v>1.0112763643264771</v>
       </c>
       <c r="E398" s="2">
-        <v>1.0273967981338501</v>
+        <v>1.0273553133010864</v>
       </c>
     </row>
     <row r="399">
@@ -6855,13 +6855,13 @@
         <v>1.369464635848999</v>
       </c>
       <c r="C399" s="2">
-        <v>1.3796669244766235</v>
+        <v>1.3796957731246948</v>
       </c>
       <c r="D399" s="2">
         <v>0.93453329801559448</v>
       </c>
       <c r="E399" s="2">
-        <v>0.9565582275390625</v>
+        <v>0.95644241571426392</v>
       </c>
     </row>
     <row r="400">
@@ -6872,13 +6872,13 @@
         <v>0.11459251493215561</v>
       </c>
       <c r="C400" s="2">
-        <v>0.48503640294075012</v>
+        <v>0.48506265878677368</v>
       </c>
       <c r="D400" s="2">
         <v>0.90035146474838257</v>
       </c>
       <c r="E400" s="2">
-        <v>0.91273456811904907</v>
+        <v>0.91253769397735596</v>
       </c>
     </row>
     <row r="401">
@@ -6889,13 +6889,13 @@
         <v>0.98534834384918213</v>
       </c>
       <c r="C401" s="2">
-        <v>1.1669632196426392</v>
+        <v>1.1670693159103394</v>
       </c>
       <c r="D401" s="2">
         <v>0.87912499904632568</v>
       </c>
       <c r="E401" s="2">
-        <v>0.91224843263626099</v>
+        <v>0.91206741333007813</v>
       </c>
     </row>
     <row r="402">
@@ -6906,13 +6906,13 @@
         <v>1.101917028427124</v>
       </c>
       <c r="C402" s="2">
-        <v>1.0622485876083374</v>
+        <v>1.0620330572128296</v>
       </c>
       <c r="D402" s="2">
         <v>0.8555983304977417</v>
       </c>
       <c r="E402" s="2">
-        <v>0.89361792802810669</v>
+        <v>0.89339166879653931</v>
       </c>
     </row>
     <row r="403">
@@ -6923,13 +6923,13 @@
         <v>0.94038182497024536</v>
       </c>
       <c r="C403" s="2">
-        <v>1.0356814861297607</v>
+        <v>1.0347526073455811</v>
       </c>
       <c r="D403" s="2">
         <v>0.84802043437957764</v>
       </c>
       <c r="E403" s="2">
-        <v>0.90287584066390991</v>
+        <v>0.90265703201293945</v>
       </c>
     </row>
     <row r="404">
@@ -6940,13 +6940,13 @@
         <v>0.77495282888412476</v>
       </c>
       <c r="C404" s="2">
-        <v>0.6424744725227356</v>
+        <v>0.6420661211013794</v>
       </c>
       <c r="D404" s="2">
         <v>0.79919761419296265</v>
       </c>
       <c r="E404" s="2">
-        <v>0.85345989465713501</v>
+        <v>0.85316276550292969</v>
       </c>
     </row>
     <row r="405">
@@ -6957,13 +6957,13 @@
         <v>0.50848954916000366</v>
       </c>
       <c r="C405" s="2">
-        <v>0.66130745410919189</v>
+        <v>0.66146606206893921</v>
       </c>
       <c r="D405" s="2">
         <v>0.85822886228561401</v>
       </c>
       <c r="E405" s="2">
-        <v>0.91634541749954224</v>
+        <v>0.91598355770111084</v>
       </c>
     </row>
     <row r="406">
@@ -6974,13 +6974,13 @@
         <v>1.0801432132720947</v>
       </c>
       <c r="C406" s="2">
-        <v>1.060832142829895</v>
+        <v>1.0608313083648682</v>
       </c>
       <c r="D406" s="2">
         <v>0.89354676008224487</v>
       </c>
       <c r="E406" s="2">
-        <v>0.91028201580047607</v>
+        <v>0.90986162424087525</v>
       </c>
     </row>
     <row r="407">
@@ -6991,13 +6991,13 @@
         <v>0.75689375400543213</v>
       </c>
       <c r="C407" s="2">
-        <v>0.6316717267036438</v>
+        <v>0.63093662261962891</v>
       </c>
       <c r="D407" s="2">
         <v>0.88906985521316528</v>
       </c>
       <c r="E407" s="2">
-        <v>0.87704253196716309</v>
+        <v>0.8766474723815918</v>
       </c>
     </row>
     <row r="408">
@@ -7008,13 +7008,13 @@
         <v>0.93005943298339844</v>
       </c>
       <c r="C408" s="2">
-        <v>0.93492352962493896</v>
+        <v>0.93424713611602783</v>
       </c>
       <c r="D408" s="2">
         <v>0.85903811454772949</v>
       </c>
       <c r="E408" s="2">
-        <v>0.8169826865196228</v>
+        <v>0.81664425134658814</v>
       </c>
     </row>
     <row r="409">
@@ -7025,13 +7025,13 @@
         <v>0.6458735466003418</v>
       </c>
       <c r="C409" s="2">
-        <v>1.0510060787200928</v>
+        <v>1.0504499673843384</v>
       </c>
       <c r="D409" s="2">
         <v>0.90191388130187988</v>
       </c>
       <c r="E409" s="2">
-        <v>0.86258912086486816</v>
+        <v>0.86230778694152832</v>
       </c>
     </row>
     <row r="410">
@@ -7042,13 +7042,13 @@
         <v>1.3032097816467285</v>
       </c>
       <c r="C410" s="2">
-        <v>1.1123925447463989</v>
+        <v>1.1119719743728638</v>
       </c>
       <c r="D410" s="2">
         <v>0.92176163196563721</v>
       </c>
       <c r="E410" s="2">
-        <v>0.88738340139389038</v>
+        <v>0.88705736398696899</v>
       </c>
     </row>
     <row r="411">
@@ -7059,13 +7059,13 @@
         <v>1.0616248846054077</v>
       </c>
       <c r="C411" s="2">
-        <v>0.76309311389923096</v>
+        <v>0.76310563087463379</v>
       </c>
       <c r="D411" s="2">
         <v>0.90702003240585327</v>
       </c>
       <c r="E411" s="2">
-        <v>0.85010027885437012</v>
+        <v>0.84980934858322144</v>
       </c>
     </row>
     <row r="412">
@@ -7076,13 +7076,13 @@
         <v>0.67009603977203369</v>
       </c>
       <c r="C412" s="2">
-        <v>0.49514299631118774</v>
+        <v>0.49472346901893616</v>
       </c>
       <c r="D412" s="2">
         <v>0.92580026388168335</v>
       </c>
       <c r="E412" s="2">
-        <v>0.87454694509506226</v>
+        <v>0.87430018186569214</v>
       </c>
     </row>
     <row r="413">
@@ -7093,13 +7093,13 @@
         <v>1.1608346700668335</v>
       </c>
       <c r="C413" s="2">
-        <v>1.0529323816299438</v>
+        <v>1.0530376434326172</v>
       </c>
       <c r="D413" s="2">
         <v>0.8668673038482666</v>
       </c>
       <c r="E413" s="2">
-        <v>0.81181806325912476</v>
+        <v>0.81166529655456543</v>
       </c>
     </row>
     <row r="414">
@@ -7110,13 +7110,13 @@
         <v>0.68711954355239868</v>
       </c>
       <c r="C414" s="2">
-        <v>0.88445603847503662</v>
+        <v>0.8842126727104187</v>
       </c>
       <c r="D414" s="2">
         <v>0.86721569299697876</v>
       </c>
       <c r="E414" s="2">
-        <v>0.75780129432678223</v>
+        <v>0.75761586427688599</v>
       </c>
     </row>
     <row r="415">
@@ -7127,13 +7127,13 @@
         <v>0.94746881723403931</v>
       </c>
       <c r="C415" s="2">
-        <v>0.72528433799743652</v>
+        <v>0.72559899091720581</v>
       </c>
       <c r="D415" s="2">
         <v>0.84596908092498779</v>
       </c>
       <c r="E415" s="2">
-        <v>0.7500452995300293</v>
+        <v>0.7498779296875</v>
       </c>
     </row>
     <row r="416">
@@ -7144,13 +7144,13 @@
         <v>0.92591571807861328</v>
       </c>
       <c r="C416" s="2">
-        <v>0.85169130563735962</v>
+        <v>0.85135430097579956</v>
       </c>
       <c r="D416" s="2">
         <v>0.79986089468002319</v>
       </c>
       <c r="E416" s="2">
-        <v>0.72956085205078125</v>
+        <v>0.7293698787689209</v>
       </c>
     </row>
     <row r="417">
@@ -7161,13 +7161,13 @@
         <v>0.39966249465942383</v>
       </c>
       <c r="C417" s="2">
-        <v>0.37036362290382385</v>
+        <v>0.37053298950195313</v>
       </c>
       <c r="D417" s="2">
         <v>0.77956610918045044</v>
       </c>
       <c r="E417" s="2">
-        <v>0.70048189163208008</v>
+        <v>0.70021164417266846</v>
       </c>
     </row>
     <row r="418">
@@ -7178,13 +7178,13 @@
         <v>0.6490093469619751</v>
       </c>
       <c r="C418" s="2">
-        <v>0.56485551595687866</v>
+        <v>0.56400525569915771</v>
       </c>
       <c r="D418" s="2">
         <v>0.81577473878860474</v>
       </c>
       <c r="E418" s="2">
-        <v>0.72317367792129517</v>
+        <v>0.72288352251052856</v>
       </c>
     </row>
     <row r="419">
@@ -7195,13 +7195,13 @@
         <v>1.1119903326034546</v>
       </c>
       <c r="C419" s="2">
-        <v>1.0425881147384644</v>
+        <v>1.042330265045166</v>
       </c>
       <c r="D419" s="2">
         <v>0.90697675943374634</v>
       </c>
       <c r="E419" s="2">
-        <v>0.78450089693069458</v>
+        <v>0.78416144847869873</v>
       </c>
     </row>
     <row r="420">
@@ -7212,13 +7212,13 @@
         <v>0.64665102958679199</v>
       </c>
       <c r="C420" s="2">
-        <v>0.57873356342315674</v>
+        <v>0.57853305339813233</v>
       </c>
       <c r="D420" s="2">
         <v>0.97265088558197021</v>
       </c>
       <c r="E420" s="2">
-        <v>0.86554986238479614</v>
+        <v>0.86511027812957764</v>
       </c>
     </row>
     <row r="421">
@@ -7229,13 +7229,13 @@
         <v>0.48744285106658936</v>
       </c>
       <c r="C421" s="2">
-        <v>0.2334321141242981</v>
+        <v>0.23229935765266419</v>
       </c>
       <c r="D421" s="2">
         <v>1.0503259897232056</v>
       </c>
       <c r="E421" s="2">
-        <v>0.95070332288742065</v>
+        <v>0.95022624731063843</v>
       </c>
     </row>
     <row r="422">
@@ -7246,13 +7246,13 @@
         <v>1.4867126941680908</v>
       </c>
       <c r="C422" s="2">
-        <v>1.2571582794189453</v>
+        <v>1.257084846496582</v>
       </c>
       <c r="D422" s="2">
         <v>1.1094783544540405</v>
       </c>
       <c r="E422" s="2">
-        <v>1.006536602973938</v>
+        <v>1.006033182144165</v>
       </c>
     </row>
     <row r="423">
@@ -7263,13 +7263,13 @@
         <v>1.5079374313354492</v>
       </c>
       <c r="C423" s="2">
-        <v>1.4364011287689209</v>
+        <v>1.4357140064239502</v>
       </c>
       <c r="D423" s="2">
         <v>1.2141076326370239</v>
       </c>
       <c r="E423" s="2">
-        <v>1.0995851755142212</v>
+        <v>1.0991424322128296</v>
       </c>
     </row>
     <row r="424">
@@ -7280,13 +7280,13 @@
         <v>1.5385360717773438</v>
       </c>
       <c r="C424" s="2">
-        <v>1.454724907875061</v>
+        <v>1.4541386365890503</v>
       </c>
       <c r="D424" s="2">
         <v>1.2800841331481934</v>
       </c>
       <c r="E424" s="2">
-        <v>1.1572998762130737</v>
+        <v>1.1567659378051758</v>
       </c>
     </row>
     <row r="425">
@@ -7297,13 +7297,13 @@
         <v>1.6249912977218628</v>
       </c>
       <c r="C425" s="2">
-        <v>1.6180726289749146</v>
+        <v>1.6173980236053467</v>
       </c>
       <c r="D425" s="2">
         <v>1.4140897989273071</v>
       </c>
       <c r="E425" s="2">
-        <v>1.2925307750701904</v>
+        <v>1.2919960021972656</v>
       </c>
     </row>
     <row r="426">
@@ -7314,13 +7314,13 @@
         <v>0.93203449249267578</v>
       </c>
       <c r="C426" s="2">
-        <v>0.87286275625228882</v>
+        <v>0.87279504537582398</v>
       </c>
       <c r="D426" s="2">
         <v>1.5190967321395874</v>
       </c>
       <c r="E426" s="2">
-        <v>1.4140983819961548</v>
+        <v>1.4135684967041016</v>
       </c>
     </row>
     <row r="427">
@@ -7331,13 +7331,13 @@
         <v>1.5906722545623779</v>
       </c>
       <c r="C427" s="2">
-        <v>1.4022932052612305</v>
+        <v>1.4019888639450073</v>
       </c>
       <c r="D427" s="2">
         <v>1.4140794277191162</v>
       </c>
       <c r="E427" s="2">
-        <v>1.2956289052963257</v>
+        <v>1.2950081825256348</v>
       </c>
     </row>
     <row r="428">
@@ -7348,13 +7348,13 @@
         <v>1.7057793140411377</v>
       </c>
       <c r="C428" s="2">
-        <v>1.562019944190979</v>
+        <v>1.5609416961669922</v>
       </c>
       <c r="D428" s="2">
         <v>1.3148138523101807</v>
       </c>
       <c r="E428" s="2">
-        <v>1.1809362173080444</v>
+        <v>1.1803199052810669</v>
       </c>
     </row>
     <row r="429">
@@ -7365,13 +7365,13 @@
         <v>1.852702260017395</v>
       </c>
       <c r="C429" s="2">
-        <v>1.7958118915557861</v>
+        <v>1.7956033945083618</v>
       </c>
       <c r="D429" s="2">
         <v>1.3418480157852173</v>
       </c>
       <c r="E429" s="2">
-        <v>1.1989097595214844</v>
+        <v>1.1983110904693604</v>
       </c>
     </row>
     <row r="430">
@@ -7382,13 +7382,13 @@
         <v>1.4325052499771118</v>
       </c>
       <c r="C430" s="2">
-        <v>1.3275409936904907</v>
+        <v>1.3264517784118652</v>
       </c>
       <c r="D430" s="2">
         <v>1.3412728309631348</v>
       </c>
       <c r="E430" s="2">
-        <v>1.1856396198272705</v>
+        <v>1.1849946975708008</v>
       </c>
     </row>
     <row r="431">
@@ -7399,13 +7399,13 @@
         <v>0.54155635833740234</v>
       </c>
       <c r="C431" s="2">
-        <v>0.19093307852745056</v>
+        <v>0.19004172086715698</v>
       </c>
       <c r="D431" s="2">
-        <v>1.3974676132202148</v>
+        <v>1.3974676132202149</v>
       </c>
       <c r="E431" s="2">
-        <v>1.2584714889526367</v>
+        <v>1.2578064203262329</v>
       </c>
     </row>
     <row r="432">
@@ -7416,13 +7416,13 @@
         <v>0.61454790830612183</v>
       </c>
       <c r="C432" s="2">
-        <v>0.40416628122329712</v>
+        <v>0.40352010726928711</v>
       </c>
       <c r="D432" s="2">
         <v>1.376063346862793</v>
       </c>
       <c r="E432" s="2">
-        <v>1.2475737333297729</v>
+        <v>1.2469103336334229</v>
       </c>
     </row>
     <row r="433">
@@ -7433,13 +7433,13 @@
         <v>1.7818427085876465</v>
       </c>
       <c r="C433" s="2">
-        <v>1.6164869070053101</v>
+        <v>1.6160590648651123</v>
       </c>
       <c r="D433" s="2">
         <v>1.3577823638916016</v>
       </c>
       <c r="E433" s="2">
-        <v>1.2433657646179199</v>
+        <v>1.2427568435668945</v>
       </c>
     </row>
     <row r="434">
@@ -7450,13 +7450,13 @@
         <v>1.6198147535324097</v>
       </c>
       <c r="C434" s="2">
-        <v>1.4986410140991211</v>
+        <v>1.4975502490997315</v>
       </c>
       <c r="D434" s="2">
         <v>1.3073022365570068</v>
       </c>
       <c r="E434" s="2">
-        <v>1.1909421682357788</v>
+        <v>1.1903669834136963</v>
       </c>
     </row>
     <row r="435">
@@ -7467,13 +7467,13 @@
         <v>1.4377872943878174</v>
       </c>
       <c r="C435" s="2">
-        <v>1.5283501148223877</v>
+        <v>1.5281004905700684</v>
       </c>
       <c r="D435" s="2">
         <v>1.2218259572982788</v>
       </c>
       <c r="E435" s="2">
-        <v>1.0811796188354492</v>
+        <v>1.0806351900100708</v>
       </c>
     </row>
     <row r="436">
@@ -7484,13 +7484,13 @@
         <v>1.3980338573455811</v>
       </c>
       <c r="C436" s="2">
-        <v>1.3042135238647461</v>
+        <v>1.3039246797561646</v>
       </c>
       <c r="D436" s="2">
         <v>1.3016650676727295</v>
       </c>
       <c r="E436" s="2">
-        <v>1.1935096979141235</v>
+        <v>1.192976713180542</v>
       </c>
     </row>
     <row r="437">
@@ -7501,13 +7501,13 @@
         <v>1.5412513017654419</v>
       </c>
       <c r="C437" s="2">
-        <v>1.5241478681564331</v>
+        <v>1.523560643196106</v>
       </c>
       <c r="D437" s="2">
         <v>1.3165289163589478</v>
       </c>
       <c r="E437" s="2">
-        <v>1.2235411405563354</v>
+        <v>1.2229651212692261</v>
       </c>
     </row>
     <row r="438">
@@ -7518,13 +7518,13 @@
         <v>1.3983807563781738</v>
       </c>
       <c r="C438" s="2">
-        <v>1.3239998817443848</v>
+        <v>1.324094295501709</v>
       </c>
       <c r="D438" s="2">
         <v>1.2534675598144531</v>
       </c>
       <c r="E438" s="2">
-        <v>1.1337680816650391</v>
+        <v>1.1331337690353394</v>
       </c>
     </row>
     <row r="439">
@@ -7535,13 +7535,13 @@
         <v>0.66321885585784912</v>
       </c>
       <c r="C439" s="2">
-        <v>0.33967751264572144</v>
+        <v>0.33886569738388062</v>
       </c>
       <c r="D439" s="2">
         <v>1.1250491142272949</v>
       </c>
       <c r="E439" s="2">
-        <v>0.9963918924331665</v>
+        <v>0.99583917856216431</v>
       </c>
     </row>
     <row r="440">
@@ -7552,13 +7552,13 @@
         <v>1.2601083517074585</v>
       </c>
       <c r="C440" s="2">
-        <v>1.2019038200378418</v>
+        <v>1.2011147737503052</v>
       </c>
       <c r="D440" s="2">
         <v>1.0078127384185791</v>
       </c>
       <c r="E440" s="2">
-        <v>0.80326616764068604</v>
+        <v>0.80265313386917114</v>
       </c>
     </row>
     <row r="441">
@@ -7569,13 +7569,13 @@
         <v>0.74832195043563843</v>
       </c>
       <c r="C441" s="2">
-        <v>0.67444956302642822</v>
+        <v>0.67341667413711548</v>
       </c>
       <c r="D441" s="2">
         <v>0.87404412031173706</v>
       </c>
       <c r="E441" s="2">
-        <v>0.63494610786437988</v>
+        <v>0.63416612148284912</v>
       </c>
     </row>
     <row r="442">
@@ -7586,13 +7586,13 @@
         <v>1.2142910957336426</v>
       </c>
       <c r="C442" s="2">
-        <v>0.80852985382080078</v>
+        <v>0.80757600069046021</v>
       </c>
       <c r="D442" s="2">
         <v>0.75587773323059082</v>
       </c>
       <c r="E442" s="2">
-        <v>0.50098943710327148</v>
+        <v>0.50023472309112549</v>
       </c>
     </row>
     <row r="443">
@@ -7603,13 +7603,13 @@
         <v>0.46404901146888733</v>
       </c>
       <c r="C443" s="2">
-        <v>0.26225471496582031</v>
+        <v>0.26189947128295898</v>
       </c>
       <c r="D443" s="2">
         <v>0.62694966793060303</v>
       </c>
       <c r="E443" s="2">
-        <v>0.35008841753005981</v>
+        <v>0.34922760725021362</v>
       </c>
     </row>
     <row r="444">
@@ -7620,13 +7620,13 @@
         <v>0.38265931606292725</v>
       </c>
       <c r="C444" s="2">
-        <v>-0.20978115499019623</v>
+        <v>-0.21057404577732086</v>
       </c>
       <c r="D444" s="2">
         <v>0.64612221717834473</v>
       </c>
       <c r="E444" s="2">
-        <v>0.3781619668006897</v>
+        <v>0.37730693817138672</v>
       </c>
     </row>
     <row r="445">
@@ -7637,13 +7637,13 @@
         <v>0.19411665201187134</v>
       </c>
       <c r="C445" s="2">
-        <v>-0.2106669545173645</v>
+        <v>-0.21245816349983215</v>
       </c>
       <c r="D445" s="2">
         <v>0.68885123729705811</v>
       </c>
       <c r="E445" s="2">
-        <v>0.41314408183097839</v>
+        <v>0.41230815649032593</v>
       </c>
     </row>
     <row r="446">
@@ -7654,13 +7654,13 @@
         <v>0.47775378823280334</v>
       </c>
       <c r="C446" s="2">
-        <v>0.31853747367858887</v>
+        <v>0.3181779682636261</v>
       </c>
       <c r="D446" s="2">
         <v>0.76461941003799438</v>
       </c>
       <c r="E446" s="2">
-        <v>0.49286442995071411</v>
+        <v>0.49211925268173218</v>
       </c>
     </row>
     <row r="447">
@@ -7671,13 +7671,13 @@
         <v>0.23802781105041504</v>
       </c>
       <c r="C447" s="2">
-        <v>-0.034109167754650116</v>
+        <v>-0.034969788044691086</v>
       </c>
       <c r="D447" s="2">
         <v>0.80404645204544067</v>
       </c>
       <c r="E447" s="2">
-        <v>0.5680738091468811</v>
+        <v>0.56735104322433472</v>
       </c>
     </row>
     <row r="448">
@@ -7688,13 +7688,13 @@
         <v>0.83577215671539307</v>
       </c>
       <c r="C448" s="2">
-        <v>0.59233951568603516</v>
+        <v>0.59157955646514893</v>
       </c>
       <c r="D448" s="2">
         <v>0.89525926113128662</v>
       </c>
       <c r="E448" s="2">
-        <v>0.6541631817817688</v>
+        <v>0.65344971418380737</v>
       </c>
     </row>
     <row r="449">
@@ -7705,13 +7705,13 @@
         <v>1.6446695327758789</v>
       </c>
       <c r="C449" s="2">
-        <v>1.5167428255081177</v>
+        <v>1.5161257982254028</v>
       </c>
       <c r="D449" s="2">
         <v>1.0777924060821533</v>
       </c>
       <c r="E449" s="2">
-        <v>0.89033114910125732</v>
+        <v>0.88965815305709839</v>
       </c>
     </row>
     <row r="450">
@@ -7722,13 +7722,13 @@
         <v>1.4302351474761963</v>
       </c>
       <c r="C450" s="2">
-        <v>1.3919327259063721</v>
+        <v>1.3917165994644165</v>
       </c>
       <c r="D450" s="2">
         <v>1.1732653379440308</v>
       </c>
       <c r="E450" s="2">
-        <v>1.0178049802780151</v>
+        <v>1.0172193050384522</v>
       </c>
     </row>
     <row r="451">
@@ -7739,13 +7739,13 @@
         <v>1.5691344738006592</v>
       </c>
       <c r="C451" s="2">
-        <v>1.4854142665863037</v>
+        <v>1.4846619367599487</v>
       </c>
       <c r="D451" s="2">
         <v>1.1963180303573608</v>
       </c>
       <c r="E451" s="2">
-        <v>1.0478389263153076</v>
+        <v>1.0472679138183594</v>
       </c>
     </row>
     <row r="452">
@@ -7756,13 +7756,13 @@
         <v>1.2849646806716919</v>
       </c>
       <c r="C452" s="2">
-        <v>1.0370591878890991</v>
+        <v>1.0367876291275024</v>
       </c>
       <c r="D452" s="2">
         <v>1.3056085109710693</v>
       </c>
       <c r="E452" s="2">
-        <v>1.1676509380340576</v>
+        <v>1.1671216487884522</v>
       </c>
     </row>
     <row r="453">
@@ -7773,13 +7773,13 @@
         <v>2.0254571437835693</v>
       </c>
       <c r="C453" s="2">
-        <v>1.9157307147979736</v>
+        <v>1.9153016805648804</v>
       </c>
       <c r="D453" s="2">
         <v>1.2520724534988403</v>
       </c>
       <c r="E453" s="2">
-        <v>1.1191222667694092</v>
+        <v>1.1186861991882324</v>
       </c>
     </row>
     <row r="454">
@@ -7790,13 +7790,13 @@
         <v>1.0533736944198608</v>
       </c>
       <c r="C454" s="2">
-        <v>0.93659693002700806</v>
+        <v>0.93559223413467407</v>
       </c>
       <c r="D454" s="2">
         <v>1.1558821201324463</v>
       </c>
       <c r="E454" s="2">
-        <v>1.0352637767791748</v>
+        <v>1.034803032875061</v>
       </c>
     </row>
     <row r="455">
@@ -7807,13 +7807,13 @@
         <v>0.68522787094116211</v>
       </c>
       <c r="C455" s="2">
-        <v>0.58884364366531372</v>
+        <v>0.58861595392227173</v>
       </c>
       <c r="D455" s="2">
         <v>1.0856019258499146</v>
       </c>
       <c r="E455" s="2">
-        <v>0.94329804182052612</v>
+        <v>0.94281357526779175</v>
       </c>
     </row>
     <row r="456">
@@ -7824,13 +7824,13 @@
         <v>1.221642017364502</v>
       </c>
       <c r="C456" s="2">
-        <v>1.0441991090774536</v>
+        <v>1.0437134504318237</v>
       </c>
       <c r="D456" s="2">
         <v>1.0407259464263916</v>
       </c>
       <c r="E456" s="2">
-        <v>0.88948327302932739</v>
+        <v>0.88900679349899292</v>
       </c>
     </row>
     <row r="457">
@@ -7841,13 +7841,13 @@
         <v>0.35394710302352905</v>
       </c>
       <c r="C457" s="2">
-        <v>0.15558063983917236</v>
+        <v>0.15566025674343109</v>
       </c>
       <c r="D457" s="2">
         <v>1.0347837209701538</v>
       </c>
       <c r="E457" s="2">
-        <v>0.8858027458190918</v>
+        <v>0.88528376817703247</v>
       </c>
     </row>
     <row r="458">
@@ -7858,13 +7858,13 @@
         <v>0.77895659208297729</v>
       </c>
       <c r="C458" s="2">
-        <v>0.76201713085174561</v>
+        <v>0.76117706298828125</v>
       </c>
       <c r="D458" s="2">
         <v>1.0140653848648071</v>
       </c>
       <c r="E458" s="2">
-        <v>0.87078166007995605</v>
+        <v>0.87027931213378906</v>
       </c>
     </row>
     <row r="459">
@@ -7875,13 +7875,13 @@
         <v>0.79771333932876587</v>
       </c>
       <c r="C459" s="2">
-        <v>0.56424051523208618</v>
+        <v>0.56381171941757202</v>
       </c>
       <c r="D459" s="2">
         <v>1.0479123592376709</v>
       </c>
       <c r="E459" s="2">
-        <v>0.89740759134292603</v>
+        <v>0.89683490991592407</v>
       </c>
     </row>
     <row r="460">
@@ -7892,13 +7892,13 @@
         <v>1.1652513742446899</v>
       </c>
       <c r="C460" s="2">
-        <v>1.0010814666748047</v>
+        <v>1.0004010200500488</v>
       </c>
       <c r="D460" s="2">
         <v>1.0122791528701782</v>
       </c>
       <c r="E460" s="2">
-        <v>0.87071084976196289</v>
+        <v>0.87018656730651855</v>
       </c>
     </row>
     <row r="461">
@@ -7909,13 +7909,13 @@
         <v>1.231484055519104</v>
       </c>
       <c r="C461" s="2">
-        <v>1.0039346218109131</v>
+        <v>1.0032806396484375</v>
       </c>
       <c r="D461" s="2">
         <v>1.0125010013580322</v>
       </c>
       <c r="E461" s="2">
-        <v>0.86333400011062622</v>
+        <v>0.86277419328689575</v>
       </c>
     </row>
     <row r="462">
@@ -7926,13 +7926,13 @@
         <v>1.838992714881897</v>
       </c>
       <c r="C462" s="2">
-        <v>1.7805410623550415</v>
+        <v>1.7802613973617554</v>
       </c>
       <c r="D462" s="2">
         <v>1.0631570816040039</v>
       </c>
       <c r="E462" s="2">
-        <v>0.95070153474807739</v>
+        <v>0.95010805130004883</v>
       </c>
     </row>
     <row r="463">
@@ -7943,13 +7943,13 @@
         <v>1.3579961061477661</v>
       </c>
       <c r="C463" s="2">
-        <v>1.1762303113937378</v>
+        <v>1.1745926141738892</v>
       </c>
       <c r="D463" s="2">
-        <v>1.1241216659545898</v>
+        <v>1.1241216659545899</v>
       </c>
       <c r="E463" s="2">
-        <v>1.0023754835128784</v>
+        <v>1.0018095970153809</v>
       </c>
     </row>
     <row r="464">
@@ -7960,13 +7960,13 @@
         <v>0.36452889442443848</v>
       </c>
       <c r="C464" s="2">
-        <v>0.34857264161109924</v>
+        <v>0.34878107905387878</v>
       </c>
       <c r="D464" s="2">
-        <v>1.1681892871856689</v>
+        <v>1.168189287185669</v>
       </c>
       <c r="E464" s="2">
-        <v>1.0632787942886353</v>
+        <v>1.0626531839370728</v>
       </c>
     </row>
     <row r="465">
@@ -7977,13 +7977,13 @@
         <v>1.2236387729644775</v>
       </c>
       <c r="C465" s="2">
-        <v>0.97780746221542358</v>
+        <v>0.97700220346450806</v>
       </c>
       <c r="D465" s="2">
-        <v>1.1613845825195312</v>
+        <v>1.1613845825195313</v>
       </c>
       <c r="E465" s="2">
-        <v>1.0472805500030518</v>
+        <v>1.0466731786727905</v>
       </c>
     </row>
     <row r="466">
@@ -7994,13 +7994,13 @@
         <v>0.8098522424697876</v>
       </c>
       <c r="C466" s="2">
-        <v>0.94188839197158813</v>
+        <v>0.94166463613510132</v>
       </c>
       <c r="D466" s="2">
-        <v>1.1409300565719604</v>
+        <v>1.1409300565719605</v>
       </c>
       <c r="E466" s="2">
-        <v>1.025991678237915</v>
+        <v>1.0253896713256836</v>
       </c>
     </row>
     <row r="467">
@@ -8011,13 +8011,13 @@
         <v>1.3276380300521851</v>
       </c>
       <c r="C467" s="2">
-        <v>1.2270832061767578</v>
+        <v>1.2264913320541382</v>
       </c>
       <c r="D467" s="2">
         <v>1.0339982509613037</v>
       </c>
       <c r="E467" s="2">
-        <v>0.89890533685684204</v>
+        <v>0.8982812762260437</v>
       </c>
     </row>
     <row r="468">
@@ -8028,13 +8028,13 @@
         <v>1.1943215131759644</v>
       </c>
       <c r="C468" s="2">
-        <v>1.112370491027832</v>
+        <v>1.1114039421081543</v>
       </c>
       <c r="D468" s="2">
         <v>1.0126972198486328</v>
       </c>
       <c r="E468" s="2">
-        <v>0.88059335947036743</v>
+        <v>0.88005566596984863</v>
       </c>
     </row>
     <row r="469">
@@ -8045,13 +8045,13 @@
         <v>1.104008674621582</v>
       </c>
       <c r="C469" s="2">
-        <v>0.85709702968597412</v>
+        <v>0.85658079385757446</v>
       </c>
       <c r="D469" s="2">
         <v>1.0297791957855225</v>
       </c>
       <c r="E469" s="2">
-        <v>0.86839836835861206</v>
+        <v>0.86776453256607056</v>
       </c>
     </row>
     <row r="470">
@@ -8062,13 +8062,13 @@
         <v>1.0473933219909668</v>
       </c>
       <c r="C470" s="2">
-        <v>0.81233465671539307</v>
+        <v>0.81172895431518555</v>
       </c>
       <c r="D470" s="2">
         <v>0.975303053855896</v>
       </c>
       <c r="E470" s="2">
-        <v>0.81745946407318115</v>
+        <v>0.81677091121673584</v>
       </c>
     </row>
     <row r="471">
@@ -8079,13 +8079,13 @@
         <v>0.87660664319992065</v>
       </c>
       <c r="C471" s="2">
-        <v>0.63676369190216064</v>
+        <v>0.63628607988357544</v>
       </c>
       <c r="D471" s="2">
         <v>0.99800574779510498</v>
       </c>
       <c r="E471" s="2">
-        <v>0.80785727500915527</v>
+        <v>0.8070874810218811</v>
       </c>
     </row>
     <row r="472">
@@ -8096,13 +8096,13 @@
         <v>1.1662865877151489</v>
       </c>
       <c r="C472" s="2">
-        <v>1.0114226341247559</v>
+        <v>1.0105619430541992</v>
       </c>
       <c r="D472" s="2">
         <v>0.98124015331268311</v>
       </c>
       <c r="E472" s="2">
-        <v>0.77377396821975708</v>
+        <v>0.77307701110839844</v>
       </c>
     </row>
     <row r="473">
@@ -8113,13 +8113,13 @@
         <v>0.51826679706573486</v>
       </c>
       <c r="C473" s="2">
-        <v>0.23881794512271881</v>
+        <v>0.23816105723381043</v>
       </c>
       <c r="D473" s="2">
         <v>0.97130143642425537</v>
       </c>
       <c r="E473" s="2">
-        <v>0.75222480297088623</v>
+        <v>0.75162392854690552</v>
       </c>
     </row>
     <row r="474">
@@ -8130,13 +8130,13 @@
         <v>0.73335343599319458</v>
       </c>
       <c r="C474" s="2">
-        <v>0.51935732364654541</v>
+        <v>0.51805973052978516</v>
       </c>
       <c r="D474" s="2">
-        <v>0.9792182445526123</v>
+        <v>0.97921824455261231</v>
       </c>
       <c r="E474" s="2">
-        <v>0.77519077062606812</v>
+        <v>0.77456516027450562</v>
       </c>
     </row>
     <row r="475">
@@ -8147,13 +8147,13 @@
         <v>1.0141769647598267</v>
       </c>
       <c r="C475" s="2">
-        <v>0.8554685115814209</v>
+        <v>0.85451340675354004</v>
       </c>
       <c r="D475" s="2">
         <v>1.0700467824935913</v>
       </c>
       <c r="E475" s="2">
-        <v>0.89577829837799072</v>
+        <v>0.89514350891113281</v>
       </c>
     </row>
     <row r="476">
@@ -8164,13 +8164,13 @@
         <v>1.1767474412918091</v>
       </c>
       <c r="C476" s="2">
-        <v>0.92033368349075317</v>
+        <v>0.92039710283279419</v>
       </c>
       <c r="D476" s="2">
         <v>1.0216326713562012</v>
       </c>
       <c r="E476" s="2">
-        <v>0.90204852819442749</v>
+        <v>0.90139782428741455</v>
       </c>
     </row>
     <row r="477">
@@ -8178,16 +8178,16 @@
         <v>42948</v>
       </c>
       <c r="B477" s="2">
-        <v>1.1048728227615356</v>
+        <v>1.1048728227615357</v>
       </c>
       <c r="C477" s="2">
-        <v>0.91842788457870483</v>
+        <v>0.91832649707794189</v>
       </c>
       <c r="D477" s="2">
         <v>1.0093672275543213</v>
       </c>
       <c r="E477" s="2">
-        <v>0.88699924945831299</v>
+        <v>0.886302649974823</v>
       </c>
     </row>
     <row r="478">
@@ -8198,13 +8198,13 @@
         <v>1.1752603054046631</v>
       </c>
       <c r="C478" s="2">
-        <v>1.0637904405593872</v>
+        <v>1.0630515813827515</v>
       </c>
       <c r="D478" s="2">
         <v>1.0176829099655151</v>
       </c>
       <c r="E478" s="2">
-        <v>0.91160178184509277</v>
+        <v>0.91094011068344116</v>
       </c>
     </row>
     <row r="479">
@@ -8215,13 +8215,13 @@
         <v>1.8648504018783569</v>
       </c>
       <c r="C479" s="2">
-        <v>1.8976224660873413</v>
+        <v>1.8969343900680542</v>
       </c>
       <c r="D479" s="2">
         <v>1.0515755414962769</v>
       </c>
       <c r="E479" s="2">
-        <v>0.95272713899612427</v>
+        <v>0.95208644866943359</v>
       </c>
     </row>
     <row r="480">
@@ -8232,13 +8232,13 @@
         <v>0.44087919592857361</v>
       </c>
       <c r="C480" s="2">
-        <v>0.69319581985473633</v>
+        <v>0.69257462024688721</v>
       </c>
       <c r="D480" s="2">
         <v>1.0868396759033203</v>
       </c>
       <c r="E480" s="2">
-        <v>0.99407064914703369</v>
+        <v>0.99350953102111817</v>
       </c>
     </row>
     <row r="481">
@@ -8249,13 +8249,13 @@
         <v>1.05589759349823</v>
       </c>
       <c r="C481" s="2">
-        <v>0.87597906589508057</v>
+        <v>0.87470567226409912</v>
       </c>
       <c r="D481" s="2">
         <v>1.1454439163208008</v>
       </c>
       <c r="E481" s="2">
-        <v>1.076764702796936</v>
+        <v>1.0761674642562866</v>
       </c>
     </row>
     <row r="482">
@@ -8266,13 +8266,13 @@
         <v>0.59310775995254517</v>
       </c>
       <c r="C482" s="2">
-        <v>0.46024072170257568</v>
+        <v>0.45989793539047241</v>
       </c>
       <c r="D482" s="2">
         <v>1.1310354471206665</v>
       </c>
       <c r="E482" s="2">
-        <v>1.057866096496582</v>
+        <v>1.0571051836013794</v>
       </c>
     </row>
     <row r="483">
@@ -8283,13 +8283,13 @@
         <v>1.0383869409561157</v>
       </c>
       <c r="C483" s="2">
-        <v>0.88948541879653931</v>
+        <v>0.88837677240371704</v>
       </c>
       <c r="D483" s="2">
         <v>1.1722795963287354</v>
       </c>
       <c r="E483" s="2">
-        <v>1.1057991981506348</v>
+        <v>1.1050064563751221</v>
       </c>
     </row>
     <row r="484">
@@ -8300,13 +8300,13 @@
         <v>1.3315544128417969</v>
       </c>
       <c r="C484" s="2">
-        <v>1.2275605201721191</v>
+        <v>1.2273210287094116</v>
       </c>
       <c r="D484" s="2">
         <v>1.1035730838775635</v>
       </c>
       <c r="E484" s="2">
-        <v>1.0169271230697632</v>
+        <v>1.0161030292510986</v>
       </c>
     </row>
     <row r="485">
@@ -8317,13 +8317,13 @@
         <v>1.7041863203048706</v>
       </c>
       <c r="C485" s="2">
-        <v>1.6645801067352295</v>
+        <v>1.664318323135376</v>
       </c>
       <c r="D485" s="2">
         <v>1.1735711097717285</v>
       </c>
       <c r="E485" s="2">
-        <v>1.047204852104187</v>
+        <v>1.0464076995849609</v>
       </c>
     </row>
     <row r="486">
@@ -8334,13 +8334,13 @@
         <v>0.97519654035568237</v>
       </c>
       <c r="C486" s="2">
-        <v>0.74834030866622925</v>
+        <v>0.74676626920700073</v>
       </c>
       <c r="D486" s="2">
         <v>1.1903656721115112</v>
       </c>
       <c r="E486" s="2">
-        <v>1.0882492065429688</v>
+        <v>1.0875736474990845</v>
       </c>
     </row>
     <row r="487">
@@ -8351,13 +8351,13 @@
         <v>1.546457052230835</v>
       </c>
       <c r="C487" s="2">
-        <v>1.4951878786087036</v>
+        <v>1.4941625595092774</v>
       </c>
       <c r="D487" s="2">
         <v>1.2068754434585571</v>
       </c>
       <c r="E487" s="2">
-        <v>1.1094603538513184</v>
+        <v>1.10869300365448</v>
       </c>
     </row>
     <row r="488">
@@ -8368,13 +8368,13 @@
         <v>1.2464917898178101</v>
       </c>
       <c r="C488" s="2">
-        <v>1.0977737903594971</v>
+        <v>1.0968039035797119</v>
       </c>
       <c r="D488" s="2">
         <v>1.1788644790649414</v>
       </c>
       <c r="E488" s="2">
-        <v>1.073800802230835</v>
+        <v>1.0730516910552979</v>
       </c>
     </row>
     <row r="489">
@@ -8385,13 +8385,13 @@
         <v>1.0708612203598022</v>
       </c>
       <c r="C489" s="2">
-        <v>0.96569555997848511</v>
+        <v>0.96531665325164795</v>
       </c>
       <c r="D489" s="2">
         <v>1.1748254299163818</v>
       </c>
       <c r="E489" s="2">
-        <v>1.0441321134567261</v>
+        <v>1.0433157682418823</v>
       </c>
     </row>
     <row r="490">
@@ -8402,13 +8402,13 @@
         <v>1.2070494890213013</v>
       </c>
       <c r="C490" s="2">
-        <v>1.2453787326812744</v>
+        <v>1.2451990842819214</v>
       </c>
       <c r="D490" s="2">
         <v>1.0085428953170776</v>
       </c>
       <c r="E490" s="2">
-        <v>0.85318273305892944</v>
+        <v>0.85232484340667725</v>
       </c>
     </row>
     <row r="491">
@@ -8419,13 +8419,13 @@
         <v>0.7416948676109314</v>
       </c>
       <c r="C491" s="2">
-        <v>0.65114051103591919</v>
+        <v>0.64997261762619019</v>
       </c>
       <c r="D491" s="2">
         <v>1.0699325799942017</v>
       </c>
       <c r="E491" s="2">
-        <v>0.91249328851699829</v>
+        <v>0.91170138120651245</v>
       </c>
     </row>
     <row r="492">
@@ -8436,13 +8436,13 @@
         <v>0.78628808259963989</v>
       </c>
       <c r="C492" s="2">
-        <v>0.56855010986328125</v>
+        <v>0.56760430335998535</v>
       </c>
       <c r="D492" s="2">
         <v>1.0181125402450562</v>
       </c>
       <c r="E492" s="2">
-        <v>0.83541816473007202</v>
+        <v>0.83466440439224243</v>
       </c>
     </row>
     <row r="493">
@@ -8453,13 +8453,13 @@
         <v>1.2952035665512085</v>
       </c>
       <c r="C493" s="2">
-        <v>0.96054154634475708</v>
+        <v>0.95969843864440918</v>
       </c>
       <c r="D493" s="2">
         <v>1.0395561456680298</v>
       </c>
       <c r="E493" s="2">
-        <v>0.85296052694320679</v>
+        <v>0.85224348306655884</v>
       </c>
     </row>
     <row r="494">
@@ -8470,13 +8470,13 @@
         <v>0.20764395594596863</v>
       </c>
       <c r="C494" s="2">
-        <v>-0.053963854908943176</v>
+        <v>-0.054600376635789871</v>
       </c>
       <c r="D494" s="2">
         <v>1.0876883268356323</v>
       </c>
       <c r="E494" s="2">
-        <v>0.91031759977340698</v>
+        <v>0.90963101387023926</v>
       </c>
     </row>
     <row r="495">
@@ -8487,13 +8487,13 @@
         <v>1.5277031660079956</v>
       </c>
       <c r="C495" s="2">
-        <v>1.2821352481842041</v>
+        <v>1.2811551094055176</v>
       </c>
       <c r="D495" s="2">
         <v>1.1220766305923462</v>
       </c>
       <c r="E495" s="2">
-        <v>0.93926680088043213</v>
+        <v>0.93850725889205933</v>
       </c>
     </row>
     <row r="496">
@@ -8504,13 +8504,13 @@
         <v>1.0800763368606567</v>
       </c>
       <c r="C496" s="2">
-        <v>0.80151158571243286</v>
+        <v>0.80082988739013672</v>
       </c>
       <c r="D496" s="2">
         <v>1.1469177007675171</v>
       </c>
       <c r="E496" s="2">
-        <v>0.96633219718933105</v>
+        <v>0.96567231416702271</v>
       </c>
     </row>
     <row r="497">
@@ -8521,13 +8521,13 @@
         <v>1.4394849538803101</v>
       </c>
       <c r="C497" s="2">
-        <v>1.2556555271148682</v>
+        <v>1.2550153732299805</v>
       </c>
       <c r="D497" s="2">
         <v>1.1727150678634644</v>
       </c>
       <c r="E497" s="2">
-        <v>0.99614119529724121</v>
+        <v>0.99552226066589355</v>
       </c>
     </row>
     <row r="498">
@@ -8535,16 +8535,16 @@
         <v>43586</v>
       </c>
       <c r="B498" s="2">
-        <v>1.5040500164031982</v>
+        <v>1.5040500164031983</v>
       </c>
       <c r="C498" s="2">
-        <v>1.4819090366363525</v>
+        <v>1.4818044900894165</v>
       </c>
       <c r="D498" s="2">
         <v>1.1690343618392944</v>
       </c>
       <c r="E498" s="2">
-        <v>1.0313013792037964</v>
+        <v>1.0307348966598511</v>
       </c>
     </row>
     <row r="499">
@@ -8555,13 +8555,13 @@
         <v>1.5165451765060425</v>
       </c>
       <c r="C499" s="2">
-        <v>1.5059212446212769</v>
+        <v>1.5050852298736572</v>
       </c>
       <c r="D499" s="2">
         <v>1.3005632162094116</v>
       </c>
       <c r="E499" s="2">
-        <v>1.1798253059387207</v>
+        <v>1.1793296337127686</v>
       </c>
     </row>
     <row r="500">
@@ -8572,13 +8572,13 @@
         <v>0.96526437997817993</v>
       </c>
       <c r="C500" s="2">
-        <v>0.89472925662994385</v>
+        <v>0.8944585919380188</v>
       </c>
       <c r="D500" s="2">
         <v>1.2293789386749268</v>
       </c>
       <c r="E500" s="2">
-        <v>1.1855990886688232</v>
+        <v>1.1851205825805664</v>
       </c>
     </row>
     <row r="501">
@@ -8589,13 +8589,13 @@
         <v>1.0184637308120728</v>
       </c>
       <c r="C501" s="2">
-        <v>0.83683103322982788</v>
+        <v>0.83625376224517822</v>
       </c>
       <c r="D501" s="2">
         <v>1.2130026817321777</v>
       </c>
       <c r="E501" s="2">
-        <v>1.1896229982376099</v>
+        <v>1.1890888214111328</v>
       </c>
     </row>
     <row r="502">
@@ -8606,13 +8606,13 @@
         <v>1.2620773315429688</v>
       </c>
       <c r="C502" s="2">
-        <v>1.2769831418991089</v>
+        <v>1.2766119241714478</v>
       </c>
       <c r="D502" s="2">
         <v>1.1806960105895996</v>
       </c>
       <c r="E502" s="2">
-        <v>1.1858434677124023</v>
+        <v>1.1853181123733521</v>
       </c>
     </row>
     <row r="503">
@@ -8623,13 +8623,13 @@
         <v>1.3914036750793457</v>
       </c>
       <c r="C503" s="2">
-        <v>1.2827517986297607</v>
+        <v>1.2827520370483398</v>
       </c>
       <c r="D503" s="2">
         <v>1.1312421560287476</v>
       </c>
       <c r="E503" s="2">
-        <v>1.1213321685791016</v>
+        <v>1.1206957101821899</v>
       </c>
     </row>
     <row r="504">
@@ -8640,13 +8640,13 @@
         <v>0.88704478740692139</v>
       </c>
       <c r="C504" s="2">
-        <v>1.3340986967086792</v>
+        <v>1.3332737684249878</v>
       </c>
       <c r="D504" s="2">
         <v>1.0319074392318726</v>
       </c>
       <c r="E504" s="2">
-        <v>1.0070564746856689</v>
+        <v>1.0065207481384277</v>
       </c>
     </row>
     <row r="505">
@@ -8657,13 +8657,13 @@
         <v>0.93268966674804688</v>
       </c>
       <c r="C505" s="2">
-        <v>0.837726891040802</v>
+        <v>0.83654379844665527</v>
       </c>
       <c r="D505" s="2">
         <v>0.88965290784835815</v>
       </c>
       <c r="E505" s="2">
-        <v>0.87518256902694702</v>
+        <v>0.87468689680099487</v>
       </c>
     </row>
     <row r="506">
@@ -8674,13 +8674,13 @@
         <v>1.1487250328063965</v>
       </c>
       <c r="C506" s="2">
-        <v>1.2216397523880005</v>
+        <v>1.2210791110992432</v>
       </c>
       <c r="D506" s="2">
         <v>0.73308110237121582</v>
       </c>
       <c r="E506" s="2">
-        <v>0.74253189563751221</v>
+        <v>0.74207723140716553</v>
       </c>
     </row>
     <row r="507">
@@ -8691,13 +8691,13 @@
         <v>1.0589654445648193</v>
       </c>
       <c r="C507" s="2">
-        <v>0.90130734443664551</v>
+        <v>0.9002034068107605</v>
       </c>
       <c r="D507" s="2">
         <v>0.55847901105880737</v>
       </c>
       <c r="E507" s="2">
-        <v>0.58573567867279053</v>
+        <v>0.58530122041702271</v>
       </c>
     </row>
     <row r="508">
@@ -8708,13 +8708,13 @@
         <v>0.62253290414810181</v>
       </c>
       <c r="C508" s="2">
-        <v>0.47744050621986389</v>
+        <v>0.477510005235672</v>
       </c>
       <c r="D508" s="2">
         <v>0.42031973600387573</v>
       </c>
       <c r="E508" s="2">
-        <v>0.46405735611915588</v>
+        <v>0.46364206075668335</v>
       </c>
     </row>
     <row r="509">
@@ -8725,13 +8725,13 @@
         <v>-0.31502664089202881</v>
       </c>
       <c r="C509" s="2">
-        <v>-0.29213604331016541</v>
+        <v>-0.29204568266868591</v>
       </c>
       <c r="D509" s="2">
         <v>0.29104846715927124</v>
       </c>
       <c r="E509" s="2">
-        <v>0.28597387671470642</v>
+        <v>0.28567054867744446</v>
       </c>
     </row>
     <row r="510">
@@ -8742,13 +8742,13 @@
         <v>-0.39068228006362915</v>
       </c>
       <c r="C510" s="2">
-        <v>-0.35702487826347351</v>
+        <v>-0.35723322629928589</v>
       </c>
       <c r="D510" s="2">
         <v>0.23398058116436005</v>
       </c>
       <c r="E510" s="2">
-        <v>0.22016607224941254</v>
+        <v>0.2199791818857193</v>
       </c>
     </row>
     <row r="511">
@@ -8759,13 +8759,13 @@
         <v>-0.30934146046638489</v>
       </c>
       <c r="C511" s="2">
-        <v>-0.13418292999267578</v>
+        <v>-0.13437223434448242</v>
       </c>
       <c r="D511" s="2">
         <v>0.17532257735729218</v>
       </c>
       <c r="E511" s="2">
-        <v>0.14828570187091827</v>
+        <v>0.14809861779212952</v>
       </c>
     </row>
     <row r="512">
@@ -8776,13 +8776,13 @@
         <v>0.14797009527683258</v>
       </c>
       <c r="C512" s="2">
-        <v>0.18764698505401611</v>
+        <v>0.18781948089599609</v>
       </c>
       <c r="D512" s="2">
         <v>0.022293118759989738</v>
       </c>
       <c r="E512" s="2">
-        <v>0.0051159029826521873</v>
+        <v>0.0049322894774377346</v>
       </c>
     </row>
     <row r="513">
@@ -8793,13 +8793,13 @@
         <v>-0.27639669179916382</v>
       </c>
       <c r="C513" s="2">
-        <v>-0.26865264773368835</v>
+        <v>-0.26846960186958313</v>
       </c>
       <c r="D513" s="2">
         <v>0.0073073357343673706</v>
       </c>
       <c r="E513" s="2">
-        <v>-0.011311030946671963</v>
+        <v>-0.011497148312628269</v>
       </c>
     </row>
     <row r="514">
@@ -8810,13 +8810,13 @@
         <v>0.41907888650894165</v>
       </c>
       <c r="C514" s="2">
-        <v>0.24545657634735107</v>
+        <v>0.24532143771648407</v>
       </c>
       <c r="D514" s="2">
         <v>0.14364174008369446</v>
       </c>
       <c r="E514" s="2">
-        <v>0.1252339631319046</v>
+        <v>0.1249748170375824</v>
       </c>
     </row>
     <row r="515">
@@ -8827,13 +8827,13 @@
         <v>0.62080293893814087</v>
       </c>
       <c r="C515" s="2">
-        <v>0.57471638917922974</v>
+        <v>0.57415395975112915</v>
       </c>
       <c r="D515" s="2">
         <v>0.28240573406219482</v>
       </c>
       <c r="E515" s="2">
-        <v>0.26116490364074707</v>
+        <v>0.26096886396408081</v>
       </c>
     </row>
     <row r="516">
@@ -8844,13 +8844,13 @@
         <v>-0.31829968094825745</v>
       </c>
       <c r="C516" s="2">
-        <v>-0.3872208297252655</v>
+        <v>-0.38829353451728821</v>
       </c>
       <c r="D516" s="2">
         <v>0.43446016311645508</v>
       </c>
       <c r="E516" s="2">
-        <v>0.39991739392280579</v>
+        <v>0.39970150589942932</v>
       </c>
     </row>
     <row r="517">
@@ -8861,13 +8861,13 @@
         <v>0.48766085505485535</v>
       </c>
       <c r="C517" s="2">
-        <v>0.32959809899330139</v>
+        <v>0.3296450674533844</v>
       </c>
       <c r="D517" s="2">
         <v>0.53930217027664185</v>
       </c>
       <c r="E517" s="2">
-        <v>0.49767747521400452</v>
+        <v>0.49744099378585816</v>
       </c>
     </row>
     <row r="518">
@@ -8878,13 +8878,13 @@
         <v>0.91198301315307617</v>
       </c>
       <c r="C518" s="2">
-        <v>0.93676888942718506</v>
+        <v>0.93620198965072632</v>
       </c>
       <c r="D518" s="2">
         <v>0.68326592445373535</v>
       </c>
       <c r="E518" s="2">
-        <v>0.66851383447647095</v>
+        <v>0.66818547248840332</v>
       </c>
     </row>
     <row r="519">
@@ -8895,13 +8895,13 @@
         <v>0.85819363594055176</v>
       </c>
       <c r="C519" s="2">
-        <v>0.86635357141494751</v>
+        <v>0.86671310663223267</v>
       </c>
       <c r="D519" s="2">
         <v>0.71588611602783203</v>
       </c>
       <c r="E519" s="2">
-        <v>0.73231160640716553</v>
+        <v>0.73194491863250732</v>
       </c>
     </row>
     <row r="520">
@@ -8912,13 +8912,13 @@
         <v>1.0591484308242798</v>
       </c>
       <c r="C520" s="2">
-        <v>1.1145895719528198</v>
+        <v>1.1142215728759766</v>
       </c>
       <c r="D520" s="2">
         <v>0.68480128049850464</v>
       </c>
       <c r="E520" s="2">
-        <v>0.69767379760742188</v>
+        <v>0.69730955362319946</v>
       </c>
     </row>
     <row r="521">
@@ -8929,13 +8929,13 @@
         <v>1.0915480852127075</v>
       </c>
       <c r="C521" s="2">
-        <v>1.0674877166748047</v>
+        <v>1.0674750804901123</v>
       </c>
       <c r="D521" s="2">
         <v>0.84871155023574829</v>
       </c>
       <c r="E521" s="2">
-        <v>0.87066841125488281</v>
+        <v>0.87044674158096313</v>
       </c>
     </row>
     <row r="522">
@@ -8946,13 +8946,13 @@
         <v>1.0192772150039673</v>
       </c>
       <c r="C522" s="2">
-        <v>1.2688746452331543</v>
+        <v>1.2682304382324219</v>
       </c>
       <c r="D522" s="2">
-        <v>0.83220744132995605</v>
+        <v>0.83220744132995606</v>
       </c>
       <c r="E522" s="2">
-        <v>0.87086480855941772</v>
+        <v>0.87058514356613159</v>
       </c>
     </row>
     <row r="523">
@@ -8963,13 +8963,13 @@
         <v>0.71266067028045654</v>
       </c>
       <c r="C523" s="2">
-        <v>0.81963628530502319</v>
+        <v>0.81915682554244995</v>
       </c>
       <c r="D523" s="2">
         <v>0.79856282472610474</v>
       </c>
       <c r="E523" s="2">
-        <v>0.83229458332061768</v>
+        <v>0.83208256959915161</v>
       </c>
     </row>
     <row r="524">
@@ -8980,13 +8980,13 @@
         <v>0.34103906154632568</v>
       </c>
       <c r="C524" s="2">
-        <v>0.26297628879547119</v>
+        <v>0.26243522763252258</v>
       </c>
       <c r="D524" s="2">
         <v>0.81259059906005859</v>
       </c>
       <c r="E524" s="2">
-        <v>0.84793615341186523</v>
+        <v>0.84768754243850708</v>
       </c>
     </row>
     <row r="525">
@@ -8997,13 +8997,13 @@
         <v>1.1568928956985474</v>
       </c>
       <c r="C525" s="2">
-        <v>1.1697306632995605</v>
+        <v>1.1699413061141968</v>
       </c>
       <c r="D525" s="2">
         <v>0.7372668981552124</v>
       </c>
       <c r="E525" s="2">
-        <v>0.75552201271057129</v>
+        <v>0.7552221417427063</v>
       </c>
     </row>
     <row r="526">
@@ -9014,13 +9014,13 @@
         <v>0.33912378549575806</v>
       </c>
       <c r="C526" s="2">
-        <v>0.33136549592018127</v>
+        <v>0.33089098334312439</v>
       </c>
       <c r="D526" s="2">
         <v>0.7090294361114502</v>
       </c>
       <c r="E526" s="2">
-        <v>0.7284589409828186</v>
+        <v>0.72817140817642212</v>
       </c>
     </row>
     <row r="527">
@@ -9031,13 +9031,13 @@
         <v>0.60918146371841431</v>
       </c>
       <c r="C527" s="2">
-        <v>0.58963727951049805</v>
+        <v>0.58967840671539307</v>
       </c>
       <c r="D527" s="2">
         <v>0.66850030422210693</v>
       </c>
       <c r="E527" s="2">
-        <v>0.65744680166244507</v>
+        <v>0.65721660852432251</v>
       </c>
     </row>
     <row r="528">
@@ -9048,13 +9048,13 @@
         <v>0.98444372415542603</v>
       </c>
       <c r="C528" s="2">
-        <v>1.0071275234222412</v>
+        <v>1.0071579217910767</v>
       </c>
       <c r="D528" s="2">
         <v>0.67174011468887329</v>
       </c>
       <c r="E528" s="2">
-        <v>0.6354411244392395</v>
+        <v>0.63522589206695557</v>
       </c>
     </row>
     <row r="529">
@@ -9065,13 +9065,13 @@
         <v>0.38123545050621033</v>
       </c>
       <c r="C529" s="2">
-        <v>0.28286215662956238</v>
+        <v>0.28203296661376953</v>
       </c>
       <c r="D529" s="2">
         <v>0.63968777656555176</v>
       </c>
       <c r="E529" s="2">
-        <v>0.59682285785675049</v>
+        <v>0.59667468070983887</v>
       </c>
     </row>
     <row r="530">
@@ -9082,13 +9082,13 @@
         <v>0.83741074800491333</v>
       </c>
       <c r="C530" s="2">
-        <v>0.82391989231109619</v>
+        <v>0.82401841878890991</v>
       </c>
       <c r="D530" s="2">
         <v>0.4499584436416626</v>
       </c>
       <c r="E530" s="2">
-        <v>0.41006013751029968</v>
+        <v>0.40984225273132324</v>
       </c>
     </row>
     <row r="531">
@@ -9099,13 +9099,13 @@
         <v>0.6545148491859436</v>
       </c>
       <c r="C531" s="2">
-        <v>0.62976551055908203</v>
+        <v>0.62963724136352539</v>
       </c>
       <c r="D531" s="2">
         <v>0.44234931468963623</v>
       </c>
       <c r="E531" s="2">
-        <v>0.40222391486167908</v>
+        <v>0.40203052759170532</v>
       </c>
     </row>
     <row r="532">
@@ -9116,13 +9116,13 @@
         <v>0.74181884527206421</v>
       </c>
       <c r="C532" s="2">
-        <v>0.62158507108688354</v>
+        <v>0.62124043703079224</v>
       </c>
       <c r="D532" s="2">
         <v>0.40619507431983948</v>
       </c>
       <c r="E532" s="2">
-        <v>0.37019741535186768</v>
+        <v>0.36994665861129761</v>
       </c>
     </row>
     <row r="533">
@@ -9133,13 +9133,13 @@
         <v>0.05256812646985054</v>
       </c>
       <c r="C533" s="2">
-        <v>-0.084587730467319489</v>
+        <v>-0.084525808691978455</v>
       </c>
       <c r="D533" s="2">
         <v>0.29515799880027771</v>
       </c>
       <c r="E533" s="2">
-        <v>0.24552300572395325</v>
+        <v>0.24521572887897491</v>
       </c>
     </row>
     <row r="534">
@@ -9150,13 +9150,13 @@
         <v>-0.55067098140716553</v>
       </c>
       <c r="C534" s="2">
-        <v>-0.51113384962081909</v>
+        <v>-0.5115504264831543</v>
       </c>
       <c r="D534" s="2">
         <v>0.25746017694473267</v>
       </c>
       <c r="E534" s="2">
-        <v>0.21014983952045441</v>
+        <v>0.2098662257194519</v>
       </c>
     </row>
     <row r="535">
@@ -9167,13 +9167,13 @@
         <v>0.27064147591590881</v>
       </c>
       <c r="C535" s="2">
-        <v>0.2608393132686615</v>
+        <v>0.26058563590049744</v>
       </c>
       <c r="D535" s="2">
         <v>0.1633276492357254</v>
       </c>
       <c r="E535" s="2">
-        <v>0.13143374025821686</v>
+        <v>0.13110977411270142</v>
       </c>
     </row>
     <row r="536">
@@ -9184,13 +9184,13 @@
         <v>0.28379341959953308</v>
       </c>
       <c r="C536" s="2">
-        <v>0.30139878392219543</v>
+        <v>0.30092358589172363</v>
       </c>
       <c r="D536" s="2">
         <v>0.11014803498983383</v>
       </c>
       <c r="E536" s="2">
-        <v>0.075894169509410858</v>
+        <v>0.075603760778903961</v>
       </c>
     </row>
     <row r="537">
@@ -9201,13 +9201,13 @@
         <v>-0.014889826998114586</v>
       </c>
       <c r="C537" s="2">
-        <v>-0.1149420291185379</v>
+        <v>-0.11542044579982758</v>
       </c>
       <c r="D537" s="2">
         <v>0.050069317221641541</v>
       </c>
       <c r="E537" s="2">
-        <v>0.023220838978886604</v>
+        <v>0.022932179272174835</v>
       </c>
     </row>
     <row r="538">
@@ -9218,13 +9218,13 @@
         <v>0.041955038905143738</v>
       </c>
       <c r="C538" s="2">
-        <v>-0.03549637645483017</v>
+        <v>-0.036112599074840546</v>
       </c>
       <c r="D538" s="2">
         <v>0.087621346116065979</v>
       </c>
       <c r="E538" s="2">
-        <v>0.071984589099884033</v>
+        <v>0.071667633950710297</v>
       </c>
     </row>
     <row r="539">
@@ -9235,13 +9235,13 @@
         <v>-0.0097820507362484932</v>
       </c>
       <c r="C539" s="2">
-        <v>0.11547500640153885</v>
+        <v>0.11521033942699432</v>
       </c>
       <c r="D539" s="2">
-        <v>0.20720434188842773</v>
+        <v>0.20720434188842774</v>
       </c>
       <c r="E539" s="2">
-        <v>0.1772470623254776</v>
+        <v>0.17692123353481293</v>
       </c>
     </row>
     <row r="540">
@@ -9252,13 +9252,13 @@
         <v>0.17589828372001648</v>
       </c>
       <c r="C540" s="2">
-        <v>0.12990933656692505</v>
+        <v>0.13008309900760651</v>
       </c>
       <c r="D540" s="2">
         <v>0.17912249267101288</v>
       </c>
       <c r="E540" s="2">
-        <v>0.13815310597419739</v>
+        <v>0.13782060146331787</v>
       </c>
     </row>
     <row r="541">
@@ -9269,13 +9269,13 @@
         <v>0.20111037790775299</v>
       </c>
       <c r="C541" s="2">
-        <v>0.14752510190010071</v>
+        <v>0.14719623327255249</v>
       </c>
       <c r="D541" s="2">
         <v>0.21292875707149506</v>
       </c>
       <c r="E541" s="2">
-        <v>0.16596560180187225</v>
+        <v>0.16569148004055023</v>
       </c>
     </row>
     <row r="542">
@@ -9283,16 +9283,16 @@
         <v>44927</v>
       </c>
       <c r="B542" s="2">
-        <v>0.39053636789321899</v>
+        <v>0.390536367893219</v>
       </c>
       <c r="C542" s="2">
-        <v>0.35428604483604431</v>
+        <v>0.35409331321716309</v>
       </c>
       <c r="D542" s="2">
         <v>0.24846506118774414</v>
       </c>
       <c r="E542" s="2">
-        <v>0.1973651796579361</v>
+        <v>0.19705906510353088</v>
       </c>
     </row>
     <row r="543">
@@ -9303,13 +9303,13 @@
         <v>0.52557605504989624</v>
       </c>
       <c r="C543" s="2">
-        <v>0.4362284243106842</v>
+        <v>0.43573197722434998</v>
       </c>
       <c r="D543" s="2">
         <v>0.2516215443611145</v>
       </c>
       <c r="E543" s="2">
-        <v>0.20944133400917053</v>
+        <v>0.20919662714004517</v>
       </c>
     </row>
     <row r="544">
@@ -9320,13 +9320,13 @@
         <v>0.01790480874478817</v>
       </c>
       <c r="C544" s="2">
-        <v>-0.091006368398666382</v>
+        <v>-0.091320142149925232</v>
       </c>
       <c r="D544" s="2">
         <v>0.32770442962646484</v>
       </c>
       <c r="E544" s="2">
-        <v>0.26141446828842163</v>
+        <v>0.26114839315414429</v>
       </c>
     </row>
     <row r="545">
@@ -9337,13 +9337,13 @@
         <v>0.58804976940155029</v>
       </c>
       <c r="C545" s="2">
-        <v>0.55171126127243042</v>
+        <v>0.55176150798797607</v>
       </c>
       <c r="D545" s="2">
         <v>0.35874345898628235</v>
       </c>
       <c r="E545" s="2">
-        <v>0.28694736957550049</v>
+        <v>0.28663372993469238</v>
       </c>
     </row>
     <row r="546">
@@ -9354,13 +9354,13 @@
         <v>0.30493685603141785</v>
       </c>
       <c r="C546" s="2">
-        <v>0.16765417158603668</v>
+        <v>0.16688787937164307</v>
       </c>
       <c r="D546" s="2">
-        <v>0.42207175493240356</v>
+        <v>0.42180377244949341</v>
       </c>
       <c r="E546" s="2">
-        <v>0.36504364013671875</v>
+        <v>0.36450210213661194</v>
       </c>
     </row>
     <row r="547">
@@ -9371,13 +9371,13 @@
         <v>0.070363469421863556</v>
       </c>
       <c r="C547" s="2">
-        <v>0.073189094662666321</v>
+        <v>0.073125466704368591</v>
       </c>
       <c r="D547" s="2">
-        <v>0.44348615407943726</v>
+        <v>0.4432181715965271</v>
       </c>
       <c r="E547" s="2">
-        <v>0.37852531671524048</v>
+        <v>0.37801787257194519</v>
       </c>
     </row>
     <row r="548">
@@ -9388,13 +9388,13 @@
         <v>0.67496401071548462</v>
       </c>
       <c r="C548" s="2">
-        <v>0.5832330584526062</v>
+        <v>0.58277606964111328</v>
       </c>
       <c r="D548" s="2">
-        <v>0.45612820982933044</v>
+        <v>0.45586022734642029</v>
       </c>
       <c r="E548" s="2">
-        <v>0.39346882700920105</v>
+        <v>0.39302518963813782</v>
       </c>
     </row>
     <row r="549">
@@ -9405,13 +9405,13 @@
         <v>0.45524948835372925</v>
       </c>
       <c r="C549" s="2">
-        <v>0.3597055971622467</v>
+        <v>0.35945135354995728</v>
       </c>
       <c r="D549" s="2">
-        <v>0.51948016881942749</v>
+        <v>0.51921218633651733</v>
       </c>
       <c r="E549" s="2">
-        <v>0.46274939179420471</v>
+        <v>0.46227183938026428</v>
       </c>
     </row>
     <row r="550">
@@ -9419,16 +9419,16 @@
         <v>45170</v>
       </c>
       <c r="B550" s="2">
-        <v>0.7710648775100708</v>
+        <v>0.7686530351638794</v>
       </c>
       <c r="C550" s="2">
-        <v>0.85039138793945312</v>
+        <v>0.84801137447357178</v>
       </c>
       <c r="D550" s="2">
-        <v>0.50054532289505005</v>
+        <v>0.50027734041213989</v>
       </c>
       <c r="E550" s="2">
-        <v>0.44422763586044312</v>
+        <v>0.44372272491455078</v>
       </c>
     </row>
     <row r="551">
@@ -9439,13 +9439,13 @@
         <v>0.58326607942581177</v>
       </c>
       <c r="C551" s="2">
-        <v>0.47562125325202942</v>
+        <v>0.47573545575141907</v>
       </c>
       <c r="D551" s="2">
-        <v>0.52499639987945557</v>
+        <v>0.49675530195236206</v>
       </c>
       <c r="E551" s="2">
-        <v>0.47879931330680847</v>
+        <v>0.43779793381690979</v>
       </c>
     </row>
     <row r="552">
@@ -9456,13 +9456,13 @@
         <v>0.63935452699661255</v>
       </c>
       <c r="C552" s="2">
-        <v>0.57072007656097412</v>
+        <v>0.5707976222038269</v>
       </c>
       <c r="D552" s="2">
-        <v>0.58994394540786743</v>
+        <v>0.48858609795570374</v>
       </c>
       <c r="E552" s="2">
-        <v>0.5367436408996582</v>
+        <v>0.42475739121437073</v>
       </c>
     </row>
     <row r="553">
@@ -9473,13 +9473,13 @@
         <v>0.58807265758514404</v>
       </c>
       <c r="C553" s="2">
-        <v>0.53251850605010986</v>
+        <v>0.53189986944198608</v>
       </c>
       <c r="D553" s="2">
-        <v>0.57577395439147949</v>
+        <v>0.46528884768486023</v>
       </c>
       <c r="E553" s="2">
-        <v>0.52899539470672607</v>
+        <v>0.4050050675868988</v>
       </c>
     </row>
     <row r="554">
@@ -9490,13 +9490,47 @@
         <v>0.41763603687286377</v>
       </c>
       <c r="C554" s="2">
-        <v>0.38501548767089844</v>
+        <v>0.38481932878494263</v>
       </c>
       <c r="D554" s="2">
-        <v>0.59987884759902954</v>
+        <v>0.46672302484512329</v>
       </c>
       <c r="E554" s="2">
-        <v>0.56285333633422852</v>
+        <v>0.41151273250579834</v>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" s="1">
+        <v>45323</v>
+      </c>
+      <c r="B555" s="2">
+        <v>0.2732384204864502</v>
+      </c>
+      <c r="C555" s="2">
+        <v>0.11356479674577713</v>
+      </c>
+      <c r="D555" s="2">
+        <v>0.41640138626098633</v>
+      </c>
+      <c r="E555" s="2">
+        <v>0.33876296877861023</v>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" s="1">
+        <v>45352</v>
+      </c>
+      <c r="B556" s="2">
+        <v>-0.0031594929751008749</v>
+      </c>
+      <c r="C556" s="2">
+        <v>-0.044239293783903122</v>
+      </c>
+      <c r="D556" s="2">
+        <v>0.38302841782569885</v>
+      </c>
+      <c r="E556" s="2">
+        <v>0.31136846542358399</v>
       </c>
     </row>
   </sheetData>

--- a/MSC_skewness.xlsx
+++ b/MSC_skewness.xlsx
@@ -75,7 +75,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E556"/>
+  <dimension ref="A1:E561"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -106,13 +106,13 @@
         <v>0.88469290733337402</v>
       </c>
       <c r="C2" s="2">
-        <v>0.86691051721572876</v>
+        <v>0.86685627698898316</v>
       </c>
       <c r="D2" s="2">
         <v>0.8245728611946106</v>
       </c>
       <c r="E2" s="2">
-        <v>0.7935594916343689</v>
+        <v>0.79342067241668701</v>
       </c>
     </row>
     <row r="3">
@@ -123,13 +123,13 @@
         <v>0.87288045883178711</v>
       </c>
       <c r="C3" s="2">
-        <v>0.83063691854476929</v>
+        <v>0.83041262626647949</v>
       </c>
       <c r="D3" s="2">
         <v>0.79138636589050293</v>
       </c>
       <c r="E3" s="2">
-        <v>0.75815677642822266</v>
+        <v>0.75802838802337647</v>
       </c>
     </row>
     <row r="4">
@@ -140,13 +140,13 @@
         <v>0.88555455207824707</v>
       </c>
       <c r="C4" s="2">
-        <v>0.84163111448287964</v>
+        <v>0.84146881103515625</v>
       </c>
       <c r="D4" s="2">
         <v>0.74737828969955444</v>
       </c>
       <c r="E4" s="2">
-        <v>0.71408414840698242</v>
+        <v>0.71397757530212402</v>
       </c>
     </row>
     <row r="5">
@@ -157,13 +157,13 @@
         <v>0.77309525012969971</v>
       </c>
       <c r="C5" s="2">
-        <v>0.74810326099395752</v>
+        <v>0.74806404113769531</v>
       </c>
       <c r="D5" s="2">
         <v>0.70175653696060181</v>
       </c>
       <c r="E5" s="2">
-        <v>0.66810750961303711</v>
+        <v>0.66798681020736694</v>
       </c>
     </row>
     <row r="6">
@@ -174,13 +174,13 @@
         <v>0.70664113759994507</v>
       </c>
       <c r="C6" s="2">
-        <v>0.6805155873298645</v>
+        <v>0.6803014874458313</v>
       </c>
       <c r="D6" s="2">
         <v>0.69672882556915283</v>
       </c>
       <c r="E6" s="2">
-        <v>0.66423875093460083</v>
+        <v>0.66412085294723511</v>
       </c>
     </row>
     <row r="7">
@@ -191,13 +191,13 @@
         <v>0.62545400857925415</v>
       </c>
       <c r="C7" s="2">
-        <v>0.5811430811882019</v>
+        <v>0.58106690645217896</v>
       </c>
       <c r="D7" s="2">
         <v>0.64241719245910645</v>
       </c>
       <c r="E7" s="2">
-        <v>0.61026835441589355</v>
+        <v>0.61013549566268921</v>
       </c>
     </row>
     <row r="8">
@@ -208,13 +208,13 @@
         <v>0.48332974314689636</v>
       </c>
       <c r="C8" s="2">
-        <v>0.44964835047721863</v>
+        <v>0.44967302680015564</v>
       </c>
       <c r="D8" s="2">
         <v>0.59014445543289185</v>
       </c>
       <c r="E8" s="2">
-        <v>0.56078433990478516</v>
+        <v>0.56066793203353882</v>
       </c>
     </row>
     <row r="9">
@@ -225,13 +225,13 @@
         <v>0.38240408897399902</v>
       </c>
       <c r="C9" s="2">
-        <v>0.34627130627632141</v>
+        <v>0.34605121612548828</v>
       </c>
       <c r="D9" s="2">
         <v>0.54714661836624146</v>
       </c>
       <c r="E9" s="2">
-        <v>0.52169865369796753</v>
+        <v>0.52160066366195679</v>
       </c>
     </row>
     <row r="10">
@@ -242,13 +242,13 @@
         <v>0.65650749206542969</v>
       </c>
       <c r="C10" s="2">
-        <v>0.63328844308853149</v>
+        <v>0.63319319486618042</v>
       </c>
       <c r="D10" s="2">
         <v>0.5068967342376709</v>
       </c>
       <c r="E10" s="2">
-        <v>0.48293885588645935</v>
+        <v>0.48282906413078308</v>
       </c>
     </row>
     <row r="11">
@@ -259,13 +259,13 @@
         <v>0.39588823914527893</v>
       </c>
       <c r="C11" s="2">
-        <v>0.38117688894271851</v>
+        <v>0.38098791241645813</v>
       </c>
       <c r="D11" s="2">
         <v>0.47223973274230957</v>
       </c>
       <c r="E11" s="2">
-        <v>0.44926217198371887</v>
+        <v>0.44916373491287232</v>
       </c>
     </row>
     <row r="12">
@@ -276,13 +276,13 @@
         <v>0.40242576599121094</v>
       </c>
       <c r="C12" s="2">
-        <v>0.38528123497962952</v>
+        <v>0.38520479202270508</v>
       </c>
       <c r="D12" s="2">
         <v>0.44589698314666748</v>
       </c>
       <c r="E12" s="2">
-        <v>0.42550742626190186</v>
+        <v>0.42540499567985535</v>
       </c>
     </row>
     <row r="13">
@@ -293,13 +293,13 @@
         <v>0.49857404828071594</v>
       </c>
       <c r="C13" s="2">
-        <v>0.48985996842384338</v>
+        <v>0.48986357450485229</v>
       </c>
       <c r="D13" s="2">
         <v>0.42059344053268433</v>
       </c>
       <c r="E13" s="2">
-        <v>0.40087586641311646</v>
+        <v>0.40075808763504028</v>
       </c>
     </row>
     <row r="14">
@@ -310,13 +310,13 @@
         <v>0.41084620356559753</v>
       </c>
       <c r="C14" s="2">
-        <v>0.39926472306251526</v>
+        <v>0.39911937713623047</v>
       </c>
       <c r="D14" s="2">
         <v>0.40260231494903565</v>
       </c>
       <c r="E14" s="2">
-        <v>0.38790053129196167</v>
+        <v>0.38779181241989136</v>
       </c>
     </row>
     <row r="15">
@@ -327,13 +327,13 @@
         <v>0.3947279155254364</v>
       </c>
       <c r="C15" s="2">
-        <v>0.37742561101913452</v>
+        <v>0.37731361389160156</v>
       </c>
       <c r="D15" s="2">
         <v>0.34784984588623047</v>
       </c>
       <c r="E15" s="2">
-        <v>0.33220976591110229</v>
+        <v>0.33210527896881104</v>
       </c>
     </row>
     <row r="16">
@@ -344,13 +344,13 @@
         <v>0.38836926221847534</v>
       </c>
       <c r="C16" s="2">
-        <v>0.36735042929649353</v>
+        <v>0.36723834276199341</v>
       </c>
       <c r="D16" s="2">
         <v>0.31815412640571594</v>
       </c>
       <c r="E16" s="2">
-        <v>0.30194231867790222</v>
+        <v>0.30185142159461975</v>
       </c>
     </row>
     <row r="17">
@@ -361,13 +361,13 @@
         <v>0.25559788942337036</v>
       </c>
       <c r="C17" s="2">
-        <v>0.22796426713466644</v>
+        <v>0.22785073518753052</v>
       </c>
       <c r="D17" s="2">
         <v>0.29021283984184265</v>
       </c>
       <c r="E17" s="2">
-        <v>0.27074891328811646</v>
+        <v>0.27066349983215332</v>
       </c>
     </row>
     <row r="18">
@@ -378,13 +378,13 @@
         <v>0.22048401832580566</v>
       </c>
       <c r="C18" s="2">
-        <v>0.2294931560754776</v>
+        <v>0.22935473918914795</v>
       </c>
       <c r="D18" s="2">
         <v>0.25320655107498169</v>
       </c>
       <c r="E18" s="2">
-        <v>0.23794034123420715</v>
+        <v>0.23785881698131561</v>
       </c>
     </row>
     <row r="19">
@@ -395,13 +395,13 @@
         <v>0.16373516619205475</v>
       </c>
       <c r="C19" s="2">
-        <v>0.13207150995731354</v>
+        <v>0.13201436400413513</v>
       </c>
       <c r="D19" s="2">
         <v>0.23847326636314392</v>
       </c>
       <c r="E19" s="2">
-        <v>0.22168463468551636</v>
+        <v>0.22162251174449921</v>
       </c>
     </row>
     <row r="20">
@@ -412,13 +412,13 @@
         <v>0.12862695753574371</v>
       </c>
       <c r="C20" s="2">
-        <v>0.10876985639333725</v>
+        <v>0.10870314389467239</v>
       </c>
       <c r="D20" s="2">
         <v>0.20348916947841644</v>
       </c>
       <c r="E20" s="2">
-        <v>0.18588833510875702</v>
+        <v>0.18583877384662628</v>
       </c>
     </row>
     <row r="21">
@@ -429,13 +429,13 @@
         <v>0.15095406770706177</v>
       </c>
       <c r="C21" s="2">
-        <v>0.10454080998897553</v>
+        <v>0.10451363772153854</v>
       </c>
       <c r="D21" s="2">
         <v>0.18256673216819763</v>
       </c>
       <c r="E21" s="2">
-        <v>0.1624545156955719</v>
+        <v>0.16239507496356964</v>
       </c>
     </row>
     <row r="22">
@@ -446,13 +446,13 @@
         <v>0.16551756858825684</v>
       </c>
       <c r="C22" s="2">
-        <v>0.19458270072937012</v>
+        <v>0.19462135434150696</v>
       </c>
       <c r="D22" s="2">
         <v>0.16056980192661286</v>
       </c>
       <c r="E22" s="2">
-        <v>0.14163191616535187</v>
+        <v>0.1415846198797226</v>
       </c>
     </row>
     <row r="23">
@@ -463,13 +463,13 @@
         <v>0.27824649214744568</v>
       </c>
       <c r="C23" s="2">
-        <v>0.25296339392662048</v>
+        <v>0.25299271941184998</v>
       </c>
       <c r="D23" s="2">
         <v>0.12920628488063812</v>
       </c>
       <c r="E23" s="2">
-        <v>0.10603266954421997</v>
+        <v>0.10599489510059357</v>
       </c>
     </row>
     <row r="24">
@@ -480,13 +480,13 @@
         <v>0.079871043562889099</v>
       </c>
       <c r="C24" s="2">
-        <v>0.055258836597204208</v>
+        <v>0.05525994673371315</v>
       </c>
       <c r="D24" s="2">
         <v>0.078575022518634796</v>
       </c>
       <c r="E24" s="2">
-        <v>0.068311192095279694</v>
+        <v>0.068279705941677094</v>
       </c>
     </row>
     <row r="25">
@@ -497,13 +497,13 @@
         <v>0.20006734132766724</v>
       </c>
       <c r="C25" s="2">
-        <v>0.156446173787117</v>
+        <v>0.15624499320983887</v>
       </c>
       <c r="D25" s="2">
         <v>0.012595728971064091</v>
       </c>
       <c r="E25" s="2">
-        <v>0.002156098373234272</v>
+        <v>0.0021324141416698694</v>
       </c>
     </row>
     <row r="26">
@@ -514,13 +514,13 @@
         <v>0.057625520974397659</v>
       </c>
       <c r="C26" s="2">
-        <v>0.040560856461524963</v>
+        <v>0.040556635707616806</v>
       </c>
       <c r="D26" s="2">
         <v>-0.0073789660818874836</v>
       </c>
       <c r="E26" s="2">
-        <v>-0.011685073375701904</v>
+        <v>-0.011705391108989716</v>
       </c>
     </row>
     <row r="27">
@@ -531,13 +531,13 @@
         <v>-0.061787586659193039</v>
       </c>
       <c r="C27" s="2">
-        <v>-0.09090009331703186</v>
+        <v>-0.090952731668949127</v>
       </c>
       <c r="D27" s="2">
         <v>-0.025387313216924667</v>
       </c>
       <c r="E27" s="2">
-        <v>-0.027415409684181213</v>
+        <v>-0.027445929124951363</v>
       </c>
     </row>
     <row r="28">
@@ -548,13 +548,13 @@
         <v>-0.2919461727142334</v>
       </c>
       <c r="C28" s="2">
-        <v>-0.20742179453372955</v>
+        <v>-0.20742237567901611</v>
       </c>
       <c r="D28" s="2">
         <v>-0.045855499804019928</v>
       </c>
       <c r="E28" s="2">
-        <v>-0.049941141158342362</v>
+        <v>-0.049977485090494156</v>
       </c>
     </row>
     <row r="29">
@@ -565,13 +565,13 @@
         <v>-0.4651867151260376</v>
       </c>
       <c r="C29" s="2">
-        <v>-0.48662599921226502</v>
+        <v>-0.48662245273590088</v>
       </c>
       <c r="D29" s="2">
         <v>-0.029576383531093598</v>
       </c>
       <c r="E29" s="2">
-        <v>-0.028420997783541679</v>
+        <v>-0.028461841866374016</v>
       </c>
     </row>
     <row r="30">
@@ -582,13 +582,13 @@
         <v>-0.02881818637251854</v>
       </c>
       <c r="C30" s="2">
-        <v>-0.020029736682772637</v>
+        <v>-0.020026605576276779</v>
       </c>
       <c r="D30" s="2">
         <v>-0.021370768547058106</v>
       </c>
       <c r="E30" s="2">
-        <v>-0.017716340720653534</v>
+        <v>-0.017738755792379379</v>
       </c>
     </row>
     <row r="31">
@@ -599,13 +599,13 @@
         <v>0.0034424467012286186</v>
       </c>
       <c r="C31" s="2">
-        <v>0.053009673953056335</v>
+        <v>0.052956510335206985</v>
       </c>
       <c r="D31" s="2">
         <v>-0.023533502593636513</v>
       </c>
       <c r="E31" s="2">
-        <v>-0.021488163620233536</v>
+        <v>-0.021502528339624405</v>
       </c>
     </row>
     <row r="32">
@@ -616,13 +616,13 @@
         <v>0.094032801687717438</v>
       </c>
       <c r="C32" s="2">
-        <v>0.050231821835041046</v>
+        <v>0.050208717584609985</v>
       </c>
       <c r="D32" s="2">
         <v>-0.025298869237303734</v>
       </c>
       <c r="E32" s="2">
-        <v>-0.027071721851825714</v>
+        <v>-0.027076451107859612</v>
       </c>
     </row>
     <row r="33">
@@ -633,13 +633,13 @@
         <v>0.22638309001922608</v>
       </c>
       <c r="C33" s="2">
-        <v>0.248940110206604</v>
+        <v>0.24890072643756867</v>
       </c>
       <c r="D33" s="2">
         <v>-0.0035604927688837051</v>
       </c>
       <c r="E33" s="2">
-        <v>-0.011739900335669518</v>
+        <v>-0.011747213080525398</v>
       </c>
     </row>
     <row r="34">
@@ -650,13 +650,13 @@
         <v>0.27391788363456726</v>
       </c>
       <c r="C34" s="2">
-        <v>0.25278809666633606</v>
+        <v>0.25275278091430664</v>
       </c>
       <c r="D34" s="2">
         <v>-0.0050321710295975208</v>
       </c>
       <c r="E34" s="2">
-        <v>-0.016963634639978409</v>
+        <v>-0.01696212962269783</v>
       </c>
     </row>
     <row r="35">
@@ -667,13 +667,13 @@
         <v>0.038160912692546844</v>
       </c>
       <c r="C35" s="2">
-        <v>0.006614448968321085</v>
+        <v>0.0066826771944761276</v>
       </c>
       <c r="D35" s="2">
         <v>0.0051453695632517338</v>
       </c>
       <c r="E35" s="2">
-        <v>-0.0050299395807087422</v>
+        <v>-0.0050194757059216499</v>
       </c>
     </row>
     <row r="36">
@@ -684,13 +684,13 @@
         <v>-0.077675886452198029</v>
       </c>
       <c r="C36" s="2">
-        <v>-0.14115211367607117</v>
+        <v>-0.14111803472042084</v>
       </c>
       <c r="D36" s="2">
         <v>-0.0081244409084320068</v>
       </c>
       <c r="E36" s="2">
-        <v>-0.0053087356500327587</v>
+        <v>-0.005317415576428175</v>
       </c>
     </row>
     <row r="37">
@@ -701,13 +701,13 @@
         <v>-0.096300780773162842</v>
       </c>
       <c r="C37" s="2">
-        <v>-0.069435402750968933</v>
+        <v>-0.069459237158298493</v>
       </c>
       <c r="D37" s="2">
         <v>-0.014161118306219578</v>
       </c>
       <c r="E37" s="2">
-        <v>-0.014802364632487297</v>
+        <v>-0.014784863218665123</v>
       </c>
     </row>
     <row r="38">
@@ -718,13 +718,13 @@
         <v>-0.4784318208694458</v>
       </c>
       <c r="C38" s="2">
-        <v>-0.53363960981369019</v>
+        <v>-0.53355669975280762</v>
       </c>
       <c r="D38" s="2">
         <v>-0.021746126934885979</v>
       </c>
       <c r="E38" s="2">
-        <v>-0.042318210005760193</v>
+        <v>-0.042300231754779816</v>
       </c>
     </row>
     <row r="39">
@@ -735,13 +735,13 @@
         <v>0.062779679894447327</v>
       </c>
       <c r="C39" s="2">
-        <v>0.087373517453670502</v>
+        <v>0.087457276880741119</v>
       </c>
       <c r="D39" s="2">
         <v>-0.064160771667957306</v>
       </c>
       <c r="E39" s="2">
-        <v>-0.092826738953590393</v>
+        <v>-0.0928201824426651</v>
       </c>
     </row>
     <row r="40">
@@ -752,13 +752,13 @@
         <v>-0.11598584800958633</v>
       </c>
       <c r="C40" s="2">
-        <v>0.050500508397817612</v>
+        <v>0.050275053828954697</v>
       </c>
       <c r="D40" s="2">
         <v>-0.039606906473636627</v>
       </c>
       <c r="E40" s="2">
-        <v>-0.070130906999111176</v>
+        <v>-0.070133276283740997</v>
       </c>
     </row>
     <row r="41">
@@ -769,13 +769,13 @@
         <v>0.039702706038951874</v>
       </c>
       <c r="C41" s="2">
-        <v>-0.035210836678743362</v>
+        <v>-0.03499830886721611</v>
       </c>
       <c r="D41" s="2">
         <v>0.014545240439474583</v>
       </c>
       <c r="E41" s="2">
-        <v>-0.022559212520718575</v>
+        <v>-0.022573482245206833</v>
       </c>
     </row>
     <row r="42">
@@ -786,13 +786,13 @@
         <v>0.15811800956726074</v>
       </c>
       <c r="C42" s="2">
-        <v>0.0012975023128092289</v>
+        <v>0.0012623922666534781</v>
       </c>
       <c r="D42" s="2">
         <v>0.085671938955783844</v>
       </c>
       <c r="E42" s="2">
-        <v>0.042083904147148132</v>
+        <v>0.042097561061382294</v>
       </c>
     </row>
     <row r="43">
@@ -803,13 +803,13 @@
         <v>-0.10781393945217133</v>
       </c>
       <c r="C43" s="2">
-        <v>-0.20178864896297455</v>
+        <v>-0.20192676782608032</v>
       </c>
       <c r="D43" s="2">
         <v>0.17572179436683655</v>
       </c>
       <c r="E43" s="2">
-        <v>0.13249439001083374</v>
+        <v>0.13250847160816193</v>
       </c>
     </row>
     <row r="44">
@@ -820,13 +820,13 @@
         <v>0.25914570689201355</v>
       </c>
       <c r="C44" s="2">
-        <v>0.2108769416809082</v>
+        <v>0.21086481213569641</v>
       </c>
       <c r="D44" s="2">
         <v>0.19842638075351715</v>
       </c>
       <c r="E44" s="2">
-        <v>0.14726635813713074</v>
+        <v>0.1472947746515274</v>
       </c>
     </row>
     <row r="45">
@@ -837,13 +837,13 @@
         <v>0.40969344973564148</v>
       </c>
       <c r="C45" s="2">
-        <v>0.2869931161403656</v>
+        <v>0.28692013025283814</v>
       </c>
       <c r="D45" s="2">
         <v>0.20961125195026398</v>
       </c>
       <c r="E45" s="2">
-        <v>0.1334010511636734</v>
+        <v>0.13345354795455933</v>
       </c>
     </row>
     <row r="46">
@@ -854,13 +854,13 @@
         <v>0.54383951425552368</v>
       </c>
       <c r="C46" s="2">
-        <v>0.51235264539718628</v>
+        <v>0.51258015632629395</v>
       </c>
       <c r="D46" s="2">
         <v>0.22558611631393433</v>
       </c>
       <c r="E46" s="2">
-        <v>0.15600225329399109</v>
+        <v>0.15602578222751617</v>
       </c>
     </row>
     <row r="47">
@@ -871,13 +871,13 @@
         <v>0.33201688528060913</v>
       </c>
       <c r="C47" s="2">
-        <v>0.2800547182559967</v>
+        <v>0.28014153242111206</v>
       </c>
       <c r="D47" s="2">
         <v>0.21201112866401672</v>
       </c>
       <c r="E47" s="2">
-        <v>0.15651075541973114</v>
+        <v>0.15654069185256958</v>
       </c>
     </row>
     <row r="48">
@@ -888,13 +888,13 @@
         <v>0.26712098717689514</v>
       </c>
       <c r="C48" s="2">
-        <v>0.22032126784324646</v>
+        <v>0.22053395211696625</v>
       </c>
       <c r="D48" s="2">
         <v>0.25146535038948059</v>
       </c>
       <c r="E48" s="2">
-        <v>0.20450375974178314</v>
+        <v>0.20454543828964233</v>
       </c>
     </row>
     <row r="49">
@@ -905,13 +905,13 @@
         <v>-0.015322070568799973</v>
       </c>
       <c r="C49" s="2">
-        <v>-0.074287295341491699</v>
+        <v>-0.074295975267887116</v>
       </c>
       <c r="D49" s="2">
         <v>0.21374198794364929</v>
       </c>
       <c r="E49" s="2">
-        <v>0.16543591022491455</v>
+        <v>0.16545306146144867</v>
       </c>
     </row>
     <row r="50">
@@ -922,13 +922,13 @@
         <v>0.18347656726837158</v>
       </c>
       <c r="C50" s="2">
-        <v>0.16820009052753449</v>
+        <v>0.16815181076526642</v>
       </c>
       <c r="D50" s="2">
         <v>0.22338783740997315</v>
       </c>
       <c r="E50" s="2">
-        <v>0.19305242598056793</v>
+        <v>0.19309714436531067</v>
       </c>
     </row>
     <row r="51">
@@ -939,13 +939,13 @@
         <v>0.035943042486906052</v>
       </c>
       <c r="C51" s="2">
-        <v>0.0058739702217280865</v>
+        <v>0.005896576214581728</v>
       </c>
       <c r="D51" s="2">
         <v>0.20047073066234589</v>
       </c>
       <c r="E51" s="2">
-        <v>0.17808505892753601</v>
+        <v>0.17809300124645233</v>
       </c>
     </row>
     <row r="52">
@@ -956,13 +956,13 @@
         <v>0.24727413058280945</v>
       </c>
       <c r="C52" s="2">
-        <v>0.23014840483665466</v>
+        <v>0.23011593520641327</v>
       </c>
       <c r="D52" s="2">
         <v>0.22260907292366028</v>
       </c>
       <c r="E52" s="2">
-        <v>0.20234903693199158</v>
+        <v>0.20232892036437988</v>
       </c>
     </row>
     <row r="53">
@@ -973,13 +973,13 @@
         <v>-0.080364547669887543</v>
       </c>
       <c r="C53" s="2">
-        <v>-0.1407337486743927</v>
+        <v>-0.14096657931804657</v>
       </c>
       <c r="D53" s="2">
         <v>0.2460559755563736</v>
       </c>
       <c r="E53" s="2">
-        <v>0.22014512121677399</v>
+        <v>0.22011233866214752</v>
       </c>
     </row>
     <row r="54">
@@ -990,13 +990,13 @@
         <v>0.49650606513023377</v>
       </c>
       <c r="C54" s="2">
-        <v>0.53554177284240723</v>
+        <v>0.5357169508934021</v>
       </c>
       <c r="D54" s="2">
         <v>0.29818177223205567</v>
       </c>
       <c r="E54" s="2">
-        <v>0.27504119277000427</v>
+        <v>0.2749878466129303</v>
       </c>
     </row>
     <row r="55">
@@ -1007,13 +1007,13 @@
         <v>0.33758550882339478</v>
       </c>
       <c r="C55" s="2">
-        <v>0.37764635682106018</v>
+        <v>0.37754276394844055</v>
       </c>
       <c r="D55" s="2">
         <v>0.30217429995536804</v>
       </c>
       <c r="E55" s="2">
-        <v>0.28016561269760132</v>
+        <v>0.28011462092399597</v>
       </c>
     </row>
     <row r="56">
@@ -1024,13 +1024,13 @@
         <v>0.53126192092895508</v>
       </c>
       <c r="C56" s="2">
-        <v>0.49843046069145203</v>
+        <v>0.49826478958129883</v>
       </c>
       <c r="D56" s="2">
         <v>0.30992338061332703</v>
       </c>
       <c r="E56" s="2">
-        <v>0.29548430442810059</v>
+        <v>0.29542380571365357</v>
       </c>
     </row>
     <row r="57">
@@ -1041,13 +1041,13 @@
         <v>0.4781431257724762</v>
       </c>
       <c r="C57" s="2">
-        <v>0.3804861307144165</v>
+        <v>0.380584716796875</v>
       </c>
       <c r="D57" s="2">
         <v>0.32807862758636475</v>
       </c>
       <c r="E57" s="2">
-        <v>0.30579358339309692</v>
+        <v>0.30570131540298462</v>
       </c>
     </row>
     <row r="58">
@@ -1058,13 +1058,13 @@
         <v>0.45381012558937073</v>
       </c>
       <c r="C58" s="2">
-        <v>0.41977730393409729</v>
+        <v>0.4195837676525116</v>
       </c>
       <c r="D58" s="2">
         <v>0.41713285446166992</v>
       </c>
       <c r="E58" s="2">
-        <v>0.40025556087493896</v>
+        <v>0.40017426013946533</v>
       </c>
     </row>
     <row r="59">
@@ -1075,13 +1075,13 @@
         <v>0.21940921247005463</v>
       </c>
       <c r="C59" s="2">
-        <v>0.21431979537010193</v>
+        <v>0.21429263055324554</v>
       </c>
       <c r="D59" s="2">
         <v>0.39297589659690857</v>
       </c>
       <c r="E59" s="2">
-        <v>0.3821539580821991</v>
+        <v>0.38204905390739441</v>
       </c>
     </row>
     <row r="60">
@@ -1092,13 +1092,13 @@
         <v>0.10568485409021378</v>
       </c>
       <c r="C60" s="2">
-        <v>0.14374220371246338</v>
+        <v>0.14367930591106415</v>
       </c>
       <c r="D60" s="2">
         <v>0.35300782322883606</v>
       </c>
       <c r="E60" s="2">
-        <v>0.33606535196304321</v>
+        <v>0.33592665195465088</v>
       </c>
     </row>
     <row r="61">
@@ -1109,13 +1109,13 @@
         <v>0.41067126393318176</v>
       </c>
       <c r="C61" s="2">
-        <v>0.32293209433555603</v>
+        <v>0.32261356711387634</v>
       </c>
       <c r="D61" s="2">
         <v>0.39139395952224731</v>
       </c>
       <c r="E61" s="2">
-        <v>0.371480792760849</v>
+        <v>0.37134575843811035</v>
       </c>
     </row>
     <row r="62">
@@ -1126,13 +1126,13 @@
         <v>0.72112351655960083</v>
       </c>
       <c r="C62" s="2">
-        <v>0.70942401885986328</v>
+        <v>0.70928990840911865</v>
       </c>
       <c r="D62" s="2">
         <v>0.33974581956863403</v>
       </c>
       <c r="E62" s="2">
-        <v>0.31532341241836548</v>
+        <v>0.31512704491615296</v>
       </c>
     </row>
     <row r="63">
@@ -1143,13 +1143,13 @@
         <v>0.27909347414970398</v>
       </c>
       <c r="C63" s="2">
-        <v>0.37262719869613647</v>
+        <v>0.37258991599082947</v>
       </c>
       <c r="D63" s="2">
         <v>0.36902338266372681</v>
       </c>
       <c r="E63" s="2">
-        <v>0.34685662388801575</v>
+        <v>0.34666979312896729</v>
       </c>
     </row>
     <row r="64">
@@ -1160,13 +1160,13 @@
         <v>-0.022126967087388039</v>
       </c>
       <c r="C64" s="2">
-        <v>-0.037151146680116653</v>
+        <v>-0.037558846175670624</v>
       </c>
       <c r="D64" s="2">
         <v>0.42787268757820129</v>
       </c>
       <c r="E64" s="2">
-        <v>0.40688139200210571</v>
+        <v>0.40667477250099182</v>
       </c>
     </row>
     <row r="65">
@@ -1177,13 +1177,13 @@
         <v>0.87673693895339966</v>
       </c>
       <c r="C65" s="2">
-        <v>0.8171694278717041</v>
+        <v>0.81703698635101318</v>
       </c>
       <c r="D65" s="2">
         <v>0.55708658695220947</v>
       </c>
       <c r="E65" s="2">
-        <v>0.5237351655960083</v>
+        <v>0.52351760864257813</v>
       </c>
     </row>
     <row r="66">
@@ -1194,13 +1194,13 @@
         <v>0.01331007108092308</v>
       </c>
       <c r="C66" s="2">
-        <v>-0.1249302476644516</v>
+        <v>-0.12538380920886994</v>
       </c>
       <c r="D66" s="2">
         <v>0.62337994575500488</v>
       </c>
       <c r="E66" s="2">
-        <v>0.59695440530776978</v>
+        <v>0.59676182270050049</v>
       </c>
     </row>
     <row r="67">
@@ -1211,13 +1211,13 @@
         <v>0.7173081636428833</v>
       </c>
       <c r="C67" s="2">
-        <v>0.70357638597488403</v>
+        <v>0.70346856117248535</v>
       </c>
       <c r="D67" s="2">
         <v>0.63638961315155029</v>
       </c>
       <c r="E67" s="2">
-        <v>0.6043320894241333</v>
+        <v>0.60415017604827881</v>
       </c>
     </row>
     <row r="68">
@@ -1228,13 +1228,13 @@
         <v>0.74905288219451904</v>
       </c>
       <c r="C68" s="2">
-        <v>0.75454270839691162</v>
+        <v>0.75433725118637085</v>
       </c>
       <c r="D68" s="2">
         <v>0.67220479249954224</v>
       </c>
       <c r="E68" s="2">
-        <v>0.63027298450469971</v>
+        <v>0.63006770610809326</v>
       </c>
     </row>
     <row r="69">
@@ -1245,13 +1245,13 @@
         <v>1.2686100006103516</v>
       </c>
       <c r="C69" s="2">
-        <v>1.1954261064529419</v>
+        <v>1.1952650547027588</v>
       </c>
       <c r="D69" s="2">
         <v>0.71861350536346436</v>
       </c>
       <c r="E69" s="2">
-        <v>0.67491865158081055</v>
+        <v>0.67474132776260376</v>
       </c>
     </row>
     <row r="70">
@@ -1262,13 +1262,13 @@
         <v>1.0073114633560181</v>
       </c>
       <c r="C70" s="2">
-        <v>0.98190528154373169</v>
+        <v>0.9818115234375</v>
       </c>
       <c r="D70" s="2">
         <v>0.69472086429595947</v>
       </c>
       <c r="E70" s="2">
-        <v>0.64588707685470581</v>
+        <v>0.64568608999252319</v>
       </c>
     </row>
     <row r="71">
@@ -1279,13 +1279,13 @@
         <v>0.83821052312850952</v>
       </c>
       <c r="C71" s="2">
-        <v>0.77582335472106934</v>
+        <v>0.77578479051589966</v>
       </c>
       <c r="D71" s="2">
         <v>0.78124850988388062</v>
       </c>
       <c r="E71" s="2">
-        <v>0.7387385368347168</v>
+        <v>0.73853737115859985</v>
       </c>
     </row>
     <row r="72">
@@ -1296,13 +1296,13 @@
         <v>0.60143023729324341</v>
       </c>
       <c r="C72" s="2">
-        <v>0.60609507560729981</v>
+        <v>0.60584777593612671</v>
       </c>
       <c r="D72" s="2">
         <v>0.75283944606781006</v>
       </c>
       <c r="E72" s="2">
-        <v>0.70364069938659668</v>
+        <v>0.70345562696456909</v>
       </c>
     </row>
     <row r="73">
@@ -1313,13 +1313,13 @@
         <v>0.39555132389068604</v>
       </c>
       <c r="C73" s="2">
-        <v>0.36465960741043091</v>
+        <v>0.36450380086898804</v>
       </c>
       <c r="D73" s="2">
         <v>0.79837191104888916</v>
       </c>
       <c r="E73" s="2">
-        <v>0.74981975555419922</v>
+        <v>0.74964946508407593</v>
       </c>
     </row>
     <row r="74">
@@ -1330,13 +1330,13 @@
         <v>0.66170322895050049</v>
       </c>
       <c r="C74" s="2">
-        <v>0.55588549375534058</v>
+        <v>0.55553960800170899</v>
       </c>
       <c r="D74" s="2">
         <v>0.69522100687026978</v>
       </c>
       <c r="E74" s="2">
-        <v>0.64879953861236572</v>
+        <v>0.64862906932830811</v>
       </c>
     </row>
     <row r="75">
@@ -1347,13 +1347,13 @@
         <v>0.79205882549285889</v>
       </c>
       <c r="C75" s="2">
-        <v>0.71073287725448608</v>
+        <v>0.7102777361869812</v>
       </c>
       <c r="D75" s="2">
         <v>0.68917214870452881</v>
       </c>
       <c r="E75" s="2">
-        <v>0.64293277263641357</v>
+        <v>0.64283156394958496</v>
       </c>
     </row>
     <row r="76">
@@ -1364,13 +1364,13 @@
         <v>0.46162635087966919</v>
       </c>
       <c r="C76" s="2">
-        <v>0.38769572973251343</v>
+        <v>0.38773331046104431</v>
       </c>
       <c r="D76" s="2">
         <v>0.72731488943099976</v>
       </c>
       <c r="E76" s="2">
-        <v>0.68283939361572266</v>
+        <v>0.68273276090621948</v>
       </c>
     </row>
     <row r="77">
@@ -1381,13 +1381,13 @@
         <v>1.1588454246520996</v>
       </c>
       <c r="C77" s="2">
-        <v>1.1701542139053345</v>
+        <v>1.1700814962387085</v>
       </c>
       <c r="D77" s="2">
         <v>0.76698648929595947</v>
       </c>
       <c r="E77" s="2">
-        <v>0.71652382612228394</v>
+        <v>0.71640700101852417</v>
       </c>
     </row>
     <row r="78">
@@ -1398,13 +1398,13 @@
         <v>0.34025192260742188</v>
       </c>
       <c r="C78" s="2">
-        <v>0.28624406456947327</v>
+        <v>0.28608134388923645</v>
       </c>
       <c r="D78" s="2">
         <v>0.89094090461730957</v>
       </c>
       <c r="E78" s="2">
-        <v>0.83956491947174072</v>
+        <v>0.83943897485733032</v>
       </c>
     </row>
     <row r="79">
@@ -1415,13 +1415,13 @@
         <v>0.95287138223648071</v>
       </c>
       <c r="C79" s="2">
-        <v>0.92910444736480713</v>
+        <v>0.9296342134475708</v>
       </c>
       <c r="D79" s="2">
         <v>0.90085816383361817</v>
       </c>
       <c r="E79" s="2">
-        <v>0.83866804838180542</v>
+        <v>0.83860546350479126</v>
       </c>
     </row>
     <row r="80">
@@ -1432,13 +1432,13 @@
         <v>1.1814954280853272</v>
       </c>
       <c r="C80" s="2">
-        <v>1.1349829435348511</v>
+        <v>1.1348953247070313</v>
       </c>
       <c r="D80" s="2">
         <v>0.90620630979537964</v>
       </c>
       <c r="E80" s="2">
-        <v>0.8865247368812561</v>
+        <v>0.88649117946624756</v>
       </c>
     </row>
     <row r="81">
@@ -1449,13 +1449,13 @@
         <v>0.95847427845001221</v>
       </c>
       <c r="C81" s="2">
-        <v>0.90925496816635132</v>
+        <v>0.90891611576080322</v>
       </c>
       <c r="D81" s="2">
         <v>0.88257771730422974</v>
       </c>
       <c r="E81" s="2">
-        <v>0.86669176816940308</v>
+        <v>0.86666512489318848</v>
       </c>
     </row>
     <row r="82">
@@ -1466,13 +1466,13 @@
         <v>1.5111415386199951</v>
       </c>
       <c r="C82" s="2">
-        <v>1.4720293283462525</v>
+        <v>1.4717913866043091</v>
       </c>
       <c r="D82" s="2">
         <v>0.8697052001953125</v>
       </c>
       <c r="E82" s="2">
-        <v>0.85609662532806397</v>
+        <v>0.85613095760345459</v>
       </c>
     </row>
     <row r="83">
@@ -1483,13 +1483,13 @@
         <v>0.75095808506011963</v>
       </c>
       <c r="C83" s="2">
-        <v>0.54781395196914673</v>
+        <v>0.54803812503814697</v>
       </c>
       <c r="D83" s="2">
         <v>0.90522098541259766</v>
       </c>
       <c r="E83" s="2">
-        <v>0.89670974016189575</v>
+        <v>0.89674365520477295</v>
       </c>
     </row>
     <row r="84">
@@ -1500,13 +1500,13 @@
         <v>0.84019225835800171</v>
       </c>
       <c r="C84" s="2">
-        <v>1.1414427757263184</v>
+        <v>1.1412490606307983</v>
       </c>
       <c r="D84" s="2">
         <v>0.89982110261917114</v>
       </c>
       <c r="E84" s="2">
-        <v>0.89224588871002197</v>
+        <v>0.89218354225158692</v>
       </c>
     </row>
     <row r="85">
@@ -1517,13 +1517,13 @@
         <v>0.24896910786628723</v>
       </c>
       <c r="C85" s="2">
-        <v>0.20919923484325409</v>
+        <v>0.2092989981174469</v>
       </c>
       <c r="D85" s="2">
         <v>0.89444327354431152</v>
       </c>
       <c r="E85" s="2">
-        <v>0.88732677698135376</v>
+        <v>0.88726139068603516</v>
       </c>
     </row>
     <row r="86">
@@ -1534,13 +1534,13 @@
         <v>1.0429925918579102</v>
       </c>
       <c r="C86" s="2">
-        <v>1.0747977495193482</v>
+        <v>1.0752742290496826</v>
       </c>
       <c r="D86" s="2">
         <v>0.88364994525909424</v>
       </c>
       <c r="E86" s="2">
-        <v>0.87141865491867065</v>
+        <v>0.87132954597473145</v>
       </c>
     </row>
     <row r="87">
@@ -1551,13 +1551,13 @@
         <v>0.65989404916763306</v>
       </c>
       <c r="C87" s="2">
-        <v>0.65176212787628174</v>
+        <v>0.65159547328948975</v>
       </c>
       <c r="D87" s="2">
         <v>0.81324732303619385</v>
       </c>
       <c r="E87" s="2">
-        <v>0.81822347640991211</v>
+        <v>0.81811892986297608</v>
       </c>
     </row>
     <row r="88">
@@ -1568,13 +1568,13 @@
         <v>0.90427273511886597</v>
       </c>
       <c r="C88" s="2">
-        <v>0.88893008232116699</v>
+        <v>0.88859301805496216</v>
       </c>
       <c r="D88" s="2">
         <v>0.83905458450317383</v>
       </c>
       <c r="E88" s="2">
-        <v>0.85994654893875122</v>
+        <v>0.85978507995605469</v>
       </c>
     </row>
     <row r="89">
@@ -1585,13 +1585,13 @@
         <v>1.1330947875976563</v>
       </c>
       <c r="C89" s="2">
-        <v>1.0907107591629028</v>
+        <v>1.090596079826355</v>
       </c>
       <c r="D89" s="2">
         <v>0.91542172431945801</v>
       </c>
       <c r="E89" s="2">
-        <v>0.91008460521697998</v>
+        <v>0.9099079966545105</v>
       </c>
     </row>
     <row r="90">
@@ -1602,13 +1602,13 @@
         <v>0.86133444309234619</v>
       </c>
       <c r="C90" s="2">
-        <v>0.76608169078826904</v>
+        <v>0.7655293345451355</v>
       </c>
       <c r="D90" s="2">
         <v>0.99562674760818482</v>
       </c>
       <c r="E90" s="2">
-        <v>0.9970664381980896</v>
+        <v>0.99691092967987061</v>
       </c>
     </row>
     <row r="91">
@@ -1619,13 +1619,13 @@
         <v>0.87751764059066773</v>
       </c>
       <c r="C91" s="2">
-        <v>0.99327266216278076</v>
+        <v>0.99289596080780029</v>
       </c>
       <c r="D91" s="2">
         <v>1.004464864730835</v>
       </c>
       <c r="E91" s="2">
-        <v>1.0132888555526733</v>
+        <v>1.0130751132965088</v>
       </c>
     </row>
     <row r="92">
@@ -1636,13 +1636,13 @@
         <v>0.98322391510009766</v>
       </c>
       <c r="C92" s="2">
-        <v>0.92332202196121216</v>
+        <v>0.92303335666656494</v>
       </c>
       <c r="D92" s="2">
         <v>1.0346298217773438</v>
       </c>
       <c r="E92" s="2">
-        <v>1.0389515161514282</v>
+        <v>1.0387465953826904</v>
       </c>
     </row>
     <row r="93">
@@ -1653,13 +1653,13 @@
         <v>1.5274962186813354</v>
       </c>
       <c r="C93" s="2">
-        <v>1.5926852226257324</v>
+        <v>1.5923553705215454</v>
       </c>
       <c r="D93" s="2">
         <v>1.0411319732666016</v>
       </c>
       <c r="E93" s="2">
-        <v>1.0387160778045654</v>
+        <v>1.0385189056396484</v>
       </c>
     </row>
     <row r="94">
@@ -1670,13 +1670,13 @@
         <v>0.97081458568572998</v>
       </c>
       <c r="C94" s="2">
-        <v>0.99203580617904663</v>
+        <v>0.99232566356658936</v>
       </c>
       <c r="D94" s="2">
         <v>1.0259832143783569</v>
       </c>
       <c r="E94" s="2">
-        <v>1.0141960382461548</v>
+        <v>1.0139776468276978</v>
       </c>
     </row>
     <row r="95">
@@ -1687,13 +1687,13 @@
         <v>1.1225353479385376</v>
       </c>
       <c r="C95" s="2">
-        <v>1.2207992076873779</v>
+        <v>1.2207521200180054</v>
       </c>
       <c r="D95" s="2">
         <v>1.0800504684448242</v>
       </c>
       <c r="E95" s="2">
-        <v>1.0733013153076172</v>
+        <v>1.0731658935546875</v>
       </c>
     </row>
     <row r="96">
@@ -1704,13 +1704,13 @@
         <v>0.93137860298156738</v>
       </c>
       <c r="C96" s="2">
-        <v>0.88272619247436523</v>
+        <v>0.88263857364654541</v>
       </c>
       <c r="D96" s="2">
         <v>0.99741452932357788</v>
       </c>
       <c r="E96" s="2">
-        <v>0.94646269083023071</v>
+        <v>0.94633817672729492</v>
       </c>
     </row>
     <row r="97">
@@ -1721,13 +1721,13 @@
         <v>0.9627920389175415</v>
       </c>
       <c r="C97" s="2">
-        <v>0.88681149482727051</v>
+        <v>0.88654345273971558</v>
       </c>
       <c r="D97" s="2">
         <v>0.94559592008590698</v>
       </c>
       <c r="E97" s="2">
-        <v>0.8998674750328064</v>
+        <v>0.89974534511566162</v>
       </c>
     </row>
     <row r="98">
@@ -1738,13 +1738,13 @@
         <v>0.99675625562667847</v>
       </c>
       <c r="C98" s="2">
-        <v>0.87002980709075928</v>
+        <v>0.86972492933273316</v>
       </c>
       <c r="D98" s="2">
         <v>0.8402131199836731</v>
       </c>
       <c r="E98" s="2">
-        <v>0.77823668718338013</v>
+        <v>0.77814656496047974</v>
       </c>
     </row>
     <row r="99">
@@ -1755,13 +1755,13 @@
         <v>1.347939133644104</v>
       </c>
       <c r="C99" s="2">
-        <v>1.2980289459228516</v>
+        <v>1.2982239723205566</v>
       </c>
       <c r="D99" s="2">
         <v>0.798350989818573</v>
       </c>
       <c r="E99" s="2">
-        <v>0.72609823942184448</v>
+        <v>0.72593182325363159</v>
       </c>
     </row>
     <row r="100">
@@ -1772,13 +1772,13 @@
         <v>0.1337946355342865</v>
       </c>
       <c r="C100" s="2">
-        <v>-0.14827428758144379</v>
+        <v>-0.14855366945266724</v>
       </c>
       <c r="D100" s="2">
         <v>0.68779623508453369</v>
       </c>
       <c r="E100" s="2">
-        <v>0.59362673759460449</v>
+        <v>0.59347224235534668</v>
       </c>
     </row>
     <row r="101">
@@ -1789,13 +1789,13 @@
         <v>0.51685655117034912</v>
       </c>
       <c r="C101" s="2">
-        <v>0.50396490097045899</v>
+        <v>0.50369769334793091</v>
       </c>
       <c r="D101" s="2">
         <v>0.5831073522567749</v>
       </c>
       <c r="E101" s="2">
-        <v>0.45950892567634583</v>
+        <v>0.45934385061264038</v>
       </c>
     </row>
     <row r="102">
@@ -1806,13 +1806,13 @@
         <v>0.57905077934265137</v>
       </c>
       <c r="C102" s="2">
-        <v>0.49800822138786316</v>
+        <v>0.49796637892723084</v>
       </c>
       <c r="D102" s="2">
         <v>0.47884836792945862</v>
       </c>
       <c r="E102" s="2">
-        <v>0.35653999447822571</v>
+        <v>0.35641419887542725</v>
       </c>
     </row>
     <row r="103">
@@ -1823,13 +1823,13 @@
         <v>0.59405559301376343</v>
       </c>
       <c r="C103" s="2">
-        <v>0.52278983592987061</v>
+        <v>0.52239280939102173</v>
       </c>
       <c r="D103" s="2">
         <v>0.43610408902168274</v>
       </c>
       <c r="E103" s="2">
-        <v>0.30350762605667114</v>
+        <v>0.30338791012763977</v>
       </c>
     </row>
     <row r="104">
@@ -1840,13 +1840,13 @@
         <v>0.12754246592521667</v>
       </c>
       <c r="C104" s="2">
-        <v>0.028555717319250107</v>
+        <v>0.02861618809401989</v>
       </c>
       <c r="D104" s="2">
         <v>0.31868463754653931</v>
       </c>
       <c r="E104" s="2">
-        <v>0.17771099507808685</v>
+        <v>0.17754513025283814</v>
       </c>
     </row>
     <row r="105">
@@ -1857,13 +1857,13 @@
         <v>-0.010821492411196232</v>
       </c>
       <c r="C105" s="2">
-        <v>-0.32433423399925232</v>
+        <v>-0.32451713085174561</v>
       </c>
       <c r="D105" s="2">
         <v>0.34865710139274597</v>
       </c>
       <c r="E105" s="2">
-        <v>0.25314566493034363</v>
+        <v>0.25296011567115784</v>
       </c>
     </row>
     <row r="106">
@@ -1874,13 +1874,13 @@
         <v>0.024461500346660614</v>
       </c>
       <c r="C106" s="2">
-        <v>-0.039908844977617264</v>
+        <v>-0.03982335701584816</v>
       </c>
       <c r="D106" s="2">
         <v>0.36496809124946594</v>
       </c>
       <c r="E106" s="2">
-        <v>0.26924499869346619</v>
+        <v>0.26902732253074646</v>
       </c>
     </row>
     <row r="107">
@@ -1891,13 +1891,13 @@
         <v>0.61205774545669556</v>
       </c>
       <c r="C107" s="2">
-        <v>0.39273840188980103</v>
+        <v>0.39248836040496826</v>
       </c>
       <c r="D107" s="2">
         <v>0.40837714076042175</v>
       </c>
       <c r="E107" s="2">
-        <v>0.3146674633026123</v>
+        <v>0.31441697478294373</v>
       </c>
     </row>
     <row r="108">
@@ -1908,13 +1908,13 @@
         <v>0.29116383194923401</v>
       </c>
       <c r="C108" s="2">
-        <v>0.16585925221443176</v>
+        <v>0.16563887894153595</v>
       </c>
       <c r="D108" s="2">
         <v>0.45248091220855713</v>
       </c>
       <c r="E108" s="2">
-        <v>0.35450103878974915</v>
+        <v>0.35429620742797852</v>
       </c>
     </row>
     <row r="109">
@@ -1925,13 +1925,13 @@
         <v>0.40354686975479126</v>
       </c>
       <c r="C109" s="2">
-        <v>0.53063762187957764</v>
+        <v>0.53018128871917725</v>
       </c>
       <c r="D109" s="2">
         <v>0.59081572294235229</v>
       </c>
       <c r="E109" s="2">
-        <v>0.48374044895172119</v>
+        <v>0.48350358009338379</v>
       </c>
     </row>
     <row r="110">
@@ -1942,13 +1942,13 @@
         <v>0.66365551948547363</v>
       </c>
       <c r="C110" s="2">
-        <v>0.64885914325714111</v>
+        <v>0.64830249547958374</v>
       </c>
       <c r="D110" s="2">
         <v>0.74648410081863403</v>
       </c>
       <c r="E110" s="2">
-        <v>0.66908770799636841</v>
+        <v>0.66883409023284912</v>
       </c>
     </row>
     <row r="111">
@@ -1959,13 +1959,13 @@
         <v>0.96973216533660889</v>
       </c>
       <c r="C111" s="2">
-        <v>0.90681028366088867</v>
+        <v>0.90647327899932861</v>
       </c>
       <c r="D111" s="2">
         <v>0.87780612707138062</v>
       </c>
       <c r="E111" s="2">
-        <v>0.78308689594268799</v>
+        <v>0.78286415338516235</v>
       </c>
     </row>
     <row r="112">
@@ -1976,13 +1976,13 @@
         <v>0.99098950624465942</v>
       </c>
       <c r="C112" s="2">
-        <v>0.88129204511642456</v>
+        <v>0.881305992603302</v>
       </c>
       <c r="D112" s="2">
         <v>0.98098856210708618</v>
       </c>
       <c r="E112" s="2">
-        <v>0.89104557037353516</v>
+        <v>0.89083510637283325</v>
       </c>
     </row>
     <row r="113">
@@ -1993,13 +1993,13 @@
         <v>1.3725557327270508</v>
       </c>
       <c r="C113" s="2">
-        <v>1.191710352897644</v>
+        <v>1.1914825439453125</v>
       </c>
       <c r="D113" s="2">
         <v>1.1153632402420044</v>
       </c>
       <c r="E113" s="2">
-        <v>1.0447037220001221</v>
+        <v>1.0445218086242676</v>
       </c>
     </row>
     <row r="114">
@@ -2010,13 +2010,13 @@
         <v>1.3901938199996948</v>
       </c>
       <c r="C114" s="2">
-        <v>1.343791127204895</v>
+        <v>1.3434574604034424</v>
       </c>
       <c r="D114" s="2">
         <v>1.2578468322753906</v>
       </c>
       <c r="E114" s="2">
-        <v>1.1680663824081421</v>
+        <v>1.1679404973983765</v>
       </c>
     </row>
     <row r="115">
@@ -2027,13 +2027,13 @@
         <v>1.2063601016998291</v>
       </c>
       <c r="C115" s="2">
-        <v>0.98608410358428955</v>
+        <v>0.98644691705703735</v>
       </c>
       <c r="D115" s="2">
         <v>1.2326499223709107</v>
       </c>
       <c r="E115" s="2">
-        <v>1.1118345260620117</v>
+        <v>1.1118170022964478</v>
       </c>
     </row>
     <row r="116">
@@ -2044,13 +2044,13 @@
         <v>1.5406996011734009</v>
       </c>
       <c r="C116" s="2">
-        <v>1.3643659353256226</v>
+        <v>1.3642269372940064</v>
       </c>
       <c r="D116" s="2">
         <v>1.2275859117507935</v>
       </c>
       <c r="E116" s="2">
-        <v>1.1003462076187134</v>
+        <v>1.1003506183624268</v>
       </c>
     </row>
     <row r="117">
@@ -2061,13 +2061,13 @@
         <v>1.5005362033843994</v>
       </c>
       <c r="C117" s="2">
-        <v>1.5487824678421021</v>
+        <v>1.5488193035125732</v>
       </c>
       <c r="D117" s="2">
         <v>1.1623567342758179</v>
       </c>
       <c r="E117" s="2">
-        <v>1.0541092157363892</v>
+        <v>1.0540744066238403</v>
       </c>
     </row>
     <row r="118">
@@ -2078,13 +2078,13 @@
         <v>1.6858992576599121</v>
       </c>
       <c r="C118" s="2">
-        <v>1.640902042388916</v>
+        <v>1.6409497261047363</v>
       </c>
       <c r="D118" s="2">
         <v>1.1071981191635132</v>
       </c>
       <c r="E118" s="2">
-        <v>0.99893778562545776</v>
+        <v>0.99890649318695068</v>
       </c>
     </row>
     <row r="119">
@@ -2095,13 +2095,13 @@
         <v>0.43688303232192993</v>
       </c>
       <c r="C119" s="2">
-        <v>0.14277210831642151</v>
+        <v>0.14319075644016266</v>
       </c>
       <c r="D119" s="2">
         <v>1.0871602296829224</v>
       </c>
       <c r="E119" s="2">
-        <v>0.9699629545211792</v>
+        <v>0.96996700763702393</v>
       </c>
     </row>
     <row r="120">
@@ -2112,13 +2112,13 @@
         <v>0.92415553331375122</v>
       </c>
       <c r="C120" s="2">
-        <v>0.80341541767120361</v>
+        <v>0.80327636003494263</v>
       </c>
       <c r="D120" s="2">
         <v>1.0592646598815918</v>
       </c>
       <c r="E120" s="2">
-        <v>0.95164948701858521</v>
+        <v>0.95164060592651367</v>
       </c>
     </row>
     <row r="121">
@@ -2129,13 +2129,13 @@
         <v>0.40392753481864929</v>
       </c>
       <c r="C121" s="2">
-        <v>0.46515932679176331</v>
+        <v>0.46482008695602417</v>
       </c>
       <c r="D121" s="2">
         <v>1.0128895044326782</v>
       </c>
       <c r="E121" s="2">
-        <v>0.93815445899963379</v>
+        <v>0.93818622827529907</v>
       </c>
     </row>
     <row r="122">
@@ -2146,13 +2146,13 @@
         <v>0.87612801790237427</v>
       </c>
       <c r="C122" s="2">
-        <v>0.69516754150390625</v>
+        <v>0.69497108459472656</v>
       </c>
       <c r="D122" s="2">
         <v>0.90189272165298462</v>
       </c>
       <c r="E122" s="2">
-        <v>0.79279470443725586</v>
+        <v>0.79279273748397827</v>
       </c>
     </row>
     <row r="123">
@@ -2163,13 +2163,13 @@
         <v>1.2098530530929565</v>
       </c>
       <c r="C123" s="2">
-        <v>1.0830175876617432</v>
+        <v>1.0830017328262329</v>
       </c>
       <c r="D123" s="2">
         <v>0.83154535293579102</v>
       </c>
       <c r="E123" s="2">
-        <v>0.71782028675079346</v>
+        <v>0.71774071455001831</v>
       </c>
     </row>
     <row r="124">
@@ -2180,13 +2180,13 @@
         <v>0.95529943704605103</v>
       </c>
       <c r="C124" s="2">
-        <v>0.82126319408416748</v>
+        <v>0.82150924205780029</v>
       </c>
       <c r="D124" s="2">
         <v>0.90723186731338501</v>
       </c>
       <c r="E124" s="2">
-        <v>0.81991302967071533</v>
+        <v>0.81974714994430542</v>
       </c>
     </row>
     <row r="125">
@@ -2197,13 +2197,13 @@
         <v>1.1233233213424683</v>
       </c>
       <c r="C125" s="2">
-        <v>1.2429102659225464</v>
+        <v>1.2431377172470093</v>
       </c>
       <c r="D125" s="2">
         <v>0.92720144987106323</v>
       </c>
       <c r="E125" s="2">
-        <v>0.83472907543182373</v>
+        <v>0.8345518708229065</v>
       </c>
     </row>
     <row r="126">
@@ -2214,13 +2214,13 @@
         <v>0.50156509876251221</v>
       </c>
       <c r="C126" s="2">
-        <v>0.24054460227489472</v>
+        <v>0.24027785658836365</v>
       </c>
       <c r="D126" s="2">
         <v>1.0568108558654785</v>
       </c>
       <c r="E126" s="2">
-        <v>0.95315897464752197</v>
+        <v>0.95299720764160156</v>
       </c>
     </row>
     <row r="127">
@@ -2231,13 +2231,13 @@
         <v>1.0527728796005249</v>
       </c>
       <c r="C127" s="2">
-        <v>0.9661322832107544</v>
+        <v>0.96548169851303101</v>
       </c>
       <c r="D127" s="2">
         <v>0.98809897899627686</v>
       </c>
       <c r="E127" s="2">
-        <v>0.89955276250839233</v>
+        <v>0.8994753360748291</v>
       </c>
     </row>
     <row r="128">
@@ -2248,13 +2248,13 @@
         <v>1.1180621385574341</v>
       </c>
       <c r="C128" s="2">
-        <v>1.0616071224212646</v>
+        <v>1.0612485408782959</v>
       </c>
       <c r="D128" s="2">
         <v>0.9396626353263855</v>
       </c>
       <c r="E128" s="2">
-        <v>0.85416829586029053</v>
+        <v>0.85406512022018433</v>
       </c>
     </row>
     <row r="129">
@@ -2265,13 +2265,13 @@
         <v>1.1038813591003418</v>
       </c>
       <c r="C129" s="2">
-        <v>0.93676000833511353</v>
+        <v>0.93651866912841797</v>
       </c>
       <c r="D129" s="2">
         <v>0.9810362458229065</v>
       </c>
       <c r="E129" s="2">
-        <v>0.89779031276702881</v>
+        <v>0.89764386415481567</v>
       </c>
     </row>
     <row r="130">
@@ -2282,13 +2282,13 @@
         <v>1.5704125165939331</v>
       </c>
       <c r="C130" s="2">
-        <v>1.5310283899307251</v>
+        <v>1.530828595161438</v>
       </c>
       <c r="D130" s="2">
         <v>1.0273183584213257</v>
       </c>
       <c r="E130" s="2">
-        <v>0.93979734182357788</v>
+        <v>0.93958020210266113</v>
       </c>
     </row>
     <row r="131">
@@ -2299,13 +2299,13 @@
         <v>0.25772073864936829</v>
       </c>
       <c r="C131" s="2">
-        <v>0.21271149814128876</v>
+        <v>0.21327413618564606</v>
       </c>
       <c r="D131" s="2">
         <v>1.094713568687439</v>
       </c>
       <c r="E131" s="2">
-        <v>1.0336830615997315</v>
+        <v>1.0335553884506226</v>
       </c>
     </row>
     <row r="132">
@@ -2316,13 +2316,13 @@
         <v>0.7739260196685791</v>
       </c>
       <c r="C132" s="2">
-        <v>0.67455744743347168</v>
+        <v>0.67430955171585083</v>
       </c>
       <c r="D132" s="2">
         <v>1.0888017416000366</v>
       </c>
       <c r="E132" s="2">
-        <v>1.0443735122680664</v>
+        <v>1.0443114042282104</v>
       </c>
     </row>
     <row r="133">
@@ -2333,13 +2333,13 @@
         <v>1.3276619911193848</v>
       </c>
       <c r="C133" s="2">
-        <v>1.2138609886169434</v>
+        <v>1.213718056678772</v>
       </c>
       <c r="D133" s="2">
         <v>1.0259606838226318</v>
       </c>
       <c r="E133" s="2">
-        <v>0.9516216516494751</v>
+        <v>0.95165747404098511</v>
       </c>
     </row>
     <row r="134">
@@ -2350,13 +2350,13 @@
         <v>1.5398620367050171</v>
       </c>
       <c r="C134" s="2">
-        <v>1.6209739446640015</v>
+        <v>1.6205645799636841</v>
       </c>
       <c r="D134" s="2">
         <v>0.9701153039932251</v>
       </c>
       <c r="E134" s="2">
-        <v>0.87845730781555176</v>
+        <v>0.87853735685348511</v>
       </c>
     </row>
     <row r="135">
@@ -2367,13 +2367,13 @@
         <v>1.1081227064132691</v>
       </c>
       <c r="C135" s="2">
-        <v>1.0855159759521484</v>
+        <v>1.0860550403594971</v>
       </c>
       <c r="D135" s="2">
         <v>0.90150004625320435</v>
       </c>
       <c r="E135" s="2">
-        <v>0.8021090030670166</v>
+        <v>0.8021584153175354</v>
       </c>
     </row>
     <row r="136">
@@ -2384,13 +2384,13 @@
         <v>0.9995657205581665</v>
       </c>
       <c r="C136" s="2">
-        <v>1.0623465776443482</v>
+        <v>1.0622854232788086</v>
       </c>
       <c r="D136" s="2">
         <v>1.0415375232696533</v>
       </c>
       <c r="E136" s="2">
-        <v>0.93960040807723999</v>
+        <v>0.93956929445266724</v>
       </c>
     </row>
     <row r="137">
@@ -2401,13 +2401,13 @@
         <v>0.55249351263046265</v>
       </c>
       <c r="C137" s="2">
-        <v>0.22683995962142944</v>
+        <v>0.22736307978630066</v>
       </c>
       <c r="D137" s="2">
         <v>1.0789514780044556</v>
       </c>
       <c r="E137" s="2">
-        <v>0.98676073551177979</v>
+        <v>0.98675763607025147</v>
       </c>
     </row>
     <row r="138">
@@ -2418,13 +2418,13 @@
         <v>0.60127246379852295</v>
       </c>
       <c r="C138" s="2">
-        <v>0.27828076481819153</v>
+        <v>0.27843785285949707</v>
       </c>
       <c r="D138" s="2">
         <v>1.0438895225524902</v>
       </c>
       <c r="E138" s="2">
-        <v>1.0363095998764038</v>
+        <v>1.0363476276397705</v>
       </c>
     </row>
     <row r="139">
@@ -2435,13 +2435,13 @@
         <v>0.95287501811981201</v>
       </c>
       <c r="C139" s="2">
-        <v>0.84389370679855347</v>
+        <v>0.84341776371002197</v>
       </c>
       <c r="D139" s="2">
         <v>0.98979014158248901</v>
       </c>
       <c r="E139" s="2">
-        <v>0.95936208963394165</v>
+        <v>0.9594266414642334</v>
       </c>
     </row>
     <row r="140">
@@ -2452,13 +2452,13 @@
         <v>1.5180577039718628</v>
       </c>
       <c r="C140" s="2">
-        <v>1.4501343965530396</v>
+        <v>1.4499725103378296</v>
       </c>
       <c r="D140" s="2">
         <v>1.0464777946472168</v>
       </c>
       <c r="E140" s="2">
-        <v>1.0007984638214111</v>
+        <v>1.0007860660552979</v>
       </c>
     </row>
     <row r="141">
@@ -2469,13 +2469,13 @@
         <v>1.1106525659561157</v>
       </c>
       <c r="C141" s="2">
-        <v>1.0990005731582642</v>
+        <v>1.0990041494369507</v>
       </c>
       <c r="D141" s="2">
         <v>1.0369572639465332</v>
       </c>
       <c r="E141" s="2">
-        <v>0.98664611577987671</v>
+        <v>0.98671627044677734</v>
       </c>
     </row>
     <row r="142">
@@ -2486,13 +2486,13 @@
         <v>1.0121045112609863</v>
       </c>
       <c r="C142" s="2">
-        <v>1.6598005294799805</v>
+        <v>1.6600281000137329</v>
       </c>
       <c r="D142" s="2">
         <v>1.0403944253921509</v>
       </c>
       <c r="E142" s="2">
-        <v>1.0318704843521118</v>
+        <v>1.0318490266799927</v>
       </c>
     </row>
     <row r="143">
@@ -2503,13 +2503,13 @@
         <v>1.052966833114624</v>
       </c>
       <c r="C143" s="2">
-        <v>0.92844629287719727</v>
+        <v>0.92827558517456055</v>
       </c>
       <c r="D143" s="2">
         <v>1.0907306671142578</v>
       </c>
       <c r="E143" s="2">
-        <v>1.1051644086837769</v>
+        <v>1.1051615476608276</v>
       </c>
     </row>
     <row r="144">
@@ -2520,13 +2520,13 @@
         <v>1.6183123588562012</v>
       </c>
       <c r="C144" s="2">
-        <v>1.4584437608718872</v>
+        <v>1.4582905769348145</v>
       </c>
       <c r="D144" s="2">
         <v>1.1236333847045899</v>
       </c>
       <c r="E144" s="2">
-        <v>1.1433048248291016</v>
+        <v>1.1433345079421997</v>
       </c>
     </row>
     <row r="145">
@@ -2537,13 +2537,13 @@
         <v>0.91387999057769775</v>
       </c>
       <c r="C145" s="2">
-        <v>0.9349750280380249</v>
+        <v>0.93565702438354492</v>
       </c>
       <c r="D145" s="2">
         <v>1.0465196371078491</v>
       </c>
       <c r="E145" s="2">
-        <v>1.0686235427856445</v>
+        <v>1.0686590671539307</v>
       </c>
     </row>
     <row r="146">
@@ -2554,13 +2554,13 @@
         <v>0.58342814445495605</v>
       </c>
       <c r="C146" s="2">
-        <v>0.63385897874832153</v>
+        <v>0.63355797529220581</v>
       </c>
       <c r="D146" s="2">
         <v>1.0489387512207031</v>
       </c>
       <c r="E146" s="2">
-        <v>1.0575642585754395</v>
+        <v>1.0576283931732178</v>
       </c>
     </row>
     <row r="147">
@@ -2571,13 +2571,13 @@
         <v>1.0542991161346436</v>
       </c>
       <c r="C147" s="2">
-        <v>0.93792635202407837</v>
+        <v>0.93825030326843262</v>
       </c>
       <c r="D147" s="2">
         <v>1.0765870809555054</v>
       </c>
       <c r="E147" s="2">
-        <v>0.98402798175811768</v>
+        <v>0.98407071828842163</v>
       </c>
     </row>
     <row r="148">
@@ -2588,13 +2588,13 @@
         <v>1.248998761177063</v>
       </c>
       <c r="C148" s="2">
-        <v>1.1871575117111206</v>
+        <v>1.1869739294052124</v>
       </c>
       <c r="D148" s="2">
         <v>1.0753378868103027</v>
       </c>
       <c r="E148" s="2">
-        <v>0.98186099529266357</v>
+        <v>0.98191934823989868</v>
       </c>
     </row>
     <row r="149">
@@ -2605,13 +2605,13 @@
         <v>0.82403445243835449</v>
       </c>
       <c r="C149" s="2">
-        <v>0.77800285816192627</v>
+        <v>0.77789431810379028</v>
       </c>
       <c r="D149" s="2">
         <v>1.0183613300323486</v>
       </c>
       <c r="E149" s="2">
-        <v>0.93179810047149658</v>
+        <v>0.93188303709030151</v>
       </c>
     </row>
     <row r="150">
@@ -2622,13 +2622,13 @@
         <v>1.1324241161346436</v>
       </c>
       <c r="C150" s="2">
-        <v>0.99946749210357666</v>
+        <v>0.99972730875015259</v>
       </c>
       <c r="D150" s="2">
         <v>1.0164604187011719</v>
       </c>
       <c r="E150" s="2">
-        <v>0.91375428438186646</v>
+        <v>0.91378241777420044</v>
       </c>
     </row>
     <row r="151">
@@ -2639,13 +2639,13 @@
         <v>1.2609398365020752</v>
       </c>
       <c r="C151" s="2">
-        <v>0.99797350168228149</v>
+        <v>0.99800950288772583</v>
       </c>
       <c r="D151" s="2">
         <v>0.94837933778762817</v>
       </c>
       <c r="E151" s="2">
-        <v>0.82381880283355713</v>
+        <v>0.82389390468597412</v>
       </c>
     </row>
     <row r="152">
@@ -2656,13 +2656,13 @@
         <v>1.041724681854248</v>
       </c>
       <c r="C152" s="2">
-        <v>0.90894323587417603</v>
+        <v>0.90891295671463013</v>
       </c>
       <c r="D152" s="2">
         <v>0.82177597284317017</v>
       </c>
       <c r="E152" s="2">
-        <v>0.7079702615737915</v>
+        <v>0.70798200368881226</v>
       </c>
     </row>
     <row r="153">
@@ -2673,13 +2673,13 @@
         <v>1.1055232286453247</v>
       </c>
       <c r="C153" s="2">
-        <v>1.0078780651092529</v>
+        <v>1.0079641342163086</v>
       </c>
       <c r="D153" s="2">
         <v>0.65232169628143311</v>
       </c>
       <c r="E153" s="2">
-        <v>0.54405426979064941</v>
+        <v>0.54410421848297119</v>
       </c>
     </row>
     <row r="154">
@@ -2690,13 +2690,13 @@
         <v>0.89677160978317261</v>
       </c>
       <c r="C154" s="2">
-        <v>0.77258080244064331</v>
+        <v>0.7727513313293457</v>
       </c>
       <c r="D154" s="2">
         <v>0.48827815055847168</v>
       </c>
       <c r="E154" s="2">
-        <v>0.39633938670158386</v>
+        <v>0.39640837907791138</v>
       </c>
     </row>
     <row r="155">
@@ -2707,13 +2707,13 @@
         <v>-0.029301609843969345</v>
       </c>
       <c r="C155" s="2">
-        <v>-0.17556032538414001</v>
+        <v>-0.17543886601924896</v>
       </c>
       <c r="D155" s="2">
         <v>0.34072479605674744</v>
       </c>
       <c r="E155" s="2">
-        <v>0.24592827260494232</v>
+        <v>0.24600018560886383</v>
       </c>
     </row>
     <row r="156">
@@ -2724,13 +2724,13 @@
         <v>-0.085131451487541199</v>
       </c>
       <c r="C156" s="2">
-        <v>-0.10471092164516449</v>
+        <v>-0.10495632886886597</v>
       </c>
       <c r="D156" s="2">
         <v>0.17210513353347778</v>
       </c>
       <c r="E156" s="2">
-        <v>0.15058279037475586</v>
+        <v>0.15068612992763519</v>
       </c>
     </row>
     <row r="157">
@@ -2741,13 +2741,13 @@
         <v>-0.27608934044837952</v>
       </c>
       <c r="C157" s="2">
-        <v>-0.28808638453483582</v>
+        <v>-0.28792655467987061</v>
       </c>
       <c r="D157" s="2">
         <v>0.079903863370418549</v>
       </c>
       <c r="E157" s="2">
-        <v>0.059423763304948807</v>
+        <v>0.059533432126045227</v>
       </c>
     </row>
     <row r="158">
@@ -2758,13 +2758,13 @@
         <v>-0.65235769748687744</v>
       </c>
       <c r="C158" s="2">
-        <v>-0.55143100023269653</v>
+        <v>-0.55136805772781372</v>
       </c>
       <c r="D158" s="2">
         <v>0.046480540186166763</v>
       </c>
       <c r="E158" s="2">
-        <v>0.040362976491451264</v>
+        <v>0.040418956428766251</v>
       </c>
     </row>
     <row r="159">
@@ -2775,13 +2775,13 @@
         <v>-0.1955561488866806</v>
       </c>
       <c r="C159" s="2">
-        <v>-0.3542325496673584</v>
+        <v>-0.35394638776779175</v>
       </c>
       <c r="D159" s="2">
         <v>-0.065591193735599518</v>
       </c>
       <c r="E159" s="2">
-        <v>-0.074767224490642548</v>
+        <v>-0.074740953743457794</v>
       </c>
     </row>
     <row r="160">
@@ -2792,13 +2792,13 @@
         <v>-0.25663700699806213</v>
       </c>
       <c r="C160" s="2">
-        <v>0.1398642361164093</v>
+        <v>0.14018300175666809</v>
       </c>
       <c r="D160" s="2">
         <v>0.0041405675001442432</v>
       </c>
       <c r="E160" s="2">
-        <v>0.0052114534191787243</v>
+        <v>0.0052902977913618088</v>
       </c>
     </row>
     <row r="161">
@@ -2809,13 +2809,13 @@
         <v>0.21191319823265076</v>
       </c>
       <c r="C161" s="2">
-        <v>0.088511936366558075</v>
+        <v>0.088538601994514465</v>
       </c>
       <c r="D161" s="2">
         <v>0.048113804310560226</v>
       </c>
       <c r="E161" s="2">
-        <v>0.03829554095864296</v>
+        <v>0.038453519344329834</v>
       </c>
     </row>
     <row r="162">
@@ -2826,13 +2826,13 @@
         <v>0.80471330881118774</v>
       </c>
       <c r="C162" s="2">
-        <v>0.83633100986480713</v>
+        <v>0.8359338641166687</v>
       </c>
       <c r="D162" s="2">
         <v>0.078669555485248566</v>
       </c>
       <c r="E162" s="2">
-        <v>0.061293374747037888</v>
+        <v>0.061475642025470734</v>
       </c>
     </row>
     <row r="163">
@@ -2843,13 +2843,13 @@
         <v>-0.11187399923801422</v>
       </c>
       <c r="C163" s="2">
-        <v>-0.2635909914970398</v>
+        <v>-0.26368787884712219</v>
       </c>
       <c r="D163" s="2">
         <v>0.21288938820362091</v>
       </c>
       <c r="E163" s="2">
-        <v>0.1706816554069519</v>
+        <v>0.17085234820842743</v>
       </c>
     </row>
     <row r="164">
@@ -2860,13 +2860,13 @@
         <v>0.59828424453735352</v>
       </c>
       <c r="C164" s="2">
-        <v>0.54424774646759033</v>
+        <v>0.54484242200851441</v>
       </c>
       <c r="D164" s="2">
         <v>0.29645845293998718</v>
       </c>
       <c r="E164" s="2">
-        <v>0.28176519274711609</v>
+        <v>0.28189435601234436</v>
       </c>
     </row>
     <row r="165">
@@ -2877,13 +2877,13 @@
         <v>0.31062766909599304</v>
       </c>
       <c r="C165" s="2">
-        <v>0.19304586946964264</v>
+        <v>0.1935126781463623</v>
       </c>
       <c r="D165" s="2">
         <v>0.28729885816574097</v>
       </c>
       <c r="E165" s="2">
-        <v>0.2266697883605957</v>
+        <v>0.22678713500499725</v>
       </c>
     </row>
     <row r="166">
@@ -2894,13 +2894,13 @@
         <v>-0.0010875595035031438</v>
       </c>
       <c r="C166" s="2">
-        <v>-0.081105895340442658</v>
+        <v>-0.080727480351924896</v>
       </c>
       <c r="D166" s="2">
         <v>0.24615252017974854</v>
       </c>
       <c r="E166" s="2">
-        <v>0.202480748295784</v>
+        <v>0.20256803929805756</v>
       </c>
     </row>
     <row r="167">
@@ -2911,13 +2911,13 @@
         <v>0.55562072992324829</v>
       </c>
       <c r="C167" s="2">
-        <v>0.43306350708007813</v>
+        <v>0.43302235007286072</v>
       </c>
       <c r="D167" s="2">
         <v>0.12478786706924438</v>
       </c>
       <c r="E167" s="2">
-        <v>0.06345154345035553</v>
+        <v>0.063553072512149811</v>
       </c>
     </row>
     <row r="168">
@@ -2928,13 +2928,13 @@
         <v>0.55656552314758301</v>
       </c>
       <c r="C168" s="2">
-        <v>0.6455191969871521</v>
+        <v>0.64543163776397705</v>
       </c>
       <c r="D168" s="2">
         <v>0.13145817816257477</v>
       </c>
       <c r="E168" s="2">
-        <v>0.073118306696414948</v>
+        <v>0.073219366371631622</v>
       </c>
     </row>
     <row r="169">
@@ -2945,13 +2945,13 @@
         <v>-0.33907327055931091</v>
       </c>
       <c r="C169" s="2">
-        <v>-0.35599431395530701</v>
+        <v>-0.35578194260597229</v>
       </c>
       <c r="D169" s="2">
         <v>0.094043642282485962</v>
       </c>
       <c r="E169" s="2">
-        <v>0.040627431124448776</v>
+        <v>0.040677309036254883</v>
       </c>
     </row>
     <row r="170">
@@ -2962,13 +2962,13 @@
         <v>-0.15840400755405426</v>
       </c>
       <c r="C170" s="2">
-        <v>-0.12918937206268311</v>
+        <v>-0.12943330407142639</v>
       </c>
       <c r="D170" s="2">
         <v>0.1315656453371048</v>
       </c>
       <c r="E170" s="2">
-        <v>0.083286337554454804</v>
+        <v>0.083261504769325256</v>
       </c>
     </row>
     <row r="171">
@@ -2979,13 +2979,13 @@
         <v>-0.28756853938102722</v>
       </c>
       <c r="C171" s="2">
-        <v>-0.41493186354637146</v>
+        <v>-0.41520082950592041</v>
       </c>
       <c r="D171" s="2">
         <v>0.14728274941444397</v>
       </c>
       <c r="E171" s="2">
-        <v>0.09003940224647522</v>
+        <v>0.08999970555305481</v>
       </c>
     </row>
     <row r="172">
@@ -2996,13 +2996,13 @@
         <v>-0.051841244101524353</v>
       </c>
       <c r="C172" s="2">
-        <v>-0.17659008502960205</v>
+        <v>-0.1766912043094635</v>
       </c>
       <c r="D172" s="2">
         <v>0.1753523200750351</v>
       </c>
       <c r="E172" s="2">
-        <v>0.12913970649242401</v>
+        <v>0.12911747395992279</v>
       </c>
     </row>
     <row r="173">
@@ -3013,13 +3013,13 @@
         <v>0.26155346632003784</v>
       </c>
       <c r="C173" s="2">
-        <v>0.25182983279228211</v>
+        <v>0.25196388363838196</v>
       </c>
       <c r="D173" s="2">
         <v>0.17849370837211609</v>
       </c>
       <c r="E173" s="2">
-        <v>0.10236472636461258</v>
+        <v>0.10236462950706482</v>
       </c>
     </row>
     <row r="174">
@@ -3030,13 +3030,13 @@
         <v>0.64832568168640137</v>
       </c>
       <c r="C174" s="2">
-        <v>0.57697606086730957</v>
+        <v>0.57677042484283447</v>
       </c>
       <c r="D174" s="2">
         <v>0.36803606152534485</v>
       </c>
       <c r="E174" s="2">
-        <v>0.28320807218551636</v>
+        <v>0.28316718339920044</v>
       </c>
     </row>
     <row r="175">
@@ -3047,13 +3047,13 @@
         <v>0.14036634564399719</v>
       </c>
       <c r="C175" s="2">
-        <v>-0.020328333601355553</v>
+        <v>-0.020083632320165634</v>
       </c>
       <c r="D175" s="2">
         <v>0.47030669450759888</v>
       </c>
       <c r="E175" s="2">
-        <v>0.36688095331192017</v>
+        <v>0.36689853668212891</v>
       </c>
     </row>
     <row r="176">
@@ -3064,13 +3064,13 @@
         <v>0.808246910572052</v>
       </c>
       <c r="C176" s="2">
-        <v>0.78496617078781128</v>
+        <v>0.78508222103118897</v>
       </c>
       <c r="D176" s="2">
         <v>0.49438965320587158</v>
       </c>
       <c r="E176" s="2">
-        <v>0.40444782376289368</v>
+        <v>0.40451866388320923</v>
       </c>
     </row>
     <row r="177">
@@ -3081,13 +3081,13 @@
         <v>0.58483809232711792</v>
       </c>
       <c r="C177" s="2">
-        <v>0.40454447269439697</v>
+        <v>0.40465602278709412</v>
       </c>
       <c r="D177" s="2">
         <v>0.51323997974395752</v>
       </c>
       <c r="E177" s="2">
-        <v>0.43484890460968018</v>
+        <v>0.43496352434158325</v>
       </c>
     </row>
     <row r="178">
@@ -3098,13 +3098,13 @@
         <v>1.3668078184127808</v>
       </c>
       <c r="C178" s="2">
-        <v>1.2715957164764404</v>
+        <v>1.2714411020278931</v>
       </c>
       <c r="D178" s="2">
         <v>0.54678082466125488</v>
       </c>
       <c r="E178" s="2">
-        <v>0.47425231337547302</v>
+        <v>0.47428232431411743</v>
       </c>
     </row>
     <row r="179">
@@ -3115,13 +3115,13 @@
         <v>0.76203185319900513</v>
       </c>
       <c r="C179" s="2">
-        <v>0.6238667368888855</v>
+        <v>0.62414884567260742</v>
       </c>
       <c r="D179" s="2">
         <v>0.50989848375320435</v>
       </c>
       <c r="E179" s="2">
-        <v>0.43390429019927979</v>
+        <v>0.43404743075370789</v>
       </c>
     </row>
     <row r="180">
@@ -3132,13 +3132,13 @@
         <v>-0.070822089910507202</v>
       </c>
       <c r="C180" s="2">
-        <v>-0.076830089092254639</v>
+        <v>-0.076619692146778107</v>
       </c>
       <c r="D180" s="2">
         <v>0.64696335792541504</v>
       </c>
       <c r="E180" s="2">
-        <v>0.57917672395706177</v>
+        <v>0.57926726341247559</v>
       </c>
     </row>
     <row r="181">
@@ -3149,13 +3149,13 @@
         <v>0.11781155318021774</v>
       </c>
       <c r="C181" s="2">
-        <v>0.097019664943218231</v>
+        <v>0.097312584519386292</v>
       </c>
       <c r="D181" s="2">
         <v>0.50260907411575317</v>
       </c>
       <c r="E181" s="2">
-        <v>0.50588268041610718</v>
+        <v>0.50597256422042847</v>
       </c>
     </row>
     <row r="182">
@@ -3166,13 +3166,13 @@
         <v>0.56342142820358276</v>
       </c>
       <c r="C182" s="2">
-        <v>0.60646045207977295</v>
+        <v>0.60583311319351196</v>
       </c>
       <c r="D182" s="2">
         <v>0.57563948631286621</v>
       </c>
       <c r="E182" s="2">
-        <v>0.58072859048843384</v>
+        <v>0.58083522319793701</v>
       </c>
     </row>
     <row r="183">
@@ -3183,13 +3183,13 @@
         <v>0.31638434529304504</v>
       </c>
       <c r="C183" s="2">
-        <v>0.21384388208389282</v>
+        <v>0.21465623378753662</v>
       </c>
       <c r="D183" s="2">
         <v>0.60031038522720337</v>
       </c>
       <c r="E183" s="2">
-        <v>0.58802485466003418</v>
+        <v>0.58817791938781738</v>
       </c>
     </row>
     <row r="184">
@@ -3200,13 +3200,13 @@
         <v>1.3739501237869263</v>
       </c>
       <c r="C184" s="2">
-        <v>1.2871233224868774</v>
+        <v>1.2868951559066773</v>
       </c>
       <c r="D184" s="2">
         <v>0.66368454694747925</v>
       </c>
       <c r="E184" s="2">
-        <v>0.63542401790618896</v>
+        <v>0.63554900884628296</v>
       </c>
     </row>
     <row r="185">
@@ -3217,13 +3217,13 @@
         <v>-0.49094125628471375</v>
       </c>
       <c r="C185" s="2">
-        <v>0.12532001733779907</v>
+        <v>0.12542945146560669</v>
       </c>
       <c r="D185" s="2">
         <v>0.7536194920539856</v>
       </c>
       <c r="E185" s="2">
-        <v>0.70471662282943726</v>
+        <v>0.70480513572692871</v>
       </c>
     </row>
     <row r="186">
@@ -3234,13 +3234,13 @@
         <v>1.2421115636825562</v>
       </c>
       <c r="C186" s="2">
-        <v>1.0781577825546265</v>
+        <v>1.0784201622009277</v>
       </c>
       <c r="D186" s="2">
         <v>0.78110557794570923</v>
       </c>
       <c r="E186" s="2">
-        <v>0.70331388711929321</v>
+        <v>0.70339018106460571</v>
       </c>
     </row>
     <row r="187">
@@ -3251,13 +3251,13 @@
         <v>1.5888462066650391</v>
       </c>
       <c r="C187" s="2">
-        <v>1.3372617959976196</v>
+        <v>1.3375256061553955</v>
       </c>
       <c r="D187" s="2">
         <v>0.8157927393913269</v>
       </c>
       <c r="E187" s="2">
-        <v>0.75606447458267212</v>
+        <v>0.75621765851974487</v>
       </c>
     </row>
     <row r="188">
@@ -3268,13 +3268,13 @@
         <v>1.3323990106582642</v>
       </c>
       <c r="C188" s="2">
-        <v>1.0504595041275024</v>
+        <v>1.0504887104034424</v>
       </c>
       <c r="D188" s="2">
         <v>0.71775144338607788</v>
       </c>
       <c r="E188" s="2">
-        <v>0.66013157367706299</v>
+        <v>0.66008228063583374</v>
       </c>
     </row>
     <row r="189">
@@ -3285,13 +3285,13 @@
         <v>0.73859226703643799</v>
       </c>
       <c r="C189" s="2">
-        <v>0.54680323600769043</v>
+        <v>0.54668533802032471</v>
       </c>
       <c r="D189" s="2">
         <v>0.58328336477279663</v>
       </c>
       <c r="E189" s="2">
-        <v>0.49271166324615479</v>
+        <v>0.49273061752319336</v>
       </c>
     </row>
     <row r="190">
@@ -3302,13 +3302,13 @@
         <v>0.36518657207489014</v>
       </c>
       <c r="C190" s="2">
-        <v>0.084394738078117371</v>
+        <v>0.084577769041061401</v>
       </c>
       <c r="D190" s="2">
         <v>0.75908178091049194</v>
       </c>
       <c r="E190" s="2">
-        <v>0.55853408575057983</v>
+        <v>0.55851912498474121</v>
       </c>
     </row>
     <row r="191">
@@ -3319,13 +3319,13 @@
         <v>0.87560582160949707</v>
       </c>
       <c r="C191" s="2">
-        <v>1.0812160968780518</v>
+        <v>1.0812807083129883</v>
       </c>
       <c r="D191" s="2">
         <v>0.7731899619102478</v>
       </c>
       <c r="E191" s="2">
-        <v>0.66339564323425293</v>
+        <v>0.66340601444244385</v>
       </c>
     </row>
     <row r="192">
@@ -3336,13 +3336,13 @@
         <v>-0.56598716974258423</v>
       </c>
       <c r="C192" s="2">
-        <v>-0.64955216646194458</v>
+        <v>-0.65056240558624268</v>
       </c>
       <c r="D192" s="2">
         <v>0.68072623014450073</v>
       </c>
       <c r="E192" s="2">
-        <v>0.66387015581130982</v>
+        <v>0.66382193565368652</v>
       </c>
     </row>
     <row r="193">
@@ -3353,13 +3353,13 @@
         <v>0.16373701393604279</v>
       </c>
       <c r="C193" s="2">
-        <v>-0.21965615451335907</v>
+        <v>-0.21926966309547424</v>
       </c>
       <c r="D193" s="2">
         <v>0.71306675672531128</v>
       </c>
       <c r="E193" s="2">
-        <v>0.70664161443710327</v>
+        <v>0.7065921425819397</v>
       </c>
     </row>
     <row r="194">
@@ -3370,13 +3370,13 @@
         <v>1.0912445783615112</v>
       </c>
       <c r="C194" s="2">
-        <v>0.71772181987762451</v>
+        <v>0.71752601861953735</v>
       </c>
       <c r="D194" s="2">
         <v>0.72874975204467774</v>
       </c>
       <c r="E194" s="2">
-        <v>0.71783465147018433</v>
+        <v>0.71779328584671021</v>
       </c>
     </row>
     <row r="195">
@@ -3387,13 +3387,13 @@
         <v>1.3690851926803589</v>
       </c>
       <c r="C195" s="2">
-        <v>2.0219120979309082</v>
+        <v>2.0224020481109619</v>
       </c>
       <c r="D195" s="2">
         <v>0.79378920793533325</v>
       </c>
       <c r="E195" s="2">
-        <v>0.8010563850402832</v>
+        <v>0.80108213424682617</v>
       </c>
     </row>
     <row r="196">
@@ -3404,13 +3404,13 @@
         <v>0.75667262077331543</v>
       </c>
       <c r="C196" s="2">
-        <v>1.3415321111679077</v>
+        <v>1.3412686586380005</v>
       </c>
       <c r="D196" s="2">
         <v>0.71587240695953369</v>
       </c>
       <c r="E196" s="2">
-        <v>0.65643066167831421</v>
+        <v>0.65633714199066162</v>
       </c>
     </row>
     <row r="197">
@@ -3421,13 +3421,13 @@
         <v>1.6234637498855591</v>
       </c>
       <c r="C197" s="2">
-        <v>1.4354029893875122</v>
+        <v>1.4354208707809448</v>
       </c>
       <c r="D197" s="2">
         <v>0.86995917558670044</v>
       </c>
       <c r="E197" s="2">
-        <v>0.79903078079223633</v>
+        <v>0.79908019304275513</v>
       </c>
     </row>
     <row r="198">
@@ -3438,13 +3438,13 @@
         <v>0.87973934412002563</v>
       </c>
       <c r="C198" s="2">
-        <v>0.64754021167755127</v>
+        <v>0.64749568700790405</v>
       </c>
       <c r="D198" s="2">
         <v>1.020658016204834</v>
       </c>
       <c r="E198" s="2">
-        <v>0.98280972242355347</v>
+        <v>0.98285132646560669</v>
       </c>
     </row>
     <row r="199">
@@ -3455,13 +3455,13 @@
         <v>0.95054179430007935</v>
       </c>
       <c r="C199" s="2">
-        <v>0.83339023590087891</v>
+        <v>0.83417707681655884</v>
       </c>
       <c r="D199" s="2">
         <v>0.9815325140953064</v>
       </c>
       <c r="E199" s="2">
-        <v>0.97397613525390625</v>
+        <v>0.97407788038253784</v>
       </c>
     </row>
     <row r="200">
@@ -3472,13 +3472,13 @@
         <v>0.17435459792613983</v>
       </c>
       <c r="C200" s="2">
-        <v>-0.22041517496109009</v>
+        <v>-0.22142411768436432</v>
       </c>
       <c r="D200" s="2">
         <v>0.92877453565597534</v>
       </c>
       <c r="E200" s="2">
-        <v>0.82437330484390259</v>
+        <v>0.82445359230041504</v>
       </c>
     </row>
     <row r="201">
@@ -3489,13 +3489,13 @@
         <v>0.82079362869262695</v>
       </c>
       <c r="C201" s="2">
-        <v>0.63384914398193359</v>
+        <v>0.6341249942779541</v>
       </c>
       <c r="D201" s="2">
         <v>0.91252028942108154</v>
       </c>
       <c r="E201" s="2">
-        <v>0.70365619659423828</v>
+        <v>0.70373010635375977</v>
       </c>
     </row>
     <row r="202">
@@ -3506,13 +3506,13 @@
         <v>1.5200268030166626</v>
       </c>
       <c r="C202" s="2">
-        <v>1.4343541860580444</v>
+        <v>1.4346705675125122</v>
       </c>
       <c r="D202" s="2">
         <v>0.92546617984771729</v>
       </c>
       <c r="E202" s="2">
-        <v>0.71360844373703003</v>
+        <v>0.71376633644104004</v>
       </c>
     </row>
     <row r="203">
@@ -3523,13 +3523,13 @@
         <v>0.73911476135253906</v>
       </c>
       <c r="C203" s="2">
-        <v>0.63821965456008911</v>
+        <v>0.6385650634765625</v>
       </c>
       <c r="D203" s="2">
         <v>0.99118161201477051</v>
       </c>
       <c r="E203" s="2">
-        <v>0.78581744432449341</v>
+        <v>0.78597706556320191</v>
       </c>
     </row>
     <row r="204">
@@ -3540,13 +3540,13 @@
         <v>0.89426332712173462</v>
       </c>
       <c r="C204" s="2">
-        <v>0.67548662424087525</v>
+        <v>0.67578375339508057</v>
       </c>
       <c r="D204" s="2">
         <v>1.0618983507156372</v>
       </c>
       <c r="E204" s="2">
-        <v>0.85494911670684814</v>
+        <v>0.85498619079589844</v>
       </c>
     </row>
     <row r="205">
@@ -3557,13 +3557,13 @@
         <v>0.61038452386856079</v>
       </c>
       <c r="C205" s="2">
-        <v>0.2550777792930603</v>
+        <v>0.2547568678855896</v>
       </c>
       <c r="D205" s="2">
         <v>1.2258979082107544</v>
       </c>
       <c r="E205" s="2">
-        <v>1.055910587310791</v>
+        <v>1.05600905418396</v>
       </c>
     </row>
     <row r="206">
@@ -3574,13 +3574,13 @@
         <v>1.7399770021438599</v>
       </c>
       <c r="C206" s="2">
-        <v>1.5249732732772827</v>
+        <v>1.5257470607757568</v>
       </c>
       <c r="D206" s="2">
         <v>1.3178203105926514</v>
       </c>
       <c r="E206" s="2">
-        <v>1.1403687000274658</v>
+        <v>1.14045250415802</v>
       </c>
     </row>
     <row r="207">
@@ -3591,13 +3591,13 @@
         <v>1.4711782932281494</v>
       </c>
       <c r="C207" s="2">
-        <v>1.2974212169647217</v>
+        <v>1.29739248752594</v>
       </c>
       <c r="D207" s="2">
         <v>1.3398036956787109</v>
       </c>
       <c r="E207" s="2">
-        <v>1.1723048686981201</v>
+        <v>1.1724276542663574</v>
       </c>
     </row>
     <row r="208">
@@ -3608,13 +3608,13 @@
         <v>1.5869923830032349</v>
       </c>
       <c r="C208" s="2">
-        <v>1.4555755853652954</v>
+        <v>1.4552592039108276</v>
       </c>
       <c r="D208" s="2">
         <v>1.4396834373474121</v>
       </c>
       <c r="E208" s="2">
-        <v>1.2600224018096924</v>
+        <v>1.2601951360702515</v>
       </c>
     </row>
     <row r="209">
@@ -3625,13 +3625,13 @@
         <v>1.65035080909729</v>
       </c>
       <c r="C209" s="2">
-        <v>1.5882376432418823</v>
+        <v>1.5877810716629028</v>
       </c>
       <c r="D209" s="2">
         <v>1.5172851085662842</v>
       </c>
       <c r="E209" s="2">
-        <v>1.3656594753265381</v>
+        <v>1.3658977746963501</v>
       </c>
     </row>
     <row r="210">
@@ -3642,13 +3642,13 @@
         <v>1.6480953693389893</v>
       </c>
       <c r="C210" s="2">
-        <v>1.3939721584320068</v>
+        <v>1.3941164016723633</v>
       </c>
       <c r="D210" s="2">
         <v>1.6708520650863648</v>
       </c>
       <c r="E210" s="2">
-        <v>1.5551662445068359</v>
+        <v>1.5554561614990234</v>
       </c>
     </row>
     <row r="211">
@@ -3659,13 +3659,13 @@
         <v>1.717876672744751</v>
       </c>
       <c r="C211" s="2">
-        <v>1.7217797040939331</v>
+        <v>1.7224464416503906</v>
       </c>
       <c r="D211" s="2">
         <v>1.6549568176269531</v>
       </c>
       <c r="E211" s="2">
-        <v>1.5524463653564453</v>
+        <v>1.5526663064956665</v>
       </c>
     </row>
     <row r="212">
@@ -3676,13 +3676,13 @@
         <v>1.6380329132080078</v>
       </c>
       <c r="C212" s="2">
-        <v>1.4276776313781738</v>
+        <v>1.4284731149673462</v>
       </c>
       <c r="D212" s="2">
         <v>1.5762641429901123</v>
       </c>
       <c r="E212" s="2">
-        <v>1.4751173257827759</v>
+        <v>1.4753262996673584</v>
       </c>
     </row>
     <row r="213">
@@ -3693,13 +3693,13 @@
         <v>1.592678427696228</v>
       </c>
       <c r="C213" s="2">
-        <v>1.6262208223342896</v>
+        <v>1.6271073818206787</v>
       </c>
       <c r="D213" s="2">
         <v>1.5485706329345703</v>
       </c>
       <c r="E213" s="2">
-        <v>1.448279619216919</v>
+        <v>1.4485304355621338</v>
       </c>
     </row>
     <row r="214">
@@ -3710,13 +3710,13 @@
         <v>1.9924862384796143</v>
       </c>
       <c r="C214" s="2">
-        <v>1.9606386423110962</v>
+        <v>1.9607821702957153</v>
       </c>
       <c r="D214" s="2">
         <v>1.5151834487915039</v>
       </c>
       <c r="E214" s="2">
-        <v>1.407991886138916</v>
+        <v>1.4083342552185059</v>
       </c>
     </row>
     <row r="215">
@@ -3727,13 +3727,13 @@
         <v>1.5969207286834717</v>
       </c>
       <c r="C215" s="2">
-        <v>1.5004936456680298</v>
+        <v>1.5006389617919922</v>
       </c>
       <c r="D215" s="2">
         <v>1.4100573062896729</v>
       </c>
       <c r="E215" s="2">
-        <v>1.3203803300857544</v>
+        <v>1.3206324577331543</v>
       </c>
     </row>
     <row r="216">
@@ -3744,13 +3744,13 @@
         <v>0.7629433274269104</v>
       </c>
       <c r="C216" s="2">
-        <v>0.60146027803421021</v>
+        <v>0.60133171081542969</v>
       </c>
       <c r="D216" s="2">
         <v>1.4014599323272705</v>
       </c>
       <c r="E216" s="2">
-        <v>1.2872291803359985</v>
+        <v>1.2874033451080322</v>
       </c>
     </row>
     <row r="217">
@@ -3761,13 +3761,13 @@
         <v>1.3377507925033569</v>
       </c>
       <c r="C217" s="2">
-        <v>1.2140363454818726</v>
+        <v>1.2140969038009644</v>
       </c>
       <c r="D217" s="2">
         <v>1.4594326019287109</v>
       </c>
       <c r="E217" s="2">
-        <v>1.3454582691192627</v>
+        <v>1.3455711603164673</v>
       </c>
     </row>
     <row r="218">
@@ -3778,13 +3778,13 @@
         <v>1.3498668670654297</v>
       </c>
       <c r="C218" s="2">
-        <v>1.2256479263305664</v>
+        <v>1.2260150909423828</v>
       </c>
       <c r="D218" s="2">
         <v>1.3760491609573364</v>
       </c>
       <c r="E218" s="2">
-        <v>1.252598762512207</v>
+        <v>1.2526403665542603</v>
       </c>
     </row>
     <row r="219">
@@ -3795,13 +3795,13 @@
         <v>0.70195966958999634</v>
       </c>
       <c r="C219" s="2">
-        <v>0.60546815395355225</v>
+        <v>0.60480064153671265</v>
       </c>
       <c r="D219" s="2">
         <v>1.2467386722564697</v>
       </c>
       <c r="E219" s="2">
-        <v>1.1653214693069458</v>
+        <v>1.1652889251708984</v>
       </c>
     </row>
     <row r="220">
@@ -3812,13 +3812,13 @@
         <v>1.6405009031295776</v>
       </c>
       <c r="C220" s="2">
-        <v>1.4234192371368408</v>
+        <v>1.4233838319778442</v>
       </c>
       <c r="D220" s="2">
         <v>1.2592763900756836</v>
       </c>
       <c r="E220" s="2">
-        <v>1.1748902797698975</v>
+        <v>1.1748315095901489</v>
       </c>
     </row>
     <row r="221">
@@ -3829,13 +3829,13 @@
         <v>2.1597869396209717</v>
       </c>
       <c r="C221" s="2">
-        <v>1.9517391920089722</v>
+        <v>1.9519839286804199</v>
       </c>
       <c r="D221" s="2">
         <v>1.2806359529495239</v>
       </c>
       <c r="E221" s="2">
-        <v>1.2052390575408936</v>
+        <v>1.205152153968811</v>
       </c>
     </row>
     <row r="222">
@@ -3846,13 +3846,13 @@
         <v>0.84222668409347534</v>
       </c>
       <c r="C222" s="2">
-        <v>0.79048502445220947</v>
+        <v>0.79073017835617065</v>
       </c>
       <c r="D222" s="2">
         <v>1.3025666475296021</v>
       </c>
       <c r="E222" s="2">
-        <v>1.2214998006820679</v>
+        <v>1.2214069366455078</v>
       </c>
     </row>
     <row r="223">
@@ -3863,13 +3863,13 @@
         <v>0.82869219779968262</v>
       </c>
       <c r="C223" s="2">
-        <v>1.1751431226730347</v>
+        <v>1.1746193170547485</v>
       </c>
       <c r="D223" s="2">
         <v>1.3114937543869019</v>
       </c>
       <c r="E223" s="2">
-        <v>1.2358386516571045</v>
+        <v>1.2357118129730225</v>
       </c>
     </row>
     <row r="224">
@@ -3880,13 +3880,13 @@
         <v>1.709760308265686</v>
       </c>
       <c r="C224" s="2">
-        <v>1.5866127014160156</v>
+        <v>1.5865216255187988</v>
       </c>
       <c r="D224" s="2">
         <v>1.2868443727493286</v>
       </c>
       <c r="E224" s="2">
-        <v>1.2126723527908325</v>
+        <v>1.2126108407974243</v>
       </c>
     </row>
     <row r="225">
@@ -3897,13 +3897,13 @@
         <v>0.95517957210540772</v>
       </c>
       <c r="C225" s="2">
-        <v>0.87460023164749146</v>
+        <v>0.87421774864196777</v>
       </c>
       <c r="D225" s="2">
         <v>1.3425217866897583</v>
       </c>
       <c r="E225" s="2">
-        <v>1.2798749208450317</v>
+        <v>1.2798318862915039</v>
       </c>
     </row>
     <row r="226">
@@ -3914,13 +3914,13 @@
         <v>1.5351262092590332</v>
       </c>
       <c r="C226" s="2">
-        <v>1.3603825569152832</v>
+        <v>1.3603901863098145</v>
       </c>
       <c r="D226" s="2">
         <v>1.2683688402175903</v>
       </c>
       <c r="E226" s="2">
-        <v>1.205428957939148</v>
+        <v>1.2054684162139893</v>
       </c>
     </row>
     <row r="227">
@@ -3931,13 +3931,13 @@
         <v>1.4302109479904175</v>
       </c>
       <c r="C227" s="2">
-        <v>1.3546973466873169</v>
+        <v>1.3547593355178833</v>
       </c>
       <c r="D227" s="2">
         <v>1.4131536483764648</v>
       </c>
       <c r="E227" s="2">
-        <v>1.3539190292358398</v>
+        <v>1.3539314270019531</v>
       </c>
     </row>
     <row r="228">
@@ -3948,13 +3948,13 @@
         <v>0.48011556267738342</v>
       </c>
       <c r="C228" s="2">
-        <v>0.39697167277336121</v>
+        <v>0.39689096808433533</v>
       </c>
       <c r="D228" s="2">
         <v>1.4169635772705078</v>
       </c>
       <c r="E228" s="2">
-        <v>1.2881851196289063</v>
+        <v>1.2882329225540161</v>
       </c>
     </row>
     <row r="229">
@@ -3965,13 +3965,13 @@
         <v>2.1415979862213135</v>
       </c>
       <c r="C229" s="2">
-        <v>2.0282423496246338</v>
+        <v>2.028374195098877</v>
       </c>
       <c r="D229" s="2">
         <v>1.3714867830276489</v>
       </c>
       <c r="E229" s="2">
-        <v>1.2094435691833496</v>
+        <v>1.2095355987548828</v>
       </c>
     </row>
     <row r="230">
@@ -3982,13 +3982,13 @@
         <v>1.4924100637435913</v>
       </c>
       <c r="C230" s="2">
-        <v>1.2817256450653076</v>
+        <v>1.2827123403549194</v>
       </c>
       <c r="D230" s="2">
         <v>1.3999699354171753</v>
       </c>
       <c r="E230" s="2">
-        <v>1.2470570802688599</v>
+        <v>1.2472535371780396</v>
       </c>
     </row>
     <row r="231">
@@ -3999,13 +3999,13 @@
         <v>2.1452901363372803</v>
       </c>
       <c r="C231" s="2">
-        <v>2.1268959045410156</v>
+        <v>2.1268966197967529</v>
       </c>
       <c r="D231" s="2">
         <v>1.3249143362045288</v>
       </c>
       <c r="E231" s="2">
-        <v>1.167589545249939</v>
+        <v>1.1677392721176147</v>
       </c>
     </row>
     <row r="232">
@@ -4016,13 +4016,13 @@
         <v>0.86298137903213501</v>
       </c>
       <c r="C232" s="2">
-        <v>0.58353716135025024</v>
+        <v>0.58333331346511841</v>
       </c>
       <c r="D232" s="2">
         <v>1.2097835540771484</v>
       </c>
       <c r="E232" s="2">
-        <v>1.0214786529541016</v>
+        <v>1.021620512008667</v>
       </c>
     </row>
     <row r="233">
@@ -4033,13 +4033,13 @@
         <v>1.3004688024520874</v>
       </c>
       <c r="C233" s="2">
-        <v>0.87793886661529541</v>
+        <v>0.87824583053588867</v>
       </c>
       <c r="D233" s="2">
         <v>1.3219703435897827</v>
       </c>
       <c r="E233" s="2">
-        <v>1.0534986257553101</v>
+        <v>1.0536528825759888</v>
       </c>
     </row>
     <row r="234">
@@ -4050,13 +4050,13 @@
         <v>1.2115287780761719</v>
       </c>
       <c r="C234" s="2">
-        <v>1.2131218910217285</v>
+        <v>1.213679313659668</v>
       </c>
       <c r="D234" s="2">
         <v>1.226536750793457</v>
       </c>
       <c r="E234" s="2">
-        <v>1.0035443305969238</v>
+        <v>1.0038200616836548</v>
       </c>
     </row>
     <row r="235">
@@ -4067,13 +4067,13 @@
         <v>0.85962575674057007</v>
       </c>
       <c r="C235" s="2">
-        <v>0.64517533779144287</v>
+        <v>0.64476191997528076</v>
       </c>
       <c r="D235" s="2">
         <v>1.2475858926773071</v>
       </c>
       <c r="E235" s="2">
-        <v>1.0393962860107422</v>
+        <v>1.0395854711532593</v>
       </c>
     </row>
     <row r="236">
@@ -4084,13 +4084,13 @@
         <v>0.39403358101844788</v>
       </c>
       <c r="C236" s="2">
-        <v>0.039698928594589233</v>
+        <v>0.039690259844064713</v>
       </c>
       <c r="D236" s="2">
         <v>1.1907250881195068</v>
       </c>
       <c r="E236" s="2">
-        <v>0.95770573616027832</v>
+        <v>0.9578738808631897</v>
       </c>
     </row>
     <row r="237">
@@ -4101,13 +4101,13 @@
         <v>1.4897962808609009</v>
       </c>
       <c r="C237" s="2">
-        <v>0.68515157699584961</v>
+        <v>0.68518209457397461</v>
       </c>
       <c r="D237" s="2">
         <v>1.2677416801452637</v>
       </c>
       <c r="E237" s="2">
-        <v>1.0477157831192017</v>
+        <v>1.0478990077972412</v>
       </c>
     </row>
     <row r="238">
@@ -4118,13 +4118,13 @@
         <v>1.2826958894729614</v>
       </c>
       <c r="C238" s="2">
-        <v>1.5786539316177368</v>
+        <v>1.5798788070678711</v>
       </c>
       <c r="D238" s="2">
         <v>1.1957470178604126</v>
       </c>
       <c r="E238" s="2">
-        <v>0.99921160936355591</v>
+        <v>0.99938410520553589</v>
       </c>
     </row>
     <row r="239">
@@ -4135,13 +4135,13 @@
         <v>1.6818523406982422</v>
       </c>
       <c r="C239" s="2">
-        <v>1.6043930053710938</v>
+        <v>1.6046006679534912</v>
       </c>
       <c r="D239" s="2">
         <v>1.1350691318511963</v>
       </c>
       <c r="E239" s="2">
-        <v>0.92074781656265259</v>
+        <v>0.9207998514175415</v>
       </c>
     </row>
     <row r="240">
@@ -4152,13 +4152,13 @@
         <v>1.6335426568984985</v>
       </c>
       <c r="C240" s="2">
-        <v>1.3916810750961304</v>
+        <v>1.3914929628372192</v>
       </c>
       <c r="D240" s="2">
         <v>1.1523436307907104</v>
       </c>
       <c r="E240" s="2">
-        <v>0.93618345260620117</v>
+        <v>0.93632197380065918</v>
       </c>
     </row>
     <row r="241">
@@ -4169,13 +4169,13 @@
         <v>1.5561305284500122</v>
       </c>
       <c r="C241" s="2">
-        <v>1.3936272859573364</v>
+        <v>1.3935590982437134</v>
       </c>
       <c r="D241" s="2">
         <v>1.2008846998214722</v>
       </c>
       <c r="E241" s="2">
-        <v>0.99964320659637451</v>
+        <v>0.99990713596343994</v>
       </c>
     </row>
     <row r="242">
@@ -4186,13 +4186,13 @@
         <v>0.65251767635345459</v>
       </c>
       <c r="C242" s="2">
-        <v>0.44140154123306274</v>
+        <v>0.44161200523376465</v>
       </c>
       <c r="D242" s="2">
         <v>1.0594527721405029</v>
       </c>
       <c r="E242" s="2">
-        <v>0.912006676197052</v>
+        <v>0.91241925954818726</v>
       </c>
     </row>
     <row r="243">
@@ -4203,13 +4203,13 @@
         <v>0.66542726755142212</v>
       </c>
       <c r="C243" s="2">
-        <v>0.50694757699966431</v>
+        <v>0.50642102956771851</v>
       </c>
       <c r="D243" s="2">
         <v>0.9532167911529541</v>
       </c>
       <c r="E243" s="2">
-        <v>0.73531872034072876</v>
+        <v>0.73559504747390747</v>
       </c>
     </row>
     <row r="244">
@@ -4220,13 +4220,13 @@
         <v>1.0150959491729736</v>
       </c>
       <c r="C244" s="2">
-        <v>0.78409641981124878</v>
+        <v>0.78446072340011597</v>
       </c>
       <c r="D244" s="2">
         <v>0.92334574460983276</v>
       </c>
       <c r="E244" s="2">
-        <v>0.69155848026275635</v>
+        <v>0.69181060791015625</v>
       </c>
     </row>
     <row r="245">
@@ -4237,13 +4237,13 @@
         <v>0.83090418577194214</v>
       </c>
       <c r="C245" s="2">
-        <v>0.6108364462852478</v>
+        <v>0.61195665597915649</v>
       </c>
       <c r="D245" s="2">
         <v>0.82680964469909668</v>
       </c>
       <c r="E245" s="2">
-        <v>0.60120266675949097</v>
+        <v>0.60152250528335571</v>
       </c>
     </row>
     <row r="246">
@@ -4254,13 +4254,13 @@
         <v>0.21690866351127625</v>
       </c>
       <c r="C246" s="2">
-        <v>-0.10357706993818283</v>
+        <v>-0.10220879316329956</v>
       </c>
       <c r="D246" s="2">
         <v>0.69214910268783569</v>
       </c>
       <c r="E246" s="2">
-        <v>0.47584396600723267</v>
+        <v>0.47610950469970703</v>
       </c>
     </row>
     <row r="247">
@@ -4271,13 +4271,13 @@
         <v>0.32657158374786377</v>
       </c>
       <c r="C247" s="2">
-        <v>-0.011538038030266762</v>
+        <v>-0.011539185419678688</v>
       </c>
       <c r="D247" s="2">
         <v>0.65337765216827393</v>
       </c>
       <c r="E247" s="2">
-        <v>0.50661164522171021</v>
+        <v>0.5068245530128479</v>
       </c>
     </row>
     <row r="248">
@@ -4288,13 +4288,13 @@
         <v>1.4130131006240845</v>
       </c>
       <c r="C248" s="2">
-        <v>1.2105510234832764</v>
+        <v>1.2105411291122437</v>
       </c>
       <c r="D248" s="2">
         <v>0.57381993532180786</v>
       </c>
       <c r="E248" s="2">
-        <v>0.43258798122406006</v>
+        <v>0.43292522430419922</v>
       </c>
     </row>
     <row r="249">
@@ -4305,13 +4305,13 @@
         <v>0.764717698097229</v>
       </c>
       <c r="C249" s="2">
-        <v>0.57847887277603149</v>
+        <v>0.57889962196350098</v>
       </c>
       <c r="D249" s="2">
         <v>0.60466235876083374</v>
       </c>
       <c r="E249" s="2">
-        <v>0.45986071228981018</v>
+        <v>0.46025016903877258</v>
       </c>
     </row>
     <row r="250">
@@ -4322,13 +4322,13 @@
         <v>0.34418559074401856</v>
       </c>
       <c r="C250" s="2">
-        <v>0.26539903879165649</v>
+        <v>0.26484227180480957</v>
       </c>
       <c r="D250" s="2">
         <v>0.58481937646865845</v>
       </c>
       <c r="E250" s="2">
-        <v>0.46820741891860962</v>
+        <v>0.46849575638771057</v>
       </c>
     </row>
     <row r="251">
@@ -4339,13 +4339,13 @@
         <v>0.30357509851455688</v>
       </c>
       <c r="C251" s="2">
-        <v>0.71831029653549194</v>
+        <v>0.71804773807525635</v>
       </c>
       <c r="D251" s="2">
         <v>0.60623729228973389</v>
       </c>
       <c r="E251" s="2">
-        <v>0.46853390336036682</v>
+        <v>0.46858617663383484</v>
       </c>
     </row>
     <row r="252">
@@ -4356,13 +4356,13 @@
         <v>-0.05059230700135231</v>
       </c>
       <c r="C252" s="2">
-        <v>-0.15926510095596314</v>
+        <v>-0.15867327153682709</v>
       </c>
       <c r="D252" s="2">
         <v>0.53157806396484375</v>
       </c>
       <c r="E252" s="2">
-        <v>0.38738644123077393</v>
+        <v>0.38739696145057678</v>
       </c>
     </row>
     <row r="253">
@@ -4373,13 +4373,13 @@
         <v>1.2926775217056275</v>
       </c>
       <c r="C253" s="2">
-        <v>1.0295509099960327</v>
+        <v>1.0303853750228882</v>
       </c>
       <c r="D253" s="2">
         <v>0.52091187238693237</v>
       </c>
       <c r="E253" s="2">
-        <v>0.38414135575294495</v>
+        <v>0.38420957326889038</v>
       </c>
     </row>
     <row r="254">
@@ -4390,13 +4390,13 @@
         <v>0.65231764316558838</v>
       </c>
       <c r="C254" s="2">
-        <v>0.68595677614212036</v>
+        <v>0.68616682291030884</v>
       </c>
       <c r="D254" s="2">
         <v>0.6122734546661377</v>
       </c>
       <c r="E254" s="2">
-        <v>0.46635621786117554</v>
+        <v>0.46640476584434509</v>
       </c>
     </row>
     <row r="255">
@@ -4407,13 +4407,13 @@
         <v>0.4096699059009552</v>
       </c>
       <c r="C255" s="2">
-        <v>-0.10063855350017548</v>
+        <v>-0.10139495879411697</v>
       </c>
       <c r="D255" s="2">
         <v>0.65969175100326538</v>
       </c>
       <c r="E255" s="2">
-        <v>0.5132628083229065</v>
+        <v>0.51330024003982544</v>
       </c>
     </row>
     <row r="256">
@@ -4424,13 +4424,13 @@
         <v>-0.34536159038543701</v>
       </c>
       <c r="C256" s="2">
-        <v>-0.74186533689498901</v>
+        <v>-0.74224215745925903</v>
       </c>
       <c r="D256" s="2">
         <v>0.67694485187530518</v>
       </c>
       <c r="E256" s="2">
-        <v>0.4655994176864624</v>
+        <v>0.46567943692207336</v>
       </c>
     </row>
     <row r="257">
@@ -4441,13 +4441,13 @@
         <v>1.3170170783996582</v>
       </c>
       <c r="C257" s="2">
-        <v>1.1813452243804932</v>
+        <v>1.1818547248840332</v>
       </c>
       <c r="D257" s="2">
         <v>0.81472593545913696</v>
       </c>
       <c r="E257" s="2">
-        <v>0.60825324058532715</v>
+        <v>0.60821396112442017</v>
       </c>
     </row>
     <row r="258">
@@ -4458,13 +4458,13 @@
         <v>1.5869721174240112</v>
       </c>
       <c r="C258" s="2">
-        <v>1.3184126615524292</v>
+        <v>1.318656325340271</v>
       </c>
       <c r="D258" s="2">
         <v>0.78165441751480103</v>
       </c>
       <c r="E258" s="2">
-        <v>0.59306979179382324</v>
+        <v>0.59280985593795776</v>
       </c>
     </row>
     <row r="259">
@@ -4475,13 +4475,13 @@
         <v>0.7709500789642334</v>
       </c>
       <c r="C259" s="2">
-        <v>0.68755835294723511</v>
+        <v>0.68690133094787598</v>
       </c>
       <c r="D259" s="2">
         <v>0.8881373405456543</v>
       </c>
       <c r="E259" s="2">
-        <v>0.627785325050354</v>
+        <v>0.6275397539138794</v>
       </c>
     </row>
     <row r="260">
@@ -4492,13 +4492,13 @@
         <v>0.45885300636291504</v>
       </c>
       <c r="C260" s="2">
-        <v>0.28933990001678467</v>
+        <v>0.289460688829422</v>
       </c>
       <c r="D260" s="2">
         <v>0.83569478988647461</v>
       </c>
       <c r="E260" s="2">
-        <v>0.61872559785842896</v>
+        <v>0.61844474077224731</v>
       </c>
     </row>
     <row r="261">
@@ -4509,13 +4509,13 @@
         <v>1.1894376277923584</v>
       </c>
       <c r="C261" s="2">
-        <v>1.1246192455291748</v>
+        <v>1.1241376399993896</v>
       </c>
       <c r="D261" s="2">
         <v>0.96169596910476685</v>
       </c>
       <c r="E261" s="2">
-        <v>0.76914256811141968</v>
+        <v>0.76886403560638428</v>
       </c>
     </row>
     <row r="262">
@@ -4526,13 +4526,13 @@
         <v>0.99503380060195923</v>
       </c>
       <c r="C262" s="2">
-        <v>0.89289987087249756</v>
+        <v>0.89174830913543701</v>
       </c>
       <c r="D262" s="2">
         <v>0.8937380313873291</v>
       </c>
       <c r="E262" s="2">
-        <v>0.72969907522201538</v>
+        <v>0.72936558723449707</v>
       </c>
     </row>
     <row r="263">
@@ -4543,13 +4543,13 @@
         <v>1.610663890838623</v>
       </c>
       <c r="C263" s="2">
-        <v>0.99839675426483154</v>
+        <v>0.99873614311218262</v>
       </c>
       <c r="D263" s="2">
         <v>0.73482543230056763</v>
       </c>
       <c r="E263" s="2">
-        <v>0.55740576982498169</v>
+        <v>0.55718225240707398</v>
       </c>
     </row>
     <row r="264">
@@ -4560,13 +4560,13 @@
         <v>-0.062313128262758255</v>
       </c>
       <c r="C264" s="2">
-        <v>-0.18217603862285614</v>
+        <v>-0.18325020372867584</v>
       </c>
       <c r="D264" s="2">
         <v>0.79958230257034302</v>
       </c>
       <c r="E264" s="2">
-        <v>0.62962448596954346</v>
+        <v>0.62944626808166504</v>
       </c>
     </row>
     <row r="265">
@@ -4577,13 +4577,13 @@
         <v>0.78864908218383789</v>
       </c>
       <c r="C265" s="2">
-        <v>0.61188721656799317</v>
+        <v>0.61153149604797363</v>
       </c>
       <c r="D265" s="2">
         <v>0.84459418058395386</v>
       </c>
       <c r="E265" s="2">
-        <v>0.64276385307312012</v>
+        <v>0.64262831211090088</v>
       </c>
     </row>
     <row r="266">
@@ -4594,13 +4594,13 @@
         <v>0.70539605617523193</v>
       </c>
       <c r="C266" s="2">
-        <v>0.82635366916656494</v>
+        <v>0.82636839151382446</v>
       </c>
       <c r="D266" s="2">
         <v>0.79766225814819336</v>
       </c>
       <c r="E266" s="2">
-        <v>0.56425148248672485</v>
+        <v>0.56425958871841431</v>
       </c>
     </row>
     <row r="267">
@@ -4611,13 +4611,13 @@
         <v>0.15675865113735199</v>
       </c>
       <c r="C267" s="2">
-        <v>-0.23222710192203522</v>
+        <v>-0.23099331557750702</v>
       </c>
       <c r="D267" s="2">
         <v>0.81984817981719971</v>
       </c>
       <c r="E267" s="2">
-        <v>0.5925678014755249</v>
+        <v>0.59259992837905884</v>
       </c>
     </row>
     <row r="268">
@@ -4628,13 +4628,13 @@
         <v>1.3537617921829224</v>
       </c>
       <c r="C268" s="2">
-        <v>1.3375269174575806</v>
+        <v>1.3372775316238403</v>
       </c>
       <c r="D268" s="2">
         <v>0.65242928266525269</v>
       </c>
       <c r="E268" s="2">
-        <v>0.46661993861198425</v>
+        <v>0.46665245294570923</v>
       </c>
     </row>
     <row r="269">
@@ -4645,13 +4645,13 @@
         <v>0.8639596700668335</v>
       </c>
       <c r="C269" s="2">
-        <v>0.40759402513504028</v>
+        <v>0.40809890627861023</v>
       </c>
       <c r="D269" s="2">
         <v>0.79600381851196289</v>
       </c>
       <c r="E269" s="2">
-        <v>0.55765259265899658</v>
+        <v>0.55780071020126343</v>
       </c>
     </row>
     <row r="270">
@@ -4662,13 +4662,13 @@
         <v>0.76705074310302734</v>
       </c>
       <c r="C270" s="2">
-        <v>0.41800805926322937</v>
+        <v>0.41881892085075379</v>
       </c>
       <c r="D270" s="2">
         <v>0.85385382175445557</v>
       </c>
       <c r="E270" s="2">
-        <v>0.61992168426513672</v>
+        <v>0.62011831998825073</v>
       </c>
     </row>
     <row r="271">
@@ -4679,13 +4679,13 @@
         <v>1.1947067975997925</v>
       </c>
       <c r="C271" s="2">
-        <v>1.1477466821670532</v>
+        <v>1.1468113660812378</v>
       </c>
       <c r="D271" s="2">
         <v>0.93783879280090332</v>
       </c>
       <c r="E271" s="2">
-        <v>0.69956278800964355</v>
+        <v>0.69967514276504517</v>
       </c>
     </row>
     <row r="272">
@@ -4696,13 +4696,13 @@
         <v>0.10389363765716553</v>
       </c>
       <c r="C272" s="2">
-        <v>-0.13513390719890595</v>
+        <v>-0.13479098677635193</v>
       </c>
       <c r="D272" s="2">
         <v>1.095093846321106</v>
       </c>
       <c r="E272" s="2">
-        <v>0.87702149152755737</v>
+        <v>0.87702208757400513</v>
       </c>
     </row>
     <row r="273">
@@ -4713,13 +4713,13 @@
         <v>1.2298578023910523</v>
       </c>
       <c r="C273" s="2">
-        <v>0.63711792230606079</v>
+        <v>0.63708418607711792</v>
       </c>
       <c r="D273" s="2">
         <v>1.0210686922073364</v>
       </c>
       <c r="E273" s="2">
-        <v>0.76730966567993164</v>
+        <v>0.76739025115966797</v>
       </c>
     </row>
     <row r="274">
@@ -4730,13 +4730,13 @@
         <v>1.3092989921569824</v>
       </c>
       <c r="C274" s="2">
-        <v>1.1723089218139648</v>
+        <v>1.1723898649215698</v>
       </c>
       <c r="D274" s="2">
         <v>1.0837783813476563</v>
       </c>
       <c r="E274" s="2">
-        <v>0.87927162647247314</v>
+        <v>0.87928187847137451</v>
       </c>
     </row>
     <row r="275">
@@ -4747,13 +4747,13 @@
         <v>1.4612609148025513</v>
       </c>
       <c r="C275" s="2">
-        <v>1.5431233644485474</v>
+        <v>1.5423798561096192</v>
       </c>
       <c r="D275" s="2">
         <v>1.153179407119751</v>
       </c>
       <c r="E275" s="2">
-        <v>0.99649381637573242</v>
+        <v>0.99641680717468262</v>
       </c>
     </row>
     <row r="276">
@@ -4764,13 +4764,13 @@
         <v>1.5720547437667847</v>
       </c>
       <c r="C276" s="2">
-        <v>1.3649013042449951</v>
+        <v>1.3651292324066162</v>
       </c>
       <c r="D276" s="2">
         <v>1.0944944620132446</v>
       </c>
       <c r="E276" s="2">
-        <v>0.9346928596496582</v>
+        <v>0.93475925922393799</v>
       </c>
     </row>
     <row r="277">
@@ -4781,13 +4781,13 @@
         <v>0.68753510713577271</v>
       </c>
       <c r="C277" s="2">
-        <v>0.35012036561965942</v>
+        <v>0.35059100389480591</v>
       </c>
       <c r="D277" s="2">
         <v>1.1808677911758423</v>
       </c>
       <c r="E277" s="2">
-        <v>1.0462468862533569</v>
+        <v>1.0462350845336914</v>
       </c>
     </row>
     <row r="278">
@@ -4798,13 +4798,13 @@
         <v>1.4283463954925537</v>
       </c>
       <c r="C278" s="2">
-        <v>1.4152518510818482</v>
+        <v>1.415123462677002</v>
       </c>
       <c r="D278" s="2">
         <v>1.1904867887496948</v>
       </c>
       <c r="E278" s="2">
-        <v>1.1162217855453491</v>
+        <v>1.1162090301513672</v>
       </c>
     </row>
     <row r="279">
@@ -4815,13 +4815,13 @@
         <v>1.3916599750518799</v>
       </c>
       <c r="C279" s="2">
-        <v>1.4730076789855957</v>
+        <v>1.4730331897735596</v>
       </c>
       <c r="D279" s="2">
         <v>1.1723114252090454</v>
       </c>
       <c r="E279" s="2">
-        <v>1.1023408174514771</v>
+        <v>1.1023461818695068</v>
       </c>
     </row>
     <row r="280">
@@ -4832,13 +4832,13 @@
         <v>0.66654276847839356</v>
       </c>
       <c r="C280" s="2">
-        <v>0.59153848886489868</v>
+        <v>0.59189355373382568</v>
       </c>
       <c r="D280" s="2">
         <v>1.0741112232208252</v>
       </c>
       <c r="E280" s="2">
-        <v>0.99940735101699829</v>
+        <v>0.99954140186309814</v>
       </c>
     </row>
     <row r="281">
@@ -4849,13 +4849,13 @@
         <v>0.88125371932983398</v>
       </c>
       <c r="C281" s="2">
-        <v>0.86885237693786621</v>
+        <v>0.86849164962768555</v>
       </c>
       <c r="D281" s="2">
         <v>0.90581309795379639</v>
       </c>
       <c r="E281" s="2">
-        <v>0.84466856718063355</v>
+        <v>0.84475034475326538</v>
       </c>
     </row>
     <row r="282">
@@ -4866,13 +4866,13 @@
         <v>1.3164287805557251</v>
       </c>
       <c r="C282" s="2">
-        <v>1.2668920755386353</v>
+        <v>1.2668493986129761</v>
       </c>
       <c r="D282" s="2">
         <v>0.85196346044540405</v>
       </c>
       <c r="E282" s="2">
-        <v>0.79736286401748657</v>
+        <v>0.7974424958229065</v>
       </c>
     </row>
     <row r="283">
@@ -4883,13 +4883,13 @@
         <v>1.1457201242446899</v>
       </c>
       <c r="C283" s="2">
-        <v>1.0473799705505371</v>
+        <v>1.047623872756958</v>
       </c>
       <c r="D283" s="2">
         <v>0.66075843572616577</v>
       </c>
       <c r="E283" s="2">
-        <v>0.62304431200027466</v>
+        <v>0.62314301729202271</v>
       </c>
     </row>
     <row r="284">
@@ -4900,13 +4900,13 @@
         <v>0.57745933532714844</v>
       </c>
       <c r="C284" s="2">
-        <v>0.6167222261428833</v>
+        <v>0.61713749170303345</v>
       </c>
       <c r="D284" s="2">
         <v>0.48775473237037659</v>
       </c>
       <c r="E284" s="2">
-        <v>0.43100029230117798</v>
+        <v>0.43107125163078308</v>
       </c>
     </row>
     <row r="285">
@@ -4917,13 +4917,13 @@
         <v>0.057371422648429871</v>
       </c>
       <c r="C285" s="2">
-        <v>-0.027747670188546181</v>
+        <v>-0.027990486472845078</v>
       </c>
       <c r="D285" s="2">
         <v>0.38621607422828674</v>
       </c>
       <c r="E285" s="2">
-        <v>0.32311400771141052</v>
+        <v>0.32318016886711121</v>
       </c>
     </row>
     <row r="286">
@@ -4934,13 +4934,13 @@
         <v>0.20288874208927155</v>
       </c>
       <c r="C286" s="2">
-        <v>-0.075631201267242432</v>
+        <v>-0.075179517269134521</v>
       </c>
       <c r="D286" s="2">
         <v>0.33505240082740784</v>
       </c>
       <c r="E286" s="2">
-        <v>0.25951182842254639</v>
+        <v>0.25962528586387634</v>
       </c>
     </row>
     <row r="287">
@@ -4951,13 +4951,13 @@
         <v>-0.29249900579452515</v>
       </c>
       <c r="C287" s="2">
-        <v>-0.15361489355564118</v>
+        <v>-0.15357224643230438</v>
       </c>
       <c r="D287" s="2">
         <v>0.17591078579425812</v>
       </c>
       <c r="E287" s="2">
-        <v>0.095654234290122986</v>
+        <v>0.095712214708328247</v>
       </c>
     </row>
     <row r="288">
@@ -4968,13 +4968,13 @@
         <v>-0.16537320613861084</v>
       </c>
       <c r="C288" s="2">
-        <v>-0.25538861751556397</v>
+        <v>-0.25561249256134033</v>
       </c>
       <c r="D288" s="2">
         <v>0.15010015666484833</v>
       </c>
       <c r="E288" s="2">
-        <v>0.12030179053544998</v>
+        <v>0.12034253776073456</v>
       </c>
     </row>
     <row r="289">
@@ -4985,13 +4985,13 @@
         <v>-0.24730530381202698</v>
       </c>
       <c r="C289" s="2">
-        <v>-0.37943819165229797</v>
+        <v>-0.37912622094154358</v>
       </c>
       <c r="D289" s="2">
         <v>0.027002451941370964</v>
       </c>
       <c r="E289" s="2">
-        <v>0.17233018577098847</v>
+        <v>0.17225663363933563</v>
       </c>
     </row>
     <row r="290">
@@ -5002,13 +5002,13 @@
         <v>0.42078080773353577</v>
       </c>
       <c r="C290" s="2">
-        <v>0.29643276333808899</v>
+        <v>0.29649770259857178</v>
       </c>
       <c r="D290" s="2">
         <v>0.18852995336055756</v>
       </c>
       <c r="E290" s="2">
-        <v>0.3242485523223877</v>
+        <v>0.32426479458808899</v>
       </c>
     </row>
     <row r="291">
@@ -5019,13 +5019,13 @@
         <v>-0.11584587395191193</v>
       </c>
       <c r="C291" s="2">
-        <v>-0.20782628655433655</v>
+        <v>-0.20836816728115082</v>
       </c>
       <c r="D291" s="2">
         <v>0.20439910888671875</v>
       </c>
       <c r="E291" s="2">
-        <v>0.37299934029579163</v>
+        <v>0.37291938066482544</v>
       </c>
     </row>
     <row r="292">
@@ -5036,13 +5036,13 @@
         <v>0.91342443227767944</v>
       </c>
       <c r="C292" s="2">
-        <v>1.2692079544067383</v>
+        <v>1.2692967653274536</v>
       </c>
       <c r="D292" s="2">
         <v>0.26482987403869629</v>
       </c>
       <c r="E292" s="2">
-        <v>0.39632117748260498</v>
+        <v>0.39623695611953735</v>
       </c>
     </row>
     <row r="293">
@@ -5053,13 +5053,13 @@
         <v>-0.53041994571685791</v>
       </c>
       <c r="C293" s="2">
-        <v>1.0849778652191162</v>
+        <v>1.0843644142150879</v>
       </c>
       <c r="D293" s="2">
         <v>0.30223485827445984</v>
       </c>
       <c r="E293" s="2">
-        <v>0.46625292301177979</v>
+        <v>0.46615695953369141</v>
       </c>
     </row>
     <row r="294">
@@ -5070,13 +5070,13 @@
         <v>1.5111188888549805</v>
       </c>
       <c r="C294" s="2">
-        <v>1.3395177125930786</v>
+        <v>1.3400828838348389</v>
       </c>
       <c r="D294" s="2">
         <v>0.37474364042282105</v>
       </c>
       <c r="E294" s="2">
-        <v>0.56098753213882446</v>
+        <v>0.56081658601760864</v>
       </c>
     </row>
     <row r="295">
@@ -5087,13 +5087,13 @@
         <v>0.34571120142936707</v>
       </c>
       <c r="C295" s="2">
-        <v>0.36312574148178101</v>
+        <v>0.36271190643310547</v>
       </c>
       <c r="D295" s="2">
         <v>0.2809697687625885</v>
       </c>
       <c r="E295" s="2">
-        <v>0.45920607447624207</v>
+        <v>0.45907419919967651</v>
       </c>
     </row>
     <row r="296">
@@ -5104,13 +5104,13 @@
         <v>0.25137794017791748</v>
       </c>
       <c r="C296" s="2">
-        <v>0.056281551718711853</v>
+        <v>0.05628594383597374</v>
       </c>
       <c r="D296" s="2">
         <v>0.33217516541481018</v>
       </c>
       <c r="E296" s="2">
-        <v>0.50077426433563232</v>
+        <v>0.50068241357803345</v>
       </c>
     </row>
     <row r="297">
@@ -5121,13 +5121,13 @@
         <v>0.17127160727977753</v>
       </c>
       <c r="C297" s="2">
-        <v>0.37399712204933167</v>
+        <v>0.37366732954978943</v>
       </c>
       <c r="D297" s="2">
         <v>0.20555849373340607</v>
       </c>
       <c r="E297" s="2">
-        <v>0.33331426978111267</v>
+        <v>0.33314952254295349</v>
       </c>
     </row>
     <row r="298">
@@ -5138,13 +5138,13 @@
         <v>0.40527382493019104</v>
       </c>
       <c r="C298" s="2">
-        <v>0.47317343950271607</v>
+        <v>0.47281041741371155</v>
       </c>
       <c r="D298" s="2">
         <v>0.31881454586982727</v>
       </c>
       <c r="E298" s="2">
-        <v>0.24438202381134033</v>
+        <v>0.24431262910366058</v>
       </c>
     </row>
     <row r="299">
@@ -5155,13 +5155,13 @@
         <v>-0.42318412661552429</v>
       </c>
       <c r="C299" s="2">
-        <v>-0.61960041522979736</v>
+        <v>-0.61918371915817261</v>
       </c>
       <c r="D299" s="2">
         <v>0.16016641259193421</v>
       </c>
       <c r="E299" s="2">
-        <v>0.10631889849901199</v>
+        <v>0.10613970458507538</v>
       </c>
     </row>
     <row r="300">
@@ -5172,13 +5172,13 @@
         <v>0.34500259160995483</v>
       </c>
       <c r="C300" s="2">
-        <v>0.16628757119178772</v>
+        <v>0.16610580682754517</v>
       </c>
       <c r="D300" s="2">
         <v>0.19310443103313446</v>
       </c>
       <c r="E300" s="2">
-        <v>0.14662088453769684</v>
+        <v>0.14643675088882446</v>
       </c>
     </row>
     <row r="301">
@@ -5189,13 +5189,13 @@
         <v>-0.22612559795379639</v>
       </c>
       <c r="C301" s="2">
-        <v>-0.23793207108974457</v>
+        <v>-0.2384992390871048</v>
       </c>
       <c r="D301" s="2">
         <v>0.18243901431560516</v>
       </c>
       <c r="E301" s="2">
-        <v>0.14279396831989288</v>
+        <v>0.1426185667514801</v>
       </c>
     </row>
     <row r="302">
@@ -5206,13 +5206,13 @@
         <v>0.48888462781906128</v>
       </c>
       <c r="C302" s="2">
-        <v>0.28458759188652039</v>
+        <v>0.28483238816261292</v>
       </c>
       <c r="D302" s="2">
         <v>0.26868537068367004</v>
       </c>
       <c r="E302" s="2">
-        <v>0.19047269225120544</v>
+        <v>0.19027800858020783</v>
       </c>
     </row>
     <row r="303">
@@ -5223,13 +5223,13 @@
         <v>0.083285599946975708</v>
       </c>
       <c r="C303" s="2">
-        <v>0.096949532628059387</v>
+        <v>0.09652651846408844</v>
       </c>
       <c r="D303" s="2">
         <v>0.32962670922279358</v>
       </c>
       <c r="E303" s="2">
-        <v>0.22950612008571625</v>
+        <v>0.22937868535518646</v>
       </c>
     </row>
     <row r="304">
@@ -5240,13 +5240,13 @@
         <v>0.64215344190597534</v>
       </c>
       <c r="C304" s="2">
-        <v>0.72584360837936401</v>
+        <v>0.72538524866104126</v>
       </c>
       <c r="D304" s="2">
         <v>0.36689767241477966</v>
       </c>
       <c r="E304" s="2">
-        <v>0.26835921406745911</v>
+        <v>0.26822382211685181</v>
       </c>
     </row>
     <row r="305">
@@ -5257,13 +5257,13 @@
         <v>0.155389204621315</v>
       </c>
       <c r="C305" s="2">
-        <v>0.021839343011379242</v>
+        <v>0.021922409534454346</v>
       </c>
       <c r="D305" s="2">
         <v>0.36518284678459168</v>
       </c>
       <c r="E305" s="2">
-        <v>0.28057557344436646</v>
+        <v>0.28050267696380615</v>
       </c>
     </row>
     <row r="306">
@@ -5274,13 +5274,13 @@
         <v>0.94748872518539429</v>
       </c>
       <c r="C306" s="2">
-        <v>0.80310559272766113</v>
+        <v>0.80260223150253296</v>
       </c>
       <c r="D306" s="2">
         <v>0.45017626881599426</v>
       </c>
       <c r="E306" s="2">
-        <v>0.35719197988510132</v>
+        <v>0.35709676146507263</v>
       </c>
     </row>
     <row r="307">
@@ -5291,13 +5291,13 @@
         <v>0.95374596118927002</v>
       </c>
       <c r="C307" s="2">
-        <v>0.8244742751121521</v>
+        <v>0.82471650838851929</v>
       </c>
       <c r="D307" s="2">
         <v>0.45430102944374085</v>
       </c>
       <c r="E307" s="2">
-        <v>0.37414184212684631</v>
+        <v>0.37401658296585083</v>
       </c>
     </row>
     <row r="308">
@@ -5308,13 +5308,13 @@
         <v>-0.087745524942874908</v>
       </c>
       <c r="C308" s="2">
-        <v>-0.2699224054813385</v>
+        <v>-0.26957756280899048</v>
       </c>
       <c r="D308" s="2">
         <v>0.53140485286712646</v>
       </c>
       <c r="E308" s="2">
-        <v>0.44794946908950806</v>
+        <v>0.44786104559898376</v>
       </c>
     </row>
     <row r="309">
@@ -5325,13 +5325,13 @@
         <v>0.32956916093826294</v>
       </c>
       <c r="C309" s="2">
-        <v>0.27623468637466431</v>
+        <v>0.27661550045013428</v>
       </c>
       <c r="D309" s="2">
         <v>0.51833826303482056</v>
       </c>
       <c r="E309" s="2">
-        <v>0.4448930025100708</v>
+        <v>0.44488999247550964</v>
       </c>
     </row>
     <row r="310">
@@ -5342,13 +5342,13 @@
         <v>0.53881531953811646</v>
       </c>
       <c r="C310" s="2">
-        <v>0.4516156017780304</v>
+        <v>0.45084753632545471</v>
       </c>
       <c r="D310" s="2">
         <v>0.47942626476287842</v>
       </c>
       <c r="E310" s="2">
-        <v>0.40612906217575073</v>
+        <v>0.40609884262084961</v>
       </c>
     </row>
     <row r="311">
@@ -5359,13 +5359,13 @@
         <v>0.52600741386413574</v>
       </c>
       <c r="C311" s="2">
-        <v>0.43713641166687012</v>
+        <v>0.4371107816696167</v>
       </c>
       <c r="D311" s="2">
         <v>0.51304388046264648</v>
       </c>
       <c r="E311" s="2">
-        <v>0.42696934938430786</v>
+        <v>0.42700845003128052</v>
       </c>
     </row>
     <row r="312">
@@ -5376,13 +5376,13 @@
         <v>0.77722018957138062</v>
       </c>
       <c r="C312" s="2">
-        <v>0.76121801137924194</v>
+        <v>0.7611268162727356</v>
       </c>
       <c r="D312" s="2">
         <v>0.52808350324630737</v>
       </c>
       <c r="E312" s="2">
-        <v>0.4446631669998169</v>
+        <v>0.44466507434844971</v>
       </c>
     </row>
     <row r="313">
@@ -5393,13 +5393,13 @@
         <v>0.52455389499664307</v>
       </c>
       <c r="C313" s="2">
-        <v>0.69833558797836304</v>
+        <v>0.69864583015441895</v>
       </c>
       <c r="D313" s="2">
         <v>0.66772037744522095</v>
       </c>
       <c r="E313" s="2">
-        <v>0.60509943962097168</v>
+        <v>0.60511875152587891</v>
       </c>
     </row>
     <row r="314">
@@ -5410,13 +5410,13 @@
         <v>-0.19481883943080902</v>
       </c>
       <c r="C314" s="2">
-        <v>-0.32703608274459839</v>
+        <v>-0.32719805836677551</v>
       </c>
       <c r="D314" s="2">
         <v>0.7510601282119751</v>
       </c>
       <c r="E314" s="2">
-        <v>0.67675638198852539</v>
+        <v>0.67671328783035278</v>
       </c>
     </row>
     <row r="315">
@@ -5427,13 +5427,13 @@
         <v>1.2500473260879517</v>
       </c>
       <c r="C315" s="2">
-        <v>0.99066817760467529</v>
+        <v>0.99078875780105591</v>
       </c>
       <c r="D315" s="2">
         <v>0.71953278779983521</v>
       </c>
       <c r="E315" s="2">
-        <v>0.63956397771835327</v>
+        <v>0.63957309722900391</v>
       </c>
     </row>
     <row r="316">
@@ -5444,13 +5444,13 @@
         <v>1.0891025066375733</v>
       </c>
       <c r="C316" s="2">
-        <v>0.98371851444244385</v>
+        <v>0.98362618684768677</v>
       </c>
       <c r="D316" s="2">
         <v>0.77530133724212646</v>
       </c>
       <c r="E316" s="2">
-        <v>0.69234514236450195</v>
+        <v>0.69235390424728394</v>
       </c>
     </row>
     <row r="317">
@@ -5461,13 +5461,13 @@
         <v>1.1689862012863159</v>
       </c>
       <c r="C317" s="2">
-        <v>1.1740043163299561</v>
+        <v>1.1745054721832275</v>
       </c>
       <c r="D317" s="2">
         <v>0.65982580184936524</v>
       </c>
       <c r="E317" s="2">
-        <v>0.58969151973724365</v>
+        <v>0.58969277143478394</v>
       </c>
     </row>
     <row r="318">
@@ -5478,13 +5478,13 @@
         <v>1.0796271562576294</v>
       </c>
       <c r="C318" s="2">
-        <v>0.92114698886871338</v>
+        <v>0.92096602916717529</v>
       </c>
       <c r="D318" s="2">
         <v>0.67685574293136597</v>
       </c>
       <c r="E318" s="2">
-        <v>0.59710103273391724</v>
+        <v>0.59711629152297974</v>
       </c>
     </row>
     <row r="319">
@@ -5495,13 +5495,13 @@
         <v>0.25506904721260071</v>
       </c>
       <c r="C319" s="2">
-        <v>0.11688412725925446</v>
+        <v>0.1165858656167984</v>
       </c>
       <c r="D319" s="2">
         <v>0.76814621686935425</v>
       </c>
       <c r="E319" s="2">
-        <v>0.69072377681732178</v>
+        <v>0.69080030918121338</v>
       </c>
     </row>
     <row r="320">
@@ -5512,13 +5512,13 @@
         <v>1.0279244184494019</v>
       </c>
       <c r="C320" s="2">
-        <v>0.91216641664505005</v>
+        <v>0.91213834285736084</v>
       </c>
       <c r="D320" s="2">
         <v>0.77619993686676025</v>
       </c>
       <c r="E320" s="2">
-        <v>0.71540772914886475</v>
+        <v>0.71544444561004639</v>
       </c>
     </row>
     <row r="321">
@@ -5529,13 +5529,13 @@
         <v>-0.26205968856811523</v>
       </c>
       <c r="C321" s="2">
-        <v>-0.16266447305679321</v>
+        <v>-0.16282373666763306</v>
       </c>
       <c r="D321" s="2">
         <v>0.75808358192443848</v>
       </c>
       <c r="E321" s="2">
-        <v>0.6812359094619751</v>
+        <v>0.68131119012832642</v>
       </c>
     </row>
     <row r="322">
@@ -5546,13 +5546,13 @@
         <v>0.67782378196716309</v>
       </c>
       <c r="C322" s="2">
-        <v>0.76502156257629395</v>
+        <v>0.76545792818069458</v>
       </c>
       <c r="D322" s="2">
         <v>0.63281553983688355</v>
       </c>
       <c r="E322" s="2">
-        <v>0.62440866231918335</v>
+        <v>0.62446945905685425</v>
       </c>
     </row>
     <row r="323">
@@ -5563,13 +5563,13 @@
         <v>0.62679529190063477</v>
       </c>
       <c r="C323" s="2">
-        <v>0.51556843519210816</v>
+        <v>0.51595813035964966</v>
       </c>
       <c r="D323" s="2">
         <v>0.59207838773727417</v>
       </c>
       <c r="E323" s="2">
-        <v>0.58792299032211304</v>
+        <v>0.58796930313110352</v>
       </c>
     </row>
     <row r="324">
@@ -5580,13 +5580,13 @@
         <v>1.32253098487854</v>
       </c>
       <c r="C324" s="2">
-        <v>1.2128236293792725</v>
+        <v>1.2125859260559082</v>
       </c>
       <c r="D324" s="2">
         <v>0.67519795894622803</v>
       </c>
       <c r="E324" s="2">
-        <v>0.67928081750869751</v>
+        <v>0.67930150032043457</v>
       </c>
     </row>
     <row r="325">
@@ -5597,13 +5597,13 @@
         <v>0.92605489492416382</v>
       </c>
       <c r="C325" s="2">
-        <v>0.67617201805114746</v>
+        <v>0.67642700672149658</v>
       </c>
       <c r="D325" s="2">
         <v>0.66264694929122925</v>
       </c>
       <c r="E325" s="2">
-        <v>0.66946077346801758</v>
+        <v>0.66945499181747437</v>
       </c>
     </row>
     <row r="326">
@@ -5614,13 +5614,13 @@
         <v>0.041573919355869293</v>
       </c>
       <c r="C326" s="2">
-        <v>0.66255921125411987</v>
+        <v>0.66292977333068848</v>
       </c>
       <c r="D326" s="2">
         <v>0.77779829502105713</v>
       </c>
       <c r="E326" s="2">
-        <v>0.76979976892471313</v>
+        <v>0.76981765031814575</v>
       </c>
     </row>
     <row r="327">
@@ -5631,13 +5631,13 @@
         <v>0.71299290657043457</v>
       </c>
       <c r="C327" s="2">
-        <v>0.59277617931365967</v>
+        <v>0.59246450662612915</v>
       </c>
       <c r="D327" s="2">
         <v>0.8151770830154419</v>
       </c>
       <c r="E327" s="2">
-        <v>0.78452128171920776</v>
+        <v>0.7845032811164856</v>
       </c>
     </row>
     <row r="328">
@@ -5648,13 +5648,13 @@
         <v>1.0031448602676392</v>
       </c>
       <c r="C328" s="2">
-        <v>0.93910443782806397</v>
+        <v>0.9385758638381958</v>
       </c>
       <c r="D328" s="2">
         <v>0.82355225086212158</v>
       </c>
       <c r="E328" s="2">
-        <v>0.78900569677352905</v>
+        <v>0.78895080089569092</v>
       </c>
     </row>
     <row r="329">
@@ -5665,13 +5665,13 @@
         <v>0.91496580839157105</v>
       </c>
       <c r="C329" s="2">
-        <v>0.82378596067428589</v>
+        <v>0.82351934909820557</v>
       </c>
       <c r="D329" s="2">
         <v>0.67846149206161499</v>
       </c>
       <c r="E329" s="2">
-        <v>0.70916134119033814</v>
+        <v>0.7090606689453125</v>
       </c>
     </row>
     <row r="330">
@@ -5682,13 +5682,13 @@
         <v>0.77430212497711182</v>
       </c>
       <c r="C330" s="2">
-        <v>0.74038630723953247</v>
+        <v>0.74044018983840942</v>
       </c>
       <c r="D330" s="2">
         <v>0.67702919244766235</v>
       </c>
       <c r="E330" s="2">
-        <v>0.73372852802276611</v>
+        <v>0.73364228010177612</v>
       </c>
     </row>
     <row r="331">
@@ -5699,13 +5699,13 @@
         <v>1.0142329931259155</v>
       </c>
       <c r="C331" s="2">
-        <v>0.89751523733139038</v>
+        <v>0.89762884378433228</v>
       </c>
       <c r="D331" s="2">
         <v>0.73002344369888306</v>
       </c>
       <c r="E331" s="2">
-        <v>0.75091099739074707</v>
+        <v>0.75080442428588867</v>
       </c>
     </row>
     <row r="332">
@@ -5716,13 +5716,13 @@
         <v>0.70217156410217285</v>
       </c>
       <c r="C332" s="2">
-        <v>0.55592817068099976</v>
+        <v>0.55598598718643188</v>
       </c>
       <c r="D332" s="2">
         <v>0.77954214811325073</v>
       </c>
       <c r="E332" s="2">
-        <v>0.82192903757095337</v>
+        <v>0.82183438539505005</v>
       </c>
     </row>
     <row r="333">
@@ -5733,13 +5733,13 @@
         <v>0.016714487224817276</v>
       </c>
       <c r="C333" s="2">
-        <v>0.49422478675842285</v>
+        <v>0.4935743510723114</v>
       </c>
       <c r="D333" s="2">
         <v>0.76825737953186035</v>
       </c>
       <c r="E333" s="2">
-        <v>0.81910538673400879</v>
+        <v>0.81911134719848633</v>
       </c>
     </row>
     <row r="334">
@@ -5750,13 +5750,13 @@
         <v>0.91316384077072144</v>
       </c>
       <c r="C334" s="2">
-        <v>0.89727640151977539</v>
+        <v>0.89766180515289307</v>
       </c>
       <c r="D334" s="2">
         <v>0.65262711048126221</v>
       </c>
       <c r="E334" s="2">
-        <v>0.69136238098144531</v>
+        <v>0.6913672685623169</v>
       </c>
     </row>
     <row r="335">
@@ -5767,13 +5767,13 @@
         <v>0.51852226257324219</v>
       </c>
       <c r="C335" s="2">
-        <v>0.81720143556594849</v>
+        <v>0.81738889217376709</v>
       </c>
       <c r="D335" s="2">
         <v>0.69968503713607788</v>
       </c>
       <c r="E335" s="2">
-        <v>0.70996248722076416</v>
+        <v>0.70993691682815552</v>
       </c>
     </row>
     <row r="336">
@@ -5784,13 +5784,13 @@
         <v>1.1586616039276123</v>
       </c>
       <c r="C336" s="2">
-        <v>1.2319384813308716</v>
+        <v>1.2317342758178711</v>
       </c>
       <c r="D336" s="2">
         <v>0.73506635427474976</v>
       </c>
       <c r="E336" s="2">
-        <v>0.76354134082794189</v>
+        <v>0.76350909471511841</v>
       </c>
     </row>
     <row r="337">
@@ -5801,13 +5801,13 @@
         <v>0.90158188343048096</v>
       </c>
       <c r="C337" s="2">
-        <v>0.9136916995048523</v>
+        <v>0.91406857967376709</v>
       </c>
       <c r="D337" s="2">
         <v>0.77695095539093018</v>
       </c>
       <c r="E337" s="2">
-        <v>0.79748600721359253</v>
+        <v>0.79749763011932373</v>
       </c>
     </row>
     <row r="338">
@@ -5818,13 +5818,13 @@
         <v>-0.12570691108703613</v>
       </c>
       <c r="C338" s="2">
-        <v>-0.32590115070343018</v>
+        <v>-0.32617777585983276</v>
       </c>
       <c r="D338" s="2">
         <v>0.86762511730194092</v>
       </c>
       <c r="E338" s="2">
-        <v>0.84572488069534302</v>
+        <v>0.84581214189529419</v>
       </c>
     </row>
     <row r="339">
@@ -5835,13 +5835,13 @@
         <v>1.1978235244750977</v>
       </c>
       <c r="C339" s="2">
-        <v>0.90778756141662598</v>
+        <v>0.90756720304489136</v>
       </c>
       <c r="D339" s="2">
         <v>0.82790964841842651</v>
       </c>
       <c r="E339" s="2">
-        <v>0.79958045482635498</v>
+        <v>0.79953998327255249</v>
       </c>
     </row>
     <row r="340">
@@ -5852,13 +5852,13 @@
         <v>1.3326648473739624</v>
       </c>
       <c r="C340" s="2">
-        <v>1.3797246217727661</v>
+        <v>1.3797787427902222</v>
       </c>
       <c r="D340" s="2">
         <v>0.87409299612045288</v>
       </c>
       <c r="E340" s="2">
-        <v>0.8551102876663208</v>
+        <v>0.85506683588027954</v>
       </c>
     </row>
     <row r="341">
@@ -5869,13 +5869,13 @@
         <v>1.079133152961731</v>
       </c>
       <c r="C341" s="2">
-        <v>0.86142998933792114</v>
+        <v>0.86188232898712158</v>
       </c>
       <c r="D341" s="2">
         <v>0.80900168418884277</v>
       </c>
       <c r="E341" s="2">
-        <v>0.76052683591842651</v>
+        <v>0.76048743724822998</v>
       </c>
     </row>
     <row r="342">
@@ -5886,13 +5886,13 @@
         <v>0.83278191089630127</v>
       </c>
       <c r="C342" s="2">
-        <v>0.92837464809417725</v>
+        <v>0.92840510606765747</v>
       </c>
       <c r="D342" s="2">
         <v>0.81848651170730591</v>
       </c>
       <c r="E342" s="2">
-        <v>0.71554315090179443</v>
+        <v>0.71546435356140137</v>
       </c>
     </row>
     <row r="343">
@@ -5903,13 +5903,13 @@
         <v>0.5557246208190918</v>
       </c>
       <c r="C343" s="2">
-        <v>0.48197662830352783</v>
+        <v>0.48121267557144165</v>
       </c>
       <c r="D343" s="2">
         <v>0.96024250984191895</v>
       </c>
       <c r="E343" s="2">
-        <v>0.87260198593139648</v>
+        <v>0.87249308824539185</v>
       </c>
     </row>
     <row r="344">
@@ -5920,13 +5920,13 @@
         <v>0.93417239189147949</v>
       </c>
       <c r="C344" s="2">
-        <v>1.3169698715209961</v>
+        <v>1.3171305656433106</v>
       </c>
       <c r="D344" s="2">
         <v>0.83412224054336548</v>
       </c>
       <c r="E344" s="2">
-        <v>0.788455069065094</v>
+        <v>0.78839987516403198</v>
       </c>
     </row>
     <row r="345">
@@ -5937,13 +5937,13 @@
         <v>0.57283961772918701</v>
       </c>
       <c r="C345" s="2">
-        <v>0.38068774342536926</v>
+        <v>0.3805193305015564</v>
       </c>
       <c r="D345" s="2">
         <v>0.82078951597213745</v>
       </c>
       <c r="E345" s="2">
-        <v>0.75790596008300781</v>
+        <v>0.75782400369644165</v>
       </c>
     </row>
     <row r="346">
@@ -5954,13 +5954,13 @@
         <v>0.98694562911987305</v>
       </c>
       <c r="C346" s="2">
-        <v>0.50883841514587402</v>
+        <v>0.50886076688766479</v>
       </c>
       <c r="D346" s="2">
         <v>0.89196252822875977</v>
       </c>
       <c r="E346" s="2">
-        <v>0.84151428937911987</v>
+        <v>0.84138977527618408</v>
       </c>
     </row>
     <row r="347">
@@ -5971,13 +5971,13 @@
         <v>1.1500968933105469</v>
       </c>
       <c r="C347" s="2">
-        <v>1.0876284837722778</v>
+        <v>1.0870813131332397</v>
       </c>
       <c r="D347" s="2">
         <v>0.93152892589569092</v>
       </c>
       <c r="E347" s="2">
-        <v>0.8653600811958313</v>
+        <v>0.86523306369781494</v>
       </c>
     </row>
     <row r="348">
@@ -5988,13 +5988,13 @@
         <v>0.062741167843341827</v>
       </c>
       <c r="C348" s="2">
-        <v>0.15046511590480804</v>
+        <v>0.1507282555103302</v>
       </c>
       <c r="D348" s="2">
         <v>0.98598110675811768</v>
       </c>
       <c r="E348" s="2">
-        <v>0.90839493274688721</v>
+        <v>0.90844148397445679</v>
       </c>
     </row>
     <row r="349">
@@ -6005,13 +6005,13 @@
         <v>1.2126703262329102</v>
       </c>
       <c r="C349" s="2">
-        <v>1.1047829389572144</v>
+        <v>1.1045955419540405</v>
       </c>
       <c r="D349" s="2">
         <v>1.0041536092758179</v>
       </c>
       <c r="E349" s="2">
-        <v>0.92391520738601685</v>
+        <v>0.92387080192565918</v>
       </c>
     </row>
     <row r="350">
@@ -6022,13 +6022,13 @@
         <v>1.719690203666687</v>
       </c>
       <c r="C350" s="2">
-        <v>1.6139049530029297</v>
+        <v>1.6139745712280273</v>
       </c>
       <c r="D350" s="2">
         <v>1.0844240188598633</v>
       </c>
       <c r="E350" s="2">
-        <v>1.0058741569519043</v>
+        <v>1.0058048963546753</v>
       </c>
     </row>
     <row r="351">
@@ -6039,13 +6039,13 @@
         <v>1.1888793706893921</v>
       </c>
       <c r="C351" s="2">
-        <v>1.1429866552352905</v>
+        <v>1.1429942846298218</v>
       </c>
       <c r="D351" s="2">
         <v>1.0903068780899048</v>
       </c>
       <c r="E351" s="2">
-        <v>1.0738359689712525</v>
+        <v>1.0737096071243286</v>
       </c>
     </row>
     <row r="352">
@@ -6056,13 +6056,13 @@
         <v>1.0457944869995117</v>
       </c>
       <c r="C352" s="2">
-        <v>0.86929041147232056</v>
+        <v>0.87008887529373169</v>
       </c>
       <c r="D352" s="2">
         <v>1.0662604570388794</v>
       </c>
       <c r="E352" s="2">
-        <v>1.042589545249939</v>
+        <v>1.0425546169281006</v>
       </c>
     </row>
     <row r="353">
@@ -6073,13 +6073,13 @@
         <v>1.097724437713623</v>
       </c>
       <c r="C353" s="2">
-        <v>1.4566522836685181</v>
+        <v>1.4559942483901978</v>
       </c>
       <c r="D353" s="2">
         <v>1.1108037233352661</v>
       </c>
       <c r="E353" s="2">
-        <v>1.093165397644043</v>
+        <v>1.0930927991867066</v>
       </c>
     </row>
     <row r="354">
@@ -6090,13 +6090,13 @@
         <v>1.2952731847763062</v>
       </c>
       <c r="C354" s="2">
-        <v>1.1183178424835205</v>
+        <v>1.1179263591766357</v>
       </c>
       <c r="D354" s="2">
         <v>1.0517146587371826</v>
       </c>
       <c r="E354" s="2">
-        <v>1.038516640663147</v>
+        <v>1.0384736061096192</v>
       </c>
     </row>
     <row r="355">
@@ -6107,13 +6107,13 @@
         <v>1.0398914813995361</v>
       </c>
       <c r="C355" s="2">
-        <v>1.1204947233200073</v>
+        <v>1.1200026273727417</v>
       </c>
       <c r="D355" s="2">
         <v>0.88831794261932373</v>
       </c>
       <c r="E355" s="2">
-        <v>0.84417611360549927</v>
+        <v>0.84410172700881958</v>
       </c>
     </row>
     <row r="356">
@@ -6124,13 +6124,13 @@
         <v>0.93367987871170044</v>
       </c>
       <c r="C356" s="2">
-        <v>0.80641138553619385</v>
+        <v>0.80668634176254272</v>
       </c>
       <c r="D356" s="2">
         <v>0.84468305110931396</v>
       </c>
       <c r="E356" s="2">
-        <v>0.77787566184997559</v>
+        <v>0.77782988548278809</v>
       </c>
     </row>
     <row r="357">
@@ -6141,13 +6141,13 @@
         <v>0.4636305570602417</v>
       </c>
       <c r="C357" s="2">
-        <v>0.60564768314361572</v>
+        <v>0.6055724024772644</v>
       </c>
       <c r="D357" s="2">
         <v>0.81421780586242676</v>
       </c>
       <c r="E357" s="2">
-        <v>0.75241529941558838</v>
+        <v>0.75233954191207886</v>
       </c>
     </row>
     <row r="358">
@@ -6158,13 +6158,13 @@
         <v>0.68086826801300049</v>
       </c>
       <c r="C358" s="2">
-        <v>0.61294376850128174</v>
+        <v>0.6130225658416748</v>
       </c>
       <c r="D358" s="2">
         <v>0.74072188138961792</v>
       </c>
       <c r="E358" s="2">
-        <v>0.61561977863311768</v>
+        <v>0.61560589075088501</v>
       </c>
     </row>
     <row r="359">
@@ -6175,13 +6175,13 @@
         <v>0.24911986291408539</v>
       </c>
       <c r="C359" s="2">
-        <v>-0.13515959680080414</v>
+        <v>-0.13537238538265228</v>
       </c>
       <c r="D359" s="2">
         <v>0.60560154914855957</v>
       </c>
       <c r="E359" s="2">
-        <v>0.49080994725227356</v>
+        <v>0.49085965752601624</v>
       </c>
     </row>
     <row r="360">
@@ -6192,13 +6192,13 @@
         <v>0.7961653470993042</v>
       </c>
       <c r="C360" s="2">
-        <v>0.54628229141235352</v>
+        <v>0.54654783010482788</v>
       </c>
       <c r="D360" s="2">
         <v>0.52908146381378174</v>
       </c>
       <c r="E360" s="2">
-        <v>0.38339334726333618</v>
+        <v>0.38349604606628418</v>
       </c>
     </row>
     <row r="361">
@@ -6209,13 +6209,13 @@
         <v>0.77160722017288208</v>
       </c>
       <c r="C361" s="2">
-        <v>0.64014744758605957</v>
+        <v>0.64067614078521729</v>
       </c>
       <c r="D361" s="2">
         <v>0.45166823267936707</v>
       </c>
       <c r="E361" s="2">
-        <v>0.34227520227432251</v>
+        <v>0.34230315685272217</v>
       </c>
     </row>
     <row r="362">
@@ -6226,13 +6226,13 @@
         <v>0.43626126646995545</v>
       </c>
       <c r="C362" s="2">
-        <v>0.22549223899841309</v>
+        <v>0.22539125382900238</v>
       </c>
       <c r="D362" s="2">
         <v>0.49149194359779358</v>
       </c>
       <c r="E362" s="2">
-        <v>0.3651781976222992</v>
+        <v>0.36525499820709229</v>
       </c>
     </row>
     <row r="363">
@@ -6243,13 +6243,13 @@
         <v>0.079189814627170563</v>
       </c>
       <c r="C363" s="2">
-        <v>-0.0049705356359481812</v>
+        <v>-0.0047899461351335049</v>
       </c>
       <c r="D363" s="2">
         <v>0.44996628165245056</v>
       </c>
       <c r="E363" s="2">
-        <v>0.32079330086708069</v>
+        <v>0.32088598608970642</v>
       </c>
     </row>
     <row r="364">
@@ -6260,13 +6260,13 @@
         <v>0.35121113061904907</v>
       </c>
       <c r="C364" s="2">
-        <v>0.15374545753002167</v>
+        <v>0.15373028814792633</v>
       </c>
       <c r="D364" s="2">
         <v>0.472135990858078</v>
       </c>
       <c r="E364" s="2">
-        <v>0.39982900023460388</v>
+        <v>0.39992263913154602</v>
       </c>
     </row>
     <row r="365">
@@ -6277,13 +6277,13 @@
         <v>0.23696063458919525</v>
       </c>
       <c r="C365" s="2">
-        <v>0.43634793162345886</v>
+        <v>0.43595033884048462</v>
       </c>
       <c r="D365" s="2">
         <v>0.4344068169593811</v>
       </c>
       <c r="E365" s="2">
-        <v>0.39248770475387573</v>
+        <v>0.39256849884986878</v>
       </c>
     </row>
     <row r="366">
@@ -6294,13 +6294,13 @@
         <v>0.82204407453536987</v>
       </c>
       <c r="C366" s="2">
-        <v>0.81177473068237305</v>
+        <v>0.81213897466659546</v>
       </c>
       <c r="D366" s="2">
         <v>0.42091554403305054</v>
       </c>
       <c r="E366" s="2">
-        <v>0.38682901859283447</v>
+        <v>0.38683062791824341</v>
       </c>
     </row>
     <row r="367">
@@ -6311,13 +6311,13 @@
         <v>0.30713719129562378</v>
       </c>
       <c r="C367" s="2">
-        <v>0.21347978711128235</v>
+        <v>0.21370124816894531</v>
       </c>
       <c r="D367" s="2">
         <v>0.31707838177680969</v>
       </c>
       <c r="E367" s="2">
-        <v>0.30995947122573853</v>
+        <v>0.30994448065757752</v>
       </c>
     </row>
     <row r="368">
@@ -6328,13 +6328,13 @@
         <v>0.44864735007286072</v>
       </c>
       <c r="C368" s="2">
-        <v>0.57616174221038818</v>
+        <v>0.57595765590667725</v>
       </c>
       <c r="D368" s="2">
         <v>0.26228687167167664</v>
       </c>
       <c r="E368" s="2">
-        <v>0.26273342967033386</v>
+        <v>0.26268526911735535</v>
       </c>
     </row>
     <row r="369">
@@ -6345,13 +6345,13 @@
         <v>0.45660275220870972</v>
       </c>
       <c r="C369" s="2">
-        <v>0.48021045327186585</v>
+        <v>0.48036062717437744</v>
       </c>
       <c r="D369" s="2">
         <v>0.15488393604755402</v>
       </c>
       <c r="E369" s="2">
-        <v>0.18746337294578552</v>
+        <v>0.18737722933292389</v>
       </c>
     </row>
     <row r="370">
@@ -6362,13 +6362,13 @@
         <v>0.65018576383590698</v>
       </c>
       <c r="C370" s="2">
-        <v>0.58921927213668823</v>
+        <v>0.5890352725982666</v>
       </c>
       <c r="D370" s="2">
         <v>0.08480565994977951</v>
       </c>
       <c r="E370" s="2">
-        <v>0.10648903250694275</v>
+        <v>0.10642094910144806</v>
       </c>
     </row>
     <row r="371">
@@ -6379,13 +6379,13 @@
         <v>-0.49827328324317932</v>
       </c>
       <c r="C371" s="2">
-        <v>-0.4663335382938385</v>
+        <v>-0.46658402681350708</v>
       </c>
       <c r="D371" s="2">
         <v>-0.052686493843793869</v>
       </c>
       <c r="E371" s="2">
-        <v>-0.032893959432840347</v>
+        <v>-0.032987393438816071</v>
       </c>
     </row>
     <row r="372">
@@ -6396,13 +6396,13 @@
         <v>-0.41393366456031799</v>
       </c>
       <c r="C372" s="2">
-        <v>-0.43000501394271851</v>
+        <v>-0.43012285232543945</v>
       </c>
       <c r="D372" s="2">
         <v>-0.11322511732578278</v>
       </c>
       <c r="E372" s="2">
-        <v>-0.093852013349533081</v>
+        <v>-0.093972146511077881</v>
       </c>
     </row>
     <row r="373">
@@ -6413,13 +6413,13 @@
         <v>-0.61541545391082764</v>
       </c>
       <c r="C373" s="2">
-        <v>-0.52368497848510742</v>
+        <v>-0.52404218912124634</v>
       </c>
       <c r="D373" s="2">
         <v>-0.17811037600040436</v>
       </c>
       <c r="E373" s="2">
-        <v>-0.18334738910198212</v>
+        <v>-0.1834510862827301</v>
       </c>
     </row>
     <row r="374">
@@ -6430,13 +6430,13 @@
         <v>-0.39374378323554993</v>
       </c>
       <c r="C374" s="2">
-        <v>-0.29242119193077088</v>
+        <v>-0.29265618324279785</v>
       </c>
       <c r="D374" s="2">
         <v>-0.20896013081073761</v>
       </c>
       <c r="E374" s="2">
-        <v>-0.24001215398311615</v>
+        <v>-0.24018172919750214</v>
       </c>
     </row>
     <row r="375">
@@ -6447,13 +6447,13 @@
         <v>-0.41538530588150024</v>
       </c>
       <c r="C375" s="2">
-        <v>-0.44267216324806213</v>
+        <v>-0.44253608584403992</v>
       </c>
       <c r="D375" s="2">
         <v>-0.31952023506164551</v>
       </c>
       <c r="E375" s="2">
-        <v>-0.36465203762054443</v>
+        <v>-0.36480435729026795</v>
       </c>
     </row>
     <row r="376">
@@ -6464,13 +6464,13 @@
         <v>-0.23771043121814728</v>
       </c>
       <c r="C376" s="2">
-        <v>-0.33514267206192017</v>
+        <v>-0.33516153693199158</v>
       </c>
       <c r="D376" s="2">
         <v>-0.29558879137039185</v>
       </c>
       <c r="E376" s="2">
-        <v>-0.34498250484466553</v>
+        <v>-0.34508287906646729</v>
       </c>
     </row>
     <row r="377">
@@ -6481,13 +6481,13 @@
         <v>-0.13531991839408875</v>
       </c>
       <c r="C377" s="2">
-        <v>-0.22929668426513672</v>
+        <v>-0.22935281693935394</v>
       </c>
       <c r="D377" s="2">
         <v>-0.32506543397903442</v>
       </c>
       <c r="E377" s="2">
-        <v>-0.36981147527694702</v>
+        <v>-0.36994418501853943</v>
       </c>
     </row>
     <row r="378">
@@ -6498,13 +6498,13 @@
         <v>0.17895491421222687</v>
       </c>
       <c r="C378" s="2">
-        <v>-0.029772352427244186</v>
+        <v>-0.030215170234441757</v>
       </c>
       <c r="D378" s="2">
         <v>-0.19304193556308746</v>
       </c>
       <c r="E378" s="2">
-        <v>-0.25758585333824158</v>
+        <v>-0.25765722990036011</v>
       </c>
     </row>
     <row r="379">
@@ -6515,13 +6515,13 @@
         <v>-0.34485521912574768</v>
       </c>
       <c r="C379" s="2">
-        <v>-0.5325397253036499</v>
+        <v>-0.53256827592849732</v>
       </c>
       <c r="D379" s="2">
         <v>-0.13694508373737335</v>
       </c>
       <c r="E379" s="2">
-        <v>-0.21813157200813293</v>
+        <v>-0.21815553307533264</v>
       </c>
     </row>
     <row r="380">
@@ -6532,13 +6532,13 @@
         <v>-0.28289023041725159</v>
       </c>
       <c r="C380" s="2">
-        <v>-0.28930765390396118</v>
+        <v>-0.28909069299697876</v>
       </c>
       <c r="D380" s="2">
         <v>-0.13185589015483856</v>
       </c>
       <c r="E380" s="2">
-        <v>-0.21499687433242798</v>
+        <v>-0.21505124866962433</v>
       </c>
     </row>
     <row r="381">
@@ -6549,13 +6549,13 @@
         <v>-0.67922335863113403</v>
       </c>
       <c r="C381" s="2">
-        <v>-0.65346592664718628</v>
+        <v>-0.65387475490570068</v>
       </c>
       <c r="D381" s="2">
         <v>-0.019411737099289894</v>
       </c>
       <c r="E381" s="2">
-        <v>-0.10483475774526596</v>
+        <v>-0.10487092286348343</v>
       </c>
     </row>
     <row r="382">
@@ -6566,13 +6566,13 @@
         <v>0.57279586791992188</v>
       </c>
       <c r="C382" s="2">
-        <v>0.48634561896324158</v>
+        <v>0.48654040694236755</v>
       </c>
       <c r="D382" s="2">
         <v>-0.043574009090662003</v>
       </c>
       <c r="E382" s="2">
-        <v>-0.13560958206653595</v>
+        <v>-0.13556616008281708</v>
       </c>
     </row>
     <row r="383">
@@ -6583,13 +6583,13 @@
         <v>0.11112789064645767</v>
       </c>
       <c r="C383" s="2">
-        <v>0.062667466700077057</v>
+        <v>0.062859117984771729</v>
       </c>
       <c r="D383" s="2">
         <v>0.063766174018383026</v>
       </c>
       <c r="E383" s="2">
-        <v>-0.0091226194053888321</v>
+        <v>-0.0090679358690977097</v>
       </c>
     </row>
     <row r="384">
@@ -6600,13 +6600,13 @@
         <v>-0.36958256363868713</v>
       </c>
       <c r="C384" s="2">
-        <v>-0.41445991396903992</v>
+        <v>-0.41459745168685913</v>
       </c>
       <c r="D384" s="2">
         <v>0.20862975716590881</v>
       </c>
       <c r="E384" s="2">
-        <v>0.13196252286434174</v>
+        <v>0.13195139169692993</v>
       </c>
     </row>
     <row r="385">
@@ -6617,13 +6617,13 @@
         <v>0.77428698539733887</v>
       </c>
       <c r="C385" s="2">
-        <v>0.65631633996963501</v>
+        <v>0.65646135807037354</v>
       </c>
       <c r="D385" s="2">
         <v>0.33690136671066284</v>
       </c>
       <c r="E385" s="2">
-        <v>0.24392557144165039</v>
+        <v>0.2438850998878479</v>
       </c>
     </row>
     <row r="386">
@@ -6634,13 +6634,13 @@
         <v>-0.35278037190437317</v>
       </c>
       <c r="C386" s="2">
-        <v>-0.50627005100250244</v>
+        <v>-0.50560998916625977</v>
       </c>
       <c r="D386" s="2">
         <v>0.53222495317459106</v>
       </c>
       <c r="E386" s="2">
-        <v>0.42278778553009033</v>
+        <v>0.42276081442832947</v>
       </c>
     </row>
     <row r="387">
@@ -6651,13 +6651,13 @@
         <v>1.1450165510177612</v>
       </c>
       <c r="C387" s="2">
-        <v>1.1086102724075317</v>
+        <v>1.1082688570022583</v>
       </c>
       <c r="D387" s="2">
         <v>0.58888149261474609</v>
       </c>
       <c r="E387" s="2">
-        <v>0.46584761142730713</v>
+        <v>0.46585589647293091</v>
       </c>
     </row>
     <row r="388">
@@ -6668,13 +6668,13 @@
         <v>0.95891708135604858</v>
       </c>
       <c r="C388" s="2">
-        <v>0.73722654581069946</v>
+        <v>0.73660564422607422</v>
       </c>
       <c r="D388" s="2">
         <v>0.6556931734085083</v>
       </c>
       <c r="E388" s="2">
-        <v>0.53331637382507324</v>
+        <v>0.53332465887069702</v>
       </c>
     </row>
     <row r="389">
@@ -6685,13 +6685,13 @@
         <v>0.87155419588088989</v>
       </c>
       <c r="C389" s="2">
-        <v>0.71835976839065552</v>
+        <v>0.71831268072128296</v>
       </c>
       <c r="D389" s="2">
         <v>0.782004714012146</v>
       </c>
       <c r="E389" s="2">
-        <v>0.67882490158081055</v>
+        <v>0.67884868383407593</v>
       </c>
     </row>
     <row r="390">
@@ -6702,13 +6702,13 @@
         <v>1.0786888599395752</v>
       </c>
       <c r="C390" s="2">
-        <v>0.95629400014877319</v>
+        <v>0.95600670576095581</v>
       </c>
       <c r="D390" s="2">
         <v>0.87720280885696411</v>
       </c>
       <c r="E390" s="2">
-        <v>0.79178619384765625</v>
+        <v>0.79174512624740601</v>
       </c>
     </row>
     <row r="391">
@@ -6719,13 +6719,13 @@
         <v>1.0827047824859619</v>
       </c>
       <c r="C391" s="2">
-        <v>0.87388414144515991</v>
+        <v>0.87439626455307007</v>
       </c>
       <c r="D391" s="2">
         <v>1.0366883277893067</v>
       </c>
       <c r="E391" s="2">
-        <v>0.96328383684158325</v>
+        <v>0.96322280168533325</v>
       </c>
     </row>
     <row r="392">
@@ -6736,13 +6736,13 @@
         <v>0.71243321895599365</v>
       </c>
       <c r="C392" s="2">
-        <v>0.66988635063171387</v>
+        <v>0.67007780075073242</v>
       </c>
       <c r="D392" s="2">
         <v>0.98718959093093872</v>
       </c>
       <c r="E392" s="2">
-        <v>0.91407144069671631</v>
+        <v>0.91404914855957031</v>
       </c>
     </row>
     <row r="393">
@@ -6753,13 +6753,13 @@
         <v>0.76722127199172974</v>
       </c>
       <c r="C393" s="2">
-        <v>0.89511662721633911</v>
+        <v>0.89511889219284058</v>
       </c>
       <c r="D393" s="2">
         <v>1.0241857767105103</v>
       </c>
       <c r="E393" s="2">
-        <v>0.96870326995849609</v>
+        <v>0.96883398294448853</v>
       </c>
     </row>
     <row r="394">
@@ -6770,13 +6770,13 @@
         <v>1.6310696601867676</v>
       </c>
       <c r="C394" s="2">
-        <v>1.6729681491851807</v>
+        <v>1.6725291013717651</v>
       </c>
       <c r="D394" s="2">
         <v>1.0190236568450928</v>
       </c>
       <c r="E394" s="2">
-        <v>0.94972419738769531</v>
+        <v>0.94977724552154541</v>
       </c>
     </row>
     <row r="395">
@@ -6787,13 +6787,13 @@
         <v>1.0825895071029663</v>
       </c>
       <c r="C395" s="2">
-        <v>1.0372086763381958</v>
+        <v>1.0376894474029541</v>
       </c>
       <c r="D395" s="2">
         <v>1.0513321161270142</v>
       </c>
       <c r="E395" s="2">
-        <v>0.99676883220672607</v>
+        <v>0.99679893255233765</v>
       </c>
     </row>
     <row r="396">
@@ -6804,13 +6804,13 @@
         <v>0.6995278000831604</v>
       </c>
       <c r="C396" s="2">
-        <v>0.66569846868515015</v>
+        <v>0.66570603847503662</v>
       </c>
       <c r="D396" s="2">
         <v>0.9437640905380249</v>
       </c>
       <c r="E396" s="2">
-        <v>0.95356643199920654</v>
+        <v>0.95356720685958862</v>
       </c>
     </row>
     <row r="397">
@@ -6821,13 +6821,13 @@
         <v>1.2918829917907715</v>
       </c>
       <c r="C397" s="2">
-        <v>1.2289131879806519</v>
+        <v>1.2296690940856934</v>
       </c>
       <c r="D397" s="2">
         <v>0.97408795356750488</v>
       </c>
       <c r="E397" s="2">
-        <v>1.008808970451355</v>
+        <v>1.008832573890686</v>
       </c>
     </row>
     <row r="398">
@@ -6838,13 +6838,13 @@
         <v>0.82509505748748779</v>
       </c>
       <c r="C398" s="2">
-        <v>0.54754805564880371</v>
+        <v>0.5468018651008606</v>
       </c>
       <c r="D398" s="2">
         <v>1.0112763643264771</v>
       </c>
       <c r="E398" s="2">
-        <v>1.0273553133010864</v>
+        <v>1.0273294448852539</v>
       </c>
     </row>
     <row r="399">
@@ -6855,13 +6855,13 @@
         <v>1.369464635848999</v>
       </c>
       <c r="C399" s="2">
-        <v>1.3796957731246948</v>
+        <v>1.3792018890380859</v>
       </c>
       <c r="D399" s="2">
         <v>0.93453329801559448</v>
       </c>
       <c r="E399" s="2">
-        <v>0.95644241571426392</v>
+        <v>0.9563833475112915</v>
       </c>
     </row>
     <row r="400">
@@ -6872,13 +6872,13 @@
         <v>0.11459251493215561</v>
       </c>
       <c r="C400" s="2">
-        <v>0.48506265878677368</v>
+        <v>0.4853108823299408</v>
       </c>
       <c r="D400" s="2">
         <v>0.90035146474838257</v>
       </c>
       <c r="E400" s="2">
-        <v>0.91253769397735596</v>
+        <v>0.91246992349624634</v>
       </c>
     </row>
     <row r="401">
@@ -6889,13 +6889,13 @@
         <v>0.98534834384918213</v>
       </c>
       <c r="C401" s="2">
-        <v>1.1670693159103394</v>
+        <v>1.1674659252166748</v>
       </c>
       <c r="D401" s="2">
         <v>0.87912499904632568</v>
       </c>
       <c r="E401" s="2">
-        <v>0.91206741333007813</v>
+        <v>0.91202443838119507</v>
       </c>
     </row>
     <row r="402">
@@ -6906,13 +6906,13 @@
         <v>1.101917028427124</v>
       </c>
       <c r="C402" s="2">
-        <v>1.0620330572128296</v>
+        <v>1.0615905523300171</v>
       </c>
       <c r="D402" s="2">
         <v>0.8555983304977417</v>
       </c>
       <c r="E402" s="2">
-        <v>0.89339166879653931</v>
+        <v>0.89326560497283936</v>
       </c>
     </row>
     <row r="403">
@@ -6923,13 +6923,13 @@
         <v>0.94038182497024536</v>
       </c>
       <c r="C403" s="2">
-        <v>1.0347526073455811</v>
+        <v>1.0340147018432617</v>
       </c>
       <c r="D403" s="2">
         <v>0.84802043437957764</v>
       </c>
       <c r="E403" s="2">
-        <v>0.90265703201293945</v>
+        <v>0.90258699655532837</v>
       </c>
     </row>
     <row r="404">
@@ -6940,13 +6940,13 @@
         <v>0.77495282888412476</v>
       </c>
       <c r="C404" s="2">
-        <v>0.6420661211013794</v>
+        <v>0.64246857166290283</v>
       </c>
       <c r="D404" s="2">
         <v>0.79919761419296265</v>
       </c>
       <c r="E404" s="2">
-        <v>0.85316276550292969</v>
+        <v>0.85311979055404663</v>
       </c>
     </row>
     <row r="405">
@@ -6957,13 +6957,13 @@
         <v>0.50848954916000366</v>
       </c>
       <c r="C405" s="2">
-        <v>0.66146606206893921</v>
+        <v>0.66169655323028565</v>
       </c>
       <c r="D405" s="2">
         <v>0.85822886228561401</v>
       </c>
       <c r="E405" s="2">
-        <v>0.91598355770111084</v>
+        <v>0.91597872972488403</v>
       </c>
     </row>
     <row r="406">
@@ -6974,13 +6974,13 @@
         <v>1.0801432132720947</v>
       </c>
       <c r="C406" s="2">
-        <v>1.0608313083648682</v>
+        <v>1.0608392953872681</v>
       </c>
       <c r="D406" s="2">
         <v>0.89354676008224487</v>
       </c>
       <c r="E406" s="2">
-        <v>0.90986162424087525</v>
+        <v>0.90984684228897095</v>
       </c>
     </row>
     <row r="407">
@@ -6991,13 +6991,13 @@
         <v>0.75689375400543213</v>
       </c>
       <c r="C407" s="2">
-        <v>0.63093662261962891</v>
+        <v>0.63069480657577515</v>
       </c>
       <c r="D407" s="2">
         <v>0.88906985521316528</v>
       </c>
       <c r="E407" s="2">
-        <v>0.8766474723815918</v>
+        <v>0.87673729658126831</v>
       </c>
     </row>
     <row r="408">
@@ -7008,13 +7008,13 @@
         <v>0.93005943298339844</v>
       </c>
       <c r="C408" s="2">
-        <v>0.93424713611602783</v>
+        <v>0.93399703502655029</v>
       </c>
       <c r="D408" s="2">
         <v>0.85903811454772949</v>
       </c>
       <c r="E408" s="2">
-        <v>0.81664425134658814</v>
+        <v>0.81673884391784668</v>
       </c>
     </row>
     <row r="409">
@@ -7025,13 +7025,13 @@
         <v>0.6458735466003418</v>
       </c>
       <c r="C409" s="2">
-        <v>1.0504499673843384</v>
+        <v>1.0510408878326416</v>
       </c>
       <c r="D409" s="2">
         <v>0.90191388130187988</v>
       </c>
       <c r="E409" s="2">
-        <v>0.86230778694152832</v>
+        <v>0.862388014793396</v>
       </c>
     </row>
     <row r="410">
@@ -7042,13 +7042,13 @@
         <v>1.3032097816467285</v>
       </c>
       <c r="C410" s="2">
-        <v>1.1119719743728638</v>
+        <v>1.1122792959213257</v>
       </c>
       <c r="D410" s="2">
         <v>0.92176163196563721</v>
       </c>
       <c r="E410" s="2">
-        <v>0.88705736398696899</v>
+        <v>0.88708800077438354</v>
       </c>
     </row>
     <row r="411">
@@ -7059,13 +7059,13 @@
         <v>1.0616248846054077</v>
       </c>
       <c r="C411" s="2">
-        <v>0.76310563087463379</v>
+        <v>0.76360440254211426</v>
       </c>
       <c r="D411" s="2">
         <v>0.90702003240585327</v>
       </c>
       <c r="E411" s="2">
-        <v>0.84980934858322144</v>
+        <v>0.84986722469329834</v>
       </c>
     </row>
     <row r="412">
@@ -7076,13 +7076,13 @@
         <v>0.67009603977203369</v>
       </c>
       <c r="C412" s="2">
-        <v>0.49472346901893616</v>
+        <v>0.49402868747711182</v>
       </c>
       <c r="D412" s="2">
         <v>0.92580026388168335</v>
       </c>
       <c r="E412" s="2">
-        <v>0.87430018186569214</v>
+        <v>0.87437111139297485</v>
       </c>
     </row>
     <row r="413">
@@ -7093,13 +7093,13 @@
         <v>1.1608346700668335</v>
       </c>
       <c r="C413" s="2">
-        <v>1.0530376434326172</v>
+        <v>1.0533112287521362</v>
       </c>
       <c r="D413" s="2">
         <v>0.8668673038482666</v>
       </c>
       <c r="E413" s="2">
-        <v>0.81166529655456543</v>
+        <v>0.81184673309326172</v>
       </c>
     </row>
     <row r="414">
@@ -7110,13 +7110,13 @@
         <v>0.68711954355239868</v>
       </c>
       <c r="C414" s="2">
-        <v>0.8842126727104187</v>
+        <v>0.88399654626846313</v>
       </c>
       <c r="D414" s="2">
         <v>0.86721569299697876</v>
       </c>
       <c r="E414" s="2">
-        <v>0.75761586427688599</v>
+        <v>0.75773292779922485</v>
       </c>
     </row>
     <row r="415">
@@ -7127,13 +7127,13 @@
         <v>0.94746881723403931</v>
       </c>
       <c r="C415" s="2">
-        <v>0.72559899091720581</v>
+        <v>0.725852370262146</v>
       </c>
       <c r="D415" s="2">
         <v>0.84596908092498779</v>
       </c>
       <c r="E415" s="2">
-        <v>0.7498779296875</v>
+        <v>0.74995195865631104</v>
       </c>
     </row>
     <row r="416">
@@ -7144,13 +7144,13 @@
         <v>0.92591571807861328</v>
       </c>
       <c r="C416" s="2">
-        <v>0.85135430097579956</v>
+        <v>0.85122942924499512</v>
       </c>
       <c r="D416" s="2">
         <v>0.79986089468002319</v>
       </c>
       <c r="E416" s="2">
-        <v>0.7293698787689209</v>
+        <v>0.72940301895141602</v>
       </c>
     </row>
     <row r="417">
@@ -7161,13 +7161,13 @@
         <v>0.39966249465942383</v>
       </c>
       <c r="C417" s="2">
-        <v>0.37053298950195313</v>
+        <v>0.37127795815467834</v>
       </c>
       <c r="D417" s="2">
         <v>0.77956610918045044</v>
       </c>
       <c r="E417" s="2">
-        <v>0.70021164417266846</v>
+        <v>0.70030605792999268</v>
       </c>
     </row>
     <row r="418">
@@ -7178,13 +7178,13 @@
         <v>0.6490093469619751</v>
       </c>
       <c r="C418" s="2">
-        <v>0.56400525569915771</v>
+        <v>0.56401640176773071</v>
       </c>
       <c r="D418" s="2">
         <v>0.81577473878860474</v>
       </c>
       <c r="E418" s="2">
-        <v>0.72288352251052856</v>
+        <v>0.72292178869247437</v>
       </c>
     </row>
     <row r="419">
@@ -7195,13 +7195,13 @@
         <v>1.1119903326034546</v>
       </c>
       <c r="C419" s="2">
-        <v>1.042330265045166</v>
+        <v>1.0422508716583252</v>
       </c>
       <c r="D419" s="2">
         <v>0.90697675943374634</v>
       </c>
       <c r="E419" s="2">
-        <v>0.78416144847869873</v>
+        <v>0.78417956829071045</v>
       </c>
     </row>
     <row r="420">
@@ -7212,13 +7212,13 @@
         <v>0.64665102958679199</v>
       </c>
       <c r="C420" s="2">
-        <v>0.57853305339813233</v>
+        <v>0.57866394519805908</v>
       </c>
       <c r="D420" s="2">
         <v>0.97265088558197021</v>
       </c>
       <c r="E420" s="2">
-        <v>0.86511027812957764</v>
+        <v>0.86508834362030029</v>
       </c>
     </row>
     <row r="421">
@@ -7229,13 +7229,13 @@
         <v>0.48744285106658936</v>
       </c>
       <c r="C421" s="2">
-        <v>0.23229935765266419</v>
+        <v>0.23215603828430176</v>
       </c>
       <c r="D421" s="2">
         <v>1.0503259897232056</v>
       </c>
       <c r="E421" s="2">
-        <v>0.95022624731063843</v>
+        <v>0.95020037889480591</v>
       </c>
     </row>
     <row r="422">
@@ -7246,13 +7246,13 @@
         <v>1.4867126941680908</v>
       </c>
       <c r="C422" s="2">
-        <v>1.257084846496582</v>
+        <v>1.256852388381958</v>
       </c>
       <c r="D422" s="2">
         <v>1.1094783544540405</v>
       </c>
       <c r="E422" s="2">
-        <v>1.006033182144165</v>
+        <v>1.005946159362793</v>
       </c>
     </row>
     <row r="423">
@@ -7263,13 +7263,13 @@
         <v>1.5079374313354492</v>
       </c>
       <c r="C423" s="2">
-        <v>1.4357140064239502</v>
+        <v>1.4353169202804565</v>
       </c>
       <c r="D423" s="2">
         <v>1.2141076326370239</v>
       </c>
       <c r="E423" s="2">
-        <v>1.0991424322128296</v>
+        <v>1.0990288257598877</v>
       </c>
     </row>
     <row r="424">
@@ -7280,13 +7280,13 @@
         <v>1.5385360717773438</v>
       </c>
       <c r="C424" s="2">
-        <v>1.4541386365890503</v>
+        <v>1.4540313482284546</v>
       </c>
       <c r="D424" s="2">
         <v>1.2800841331481934</v>
       </c>
       <c r="E424" s="2">
-        <v>1.1567659378051758</v>
+        <v>1.1566233634948731</v>
       </c>
     </row>
     <row r="425">
@@ -7297,13 +7297,13 @@
         <v>1.6249912977218628</v>
       </c>
       <c r="C425" s="2">
-        <v>1.6173980236053467</v>
+        <v>1.6172375679016113</v>
       </c>
       <c r="D425" s="2">
         <v>1.4140897989273071</v>
       </c>
       <c r="E425" s="2">
-        <v>1.2919960021972656</v>
+        <v>1.2919020652770996</v>
       </c>
     </row>
     <row r="426">
@@ -7314,13 +7314,13 @@
         <v>0.93203449249267578</v>
       </c>
       <c r="C426" s="2">
-        <v>0.87279504537582398</v>
+        <v>0.8729894757270813</v>
       </c>
       <c r="D426" s="2">
         <v>1.5190967321395874</v>
       </c>
       <c r="E426" s="2">
-        <v>1.4135684967041016</v>
+        <v>1.4134300947189331</v>
       </c>
     </row>
     <row r="427">
@@ -7331,13 +7331,13 @@
         <v>1.5906722545623779</v>
       </c>
       <c r="C427" s="2">
-        <v>1.4019888639450073</v>
+        <v>1.4017614126205444</v>
       </c>
       <c r="D427" s="2">
         <v>1.4140794277191162</v>
       </c>
       <c r="E427" s="2">
-        <v>1.2950081825256348</v>
+        <v>1.2948321104049683</v>
       </c>
     </row>
     <row r="428">
@@ -7348,13 +7348,13 @@
         <v>1.7057793140411377</v>
       </c>
       <c r="C428" s="2">
-        <v>1.5609416961669922</v>
+        <v>1.5606011152267456</v>
       </c>
       <c r="D428" s="2">
         <v>1.3148138523101807</v>
       </c>
       <c r="E428" s="2">
-        <v>1.1803199052810669</v>
+        <v>1.180219292640686</v>
       </c>
     </row>
     <row r="429">
@@ -7365,13 +7365,13 @@
         <v>1.852702260017395</v>
       </c>
       <c r="C429" s="2">
-        <v>1.7956033945083618</v>
+        <v>1.7961721420288086</v>
       </c>
       <c r="D429" s="2">
         <v>1.3418480157852173</v>
       </c>
       <c r="E429" s="2">
-        <v>1.1983110904693604</v>
+        <v>1.1982173919677734</v>
       </c>
     </row>
     <row r="430">
@@ -7382,13 +7382,13 @@
         <v>1.4325052499771118</v>
       </c>
       <c r="C430" s="2">
-        <v>1.3264517784118652</v>
+        <v>1.3259085416793823</v>
       </c>
       <c r="D430" s="2">
         <v>1.3412728309631348</v>
       </c>
       <c r="E430" s="2">
-        <v>1.1849946975708008</v>
+        <v>1.1848077774047852</v>
       </c>
     </row>
     <row r="431">
@@ -7399,13 +7399,13 @@
         <v>0.54155635833740234</v>
       </c>
       <c r="C431" s="2">
-        <v>0.19004172086715698</v>
+        <v>0.18947088718414307</v>
       </c>
       <c r="D431" s="2">
         <v>1.3974676132202149</v>
       </c>
       <c r="E431" s="2">
-        <v>1.2578064203262329</v>
+        <v>1.2576305866241455</v>
       </c>
     </row>
     <row r="432">
@@ -7416,13 +7416,13 @@
         <v>0.61454790830612183</v>
       </c>
       <c r="C432" s="2">
-        <v>0.40352010726928711</v>
+        <v>0.40380129218101502</v>
       </c>
       <c r="D432" s="2">
         <v>1.376063346862793</v>
       </c>
       <c r="E432" s="2">
-        <v>1.2469103336334229</v>
+        <v>1.2467254400253296</v>
       </c>
     </row>
     <row r="433">
@@ -7433,13 +7433,13 @@
         <v>1.7818427085876465</v>
       </c>
       <c r="C433" s="2">
-        <v>1.6160590648651123</v>
+        <v>1.6160143613815308</v>
       </c>
       <c r="D433" s="2">
         <v>1.3577823638916016</v>
       </c>
       <c r="E433" s="2">
-        <v>1.2427568435668945</v>
+        <v>1.2425755262374878</v>
       </c>
     </row>
     <row r="434">
@@ -7450,13 +7450,13 @@
         <v>1.6198147535324097</v>
       </c>
       <c r="C434" s="2">
-        <v>1.4975502490997315</v>
+        <v>1.4965511560440064</v>
       </c>
       <c r="D434" s="2">
         <v>1.3073022365570068</v>
       </c>
       <c r="E434" s="2">
-        <v>1.1903669834136963</v>
+        <v>1.1901078224182129</v>
       </c>
     </row>
     <row r="435">
@@ -7467,13 +7467,13 @@
         <v>1.4377872943878174</v>
       </c>
       <c r="C435" s="2">
-        <v>1.5281004905700684</v>
+        <v>1.528394341468811</v>
       </c>
       <c r="D435" s="2">
         <v>1.2218259572982788</v>
       </c>
       <c r="E435" s="2">
-        <v>1.0806351900100708</v>
+        <v>1.0804803371429443</v>
       </c>
     </row>
     <row r="436">
@@ -7484,13 +7484,13 @@
         <v>1.3980338573455811</v>
       </c>
       <c r="C436" s="2">
-        <v>1.3039246797561646</v>
+        <v>1.3036152124404907</v>
       </c>
       <c r="D436" s="2">
         <v>1.3016650676727295</v>
       </c>
       <c r="E436" s="2">
-        <v>1.192976713180542</v>
+        <v>1.1928584575653076</v>
       </c>
     </row>
     <row r="437">
@@ -7501,13 +7501,13 @@
         <v>1.5412513017654419</v>
       </c>
       <c r="C437" s="2">
-        <v>1.523560643196106</v>
+        <v>1.5232521295547485</v>
       </c>
       <c r="D437" s="2">
         <v>1.3165289163589478</v>
       </c>
       <c r="E437" s="2">
-        <v>1.2229651212692261</v>
+        <v>1.2227771282196045</v>
       </c>
     </row>
     <row r="438">
@@ -7518,13 +7518,13 @@
         <v>1.3983807563781738</v>
       </c>
       <c r="C438" s="2">
-        <v>1.324094295501709</v>
+        <v>1.3239619731903076</v>
       </c>
       <c r="D438" s="2">
         <v>1.2534675598144531</v>
       </c>
       <c r="E438" s="2">
-        <v>1.1331337690353394</v>
+        <v>1.1329488754272461</v>
       </c>
     </row>
     <row r="439">
@@ -7535,13 +7535,13 @@
         <v>0.66321885585784912</v>
       </c>
       <c r="C439" s="2">
-        <v>0.33886569738388062</v>
+        <v>0.33926188945770264</v>
       </c>
       <c r="D439" s="2">
         <v>1.1250491142272949</v>
       </c>
       <c r="E439" s="2">
-        <v>0.99583917856216431</v>
+        <v>0.99574434757232666</v>
       </c>
     </row>
     <row r="440">
@@ -7552,13 +7552,13 @@
         <v>1.2601083517074585</v>
       </c>
       <c r="C440" s="2">
-        <v>1.2011147737503052</v>
+        <v>1.2008734941482544</v>
       </c>
       <c r="D440" s="2">
         <v>1.0078127384185791</v>
       </c>
       <c r="E440" s="2">
-        <v>0.80265313386917114</v>
+        <v>0.80256634950637817</v>
       </c>
     </row>
     <row r="441">
@@ -7569,13 +7569,13 @@
         <v>0.74832195043563843</v>
       </c>
       <c r="C441" s="2">
-        <v>0.67341667413711548</v>
+        <v>0.67306947708129883</v>
       </c>
       <c r="D441" s="2">
         <v>0.87404412031173706</v>
       </c>
       <c r="E441" s="2">
-        <v>0.63416612148284912</v>
+        <v>0.63398367166519165</v>
       </c>
     </row>
     <row r="442">
@@ -7586,13 +7586,13 @@
         <v>1.2142910957336426</v>
       </c>
       <c r="C442" s="2">
-        <v>0.80757600069046021</v>
+        <v>0.80756032466888428</v>
       </c>
       <c r="D442" s="2">
         <v>0.75587773323059082</v>
       </c>
       <c r="E442" s="2">
-        <v>0.50023472309112549</v>
+        <v>0.49999898672103882</v>
       </c>
     </row>
     <row r="443">
@@ -7603,13 +7603,13 @@
         <v>0.46404901146888733</v>
       </c>
       <c r="C443" s="2">
-        <v>0.26189947128295898</v>
+        <v>0.26171013712882996</v>
       </c>
       <c r="D443" s="2">
         <v>0.62694966793060303</v>
       </c>
       <c r="E443" s="2">
-        <v>0.34922760725021362</v>
+        <v>0.34899553656578064</v>
       </c>
     </row>
     <row r="444">
@@ -7620,13 +7620,13 @@
         <v>0.38265931606292725</v>
       </c>
       <c r="C444" s="2">
-        <v>-0.21057404577732086</v>
+        <v>-0.21020762622356415</v>
       </c>
       <c r="D444" s="2">
         <v>0.64612221717834473</v>
       </c>
       <c r="E444" s="2">
-        <v>0.37730693817138672</v>
+        <v>0.37707138061523438</v>
       </c>
     </row>
     <row r="445">
@@ -7637,13 +7637,13 @@
         <v>0.19411665201187134</v>
       </c>
       <c r="C445" s="2">
-        <v>-0.21245816349983215</v>
+        <v>-0.21362881362438202</v>
       </c>
       <c r="D445" s="2">
         <v>0.68885123729705811</v>
       </c>
       <c r="E445" s="2">
-        <v>0.41230815649032593</v>
+        <v>0.4120844304561615</v>
       </c>
     </row>
     <row r="446">
@@ -7654,13 +7654,13 @@
         <v>0.47775378823280334</v>
       </c>
       <c r="C446" s="2">
-        <v>0.3181779682636261</v>
+        <v>0.31738999485969543</v>
       </c>
       <c r="D446" s="2">
         <v>0.76461941003799438</v>
       </c>
       <c r="E446" s="2">
-        <v>0.49211925268173218</v>
+        <v>0.49199634790420532</v>
       </c>
     </row>
     <row r="447">
@@ -7671,13 +7671,13 @@
         <v>0.23802781105041504</v>
       </c>
       <c r="C447" s="2">
-        <v>-0.034969788044691086</v>
+        <v>-0.035069089382886887</v>
       </c>
       <c r="D447" s="2">
         <v>0.80404645204544067</v>
       </c>
       <c r="E447" s="2">
-        <v>0.56735104322433472</v>
+        <v>0.56721740961074829</v>
       </c>
     </row>
     <row r="448">
@@ -7688,13 +7688,13 @@
         <v>0.83577215671539307</v>
       </c>
       <c r="C448" s="2">
-        <v>0.59157955646514893</v>
+        <v>0.59194457530975342</v>
       </c>
       <c r="D448" s="2">
         <v>0.89525926113128662</v>
       </c>
       <c r="E448" s="2">
-        <v>0.65344971418380737</v>
+        <v>0.65339756011962891</v>
       </c>
     </row>
     <row r="449">
@@ -7705,13 +7705,13 @@
         <v>1.6446695327758789</v>
       </c>
       <c r="C449" s="2">
-        <v>1.5161257982254028</v>
+        <v>1.5159908533096314</v>
       </c>
       <c r="D449" s="2">
         <v>1.0777924060821533</v>
       </c>
       <c r="E449" s="2">
-        <v>0.88965815305709839</v>
+        <v>0.88954854011535645</v>
       </c>
     </row>
     <row r="450">
@@ -7722,13 +7722,13 @@
         <v>1.4302351474761963</v>
       </c>
       <c r="C450" s="2">
-        <v>1.3917165994644165</v>
+        <v>1.3922768831253052</v>
       </c>
       <c r="D450" s="2">
         <v>1.1732653379440308</v>
       </c>
       <c r="E450" s="2">
-        <v>1.0172193050384522</v>
+        <v>1.0171761512756348</v>
       </c>
     </row>
     <row r="451">
@@ -7739,13 +7739,13 @@
         <v>1.5691344738006592</v>
       </c>
       <c r="C451" s="2">
-        <v>1.4846619367599487</v>
+        <v>1.4845495223999024</v>
       </c>
       <c r="D451" s="2">
         <v>1.1963180303573608</v>
       </c>
       <c r="E451" s="2">
-        <v>1.0472679138183594</v>
+        <v>1.0473079681396484</v>
       </c>
     </row>
     <row r="452">
@@ -7756,13 +7756,13 @@
         <v>1.2849646806716919</v>
       </c>
       <c r="C452" s="2">
-        <v>1.0367876291275024</v>
+        <v>1.0373319387435913</v>
       </c>
       <c r="D452" s="2">
         <v>1.3056085109710693</v>
       </c>
       <c r="E452" s="2">
-        <v>1.1671216487884522</v>
+        <v>1.1671844720840454</v>
       </c>
     </row>
     <row r="453">
@@ -7773,13 +7773,13 @@
         <v>2.0254571437835693</v>
       </c>
       <c r="C453" s="2">
-        <v>1.9153016805648804</v>
+        <v>1.9151507616043091</v>
       </c>
       <c r="D453" s="2">
         <v>1.2520724534988403</v>
       </c>
       <c r="E453" s="2">
-        <v>1.1186861991882324</v>
+        <v>1.11869215965271</v>
       </c>
     </row>
     <row r="454">
@@ -7790,13 +7790,13 @@
         <v>1.0533736944198608</v>
       </c>
       <c r="C454" s="2">
-        <v>0.93559223413467407</v>
+        <v>0.93501979112625122</v>
       </c>
       <c r="D454" s="2">
         <v>1.1558821201324463</v>
       </c>
       <c r="E454" s="2">
-        <v>1.034803032875061</v>
+        <v>1.0348187685012817</v>
       </c>
     </row>
     <row r="455">
@@ -7807,13 +7807,13 @@
         <v>0.68522787094116211</v>
       </c>
       <c r="C455" s="2">
-        <v>0.58861595392227173</v>
+        <v>0.58857619762420654</v>
       </c>
       <c r="D455" s="2">
         <v>1.0856019258499146</v>
       </c>
       <c r="E455" s="2">
-        <v>0.94281357526779175</v>
+        <v>0.94280344247817993</v>
       </c>
     </row>
     <row r="456">
@@ -7824,13 +7824,13 @@
         <v>1.221642017364502</v>
       </c>
       <c r="C456" s="2">
-        <v>1.0437134504318237</v>
+        <v>1.0438194274902344</v>
       </c>
       <c r="D456" s="2">
         <v>1.0407259464263916</v>
       </c>
       <c r="E456" s="2">
-        <v>0.88900679349899292</v>
+        <v>0.88897329568862915</v>
       </c>
     </row>
     <row r="457">
@@ -7841,13 +7841,13 @@
         <v>0.35394710302352905</v>
       </c>
       <c r="C457" s="2">
-        <v>0.15566025674343109</v>
+        <v>0.15551456809043884</v>
       </c>
       <c r="D457" s="2">
         <v>1.0347837209701538</v>
       </c>
       <c r="E457" s="2">
-        <v>0.88528376817703247</v>
+        <v>0.88514852523803711</v>
       </c>
     </row>
     <row r="458">
@@ -7858,13 +7858,13 @@
         <v>0.77895659208297729</v>
       </c>
       <c r="C458" s="2">
-        <v>0.76117706298828125</v>
+        <v>0.76112985610961914</v>
       </c>
       <c r="D458" s="2">
         <v>1.0140653848648071</v>
       </c>
       <c r="E458" s="2">
-        <v>0.87027931213378906</v>
+        <v>0.87010836601257324</v>
       </c>
     </row>
     <row r="459">
@@ -7875,13 +7875,13 @@
         <v>0.79771333932876587</v>
       </c>
       <c r="C459" s="2">
-        <v>0.56381171941757202</v>
+        <v>0.56413894891738892</v>
       </c>
       <c r="D459" s="2">
         <v>1.0479123592376709</v>
       </c>
       <c r="E459" s="2">
-        <v>0.89683490991592407</v>
+        <v>0.89662420749664307</v>
       </c>
     </row>
     <row r="460">
@@ -7892,13 +7892,13 @@
         <v>1.1652513742446899</v>
       </c>
       <c r="C460" s="2">
-        <v>1.0004010200500488</v>
+        <v>1.0000780820846558</v>
       </c>
       <c r="D460" s="2">
         <v>1.0122791528701782</v>
       </c>
       <c r="E460" s="2">
-        <v>0.87018656730651855</v>
+        <v>0.87012803554534912</v>
       </c>
     </row>
     <row r="461">
@@ -7909,13 +7909,13 @@
         <v>1.231484055519104</v>
       </c>
       <c r="C461" s="2">
-        <v>1.0032806396484375</v>
+        <v>1.0029091835021973</v>
       </c>
       <c r="D461" s="2">
         <v>1.0125010013580322</v>
       </c>
       <c r="E461" s="2">
-        <v>0.86277419328689575</v>
+        <v>0.86273884773254395</v>
       </c>
     </row>
     <row r="462">
@@ -7926,13 +7926,13 @@
         <v>1.838992714881897</v>
       </c>
       <c r="C462" s="2">
-        <v>1.7802613973617554</v>
+        <v>1.7797890901565552</v>
       </c>
       <c r="D462" s="2">
         <v>1.0631570816040039</v>
       </c>
       <c r="E462" s="2">
-        <v>0.95010805130004883</v>
+        <v>0.95007973909378052</v>
       </c>
     </row>
     <row r="463">
@@ -7943,13 +7943,13 @@
         <v>1.3579961061477661</v>
       </c>
       <c r="C463" s="2">
-        <v>1.1745926141738892</v>
+        <v>1.1736627817153931</v>
       </c>
       <c r="D463" s="2">
         <v>1.1241216659545899</v>
       </c>
       <c r="E463" s="2">
-        <v>1.0018095970153809</v>
+        <v>1.0018107891082764</v>
       </c>
     </row>
     <row r="464">
@@ -7960,13 +7960,13 @@
         <v>0.36452889442443848</v>
       </c>
       <c r="C464" s="2">
-        <v>0.34878107905387878</v>
+        <v>0.35011059045791626</v>
       </c>
       <c r="D464" s="2">
         <v>1.168189287185669</v>
       </c>
       <c r="E464" s="2">
-        <v>1.0626531839370728</v>
+        <v>1.062609076499939</v>
       </c>
     </row>
     <row r="465">
@@ -7977,13 +7977,13 @@
         <v>1.2236387729644775</v>
       </c>
       <c r="C465" s="2">
-        <v>0.97700220346450806</v>
+        <v>0.97731631994247437</v>
       </c>
       <c r="D465" s="2">
         <v>1.1613845825195313</v>
       </c>
       <c r="E465" s="2">
-        <v>1.0466731786727905</v>
+        <v>1.046701192855835</v>
       </c>
     </row>
     <row r="466">
@@ -7994,13 +7994,13 @@
         <v>0.8098522424697876</v>
       </c>
       <c r="C466" s="2">
-        <v>0.94166463613510132</v>
+        <v>0.94158285856246948</v>
       </c>
       <c r="D466" s="2">
         <v>1.1409300565719605</v>
       </c>
       <c r="E466" s="2">
-        <v>1.0253896713256836</v>
+        <v>1.0254396200180054</v>
       </c>
     </row>
     <row r="467">
@@ -8011,13 +8011,13 @@
         <v>1.3276380300521851</v>
       </c>
       <c r="C467" s="2">
-        <v>1.2264913320541382</v>
+        <v>1.2267096042633057</v>
       </c>
       <c r="D467" s="2">
         <v>1.0339982509613037</v>
       </c>
       <c r="E467" s="2">
-        <v>0.8982812762260437</v>
+        <v>0.89842045307159424</v>
       </c>
     </row>
     <row r="468">
@@ -8028,13 +8028,13 @@
         <v>1.1943215131759644</v>
       </c>
       <c r="C468" s="2">
-        <v>1.1114039421081543</v>
+        <v>1.1113228797912598</v>
       </c>
       <c r="D468" s="2">
         <v>1.0126972198486328</v>
       </c>
       <c r="E468" s="2">
-        <v>0.88005566596984863</v>
+        <v>0.88028723001480103</v>
       </c>
     </row>
     <row r="469">
@@ -8045,13 +8045,13 @@
         <v>1.104008674621582</v>
       </c>
       <c r="C469" s="2">
-        <v>0.85658079385757446</v>
+        <v>0.85690730810165405</v>
       </c>
       <c r="D469" s="2">
         <v>1.0297791957855225</v>
       </c>
       <c r="E469" s="2">
-        <v>0.86776453256607056</v>
+        <v>0.86776155233383179</v>
       </c>
     </row>
     <row r="470">
@@ -8062,13 +8062,13 @@
         <v>1.0473933219909668</v>
       </c>
       <c r="C470" s="2">
-        <v>0.81172895431518555</v>
+        <v>0.81155556440353394</v>
       </c>
       <c r="D470" s="2">
         <v>0.975303053855896</v>
       </c>
       <c r="E470" s="2">
-        <v>0.81677091121673584</v>
+        <v>0.81672376394271851</v>
       </c>
     </row>
     <row r="471">
@@ -8079,13 +8079,13 @@
         <v>0.87660664319992065</v>
       </c>
       <c r="C471" s="2">
-        <v>0.63628607988357544</v>
+        <v>0.636616051197052</v>
       </c>
       <c r="D471" s="2">
         <v>0.99800574779510498</v>
       </c>
       <c r="E471" s="2">
-        <v>0.8070874810218811</v>
+        <v>0.8069993257522583</v>
       </c>
     </row>
     <row r="472">
@@ -8096,13 +8096,13 @@
         <v>1.1662865877151489</v>
       </c>
       <c r="C472" s="2">
-        <v>1.0105619430541992</v>
+        <v>1.010464072227478</v>
       </c>
       <c r="D472" s="2">
         <v>0.98124015331268311</v>
       </c>
       <c r="E472" s="2">
-        <v>0.77307701110839844</v>
+        <v>0.77298980951309204</v>
       </c>
     </row>
     <row r="473">
@@ -8113,13 +8113,13 @@
         <v>0.51826679706573486</v>
       </c>
       <c r="C473" s="2">
-        <v>0.23816105723381043</v>
+        <v>0.23737940192222595</v>
       </c>
       <c r="D473" s="2">
         <v>0.97130143642425537</v>
       </c>
       <c r="E473" s="2">
-        <v>0.75162392854690552</v>
+        <v>0.75158989429473877</v>
       </c>
     </row>
     <row r="474">
@@ -8130,13 +8130,13 @@
         <v>0.73335343599319458</v>
       </c>
       <c r="C474" s="2">
-        <v>0.51805973052978516</v>
+        <v>0.51797598600387573</v>
       </c>
       <c r="D474" s="2">
         <v>0.97921824455261231</v>
       </c>
       <c r="E474" s="2">
-        <v>0.77456516027450562</v>
+        <v>0.77452892065048218</v>
       </c>
     </row>
     <row r="475">
@@ -8147,13 +8147,13 @@
         <v>1.0141769647598267</v>
       </c>
       <c r="C475" s="2">
-        <v>0.85451340675354004</v>
+        <v>0.85406333208084107</v>
       </c>
       <c r="D475" s="2">
         <v>1.0700467824935913</v>
       </c>
       <c r="E475" s="2">
-        <v>0.89514350891113281</v>
+        <v>0.8950808048248291</v>
       </c>
     </row>
     <row r="476">
@@ -8164,13 +8164,13 @@
         <v>1.1767474412918091</v>
       </c>
       <c r="C476" s="2">
-        <v>0.92039710283279419</v>
+        <v>0.92062366008758545</v>
       </c>
       <c r="D476" s="2">
         <v>1.0216326713562012</v>
       </c>
       <c r="E476" s="2">
-        <v>0.90139782428741455</v>
+        <v>0.90126633644104004</v>
       </c>
     </row>
     <row r="477">
@@ -8181,13 +8181,13 @@
         <v>1.1048728227615357</v>
       </c>
       <c r="C477" s="2">
-        <v>0.91832649707794189</v>
+        <v>0.91872364282608032</v>
       </c>
       <c r="D477" s="2">
         <v>1.0093672275543213</v>
       </c>
       <c r="E477" s="2">
-        <v>0.886302649974823</v>
+        <v>0.88613677024841309</v>
       </c>
     </row>
     <row r="478">
@@ -8198,13 +8198,13 @@
         <v>1.1752603054046631</v>
       </c>
       <c r="C478" s="2">
-        <v>1.0630515813827515</v>
+        <v>1.0633584260940552</v>
       </c>
       <c r="D478" s="2">
         <v>1.0176829099655151</v>
       </c>
       <c r="E478" s="2">
-        <v>0.91094011068344116</v>
+        <v>0.91083914041519165</v>
       </c>
     </row>
     <row r="479">
@@ -8215,13 +8215,13 @@
         <v>1.8648504018783569</v>
       </c>
       <c r="C479" s="2">
-        <v>1.8969343900680542</v>
+        <v>1.8965228796005249</v>
       </c>
       <c r="D479" s="2">
         <v>1.0515755414962769</v>
       </c>
       <c r="E479" s="2">
-        <v>0.95208644866943359</v>
+        <v>0.95195376873016358</v>
       </c>
     </row>
     <row r="480">
@@ -8232,13 +8232,13 @@
         <v>0.44087919592857361</v>
       </c>
       <c r="C480" s="2">
-        <v>0.69257462024688721</v>
+        <v>0.69228541851043701</v>
       </c>
       <c r="D480" s="2">
         <v>1.0868396759033203</v>
       </c>
       <c r="E480" s="2">
-        <v>0.99350953102111817</v>
+        <v>0.9934622049331665</v>
       </c>
     </row>
     <row r="481">
@@ -8249,13 +8249,13 @@
         <v>1.05589759349823</v>
       </c>
       <c r="C481" s="2">
-        <v>0.87470567226409912</v>
+        <v>0.87429827451705933</v>
       </c>
       <c r="D481" s="2">
         <v>1.1454439163208008</v>
       </c>
       <c r="E481" s="2">
-        <v>1.0761674642562866</v>
+        <v>1.0760210752487183</v>
       </c>
     </row>
     <row r="482">
@@ -8266,13 +8266,13 @@
         <v>0.59310775995254517</v>
       </c>
       <c r="C482" s="2">
-        <v>0.45989793539047241</v>
+        <v>0.45970052480697632</v>
       </c>
       <c r="D482" s="2">
         <v>1.1310354471206665</v>
       </c>
       <c r="E482" s="2">
-        <v>1.0571051836013794</v>
+        <v>1.0568946599960327</v>
       </c>
     </row>
     <row r="483">
@@ -8283,13 +8283,13 @@
         <v>1.0383869409561157</v>
       </c>
       <c r="C483" s="2">
-        <v>0.88837677240371704</v>
+        <v>0.88800793886184692</v>
       </c>
       <c r="D483" s="2">
         <v>1.1722795963287354</v>
       </c>
       <c r="E483" s="2">
-        <v>1.1050064563751221</v>
+        <v>1.1047365665435791</v>
       </c>
     </row>
     <row r="484">
@@ -8300,13 +8300,13 @@
         <v>1.3315544128417969</v>
       </c>
       <c r="C484" s="2">
-        <v>1.2273210287094116</v>
+        <v>1.2276390790939331</v>
       </c>
       <c r="D484" s="2">
         <v>1.1035730838775635</v>
       </c>
       <c r="E484" s="2">
-        <v>1.0161030292510986</v>
+        <v>1.0158513784408569</v>
       </c>
     </row>
     <row r="485">
@@ -8317,13 +8317,13 @@
         <v>1.7041863203048706</v>
       </c>
       <c r="C485" s="2">
-        <v>1.664318323135376</v>
+        <v>1.6636531352996826</v>
       </c>
       <c r="D485" s="2">
         <v>1.1735711097717285</v>
       </c>
       <c r="E485" s="2">
-        <v>1.0464076995849609</v>
+        <v>1.0461512804031372</v>
       </c>
     </row>
     <row r="486">
@@ -8334,13 +8334,13 @@
         <v>0.97519654035568237</v>
       </c>
       <c r="C486" s="2">
-        <v>0.74676626920700073</v>
+        <v>0.74658608436584473</v>
       </c>
       <c r="D486" s="2">
         <v>1.1903656721115112</v>
       </c>
       <c r="E486" s="2">
-        <v>1.0875736474990845</v>
+        <v>1.0873411893844605</v>
       </c>
     </row>
     <row r="487">
@@ -8351,13 +8351,13 @@
         <v>1.546457052230835</v>
       </c>
       <c r="C487" s="2">
-        <v>1.4941625595092774</v>
+        <v>1.4939359426498413</v>
       </c>
       <c r="D487" s="2">
         <v>1.2068754434585571</v>
       </c>
       <c r="E487" s="2">
-        <v>1.10869300365448</v>
+        <v>1.1084016561508179</v>
       </c>
     </row>
     <row r="488">
@@ -8368,13 +8368,13 @@
         <v>1.2464917898178101</v>
       </c>
       <c r="C488" s="2">
-        <v>1.0968039035797119</v>
+        <v>1.0965560674667358</v>
       </c>
       <c r="D488" s="2">
         <v>1.1788644790649414</v>
       </c>
       <c r="E488" s="2">
-        <v>1.0730516910552979</v>
+        <v>1.0727604627609253</v>
       </c>
     </row>
     <row r="489">
@@ -8385,13 +8385,13 @@
         <v>1.0708612203598022</v>
       </c>
       <c r="C489" s="2">
-        <v>0.96531665325164795</v>
+        <v>0.96498441696166992</v>
       </c>
       <c r="D489" s="2">
         <v>1.1748254299163818</v>
       </c>
       <c r="E489" s="2">
-        <v>1.0433157682418823</v>
+        <v>1.0429627895355225</v>
       </c>
     </row>
     <row r="490">
@@ -8402,13 +8402,13 @@
         <v>1.2070494890213013</v>
       </c>
       <c r="C490" s="2">
-        <v>1.2451990842819214</v>
+        <v>1.2450071573257446</v>
       </c>
       <c r="D490" s="2">
         <v>1.0085428953170776</v>
       </c>
       <c r="E490" s="2">
-        <v>0.85232484340667725</v>
+        <v>0.85200059413909912</v>
       </c>
     </row>
     <row r="491">
@@ -8419,13 +8419,13 @@
         <v>0.7416948676109314</v>
       </c>
       <c r="C491" s="2">
-        <v>0.64997261762619019</v>
+        <v>0.64924466609954834</v>
       </c>
       <c r="D491" s="2">
         <v>1.0699325799942017</v>
       </c>
       <c r="E491" s="2">
-        <v>0.91170138120651245</v>
+        <v>0.91131973266601563</v>
       </c>
     </row>
     <row r="492">
@@ -8436,13 +8436,13 @@
         <v>0.78628808259963989</v>
       </c>
       <c r="C492" s="2">
-        <v>0.56760430335998535</v>
+        <v>0.5672379732131958</v>
       </c>
       <c r="D492" s="2">
         <v>1.0181125402450562</v>
       </c>
       <c r="E492" s="2">
-        <v>0.83466440439224243</v>
+        <v>0.83428245782852173</v>
       </c>
     </row>
     <row r="493">
@@ -8453,13 +8453,13 @@
         <v>1.2952035665512085</v>
       </c>
       <c r="C493" s="2">
-        <v>0.95969843864440918</v>
+        <v>0.95946007966995239</v>
       </c>
       <c r="D493" s="2">
         <v>1.0395561456680298</v>
       </c>
       <c r="E493" s="2">
-        <v>0.85224348306655884</v>
+        <v>0.85184246301651001</v>
       </c>
     </row>
     <row r="494">
@@ -8470,13 +8470,13 @@
         <v>0.20764395594596863</v>
       </c>
       <c r="C494" s="2">
-        <v>-0.054600376635789871</v>
+        <v>-0.055007234215736389</v>
       </c>
       <c r="D494" s="2">
         <v>1.0876883268356323</v>
       </c>
       <c r="E494" s="2">
-        <v>0.90963101387023926</v>
+        <v>0.90926212072372437</v>
       </c>
     </row>
     <row r="495">
@@ -8487,13 +8487,13 @@
         <v>1.5277031660079956</v>
       </c>
       <c r="C495" s="2">
-        <v>1.2811551094055176</v>
+        <v>1.2804586887359619</v>
       </c>
       <c r="D495" s="2">
         <v>1.1220766305923462</v>
       </c>
       <c r="E495" s="2">
-        <v>0.93850725889205933</v>
+        <v>0.93806564807891846</v>
       </c>
     </row>
     <row r="496">
@@ -8504,13 +8504,13 @@
         <v>1.0800763368606567</v>
       </c>
       <c r="C496" s="2">
-        <v>0.80082988739013672</v>
+        <v>0.80060005187988281</v>
       </c>
       <c r="D496" s="2">
         <v>1.1469177007675171</v>
       </c>
       <c r="E496" s="2">
-        <v>0.96567231416702271</v>
+        <v>0.96532207727432251</v>
       </c>
     </row>
     <row r="497">
@@ -8521,13 +8521,13 @@
         <v>1.4394849538803101</v>
       </c>
       <c r="C497" s="2">
-        <v>1.2550153732299805</v>
+        <v>1.2545963525772095</v>
       </c>
       <c r="D497" s="2">
         <v>1.1727150678634644</v>
       </c>
       <c r="E497" s="2">
-        <v>0.99552226066589355</v>
+        <v>0.99516254663467407</v>
       </c>
     </row>
     <row r="498">
@@ -8538,13 +8538,13 @@
         <v>1.5040500164031983</v>
       </c>
       <c r="C498" s="2">
-        <v>1.4818044900894165</v>
+        <v>1.4817612171173096</v>
       </c>
       <c r="D498" s="2">
         <v>1.1690343618392944</v>
       </c>
       <c r="E498" s="2">
-        <v>1.0307348966598511</v>
+        <v>1.0303350687026978</v>
       </c>
     </row>
     <row r="499">
@@ -8555,13 +8555,13 @@
         <v>1.5165451765060425</v>
       </c>
       <c r="C499" s="2">
-        <v>1.5050852298736572</v>
+        <v>1.5042392015457153</v>
       </c>
       <c r="D499" s="2">
         <v>1.3005632162094116</v>
       </c>
       <c r="E499" s="2">
-        <v>1.1793296337127686</v>
+        <v>1.1789448261260986</v>
       </c>
     </row>
     <row r="500">
@@ -8572,13 +8572,13 @@
         <v>0.96526437997817993</v>
       </c>
       <c r="C500" s="2">
-        <v>0.8944585919380188</v>
+        <v>0.89455223083496094</v>
       </c>
       <c r="D500" s="2">
         <v>1.2293789386749268</v>
       </c>
       <c r="E500" s="2">
-        <v>1.1851205825805664</v>
+        <v>1.1847429275512695</v>
       </c>
     </row>
     <row r="501">
@@ -8589,13 +8589,13 @@
         <v>1.0184637308120728</v>
       </c>
       <c r="C501" s="2">
-        <v>0.83625376224517822</v>
+        <v>0.83580237627029419</v>
       </c>
       <c r="D501" s="2">
         <v>1.2130026817321777</v>
       </c>
       <c r="E501" s="2">
-        <v>1.1890888214111328</v>
+        <v>1.1886049509048462</v>
       </c>
     </row>
     <row r="502">
@@ -8606,13 +8606,13 @@
         <v>1.2620773315429688</v>
       </c>
       <c r="C502" s="2">
-        <v>1.2766119241714478</v>
+        <v>1.2760128974914551</v>
       </c>
       <c r="D502" s="2">
         <v>1.1806960105895996</v>
       </c>
       <c r="E502" s="2">
-        <v>1.1853181123733521</v>
+        <v>1.1848809719085693</v>
       </c>
     </row>
     <row r="503">
@@ -8623,13 +8623,13 @@
         <v>1.3914036750793457</v>
       </c>
       <c r="C503" s="2">
-        <v>1.2827520370483398</v>
+        <v>1.2824809551239014</v>
       </c>
       <c r="D503" s="2">
         <v>1.1312421560287476</v>
       </c>
       <c r="E503" s="2">
-        <v>1.1206957101821899</v>
+        <v>1.1202044486999512</v>
       </c>
     </row>
     <row r="504">
@@ -8640,13 +8640,13 @@
         <v>0.88704478740692139</v>
       </c>
       <c r="C504" s="2">
-        <v>1.3332737684249878</v>
+        <v>1.3326410055160523</v>
       </c>
       <c r="D504" s="2">
         <v>1.0319074392318726</v>
       </c>
       <c r="E504" s="2">
-        <v>1.0065207481384277</v>
+        <v>1.0061581134796143</v>
       </c>
     </row>
     <row r="505">
@@ -8657,13 +8657,13 @@
         <v>0.93268966674804688</v>
       </c>
       <c r="C505" s="2">
-        <v>0.83654379844665527</v>
+        <v>0.83535808324813843</v>
       </c>
       <c r="D505" s="2">
         <v>0.88965290784835815</v>
       </c>
       <c r="E505" s="2">
-        <v>0.87468689680099487</v>
+        <v>0.87432825565338135</v>
       </c>
     </row>
     <row r="506">
@@ -8674,13 +8674,13 @@
         <v>1.1487250328063965</v>
       </c>
       <c r="C506" s="2">
-        <v>1.2210791110992432</v>
+        <v>1.2210804224014282</v>
       </c>
       <c r="D506" s="2">
         <v>0.73308110237121582</v>
       </c>
       <c r="E506" s="2">
-        <v>0.74207723140716553</v>
+        <v>0.7417181134223938</v>
       </c>
     </row>
     <row r="507">
@@ -8691,13 +8691,13 @@
         <v>1.0589654445648193</v>
       </c>
       <c r="C507" s="2">
-        <v>0.9002034068107605</v>
+        <v>0.89967244863510132</v>
       </c>
       <c r="D507" s="2">
         <v>0.55847901105880737</v>
       </c>
       <c r="E507" s="2">
-        <v>0.58530122041702271</v>
+        <v>0.58496683835983276</v>
       </c>
     </row>
     <row r="508">
@@ -8708,13 +8708,13 @@
         <v>0.62253290414810181</v>
       </c>
       <c r="C508" s="2">
-        <v>0.477510005235672</v>
+        <v>0.47782301902770996</v>
       </c>
       <c r="D508" s="2">
         <v>0.42031973600387573</v>
       </c>
       <c r="E508" s="2">
-        <v>0.46364206075668335</v>
+        <v>0.46334969997406006</v>
       </c>
     </row>
     <row r="509">
@@ -8725,13 +8725,13 @@
         <v>-0.31502664089202881</v>
       </c>
       <c r="C509" s="2">
-        <v>-0.29204568266868591</v>
+        <v>-0.29191684722900391</v>
       </c>
       <c r="D509" s="2">
         <v>0.29104846715927124</v>
       </c>
       <c r="E509" s="2">
-        <v>0.28567054867744446</v>
+        <v>0.28546622395515442</v>
       </c>
     </row>
     <row r="510">
@@ -8742,13 +8742,13 @@
         <v>-0.39068228006362915</v>
       </c>
       <c r="C510" s="2">
-        <v>-0.35723322629928589</v>
+        <v>-0.3576887845993042</v>
       </c>
       <c r="D510" s="2">
         <v>0.23398058116436005</v>
       </c>
       <c r="E510" s="2">
-        <v>0.2199791818857193</v>
+        <v>0.21993185579776764</v>
       </c>
     </row>
     <row r="511">
@@ -8759,13 +8759,13 @@
         <v>-0.30934146046638489</v>
       </c>
       <c r="C511" s="2">
-        <v>-0.13437223434448242</v>
+        <v>-0.13474875688552856</v>
       </c>
       <c r="D511" s="2">
         <v>0.17532257735729218</v>
       </c>
       <c r="E511" s="2">
-        <v>0.14809861779212952</v>
+        <v>0.14806646108627319</v>
       </c>
     </row>
     <row r="512">
@@ -8776,13 +8776,13 @@
         <v>0.14797009527683258</v>
       </c>
       <c r="C512" s="2">
-        <v>0.18781948089599609</v>
+        <v>0.18792679905891418</v>
       </c>
       <c r="D512" s="2">
         <v>0.022293118759989738</v>
       </c>
       <c r="E512" s="2">
-        <v>0.0049322894774377346</v>
+        <v>0.0049003860913217068</v>
       </c>
     </row>
     <row r="513">
@@ -8793,13 +8793,13 @@
         <v>-0.27639669179916382</v>
       </c>
       <c r="C513" s="2">
-        <v>-0.26846960186958313</v>
+        <v>-0.26831039786338806</v>
       </c>
       <c r="D513" s="2">
         <v>0.0073073357343673706</v>
       </c>
       <c r="E513" s="2">
-        <v>-0.011497148312628269</v>
+        <v>-0.011570221744477749</v>
       </c>
     </row>
     <row r="514">
@@ -8810,13 +8810,13 @@
         <v>0.41907888650894165</v>
       </c>
       <c r="C514" s="2">
-        <v>0.24532143771648407</v>
+        <v>0.24554881453514099</v>
       </c>
       <c r="D514" s="2">
         <v>0.14364174008369446</v>
       </c>
       <c r="E514" s="2">
-        <v>0.1249748170375824</v>
+        <v>0.12488415092229843</v>
       </c>
     </row>
     <row r="515">
@@ -8827,13 +8827,13 @@
         <v>0.62080293893814087</v>
       </c>
       <c r="C515" s="2">
-        <v>0.57415395975112915</v>
+        <v>0.57429182529449463</v>
       </c>
       <c r="D515" s="2">
         <v>0.28240573406219482</v>
       </c>
       <c r="E515" s="2">
-        <v>0.26096886396408081</v>
+        <v>0.26092997193336487</v>
       </c>
     </row>
     <row r="516">
@@ -8844,13 +8844,13 @@
         <v>-0.31829968094825745</v>
       </c>
       <c r="C516" s="2">
-        <v>-0.38829353451728821</v>
+        <v>-0.38882219791412354</v>
       </c>
       <c r="D516" s="2">
         <v>0.43446016311645508</v>
       </c>
       <c r="E516" s="2">
-        <v>0.39970150589942932</v>
+        <v>0.3997158408164978</v>
       </c>
     </row>
     <row r="517">
@@ -8861,13 +8861,13 @@
         <v>0.48766085505485535</v>
       </c>
       <c r="C517" s="2">
-        <v>0.3296450674533844</v>
+        <v>0.32958754897117615</v>
       </c>
       <c r="D517" s="2">
         <v>0.53930217027664185</v>
       </c>
       <c r="E517" s="2">
-        <v>0.49744099378585816</v>
+        <v>0.4974464476108551</v>
       </c>
     </row>
     <row r="518">
@@ -8878,13 +8878,13 @@
         <v>0.91198301315307617</v>
       </c>
       <c r="C518" s="2">
-        <v>0.93620198965072632</v>
+        <v>0.9361724853515625</v>
       </c>
       <c r="D518" s="2">
         <v>0.68326592445373535</v>
       </c>
       <c r="E518" s="2">
-        <v>0.66818547248840332</v>
+        <v>0.66814661026000977</v>
       </c>
     </row>
     <row r="519">
@@ -8895,13 +8895,13 @@
         <v>0.85819363594055176</v>
       </c>
       <c r="C519" s="2">
-        <v>0.86671310663223267</v>
+        <v>0.86672365665435791</v>
       </c>
       <c r="D519" s="2">
         <v>0.71588611602783203</v>
       </c>
       <c r="E519" s="2">
-        <v>0.73194491863250732</v>
+        <v>0.73183858394622803</v>
       </c>
     </row>
     <row r="520">
@@ -8912,13 +8912,13 @@
         <v>1.0591484308242798</v>
       </c>
       <c r="C520" s="2">
-        <v>1.1142215728759766</v>
+        <v>1.1143239736557007</v>
       </c>
       <c r="D520" s="2">
         <v>0.68480128049850464</v>
       </c>
       <c r="E520" s="2">
-        <v>0.69730955362319946</v>
+        <v>0.69719332456588745</v>
       </c>
     </row>
     <row r="521">
@@ -8929,13 +8929,13 @@
         <v>1.0915480852127075</v>
       </c>
       <c r="C521" s="2">
-        <v>1.0674750804901123</v>
+        <v>1.0675023794174194</v>
       </c>
       <c r="D521" s="2">
         <v>0.84871155023574829</v>
       </c>
       <c r="E521" s="2">
-        <v>0.87044674158096313</v>
+        <v>0.87039941549301147</v>
       </c>
     </row>
     <row r="522">
@@ -8946,13 +8946,13 @@
         <v>1.0192772150039673</v>
       </c>
       <c r="C522" s="2">
-        <v>1.2682304382324219</v>
+        <v>1.2679911851882935</v>
       </c>
       <c r="D522" s="2">
         <v>0.83220744132995606</v>
       </c>
       <c r="E522" s="2">
-        <v>0.87058514356613159</v>
+        <v>0.87050974369049072</v>
       </c>
     </row>
     <row r="523">
@@ -8963,13 +8963,13 @@
         <v>0.71266067028045654</v>
       </c>
       <c r="C523" s="2">
-        <v>0.81915682554244995</v>
+        <v>0.81877642869949341</v>
       </c>
       <c r="D523" s="2">
         <v>0.79856282472610474</v>
       </c>
       <c r="E523" s="2">
-        <v>0.83208256959915161</v>
+        <v>0.8320268988609314</v>
       </c>
     </row>
     <row r="524">
@@ -8980,13 +8980,13 @@
         <v>0.34103906154632568</v>
       </c>
       <c r="C524" s="2">
-        <v>0.26243522763252258</v>
+        <v>0.26248469948768616</v>
       </c>
       <c r="D524" s="2">
         <v>0.81259059906005859</v>
       </c>
       <c r="E524" s="2">
-        <v>0.84768754243850708</v>
+        <v>0.84764373302459717</v>
       </c>
     </row>
     <row r="525">
@@ -8997,13 +8997,13 @@
         <v>1.1568928956985474</v>
       </c>
       <c r="C525" s="2">
-        <v>1.1699413061141968</v>
+        <v>1.1700326204299927</v>
       </c>
       <c r="D525" s="2">
         <v>0.7372668981552124</v>
       </c>
       <c r="E525" s="2">
-        <v>0.7552221417427063</v>
+        <v>0.75512945652008057</v>
       </c>
     </row>
     <row r="526">
@@ -9014,13 +9014,13 @@
         <v>0.33912378549575806</v>
       </c>
       <c r="C526" s="2">
-        <v>0.33089098334312439</v>
+        <v>0.33058008551597595</v>
       </c>
       <c r="D526" s="2">
         <v>0.7090294361114502</v>
       </c>
       <c r="E526" s="2">
-        <v>0.72817140817642212</v>
+        <v>0.7280881404876709</v>
       </c>
     </row>
     <row r="527">
@@ -9031,13 +9031,13 @@
         <v>0.60918146371841431</v>
       </c>
       <c r="C527" s="2">
-        <v>0.58967840671539307</v>
+        <v>0.58982706069946289</v>
       </c>
       <c r="D527" s="2">
         <v>0.66850030422210693</v>
       </c>
       <c r="E527" s="2">
-        <v>0.65721660852432251</v>
+        <v>0.65717977285385132</v>
       </c>
     </row>
     <row r="528">
@@ -9048,13 +9048,13 @@
         <v>0.98444372415542603</v>
       </c>
       <c r="C528" s="2">
-        <v>1.0071579217910767</v>
+        <v>1.0072749853134155</v>
       </c>
       <c r="D528" s="2">
         <v>0.67174011468887329</v>
       </c>
       <c r="E528" s="2">
-        <v>0.63522589206695557</v>
+        <v>0.63522124290466309</v>
       </c>
     </row>
     <row r="529">
@@ -9065,13 +9065,13 @@
         <v>0.38123545050621033</v>
       </c>
       <c r="C529" s="2">
-        <v>0.28203296661376953</v>
+        <v>0.28169569373130798</v>
       </c>
       <c r="D529" s="2">
         <v>0.63968777656555176</v>
       </c>
       <c r="E529" s="2">
-        <v>0.59667468070983887</v>
+        <v>0.59669238328933716</v>
       </c>
     </row>
     <row r="530">
@@ -9082,13 +9082,13 @@
         <v>0.83741074800491333</v>
       </c>
       <c r="C530" s="2">
-        <v>0.82401841878890991</v>
+        <v>0.82413047552108765</v>
       </c>
       <c r="D530" s="2">
         <v>0.4499584436416626</v>
       </c>
       <c r="E530" s="2">
-        <v>0.40984225273132324</v>
+        <v>0.40985706448554993</v>
       </c>
     </row>
     <row r="531">
@@ -9099,13 +9099,13 @@
         <v>0.6545148491859436</v>
       </c>
       <c r="C531" s="2">
-        <v>0.62963724136352539</v>
+        <v>0.62981611490249634</v>
       </c>
       <c r="D531" s="2">
         <v>0.44234931468963623</v>
       </c>
       <c r="E531" s="2">
-        <v>0.40203052759170532</v>
+        <v>0.40209755301475525</v>
       </c>
     </row>
     <row r="532">
@@ -9116,13 +9116,13 @@
         <v>0.74181884527206421</v>
       </c>
       <c r="C532" s="2">
-        <v>0.62124043703079224</v>
+        <v>0.62114965915679932</v>
       </c>
       <c r="D532" s="2">
         <v>0.40619507431983948</v>
       </c>
       <c r="E532" s="2">
-        <v>0.36994665861129761</v>
+        <v>0.36997374892234802</v>
       </c>
     </row>
     <row r="533">
@@ -9133,13 +9133,13 @@
         <v>0.05256812646985054</v>
       </c>
       <c r="C533" s="2">
-        <v>-0.084525808691978455</v>
+        <v>-0.084275506436824799</v>
       </c>
       <c r="D533" s="2">
         <v>0.29515799880027771</v>
       </c>
       <c r="E533" s="2">
-        <v>0.24521572887897491</v>
+        <v>0.24523627758026123</v>
       </c>
     </row>
     <row r="534">
@@ -9150,13 +9150,13 @@
         <v>-0.55067098140716553</v>
       </c>
       <c r="C534" s="2">
-        <v>-0.5115504264831543</v>
+        <v>-0.51148509979248047</v>
       </c>
       <c r="D534" s="2">
         <v>0.25746017694473267</v>
       </c>
       <c r="E534" s="2">
-        <v>0.2098662257194519</v>
+        <v>0.20989392697811127</v>
       </c>
     </row>
     <row r="535">
@@ -9167,13 +9167,13 @@
         <v>0.27064147591590881</v>
       </c>
       <c r="C535" s="2">
-        <v>0.26058563590049744</v>
+        <v>0.26074454188346863</v>
       </c>
       <c r="D535" s="2">
         <v>0.1633276492357254</v>
       </c>
       <c r="E535" s="2">
-        <v>0.13110977411270142</v>
+        <v>0.13112001121044159</v>
       </c>
     </row>
     <row r="536">
@@ -9184,13 +9184,13 @@
         <v>0.28379341959953308</v>
       </c>
       <c r="C536" s="2">
-        <v>0.30092358589172363</v>
+        <v>0.3007129430770874</v>
       </c>
       <c r="D536" s="2">
         <v>0.11014803498983383</v>
       </c>
       <c r="E536" s="2">
-        <v>0.075603760778903961</v>
+        <v>0.07559194415807724</v>
       </c>
     </row>
     <row r="537">
@@ -9201,13 +9201,13 @@
         <v>-0.014889826998114586</v>
       </c>
       <c r="C537" s="2">
-        <v>-0.11542044579982758</v>
+        <v>-0.11536235362291336</v>
       </c>
       <c r="D537" s="2">
         <v>0.050069317221641541</v>
       </c>
       <c r="E537" s="2">
-        <v>0.022932179272174835</v>
+        <v>0.022914959117770195</v>
       </c>
     </row>
     <row r="538">
@@ -9218,13 +9218,13 @@
         <v>0.041955038905143738</v>
       </c>
       <c r="C538" s="2">
-        <v>-0.036112599074840546</v>
+        <v>-0.036385495215654373</v>
       </c>
       <c r="D538" s="2">
         <v>0.087621346116065979</v>
       </c>
       <c r="E538" s="2">
-        <v>0.071667633950710297</v>
+        <v>0.071623995900154114</v>
       </c>
     </row>
     <row r="539">
@@ -9235,13 +9235,13 @@
         <v>-0.0097820507362484932</v>
       </c>
       <c r="C539" s="2">
-        <v>0.11521033942699432</v>
+        <v>0.11516527831554413</v>
       </c>
       <c r="D539" s="2">
         <v>0.20720434188842774</v>
       </c>
       <c r="E539" s="2">
-        <v>0.17692123353481293</v>
+        <v>0.17684197425842285</v>
       </c>
     </row>
     <row r="540">
@@ -9252,13 +9252,13 @@
         <v>0.17589828372001648</v>
       </c>
       <c r="C540" s="2">
-        <v>0.13008309900760651</v>
+        <v>0.1300635039806366</v>
       </c>
       <c r="D540" s="2">
         <v>0.17912249267101288</v>
       </c>
       <c r="E540" s="2">
-        <v>0.13782060146331787</v>
+        <v>0.13768376410007477</v>
       </c>
     </row>
     <row r="541">
@@ -9269,13 +9269,13 @@
         <v>0.20111037790775299</v>
       </c>
       <c r="C541" s="2">
-        <v>0.14719623327255249</v>
+        <v>0.14705681800842285</v>
       </c>
       <c r="D541" s="2">
         <v>0.21292875707149506</v>
       </c>
       <c r="E541" s="2">
-        <v>0.16569148004055023</v>
+        <v>0.16563020646572113</v>
       </c>
     </row>
     <row r="542">
@@ -9286,13 +9286,13 @@
         <v>0.390536367893219</v>
       </c>
       <c r="C542" s="2">
-        <v>0.35409331321716309</v>
+        <v>0.35410583019256592</v>
       </c>
       <c r="D542" s="2">
         <v>0.24846506118774414</v>
       </c>
       <c r="E542" s="2">
-        <v>0.19705906510353088</v>
+        <v>0.19697548449039459</v>
       </c>
     </row>
     <row r="543">
@@ -9303,13 +9303,13 @@
         <v>0.52557605504989624</v>
       </c>
       <c r="C543" s="2">
-        <v>0.43573197722434998</v>
+        <v>0.43547675013542175</v>
       </c>
       <c r="D543" s="2">
         <v>0.2516215443611145</v>
       </c>
       <c r="E543" s="2">
-        <v>0.20919662714004517</v>
+        <v>0.20916330814361572</v>
       </c>
     </row>
     <row r="544">
@@ -9320,13 +9320,13 @@
         <v>0.01790480874478817</v>
       </c>
       <c r="C544" s="2">
-        <v>-0.091320142149925232</v>
+        <v>-0.091679424047470093</v>
       </c>
       <c r="D544" s="2">
         <v>0.32770442962646484</v>
       </c>
       <c r="E544" s="2">
-        <v>0.26114839315414429</v>
+        <v>0.2611028254032135</v>
       </c>
     </row>
     <row r="545">
@@ -9337,13 +9337,13 @@
         <v>0.58804976940155029</v>
       </c>
       <c r="C545" s="2">
-        <v>0.55176150798797607</v>
+        <v>0.55223095417022705</v>
       </c>
       <c r="D545" s="2">
         <v>0.35874345898628235</v>
       </c>
       <c r="E545" s="2">
-        <v>0.28663372993469238</v>
+        <v>0.28662315011024475</v>
       </c>
     </row>
     <row r="546">
@@ -9354,13 +9354,13 @@
         <v>0.30493685603141785</v>
       </c>
       <c r="C546" s="2">
-        <v>0.16688787937164307</v>
+        <v>0.16674517095088959</v>
       </c>
       <c r="D546" s="2">
         <v>0.42180377244949341</v>
       </c>
       <c r="E546" s="2">
-        <v>0.36450210213661194</v>
+        <v>0.36452573537826538</v>
       </c>
     </row>
     <row r="547">
@@ -9371,13 +9371,13 @@
         <v>0.070363469421863556</v>
       </c>
       <c r="C547" s="2">
-        <v>0.073125466704368591</v>
+        <v>0.073304854333400726</v>
       </c>
       <c r="D547" s="2">
         <v>0.4432181715965271</v>
       </c>
       <c r="E547" s="2">
-        <v>0.37801787257194519</v>
+        <v>0.37808281183242798</v>
       </c>
     </row>
     <row r="548">
@@ -9388,13 +9388,13 @@
         <v>0.67496401071548462</v>
       </c>
       <c r="C548" s="2">
-        <v>0.58277606964111328</v>
+        <v>0.58262085914611816</v>
       </c>
       <c r="D548" s="2">
         <v>0.45586022734642029</v>
       </c>
       <c r="E548" s="2">
-        <v>0.39302518963813782</v>
+        <v>0.39316397905349732</v>
       </c>
     </row>
     <row r="549">
@@ -9405,13 +9405,13 @@
         <v>0.45524948835372925</v>
       </c>
       <c r="C549" s="2">
-        <v>0.35945135354995728</v>
+        <v>0.35974651575088501</v>
       </c>
       <c r="D549" s="2">
         <v>0.51921218633651733</v>
       </c>
       <c r="E549" s="2">
-        <v>0.46227183938026428</v>
+        <v>0.46240529417991638</v>
       </c>
     </row>
     <row r="550">
@@ -9422,13 +9422,13 @@
         <v>0.7686530351638794</v>
       </c>
       <c r="C550" s="2">
-        <v>0.84801137447357178</v>
+        <v>0.84818005561828613</v>
       </c>
       <c r="D550" s="2">
         <v>0.50027734041213989</v>
       </c>
       <c r="E550" s="2">
-        <v>0.44372272491455078</v>
+        <v>0.44381505250930786</v>
       </c>
     </row>
     <row r="551">
@@ -9439,13 +9439,13 @@
         <v>0.58326607942581177</v>
       </c>
       <c r="C551" s="2">
-        <v>0.47573545575141907</v>
+        <v>0.47611966729164124</v>
       </c>
       <c r="D551" s="2">
         <v>0.49675530195236206</v>
       </c>
       <c r="E551" s="2">
-        <v>0.43779793381690979</v>
+        <v>0.43789952993392944</v>
       </c>
     </row>
     <row r="552">
@@ -9456,13 +9456,13 @@
         <v>0.63935452699661255</v>
       </c>
       <c r="C552" s="2">
-        <v>0.5707976222038269</v>
+        <v>0.57120722532272339</v>
       </c>
       <c r="D552" s="2">
         <v>0.48858609795570374</v>
       </c>
       <c r="E552" s="2">
-        <v>0.42475739121437073</v>
+        <v>0.42481681704521179</v>
       </c>
     </row>
     <row r="553">
@@ -9473,13 +9473,13 @@
         <v>0.58807265758514404</v>
       </c>
       <c r="C553" s="2">
-        <v>0.53189986944198608</v>
+        <v>0.53149223327636719</v>
       </c>
       <c r="D553" s="2">
-        <v>0.46528884768486023</v>
+        <v>0.49659907817840576</v>
       </c>
       <c r="E553" s="2">
-        <v>0.4050050675868988</v>
+        <v>0.43890088796615601</v>
       </c>
     </row>
     <row r="554">
@@ -9490,13 +9490,13 @@
         <v>0.41763603687286377</v>
       </c>
       <c r="C554" s="2">
-        <v>0.38481932878494263</v>
+        <v>0.38491877913475037</v>
       </c>
       <c r="D554" s="2">
-        <v>0.46672302484512329</v>
+        <v>0.47957199811935425</v>
       </c>
       <c r="E554" s="2">
-        <v>0.41151273250579834</v>
+        <v>0.40593826770782471</v>
       </c>
     </row>
     <row r="555">
@@ -9507,13 +9507,13 @@
         <v>0.2732384204864502</v>
       </c>
       <c r="C555" s="2">
-        <v>0.11356479674577713</v>
+        <v>0.113505519926548</v>
       </c>
       <c r="D555" s="2">
-        <v>0.41640138626098633</v>
+        <v>0.43887937068939209</v>
       </c>
       <c r="E555" s="2">
-        <v>0.33876296877861023</v>
+        <v>0.34102794528007507</v>
       </c>
     </row>
     <row r="556">
@@ -9524,13 +9524,98 @@
         <v>-0.0031594929751008749</v>
       </c>
       <c r="C556" s="2">
-        <v>-0.044239293783903122</v>
+        <v>-0.044439598917961121</v>
       </c>
       <c r="D556" s="2">
-        <v>0.38302841782569885</v>
+        <v>0.50237208604812622</v>
       </c>
       <c r="E556" s="2">
-        <v>0.31136846542358399</v>
+        <v>0.36664146184921265</v>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" s="1">
+        <v>45383</v>
+      </c>
+      <c r="B557" s="2">
+        <v>0.74708098173141479</v>
+      </c>
+      <c r="C557" s="2">
+        <v>0.70937752723693848</v>
+      </c>
+      <c r="D557" s="2">
+        <v>0.46173742413520813</v>
+      </c>
+      <c r="E557" s="2">
+        <v>0.33538943529129028</v>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" s="1">
+        <v>45413</v>
+      </c>
+      <c r="B558" s="2">
+        <v>0.30200573801994324</v>
+      </c>
+      <c r="C558" s="2">
+        <v>0.063083074986934662</v>
+      </c>
+      <c r="D558" s="2">
+        <v>0.44594553112983704</v>
+      </c>
+      <c r="E558" s="2">
+        <v>0.31087657809257507</v>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" s="1">
+        <v>45444</v>
+      </c>
+      <c r="B559" s="2">
+        <v>0.40241944789886475</v>
+      </c>
+      <c r="C559" s="2">
+        <v>0.26398715376853943</v>
+      </c>
+      <c r="D559" s="2">
+        <v>0.44998973608016968</v>
+      </c>
+      <c r="E559" s="2">
+        <v>0.30029913783073425</v>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" s="1">
+        <v>45474</v>
+      </c>
+      <c r="B560" s="2">
+        <v>1.1547005176544189</v>
+      </c>
+      <c r="C560" s="2">
+        <v>0.70664119720458984</v>
+      </c>
+      <c r="D560" s="2">
+        <v>0.47944828867912293</v>
+      </c>
+      <c r="E560" s="2">
+        <v>0.33143138885498047</v>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" s="1">
+        <v>45505</v>
+      </c>
+      <c r="B561" s="2">
+        <v>0.27364248037338257</v>
+      </c>
+      <c r="C561" s="2">
+        <v>0.28993904590606689</v>
+      </c>
+      <c r="D561" s="2">
+        <v>0.57596981525421143</v>
+      </c>
+      <c r="E561" s="2">
+        <v>0.40660560131072998</v>
       </c>
     </row>
   </sheetData>

--- a/MSC_skewness.xlsx
+++ b/MSC_skewness.xlsx
@@ -106,13 +106,13 @@
         <v>0.88469290733337402</v>
       </c>
       <c r="C2" s="2">
-        <v>0.86685627698898316</v>
+        <v>0.86723554134368896</v>
       </c>
       <c r="D2" s="2">
         <v>0.8245728611946106</v>
       </c>
       <c r="E2" s="2">
-        <v>0.79342067241668701</v>
+        <v>0.79334753751754761</v>
       </c>
     </row>
     <row r="3">
@@ -123,13 +123,13 @@
         <v>0.87288045883178711</v>
       </c>
       <c r="C3" s="2">
-        <v>0.83041262626647949</v>
+        <v>0.83017361164093018</v>
       </c>
       <c r="D3" s="2">
         <v>0.79138636589050293</v>
       </c>
       <c r="E3" s="2">
-        <v>0.75802838802337647</v>
+        <v>0.75799322128295898</v>
       </c>
     </row>
     <row r="4">
@@ -140,13 +140,13 @@
         <v>0.88555455207824707</v>
       </c>
       <c r="C4" s="2">
-        <v>0.84146881103515625</v>
+        <v>0.84132927656173706</v>
       </c>
       <c r="D4" s="2">
         <v>0.74737828969955444</v>
       </c>
       <c r="E4" s="2">
-        <v>0.71397757530212402</v>
+        <v>0.71394777297973633</v>
       </c>
     </row>
     <row r="5">
@@ -157,13 +157,13 @@
         <v>0.77309525012969971</v>
       </c>
       <c r="C5" s="2">
-        <v>0.74806404113769531</v>
+        <v>0.74790704250335693</v>
       </c>
       <c r="D5" s="2">
         <v>0.70175653696060181</v>
       </c>
       <c r="E5" s="2">
-        <v>0.66798681020736694</v>
+        <v>0.66794341802597046</v>
       </c>
     </row>
     <row r="6">
@@ -174,13 +174,13 @@
         <v>0.70664113759994507</v>
       </c>
       <c r="C6" s="2">
-        <v>0.6803014874458313</v>
+        <v>0.68009233474731445</v>
       </c>
       <c r="D6" s="2">
         <v>0.69672882556915283</v>
       </c>
       <c r="E6" s="2">
-        <v>0.66412085294723511</v>
+        <v>0.66409456729888916</v>
       </c>
     </row>
     <row r="7">
@@ -191,13 +191,13 @@
         <v>0.62545400857925415</v>
       </c>
       <c r="C7" s="2">
-        <v>0.58106690645217896</v>
+        <v>0.58122146129608154</v>
       </c>
       <c r="D7" s="2">
         <v>0.64241719245910645</v>
       </c>
       <c r="E7" s="2">
-        <v>0.61013549566268921</v>
+        <v>0.61007863283157349</v>
       </c>
     </row>
     <row r="8">
@@ -208,13 +208,13 @@
         <v>0.48332974314689636</v>
       </c>
       <c r="C8" s="2">
-        <v>0.44967302680015564</v>
+        <v>0.44967508316040039</v>
       </c>
       <c r="D8" s="2">
         <v>0.59014445543289185</v>
       </c>
       <c r="E8" s="2">
-        <v>0.56066793203353882</v>
+        <v>0.56064319610595703</v>
       </c>
     </row>
     <row r="9">
@@ -225,13 +225,13 @@
         <v>0.38240408897399902</v>
       </c>
       <c r="C9" s="2">
-        <v>0.34605121612548828</v>
+        <v>0.3459128737449646</v>
       </c>
       <c r="D9" s="2">
         <v>0.54714661836624146</v>
       </c>
       <c r="E9" s="2">
-        <v>0.52160066366195679</v>
+        <v>0.52158248424530029</v>
       </c>
     </row>
     <row r="10">
@@ -242,13 +242,13 @@
         <v>0.65650749206542969</v>
       </c>
       <c r="C10" s="2">
-        <v>0.63319319486618042</v>
+        <v>0.63330405950546265</v>
       </c>
       <c r="D10" s="2">
         <v>0.5068967342376709</v>
       </c>
       <c r="E10" s="2">
-        <v>0.48282906413078308</v>
+        <v>0.4828389585018158</v>
       </c>
     </row>
     <row r="11">
@@ -259,13 +259,13 @@
         <v>0.39588823914527893</v>
       </c>
       <c r="C11" s="2">
-        <v>0.38098791241645813</v>
+        <v>0.38109195232391358</v>
       </c>
       <c r="D11" s="2">
         <v>0.47223973274230957</v>
       </c>
       <c r="E11" s="2">
-        <v>0.44916373491287232</v>
+        <v>0.44919693470001221</v>
       </c>
     </row>
     <row r="12">
@@ -276,13 +276,13 @@
         <v>0.40242576599121094</v>
       </c>
       <c r="C12" s="2">
-        <v>0.38520479202270508</v>
+        <v>0.38525485992431641</v>
       </c>
       <c r="D12" s="2">
         <v>0.44589698314666748</v>
       </c>
       <c r="E12" s="2">
-        <v>0.42540499567985535</v>
+        <v>0.42540478706359863</v>
       </c>
     </row>
     <row r="13">
@@ -293,13 +293,13 @@
         <v>0.49857404828071594</v>
       </c>
       <c r="C13" s="2">
-        <v>0.48986357450485229</v>
+        <v>0.48978286981582642</v>
       </c>
       <c r="D13" s="2">
         <v>0.42059344053268433</v>
       </c>
       <c r="E13" s="2">
-        <v>0.40075808763504028</v>
+        <v>0.4007507860660553</v>
       </c>
     </row>
     <row r="14">
@@ -310,13 +310,13 @@
         <v>0.41084620356559753</v>
       </c>
       <c r="C14" s="2">
-        <v>0.39911937713623047</v>
+        <v>0.39921519160270691</v>
       </c>
       <c r="D14" s="2">
         <v>0.40260231494903565</v>
       </c>
       <c r="E14" s="2">
-        <v>0.38779181241989136</v>
+        <v>0.38780498504638672</v>
       </c>
     </row>
     <row r="15">
@@ -327,13 +327,13 @@
         <v>0.3947279155254364</v>
       </c>
       <c r="C15" s="2">
-        <v>0.37731361389160156</v>
+        <v>0.37731394171714783</v>
       </c>
       <c r="D15" s="2">
         <v>0.34784984588623047</v>
       </c>
       <c r="E15" s="2">
-        <v>0.33210527896881104</v>
+        <v>0.33211663365364075</v>
       </c>
     </row>
     <row r="16">
@@ -344,13 +344,13 @@
         <v>0.38836926221847534</v>
       </c>
       <c r="C16" s="2">
-        <v>0.36723834276199341</v>
+        <v>0.36709237098693848</v>
       </c>
       <c r="D16" s="2">
         <v>0.31815412640571594</v>
       </c>
       <c r="E16" s="2">
-        <v>0.30185142159461975</v>
+        <v>0.30187293887138367</v>
       </c>
     </row>
     <row r="17">
@@ -361,13 +361,13 @@
         <v>0.25559788942337036</v>
       </c>
       <c r="C17" s="2">
-        <v>0.22785073518753052</v>
+        <v>0.22778896987438202</v>
       </c>
       <c r="D17" s="2">
         <v>0.29021283984184265</v>
       </c>
       <c r="E17" s="2">
-        <v>0.27066349983215332</v>
+        <v>0.27068743109703064</v>
       </c>
     </row>
     <row r="18">
@@ -378,13 +378,13 @@
         <v>0.22048401832580566</v>
       </c>
       <c r="C18" s="2">
-        <v>0.22935473918914795</v>
+        <v>0.22940076887607574</v>
       </c>
       <c r="D18" s="2">
         <v>0.25320655107498169</v>
       </c>
       <c r="E18" s="2">
-        <v>0.23785881698131561</v>
+        <v>0.23789769411087036</v>
       </c>
     </row>
     <row r="19">
@@ -395,13 +395,13 @@
         <v>0.16373516619205475</v>
       </c>
       <c r="C19" s="2">
-        <v>0.13201436400413513</v>
+        <v>0.13210874795913696</v>
       </c>
       <c r="D19" s="2">
         <v>0.23847326636314392</v>
       </c>
       <c r="E19" s="2">
-        <v>0.22162251174449921</v>
+        <v>0.22167271375656128</v>
       </c>
     </row>
     <row r="20">
@@ -412,13 +412,13 @@
         <v>0.12862695753574371</v>
       </c>
       <c r="C20" s="2">
-        <v>0.10870314389467239</v>
+        <v>0.10889871418476105</v>
       </c>
       <c r="D20" s="2">
         <v>0.20348916947841644</v>
       </c>
       <c r="E20" s="2">
-        <v>0.18583877384662628</v>
+        <v>0.18588735163211823</v>
       </c>
     </row>
     <row r="21">
@@ -429,13 +429,13 @@
         <v>0.15095406770706177</v>
       </c>
       <c r="C21" s="2">
-        <v>0.10451363772153854</v>
+        <v>0.10458521544933319</v>
       </c>
       <c r="D21" s="2">
         <v>0.18256673216819763</v>
       </c>
       <c r="E21" s="2">
-        <v>0.16239507496356964</v>
+        <v>0.1624695360660553</v>
       </c>
     </row>
     <row r="22">
@@ -446,13 +446,13 @@
         <v>0.16551756858825684</v>
       </c>
       <c r="C22" s="2">
-        <v>0.19462135434150696</v>
+        <v>0.19467538595199585</v>
       </c>
       <c r="D22" s="2">
         <v>0.16056980192661286</v>
       </c>
       <c r="E22" s="2">
-        <v>0.1415846198797226</v>
+        <v>0.14170247316360474</v>
       </c>
     </row>
     <row r="23">
@@ -463,13 +463,13 @@
         <v>0.27824649214744568</v>
       </c>
       <c r="C23" s="2">
-        <v>0.25299271941184998</v>
+        <v>0.25319027900695801</v>
       </c>
       <c r="D23" s="2">
         <v>0.12920628488063812</v>
       </c>
       <c r="E23" s="2">
-        <v>0.10599489510059357</v>
+        <v>0.10610383749008179</v>
       </c>
     </row>
     <row r="24">
@@ -480,13 +480,13 @@
         <v>0.079871043562889099</v>
       </c>
       <c r="C24" s="2">
-        <v>0.05525994673371315</v>
+        <v>0.055245701223611832</v>
       </c>
       <c r="D24" s="2">
         <v>0.078575022518634796</v>
       </c>
       <c r="E24" s="2">
-        <v>0.068279705941677094</v>
+        <v>0.068374797701835632</v>
       </c>
     </row>
     <row r="25">
@@ -497,13 +497,13 @@
         <v>0.20006734132766724</v>
       </c>
       <c r="C25" s="2">
-        <v>0.15624499320983887</v>
+        <v>0.15633201599121094</v>
       </c>
       <c r="D25" s="2">
         <v>0.012595728971064091</v>
       </c>
       <c r="E25" s="2">
-        <v>0.0021324141416698694</v>
+        <v>0.0022142566740512848</v>
       </c>
     </row>
     <row r="26">
@@ -514,13 +514,13 @@
         <v>0.057625520974397659</v>
       </c>
       <c r="C26" s="2">
-        <v>0.040556635707616806</v>
+        <v>0.040885470807552338</v>
       </c>
       <c r="D26" s="2">
         <v>-0.0073789660818874836</v>
       </c>
       <c r="E26" s="2">
-        <v>-0.011705391108989716</v>
+        <v>-0.011635798960924149</v>
       </c>
     </row>
     <row r="27">
@@ -531,13 +531,13 @@
         <v>-0.061787586659193039</v>
       </c>
       <c r="C27" s="2">
-        <v>-0.090952731668949127</v>
+        <v>-0.090986959636211395</v>
       </c>
       <c r="D27" s="2">
         <v>-0.025387313216924667</v>
       </c>
       <c r="E27" s="2">
-        <v>-0.027445929124951363</v>
+        <v>-0.02735494077205658</v>
       </c>
     </row>
     <row r="28">
@@ -548,13 +548,13 @@
         <v>-0.2919461727142334</v>
       </c>
       <c r="C28" s="2">
-        <v>-0.20742237567901611</v>
+        <v>-0.20745261013507843</v>
       </c>
       <c r="D28" s="2">
         <v>-0.045855499804019928</v>
       </c>
       <c r="E28" s="2">
-        <v>-0.049977485090494156</v>
+        <v>-0.049863461405038834</v>
       </c>
     </row>
     <row r="29">
@@ -565,13 +565,13 @@
         <v>-0.4651867151260376</v>
       </c>
       <c r="C29" s="2">
-        <v>-0.48662245273590088</v>
+        <v>-0.48654618859291077</v>
       </c>
       <c r="D29" s="2">
         <v>-0.029576383531093598</v>
       </c>
       <c r="E29" s="2">
-        <v>-0.028461841866374016</v>
+        <v>-0.028316177427768707</v>
       </c>
     </row>
     <row r="30">
@@ -582,13 +582,13 @@
         <v>-0.02881818637251854</v>
       </c>
       <c r="C30" s="2">
-        <v>-0.020026605576276779</v>
+        <v>-0.020065285265445709</v>
       </c>
       <c r="D30" s="2">
         <v>-0.021370768547058106</v>
       </c>
       <c r="E30" s="2">
-        <v>-0.017738755792379379</v>
+        <v>-0.017592623829841614</v>
       </c>
     </row>
     <row r="31">
@@ -599,13 +599,13 @@
         <v>0.0034424467012286186</v>
       </c>
       <c r="C31" s="2">
-        <v>0.052956510335206985</v>
+        <v>0.053203117102384567</v>
       </c>
       <c r="D31" s="2">
         <v>-0.023533502593636513</v>
       </c>
       <c r="E31" s="2">
-        <v>-0.021502528339624405</v>
+        <v>-0.021379934623837471</v>
       </c>
     </row>
     <row r="32">
@@ -616,13 +616,13 @@
         <v>0.094032801687717438</v>
       </c>
       <c r="C32" s="2">
-        <v>0.050208717584609985</v>
+        <v>0.050613582134246826</v>
       </c>
       <c r="D32" s="2">
         <v>-0.025298869237303734</v>
       </c>
       <c r="E32" s="2">
-        <v>-0.027076451107859612</v>
+        <v>-0.026941945776343346</v>
       </c>
     </row>
     <row r="33">
@@ -633,13 +633,13 @@
         <v>0.22638309001922608</v>
       </c>
       <c r="C33" s="2">
-        <v>0.24890072643756867</v>
+        <v>0.24917125701904297</v>
       </c>
       <c r="D33" s="2">
         <v>-0.0035604927688837051</v>
       </c>
       <c r="E33" s="2">
-        <v>-0.011747213080525398</v>
+        <v>-0.011590044014155865</v>
       </c>
     </row>
     <row r="34">
@@ -650,13 +650,13 @@
         <v>0.27391788363456726</v>
       </c>
       <c r="C34" s="2">
-        <v>0.25275278091430664</v>
+        <v>0.25284400582313538</v>
       </c>
       <c r="D34" s="2">
         <v>-0.0050321710295975208</v>
       </c>
       <c r="E34" s="2">
-        <v>-0.01696212962269783</v>
+        <v>-0.016784666106104851</v>
       </c>
     </row>
     <row r="35">
@@ -667,13 +667,13 @@
         <v>0.038160912692546844</v>
       </c>
       <c r="C35" s="2">
-        <v>0.0066826771944761276</v>
+        <v>0.0067996741272509098</v>
       </c>
       <c r="D35" s="2">
         <v>0.0051453695632517338</v>
       </c>
       <c r="E35" s="2">
-        <v>-0.0050194757059216499</v>
+        <v>-0.0048062535934150219</v>
       </c>
     </row>
     <row r="36">
@@ -684,13 +684,13 @@
         <v>-0.077675886452198029</v>
       </c>
       <c r="C36" s="2">
-        <v>-0.14111803472042084</v>
+        <v>-0.14104506373405457</v>
       </c>
       <c r="D36" s="2">
         <v>-0.0081244409084320068</v>
       </c>
       <c r="E36" s="2">
-        <v>-0.005317415576428175</v>
+        <v>-0.0051892828196287155</v>
       </c>
     </row>
     <row r="37">
@@ -701,13 +701,13 @@
         <v>-0.096300780773162842</v>
       </c>
       <c r="C37" s="2">
-        <v>-0.069459237158298493</v>
+        <v>-0.069285497069358826</v>
       </c>
       <c r="D37" s="2">
         <v>-0.014161118306219578</v>
       </c>
       <c r="E37" s="2">
-        <v>-0.014784863218665123</v>
+        <v>-0.014667634852230549</v>
       </c>
     </row>
     <row r="38">
@@ -718,13 +718,13 @@
         <v>-0.4784318208694458</v>
       </c>
       <c r="C38" s="2">
-        <v>-0.53355669975280762</v>
+        <v>-0.53329777717590332</v>
       </c>
       <c r="D38" s="2">
         <v>-0.021746126934885979</v>
       </c>
       <c r="E38" s="2">
-        <v>-0.042300231754779816</v>
+        <v>-0.042209558188915253</v>
       </c>
     </row>
     <row r="39">
@@ -735,13 +735,13 @@
         <v>0.062779679894447327</v>
       </c>
       <c r="C39" s="2">
-        <v>0.087457276880741119</v>
+        <v>0.087740421295166016</v>
       </c>
       <c r="D39" s="2">
         <v>-0.064160771667957306</v>
       </c>
       <c r="E39" s="2">
-        <v>-0.0928201824426651</v>
+        <v>-0.092729620635509491</v>
       </c>
     </row>
     <row r="40">
@@ -752,13 +752,13 @@
         <v>-0.11598584800958633</v>
       </c>
       <c r="C40" s="2">
-        <v>0.050275053828954697</v>
+        <v>0.049755852669477463</v>
       </c>
       <c r="D40" s="2">
         <v>-0.039606906473636627</v>
       </c>
       <c r="E40" s="2">
-        <v>-0.070133276283740997</v>
+        <v>-0.07003619521856308</v>
       </c>
     </row>
     <row r="41">
@@ -769,13 +769,13 @@
         <v>0.039702706038951874</v>
       </c>
       <c r="C41" s="2">
-        <v>-0.03499830886721611</v>
+        <v>-0.03469158336520195</v>
       </c>
       <c r="D41" s="2">
         <v>0.014545240439474583</v>
       </c>
       <c r="E41" s="2">
-        <v>-0.022573482245206833</v>
+        <v>-0.022502003237605095</v>
       </c>
     </row>
     <row r="42">
@@ -786,13 +786,13 @@
         <v>0.15811800956726074</v>
       </c>
       <c r="C42" s="2">
-        <v>0.0012623922666534781</v>
+        <v>0.0012939330190420151</v>
       </c>
       <c r="D42" s="2">
         <v>0.085671938955783844</v>
       </c>
       <c r="E42" s="2">
-        <v>0.042097561061382294</v>
+        <v>0.042248360812664032</v>
       </c>
     </row>
     <row r="43">
@@ -803,13 +803,13 @@
         <v>-0.10781393945217133</v>
       </c>
       <c r="C43" s="2">
-        <v>-0.20192676782608032</v>
+        <v>-0.20183657109737396</v>
       </c>
       <c r="D43" s="2">
         <v>0.17572179436683655</v>
       </c>
       <c r="E43" s="2">
-        <v>0.13250847160816193</v>
+        <v>0.13267473876476288</v>
       </c>
     </row>
     <row r="44">
@@ -820,13 +820,13 @@
         <v>0.25914570689201355</v>
       </c>
       <c r="C44" s="2">
-        <v>0.21086481213569641</v>
+        <v>0.21104051172733307</v>
       </c>
       <c r="D44" s="2">
         <v>0.19842638075351715</v>
       </c>
       <c r="E44" s="2">
-        <v>0.1472947746515274</v>
+        <v>0.14748744666576385</v>
       </c>
     </row>
     <row r="45">
@@ -837,13 +837,13 @@
         <v>0.40969344973564148</v>
       </c>
       <c r="C45" s="2">
-        <v>0.28692013025283814</v>
+        <v>0.28676268458366394</v>
       </c>
       <c r="D45" s="2">
         <v>0.20961125195026398</v>
       </c>
       <c r="E45" s="2">
-        <v>0.13345354795455933</v>
+        <v>0.13367359340190888</v>
       </c>
     </row>
     <row r="46">
@@ -854,13 +854,13 @@
         <v>0.54383951425552368</v>
       </c>
       <c r="C46" s="2">
-        <v>0.51258015632629395</v>
+        <v>0.51346778869628906</v>
       </c>
       <c r="D46" s="2">
         <v>0.22558611631393433</v>
       </c>
       <c r="E46" s="2">
-        <v>0.15602578222751617</v>
+        <v>0.15620425343513489</v>
       </c>
     </row>
     <row r="47">
@@ -871,13 +871,13 @@
         <v>0.33201688528060913</v>
       </c>
       <c r="C47" s="2">
-        <v>0.28014153242111206</v>
+        <v>0.28053960204124451</v>
       </c>
       <c r="D47" s="2">
         <v>0.21201112866401672</v>
       </c>
       <c r="E47" s="2">
-        <v>0.15654069185256958</v>
+        <v>0.15675745904445648</v>
       </c>
     </row>
     <row r="48">
@@ -888,13 +888,13 @@
         <v>0.26712098717689514</v>
       </c>
       <c r="C48" s="2">
-        <v>0.22053395211696625</v>
+        <v>0.221054807305336</v>
       </c>
       <c r="D48" s="2">
         <v>0.25146535038948059</v>
       </c>
       <c r="E48" s="2">
-        <v>0.20454543828964233</v>
+        <v>0.20477607846260071</v>
       </c>
     </row>
     <row r="49">
@@ -905,13 +905,13 @@
         <v>-0.015322070568799973</v>
       </c>
       <c r="C49" s="2">
-        <v>-0.074295975267887116</v>
+        <v>-0.074568837881088257</v>
       </c>
       <c r="D49" s="2">
         <v>0.21374198794364929</v>
       </c>
       <c r="E49" s="2">
-        <v>0.16545306146144867</v>
+        <v>0.16566622257232666</v>
       </c>
     </row>
     <row r="50">
@@ -922,13 +922,13 @@
         <v>0.18347656726837158</v>
       </c>
       <c r="C50" s="2">
-        <v>0.16815181076526642</v>
+        <v>0.16808442771434784</v>
       </c>
       <c r="D50" s="2">
         <v>0.22338783740997315</v>
       </c>
       <c r="E50" s="2">
-        <v>0.19309714436531067</v>
+        <v>0.19337747991085053</v>
       </c>
     </row>
     <row r="51">
@@ -939,13 +939,13 @@
         <v>0.035943042486906052</v>
       </c>
       <c r="C51" s="2">
-        <v>0.005896576214581728</v>
+        <v>0.0062727113254368305</v>
       </c>
       <c r="D51" s="2">
         <v>0.20047073066234589</v>
       </c>
       <c r="E51" s="2">
-        <v>0.17809300124645233</v>
+        <v>0.1782829612493515</v>
       </c>
     </row>
     <row r="52">
@@ -956,13 +956,13 @@
         <v>0.24727413058280945</v>
       </c>
       <c r="C52" s="2">
-        <v>0.23011593520641327</v>
+        <v>0.23033104836940765</v>
       </c>
       <c r="D52" s="2">
         <v>0.22260907292366028</v>
       </c>
       <c r="E52" s="2">
-        <v>0.20232892036437988</v>
+        <v>0.20244286954402924</v>
       </c>
     </row>
     <row r="53">
@@ -973,13 +973,13 @@
         <v>-0.080364547669887543</v>
       </c>
       <c r="C53" s="2">
-        <v>-0.14096657931804657</v>
+        <v>-0.14094825088977814</v>
       </c>
       <c r="D53" s="2">
         <v>0.2460559755563736</v>
       </c>
       <c r="E53" s="2">
-        <v>0.22011233866214752</v>
+        <v>0.2201915830373764</v>
       </c>
     </row>
     <row r="54">
@@ -990,13 +990,13 @@
         <v>0.49650606513023377</v>
       </c>
       <c r="C54" s="2">
-        <v>0.5357169508934021</v>
+        <v>0.53616404533386231</v>
       </c>
       <c r="D54" s="2">
         <v>0.29818177223205567</v>
       </c>
       <c r="E54" s="2">
-        <v>0.2749878466129303</v>
+        <v>0.27507033944129944</v>
       </c>
     </row>
     <row r="55">
@@ -1007,13 +1007,13 @@
         <v>0.33758550882339478</v>
       </c>
       <c r="C55" s="2">
-        <v>0.37754276394844055</v>
+        <v>0.37761703133583069</v>
       </c>
       <c r="D55" s="2">
         <v>0.30217429995536804</v>
       </c>
       <c r="E55" s="2">
-        <v>0.28011462092399597</v>
+        <v>0.28021389245986938</v>
       </c>
     </row>
     <row r="56">
@@ -1024,13 +1024,13 @@
         <v>0.53126192092895508</v>
       </c>
       <c r="C56" s="2">
-        <v>0.49826478958129883</v>
+        <v>0.49797883629798889</v>
       </c>
       <c r="D56" s="2">
         <v>0.30992338061332703</v>
       </c>
       <c r="E56" s="2">
-        <v>0.29542380571365357</v>
+        <v>0.29547625780105591</v>
       </c>
     </row>
     <row r="57">
@@ -1041,13 +1041,13 @@
         <v>0.4781431257724762</v>
       </c>
       <c r="C57" s="2">
-        <v>0.380584716796875</v>
+        <v>0.38079318404197693</v>
       </c>
       <c r="D57" s="2">
         <v>0.32807862758636475</v>
       </c>
       <c r="E57" s="2">
-        <v>0.30570131540298462</v>
+        <v>0.30569252371788025</v>
       </c>
     </row>
     <row r="58">
@@ -1058,13 +1058,13 @@
         <v>0.45381012558937073</v>
       </c>
       <c r="C58" s="2">
-        <v>0.4195837676525116</v>
+        <v>0.4193401038646698</v>
       </c>
       <c r="D58" s="2">
         <v>0.41713285446166992</v>
       </c>
       <c r="E58" s="2">
-        <v>0.40017426013946533</v>
+        <v>0.40019804239273071</v>
       </c>
     </row>
     <row r="59">
@@ -1075,13 +1075,13 @@
         <v>0.21940921247005463</v>
       </c>
       <c r="C59" s="2">
-        <v>0.21429263055324554</v>
+        <v>0.21437641978263855</v>
       </c>
       <c r="D59" s="2">
         <v>0.39297589659690857</v>
       </c>
       <c r="E59" s="2">
-        <v>0.38204905390739441</v>
+        <v>0.38201946020126343</v>
       </c>
     </row>
     <row r="60">
@@ -1092,13 +1092,13 @@
         <v>0.10568485409021378</v>
       </c>
       <c r="C60" s="2">
-        <v>0.14367930591106415</v>
+        <v>0.14363376796245575</v>
       </c>
       <c r="D60" s="2">
         <v>0.35300782322883606</v>
       </c>
       <c r="E60" s="2">
-        <v>0.33592665195465088</v>
+        <v>0.33586534857749939</v>
       </c>
     </row>
     <row r="61">
@@ -1109,13 +1109,13 @@
         <v>0.41067126393318176</v>
       </c>
       <c r="C61" s="2">
-        <v>0.32261356711387634</v>
+        <v>0.32227763533592224</v>
       </c>
       <c r="D61" s="2">
         <v>0.39139395952224731</v>
       </c>
       <c r="E61" s="2">
-        <v>0.37134575843811035</v>
+        <v>0.37131243944168091</v>
       </c>
     </row>
     <row r="62">
@@ -1126,13 +1126,13 @@
         <v>0.72112351655960083</v>
       </c>
       <c r="C62" s="2">
-        <v>0.70928990840911865</v>
+        <v>0.70960128307342529</v>
       </c>
       <c r="D62" s="2">
         <v>0.33974581956863403</v>
       </c>
       <c r="E62" s="2">
-        <v>0.31512704491615296</v>
+        <v>0.31498059630393982</v>
       </c>
     </row>
     <row r="63">
@@ -1143,13 +1143,13 @@
         <v>0.27909347414970398</v>
       </c>
       <c r="C63" s="2">
-        <v>0.37258991599082947</v>
+        <v>0.37255674600601196</v>
       </c>
       <c r="D63" s="2">
         <v>0.36902338266372681</v>
       </c>
       <c r="E63" s="2">
-        <v>0.34666979312896729</v>
+        <v>0.34656769037246704</v>
       </c>
     </row>
     <row r="64">
@@ -1160,13 +1160,13 @@
         <v>-0.022126967087388039</v>
       </c>
       <c r="C64" s="2">
-        <v>-0.037558846175670624</v>
+        <v>-0.037769816815853119</v>
       </c>
       <c r="D64" s="2">
         <v>0.42787268757820129</v>
       </c>
       <c r="E64" s="2">
-        <v>0.40667477250099182</v>
+        <v>0.40656512975692749</v>
       </c>
     </row>
     <row r="65">
@@ -1177,13 +1177,13 @@
         <v>0.87673693895339966</v>
       </c>
       <c r="C65" s="2">
-        <v>0.81703698635101318</v>
+        <v>0.81700253486633301</v>
       </c>
       <c r="D65" s="2">
         <v>0.55708658695220947</v>
       </c>
       <c r="E65" s="2">
-        <v>0.52351760864257813</v>
+        <v>0.52342891693115234</v>
       </c>
     </row>
     <row r="66">
@@ -1194,13 +1194,13 @@
         <v>0.01331007108092308</v>
       </c>
       <c r="C66" s="2">
-        <v>-0.12538380920886994</v>
+        <v>-0.12619319558143616</v>
       </c>
       <c r="D66" s="2">
         <v>0.62337994575500488</v>
       </c>
       <c r="E66" s="2">
-        <v>0.59676182270050049</v>
+        <v>0.59666705131530762</v>
       </c>
     </row>
     <row r="67">
@@ -1211,13 +1211,13 @@
         <v>0.7173081636428833</v>
       </c>
       <c r="C67" s="2">
-        <v>0.70346856117248535</v>
+        <v>0.70362383127212524</v>
       </c>
       <c r="D67" s="2">
         <v>0.63638961315155029</v>
       </c>
       <c r="E67" s="2">
-        <v>0.60415017604827881</v>
+        <v>0.6040307879447937</v>
       </c>
     </row>
     <row r="68">
@@ -1228,13 +1228,13 @@
         <v>0.74905288219451904</v>
       </c>
       <c r="C68" s="2">
-        <v>0.75433725118637085</v>
+        <v>0.75435334444046021</v>
       </c>
       <c r="D68" s="2">
         <v>0.67220479249954224</v>
       </c>
       <c r="E68" s="2">
-        <v>0.63006770610809326</v>
+        <v>0.62996989488601685</v>
       </c>
     </row>
     <row r="69">
@@ -1245,13 +1245,13 @@
         <v>1.2686100006103516</v>
       </c>
       <c r="C69" s="2">
-        <v>1.1952650547027588</v>
+        <v>1.1954079866409302</v>
       </c>
       <c r="D69" s="2">
         <v>0.71861350536346436</v>
       </c>
       <c r="E69" s="2">
-        <v>0.67474132776260376</v>
+        <v>0.67465364933013916</v>
       </c>
     </row>
     <row r="70">
@@ -1262,13 +1262,13 @@
         <v>1.0073114633560181</v>
       </c>
       <c r="C70" s="2">
-        <v>0.9818115234375</v>
+        <v>0.98142093420028687</v>
       </c>
       <c r="D70" s="2">
         <v>0.69472086429595947</v>
       </c>
       <c r="E70" s="2">
-        <v>0.64568608999252319</v>
+        <v>0.64553952217102051</v>
       </c>
     </row>
     <row r="71">
@@ -1279,13 +1279,13 @@
         <v>0.83821052312850952</v>
       </c>
       <c r="C71" s="2">
-        <v>0.77578479051589966</v>
+        <v>0.77587491273880005</v>
       </c>
       <c r="D71" s="2">
         <v>0.78124850988388062</v>
       </c>
       <c r="E71" s="2">
-        <v>0.73853737115859985</v>
+        <v>0.73843425512313843</v>
       </c>
     </row>
     <row r="72">
@@ -1296,13 +1296,13 @@
         <v>0.60143023729324341</v>
       </c>
       <c r="C72" s="2">
-        <v>0.60584777593612671</v>
+        <v>0.60600829124450684</v>
       </c>
       <c r="D72" s="2">
         <v>0.75283944606781006</v>
       </c>
       <c r="E72" s="2">
-        <v>0.70345562696456909</v>
+        <v>0.70334666967391968</v>
       </c>
     </row>
     <row r="73">
@@ -1313,13 +1313,13 @@
         <v>0.39555132389068604</v>
       </c>
       <c r="C73" s="2">
-        <v>0.36450380086898804</v>
+        <v>0.36438417434692383</v>
       </c>
       <c r="D73" s="2">
         <v>0.79837191104888916</v>
       </c>
       <c r="E73" s="2">
-        <v>0.74964946508407593</v>
+        <v>0.74953126907348633</v>
       </c>
     </row>
     <row r="74">
@@ -1330,13 +1330,13 @@
         <v>0.66170322895050049</v>
       </c>
       <c r="C74" s="2">
-        <v>0.55553960800170899</v>
+        <v>0.55497562885284424</v>
       </c>
       <c r="D74" s="2">
         <v>0.69522100687026978</v>
       </c>
       <c r="E74" s="2">
-        <v>0.64862906932830811</v>
+        <v>0.64850848913192749</v>
       </c>
     </row>
     <row r="75">
@@ -1347,13 +1347,13 @@
         <v>0.79205882549285889</v>
       </c>
       <c r="C75" s="2">
-        <v>0.7102777361869812</v>
+        <v>0.70985943078994751</v>
       </c>
       <c r="D75" s="2">
         <v>0.68917214870452881</v>
       </c>
       <c r="E75" s="2">
-        <v>0.64283156394958496</v>
+        <v>0.64285832643508911</v>
       </c>
     </row>
     <row r="76">
@@ -1364,13 +1364,13 @@
         <v>0.46162635087966919</v>
       </c>
       <c r="C76" s="2">
-        <v>0.38773331046104431</v>
+        <v>0.38783556222915649</v>
       </c>
       <c r="D76" s="2">
         <v>0.72731488943099976</v>
       </c>
       <c r="E76" s="2">
-        <v>0.68273276090621948</v>
+        <v>0.68278992176055908</v>
       </c>
     </row>
     <row r="77">
@@ -1381,13 +1381,13 @@
         <v>1.1588454246520996</v>
       </c>
       <c r="C77" s="2">
-        <v>1.1700814962387085</v>
+        <v>1.1700146198272705</v>
       </c>
       <c r="D77" s="2">
         <v>0.76698648929595947</v>
       </c>
       <c r="E77" s="2">
-        <v>0.71640700101852417</v>
+        <v>0.71637475490570068</v>
       </c>
     </row>
     <row r="78">
@@ -1398,13 +1398,13 @@
         <v>0.34025192260742188</v>
       </c>
       <c r="C78" s="2">
-        <v>0.28608134388923645</v>
+        <v>0.28620299696922302</v>
       </c>
       <c r="D78" s="2">
         <v>0.89094090461730957</v>
       </c>
       <c r="E78" s="2">
-        <v>0.83943897485733032</v>
+        <v>0.83942174911499023</v>
       </c>
     </row>
     <row r="79">
@@ -1415,13 +1415,13 @@
         <v>0.95287138223648071</v>
       </c>
       <c r="C79" s="2">
-        <v>0.9296342134475708</v>
+        <v>0.93056917190551758</v>
       </c>
       <c r="D79" s="2">
         <v>0.90085816383361817</v>
       </c>
       <c r="E79" s="2">
-        <v>0.83860546350479126</v>
+        <v>0.83869612216949463</v>
       </c>
     </row>
     <row r="80">
@@ -1432,13 +1432,13 @@
         <v>1.1814954280853272</v>
       </c>
       <c r="C80" s="2">
-        <v>1.1348953247070313</v>
+        <v>1.1352593898773193</v>
       </c>
       <c r="D80" s="2">
         <v>0.90620630979537964</v>
       </c>
       <c r="E80" s="2">
-        <v>0.88649117946624756</v>
+        <v>0.88662052154541016</v>
       </c>
     </row>
     <row r="81">
@@ -1449,13 +1449,13 @@
         <v>0.95847427845001221</v>
       </c>
       <c r="C81" s="2">
-        <v>0.90891611576080322</v>
+        <v>0.90827155113220215</v>
       </c>
       <c r="D81" s="2">
         <v>0.88257771730422974</v>
       </c>
       <c r="E81" s="2">
-        <v>0.86666512489318848</v>
+        <v>0.86677712202072144</v>
       </c>
     </row>
     <row r="82">
@@ -1466,13 +1466,13 @@
         <v>1.5111415386199951</v>
       </c>
       <c r="C82" s="2">
-        <v>1.4717913866043091</v>
+        <v>1.4718073606491089</v>
       </c>
       <c r="D82" s="2">
         <v>0.8697052001953125</v>
       </c>
       <c r="E82" s="2">
-        <v>0.85613095760345459</v>
+        <v>0.85635852813720703</v>
       </c>
     </row>
     <row r="83">
@@ -1483,13 +1483,13 @@
         <v>0.75095808506011963</v>
       </c>
       <c r="C83" s="2">
-        <v>0.54803812503814697</v>
+        <v>0.54844528436660767</v>
       </c>
       <c r="D83" s="2">
         <v>0.90522098541259766</v>
       </c>
       <c r="E83" s="2">
-        <v>0.89674365520477295</v>
+        <v>0.8969464898109436</v>
       </c>
     </row>
     <row r="84">
@@ -1500,13 +1500,13 @@
         <v>0.84019225835800171</v>
       </c>
       <c r="C84" s="2">
-        <v>1.1412490606307983</v>
+        <v>1.1411786079406738</v>
       </c>
       <c r="D84" s="2">
         <v>0.89982110261917114</v>
       </c>
       <c r="E84" s="2">
-        <v>0.89218354225158692</v>
+        <v>0.89224350452423096</v>
       </c>
     </row>
     <row r="85">
@@ -1517,13 +1517,13 @@
         <v>0.24896910786628723</v>
       </c>
       <c r="C85" s="2">
-        <v>0.2092989981174469</v>
+        <v>0.20924501121044159</v>
       </c>
       <c r="D85" s="2">
         <v>0.89444327354431152</v>
       </c>
       <c r="E85" s="2">
-        <v>0.88726139068603516</v>
+        <v>0.88730400800704956</v>
       </c>
     </row>
     <row r="86">
@@ -1534,13 +1534,13 @@
         <v>1.0429925918579102</v>
       </c>
       <c r="C86" s="2">
-        <v>1.0752742290496826</v>
+        <v>1.0762473344802856</v>
       </c>
       <c r="D86" s="2">
         <v>0.88364994525909424</v>
       </c>
       <c r="E86" s="2">
-        <v>0.87132954597473145</v>
+        <v>0.8713417649269104</v>
       </c>
     </row>
     <row r="87">
@@ -1551,13 +1551,13 @@
         <v>0.65989404916763306</v>
       </c>
       <c r="C87" s="2">
-        <v>0.65159547328948975</v>
+        <v>0.65149450302124023</v>
       </c>
       <c r="D87" s="2">
         <v>0.81324732303619385</v>
       </c>
       <c r="E87" s="2">
-        <v>0.81811892986297608</v>
+        <v>0.81811553239822388</v>
       </c>
     </row>
     <row r="88">
@@ -1568,13 +1568,13 @@
         <v>0.90427273511886597</v>
       </c>
       <c r="C88" s="2">
-        <v>0.88859301805496216</v>
+        <v>0.88824224472045899</v>
       </c>
       <c r="D88" s="2">
         <v>0.83905458450317383</v>
       </c>
       <c r="E88" s="2">
-        <v>0.85978507995605469</v>
+        <v>0.85969692468643188</v>
       </c>
     </row>
     <row r="89">
@@ -1585,13 +1585,13 @@
         <v>1.1330947875976563</v>
       </c>
       <c r="C89" s="2">
-        <v>1.090596079826355</v>
+        <v>1.0908041000366211</v>
       </c>
       <c r="D89" s="2">
         <v>0.91542172431945801</v>
       </c>
       <c r="E89" s="2">
-        <v>0.9099079966545105</v>
+        <v>0.90981274843215942</v>
       </c>
     </row>
     <row r="90">
@@ -1602,13 +1602,13 @@
         <v>0.86133444309234619</v>
       </c>
       <c r="C90" s="2">
-        <v>0.7655293345451355</v>
+        <v>0.76461160182952881</v>
       </c>
       <c r="D90" s="2">
         <v>0.99562674760818482</v>
       </c>
       <c r="E90" s="2">
-        <v>0.99691092967987061</v>
+        <v>0.99683618545532227</v>
       </c>
     </row>
     <row r="91">
@@ -1619,13 +1619,13 @@
         <v>0.87751764059066773</v>
       </c>
       <c r="C91" s="2">
-        <v>0.99289596080780029</v>
+        <v>0.99277091026306152</v>
       </c>
       <c r="D91" s="2">
         <v>1.004464864730835</v>
       </c>
       <c r="E91" s="2">
-        <v>1.0130751132965088</v>
+        <v>1.0129197835922241</v>
       </c>
     </row>
     <row r="92">
@@ -1636,13 +1636,13 @@
         <v>0.98322391510009766</v>
       </c>
       <c r="C92" s="2">
-        <v>0.92303335666656494</v>
+        <v>0.92267811298370361</v>
       </c>
       <c r="D92" s="2">
         <v>1.0346298217773438</v>
       </c>
       <c r="E92" s="2">
-        <v>1.0387465953826904</v>
+        <v>1.0386244058609009</v>
       </c>
     </row>
     <row r="93">
@@ -1653,13 +1653,13 @@
         <v>1.5274962186813354</v>
       </c>
       <c r="C93" s="2">
-        <v>1.5923553705215454</v>
+        <v>1.5922209024429321</v>
       </c>
       <c r="D93" s="2">
         <v>1.0411319732666016</v>
       </c>
       <c r="E93" s="2">
-        <v>1.0385189056396484</v>
+        <v>1.03844153881073</v>
       </c>
     </row>
     <row r="94">
@@ -1670,13 +1670,13 @@
         <v>0.97081458568572998</v>
       </c>
       <c r="C94" s="2">
-        <v>0.99232566356658936</v>
+        <v>0.99245595932006836</v>
       </c>
       <c r="D94" s="2">
         <v>1.0259832143783569</v>
       </c>
       <c r="E94" s="2">
-        <v>1.0139776468276978</v>
+        <v>1.0138550996780396</v>
       </c>
     </row>
     <row r="95">
@@ -1687,13 +1687,13 @@
         <v>1.1225353479385376</v>
       </c>
       <c r="C95" s="2">
-        <v>1.2207521200180054</v>
+        <v>1.2209995985031128</v>
       </c>
       <c r="D95" s="2">
         <v>1.0800504684448242</v>
       </c>
       <c r="E95" s="2">
-        <v>1.0731658935546875</v>
+        <v>1.0731855630874634</v>
       </c>
     </row>
     <row r="96">
@@ -1704,13 +1704,13 @@
         <v>0.93137860298156738</v>
       </c>
       <c r="C96" s="2">
-        <v>0.88263857364654541</v>
+        <v>0.88283652067184448</v>
       </c>
       <c r="D96" s="2">
         <v>0.99741452932357788</v>
       </c>
       <c r="E96" s="2">
-        <v>0.94633817672729492</v>
+        <v>0.94627857208251953</v>
       </c>
     </row>
     <row r="97">
@@ -1721,13 +1721,13 @@
         <v>0.9627920389175415</v>
       </c>
       <c r="C97" s="2">
-        <v>0.88654345273971558</v>
+        <v>0.88659572601318359</v>
       </c>
       <c r="D97" s="2">
         <v>0.94559592008590698</v>
       </c>
       <c r="E97" s="2">
-        <v>0.89974534511566162</v>
+        <v>0.89969062805175781</v>
       </c>
     </row>
     <row r="98">
@@ -1738,13 +1738,13 @@
         <v>0.99675625562667847</v>
       </c>
       <c r="C98" s="2">
-        <v>0.86972492933273316</v>
+        <v>0.86952674388885498</v>
       </c>
       <c r="D98" s="2">
         <v>0.8402131199836731</v>
       </c>
       <c r="E98" s="2">
-        <v>0.77814656496047974</v>
+        <v>0.77813225984573364</v>
       </c>
     </row>
     <row r="99">
@@ -1755,13 +1755,13 @@
         <v>1.347939133644104</v>
       </c>
       <c r="C99" s="2">
-        <v>1.2982239723205566</v>
+        <v>1.2985852956771851</v>
       </c>
       <c r="D99" s="2">
         <v>0.798350989818573</v>
       </c>
       <c r="E99" s="2">
-        <v>0.72593182325363159</v>
+        <v>0.72577035427093506</v>
       </c>
     </row>
     <row r="100">
@@ -1772,13 +1772,13 @@
         <v>0.1337946355342865</v>
       </c>
       <c r="C100" s="2">
-        <v>-0.14855366945266724</v>
+        <v>-0.14939147233963013</v>
       </c>
       <c r="D100" s="2">
         <v>0.68779623508453369</v>
       </c>
       <c r="E100" s="2">
-        <v>0.59347224235534668</v>
+        <v>0.59331518411636353</v>
       </c>
     </row>
     <row r="101">
@@ -1789,13 +1789,13 @@
         <v>0.51685655117034912</v>
       </c>
       <c r="C101" s="2">
-        <v>0.50369769334793091</v>
+        <v>0.50338655710220337</v>
       </c>
       <c r="D101" s="2">
         <v>0.5831073522567749</v>
       </c>
       <c r="E101" s="2">
-        <v>0.45934385061264038</v>
+        <v>0.45909908413887024</v>
       </c>
     </row>
     <row r="102">
@@ -1806,13 +1806,13 @@
         <v>0.57905077934265137</v>
       </c>
       <c r="C102" s="2">
-        <v>0.49796637892723084</v>
+        <v>0.49819520115852356</v>
       </c>
       <c r="D102" s="2">
         <v>0.47884836792945862</v>
       </c>
       <c r="E102" s="2">
-        <v>0.35641419887542725</v>
+        <v>0.35608622431755066</v>
       </c>
     </row>
     <row r="103">
@@ -1823,13 +1823,13 @@
         <v>0.59405559301376343</v>
       </c>
       <c r="C103" s="2">
-        <v>0.52239280939102173</v>
+        <v>0.52119928598403931</v>
       </c>
       <c r="D103" s="2">
         <v>0.43610408902168274</v>
       </c>
       <c r="E103" s="2">
-        <v>0.30338791012763977</v>
+        <v>0.30303922295570374</v>
       </c>
     </row>
     <row r="104">
@@ -1840,13 +1840,13 @@
         <v>0.12754246592521667</v>
       </c>
       <c r="C104" s="2">
-        <v>0.02861618809401989</v>
+        <v>0.028903035447001457</v>
       </c>
       <c r="D104" s="2">
         <v>0.31868463754653931</v>
       </c>
       <c r="E104" s="2">
-        <v>0.17754513025283814</v>
+        <v>0.17715173959732056</v>
       </c>
     </row>
     <row r="105">
@@ -1857,13 +1857,13 @@
         <v>-0.010821492411196232</v>
       </c>
       <c r="C105" s="2">
-        <v>-0.32451713085174561</v>
+        <v>-0.32510870695114136</v>
       </c>
       <c r="D105" s="2">
         <v>0.34865710139274597</v>
       </c>
       <c r="E105" s="2">
-        <v>0.25296011567115784</v>
+        <v>0.25252258777618408</v>
       </c>
     </row>
     <row r="106">
@@ -1874,13 +1874,13 @@
         <v>0.024461500346660614</v>
       </c>
       <c r="C106" s="2">
-        <v>-0.03982335701584816</v>
+        <v>-0.040519852191209793</v>
       </c>
       <c r="D106" s="2">
         <v>0.36496809124946594</v>
       </c>
       <c r="E106" s="2">
-        <v>0.26902732253074646</v>
+        <v>0.26855242252349854</v>
       </c>
     </row>
     <row r="107">
@@ -1891,13 +1891,13 @@
         <v>0.61205774545669556</v>
       </c>
       <c r="C107" s="2">
-        <v>0.39248836040496826</v>
+        <v>0.39210367202758789</v>
       </c>
       <c r="D107" s="2">
         <v>0.40837714076042175</v>
       </c>
       <c r="E107" s="2">
-        <v>0.31441697478294373</v>
+        <v>0.31390970945358276</v>
       </c>
     </row>
     <row r="108">
@@ -1908,13 +1908,13 @@
         <v>0.29116383194923401</v>
       </c>
       <c r="C108" s="2">
-        <v>0.16563887894153595</v>
+        <v>0.16559790074825287</v>
       </c>
       <c r="D108" s="2">
         <v>0.45248091220855713</v>
       </c>
       <c r="E108" s="2">
-        <v>0.35429620742797852</v>
+        <v>0.35395991802215576</v>
       </c>
     </row>
     <row r="109">
@@ -1925,13 +1925,13 @@
         <v>0.40354686975479126</v>
       </c>
       <c r="C109" s="2">
-        <v>0.53018128871917725</v>
+        <v>0.52894622087478638</v>
       </c>
       <c r="D109" s="2">
         <v>0.59081572294235229</v>
       </c>
       <c r="E109" s="2">
-        <v>0.48350358009338379</v>
+        <v>0.48322001099586487</v>
       </c>
     </row>
     <row r="110">
@@ -1942,13 +1942,13 @@
         <v>0.66365551948547363</v>
       </c>
       <c r="C110" s="2">
-        <v>0.64830249547958374</v>
+        <v>0.64765501022338867</v>
       </c>
       <c r="D110" s="2">
         <v>0.74648410081863403</v>
       </c>
       <c r="E110" s="2">
-        <v>0.66883409023284912</v>
+        <v>0.66858631372451782</v>
       </c>
     </row>
     <row r="111">
@@ -1959,13 +1959,13 @@
         <v>0.96973216533660889</v>
       </c>
       <c r="C111" s="2">
-        <v>0.90647327899932861</v>
+        <v>0.90641069412231445</v>
       </c>
       <c r="D111" s="2">
         <v>0.87780612707138062</v>
       </c>
       <c r="E111" s="2">
-        <v>0.78286415338516235</v>
+        <v>0.78285050392150879</v>
       </c>
     </row>
     <row r="112">
@@ -1976,13 +1976,13 @@
         <v>0.99098950624465942</v>
       </c>
       <c r="C112" s="2">
-        <v>0.881305992603302</v>
+        <v>0.88165134191513062</v>
       </c>
       <c r="D112" s="2">
         <v>0.98098856210708618</v>
       </c>
       <c r="E112" s="2">
-        <v>0.89083510637283325</v>
+        <v>0.89085155725479126</v>
       </c>
     </row>
     <row r="113">
@@ -1993,13 +1993,13 @@
         <v>1.3725557327270508</v>
       </c>
       <c r="C113" s="2">
-        <v>1.1914825439453125</v>
+        <v>1.1922439336776733</v>
       </c>
       <c r="D113" s="2">
         <v>1.1153632402420044</v>
       </c>
       <c r="E113" s="2">
-        <v>1.0445218086242676</v>
+        <v>1.0445431470870972</v>
       </c>
     </row>
     <row r="114">
@@ -2010,13 +2010,13 @@
         <v>1.3901938199996948</v>
       </c>
       <c r="C114" s="2">
-        <v>1.3434574604034424</v>
+        <v>1.3431880474090576</v>
       </c>
       <c r="D114" s="2">
         <v>1.2578468322753906</v>
       </c>
       <c r="E114" s="2">
-        <v>1.1679404973983765</v>
+        <v>1.1680589914321899</v>
       </c>
     </row>
     <row r="115">
@@ -2027,13 +2027,13 @@
         <v>1.2063601016998291</v>
       </c>
       <c r="C115" s="2">
-        <v>0.98644691705703735</v>
+        <v>0.98785752058029175</v>
       </c>
       <c r="D115" s="2">
         <v>1.2326499223709107</v>
       </c>
       <c r="E115" s="2">
-        <v>1.1118170022964478</v>
+        <v>1.1120352745056152</v>
       </c>
     </row>
     <row r="116">
@@ -2044,13 +2044,13 @@
         <v>1.5406996011734009</v>
       </c>
       <c r="C116" s="2">
-        <v>1.3642269372940064</v>
+        <v>1.3641133308410645</v>
       </c>
       <c r="D116" s="2">
         <v>1.2275859117507935</v>
       </c>
       <c r="E116" s="2">
-        <v>1.1003506183624268</v>
+        <v>1.1005412340164185</v>
       </c>
     </row>
     <row r="117">
@@ -2061,13 +2061,13 @@
         <v>1.5005362033843994</v>
       </c>
       <c r="C117" s="2">
-        <v>1.5488193035125732</v>
+        <v>1.5488225221633911</v>
       </c>
       <c r="D117" s="2">
         <v>1.1623567342758179</v>
       </c>
       <c r="E117" s="2">
-        <v>1.0540744066238403</v>
+        <v>1.0542665719985962</v>
       </c>
     </row>
     <row r="118">
@@ -2078,13 +2078,13 @@
         <v>1.6858992576599121</v>
       </c>
       <c r="C118" s="2">
-        <v>1.6409497261047363</v>
+        <v>1.6405882835388184</v>
       </c>
       <c r="D118" s="2">
         <v>1.1071981191635132</v>
       </c>
       <c r="E118" s="2">
-        <v>0.99890649318695068</v>
+        <v>0.99902874231338501</v>
       </c>
     </row>
     <row r="119">
@@ -2095,13 +2095,13 @@
         <v>0.43688303232192993</v>
       </c>
       <c r="C119" s="2">
-        <v>0.14319075644016266</v>
+        <v>0.14344227313995361</v>
       </c>
       <c r="D119" s="2">
         <v>1.0871602296829224</v>
       </c>
       <c r="E119" s="2">
-        <v>0.96996700763702393</v>
+        <v>0.97015869617462158</v>
       </c>
     </row>
     <row r="120">
@@ -2112,13 +2112,13 @@
         <v>0.92415553331375122</v>
       </c>
       <c r="C120" s="2">
-        <v>0.80327636003494263</v>
+        <v>0.80296361446380615</v>
       </c>
       <c r="D120" s="2">
         <v>1.0592646598815918</v>
       </c>
       <c r="E120" s="2">
-        <v>0.95164060592651367</v>
+        <v>0.95167094469070435</v>
       </c>
     </row>
     <row r="121">
@@ -2129,13 +2129,13 @@
         <v>0.40392753481864929</v>
       </c>
       <c r="C121" s="2">
-        <v>0.46482008695602417</v>
+        <v>0.46517959237098694</v>
       </c>
       <c r="D121" s="2">
         <v>1.0128895044326782</v>
       </c>
       <c r="E121" s="2">
-        <v>0.93818622827529907</v>
+        <v>0.93831324577331543</v>
       </c>
     </row>
     <row r="122">
@@ -2146,13 +2146,13 @@
         <v>0.87612801790237427</v>
       </c>
       <c r="C122" s="2">
-        <v>0.69497108459472656</v>
+        <v>0.69510364532470703</v>
       </c>
       <c r="D122" s="2">
         <v>0.90189272165298462</v>
       </c>
       <c r="E122" s="2">
-        <v>0.79279273748397827</v>
+        <v>0.79281258583068848</v>
       </c>
     </row>
     <row r="123">
@@ -2163,13 +2163,13 @@
         <v>1.2098530530929565</v>
       </c>
       <c r="C123" s="2">
-        <v>1.0830017328262329</v>
+        <v>1.0833574533462525</v>
       </c>
       <c r="D123" s="2">
         <v>0.83154535293579102</v>
       </c>
       <c r="E123" s="2">
-        <v>0.71774071455001831</v>
+        <v>0.71771562099456787</v>
       </c>
     </row>
     <row r="124">
@@ -2180,13 +2180,13 @@
         <v>0.95529943704605103</v>
       </c>
       <c r="C124" s="2">
-        <v>0.82150924205780029</v>
+        <v>0.82146787643432617</v>
       </c>
       <c r="D124" s="2">
         <v>0.90723186731338501</v>
       </c>
       <c r="E124" s="2">
-        <v>0.81974714994430542</v>
+        <v>0.81963199377059937</v>
       </c>
     </row>
     <row r="125">
@@ -2197,13 +2197,13 @@
         <v>1.1233233213424683</v>
       </c>
       <c r="C125" s="2">
-        <v>1.2431377172470093</v>
+        <v>1.2438942193984985</v>
       </c>
       <c r="D125" s="2">
         <v>0.92720144987106323</v>
       </c>
       <c r="E125" s="2">
-        <v>0.8345518708229065</v>
+        <v>0.83441907167434692</v>
       </c>
     </row>
     <row r="126">
@@ -2214,13 +2214,13 @@
         <v>0.50156509876251221</v>
       </c>
       <c r="C126" s="2">
-        <v>0.24027785658836365</v>
+        <v>0.23931644856929779</v>
       </c>
       <c r="D126" s="2">
         <v>1.0568108558654785</v>
       </c>
       <c r="E126" s="2">
-        <v>0.95299720764160156</v>
+        <v>0.95285582542419434</v>
       </c>
     </row>
     <row r="127">
@@ -2231,13 +2231,13 @@
         <v>1.0527728796005249</v>
       </c>
       <c r="C127" s="2">
-        <v>0.96548169851303101</v>
+        <v>0.96471548080444336</v>
       </c>
       <c r="D127" s="2">
         <v>0.98809897899627686</v>
       </c>
       <c r="E127" s="2">
-        <v>0.8994753360748291</v>
+        <v>0.89946490526199341</v>
       </c>
     </row>
     <row r="128">
@@ -2248,13 +2248,13 @@
         <v>1.1180621385574341</v>
       </c>
       <c r="C128" s="2">
-        <v>1.0612485408782959</v>
+        <v>1.0606894493103027</v>
       </c>
       <c r="D128" s="2">
         <v>0.9396626353263855</v>
       </c>
       <c r="E128" s="2">
-        <v>0.85406512022018433</v>
+        <v>0.85389077663421631</v>
       </c>
     </row>
     <row r="129">
@@ -2265,13 +2265,13 @@
         <v>1.1038813591003418</v>
       </c>
       <c r="C129" s="2">
-        <v>0.93651866912841797</v>
+        <v>0.93604743480682373</v>
       </c>
       <c r="D129" s="2">
         <v>0.9810362458229065</v>
       </c>
       <c r="E129" s="2">
-        <v>0.89764386415481567</v>
+        <v>0.8974454402923584</v>
       </c>
     </row>
     <row r="130">
@@ -2282,13 +2282,13 @@
         <v>1.5704125165939331</v>
       </c>
       <c r="C130" s="2">
-        <v>1.530828595161438</v>
+        <v>1.5311102867126465</v>
       </c>
       <c r="D130" s="2">
         <v>1.0273183584213257</v>
       </c>
       <c r="E130" s="2">
-        <v>0.93958020210266113</v>
+        <v>0.93924033641815186</v>
       </c>
     </row>
     <row r="131">
@@ -2299,13 +2299,13 @@
         <v>0.25772073864936829</v>
       </c>
       <c r="C131" s="2">
-        <v>0.21327413618564606</v>
+        <v>0.2145853191614151</v>
       </c>
       <c r="D131" s="2">
         <v>1.094713568687439</v>
       </c>
       <c r="E131" s="2">
-        <v>1.0335553884506226</v>
+        <v>1.0334118604660034</v>
       </c>
     </row>
     <row r="132">
@@ -2316,13 +2316,13 @@
         <v>0.7739260196685791</v>
       </c>
       <c r="C132" s="2">
-        <v>0.67430955171585083</v>
+        <v>0.67319023609161377</v>
       </c>
       <c r="D132" s="2">
         <v>1.0888017416000366</v>
       </c>
       <c r="E132" s="2">
-        <v>1.0443114042282104</v>
+        <v>1.0442075729370117</v>
       </c>
     </row>
     <row r="133">
@@ -2333,13 +2333,13 @@
         <v>1.3276619911193848</v>
       </c>
       <c r="C133" s="2">
-        <v>1.213718056678772</v>
+        <v>1.2134603261947632</v>
       </c>
       <c r="D133" s="2">
         <v>1.0259606838226318</v>
       </c>
       <c r="E133" s="2">
-        <v>0.95165747404098511</v>
+        <v>0.95168864727020264</v>
       </c>
     </row>
     <row r="134">
@@ -2350,13 +2350,13 @@
         <v>1.5398620367050171</v>
       </c>
       <c r="C134" s="2">
-        <v>1.6205645799636841</v>
+        <v>1.6200480461120605</v>
       </c>
       <c r="D134" s="2">
         <v>0.9701153039932251</v>
       </c>
       <c r="E134" s="2">
-        <v>0.87853735685348511</v>
+        <v>0.8786163330078125</v>
       </c>
     </row>
     <row r="135">
@@ -2367,13 +2367,13 @@
         <v>1.1081227064132691</v>
       </c>
       <c r="C135" s="2">
-        <v>1.0860550403594971</v>
+        <v>1.086860179901123</v>
       </c>
       <c r="D135" s="2">
         <v>0.90150004625320435</v>
       </c>
       <c r="E135" s="2">
-        <v>0.8021584153175354</v>
+        <v>0.80207043886184692</v>
       </c>
     </row>
     <row r="136">
@@ -2384,13 +2384,13 @@
         <v>0.9995657205581665</v>
       </c>
       <c r="C136" s="2">
-        <v>1.0622854232788086</v>
+        <v>1.061876654624939</v>
       </c>
       <c r="D136" s="2">
         <v>1.0415375232696533</v>
       </c>
       <c r="E136" s="2">
-        <v>0.93956929445266724</v>
+        <v>0.93925023078918457</v>
       </c>
     </row>
     <row r="137">
@@ -2401,13 +2401,13 @@
         <v>0.55249351263046265</v>
       </c>
       <c r="C137" s="2">
-        <v>0.22736307978630066</v>
+        <v>0.22801946103572845</v>
       </c>
       <c r="D137" s="2">
         <v>1.0789514780044556</v>
       </c>
       <c r="E137" s="2">
-        <v>0.98675763607025147</v>
+        <v>0.98656255006790161</v>
       </c>
     </row>
     <row r="138">
@@ -2418,13 +2418,13 @@
         <v>0.60127246379852295</v>
       </c>
       <c r="C138" s="2">
-        <v>0.27843785285949707</v>
+        <v>0.27839639782905579</v>
       </c>
       <c r="D138" s="2">
         <v>1.0438895225524902</v>
       </c>
       <c r="E138" s="2">
-        <v>1.0363476276397705</v>
+        <v>1.0363258123397827</v>
       </c>
     </row>
     <row r="139">
@@ -2435,13 +2435,13 @@
         <v>0.95287501811981201</v>
       </c>
       <c r="C139" s="2">
-        <v>0.84341776371002197</v>
+        <v>0.84219712018966675</v>
       </c>
       <c r="D139" s="2">
         <v>0.98979014158248901</v>
       </c>
       <c r="E139" s="2">
-        <v>0.9594266414642334</v>
+        <v>0.95950484275817871</v>
       </c>
     </row>
     <row r="140">
@@ -2452,13 +2452,13 @@
         <v>1.5180577039718628</v>
       </c>
       <c r="C140" s="2">
-        <v>1.4499725103378296</v>
+        <v>1.4492036104202271</v>
       </c>
       <c r="D140" s="2">
         <v>1.0464777946472168</v>
       </c>
       <c r="E140" s="2">
-        <v>1.0007860660552979</v>
+        <v>1.0007228851318359</v>
       </c>
     </row>
     <row r="141">
@@ -2469,13 +2469,13 @@
         <v>1.1106525659561157</v>
       </c>
       <c r="C141" s="2">
-        <v>1.0990041494369507</v>
+        <v>1.0990009307861328</v>
       </c>
       <c r="D141" s="2">
         <v>1.0369572639465332</v>
       </c>
       <c r="E141" s="2">
-        <v>0.98671627044677734</v>
+        <v>0.98677152395248413</v>
       </c>
     </row>
     <row r="142">
@@ -2486,13 +2486,13 @@
         <v>1.0121045112609863</v>
       </c>
       <c r="C142" s="2">
-        <v>1.6600281000137329</v>
+        <v>1.6613302230834961</v>
       </c>
       <c r="D142" s="2">
         <v>1.0403944253921509</v>
       </c>
       <c r="E142" s="2">
-        <v>1.0318490266799927</v>
+        <v>1.0317986011505127</v>
       </c>
     </row>
     <row r="143">
@@ -2503,13 +2503,13 @@
         <v>1.052966833114624</v>
       </c>
       <c r="C143" s="2">
-        <v>0.92827558517456055</v>
+        <v>0.92865920066833496</v>
       </c>
       <c r="D143" s="2">
         <v>1.0907306671142578</v>
       </c>
       <c r="E143" s="2">
-        <v>1.1051615476608276</v>
+        <v>1.1051461696624756</v>
       </c>
     </row>
     <row r="144">
@@ -2520,13 +2520,13 @@
         <v>1.6183123588562012</v>
       </c>
       <c r="C144" s="2">
-        <v>1.4582905769348145</v>
+        <v>1.4578218460083008</v>
       </c>
       <c r="D144" s="2">
         <v>1.1236333847045899</v>
       </c>
       <c r="E144" s="2">
-        <v>1.1433345079421997</v>
+        <v>1.1433893442153931</v>
       </c>
     </row>
     <row r="145">
@@ -2537,13 +2537,13 @@
         <v>0.91387999057769775</v>
       </c>
       <c r="C145" s="2">
-        <v>0.93565702438354492</v>
+        <v>0.93631482124328613</v>
       </c>
       <c r="D145" s="2">
         <v>1.0465196371078491</v>
       </c>
       <c r="E145" s="2">
-        <v>1.0686590671539307</v>
+        <v>1.0688202381134033</v>
       </c>
     </row>
     <row r="146">
@@ -2554,13 +2554,13 @@
         <v>0.58342814445495605</v>
       </c>
       <c r="C146" s="2">
-        <v>0.63355797529220581</v>
+        <v>0.6332627534866333</v>
       </c>
       <c r="D146" s="2">
         <v>1.0489387512207031</v>
       </c>
       <c r="E146" s="2">
-        <v>1.0576283931732178</v>
+        <v>1.0578776597976685</v>
       </c>
     </row>
     <row r="147">
@@ -2571,13 +2571,13 @@
         <v>1.0542991161346436</v>
       </c>
       <c r="C147" s="2">
-        <v>0.93825030326843262</v>
+        <v>0.93852484226226807</v>
       </c>
       <c r="D147" s="2">
         <v>1.0765870809555054</v>
       </c>
       <c r="E147" s="2">
-        <v>0.98407071828842163</v>
+        <v>0.98412299156188965</v>
       </c>
     </row>
     <row r="148">
@@ -2588,13 +2588,13 @@
         <v>1.248998761177063</v>
       </c>
       <c r="C148" s="2">
-        <v>1.1869739294052124</v>
+        <v>1.1863861083984375</v>
       </c>
       <c r="D148" s="2">
         <v>1.0753378868103027</v>
       </c>
       <c r="E148" s="2">
-        <v>0.98191934823989868</v>
+        <v>0.98193055391311646</v>
       </c>
     </row>
     <row r="149">
@@ -2605,13 +2605,13 @@
         <v>0.82403445243835449</v>
       </c>
       <c r="C149" s="2">
-        <v>0.77789431810379028</v>
+        <v>0.77808099985122681</v>
       </c>
       <c r="D149" s="2">
         <v>1.0183613300323486</v>
       </c>
       <c r="E149" s="2">
-        <v>0.93188303709030151</v>
+        <v>0.93194329738616943</v>
       </c>
     </row>
     <row r="150">
@@ -2622,13 +2622,13 @@
         <v>1.1324241161346436</v>
       </c>
       <c r="C150" s="2">
-        <v>0.99972730875015259</v>
+        <v>1.0005179643630981</v>
       </c>
       <c r="D150" s="2">
         <v>1.0164604187011719</v>
       </c>
       <c r="E150" s="2">
-        <v>0.91378241777420044</v>
+        <v>0.91382920742034912</v>
       </c>
     </row>
     <row r="151">
@@ -2639,13 +2639,13 @@
         <v>1.2609398365020752</v>
       </c>
       <c r="C151" s="2">
-        <v>0.99800950288772583</v>
+        <v>0.99753844738006592</v>
       </c>
       <c r="D151" s="2">
         <v>0.94837933778762817</v>
       </c>
       <c r="E151" s="2">
-        <v>0.82389390468597412</v>
+        <v>0.82403737306594849</v>
       </c>
     </row>
     <row r="152">
@@ -2656,13 +2656,13 @@
         <v>1.041724681854248</v>
       </c>
       <c r="C152" s="2">
-        <v>0.90891295671463013</v>
+        <v>0.90892738103866577</v>
       </c>
       <c r="D152" s="2">
         <v>0.82177597284317017</v>
       </c>
       <c r="E152" s="2">
-        <v>0.70798200368881226</v>
+        <v>0.70799827575683594</v>
       </c>
     </row>
     <row r="153">
@@ -2673,13 +2673,13 @@
         <v>1.1055232286453247</v>
       </c>
       <c r="C153" s="2">
-        <v>1.0079641342163086</v>
+        <v>1.0079363584518433</v>
       </c>
       <c r="D153" s="2">
         <v>0.65232169628143311</v>
       </c>
       <c r="E153" s="2">
-        <v>0.54410421848297119</v>
+        <v>0.54426592588424683</v>
       </c>
     </row>
     <row r="154">
@@ -2690,13 +2690,13 @@
         <v>0.89677160978317261</v>
       </c>
       <c r="C154" s="2">
-        <v>0.7727513313293457</v>
+        <v>0.77328801155090332</v>
       </c>
       <c r="D154" s="2">
         <v>0.48827815055847168</v>
       </c>
       <c r="E154" s="2">
-        <v>0.39640837907791138</v>
+        <v>0.39650973677635193</v>
       </c>
     </row>
     <row r="155">
@@ -2707,13 +2707,13 @@
         <v>-0.029301609843969345</v>
       </c>
       <c r="C155" s="2">
-        <v>-0.17543886601924896</v>
+        <v>-0.17486380040645599</v>
       </c>
       <c r="D155" s="2">
         <v>0.34072479605674744</v>
       </c>
       <c r="E155" s="2">
-        <v>0.24600018560886383</v>
+        <v>0.24602130055427551</v>
       </c>
     </row>
     <row r="156">
@@ -2724,13 +2724,13 @@
         <v>-0.085131451487541199</v>
       </c>
       <c r="C156" s="2">
-        <v>-0.10495632886886597</v>
+        <v>-0.10582708567380905</v>
       </c>
       <c r="D156" s="2">
         <v>0.17210513353347778</v>
       </c>
       <c r="E156" s="2">
-        <v>0.15068612992763519</v>
+        <v>0.15091438591480255</v>
       </c>
     </row>
     <row r="157">
@@ -2741,13 +2741,13 @@
         <v>-0.27608934044837952</v>
       </c>
       <c r="C157" s="2">
-        <v>-0.28792655467987061</v>
+        <v>-0.2872048020362854</v>
       </c>
       <c r="D157" s="2">
         <v>0.079903863370418549</v>
       </c>
       <c r="E157" s="2">
-        <v>0.059533432126045227</v>
+        <v>0.05973535031080246</v>
       </c>
     </row>
     <row r="158">
@@ -2758,13 +2758,13 @@
         <v>-0.65235769748687744</v>
       </c>
       <c r="C158" s="2">
-        <v>-0.55136805772781372</v>
+        <v>-0.55172497034072876</v>
       </c>
       <c r="D158" s="2">
         <v>0.046480540186166763</v>
       </c>
       <c r="E158" s="2">
-        <v>0.040418956428766251</v>
+        <v>0.040559582412242889</v>
       </c>
     </row>
     <row r="159">
@@ -2775,13 +2775,13 @@
         <v>-0.1955561488866806</v>
       </c>
       <c r="C159" s="2">
-        <v>-0.35394638776779175</v>
+        <v>-0.35387790203094483</v>
       </c>
       <c r="D159" s="2">
         <v>-0.065591193735599518</v>
       </c>
       <c r="E159" s="2">
-        <v>-0.074740953743457794</v>
+        <v>-0.074663534760475159</v>
       </c>
     </row>
     <row r="160">
@@ -2792,13 +2792,13 @@
         <v>-0.25663700699806213</v>
       </c>
       <c r="C160" s="2">
-        <v>0.14018300175666809</v>
+        <v>0.14157624542713165</v>
       </c>
       <c r="D160" s="2">
         <v>0.0041405675001442432</v>
       </c>
       <c r="E160" s="2">
-        <v>0.0052902977913618088</v>
+        <v>0.0054602622985839844</v>
       </c>
     </row>
     <row r="161">
@@ -2809,13 +2809,13 @@
         <v>0.21191319823265076</v>
       </c>
       <c r="C161" s="2">
-        <v>0.088538601994514465</v>
+        <v>0.088316090404987335</v>
       </c>
       <c r="D161" s="2">
         <v>0.048113804310560226</v>
       </c>
       <c r="E161" s="2">
-        <v>0.038453519344329834</v>
+        <v>0.038813810795545578</v>
       </c>
     </row>
     <row r="162">
@@ -2826,13 +2826,13 @@
         <v>0.80471330881118774</v>
       </c>
       <c r="C162" s="2">
-        <v>0.8359338641166687</v>
+        <v>0.83535444736480713</v>
       </c>
       <c r="D162" s="2">
         <v>0.078669555485248566</v>
       </c>
       <c r="E162" s="2">
-        <v>0.061475642025470734</v>
+        <v>0.061720307916402817</v>
       </c>
     </row>
     <row r="163">
@@ -2843,13 +2843,13 @@
         <v>-0.11187399923801422</v>
       </c>
       <c r="C163" s="2">
-        <v>-0.26368787884712219</v>
+        <v>-0.26372000575065613</v>
       </c>
       <c r="D163" s="2">
         <v>0.21288938820362091</v>
       </c>
       <c r="E163" s="2">
-        <v>0.17085234820842743</v>
+        <v>0.17117027938365936</v>
       </c>
     </row>
     <row r="164">
@@ -2860,13 +2860,13 @@
         <v>0.59828424453735352</v>
       </c>
       <c r="C164" s="2">
-        <v>0.54484242200851441</v>
+        <v>0.54625034332275391</v>
       </c>
       <c r="D164" s="2">
         <v>0.29645845293998718</v>
       </c>
       <c r="E164" s="2">
-        <v>0.28189435601234436</v>
+        <v>0.28214788436889648</v>
       </c>
     </row>
     <row r="165">
@@ -2877,13 +2877,13 @@
         <v>0.31062766909599304</v>
       </c>
       <c r="C165" s="2">
-        <v>0.1935126781463623</v>
+        <v>0.19435484707355499</v>
       </c>
       <c r="D165" s="2">
         <v>0.28729885816574097</v>
       </c>
       <c r="E165" s="2">
-        <v>0.22678713500499725</v>
+        <v>0.22697447240352631</v>
       </c>
     </row>
     <row r="166">
@@ -2894,13 +2894,13 @@
         <v>-0.0010875595035031438</v>
       </c>
       <c r="C166" s="2">
-        <v>-0.080727480351924896</v>
+        <v>-0.081046320497989655</v>
       </c>
       <c r="D166" s="2">
         <v>0.24615252017974854</v>
       </c>
       <c r="E166" s="2">
-        <v>0.20256803929805756</v>
+        <v>0.20277920365333557</v>
       </c>
     </row>
     <row r="167">
@@ -2911,13 +2911,13 @@
         <v>0.55562072992324829</v>
       </c>
       <c r="C167" s="2">
-        <v>0.43302235007286072</v>
+        <v>0.43332478404045105</v>
       </c>
       <c r="D167" s="2">
         <v>0.12478786706924438</v>
       </c>
       <c r="E167" s="2">
-        <v>0.063553072512149811</v>
+        <v>0.063768617808818817</v>
       </c>
     </row>
     <row r="168">
@@ -2928,13 +2928,13 @@
         <v>0.55656552314758301</v>
       </c>
       <c r="C168" s="2">
-        <v>0.64543163776397705</v>
+        <v>0.64492052793502808</v>
       </c>
       <c r="D168" s="2">
         <v>0.13145817816257477</v>
       </c>
       <c r="E168" s="2">
-        <v>0.073219366371631622</v>
+        <v>0.073417939245700836</v>
       </c>
     </row>
     <row r="169">
@@ -2945,13 +2945,13 @@
         <v>-0.33907327055931091</v>
       </c>
       <c r="C169" s="2">
-        <v>-0.35578194260597229</v>
+        <v>-0.35498443245887756</v>
       </c>
       <c r="D169" s="2">
         <v>0.094043642282485962</v>
       </c>
       <c r="E169" s="2">
-        <v>0.040677309036254883</v>
+        <v>0.040703754872083664</v>
       </c>
     </row>
     <row r="170">
@@ -2962,13 +2962,13 @@
         <v>-0.15840400755405426</v>
       </c>
       <c r="C170" s="2">
-        <v>-0.12943330407142639</v>
+        <v>-0.12944130599498749</v>
       </c>
       <c r="D170" s="2">
         <v>0.1315656453371048</v>
       </c>
       <c r="E170" s="2">
-        <v>0.083261504769325256</v>
+        <v>0.083128035068511963</v>
       </c>
     </row>
     <row r="171">
@@ -2979,13 +2979,13 @@
         <v>-0.28756853938102722</v>
       </c>
       <c r="C171" s="2">
-        <v>-0.41520082950592041</v>
+        <v>-0.41574090719223022</v>
       </c>
       <c r="D171" s="2">
         <v>0.14728274941444397</v>
       </c>
       <c r="E171" s="2">
-        <v>0.08999970555305481</v>
+        <v>0.089922547340393066</v>
       </c>
     </row>
     <row r="172">
@@ -2996,13 +2996,13 @@
         <v>-0.051841244101524353</v>
       </c>
       <c r="C172" s="2">
-        <v>-0.1766912043094635</v>
+        <v>-0.17687608301639557</v>
       </c>
       <c r="D172" s="2">
         <v>0.1753523200750351</v>
       </c>
       <c r="E172" s="2">
-        <v>0.12911747395992279</v>
+        <v>0.12909567356109619</v>
       </c>
     </row>
     <row r="173">
@@ -3013,13 +3013,13 @@
         <v>0.26155346632003784</v>
       </c>
       <c r="C173" s="2">
-        <v>0.25196388363838196</v>
+        <v>0.25182268023490906</v>
       </c>
       <c r="D173" s="2">
         <v>0.17849370837211609</v>
       </c>
       <c r="E173" s="2">
-        <v>0.10236462950706482</v>
+        <v>0.10244648158550262</v>
       </c>
     </row>
     <row r="174">
@@ -3030,13 +3030,13 @@
         <v>0.64832568168640137</v>
       </c>
       <c r="C174" s="2">
-        <v>0.57677042484283447</v>
+        <v>0.57617336511611938</v>
       </c>
       <c r="D174" s="2">
         <v>0.36803606152534485</v>
       </c>
       <c r="E174" s="2">
-        <v>0.28316718339920044</v>
+        <v>0.28312599658966064</v>
       </c>
     </row>
     <row r="175">
@@ -3047,13 +3047,13 @@
         <v>0.14036634564399719</v>
       </c>
       <c r="C175" s="2">
-        <v>-0.020083632320165634</v>
+        <v>-0.019895708188414574</v>
       </c>
       <c r="D175" s="2">
         <v>0.47030669450759888</v>
       </c>
       <c r="E175" s="2">
-        <v>0.36689853668212891</v>
+        <v>0.36691415309906006</v>
       </c>
     </row>
     <row r="176">
@@ -3064,13 +3064,13 @@
         <v>0.808246910572052</v>
       </c>
       <c r="C176" s="2">
-        <v>0.78508222103118897</v>
+        <v>0.78588294982910156</v>
       </c>
       <c r="D176" s="2">
         <v>0.49438965320587158</v>
       </c>
       <c r="E176" s="2">
-        <v>0.40451866388320923</v>
+        <v>0.40462371706962586</v>
       </c>
     </row>
     <row r="177">
@@ -3081,13 +3081,13 @@
         <v>0.58483809232711792</v>
       </c>
       <c r="C177" s="2">
-        <v>0.40465602278709412</v>
+        <v>0.40507775545120239</v>
       </c>
       <c r="D177" s="2">
         <v>0.51323997974395752</v>
       </c>
       <c r="E177" s="2">
-        <v>0.43496352434158325</v>
+        <v>0.43508815765380859</v>
       </c>
     </row>
     <row r="178">
@@ -3098,13 +3098,13 @@
         <v>1.3668078184127808</v>
       </c>
       <c r="C178" s="2">
-        <v>1.2714411020278931</v>
+        <v>1.271131157875061</v>
       </c>
       <c r="D178" s="2">
         <v>0.54678082466125488</v>
       </c>
       <c r="E178" s="2">
-        <v>0.47428232431411743</v>
+        <v>0.4743383526802063</v>
       </c>
     </row>
     <row r="179">
@@ -3115,13 +3115,13 @@
         <v>0.76203185319900513</v>
       </c>
       <c r="C179" s="2">
-        <v>0.62414884567260742</v>
+        <v>0.6246522068977356</v>
       </c>
       <c r="D179" s="2">
         <v>0.50989848375320435</v>
       </c>
       <c r="E179" s="2">
-        <v>0.43404743075370789</v>
+        <v>0.43425858020782471</v>
       </c>
     </row>
     <row r="180">
@@ -3132,13 +3132,13 @@
         <v>-0.070822089910507202</v>
       </c>
       <c r="C180" s="2">
-        <v>-0.076619692146778107</v>
+        <v>-0.076354809105396271</v>
       </c>
       <c r="D180" s="2">
         <v>0.64696335792541504</v>
       </c>
       <c r="E180" s="2">
-        <v>0.57926726341247559</v>
+        <v>0.57941031455993652</v>
       </c>
     </row>
     <row r="181">
@@ -3149,13 +3149,13 @@
         <v>0.11781155318021774</v>
       </c>
       <c r="C181" s="2">
-        <v>0.097312584519386292</v>
+        <v>0.097303874790668488</v>
       </c>
       <c r="D181" s="2">
         <v>0.50260907411575317</v>
       </c>
       <c r="E181" s="2">
-        <v>0.50597256422042847</v>
+        <v>0.50593805313110352</v>
       </c>
     </row>
     <row r="182">
@@ -3166,13 +3166,13 @@
         <v>0.56342142820358276</v>
       </c>
       <c r="C182" s="2">
-        <v>0.60583311319351196</v>
+        <v>0.60507446527481079</v>
       </c>
       <c r="D182" s="2">
         <v>0.57563948631286621</v>
       </c>
       <c r="E182" s="2">
-        <v>0.58083522319793701</v>
+        <v>0.58077198266983032</v>
       </c>
     </row>
     <row r="183">
@@ -3183,13 +3183,13 @@
         <v>0.31638434529304504</v>
       </c>
       <c r="C183" s="2">
-        <v>0.21465623378753662</v>
+        <v>0.21545533835887909</v>
       </c>
       <c r="D183" s="2">
         <v>0.60031038522720337</v>
       </c>
       <c r="E183" s="2">
-        <v>0.58817791938781738</v>
+        <v>0.58824491500854492</v>
       </c>
     </row>
     <row r="184">
@@ -3200,13 +3200,13 @@
         <v>1.3739501237869263</v>
       </c>
       <c r="C184" s="2">
-        <v>1.2868951559066773</v>
+        <v>1.2864700555801392</v>
       </c>
       <c r="D184" s="2">
         <v>0.66368454694747925</v>
       </c>
       <c r="E184" s="2">
-        <v>0.63554900884628296</v>
+        <v>0.63552993535995483</v>
       </c>
     </row>
     <row r="185">
@@ -3217,13 +3217,13 @@
         <v>-0.49094125628471375</v>
       </c>
       <c r="C185" s="2">
-        <v>0.12542945146560669</v>
+        <v>0.12463267147541046</v>
       </c>
       <c r="D185" s="2">
         <v>0.7536194920539856</v>
       </c>
       <c r="E185" s="2">
-        <v>0.70480513572692871</v>
+        <v>0.70468884706497192</v>
       </c>
     </row>
     <row r="186">
@@ -3234,13 +3234,13 @@
         <v>1.2421115636825562</v>
       </c>
       <c r="C186" s="2">
-        <v>1.0784201622009277</v>
+        <v>1.0785830020904541</v>
       </c>
       <c r="D186" s="2">
         <v>0.78110557794570923</v>
       </c>
       <c r="E186" s="2">
-        <v>0.70339018106460571</v>
+        <v>0.70338982343673706</v>
       </c>
     </row>
     <row r="187">
@@ -3251,13 +3251,13 @@
         <v>1.5888462066650391</v>
       </c>
       <c r="C187" s="2">
-        <v>1.3375256061553955</v>
+        <v>1.3383874893188477</v>
       </c>
       <c r="D187" s="2">
         <v>0.8157927393913269</v>
       </c>
       <c r="E187" s="2">
-        <v>0.75621765851974487</v>
+        <v>0.75633662939071655</v>
       </c>
     </row>
     <row r="188">
@@ -3268,13 +3268,13 @@
         <v>1.3323990106582642</v>
       </c>
       <c r="C188" s="2">
-        <v>1.0504887104034424</v>
+        <v>1.0502171516418457</v>
       </c>
       <c r="D188" s="2">
         <v>0.71775144338607788</v>
       </c>
       <c r="E188" s="2">
-        <v>0.66008228063583374</v>
+        <v>0.66002070903778076</v>
       </c>
     </row>
     <row r="189">
@@ -3285,13 +3285,13 @@
         <v>0.73859226703643799</v>
       </c>
       <c r="C189" s="2">
-        <v>0.54668533802032471</v>
+        <v>0.54607540369033813</v>
       </c>
       <c r="D189" s="2">
         <v>0.58328336477279663</v>
       </c>
       <c r="E189" s="2">
-        <v>0.49273061752319336</v>
+        <v>0.49272283911705017</v>
       </c>
     </row>
     <row r="190">
@@ -3302,13 +3302,13 @@
         <v>0.36518657207489014</v>
       </c>
       <c r="C190" s="2">
-        <v>0.084577769041061401</v>
+        <v>0.085612885653972626</v>
       </c>
       <c r="D190" s="2">
         <v>0.75908178091049194</v>
       </c>
       <c r="E190" s="2">
-        <v>0.55851912498474121</v>
+        <v>0.55851459503173828</v>
       </c>
     </row>
     <row r="191">
@@ -3319,13 +3319,13 @@
         <v>0.87560582160949707</v>
       </c>
       <c r="C191" s="2">
-        <v>1.0812807083129883</v>
+        <v>1.0815955400466919</v>
       </c>
       <c r="D191" s="2">
         <v>0.7731899619102478</v>
       </c>
       <c r="E191" s="2">
-        <v>0.66340601444244385</v>
+        <v>0.66351479291915894</v>
       </c>
     </row>
     <row r="192">
@@ -3336,13 +3336,13 @@
         <v>-0.56598716974258423</v>
       </c>
       <c r="C192" s="2">
-        <v>-0.65056240558624268</v>
+        <v>-0.65138804912567139</v>
       </c>
       <c r="D192" s="2">
         <v>0.68072623014450073</v>
       </c>
       <c r="E192" s="2">
-        <v>0.66382193565368652</v>
+        <v>0.66359716653823853</v>
       </c>
     </row>
     <row r="193">
@@ -3353,13 +3353,13 @@
         <v>0.16373701393604279</v>
       </c>
       <c r="C193" s="2">
-        <v>-0.21926966309547424</v>
+        <v>-0.21921056509017944</v>
       </c>
       <c r="D193" s="2">
         <v>0.71306675672531128</v>
       </c>
       <c r="E193" s="2">
-        <v>0.7065921425819397</v>
+        <v>0.70644181966781616</v>
       </c>
     </row>
     <row r="194">
@@ -3370,13 +3370,13 @@
         <v>1.0912445783615112</v>
       </c>
       <c r="C194" s="2">
-        <v>0.71752601861953735</v>
+        <v>0.71675843000411987</v>
       </c>
       <c r="D194" s="2">
         <v>0.72874975204467774</v>
       </c>
       <c r="E194" s="2">
-        <v>0.71779328584671021</v>
+        <v>0.71763622760772705</v>
       </c>
     </row>
     <row r="195">
@@ -3387,13 +3387,13 @@
         <v>1.3690851926803589</v>
       </c>
       <c r="C195" s="2">
-        <v>2.0224020481109619</v>
+        <v>2.0235846042633057</v>
       </c>
       <c r="D195" s="2">
         <v>0.79378920793533325</v>
       </c>
       <c r="E195" s="2">
-        <v>0.80108213424682617</v>
+        <v>0.80091387033462525</v>
       </c>
     </row>
     <row r="196">
@@ -3404,13 +3404,13 @@
         <v>0.75667262077331543</v>
       </c>
       <c r="C196" s="2">
-        <v>1.3412686586380005</v>
+        <v>1.3391292095184326</v>
       </c>
       <c r="D196" s="2">
         <v>0.71587240695953369</v>
       </c>
       <c r="E196" s="2">
-        <v>0.65633714199066162</v>
+        <v>0.65584301948547363</v>
       </c>
     </row>
     <row r="197">
@@ -3421,13 +3421,13 @@
         <v>1.6234637498855591</v>
       </c>
       <c r="C197" s="2">
-        <v>1.4354208707809448</v>
+        <v>1.4358186721801758</v>
       </c>
       <c r="D197" s="2">
         <v>0.86995917558670044</v>
       </c>
       <c r="E197" s="2">
-        <v>0.79908019304275513</v>
+        <v>0.79880744218826294</v>
       </c>
     </row>
     <row r="198">
@@ -3438,13 +3438,13 @@
         <v>0.87973934412002563</v>
       </c>
       <c r="C198" s="2">
-        <v>0.64749568700790405</v>
+        <v>0.64682513475418091</v>
       </c>
       <c r="D198" s="2">
         <v>1.020658016204834</v>
       </c>
       <c r="E198" s="2">
-        <v>0.98285132646560669</v>
+        <v>0.98267865180969238</v>
       </c>
     </row>
     <row r="199">
@@ -3455,13 +3455,13 @@
         <v>0.95054179430007935</v>
       </c>
       <c r="C199" s="2">
-        <v>0.83417707681655884</v>
+        <v>0.83511197566986084</v>
       </c>
       <c r="D199" s="2">
         <v>0.9815325140953064</v>
       </c>
       <c r="E199" s="2">
-        <v>0.97407788038253784</v>
+        <v>0.97402060031890869</v>
       </c>
     </row>
     <row r="200">
@@ -3472,13 +3472,13 @@
         <v>0.17435459792613983</v>
       </c>
       <c r="C200" s="2">
-        <v>-0.22142411768436432</v>
+        <v>-0.22404225170612335</v>
       </c>
       <c r="D200" s="2">
         <v>0.92877453565597534</v>
       </c>
       <c r="E200" s="2">
-        <v>0.82445359230041504</v>
+        <v>0.82429498434066773</v>
       </c>
     </row>
     <row r="201">
@@ -3489,13 +3489,13 @@
         <v>0.82079362869262695</v>
       </c>
       <c r="C201" s="2">
-        <v>0.6341249942779541</v>
+        <v>0.63529157638549805</v>
       </c>
       <c r="D201" s="2">
         <v>0.91252028942108154</v>
       </c>
       <c r="E201" s="2">
-        <v>0.70373010635375977</v>
+        <v>0.70368444919586182</v>
       </c>
     </row>
     <row r="202">
@@ -3506,13 +3506,13 @@
         <v>1.5200268030166626</v>
       </c>
       <c r="C202" s="2">
-        <v>1.4346705675125122</v>
+        <v>1.4356305599212646</v>
       </c>
       <c r="D202" s="2">
         <v>0.92546617984771729</v>
       </c>
       <c r="E202" s="2">
-        <v>0.71376633644104004</v>
+        <v>0.7137371301651001</v>
       </c>
     </row>
     <row r="203">
@@ -3523,13 +3523,13 @@
         <v>0.73911476135253906</v>
       </c>
       <c r="C203" s="2">
-        <v>0.6385650634765625</v>
+        <v>0.63883566856384277</v>
       </c>
       <c r="D203" s="2">
         <v>0.99118161201477051</v>
       </c>
       <c r="E203" s="2">
-        <v>0.78597706556320191</v>
+        <v>0.78594303131103516</v>
       </c>
     </row>
     <row r="204">
@@ -3540,13 +3540,13 @@
         <v>0.89426332712173462</v>
       </c>
       <c r="C204" s="2">
-        <v>0.67578375339508057</v>
+        <v>0.67605412006378174</v>
       </c>
       <c r="D204" s="2">
         <v>1.0618983507156372</v>
       </c>
       <c r="E204" s="2">
-        <v>0.85498619079589844</v>
+        <v>0.85478746891021729</v>
       </c>
     </row>
     <row r="205">
@@ -3557,13 +3557,13 @@
         <v>0.61038452386856079</v>
       </c>
       <c r="C205" s="2">
-        <v>0.2547568678855896</v>
+        <v>0.25363463163375855</v>
       </c>
       <c r="D205" s="2">
         <v>1.2258979082107544</v>
       </c>
       <c r="E205" s="2">
-        <v>1.05600905418396</v>
+        <v>1.0559871196746826</v>
       </c>
     </row>
     <row r="206">
@@ -3574,13 +3574,13 @@
         <v>1.7399770021438599</v>
       </c>
       <c r="C206" s="2">
-        <v>1.5257470607757568</v>
+        <v>1.5262925624847412</v>
       </c>
       <c r="D206" s="2">
         <v>1.3178203105926514</v>
       </c>
       <c r="E206" s="2">
-        <v>1.14045250415802</v>
+        <v>1.1402527093887329</v>
       </c>
     </row>
     <row r="207">
@@ -3591,13 +3591,13 @@
         <v>1.4711782932281494</v>
       </c>
       <c r="C207" s="2">
-        <v>1.29739248752594</v>
+        <v>1.2966784238815308</v>
       </c>
       <c r="D207" s="2">
         <v>1.3398036956787109</v>
       </c>
       <c r="E207" s="2">
-        <v>1.1724276542663574</v>
+        <v>1.1721843481063843</v>
       </c>
     </row>
     <row r="208">
@@ -3608,13 +3608,13 @@
         <v>1.5869923830032349</v>
       </c>
       <c r="C208" s="2">
-        <v>1.4552592039108276</v>
+        <v>1.4547117948532105</v>
       </c>
       <c r="D208" s="2">
         <v>1.4396834373474121</v>
       </c>
       <c r="E208" s="2">
-        <v>1.2601951360702515</v>
+        <v>1.259986162185669</v>
       </c>
     </row>
     <row r="209">
@@ -3625,13 +3625,13 @@
         <v>1.65035080909729</v>
       </c>
       <c r="C209" s="2">
-        <v>1.5877810716629028</v>
+        <v>1.5867547988891602</v>
       </c>
       <c r="D209" s="2">
         <v>1.5172851085662842</v>
       </c>
       <c r="E209" s="2">
-        <v>1.3658977746963501</v>
+        <v>1.3658071756362915</v>
       </c>
     </row>
     <row r="210">
@@ -3642,13 +3642,13 @@
         <v>1.6480953693389893</v>
       </c>
       <c r="C210" s="2">
-        <v>1.3941164016723633</v>
+        <v>1.3936817646026611</v>
       </c>
       <c r="D210" s="2">
         <v>1.6708520650863648</v>
       </c>
       <c r="E210" s="2">
-        <v>1.5554561614990234</v>
+        <v>1.555406928062439</v>
       </c>
     </row>
     <row r="211">
@@ -3659,13 +3659,13 @@
         <v>1.717876672744751</v>
       </c>
       <c r="C211" s="2">
-        <v>1.7224464416503906</v>
+        <v>1.7230155467987061</v>
       </c>
       <c r="D211" s="2">
         <v>1.6549568176269531</v>
       </c>
       <c r="E211" s="2">
-        <v>1.5526663064956665</v>
+        <v>1.5526798963546753</v>
       </c>
     </row>
     <row r="212">
@@ -3676,13 +3676,13 @@
         <v>1.6380329132080078</v>
       </c>
       <c r="C212" s="2">
-        <v>1.4284731149673462</v>
+        <v>1.4290515184402466</v>
       </c>
       <c r="D212" s="2">
         <v>1.5762641429901123</v>
       </c>
       <c r="E212" s="2">
-        <v>1.4753262996673584</v>
+        <v>1.4753439426422119</v>
       </c>
     </row>
     <row r="213">
@@ -3693,13 +3693,13 @@
         <v>1.592678427696228</v>
       </c>
       <c r="C213" s="2">
-        <v>1.6271073818206787</v>
+        <v>1.6284432411193848</v>
       </c>
       <c r="D213" s="2">
         <v>1.5485706329345703</v>
       </c>
       <c r="E213" s="2">
-        <v>1.4485304355621338</v>
+        <v>1.4484841823577881</v>
       </c>
     </row>
     <row r="214">
@@ -3710,13 +3710,13 @@
         <v>1.9924862384796143</v>
       </c>
       <c r="C214" s="2">
-        <v>1.9607821702957153</v>
+        <v>1.9600330591201782</v>
       </c>
       <c r="D214" s="2">
         <v>1.5151834487915039</v>
       </c>
       <c r="E214" s="2">
-        <v>1.4083342552185059</v>
+        <v>1.4084278345108032</v>
       </c>
     </row>
     <row r="215">
@@ -3727,13 +3727,13 @@
         <v>1.5969207286834717</v>
       </c>
       <c r="C215" s="2">
-        <v>1.5006389617919922</v>
+        <v>1.50174880027771</v>
       </c>
       <c r="D215" s="2">
         <v>1.4100573062896729</v>
       </c>
       <c r="E215" s="2">
-        <v>1.3206324577331543</v>
+        <v>1.3206131458282471</v>
       </c>
     </row>
     <row r="216">
@@ -3744,13 +3744,13 @@
         <v>0.7629433274269104</v>
       </c>
       <c r="C216" s="2">
-        <v>0.60133171081542969</v>
+        <v>0.60065537691116333</v>
       </c>
       <c r="D216" s="2">
         <v>1.4014599323272705</v>
       </c>
       <c r="E216" s="2">
-        <v>1.2874033451080322</v>
+        <v>1.2872872352600098</v>
       </c>
     </row>
     <row r="217">
@@ -3761,13 +3761,13 @@
         <v>1.3377507925033569</v>
       </c>
       <c r="C217" s="2">
-        <v>1.2140969038009644</v>
+        <v>1.2129740715026856</v>
       </c>
       <c r="D217" s="2">
         <v>1.4594326019287109</v>
       </c>
       <c r="E217" s="2">
-        <v>1.3455711603164673</v>
+        <v>1.3452926874160767</v>
       </c>
     </row>
     <row r="218">
@@ -3778,13 +3778,13 @@
         <v>1.3498668670654297</v>
       </c>
       <c r="C218" s="2">
-        <v>1.2260150909423828</v>
+        <v>1.2262475490570068</v>
       </c>
       <c r="D218" s="2">
         <v>1.3760491609573364</v>
       </c>
       <c r="E218" s="2">
-        <v>1.2526403665542603</v>
+        <v>1.2522244453430176</v>
       </c>
     </row>
     <row r="219">
@@ -3795,13 +3795,13 @@
         <v>0.70195966958999634</v>
       </c>
       <c r="C219" s="2">
-        <v>0.60480064153671265</v>
+        <v>0.60334861278533936</v>
       </c>
       <c r="D219" s="2">
         <v>1.2467386722564697</v>
       </c>
       <c r="E219" s="2">
-        <v>1.1652889251708984</v>
+        <v>1.164725661277771</v>
       </c>
     </row>
     <row r="220">
@@ -3812,13 +3812,13 @@
         <v>1.6405009031295776</v>
       </c>
       <c r="C220" s="2">
-        <v>1.4233838319778442</v>
+        <v>1.4230823516845703</v>
       </c>
       <c r="D220" s="2">
         <v>1.2592763900756836</v>
       </c>
       <c r="E220" s="2">
-        <v>1.1748315095901489</v>
+        <v>1.174140453338623</v>
       </c>
     </row>
     <row r="221">
@@ -3829,13 +3829,13 @@
         <v>2.1597869396209717</v>
       </c>
       <c r="C221" s="2">
-        <v>1.9519839286804199</v>
+        <v>1.951101541519165</v>
       </c>
       <c r="D221" s="2">
         <v>1.2806359529495239</v>
       </c>
       <c r="E221" s="2">
-        <v>1.205152153968811</v>
+        <v>1.2044222354888916</v>
       </c>
     </row>
     <row r="222">
@@ -3846,13 +3846,13 @@
         <v>0.84222668409347534</v>
       </c>
       <c r="C222" s="2">
-        <v>0.79073017835617065</v>
+        <v>0.7908281683921814</v>
       </c>
       <c r="D222" s="2">
         <v>1.3025666475296021</v>
       </c>
       <c r="E222" s="2">
-        <v>1.2214069366455078</v>
+        <v>1.2207263708114624</v>
       </c>
     </row>
     <row r="223">
@@ -3863,13 +3863,13 @@
         <v>0.82869219779968262</v>
       </c>
       <c r="C223" s="2">
-        <v>1.1746193170547485</v>
+        <v>1.1725443601608276</v>
       </c>
       <c r="D223" s="2">
         <v>1.3114937543869019</v>
       </c>
       <c r="E223" s="2">
-        <v>1.2357118129730225</v>
+        <v>1.2349770069122315</v>
       </c>
     </row>
     <row r="224">
@@ -3880,13 +3880,13 @@
         <v>1.709760308265686</v>
       </c>
       <c r="C224" s="2">
-        <v>1.5865216255187988</v>
+        <v>1.5864824056625366</v>
       </c>
       <c r="D224" s="2">
         <v>1.2868443727493286</v>
       </c>
       <c r="E224" s="2">
-        <v>1.2126108407974243</v>
+        <v>1.21202552318573</v>
       </c>
     </row>
     <row r="225">
@@ -3897,13 +3897,13 @@
         <v>0.95517957210540772</v>
       </c>
       <c r="C225" s="2">
-        <v>0.87421774864196777</v>
+        <v>0.87319129705429077</v>
       </c>
       <c r="D225" s="2">
         <v>1.3425217866897583</v>
       </c>
       <c r="E225" s="2">
-        <v>1.2798318862915039</v>
+        <v>1.2792655229568482</v>
       </c>
     </row>
     <row r="226">
@@ -3914,13 +3914,13 @@
         <v>1.5351262092590332</v>
       </c>
       <c r="C226" s="2">
-        <v>1.3603901863098145</v>
+        <v>1.3597105741500854</v>
       </c>
       <c r="D226" s="2">
         <v>1.2683688402175903</v>
       </c>
       <c r="E226" s="2">
-        <v>1.2054684162139893</v>
+        <v>1.2051271200180054</v>
       </c>
     </row>
     <row r="227">
@@ -3931,13 +3931,13 @@
         <v>1.4302109479904175</v>
       </c>
       <c r="C227" s="2">
-        <v>1.3547593355178833</v>
+        <v>1.3545039892196655</v>
       </c>
       <c r="D227" s="2">
         <v>1.4131536483764648</v>
       </c>
       <c r="E227" s="2">
-        <v>1.3539314270019531</v>
+        <v>1.3534929752349854</v>
       </c>
     </row>
     <row r="228">
@@ -3948,13 +3948,13 @@
         <v>0.48011556267738342</v>
       </c>
       <c r="C228" s="2">
-        <v>0.39689096808433533</v>
+        <v>0.39678502082824707</v>
       </c>
       <c r="D228" s="2">
         <v>1.4169635772705078</v>
       </c>
       <c r="E228" s="2">
-        <v>1.2882329225540161</v>
+        <v>1.2879879474639893</v>
       </c>
     </row>
     <row r="229">
@@ -3965,13 +3965,13 @@
         <v>2.1415979862213135</v>
       </c>
       <c r="C229" s="2">
-        <v>2.028374195098877</v>
+        <v>2.028242826461792</v>
       </c>
       <c r="D229" s="2">
         <v>1.3714867830276489</v>
       </c>
       <c r="E229" s="2">
-        <v>1.2095355987548828</v>
+        <v>1.2092212438583374</v>
       </c>
     </row>
     <row r="230">
@@ -3982,13 +3982,13 @@
         <v>1.4924100637435913</v>
       </c>
       <c r="C230" s="2">
-        <v>1.2827123403549194</v>
+        <v>1.2838553190231323</v>
       </c>
       <c r="D230" s="2">
         <v>1.3999699354171753</v>
       </c>
       <c r="E230" s="2">
-        <v>1.2472535371780396</v>
+        <v>1.2472707033157349</v>
       </c>
     </row>
     <row r="231">
@@ -3999,13 +3999,13 @@
         <v>2.1452901363372803</v>
       </c>
       <c r="C231" s="2">
-        <v>2.1268966197967529</v>
+        <v>2.1261205673217773</v>
       </c>
       <c r="D231" s="2">
         <v>1.3249143362045288</v>
       </c>
       <c r="E231" s="2">
-        <v>1.1677392721176147</v>
+        <v>1.1677775382995605</v>
       </c>
     </row>
     <row r="232">
@@ -4016,13 +4016,13 @@
         <v>0.86298137903213501</v>
       </c>
       <c r="C232" s="2">
-        <v>0.58333331346511841</v>
+        <v>0.5829998254776001</v>
       </c>
       <c r="D232" s="2">
         <v>1.2097835540771484</v>
       </c>
       <c r="E232" s="2">
-        <v>1.021620512008667</v>
+        <v>1.0216872692108154</v>
       </c>
     </row>
     <row r="233">
@@ -4033,13 +4033,13 @@
         <v>1.3004688024520874</v>
       </c>
       <c r="C233" s="2">
-        <v>0.87824583053588867</v>
+        <v>0.87758153676986694</v>
       </c>
       <c r="D233" s="2">
         <v>1.3219703435897827</v>
       </c>
       <c r="E233" s="2">
-        <v>1.0536528825759888</v>
+        <v>1.053568959236145</v>
       </c>
     </row>
     <row r="234">
@@ -4050,13 +4050,13 @@
         <v>1.2115287780761719</v>
       </c>
       <c r="C234" s="2">
-        <v>1.213679313659668</v>
+        <v>1.2156363725662232</v>
       </c>
       <c r="D234" s="2">
         <v>1.226536750793457</v>
       </c>
       <c r="E234" s="2">
-        <v>1.0038200616836548</v>
+        <v>1.0038883686065674</v>
       </c>
     </row>
     <row r="235">
@@ -4067,13 +4067,13 @@
         <v>0.85962575674057007</v>
       </c>
       <c r="C235" s="2">
-        <v>0.64476191997528076</v>
+        <v>0.64427274465560913</v>
       </c>
       <c r="D235" s="2">
         <v>1.2475858926773071</v>
       </c>
       <c r="E235" s="2">
-        <v>1.0395854711532593</v>
+        <v>1.0394785404205322</v>
       </c>
     </row>
     <row r="236">
@@ -4084,13 +4084,13 @@
         <v>0.39403358101844788</v>
       </c>
       <c r="C236" s="2">
-        <v>0.039690259844064713</v>
+        <v>0.039691369980573654</v>
       </c>
       <c r="D236" s="2">
         <v>1.1907250881195068</v>
       </c>
       <c r="E236" s="2">
-        <v>0.9578738808631897</v>
+        <v>0.95770502090454102</v>
       </c>
     </row>
     <row r="237">
@@ -4101,13 +4101,13 @@
         <v>1.4897962808609009</v>
       </c>
       <c r="C237" s="2">
-        <v>0.68518209457397461</v>
+        <v>0.68371981382369995</v>
       </c>
       <c r="D237" s="2">
         <v>1.2677416801452637</v>
       </c>
       <c r="E237" s="2">
-        <v>1.0478990077972412</v>
+        <v>1.0477883815765381</v>
       </c>
     </row>
     <row r="238">
@@ -4118,13 +4118,13 @@
         <v>1.2826958894729614</v>
       </c>
       <c r="C238" s="2">
-        <v>1.5798788070678711</v>
+        <v>1.5811173915863037</v>
       </c>
       <c r="D238" s="2">
         <v>1.1957470178604126</v>
       </c>
       <c r="E238" s="2">
-        <v>0.99938410520553589</v>
+        <v>0.9993283748626709</v>
       </c>
     </row>
     <row r="239">
@@ -4135,13 +4135,13 @@
         <v>1.6818523406982422</v>
       </c>
       <c r="C239" s="2">
-        <v>1.6046006679534912</v>
+        <v>1.6041668653488159</v>
       </c>
       <c r="D239" s="2">
         <v>1.1350691318511963</v>
       </c>
       <c r="E239" s="2">
-        <v>0.9207998514175415</v>
+        <v>0.92039602994918823</v>
       </c>
     </row>
     <row r="240">
@@ -4152,13 +4152,13 @@
         <v>1.6335426568984985</v>
       </c>
       <c r="C240" s="2">
-        <v>1.3914929628372192</v>
+        <v>1.3901594877243042</v>
       </c>
       <c r="D240" s="2">
         <v>1.1523436307907104</v>
       </c>
       <c r="E240" s="2">
-        <v>0.93632197380065918</v>
+        <v>0.93590611219406128</v>
       </c>
     </row>
     <row r="241">
@@ -4169,13 +4169,13 @@
         <v>1.5561305284500122</v>
       </c>
       <c r="C241" s="2">
-        <v>1.3935590982437134</v>
+        <v>1.3937503099441528</v>
       </c>
       <c r="D241" s="2">
         <v>1.2008846998214722</v>
       </c>
       <c r="E241" s="2">
-        <v>0.99990713596343994</v>
+        <v>0.99955016374588013</v>
       </c>
     </row>
     <row r="242">
@@ -4186,13 +4186,13 @@
         <v>0.65251767635345459</v>
       </c>
       <c r="C242" s="2">
-        <v>0.44161200523376465</v>
+        <v>0.44144085049629211</v>
       </c>
       <c r="D242" s="2">
         <v>1.0594527721405029</v>
       </c>
       <c r="E242" s="2">
-        <v>0.91241925954818726</v>
+        <v>0.91251802444458008</v>
       </c>
     </row>
     <row r="243">
@@ -4203,13 +4203,13 @@
         <v>0.66542726755142212</v>
       </c>
       <c r="C243" s="2">
-        <v>0.50642102956771851</v>
+        <v>0.50524526834487915</v>
       </c>
       <c r="D243" s="2">
         <v>0.9532167911529541</v>
       </c>
       <c r="E243" s="2">
-        <v>0.73559504747390747</v>
+        <v>0.73551082611083984</v>
       </c>
     </row>
     <row r="244">
@@ -4220,13 +4220,13 @@
         <v>1.0150959491729736</v>
       </c>
       <c r="C244" s="2">
-        <v>0.78446072340011597</v>
+        <v>0.78386348485946655</v>
       </c>
       <c r="D244" s="2">
         <v>0.92334574460983276</v>
       </c>
       <c r="E244" s="2">
-        <v>0.69181060791015625</v>
+        <v>0.69167965650558472</v>
       </c>
     </row>
     <row r="245">
@@ -4237,13 +4237,13 @@
         <v>0.83090418577194214</v>
       </c>
       <c r="C245" s="2">
-        <v>0.61195665597915649</v>
+        <v>0.61248791217803955</v>
       </c>
       <c r="D245" s="2">
         <v>0.82680964469909668</v>
       </c>
       <c r="E245" s="2">
-        <v>0.60152250528335571</v>
+        <v>0.60152208805084229</v>
       </c>
     </row>
     <row r="246">
@@ -4254,13 +4254,13 @@
         <v>0.21690866351127625</v>
       </c>
       <c r="C246" s="2">
-        <v>-0.10220879316329956</v>
+        <v>-0.099569462239742279</v>
       </c>
       <c r="D246" s="2">
         <v>0.69214910268783569</v>
       </c>
       <c r="E246" s="2">
-        <v>0.47610950469970703</v>
+        <v>0.47594928741455078</v>
       </c>
     </row>
     <row r="247">
@@ -4271,13 +4271,13 @@
         <v>0.32657158374786377</v>
       </c>
       <c r="C247" s="2">
-        <v>-0.011539185419678688</v>
+        <v>-0.011947222054004669</v>
       </c>
       <c r="D247" s="2">
         <v>0.65337765216827393</v>
       </c>
       <c r="E247" s="2">
-        <v>0.5068245530128479</v>
+        <v>0.50679367780685425</v>
       </c>
     </row>
     <row r="248">
@@ -4288,13 +4288,13 @@
         <v>1.4130131006240845</v>
       </c>
       <c r="C248" s="2">
-        <v>1.2105411291122437</v>
+        <v>1.209686279296875</v>
       </c>
       <c r="D248" s="2">
         <v>0.57381993532180786</v>
       </c>
       <c r="E248" s="2">
-        <v>0.43292522430419922</v>
+        <v>0.43304643034934998</v>
       </c>
     </row>
     <row r="249">
@@ -4305,13 +4305,13 @@
         <v>0.764717698097229</v>
       </c>
       <c r="C249" s="2">
-        <v>0.57889962196350098</v>
+        <v>0.57874143123626709</v>
       </c>
       <c r="D249" s="2">
         <v>0.60466235876083374</v>
       </c>
       <c r="E249" s="2">
-        <v>0.46025016903877258</v>
+        <v>0.46053892374038696</v>
       </c>
     </row>
     <row r="250">
@@ -4322,13 +4322,13 @@
         <v>0.34418559074401856</v>
       </c>
       <c r="C250" s="2">
-        <v>0.26484227180480957</v>
+        <v>0.26359504461288452</v>
       </c>
       <c r="D250" s="2">
         <v>0.58481937646865845</v>
       </c>
       <c r="E250" s="2">
-        <v>0.46849575638771057</v>
+        <v>0.46876430511474609</v>
       </c>
     </row>
     <row r="251">
@@ -4339,13 +4339,13 @@
         <v>0.30357509851455688</v>
       </c>
       <c r="C251" s="2">
-        <v>0.71804773807525635</v>
+        <v>0.71904027462005615</v>
       </c>
       <c r="D251" s="2">
         <v>0.60623729228973389</v>
       </c>
       <c r="E251" s="2">
-        <v>0.46858617663383484</v>
+        <v>0.46839430928230286</v>
       </c>
     </row>
     <row r="252">
@@ -4356,13 +4356,13 @@
         <v>-0.05059230700135231</v>
       </c>
       <c r="C252" s="2">
-        <v>-0.15867327153682709</v>
+        <v>-0.1584799736738205</v>
       </c>
       <c r="D252" s="2">
         <v>0.53157806396484375</v>
       </c>
       <c r="E252" s="2">
-        <v>0.38739696145057678</v>
+        <v>0.38715684413909912</v>
       </c>
     </row>
     <row r="253">
@@ -4373,13 +4373,13 @@
         <v>1.2926775217056275</v>
       </c>
       <c r="C253" s="2">
-        <v>1.0303853750228882</v>
+        <v>1.0312961339950562</v>
       </c>
       <c r="D253" s="2">
         <v>0.52091187238693237</v>
       </c>
       <c r="E253" s="2">
-        <v>0.38420957326889038</v>
+        <v>0.38407474756240845</v>
       </c>
     </row>
     <row r="254">
@@ -4390,13 +4390,13 @@
         <v>0.65231764316558838</v>
       </c>
       <c r="C254" s="2">
-        <v>0.68616682291030884</v>
+        <v>0.68651634454727173</v>
       </c>
       <c r="D254" s="2">
         <v>0.6122734546661377</v>
       </c>
       <c r="E254" s="2">
-        <v>0.46640476584434509</v>
+        <v>0.46619832515716553</v>
       </c>
     </row>
     <row r="255">
@@ -4407,13 +4407,13 @@
         <v>0.4096699059009552</v>
       </c>
       <c r="C255" s="2">
-        <v>-0.10139495879411697</v>
+        <v>-0.10289965569972992</v>
       </c>
       <c r="D255" s="2">
         <v>0.65969175100326538</v>
       </c>
       <c r="E255" s="2">
-        <v>0.51330024003982544</v>
+        <v>0.51304072141647339</v>
       </c>
     </row>
     <row r="256">
@@ -4424,13 +4424,13 @@
         <v>-0.34536159038543701</v>
       </c>
       <c r="C256" s="2">
-        <v>-0.74224215745925903</v>
+        <v>-0.74308419227600098</v>
       </c>
       <c r="D256" s="2">
         <v>0.67694485187530518</v>
       </c>
       <c r="E256" s="2">
-        <v>0.46567943692207336</v>
+        <v>0.46528297662734985</v>
       </c>
     </row>
     <row r="257">
@@ -4441,13 +4441,13 @@
         <v>1.3170170783996582</v>
       </c>
       <c r="C257" s="2">
-        <v>1.1818547248840332</v>
+        <v>1.1819473505020142</v>
       </c>
       <c r="D257" s="2">
         <v>0.81472593545913696</v>
       </c>
       <c r="E257" s="2">
-        <v>0.60821396112442017</v>
+        <v>0.60752451419830322</v>
       </c>
     </row>
     <row r="258">
@@ -4458,13 +4458,13 @@
         <v>1.5869721174240112</v>
       </c>
       <c r="C258" s="2">
-        <v>1.318656325340271</v>
+        <v>1.317853569984436</v>
       </c>
       <c r="D258" s="2">
         <v>0.78165441751480103</v>
       </c>
       <c r="E258" s="2">
-        <v>0.59280985593795776</v>
+        <v>0.59179574251174927</v>
       </c>
     </row>
     <row r="259">
@@ -4475,13 +4475,13 @@
         <v>0.7709500789642334</v>
       </c>
       <c r="C259" s="2">
-        <v>0.68690133094787598</v>
+        <v>0.68517684936523438</v>
       </c>
       <c r="D259" s="2">
         <v>0.8881373405456543</v>
       </c>
       <c r="E259" s="2">
-        <v>0.6275397539138794</v>
+        <v>0.62646687030792236</v>
       </c>
     </row>
     <row r="260">
@@ -4492,13 +4492,13 @@
         <v>0.45885300636291504</v>
       </c>
       <c r="C260" s="2">
-        <v>0.289460688829422</v>
+        <v>0.28922024369239807</v>
       </c>
       <c r="D260" s="2">
         <v>0.83569478988647461</v>
       </c>
       <c r="E260" s="2">
-        <v>0.61844474077224731</v>
+        <v>0.61731427907943726</v>
       </c>
     </row>
     <row r="261">
@@ -4509,13 +4509,13 @@
         <v>1.1894376277923584</v>
       </c>
       <c r="C261" s="2">
-        <v>1.1241376399993896</v>
+        <v>1.1216942071914673</v>
       </c>
       <c r="D261" s="2">
         <v>0.96169596910476685</v>
       </c>
       <c r="E261" s="2">
-        <v>0.76886403560638428</v>
+        <v>0.7675786018371582</v>
       </c>
     </row>
     <row r="262">
@@ -4526,13 +4526,13 @@
         <v>0.99503380060195923</v>
       </c>
       <c r="C262" s="2">
-        <v>0.89174830913543701</v>
+        <v>0.88973689079284668</v>
       </c>
       <c r="D262" s="2">
         <v>0.8937380313873291</v>
       </c>
       <c r="E262" s="2">
-        <v>0.72936558723449707</v>
+        <v>0.72809910774230957</v>
       </c>
     </row>
     <row r="263">
@@ -4543,13 +4543,13 @@
         <v>1.610663890838623</v>
       </c>
       <c r="C263" s="2">
-        <v>0.99873614311218262</v>
+        <v>0.99855661392211914</v>
       </c>
       <c r="D263" s="2">
         <v>0.73482543230056763</v>
       </c>
       <c r="E263" s="2">
-        <v>0.55718225240707398</v>
+        <v>0.5561637282371521</v>
       </c>
     </row>
     <row r="264">
@@ -4560,13 +4560,13 @@
         <v>-0.062313128262758255</v>
       </c>
       <c r="C264" s="2">
-        <v>-0.18325020372867584</v>
+        <v>-0.1852731853723526</v>
       </c>
       <c r="D264" s="2">
         <v>0.79958230257034302</v>
       </c>
       <c r="E264" s="2">
-        <v>0.62944626808166504</v>
+        <v>0.62857115268707275</v>
       </c>
     </row>
     <row r="265">
@@ -4577,13 +4577,13 @@
         <v>0.78864908218383789</v>
       </c>
       <c r="C265" s="2">
-        <v>0.61153149604797363</v>
+        <v>0.60929471254348755</v>
       </c>
       <c r="D265" s="2">
         <v>0.84459418058395386</v>
       </c>
       <c r="E265" s="2">
-        <v>0.64262831211090088</v>
+        <v>0.641681969165802</v>
       </c>
     </row>
     <row r="266">
@@ -4594,13 +4594,13 @@
         <v>0.70539605617523193</v>
       </c>
       <c r="C266" s="2">
-        <v>0.82636839151382446</v>
+        <v>0.82663220167160034</v>
       </c>
       <c r="D266" s="2">
         <v>0.79766225814819336</v>
       </c>
       <c r="E266" s="2">
-        <v>0.56425958871841431</v>
+        <v>0.56361019611358643</v>
       </c>
     </row>
     <row r="267">
@@ -4611,13 +4611,13 @@
         <v>0.15675865113735199</v>
       </c>
       <c r="C267" s="2">
-        <v>-0.23099331557750702</v>
+        <v>-0.2295650839805603</v>
       </c>
       <c r="D267" s="2">
         <v>0.81984817981719971</v>
       </c>
       <c r="E267" s="2">
-        <v>0.59259992837905884</v>
+        <v>0.59195774793624878</v>
       </c>
     </row>
     <row r="268">
@@ -4628,13 +4628,13 @@
         <v>1.3537617921829224</v>
       </c>
       <c r="C268" s="2">
-        <v>1.3372775316238403</v>
+        <v>1.3368439674377442</v>
       </c>
       <c r="D268" s="2">
         <v>0.65242928266525269</v>
       </c>
       <c r="E268" s="2">
-        <v>0.46665245294570923</v>
+        <v>0.46606793999671936</v>
       </c>
     </row>
     <row r="269">
@@ -4645,13 +4645,13 @@
         <v>0.8639596700668335</v>
       </c>
       <c r="C269" s="2">
-        <v>0.40809890627861023</v>
+        <v>0.40721762180328369</v>
       </c>
       <c r="D269" s="2">
         <v>0.79600381851196289</v>
       </c>
       <c r="E269" s="2">
-        <v>0.55780071020126343</v>
+        <v>0.55737191438674927</v>
       </c>
     </row>
     <row r="270">
@@ -4662,13 +4662,13 @@
         <v>0.76705074310302734</v>
       </c>
       <c r="C270" s="2">
-        <v>0.41881892085075379</v>
+        <v>0.4190477728843689</v>
       </c>
       <c r="D270" s="2">
         <v>0.85385382175445557</v>
       </c>
       <c r="E270" s="2">
-        <v>0.62011831998825073</v>
+        <v>0.61998558044433594</v>
       </c>
     </row>
     <row r="271">
@@ -4679,13 +4679,13 @@
         <v>1.1947067975997925</v>
       </c>
       <c r="C271" s="2">
-        <v>1.1468113660812378</v>
+        <v>1.1448650360107422</v>
       </c>
       <c r="D271" s="2">
         <v>0.93783879280090332</v>
       </c>
       <c r="E271" s="2">
-        <v>0.69967514276504517</v>
+        <v>0.69931715726852417</v>
       </c>
     </row>
     <row r="272">
@@ -4696,13 +4696,13 @@
         <v>0.10389363765716553</v>
       </c>
       <c r="C272" s="2">
-        <v>-0.13479098677635193</v>
+        <v>-0.13445162773132324</v>
       </c>
       <c r="D272" s="2">
         <v>1.095093846321106</v>
       </c>
       <c r="E272" s="2">
-        <v>0.87702208757400513</v>
+        <v>0.87648659944534302</v>
       </c>
     </row>
     <row r="273">
@@ -4713,13 +4713,13 @@
         <v>1.2298578023910523</v>
       </c>
       <c r="C273" s="2">
-        <v>0.63708418607711792</v>
+        <v>0.6364627480506897</v>
       </c>
       <c r="D273" s="2">
         <v>1.0210686922073364</v>
       </c>
       <c r="E273" s="2">
-        <v>0.76739025115966797</v>
+        <v>0.76692801713943481</v>
       </c>
     </row>
     <row r="274">
@@ -4730,13 +4730,13 @@
         <v>1.3092989921569824</v>
       </c>
       <c r="C274" s="2">
-        <v>1.1723898649215698</v>
+        <v>1.1728178262710571</v>
       </c>
       <c r="D274" s="2">
         <v>1.0837783813476563</v>
       </c>
       <c r="E274" s="2">
-        <v>0.87928187847137451</v>
+        <v>0.87889623641967773</v>
       </c>
     </row>
     <row r="275">
@@ -4747,13 +4747,13 @@
         <v>1.4612609148025513</v>
       </c>
       <c r="C275" s="2">
-        <v>1.5423798561096192</v>
+        <v>1.5406160354614258</v>
       </c>
       <c r="D275" s="2">
         <v>1.153179407119751</v>
       </c>
       <c r="E275" s="2">
-        <v>0.99641680717468262</v>
+        <v>0.99599289894104004</v>
       </c>
     </row>
     <row r="276">
@@ -4764,13 +4764,13 @@
         <v>1.5720547437667847</v>
       </c>
       <c r="C276" s="2">
-        <v>1.3651292324066162</v>
+        <v>1.3649601936340332</v>
       </c>
       <c r="D276" s="2">
         <v>1.0944944620132446</v>
       </c>
       <c r="E276" s="2">
-        <v>0.93475925922393799</v>
+        <v>0.9346088171005249</v>
       </c>
     </row>
     <row r="277">
@@ -4781,13 +4781,13 @@
         <v>0.68753510713577271</v>
       </c>
       <c r="C277" s="2">
-        <v>0.35059100389480591</v>
+        <v>0.3508167564868927</v>
       </c>
       <c r="D277" s="2">
         <v>1.1808677911758423</v>
       </c>
       <c r="E277" s="2">
-        <v>1.0462350845336914</v>
+        <v>1.0460402965545654</v>
       </c>
     </row>
     <row r="278">
@@ -4798,13 +4798,13 @@
         <v>1.4283463954925537</v>
       </c>
       <c r="C278" s="2">
-        <v>1.415123462677002</v>
+        <v>1.4149316549301147</v>
       </c>
       <c r="D278" s="2">
         <v>1.1904867887496948</v>
       </c>
       <c r="E278" s="2">
-        <v>1.1162090301513672</v>
+        <v>1.1161168813705444</v>
       </c>
     </row>
     <row r="279">
@@ -4815,13 +4815,13 @@
         <v>1.3916599750518799</v>
       </c>
       <c r="C279" s="2">
-        <v>1.4730331897735596</v>
+        <v>1.4729171991348267</v>
       </c>
       <c r="D279" s="2">
         <v>1.1723114252090454</v>
       </c>
       <c r="E279" s="2">
-        <v>1.1023461818695068</v>
+        <v>1.1022213697433472</v>
       </c>
     </row>
     <row r="280">
@@ -4832,13 +4832,13 @@
         <v>0.66654276847839356</v>
       </c>
       <c r="C280" s="2">
-        <v>0.59189355373382568</v>
+        <v>0.59240883588790894</v>
       </c>
       <c r="D280" s="2">
         <v>1.0741112232208252</v>
       </c>
       <c r="E280" s="2">
-        <v>0.99954140186309814</v>
+        <v>0.99966889619827271</v>
       </c>
     </row>
     <row r="281">
@@ -4849,13 +4849,13 @@
         <v>0.88125371932983398</v>
       </c>
       <c r="C281" s="2">
-        <v>0.86849164962768555</v>
+        <v>0.8684309720993042</v>
       </c>
       <c r="D281" s="2">
         <v>0.90581309795379639</v>
       </c>
       <c r="E281" s="2">
-        <v>0.84475034475326538</v>
+        <v>0.84489166736602783</v>
       </c>
     </row>
     <row r="282">
@@ -4866,13 +4866,13 @@
         <v>1.3164287805557251</v>
       </c>
       <c r="C282" s="2">
-        <v>1.2668493986129761</v>
+        <v>1.2671527862548828</v>
       </c>
       <c r="D282" s="2">
         <v>0.85196346044540405</v>
       </c>
       <c r="E282" s="2">
-        <v>0.7974424958229065</v>
+        <v>0.797740638256073</v>
       </c>
     </row>
     <row r="283">
@@ -4883,13 +4883,13 @@
         <v>1.1457201242446899</v>
       </c>
       <c r="C283" s="2">
-        <v>1.047623872756958</v>
+        <v>1.0477583408355713</v>
       </c>
       <c r="D283" s="2">
         <v>0.66075843572616577</v>
       </c>
       <c r="E283" s="2">
-        <v>0.62314301729202271</v>
+        <v>0.62339311838150025</v>
       </c>
     </row>
     <row r="284">
@@ -4900,13 +4900,13 @@
         <v>0.57745933532714844</v>
       </c>
       <c r="C284" s="2">
-        <v>0.61713749170303345</v>
+        <v>0.61764347553253174</v>
       </c>
       <c r="D284" s="2">
         <v>0.48775473237037659</v>
       </c>
       <c r="E284" s="2">
-        <v>0.43107125163078308</v>
+        <v>0.43120786547660828</v>
       </c>
     </row>
     <row r="285">
@@ -4917,13 +4917,13 @@
         <v>0.057371422648429871</v>
       </c>
       <c r="C285" s="2">
-        <v>-0.027990486472845078</v>
+        <v>-0.028034934774041176</v>
       </c>
       <c r="D285" s="2">
         <v>0.38621607422828674</v>
       </c>
       <c r="E285" s="2">
-        <v>0.32318016886711121</v>
+        <v>0.323233962059021</v>
       </c>
     </row>
     <row r="286">
@@ -4934,13 +4934,13 @@
         <v>0.20288874208927155</v>
       </c>
       <c r="C286" s="2">
-        <v>-0.075179517269134521</v>
+        <v>-0.073542438447475433</v>
       </c>
       <c r="D286" s="2">
         <v>0.33505240082740784</v>
       </c>
       <c r="E286" s="2">
-        <v>0.25962528586387634</v>
+        <v>0.25954434275627136</v>
       </c>
     </row>
     <row r="287">
@@ -4951,13 +4951,13 @@
         <v>-0.29249900579452515</v>
       </c>
       <c r="C287" s="2">
-        <v>-0.15357224643230438</v>
+        <v>-0.15419593453407288</v>
       </c>
       <c r="D287" s="2">
         <v>0.17591078579425812</v>
       </c>
       <c r="E287" s="2">
-        <v>0.095712214708328247</v>
+        <v>0.095535703003406525</v>
       </c>
     </row>
     <row r="288">
@@ -4968,13 +4968,13 @@
         <v>-0.16537320613861084</v>
       </c>
       <c r="C288" s="2">
-        <v>-0.25561249256134033</v>
+        <v>-0.2567501962184906</v>
       </c>
       <c r="D288" s="2">
         <v>0.15010015666484833</v>
       </c>
       <c r="E288" s="2">
-        <v>0.12034253776073456</v>
+        <v>0.12007852643728256</v>
       </c>
     </row>
     <row r="289">
@@ -4985,13 +4985,13 @@
         <v>-0.24730530381202698</v>
       </c>
       <c r="C289" s="2">
-        <v>-0.37912622094154358</v>
+        <v>-0.37935647368431091</v>
       </c>
       <c r="D289" s="2">
         <v>0.027002451941370964</v>
       </c>
       <c r="E289" s="2">
-        <v>0.17225663363933563</v>
+        <v>0.1717907041311264</v>
       </c>
     </row>
     <row r="290">
@@ -5002,13 +5002,13 @@
         <v>0.42078080773353577</v>
       </c>
       <c r="C290" s="2">
-        <v>0.29649770259857178</v>
+        <v>0.29522436857223511</v>
       </c>
       <c r="D290" s="2">
         <v>0.18852995336055756</v>
       </c>
       <c r="E290" s="2">
-        <v>0.32426479458808899</v>
+        <v>0.32371896505355835</v>
       </c>
     </row>
     <row r="291">
@@ -5019,13 +5019,13 @@
         <v>-0.11584587395191193</v>
       </c>
       <c r="C291" s="2">
-        <v>-0.20836816728115082</v>
+        <v>-0.20892488956451416</v>
       </c>
       <c r="D291" s="2">
         <v>0.20439910888671875</v>
       </c>
       <c r="E291" s="2">
-        <v>0.37291938066482544</v>
+        <v>0.37212261557579041</v>
       </c>
     </row>
     <row r="292">
@@ -5036,13 +5036,13 @@
         <v>0.91342443227767944</v>
       </c>
       <c r="C292" s="2">
-        <v>1.2692967653274536</v>
+        <v>1.2686437368392944</v>
       </c>
       <c r="D292" s="2">
         <v>0.26482987403869629</v>
       </c>
       <c r="E292" s="2">
-        <v>0.39623695611953735</v>
+        <v>0.39545610547065735</v>
       </c>
     </row>
     <row r="293">
@@ -5053,13 +5053,13 @@
         <v>-0.53041994571685791</v>
       </c>
       <c r="C293" s="2">
-        <v>1.0843644142150879</v>
+        <v>1.0830531120300293</v>
       </c>
       <c r="D293" s="2">
         <v>0.30223485827445984</v>
       </c>
       <c r="E293" s="2">
-        <v>0.46615695953369141</v>
+        <v>0.46539297699928284</v>
       </c>
     </row>
     <row r="294">
@@ -5070,13 +5070,13 @@
         <v>1.5111188888549805</v>
       </c>
       <c r="C294" s="2">
-        <v>1.3400828838348389</v>
+        <v>1.3393194675445557</v>
       </c>
       <c r="D294" s="2">
         <v>0.37474364042282105</v>
       </c>
       <c r="E294" s="2">
-        <v>0.56081658601760864</v>
+        <v>0.56005179882049561</v>
       </c>
     </row>
     <row r="295">
@@ -5087,13 +5087,13 @@
         <v>0.34571120142936707</v>
       </c>
       <c r="C295" s="2">
-        <v>0.36271190643310547</v>
+        <v>0.36209025979042053</v>
       </c>
       <c r="D295" s="2">
         <v>0.2809697687625885</v>
       </c>
       <c r="E295" s="2">
-        <v>0.45907419919967651</v>
+        <v>0.45844238996505737</v>
       </c>
     </row>
     <row r="296">
@@ -5104,13 +5104,13 @@
         <v>0.25137794017791748</v>
       </c>
       <c r="C296" s="2">
-        <v>0.05628594383597374</v>
+        <v>0.05580553412437439</v>
       </c>
       <c r="D296" s="2">
         <v>0.33217516541481018</v>
       </c>
       <c r="E296" s="2">
-        <v>0.50068241357803345</v>
+        <v>0.50003927946090698</v>
       </c>
     </row>
     <row r="297">
@@ -5121,13 +5121,13 @@
         <v>0.17127160727977753</v>
       </c>
       <c r="C297" s="2">
-        <v>0.37366732954978943</v>
+        <v>0.37268167734146118</v>
       </c>
       <c r="D297" s="2">
         <v>0.20555849373340607</v>
       </c>
       <c r="E297" s="2">
-        <v>0.33314952254295349</v>
+        <v>0.33252513408660889</v>
       </c>
     </row>
     <row r="298">
@@ -5138,13 +5138,13 @@
         <v>0.40527382493019104</v>
       </c>
       <c r="C298" s="2">
-        <v>0.47281041741371155</v>
+        <v>0.4725726842880249</v>
       </c>
       <c r="D298" s="2">
         <v>0.31881454586982727</v>
       </c>
       <c r="E298" s="2">
-        <v>0.24431262910366058</v>
+        <v>0.2438209056854248</v>
       </c>
     </row>
     <row r="299">
@@ -5155,13 +5155,13 @@
         <v>-0.42318412661552429</v>
       </c>
       <c r="C299" s="2">
-        <v>-0.61918371915817261</v>
+        <v>-0.61925995349884033</v>
       </c>
       <c r="D299" s="2">
         <v>0.16016641259193421</v>
       </c>
       <c r="E299" s="2">
-        <v>0.10613970458507538</v>
+        <v>0.10563225299119949</v>
       </c>
     </row>
     <row r="300">
@@ -5172,13 +5172,13 @@
         <v>0.34500259160995483</v>
       </c>
       <c r="C300" s="2">
-        <v>0.16610580682754517</v>
+        <v>0.16544690728187561</v>
       </c>
       <c r="D300" s="2">
         <v>0.19310443103313446</v>
       </c>
       <c r="E300" s="2">
-        <v>0.14643675088882446</v>
+        <v>0.14595247805118561</v>
       </c>
     </row>
     <row r="301">
@@ -5189,13 +5189,13 @@
         <v>-0.22612559795379639</v>
       </c>
       <c r="C301" s="2">
-        <v>-0.2384992390871048</v>
+        <v>-0.2389834076166153</v>
       </c>
       <c r="D301" s="2">
         <v>0.18243901431560516</v>
       </c>
       <c r="E301" s="2">
-        <v>0.1426185667514801</v>
+        <v>0.14219778776168823</v>
       </c>
     </row>
     <row r="302">
@@ -5206,13 +5206,13 @@
         <v>0.48888462781906128</v>
       </c>
       <c r="C302" s="2">
-        <v>0.28483238816261292</v>
+        <v>0.28471499681472778</v>
       </c>
       <c r="D302" s="2">
         <v>0.26868537068367004</v>
       </c>
       <c r="E302" s="2">
-        <v>0.19027800858020783</v>
+        <v>0.18982663750648499</v>
       </c>
     </row>
     <row r="303">
@@ -5223,13 +5223,13 @@
         <v>0.083285599946975708</v>
       </c>
       <c r="C303" s="2">
-        <v>0.09652651846408844</v>
+        <v>0.095621563494205475</v>
       </c>
       <c r="D303" s="2">
         <v>0.32962670922279358</v>
       </c>
       <c r="E303" s="2">
-        <v>0.22937868535518646</v>
+        <v>0.2290114164352417</v>
       </c>
     </row>
     <row r="304">
@@ -5240,13 +5240,13 @@
         <v>0.64215344190597534</v>
       </c>
       <c r="C304" s="2">
-        <v>0.72538524866104126</v>
+        <v>0.72497224807739258</v>
       </c>
       <c r="D304" s="2">
         <v>0.36689767241477966</v>
       </c>
       <c r="E304" s="2">
-        <v>0.26822382211685181</v>
+        <v>0.26788771152496338</v>
       </c>
     </row>
     <row r="305">
@@ -5257,13 +5257,13 @@
         <v>0.155389204621315</v>
       </c>
       <c r="C305" s="2">
-        <v>0.021922409534454346</v>
+        <v>0.022013435140252113</v>
       </c>
       <c r="D305" s="2">
         <v>0.36518284678459168</v>
       </c>
       <c r="E305" s="2">
-        <v>0.28050267696380615</v>
+        <v>0.28035059571266174</v>
       </c>
     </row>
     <row r="306">
@@ -5274,13 +5274,13 @@
         <v>0.94748872518539429</v>
       </c>
       <c r="C306" s="2">
-        <v>0.80260223150253296</v>
+        <v>0.80134129524230957</v>
       </c>
       <c r="D306" s="2">
         <v>0.45017626881599426</v>
       </c>
       <c r="E306" s="2">
-        <v>0.35709676146507263</v>
+        <v>0.35671511292457581</v>
       </c>
     </row>
     <row r="307">
@@ -5291,13 +5291,13 @@
         <v>0.95374596118927002</v>
       </c>
       <c r="C307" s="2">
-        <v>0.82471650838851929</v>
+        <v>0.82523560523986816</v>
       </c>
       <c r="D307" s="2">
         <v>0.45430102944374085</v>
       </c>
       <c r="E307" s="2">
-        <v>0.37401658296585083</v>
+        <v>0.37368199229240417</v>
       </c>
     </row>
     <row r="308">
@@ -5308,13 +5308,13 @@
         <v>-0.087745524942874908</v>
       </c>
       <c r="C308" s="2">
-        <v>-0.26957756280899048</v>
+        <v>-0.26937314867973328</v>
       </c>
       <c r="D308" s="2">
         <v>0.53140485286712646</v>
       </c>
       <c r="E308" s="2">
-        <v>0.44786104559898376</v>
+        <v>0.44749605655670166</v>
       </c>
     </row>
     <row r="309">
@@ -5325,13 +5325,13 @@
         <v>0.32956916093826294</v>
       </c>
       <c r="C309" s="2">
-        <v>0.27661550045013428</v>
+        <v>0.27761289477348328</v>
       </c>
       <c r="D309" s="2">
         <v>0.51833826303482056</v>
       </c>
       <c r="E309" s="2">
-        <v>0.44488999247550964</v>
+        <v>0.44452905654907227</v>
       </c>
     </row>
     <row r="310">
@@ -5342,13 +5342,13 @@
         <v>0.53881531953811646</v>
       </c>
       <c r="C310" s="2">
-        <v>0.45084753632545471</v>
+        <v>0.4482971727848053</v>
       </c>
       <c r="D310" s="2">
         <v>0.47942626476287842</v>
       </c>
       <c r="E310" s="2">
-        <v>0.40609884262084961</v>
+        <v>0.40563622117042542</v>
       </c>
     </row>
     <row r="311">
@@ -5359,13 +5359,13 @@
         <v>0.52600741386413574</v>
       </c>
       <c r="C311" s="2">
-        <v>0.4371107816696167</v>
+        <v>0.43741688132286072</v>
       </c>
       <c r="D311" s="2">
         <v>0.51304388046264648</v>
       </c>
       <c r="E311" s="2">
-        <v>0.42700845003128052</v>
+        <v>0.42673417925834656</v>
       </c>
     </row>
     <row r="312">
@@ -5376,13 +5376,13 @@
         <v>0.77722018957138062</v>
       </c>
       <c r="C312" s="2">
-        <v>0.7611268162727356</v>
+        <v>0.7599480152130127</v>
       </c>
       <c r="D312" s="2">
         <v>0.52808350324630737</v>
       </c>
       <c r="E312" s="2">
-        <v>0.44466507434844971</v>
+        <v>0.44421020150184631</v>
       </c>
     </row>
     <row r="313">
@@ -5393,13 +5393,13 @@
         <v>0.52455389499664307</v>
       </c>
       <c r="C313" s="2">
-        <v>0.69864583015441895</v>
+        <v>0.6982693076133728</v>
       </c>
       <c r="D313" s="2">
         <v>0.66772037744522095</v>
       </c>
       <c r="E313" s="2">
-        <v>0.60511875152587891</v>
+        <v>0.60473793745040894</v>
       </c>
     </row>
     <row r="314">
@@ -5410,13 +5410,13 @@
         <v>-0.19481883943080902</v>
       </c>
       <c r="C314" s="2">
-        <v>-0.32719805836677551</v>
+        <v>-0.3280220627784729</v>
       </c>
       <c r="D314" s="2">
         <v>0.7510601282119751</v>
       </c>
       <c r="E314" s="2">
-        <v>0.67671328783035278</v>
+        <v>0.67615675926208496</v>
       </c>
     </row>
     <row r="315">
@@ -5427,13 +5427,13 @@
         <v>1.2500473260879517</v>
       </c>
       <c r="C315" s="2">
-        <v>0.99078875780105591</v>
+        <v>0.9912230372428894</v>
       </c>
       <c r="D315" s="2">
         <v>0.71953278779983521</v>
       </c>
       <c r="E315" s="2">
-        <v>0.63957309722900391</v>
+        <v>0.63926404714584351</v>
       </c>
     </row>
     <row r="316">
@@ -5444,13 +5444,13 @@
         <v>1.0891025066375733</v>
       </c>
       <c r="C316" s="2">
-        <v>0.98362618684768677</v>
+        <v>0.98251962661743164</v>
       </c>
       <c r="D316" s="2">
         <v>0.77530133724212646</v>
       </c>
       <c r="E316" s="2">
-        <v>0.69235390424728394</v>
+        <v>0.69192665815353394</v>
       </c>
     </row>
     <row r="317">
@@ -5461,13 +5461,13 @@
         <v>1.1689862012863159</v>
       </c>
       <c r="C317" s="2">
-        <v>1.1745054721832275</v>
+        <v>1.1753764152526856</v>
       </c>
       <c r="D317" s="2">
         <v>0.65982580184936524</v>
       </c>
       <c r="E317" s="2">
-        <v>0.58969277143478394</v>
+        <v>0.58936357498168945</v>
       </c>
     </row>
     <row r="318">
@@ -5478,13 +5478,13 @@
         <v>1.0796271562576294</v>
       </c>
       <c r="C318" s="2">
-        <v>0.92096602916717529</v>
+        <v>0.92038261890411377</v>
       </c>
       <c r="D318" s="2">
         <v>0.67685574293136597</v>
       </c>
       <c r="E318" s="2">
-        <v>0.59711629152297974</v>
+        <v>0.59689462184906006</v>
       </c>
     </row>
     <row r="319">
@@ -5495,13 +5495,13 @@
         <v>0.25506904721260071</v>
       </c>
       <c r="C319" s="2">
-        <v>0.1165858656167984</v>
+        <v>0.11626275628805161</v>
       </c>
       <c r="D319" s="2">
         <v>0.76814621686935425</v>
       </c>
       <c r="E319" s="2">
-        <v>0.69080030918121338</v>
+        <v>0.69064986705780029</v>
       </c>
     </row>
     <row r="320">
@@ -5512,13 +5512,13 @@
         <v>1.0279244184494019</v>
       </c>
       <c r="C320" s="2">
-        <v>0.91213834285736084</v>
+        <v>0.91138005256652832</v>
       </c>
       <c r="D320" s="2">
         <v>0.77619993686676025</v>
       </c>
       <c r="E320" s="2">
-        <v>0.71544444561004639</v>
+        <v>0.7152366042137146</v>
       </c>
     </row>
     <row r="321">
@@ -5529,13 +5529,13 @@
         <v>-0.26205968856811523</v>
       </c>
       <c r="C321" s="2">
-        <v>-0.16282373666763306</v>
+        <v>-0.16311945021152496</v>
       </c>
       <c r="D321" s="2">
         <v>0.75808358192443848</v>
       </c>
       <c r="E321" s="2">
-        <v>0.68131119012832642</v>
+        <v>0.68114513158798218</v>
       </c>
     </row>
     <row r="322">
@@ -5546,13 +5546,13 @@
         <v>0.67782378196716309</v>
       </c>
       <c r="C322" s="2">
-        <v>0.76545792818069458</v>
+        <v>0.76604878902435303</v>
       </c>
       <c r="D322" s="2">
         <v>0.63281553983688355</v>
       </c>
       <c r="E322" s="2">
-        <v>0.62446945905685425</v>
+        <v>0.62407010793685913</v>
       </c>
     </row>
     <row r="323">
@@ -5563,13 +5563,13 @@
         <v>0.62679529190063477</v>
       </c>
       <c r="C323" s="2">
-        <v>0.51595813035964966</v>
+        <v>0.51577502489089966</v>
       </c>
       <c r="D323" s="2">
         <v>0.59207838773727417</v>
       </c>
       <c r="E323" s="2">
-        <v>0.58796930313110352</v>
+        <v>0.58747714757919312</v>
       </c>
     </row>
     <row r="324">
@@ -5580,13 +5580,13 @@
         <v>1.32253098487854</v>
       </c>
       <c r="C324" s="2">
-        <v>1.2125859260559082</v>
+        <v>1.2125035524368286</v>
       </c>
       <c r="D324" s="2">
         <v>0.67519795894622803</v>
       </c>
       <c r="E324" s="2">
-        <v>0.67930150032043457</v>
+        <v>0.67868000268936157</v>
       </c>
     </row>
     <row r="325">
@@ -5597,13 +5597,13 @@
         <v>0.92605489492416382</v>
       </c>
       <c r="C325" s="2">
-        <v>0.67642700672149658</v>
+        <v>0.67569655179977417</v>
       </c>
       <c r="D325" s="2">
         <v>0.66264694929122925</v>
       </c>
       <c r="E325" s="2">
-        <v>0.66945499181747437</v>
+        <v>0.66875243186950684</v>
       </c>
     </row>
     <row r="326">
@@ -5614,13 +5614,13 @@
         <v>0.041573919355869293</v>
       </c>
       <c r="C326" s="2">
-        <v>0.66292977333068848</v>
+        <v>0.66170084476470947</v>
       </c>
       <c r="D326" s="2">
         <v>0.77779829502105713</v>
       </c>
       <c r="E326" s="2">
-        <v>0.76981765031814575</v>
+        <v>0.76909506320953369</v>
       </c>
     </row>
     <row r="327">
@@ -5631,13 +5631,13 @@
         <v>0.71299290657043457</v>
       </c>
       <c r="C327" s="2">
-        <v>0.59246450662612915</v>
+        <v>0.59104615449905396</v>
       </c>
       <c r="D327" s="2">
         <v>0.8151770830154419</v>
       </c>
       <c r="E327" s="2">
-        <v>0.7845032811164856</v>
+        <v>0.7836536169052124</v>
       </c>
     </row>
     <row r="328">
@@ -5648,13 +5648,13 @@
         <v>1.0031448602676392</v>
       </c>
       <c r="C328" s="2">
-        <v>0.9385758638381958</v>
+        <v>0.93708831071853638</v>
       </c>
       <c r="D328" s="2">
         <v>0.82355225086212158</v>
       </c>
       <c r="E328" s="2">
-        <v>0.78895080089569092</v>
+        <v>0.78811103105545044</v>
       </c>
     </row>
     <row r="329">
@@ -5665,13 +5665,13 @@
         <v>0.91496580839157105</v>
       </c>
       <c r="C329" s="2">
-        <v>0.82351934909820557</v>
+        <v>0.82203221321105957</v>
       </c>
       <c r="D329" s="2">
         <v>0.67846149206161499</v>
       </c>
       <c r="E329" s="2">
-        <v>0.7090606689453125</v>
+        <v>0.70807647705078125</v>
       </c>
     </row>
     <row r="330">
@@ -5682,13 +5682,13 @@
         <v>0.77430212497711182</v>
       </c>
       <c r="C330" s="2">
-        <v>0.74044018983840942</v>
+        <v>0.73996424674987793</v>
       </c>
       <c r="D330" s="2">
         <v>0.67702919244766235</v>
       </c>
       <c r="E330" s="2">
-        <v>0.73364228010177612</v>
+        <v>0.73271751403808594</v>
       </c>
     </row>
     <row r="331">
@@ -5699,13 +5699,13 @@
         <v>1.0142329931259155</v>
       </c>
       <c r="C331" s="2">
-        <v>0.89762884378433228</v>
+        <v>0.89707571268081665</v>
       </c>
       <c r="D331" s="2">
         <v>0.73002344369888306</v>
       </c>
       <c r="E331" s="2">
-        <v>0.75080442428588867</v>
+        <v>0.75003278255462646</v>
       </c>
     </row>
     <row r="332">
@@ -5716,13 +5716,13 @@
         <v>0.70217156410217285</v>
       </c>
       <c r="C332" s="2">
-        <v>0.55598598718643188</v>
+        <v>0.55589169263839722</v>
       </c>
       <c r="D332" s="2">
         <v>0.77954214811325073</v>
       </c>
       <c r="E332" s="2">
-        <v>0.82183438539505005</v>
+        <v>0.82114708423614502</v>
       </c>
     </row>
     <row r="333">
@@ -5733,13 +5733,13 @@
         <v>0.016714487224817276</v>
       </c>
       <c r="C333" s="2">
-        <v>0.4935743510723114</v>
+        <v>0.49219232797622681</v>
       </c>
       <c r="D333" s="2">
         <v>0.76825737953186035</v>
       </c>
       <c r="E333" s="2">
-        <v>0.81911134719848633</v>
+        <v>0.81859385967254639</v>
       </c>
     </row>
     <row r="334">
@@ -5750,13 +5750,13 @@
         <v>0.91316384077072144</v>
       </c>
       <c r="C334" s="2">
-        <v>0.89766180515289307</v>
+        <v>0.89746618270874023</v>
       </c>
       <c r="D334" s="2">
         <v>0.65262711048126221</v>
       </c>
       <c r="E334" s="2">
-        <v>0.6913672685623169</v>
+        <v>0.69074898958206177</v>
       </c>
     </row>
     <row r="335">
@@ -5767,13 +5767,13 @@
         <v>0.51852226257324219</v>
       </c>
       <c r="C335" s="2">
-        <v>0.81738889217376709</v>
+        <v>0.81753802299499512</v>
       </c>
       <c r="D335" s="2">
         <v>0.69968503713607788</v>
       </c>
       <c r="E335" s="2">
-        <v>0.70993691682815552</v>
+        <v>0.70921611785888672</v>
       </c>
     </row>
     <row r="336">
@@ -5784,13 +5784,13 @@
         <v>1.1586616039276123</v>
       </c>
       <c r="C336" s="2">
-        <v>1.2317342758178711</v>
+        <v>1.2310749292373657</v>
       </c>
       <c r="D336" s="2">
         <v>0.73506635427474976</v>
       </c>
       <c r="E336" s="2">
-        <v>0.76350909471511841</v>
+        <v>0.76281064748764038</v>
       </c>
     </row>
     <row r="337">
@@ -5801,13 +5801,13 @@
         <v>0.90158188343048096</v>
       </c>
       <c r="C337" s="2">
-        <v>0.91406857967376709</v>
+        <v>0.91410946846008301</v>
       </c>
       <c r="D337" s="2">
         <v>0.77695095539093018</v>
       </c>
       <c r="E337" s="2">
-        <v>0.79749763011932373</v>
+        <v>0.79672145843505859</v>
       </c>
     </row>
     <row r="338">
@@ -5818,13 +5818,13 @@
         <v>-0.12570691108703613</v>
       </c>
       <c r="C338" s="2">
-        <v>-0.32617777585983276</v>
+        <v>-0.32857173681259155</v>
       </c>
       <c r="D338" s="2">
         <v>0.86762511730194092</v>
       </c>
       <c r="E338" s="2">
-        <v>0.84581214189529419</v>
+        <v>0.84517812728881836</v>
       </c>
     </row>
     <row r="339">
@@ -5835,13 +5835,13 @@
         <v>1.1978235244750977</v>
       </c>
       <c r="C339" s="2">
-        <v>0.90756720304489136</v>
+        <v>0.90616840124130249</v>
       </c>
       <c r="D339" s="2">
         <v>0.82790964841842651</v>
       </c>
       <c r="E339" s="2">
-        <v>0.79953998327255249</v>
+        <v>0.79896527528762817</v>
       </c>
     </row>
     <row r="340">
@@ -5852,13 +5852,13 @@
         <v>1.3326648473739624</v>
       </c>
       <c r="C340" s="2">
-        <v>1.3797787427902222</v>
+        <v>1.3794265985488892</v>
       </c>
       <c r="D340" s="2">
         <v>0.87409299612045288</v>
       </c>
       <c r="E340" s="2">
-        <v>0.85506683588027954</v>
+        <v>0.85442036390304565</v>
       </c>
     </row>
     <row r="341">
@@ -5869,13 +5869,13 @@
         <v>1.079133152961731</v>
       </c>
       <c r="C341" s="2">
-        <v>0.86188232898712158</v>
+        <v>0.86108916997909546</v>
       </c>
       <c r="D341" s="2">
         <v>0.80900168418884277</v>
       </c>
       <c r="E341" s="2">
-        <v>0.76048743724822998</v>
+        <v>0.75985223054885864</v>
       </c>
     </row>
     <row r="342">
@@ -5886,13 +5886,13 @@
         <v>0.83278191089630127</v>
       </c>
       <c r="C342" s="2">
-        <v>0.92840510606765747</v>
+        <v>0.92830228805541992</v>
       </c>
       <c r="D342" s="2">
         <v>0.81848651170730591</v>
       </c>
       <c r="E342" s="2">
-        <v>0.71546435356140137</v>
+        <v>0.71464169025421143</v>
       </c>
     </row>
     <row r="343">
@@ -5903,13 +5903,13 @@
         <v>0.5557246208190918</v>
       </c>
       <c r="C343" s="2">
-        <v>0.48121267557144165</v>
+        <v>0.48155045509338379</v>
       </c>
       <c r="D343" s="2">
         <v>0.96024250984191895</v>
       </c>
       <c r="E343" s="2">
-        <v>0.87249308824539185</v>
+        <v>0.87178462743759155</v>
       </c>
     </row>
     <row r="344">
@@ -5920,13 +5920,13 @@
         <v>0.93417239189147949</v>
       </c>
       <c r="C344" s="2">
-        <v>1.3171305656433106</v>
+        <v>1.316633939743042</v>
       </c>
       <c r="D344" s="2">
         <v>0.83412224054336548</v>
       </c>
       <c r="E344" s="2">
-        <v>0.78839987516403198</v>
+        <v>0.78780180215835571</v>
       </c>
     </row>
     <row r="345">
@@ -5937,13 +5937,13 @@
         <v>0.57283961772918701</v>
       </c>
       <c r="C345" s="2">
-        <v>0.3805193305015564</v>
+        <v>0.37996149063110352</v>
       </c>
       <c r="D345" s="2">
         <v>0.82078951597213745</v>
       </c>
       <c r="E345" s="2">
-        <v>0.75782400369644165</v>
+        <v>0.75705063343048096</v>
       </c>
     </row>
     <row r="346">
@@ -5954,13 +5954,13 @@
         <v>0.98694562911987305</v>
       </c>
       <c r="C346" s="2">
-        <v>0.50886076688766479</v>
+        <v>0.50721454620361328</v>
       </c>
       <c r="D346" s="2">
         <v>0.89196252822875977</v>
       </c>
       <c r="E346" s="2">
-        <v>0.84138977527618408</v>
+        <v>0.84060811996459961</v>
       </c>
     </row>
     <row r="347">
@@ -5971,13 +5971,13 @@
         <v>1.1500968933105469</v>
       </c>
       <c r="C347" s="2">
-        <v>1.0870813131332397</v>
+        <v>1.0857148170471192</v>
       </c>
       <c r="D347" s="2">
         <v>0.93152892589569092</v>
       </c>
       <c r="E347" s="2">
-        <v>0.86523306369781494</v>
+        <v>0.86437809467315674</v>
       </c>
     </row>
     <row r="348">
@@ -5988,13 +5988,13 @@
         <v>0.062741167843341827</v>
       </c>
       <c r="C348" s="2">
-        <v>0.1507282555103302</v>
+        <v>0.15032276511192322</v>
       </c>
       <c r="D348" s="2">
         <v>0.98598110675811768</v>
       </c>
       <c r="E348" s="2">
-        <v>0.90844148397445679</v>
+        <v>0.90762996673583984</v>
       </c>
     </row>
     <row r="349">
@@ -6005,13 +6005,13 @@
         <v>1.2126703262329102</v>
       </c>
       <c r="C349" s="2">
-        <v>1.1045955419540405</v>
+        <v>1.1026663780212402</v>
       </c>
       <c r="D349" s="2">
         <v>1.0041536092758179</v>
       </c>
       <c r="E349" s="2">
-        <v>0.92387080192565918</v>
+        <v>0.9229050874710083</v>
       </c>
     </row>
     <row r="350">
@@ -6022,13 +6022,13 @@
         <v>1.719690203666687</v>
       </c>
       <c r="C350" s="2">
-        <v>1.6139745712280273</v>
+        <v>1.6131061315536499</v>
       </c>
       <c r="D350" s="2">
         <v>1.0844240188598633</v>
       </c>
       <c r="E350" s="2">
-        <v>1.0058048963546753</v>
+        <v>1.0047060251235962</v>
       </c>
     </row>
     <row r="351">
@@ -6039,13 +6039,13 @@
         <v>1.1888793706893921</v>
       </c>
       <c r="C351" s="2">
-        <v>1.1429942846298218</v>
+        <v>1.1422324180603027</v>
       </c>
       <c r="D351" s="2">
         <v>1.0903068780899048</v>
       </c>
       <c r="E351" s="2">
-        <v>1.0737096071243286</v>
+        <v>1.0727688074111939</v>
       </c>
     </row>
     <row r="352">
@@ -6056,13 +6056,13 @@
         <v>1.0457944869995117</v>
       </c>
       <c r="C352" s="2">
-        <v>0.87008887529373169</v>
+        <v>0.87081700563430786</v>
       </c>
       <c r="D352" s="2">
         <v>1.0662604570388794</v>
       </c>
       <c r="E352" s="2">
-        <v>1.0425546169281006</v>
+        <v>1.0418120622634888</v>
       </c>
     </row>
     <row r="353">
@@ -6073,13 +6073,13 @@
         <v>1.097724437713623</v>
       </c>
       <c r="C353" s="2">
-        <v>1.4559942483901978</v>
+        <v>1.4541102647781372</v>
       </c>
       <c r="D353" s="2">
         <v>1.1108037233352661</v>
       </c>
       <c r="E353" s="2">
-        <v>1.0930927991867066</v>
+        <v>1.0923142433166504</v>
       </c>
     </row>
     <row r="354">
@@ -6090,13 +6090,13 @@
         <v>1.2952731847763062</v>
       </c>
       <c r="C354" s="2">
-        <v>1.1179263591766357</v>
+        <v>1.1161701679229736</v>
       </c>
       <c r="D354" s="2">
         <v>1.0517146587371826</v>
       </c>
       <c r="E354" s="2">
-        <v>1.0384736061096192</v>
+        <v>1.0378580093383789</v>
       </c>
     </row>
     <row r="355">
@@ -6107,13 +6107,13 @@
         <v>1.0398914813995361</v>
       </c>
       <c r="C355" s="2">
-        <v>1.1200026273727417</v>
+        <v>1.1197789907455444</v>
       </c>
       <c r="D355" s="2">
         <v>0.88831794261932373</v>
       </c>
       <c r="E355" s="2">
-        <v>0.84410172700881958</v>
+        <v>0.84360897541046143</v>
       </c>
     </row>
     <row r="356">
@@ -6124,13 +6124,13 @@
         <v>0.93367987871170044</v>
       </c>
       <c r="C356" s="2">
-        <v>0.80668634176254272</v>
+        <v>0.80710422992706299</v>
       </c>
       <c r="D356" s="2">
         <v>0.84468305110931396</v>
       </c>
       <c r="E356" s="2">
-        <v>0.77782988548278809</v>
+        <v>0.7773667573928833</v>
       </c>
     </row>
     <row r="357">
@@ -6141,13 +6141,13 @@
         <v>0.4636305570602417</v>
       </c>
       <c r="C357" s="2">
-        <v>0.6055724024772644</v>
+        <v>0.60484236478805542</v>
       </c>
       <c r="D357" s="2">
         <v>0.81421780586242676</v>
       </c>
       <c r="E357" s="2">
-        <v>0.75233954191207886</v>
+        <v>0.75188404321670532</v>
       </c>
     </row>
     <row r="358">
@@ -6158,13 +6158,13 @@
         <v>0.68086826801300049</v>
       </c>
       <c r="C358" s="2">
-        <v>0.6130225658416748</v>
+        <v>0.61256033182144165</v>
       </c>
       <c r="D358" s="2">
         <v>0.74072188138961792</v>
       </c>
       <c r="E358" s="2">
-        <v>0.61560589075088501</v>
+        <v>0.61525487899780274</v>
       </c>
     </row>
     <row r="359">
@@ -6175,13 +6175,13 @@
         <v>0.24911986291408539</v>
       </c>
       <c r="C359" s="2">
-        <v>-0.13537238538265228</v>
+        <v>-0.13513487577438355</v>
       </c>
       <c r="D359" s="2">
         <v>0.60560154914855957</v>
       </c>
       <c r="E359" s="2">
-        <v>0.49085965752601624</v>
+        <v>0.49068161845207214</v>
       </c>
     </row>
     <row r="360">
@@ -6192,13 +6192,13 @@
         <v>0.7961653470993042</v>
       </c>
       <c r="C360" s="2">
-        <v>0.54654783010482788</v>
+        <v>0.54605239629745483</v>
       </c>
       <c r="D360" s="2">
         <v>0.52908146381378174</v>
       </c>
       <c r="E360" s="2">
-        <v>0.38349604606628418</v>
+        <v>0.38327103853225708</v>
       </c>
     </row>
     <row r="361">
@@ -6209,13 +6209,13 @@
         <v>0.77160722017288208</v>
       </c>
       <c r="C361" s="2">
-        <v>0.64067614078521729</v>
+        <v>0.64147275686264038</v>
       </c>
       <c r="D361" s="2">
         <v>0.45166823267936707</v>
       </c>
       <c r="E361" s="2">
-        <v>0.34230315685272217</v>
+        <v>0.3419443666934967</v>
       </c>
     </row>
     <row r="362">
@@ -6226,13 +6226,13 @@
         <v>0.43626126646995545</v>
       </c>
       <c r="C362" s="2">
-        <v>0.22539125382900238</v>
+        <v>0.22444772720336914</v>
       </c>
       <c r="D362" s="2">
         <v>0.49149194359779358</v>
       </c>
       <c r="E362" s="2">
-        <v>0.36525499820709229</v>
+        <v>0.36500352621078491</v>
       </c>
     </row>
     <row r="363">
@@ -6243,13 +6243,13 @@
         <v>0.079189814627170563</v>
       </c>
       <c r="C363" s="2">
-        <v>-0.0047899461351335049</v>
+        <v>-0.0049893716350197792</v>
       </c>
       <c r="D363" s="2">
         <v>0.44996628165245056</v>
       </c>
       <c r="E363" s="2">
-        <v>0.32088598608970642</v>
+        <v>0.32071655988693237</v>
       </c>
     </row>
     <row r="364">
@@ -6260,13 +6260,13 @@
         <v>0.35121113061904907</v>
       </c>
       <c r="C364" s="2">
-        <v>0.15373028814792633</v>
+        <v>0.15308377146720886</v>
       </c>
       <c r="D364" s="2">
         <v>0.472135990858078</v>
       </c>
       <c r="E364" s="2">
-        <v>0.39992263913154602</v>
+        <v>0.39969852566719055</v>
       </c>
     </row>
     <row r="365">
@@ -6277,13 +6277,13 @@
         <v>0.23696063458919525</v>
       </c>
       <c r="C365" s="2">
-        <v>0.43595033884048462</v>
+        <v>0.43516433238983154</v>
       </c>
       <c r="D365" s="2">
         <v>0.4344068169593811</v>
       </c>
       <c r="E365" s="2">
-        <v>0.39256849884986878</v>
+        <v>0.39236006140708923</v>
       </c>
     </row>
     <row r="366">
@@ -6294,13 +6294,13 @@
         <v>0.82204407453536987</v>
       </c>
       <c r="C366" s="2">
-        <v>0.81213897466659546</v>
+        <v>0.81237471103668213</v>
       </c>
       <c r="D366" s="2">
         <v>0.42091554403305054</v>
       </c>
       <c r="E366" s="2">
-        <v>0.38683062791824341</v>
+        <v>0.38650250434875488</v>
       </c>
     </row>
     <row r="367">
@@ -6311,13 +6311,13 @@
         <v>0.30713719129562378</v>
       </c>
       <c r="C367" s="2">
-        <v>0.21370124816894531</v>
+        <v>0.21397762000560761</v>
       </c>
       <c r="D367" s="2">
         <v>0.31707838177680969</v>
       </c>
       <c r="E367" s="2">
-        <v>0.30994448065757752</v>
+        <v>0.30967244505882263</v>
       </c>
     </row>
     <row r="368">
@@ -6328,13 +6328,13 @@
         <v>0.44864735007286072</v>
       </c>
       <c r="C368" s="2">
-        <v>0.57595765590667725</v>
+        <v>0.5757027268409729</v>
       </c>
       <c r="D368" s="2">
         <v>0.26228687167167664</v>
       </c>
       <c r="E368" s="2">
-        <v>0.26268526911735535</v>
+        <v>0.26237145066261292</v>
       </c>
     </row>
     <row r="369">
@@ -6345,13 +6345,13 @@
         <v>0.45660275220870972</v>
       </c>
       <c r="C369" s="2">
-        <v>0.48036062717437744</v>
+        <v>0.48000618815422058</v>
       </c>
       <c r="D369" s="2">
         <v>0.15488393604755402</v>
       </c>
       <c r="E369" s="2">
-        <v>0.18737722933292389</v>
+        <v>0.18708308041095734</v>
       </c>
     </row>
     <row r="370">
@@ -6362,13 +6362,13 @@
         <v>0.65018576383590698</v>
       </c>
       <c r="C370" s="2">
-        <v>0.5890352725982666</v>
+        <v>0.58875477313995361</v>
       </c>
       <c r="D370" s="2">
         <v>0.08480565994977951</v>
       </c>
       <c r="E370" s="2">
-        <v>0.10642094910144806</v>
+        <v>0.10613338649272919</v>
       </c>
     </row>
     <row r="371">
@@ -6379,13 +6379,13 @@
         <v>-0.49827328324317932</v>
       </c>
       <c r="C371" s="2">
-        <v>-0.46658402681350708</v>
+        <v>-0.46702271699905396</v>
       </c>
       <c r="D371" s="2">
         <v>-0.052686493843793869</v>
       </c>
       <c r="E371" s="2">
-        <v>-0.032987393438816071</v>
+        <v>-0.033328913152217865</v>
       </c>
     </row>
     <row r="372">
@@ -6396,13 +6396,13 @@
         <v>-0.41393366456031799</v>
       </c>
       <c r="C372" s="2">
-        <v>-0.43012285232543945</v>
+        <v>-0.4306984543800354</v>
       </c>
       <c r="D372" s="2">
         <v>-0.11322511732578278</v>
       </c>
       <c r="E372" s="2">
-        <v>-0.093972146511077881</v>
+        <v>-0.094384439289569855</v>
       </c>
     </row>
     <row r="373">
@@ -6413,13 +6413,13 @@
         <v>-0.61541545391082764</v>
       </c>
       <c r="C373" s="2">
-        <v>-0.52404218912124634</v>
+        <v>-0.52451151609420776</v>
       </c>
       <c r="D373" s="2">
         <v>-0.17811037600040436</v>
       </c>
       <c r="E373" s="2">
-        <v>-0.1834510862827301</v>
+        <v>-0.18385830521583557</v>
       </c>
     </row>
     <row r="374">
@@ -6430,13 +6430,13 @@
         <v>-0.39374378323554993</v>
       </c>
       <c r="C374" s="2">
-        <v>-0.29265618324279785</v>
+        <v>-0.29338288307189941</v>
       </c>
       <c r="D374" s="2">
         <v>-0.20896013081073761</v>
       </c>
       <c r="E374" s="2">
-        <v>-0.24018172919750214</v>
+        <v>-0.24065248668193817</v>
       </c>
     </row>
     <row r="375">
@@ -6447,13 +6447,13 @@
         <v>-0.41538530588150024</v>
       </c>
       <c r="C375" s="2">
-        <v>-0.44253608584403992</v>
+        <v>-0.44278594851493836</v>
       </c>
       <c r="D375" s="2">
         <v>-0.31952023506164551</v>
       </c>
       <c r="E375" s="2">
-        <v>-0.36480435729026795</v>
+        <v>-0.36526212096214295</v>
       </c>
     </row>
     <row r="376">
@@ -6464,13 +6464,13 @@
         <v>-0.23771043121814728</v>
       </c>
       <c r="C376" s="2">
-        <v>-0.33516153693199158</v>
+        <v>-0.33552214503288269</v>
       </c>
       <c r="D376" s="2">
         <v>-0.29558879137039185</v>
       </c>
       <c r="E376" s="2">
-        <v>-0.34508287906646729</v>
+        <v>-0.34548410773277283</v>
       </c>
     </row>
     <row r="377">
@@ -6481,13 +6481,13 @@
         <v>-0.13531991839408875</v>
       </c>
       <c r="C377" s="2">
-        <v>-0.22935281693935394</v>
+        <v>-0.22956198453903198</v>
       </c>
       <c r="D377" s="2">
         <v>-0.32506543397903442</v>
       </c>
       <c r="E377" s="2">
-        <v>-0.36994418501853943</v>
+        <v>-0.37035161256790161</v>
       </c>
     </row>
     <row r="378">
@@ -6498,13 +6498,13 @@
         <v>0.17895491421222687</v>
       </c>
       <c r="C378" s="2">
-        <v>-0.030215170234441757</v>
+        <v>-0.031141523271799088</v>
       </c>
       <c r="D378" s="2">
         <v>-0.19304193556308746</v>
       </c>
       <c r="E378" s="2">
-        <v>-0.25765722990036011</v>
+        <v>-0.25795754790306091</v>
       </c>
     </row>
     <row r="379">
@@ -6515,13 +6515,13 @@
         <v>-0.34485521912574768</v>
       </c>
       <c r="C379" s="2">
-        <v>-0.53256827592849732</v>
+        <v>-0.53273183107376099</v>
       </c>
       <c r="D379" s="2">
         <v>-0.13694508373737335</v>
       </c>
       <c r="E379" s="2">
-        <v>-0.21815553307533264</v>
+        <v>-0.21833090484142304</v>
       </c>
     </row>
     <row r="380">
@@ -6532,13 +6532,13 @@
         <v>-0.28289023041725159</v>
       </c>
       <c r="C380" s="2">
-        <v>-0.28909069299697876</v>
+        <v>-0.28902080655097961</v>
       </c>
       <c r="D380" s="2">
         <v>-0.13185589015483856</v>
       </c>
       <c r="E380" s="2">
-        <v>-0.21505124866962433</v>
+        <v>-0.21526283025741577</v>
       </c>
     </row>
     <row r="381">
@@ -6549,13 +6549,13 @@
         <v>-0.67922335863113403</v>
       </c>
       <c r="C381" s="2">
-        <v>-0.65387475490570068</v>
+        <v>-0.65450590848922729</v>
       </c>
       <c r="D381" s="2">
         <v>-0.019411737099289894</v>
       </c>
       <c r="E381" s="2">
-        <v>-0.10487092286348343</v>
+        <v>-0.1050463393330574</v>
       </c>
     </row>
     <row r="382">
@@ -6566,13 +6566,13 @@
         <v>0.57279586791992188</v>
       </c>
       <c r="C382" s="2">
-        <v>0.48654040694236755</v>
+        <v>0.48703506588935852</v>
       </c>
       <c r="D382" s="2">
         <v>-0.043574009090662003</v>
       </c>
       <c r="E382" s="2">
-        <v>-0.13556616008281708</v>
+        <v>-0.13560135662555695</v>
       </c>
     </row>
     <row r="383">
@@ -6583,13 +6583,13 @@
         <v>0.11112789064645767</v>
       </c>
       <c r="C383" s="2">
-        <v>0.062859117984771729</v>
+        <v>0.063256874680519104</v>
       </c>
       <c r="D383" s="2">
         <v>0.063766174018383026</v>
       </c>
       <c r="E383" s="2">
-        <v>-0.0090679358690977097</v>
+        <v>-0.0090459603816270828</v>
       </c>
     </row>
     <row r="384">
@@ -6600,13 +6600,13 @@
         <v>-0.36958256363868713</v>
       </c>
       <c r="C384" s="2">
-        <v>-0.41459745168685913</v>
+        <v>-0.41517326235771179</v>
       </c>
       <c r="D384" s="2">
         <v>0.20862975716590881</v>
       </c>
       <c r="E384" s="2">
-        <v>0.13195139169692993</v>
+        <v>0.13179914653301239</v>
       </c>
     </row>
     <row r="385">
@@ -6617,13 +6617,13 @@
         <v>0.77428698539733887</v>
       </c>
       <c r="C385" s="2">
-        <v>0.65646135807037354</v>
+        <v>0.65642631053924561</v>
       </c>
       <c r="D385" s="2">
         <v>0.33690136671066284</v>
       </c>
       <c r="E385" s="2">
-        <v>0.2438850998878479</v>
+        <v>0.24364252388477325</v>
       </c>
     </row>
     <row r="386">
@@ -6634,13 +6634,13 @@
         <v>-0.35278037190437317</v>
       </c>
       <c r="C386" s="2">
-        <v>-0.50560998916625977</v>
+        <v>-0.50455719232559204</v>
       </c>
       <c r="D386" s="2">
         <v>0.53222495317459106</v>
       </c>
       <c r="E386" s="2">
-        <v>0.42276081442832947</v>
+        <v>0.42250433564186096</v>
       </c>
     </row>
     <row r="387">
@@ -6651,13 +6651,13 @@
         <v>1.1450165510177612</v>
       </c>
       <c r="C387" s="2">
-        <v>1.1082688570022583</v>
+        <v>1.1078571081161499</v>
       </c>
       <c r="D387" s="2">
         <v>0.58888149261474609</v>
       </c>
       <c r="E387" s="2">
-        <v>0.46585589647293091</v>
+        <v>0.46554526686668396</v>
       </c>
     </row>
     <row r="388">
@@ -6668,13 +6668,13 @@
         <v>0.95891708135604858</v>
       </c>
       <c r="C388" s="2">
-        <v>0.73660564422607422</v>
+        <v>0.73487406969070435</v>
       </c>
       <c r="D388" s="2">
         <v>0.6556931734085083</v>
       </c>
       <c r="E388" s="2">
-        <v>0.53332465887069702</v>
+        <v>0.53302472829818726</v>
       </c>
     </row>
     <row r="389">
@@ -6685,13 +6685,13 @@
         <v>0.87155419588088989</v>
       </c>
       <c r="C389" s="2">
-        <v>0.71831268072128296</v>
+        <v>0.71756958961486817</v>
       </c>
       <c r="D389" s="2">
         <v>0.782004714012146</v>
       </c>
       <c r="E389" s="2">
-        <v>0.67884868383407593</v>
+        <v>0.67851108312606812</v>
       </c>
     </row>
     <row r="390">
@@ -6702,13 +6702,13 @@
         <v>1.0786888599395752</v>
       </c>
       <c r="C390" s="2">
-        <v>0.95600670576095581</v>
+        <v>0.95525056123733521</v>
       </c>
       <c r="D390" s="2">
         <v>0.87720280885696411</v>
       </c>
       <c r="E390" s="2">
-        <v>0.79174512624740601</v>
+        <v>0.79129642248153687</v>
       </c>
     </row>
     <row r="391">
@@ -6719,13 +6719,13 @@
         <v>1.0827047824859619</v>
       </c>
       <c r="C391" s="2">
-        <v>0.87439626455307007</v>
+        <v>0.87440329790115356</v>
       </c>
       <c r="D391" s="2">
         <v>1.0366883277893067</v>
       </c>
       <c r="E391" s="2">
-        <v>0.96322280168533325</v>
+        <v>0.96271979808807373</v>
       </c>
     </row>
     <row r="392">
@@ -6736,13 +6736,13 @@
         <v>0.71243321895599365</v>
       </c>
       <c r="C392" s="2">
-        <v>0.67007780075073242</v>
+        <v>0.67057222127914429</v>
       </c>
       <c r="D392" s="2">
         <v>0.98718959093093872</v>
       </c>
       <c r="E392" s="2">
-        <v>0.91404914855957031</v>
+        <v>0.91357851028442383</v>
       </c>
     </row>
     <row r="393">
@@ -6753,13 +6753,13 @@
         <v>0.76722127199172974</v>
       </c>
       <c r="C393" s="2">
-        <v>0.89511889219284058</v>
+        <v>0.894203782081604</v>
       </c>
       <c r="D393" s="2">
         <v>1.0241857767105103</v>
       </c>
       <c r="E393" s="2">
-        <v>0.96883398294448853</v>
+        <v>0.96859115362167358</v>
       </c>
     </row>
     <row r="394">
@@ -6770,13 +6770,13 @@
         <v>1.6310696601867676</v>
       </c>
       <c r="C394" s="2">
-        <v>1.6725291013717651</v>
+        <v>1.6714946031570435</v>
       </c>
       <c r="D394" s="2">
         <v>1.0190236568450928</v>
       </c>
       <c r="E394" s="2">
-        <v>0.94977724552154541</v>
+        <v>0.94932854175567627</v>
       </c>
     </row>
     <row r="395">
@@ -6787,13 +6787,13 @@
         <v>1.0825895071029663</v>
       </c>
       <c r="C395" s="2">
-        <v>1.0376894474029541</v>
+        <v>1.0382527112960816</v>
       </c>
       <c r="D395" s="2">
         <v>1.0513321161270142</v>
       </c>
       <c r="E395" s="2">
-        <v>0.99679893255233765</v>
+        <v>0.99631392955780029</v>
       </c>
     </row>
     <row r="396">
@@ -6804,13 +6804,13 @@
         <v>0.6995278000831604</v>
       </c>
       <c r="C396" s="2">
-        <v>0.66570603847503662</v>
+        <v>0.66558551788330078</v>
       </c>
       <c r="D396" s="2">
         <v>0.9437640905380249</v>
       </c>
       <c r="E396" s="2">
-        <v>0.95356720685958862</v>
+        <v>0.95307254791259766</v>
       </c>
     </row>
     <row r="397">
@@ -6821,13 +6821,13 @@
         <v>1.2918829917907715</v>
       </c>
       <c r="C397" s="2">
-        <v>1.2296690940856934</v>
+        <v>1.2299882173538208</v>
       </c>
       <c r="D397" s="2">
         <v>0.97408795356750488</v>
       </c>
       <c r="E397" s="2">
-        <v>1.008832573890686</v>
+        <v>1.0083578824996948</v>
       </c>
     </row>
     <row r="398">
@@ -6838,13 +6838,13 @@
         <v>0.82509505748748779</v>
       </c>
       <c r="C398" s="2">
-        <v>0.5468018651008606</v>
+        <v>0.54420602321624756</v>
       </c>
       <c r="D398" s="2">
         <v>1.0112763643264771</v>
       </c>
       <c r="E398" s="2">
-        <v>1.0273294448852539</v>
+        <v>1.026793122291565</v>
       </c>
     </row>
     <row r="399">
@@ -6855,13 +6855,13 @@
         <v>1.369464635848999</v>
       </c>
       <c r="C399" s="2">
-        <v>1.3792018890380859</v>
+        <v>1.3781188726425171</v>
       </c>
       <c r="D399" s="2">
         <v>0.93453329801559448</v>
       </c>
       <c r="E399" s="2">
-        <v>0.9563833475112915</v>
+        <v>0.95574557781219482</v>
       </c>
     </row>
     <row r="400">
@@ -6872,13 +6872,13 @@
         <v>0.11459251493215561</v>
       </c>
       <c r="C400" s="2">
-        <v>0.4853108823299408</v>
+        <v>0.48523092269897461</v>
       </c>
       <c r="D400" s="2">
         <v>0.90035146474838257</v>
       </c>
       <c r="E400" s="2">
-        <v>0.91246992349624634</v>
+        <v>0.91174000501632691</v>
       </c>
     </row>
     <row r="401">
@@ -6889,13 +6889,13 @@
         <v>0.98534834384918213</v>
       </c>
       <c r="C401" s="2">
-        <v>1.1674659252166748</v>
+        <v>1.1681402921676636</v>
       </c>
       <c r="D401" s="2">
         <v>0.87912499904632568</v>
       </c>
       <c r="E401" s="2">
-        <v>0.91202443838119507</v>
+        <v>0.91134566068649292</v>
       </c>
     </row>
     <row r="402">
@@ -6906,13 +6906,13 @@
         <v>1.101917028427124</v>
       </c>
       <c r="C402" s="2">
-        <v>1.0615905523300171</v>
+        <v>1.060120701789856</v>
       </c>
       <c r="D402" s="2">
         <v>0.8555983304977417</v>
       </c>
       <c r="E402" s="2">
-        <v>0.89326560497283936</v>
+        <v>0.89255183935165405</v>
       </c>
     </row>
     <row r="403">
@@ -6923,13 +6923,13 @@
         <v>0.94038182497024536</v>
       </c>
       <c r="C403" s="2">
-        <v>1.0340147018432617</v>
+        <v>1.032066822052002</v>
       </c>
       <c r="D403" s="2">
         <v>0.84802043437957764</v>
       </c>
       <c r="E403" s="2">
-        <v>0.90258699655532837</v>
+        <v>0.90207117795944214</v>
       </c>
     </row>
     <row r="404">
@@ -6940,13 +6940,13 @@
         <v>0.77495282888412476</v>
       </c>
       <c r="C404" s="2">
-        <v>0.64246857166290283</v>
+        <v>0.64220243692398071</v>
       </c>
       <c r="D404" s="2">
         <v>0.79919761419296265</v>
       </c>
       <c r="E404" s="2">
-        <v>0.85311979055404663</v>
+        <v>0.8526461124420166</v>
       </c>
     </row>
     <row r="405">
@@ -6957,13 +6957,13 @@
         <v>0.50848954916000366</v>
       </c>
       <c r="C405" s="2">
-        <v>0.66169655323028565</v>
+        <v>0.66203677654266357</v>
       </c>
       <c r="D405" s="2">
         <v>0.85822886228561401</v>
       </c>
       <c r="E405" s="2">
-        <v>0.91597872972488403</v>
+        <v>0.91548323631286621</v>
       </c>
     </row>
     <row r="406">
@@ -6974,13 +6974,13 @@
         <v>1.0801432132720947</v>
       </c>
       <c r="C406" s="2">
-        <v>1.0608392953872681</v>
+        <v>1.060843825340271</v>
       </c>
       <c r="D406" s="2">
         <v>0.89354676008224487</v>
       </c>
       <c r="E406" s="2">
-        <v>0.90984684228897095</v>
+        <v>0.90916043519973755</v>
       </c>
     </row>
     <row r="407">
@@ -6991,13 +6991,13 @@
         <v>0.75689375400543213</v>
       </c>
       <c r="C407" s="2">
-        <v>0.63069480657577515</v>
+        <v>0.62987977266311646</v>
       </c>
       <c r="D407" s="2">
         <v>0.88906985521316528</v>
       </c>
       <c r="E407" s="2">
-        <v>0.87673729658126831</v>
+        <v>0.87626028060913086</v>
       </c>
     </row>
     <row r="408">
@@ -7008,13 +7008,13 @@
         <v>0.93005943298339844</v>
       </c>
       <c r="C408" s="2">
-        <v>0.93399703502655029</v>
+        <v>0.93329346179962158</v>
       </c>
       <c r="D408" s="2">
         <v>0.85903811454772949</v>
       </c>
       <c r="E408" s="2">
-        <v>0.81673884391784668</v>
+        <v>0.81631380319595337</v>
       </c>
     </row>
     <row r="409">
@@ -7025,13 +7025,13 @@
         <v>0.6458735466003418</v>
       </c>
       <c r="C409" s="2">
-        <v>1.0510408878326416</v>
+        <v>1.0507651567459107</v>
       </c>
       <c r="D409" s="2">
         <v>0.90191388130187988</v>
       </c>
       <c r="E409" s="2">
-        <v>0.862388014793396</v>
+        <v>0.86198395490646362</v>
       </c>
     </row>
     <row r="410">
@@ -7042,13 +7042,13 @@
         <v>1.3032097816467285</v>
       </c>
       <c r="C410" s="2">
-        <v>1.1122792959213257</v>
+        <v>1.1112349033355713</v>
       </c>
       <c r="D410" s="2">
         <v>0.92176163196563721</v>
       </c>
       <c r="E410" s="2">
-        <v>0.88708800077438354</v>
+        <v>0.8865465521812439</v>
       </c>
     </row>
     <row r="411">
@@ -7059,13 +7059,13 @@
         <v>1.0616248846054077</v>
       </c>
       <c r="C411" s="2">
-        <v>0.76360440254211426</v>
+        <v>0.76401931047439575</v>
       </c>
       <c r="D411" s="2">
         <v>0.90702003240585327</v>
       </c>
       <c r="E411" s="2">
-        <v>0.84986722469329834</v>
+        <v>0.84937006235122681</v>
       </c>
     </row>
     <row r="412">
@@ -7076,13 +7076,13 @@
         <v>0.67009603977203369</v>
       </c>
       <c r="C412" s="2">
-        <v>0.49402868747711182</v>
+        <v>0.49254864454269409</v>
       </c>
       <c r="D412" s="2">
         <v>0.92580026388168335</v>
       </c>
       <c r="E412" s="2">
-        <v>0.87437111139297485</v>
+        <v>0.87394070625305176</v>
       </c>
     </row>
     <row r="413">
@@ -7093,13 +7093,13 @@
         <v>1.1608346700668335</v>
       </c>
       <c r="C413" s="2">
-        <v>1.0533112287521362</v>
+        <v>1.0532338619232178</v>
       </c>
       <c r="D413" s="2">
         <v>0.8668673038482666</v>
       </c>
       <c r="E413" s="2">
-        <v>0.81184673309326172</v>
+        <v>0.81155902147293091</v>
       </c>
     </row>
     <row r="414">
@@ -7110,13 +7110,13 @@
         <v>0.68711954355239868</v>
       </c>
       <c r="C414" s="2">
-        <v>0.88399654626846313</v>
+        <v>0.88309997320175171</v>
       </c>
       <c r="D414" s="2">
         <v>0.86721569299697876</v>
       </c>
       <c r="E414" s="2">
-        <v>0.75773292779922485</v>
+        <v>0.75743412971496582</v>
       </c>
     </row>
     <row r="415">
@@ -7127,13 +7127,13 @@
         <v>0.94746881723403931</v>
       </c>
       <c r="C415" s="2">
-        <v>0.725852370262146</v>
+        <v>0.72625559568405151</v>
       </c>
       <c r="D415" s="2">
         <v>0.84596908092498779</v>
       </c>
       <c r="E415" s="2">
-        <v>0.74995195865631104</v>
+        <v>0.74973911046981812</v>
       </c>
     </row>
     <row r="416">
@@ -7144,13 +7144,13 @@
         <v>0.92591571807861328</v>
       </c>
       <c r="C416" s="2">
-        <v>0.85122942924499512</v>
+        <v>0.85101526975631714</v>
       </c>
       <c r="D416" s="2">
         <v>0.79986089468002319</v>
       </c>
       <c r="E416" s="2">
-        <v>0.72940301895141602</v>
+        <v>0.72904700040817261</v>
       </c>
     </row>
     <row r="417">
@@ -7161,13 +7161,13 @@
         <v>0.39966249465942383</v>
       </c>
       <c r="C417" s="2">
-        <v>0.37127795815467834</v>
+        <v>0.37185868620872498</v>
       </c>
       <c r="D417" s="2">
         <v>0.77956610918045044</v>
       </c>
       <c r="E417" s="2">
-        <v>0.70030605792999268</v>
+        <v>0.70006555318832397</v>
       </c>
     </row>
     <row r="418">
@@ -7178,13 +7178,13 @@
         <v>0.6490093469619751</v>
       </c>
       <c r="C418" s="2">
-        <v>0.56401640176773071</v>
+        <v>0.56364089250564575</v>
       </c>
       <c r="D418" s="2">
         <v>0.81577473878860474</v>
       </c>
       <c r="E418" s="2">
-        <v>0.72292178869247437</v>
+        <v>0.72258287668228149</v>
       </c>
     </row>
     <row r="419">
@@ -7195,13 +7195,13 @@
         <v>1.1119903326034546</v>
       </c>
       <c r="C419" s="2">
-        <v>1.0422508716583252</v>
+        <v>1.0419799089431763</v>
       </c>
       <c r="D419" s="2">
         <v>0.90697675943374634</v>
       </c>
       <c r="E419" s="2">
-        <v>0.78417956829071045</v>
+        <v>0.78377467393875122</v>
       </c>
     </row>
     <row r="420">
@@ -7212,13 +7212,13 @@
         <v>0.64665102958679199</v>
       </c>
       <c r="C420" s="2">
-        <v>0.57866394519805908</v>
+        <v>0.57779026031494141</v>
       </c>
       <c r="D420" s="2">
         <v>0.97265088558197021</v>
       </c>
       <c r="E420" s="2">
-        <v>0.86508834362030029</v>
+        <v>0.86450612545013428</v>
       </c>
     </row>
     <row r="421">
@@ -7229,13 +7229,13 @@
         <v>0.48744285106658936</v>
       </c>
       <c r="C421" s="2">
-        <v>0.23215603828430176</v>
+        <v>0.2317156195640564</v>
       </c>
       <c r="D421" s="2">
         <v>1.0503259897232056</v>
       </c>
       <c r="E421" s="2">
-        <v>0.95020037889480591</v>
+        <v>0.94943487644195557</v>
       </c>
     </row>
     <row r="422">
@@ -7246,13 +7246,13 @@
         <v>1.4867126941680908</v>
       </c>
       <c r="C422" s="2">
-        <v>1.256852388381958</v>
+        <v>1.255889892578125</v>
       </c>
       <c r="D422" s="2">
         <v>1.1094783544540405</v>
       </c>
       <c r="E422" s="2">
-        <v>1.005946159362793</v>
+        <v>1.0050996541976929</v>
       </c>
     </row>
     <row r="423">
@@ -7263,13 +7263,13 @@
         <v>1.5079374313354492</v>
       </c>
       <c r="C423" s="2">
-        <v>1.4353169202804565</v>
+        <v>1.4338257312774658</v>
       </c>
       <c r="D423" s="2">
         <v>1.2141076326370239</v>
       </c>
       <c r="E423" s="2">
-        <v>1.0990288257598877</v>
+        <v>1.098095178604126</v>
       </c>
     </row>
     <row r="424">
@@ -7280,13 +7280,13 @@
         <v>1.5385360717773438</v>
       </c>
       <c r="C424" s="2">
-        <v>1.4540313482284546</v>
+        <v>1.4528391361236572</v>
       </c>
       <c r="D424" s="2">
         <v>1.2800841331481934</v>
       </c>
       <c r="E424" s="2">
-        <v>1.1566233634948731</v>
+        <v>1.1555972099304199</v>
       </c>
     </row>
     <row r="425">
@@ -7297,13 +7297,13 @@
         <v>1.6249912977218628</v>
       </c>
       <c r="C425" s="2">
-        <v>1.6172375679016113</v>
+        <v>1.6153738498687744</v>
       </c>
       <c r="D425" s="2">
         <v>1.4140897989273071</v>
       </c>
       <c r="E425" s="2">
-        <v>1.2919020652770996</v>
+        <v>1.2909256219863892</v>
       </c>
     </row>
     <row r="426">
@@ -7314,13 +7314,13 @@
         <v>0.93203449249267578</v>
       </c>
       <c r="C426" s="2">
-        <v>0.8729894757270813</v>
+        <v>0.87284171581268311</v>
       </c>
       <c r="D426" s="2">
         <v>1.5190967321395874</v>
       </c>
       <c r="E426" s="2">
-        <v>1.4134300947189331</v>
+        <v>1.4122549295425415</v>
       </c>
     </row>
     <row r="427">
@@ -7331,13 +7331,13 @@
         <v>1.5906722545623779</v>
       </c>
       <c r="C427" s="2">
-        <v>1.4017614126205444</v>
+        <v>1.400600790977478</v>
       </c>
       <c r="D427" s="2">
         <v>1.4140794277191162</v>
       </c>
       <c r="E427" s="2">
-        <v>1.2948321104049683</v>
+        <v>1.2935324907302856</v>
       </c>
     </row>
     <row r="428">
@@ -7348,13 +7348,13 @@
         <v>1.7057793140411377</v>
       </c>
       <c r="C428" s="2">
-        <v>1.5606011152267456</v>
+        <v>1.5594974756240845</v>
       </c>
       <c r="D428" s="2">
         <v>1.3148138523101807</v>
       </c>
       <c r="E428" s="2">
-        <v>1.180219292640686</v>
+        <v>1.1790324449539185</v>
       </c>
     </row>
     <row r="429">
@@ -7365,13 +7365,13 @@
         <v>1.852702260017395</v>
       </c>
       <c r="C429" s="2">
-        <v>1.7961721420288086</v>
+        <v>1.7957460880279541</v>
       </c>
       <c r="D429" s="2">
         <v>1.3418480157852173</v>
       </c>
       <c r="E429" s="2">
-        <v>1.1982173919677734</v>
+        <v>1.1970226764678955</v>
       </c>
     </row>
     <row r="430">
@@ -7382,13 +7382,13 @@
         <v>1.4325052499771118</v>
       </c>
       <c r="C430" s="2">
-        <v>1.3259085416793823</v>
+        <v>1.32368004322052</v>
       </c>
       <c r="D430" s="2">
         <v>1.3412728309631348</v>
       </c>
       <c r="E430" s="2">
-        <v>1.1848077774047852</v>
+        <v>1.1834421157836914</v>
       </c>
     </row>
     <row r="431">
@@ -7399,13 +7399,13 @@
         <v>0.54155635833740234</v>
       </c>
       <c r="C431" s="2">
-        <v>0.18947088718414307</v>
+        <v>0.18738777935504913</v>
       </c>
       <c r="D431" s="2">
         <v>1.3974676132202149</v>
       </c>
       <c r="E431" s="2">
-        <v>1.2576305866241455</v>
+        <v>1.2562353610992432</v>
       </c>
     </row>
     <row r="432">
@@ -7416,13 +7416,13 @@
         <v>0.61454790830612183</v>
       </c>
       <c r="C432" s="2">
-        <v>0.40380129218101502</v>
+        <v>0.40332490205764771</v>
       </c>
       <c r="D432" s="2">
         <v>1.376063346862793</v>
       </c>
       <c r="E432" s="2">
-        <v>1.2467254400253296</v>
+        <v>1.2452400922775269</v>
       </c>
     </row>
     <row r="433">
@@ -7433,13 +7433,13 @@
         <v>1.7818427085876465</v>
       </c>
       <c r="C433" s="2">
-        <v>1.6160143613815308</v>
+        <v>1.6147514581680298</v>
       </c>
       <c r="D433" s="2">
         <v>1.3577823638916016</v>
       </c>
       <c r="E433" s="2">
-        <v>1.2425755262374878</v>
+        <v>1.2410514354705811</v>
       </c>
     </row>
     <row r="434">
@@ -7450,13 +7450,13 @@
         <v>1.6198147535324097</v>
       </c>
       <c r="C434" s="2">
-        <v>1.4965511560440064</v>
+        <v>1.4931490421295166</v>
       </c>
       <c r="D434" s="2">
         <v>1.3073022365570068</v>
       </c>
       <c r="E434" s="2">
-        <v>1.1901078224182129</v>
+        <v>1.1885038614273071</v>
       </c>
     </row>
     <row r="435">
@@ -7467,13 +7467,13 @@
         <v>1.4377872943878174</v>
       </c>
       <c r="C435" s="2">
-        <v>1.528394341468811</v>
+        <v>1.5279805660247803</v>
       </c>
       <c r="D435" s="2">
         <v>1.2218259572982788</v>
       </c>
       <c r="E435" s="2">
-        <v>1.0804803371429443</v>
+        <v>1.0790719985961914</v>
       </c>
     </row>
     <row r="436">
@@ -7484,13 +7484,13 @@
         <v>1.3980338573455811</v>
       </c>
       <c r="C436" s="2">
-        <v>1.3036152124404907</v>
+        <v>1.3016437292098999</v>
       </c>
       <c r="D436" s="2">
         <v>1.3016650676727295</v>
       </c>
       <c r="E436" s="2">
-        <v>1.1928584575653076</v>
+        <v>1.1915490627288818</v>
       </c>
     </row>
     <row r="437">
@@ -7501,13 +7501,13 @@
         <v>1.5412513017654419</v>
       </c>
       <c r="C437" s="2">
-        <v>1.5232521295547485</v>
+        <v>1.521798849105835</v>
       </c>
       <c r="D437" s="2">
         <v>1.3165289163589478</v>
       </c>
       <c r="E437" s="2">
-        <v>1.2227771282196045</v>
+        <v>1.2212929725646973</v>
       </c>
     </row>
     <row r="438">
@@ -7518,13 +7518,13 @@
         <v>1.3983807563781738</v>
       </c>
       <c r="C438" s="2">
-        <v>1.3239619731903076</v>
+        <v>1.3228186368942261</v>
       </c>
       <c r="D438" s="2">
         <v>1.2534675598144531</v>
       </c>
       <c r="E438" s="2">
-        <v>1.1329488754272461</v>
+        <v>1.1313756704330444</v>
       </c>
     </row>
     <row r="439">
@@ -7535,13 +7535,13 @@
         <v>0.66321885585784912</v>
       </c>
       <c r="C439" s="2">
-        <v>0.33926188945770264</v>
+        <v>0.3387933075428009</v>
       </c>
       <c r="D439" s="2">
         <v>1.1250491142272949</v>
       </c>
       <c r="E439" s="2">
-        <v>0.99574434757232666</v>
+        <v>0.9943389892578125</v>
       </c>
     </row>
     <row r="440">
@@ -7552,13 +7552,13 @@
         <v>1.2601083517074585</v>
       </c>
       <c r="C440" s="2">
-        <v>1.2008734941482544</v>
+        <v>1.1996805667877197</v>
       </c>
       <c r="D440" s="2">
         <v>1.0078127384185791</v>
       </c>
       <c r="E440" s="2">
-        <v>0.80256634950637817</v>
+        <v>0.80114144086837769</v>
       </c>
     </row>
     <row r="441">
@@ -7569,13 +7569,13 @@
         <v>0.74832195043563843</v>
       </c>
       <c r="C441" s="2">
-        <v>0.67306947708129883</v>
+        <v>0.67102009057998657</v>
       </c>
       <c r="D441" s="2">
         <v>0.87404412031173706</v>
       </c>
       <c r="E441" s="2">
-        <v>0.63398367166519165</v>
+        <v>0.63235515356063843</v>
       </c>
     </row>
     <row r="442">
@@ -7586,13 +7586,13 @@
         <v>1.2142910957336426</v>
       </c>
       <c r="C442" s="2">
-        <v>0.80756032466888428</v>
+        <v>0.80549627542495728</v>
       </c>
       <c r="D442" s="2">
         <v>0.75587773323059082</v>
       </c>
       <c r="E442" s="2">
-        <v>0.49999898672103882</v>
+        <v>0.49839362502098084</v>
       </c>
     </row>
     <row r="443">
@@ -7603,13 +7603,13 @@
         <v>0.46404901146888733</v>
       </c>
       <c r="C443" s="2">
-        <v>0.26171013712882996</v>
+        <v>0.25981897115707398</v>
       </c>
       <c r="D443" s="2">
         <v>0.62694966793060303</v>
       </c>
       <c r="E443" s="2">
-        <v>0.34899553656578064</v>
+        <v>0.34730657935142517</v>
       </c>
     </row>
     <row r="444">
@@ -7620,13 +7620,13 @@
         <v>0.38265931606292725</v>
       </c>
       <c r="C444" s="2">
-        <v>-0.21020762622356415</v>
+        <v>-0.21079757809638977</v>
       </c>
       <c r="D444" s="2">
         <v>0.64612221717834473</v>
       </c>
       <c r="E444" s="2">
-        <v>0.37707138061523438</v>
+        <v>0.37535887956619263</v>
       </c>
     </row>
     <row r="445">
@@ -7637,13 +7637,13 @@
         <v>0.19411665201187134</v>
       </c>
       <c r="C445" s="2">
-        <v>-0.21362881362438202</v>
+        <v>-0.21743291616439819</v>
       </c>
       <c r="D445" s="2">
         <v>0.68885123729705811</v>
       </c>
       <c r="E445" s="2">
-        <v>0.4120844304561615</v>
+        <v>0.41035687923431397</v>
       </c>
     </row>
     <row r="446">
@@ -7654,13 +7654,13 @@
         <v>0.47775378823280334</v>
       </c>
       <c r="C446" s="2">
-        <v>0.31738999485969543</v>
+        <v>0.31614524126052857</v>
       </c>
       <c r="D446" s="2">
         <v>0.76461941003799438</v>
       </c>
       <c r="E446" s="2">
-        <v>0.49199634790420532</v>
+        <v>0.49037626385688782</v>
       </c>
     </row>
     <row r="447">
@@ -7671,13 +7671,13 @@
         <v>0.23802781105041504</v>
       </c>
       <c r="C447" s="2">
-        <v>-0.035069089382886887</v>
+        <v>-0.036964729428291321</v>
       </c>
       <c r="D447" s="2">
         <v>0.80404645204544067</v>
       </c>
       <c r="E447" s="2">
-        <v>0.56721740961074829</v>
+        <v>0.56561625003814697</v>
       </c>
     </row>
     <row r="448">
@@ -7688,13 +7688,13 @@
         <v>0.83577215671539307</v>
       </c>
       <c r="C448" s="2">
-        <v>0.59194457530975342</v>
+        <v>0.59126406908035278</v>
       </c>
       <c r="D448" s="2">
         <v>0.89525926113128662</v>
       </c>
       <c r="E448" s="2">
-        <v>0.65339756011962891</v>
+        <v>0.65204191207885742</v>
       </c>
     </row>
     <row r="449">
@@ -7705,13 +7705,13 @@
         <v>1.6446695327758789</v>
       </c>
       <c r="C449" s="2">
-        <v>1.5159908533096314</v>
+        <v>1.5146623849868774</v>
       </c>
       <c r="D449" s="2">
         <v>1.0777924060821533</v>
       </c>
       <c r="E449" s="2">
-        <v>0.88954854011535645</v>
+        <v>0.88800919055938721</v>
       </c>
     </row>
     <row r="450">
@@ -7722,13 +7722,13 @@
         <v>1.4302351474761963</v>
       </c>
       <c r="C450" s="2">
-        <v>1.3922768831253052</v>
+        <v>1.3911947011947632</v>
       </c>
       <c r="D450" s="2">
         <v>1.1732653379440308</v>
       </c>
       <c r="E450" s="2">
-        <v>1.0171761512756348</v>
+        <v>1.0158278942108154</v>
       </c>
     </row>
     <row r="451">
@@ -7739,13 +7739,13 @@
         <v>1.5691344738006592</v>
       </c>
       <c r="C451" s="2">
-        <v>1.4845495223999024</v>
+        <v>1.4826562404632568</v>
       </c>
       <c r="D451" s="2">
         <v>1.1963180303573608</v>
       </c>
       <c r="E451" s="2">
-        <v>1.0473079681396484</v>
+        <v>1.0459580421447754</v>
       </c>
     </row>
     <row r="452">
@@ -7756,13 +7756,13 @@
         <v>1.2849646806716919</v>
       </c>
       <c r="C452" s="2">
-        <v>1.0373319387435913</v>
+        <v>1.0376496315002442</v>
       </c>
       <c r="D452" s="2">
         <v>1.3056085109710693</v>
       </c>
       <c r="E452" s="2">
-        <v>1.1671844720840454</v>
+        <v>1.1660302877426147</v>
       </c>
     </row>
     <row r="453">
@@ -7773,13 +7773,13 @@
         <v>2.0254571437835693</v>
       </c>
       <c r="C453" s="2">
-        <v>1.9151507616043091</v>
+        <v>1.9129078388214111</v>
       </c>
       <c r="D453" s="2">
         <v>1.2520724534988403</v>
       </c>
       <c r="E453" s="2">
-        <v>1.11869215965271</v>
+        <v>1.1175423860549927</v>
       </c>
     </row>
     <row r="454">
@@ -7790,13 +7790,13 @@
         <v>1.0533736944198608</v>
       </c>
       <c r="C454" s="2">
-        <v>0.93501979112625122</v>
+        <v>0.93293583393096924</v>
       </c>
       <c r="D454" s="2">
         <v>1.1558821201324463</v>
       </c>
       <c r="E454" s="2">
-        <v>1.0348187685012817</v>
+        <v>1.0336520671844483</v>
       </c>
     </row>
     <row r="455">
@@ -7807,13 +7807,13 @@
         <v>0.68522787094116211</v>
       </c>
       <c r="C455" s="2">
-        <v>0.58857619762420654</v>
+        <v>0.58731633424758911</v>
       </c>
       <c r="D455" s="2">
         <v>1.0856019258499146</v>
       </c>
       <c r="E455" s="2">
-        <v>0.94280344247817993</v>
+        <v>0.94162249565124512</v>
       </c>
     </row>
     <row r="456">
@@ -7824,13 +7824,13 @@
         <v>1.221642017364502</v>
       </c>
       <c r="C456" s="2">
-        <v>1.0438194274902344</v>
+        <v>1.0436851978302002</v>
       </c>
       <c r="D456" s="2">
         <v>1.0407259464263916</v>
       </c>
       <c r="E456" s="2">
-        <v>0.88897329568862915</v>
+        <v>0.88785570859909058</v>
       </c>
     </row>
     <row r="457">
@@ -7841,13 +7841,13 @@
         <v>0.35394710302352905</v>
       </c>
       <c r="C457" s="2">
-        <v>0.15551456809043884</v>
+        <v>0.15487337112426758</v>
       </c>
       <c r="D457" s="2">
         <v>1.0347837209701538</v>
       </c>
       <c r="E457" s="2">
-        <v>0.88514852523803711</v>
+        <v>0.88380759954452515</v>
       </c>
     </row>
     <row r="458">
@@ -7858,13 +7858,13 @@
         <v>0.77895659208297729</v>
       </c>
       <c r="C458" s="2">
-        <v>0.76112985610961914</v>
+        <v>0.75964945554733276</v>
       </c>
       <c r="D458" s="2">
         <v>1.0140653848648071</v>
       </c>
       <c r="E458" s="2">
-        <v>0.87010836601257324</v>
+        <v>0.86890298128128052</v>
       </c>
     </row>
     <row r="459">
@@ -7875,13 +7875,13 @@
         <v>0.79771333932876587</v>
       </c>
       <c r="C459" s="2">
-        <v>0.56413894891738892</v>
+        <v>0.56292873620986938</v>
       </c>
       <c r="D459" s="2">
         <v>1.0479123592376709</v>
       </c>
       <c r="E459" s="2">
-        <v>0.89662420749664307</v>
+        <v>0.89531779289245606</v>
       </c>
     </row>
     <row r="460">
@@ -7892,13 +7892,13 @@
         <v>1.1652513742446899</v>
       </c>
       <c r="C460" s="2">
-        <v>1.0000780820846558</v>
+        <v>0.99875503778457642</v>
       </c>
       <c r="D460" s="2">
         <v>1.0122791528701782</v>
       </c>
       <c r="E460" s="2">
-        <v>0.87012803554534912</v>
+        <v>0.86909735202789307</v>
       </c>
     </row>
     <row r="461">
@@ -7909,13 +7909,13 @@
         <v>1.231484055519104</v>
       </c>
       <c r="C461" s="2">
-        <v>1.0029091835021973</v>
+        <v>1.0012166500091553</v>
       </c>
       <c r="D461" s="2">
         <v>1.0125010013580322</v>
       </c>
       <c r="E461" s="2">
-        <v>0.86273884773254395</v>
+        <v>0.86156880855560303</v>
       </c>
     </row>
     <row r="462">
@@ -7926,13 +7926,13 @@
         <v>1.838992714881897</v>
       </c>
       <c r="C462" s="2">
-        <v>1.7797890901565552</v>
+        <v>1.7787661552429199</v>
       </c>
       <c r="D462" s="2">
         <v>1.0631570816040039</v>
       </c>
       <c r="E462" s="2">
-        <v>0.95007973909378052</v>
+        <v>0.94897830486297608</v>
       </c>
     </row>
     <row r="463">
@@ -7943,13 +7943,13 @@
         <v>1.3579961061477661</v>
       </c>
       <c r="C463" s="2">
-        <v>1.1736627817153931</v>
+        <v>1.1706689596176147</v>
       </c>
       <c r="D463" s="2">
         <v>1.1241216659545899</v>
       </c>
       <c r="E463" s="2">
-        <v>1.0018107891082764</v>
+        <v>1.000713586807251</v>
       </c>
     </row>
     <row r="464">
@@ -7960,13 +7960,13 @@
         <v>0.36452889442443848</v>
       </c>
       <c r="C464" s="2">
-        <v>0.35011059045791626</v>
+        <v>0.35133251547813416</v>
       </c>
       <c r="D464" s="2">
         <v>1.168189287185669</v>
       </c>
       <c r="E464" s="2">
-        <v>1.062609076499939</v>
+        <v>1.0615048408508301</v>
       </c>
     </row>
     <row r="465">
@@ -7977,13 +7977,13 @@
         <v>1.2236387729644775</v>
       </c>
       <c r="C465" s="2">
-        <v>0.97731631994247437</v>
+        <v>0.97592842578887939</v>
       </c>
       <c r="D465" s="2">
         <v>1.1613845825195313</v>
       </c>
       <c r="E465" s="2">
-        <v>1.046701192855835</v>
+        <v>1.0456713438034058</v>
       </c>
     </row>
     <row r="466">
@@ -7994,13 +7994,13 @@
         <v>0.8098522424697876</v>
       </c>
       <c r="C466" s="2">
-        <v>0.94158285856246948</v>
+        <v>0.9415585994720459</v>
       </c>
       <c r="D466" s="2">
         <v>1.1409300565719605</v>
       </c>
       <c r="E466" s="2">
-        <v>1.0254396200180054</v>
+        <v>1.0244663953781128</v>
       </c>
     </row>
     <row r="467">
@@ -8011,13 +8011,13 @@
         <v>1.3276380300521851</v>
       </c>
       <c r="C467" s="2">
-        <v>1.2267096042633057</v>
+        <v>1.225266695022583</v>
       </c>
       <c r="D467" s="2">
         <v>1.0339982509613037</v>
       </c>
       <c r="E467" s="2">
-        <v>0.89842045307159424</v>
+        <v>0.89746743440628052</v>
       </c>
     </row>
     <row r="468">
@@ -8028,13 +8028,13 @@
         <v>1.1943215131759644</v>
       </c>
       <c r="C468" s="2">
-        <v>1.1113228797912598</v>
+        <v>1.1100509166717529</v>
       </c>
       <c r="D468" s="2">
         <v>1.0126972198486328</v>
       </c>
       <c r="E468" s="2">
-        <v>0.88028723001480103</v>
+        <v>0.87950265407562256</v>
       </c>
     </row>
     <row r="469">
@@ -8045,13 +8045,13 @@
         <v>1.104008674621582</v>
       </c>
       <c r="C469" s="2">
-        <v>0.85690730810165405</v>
+        <v>0.85625272989273071</v>
       </c>
       <c r="D469" s="2">
         <v>1.0297791957855225</v>
       </c>
       <c r="E469" s="2">
-        <v>0.86776155233383179</v>
+        <v>0.86658179759979248</v>
       </c>
     </row>
     <row r="470">
@@ -8062,13 +8062,13 @@
         <v>1.0473933219909668</v>
       </c>
       <c r="C470" s="2">
-        <v>0.81155556440353394</v>
+        <v>0.81037306785583496</v>
       </c>
       <c r="D470" s="2">
         <v>0.975303053855896</v>
       </c>
       <c r="E470" s="2">
-        <v>0.81672376394271851</v>
+        <v>0.815543532371521</v>
       </c>
     </row>
     <row r="471">
@@ -8079,13 +8079,13 @@
         <v>0.87660664319992065</v>
       </c>
       <c r="C471" s="2">
-        <v>0.636616051197052</v>
+        <v>0.63577520847320557</v>
       </c>
       <c r="D471" s="2">
         <v>0.99800574779510498</v>
       </c>
       <c r="E471" s="2">
-        <v>0.8069993257522583</v>
+        <v>0.80560636520385742</v>
       </c>
     </row>
     <row r="472">
@@ -8096,13 +8096,13 @@
         <v>1.1662865877151489</v>
       </c>
       <c r="C472" s="2">
-        <v>1.010464072227478</v>
+        <v>1.0089857578277588</v>
       </c>
       <c r="D472" s="2">
         <v>0.98124015331268311</v>
       </c>
       <c r="E472" s="2">
-        <v>0.77298980951309204</v>
+        <v>0.77166396379470825</v>
       </c>
     </row>
     <row r="473">
@@ -8113,13 +8113,13 @@
         <v>0.51826679706573486</v>
       </c>
       <c r="C473" s="2">
-        <v>0.23737940192222595</v>
+        <v>0.23504465818405151</v>
       </c>
       <c r="D473" s="2">
         <v>0.97130143642425537</v>
       </c>
       <c r="E473" s="2">
-        <v>0.75158989429473877</v>
+        <v>0.75035911798477173</v>
       </c>
     </row>
     <row r="474">
@@ -8130,13 +8130,13 @@
         <v>0.73335343599319458</v>
       </c>
       <c r="C474" s="2">
-        <v>0.51797598600387573</v>
+        <v>0.51658409833908081</v>
       </c>
       <c r="D474" s="2">
         <v>0.97921824455261231</v>
       </c>
       <c r="E474" s="2">
-        <v>0.77452892065048218</v>
+        <v>0.77327460050582886</v>
       </c>
     </row>
     <row r="475">
@@ -8147,13 +8147,13 @@
         <v>1.0141769647598267</v>
       </c>
       <c r="C475" s="2">
-        <v>0.85406333208084107</v>
+        <v>0.85212421417236328</v>
       </c>
       <c r="D475" s="2">
         <v>1.0700467824935913</v>
       </c>
       <c r="E475" s="2">
-        <v>0.8950808048248291</v>
+        <v>0.89378201961517334</v>
       </c>
     </row>
     <row r="476">
@@ -8164,13 +8164,13 @@
         <v>1.1767474412918091</v>
       </c>
       <c r="C476" s="2">
-        <v>0.92062366008758545</v>
+        <v>0.91978520154953003</v>
       </c>
       <c r="D476" s="2">
         <v>1.0216326713562012</v>
       </c>
       <c r="E476" s="2">
-        <v>0.90126633644104004</v>
+        <v>0.89993524551391602</v>
       </c>
     </row>
     <row r="477">
@@ -8181,13 +8181,13 @@
         <v>1.1048728227615357</v>
       </c>
       <c r="C477" s="2">
-        <v>0.91872364282608032</v>
+        <v>0.91830718517303467</v>
       </c>
       <c r="D477" s="2">
         <v>1.0093672275543213</v>
       </c>
       <c r="E477" s="2">
-        <v>0.88613677024841309</v>
+        <v>0.88472390174865723</v>
       </c>
     </row>
     <row r="478">
@@ -8198,13 +8198,13 @@
         <v>1.1752603054046631</v>
       </c>
       <c r="C478" s="2">
-        <v>1.0633584260940552</v>
+        <v>1.0624920129776001</v>
       </c>
       <c r="D478" s="2">
         <v>1.0176829099655151</v>
       </c>
       <c r="E478" s="2">
-        <v>0.91083914041519165</v>
+        <v>0.90974223613739014</v>
       </c>
     </row>
     <row r="479">
@@ -8215,13 +8215,13 @@
         <v>1.8648504018783569</v>
       </c>
       <c r="C479" s="2">
-        <v>1.8965228796005249</v>
+        <v>1.8949398994445801</v>
       </c>
       <c r="D479" s="2">
         <v>1.0515755414962769</v>
       </c>
       <c r="E479" s="2">
-        <v>0.95195376873016358</v>
+        <v>0.950813889503479</v>
       </c>
     </row>
     <row r="480">
@@ -8232,13 +8232,13 @@
         <v>0.44087919592857361</v>
       </c>
       <c r="C480" s="2">
-        <v>0.69228541851043701</v>
+        <v>0.69115406274795532</v>
       </c>
       <c r="D480" s="2">
         <v>1.0868396759033203</v>
       </c>
       <c r="E480" s="2">
-        <v>0.9934622049331665</v>
+        <v>0.99250668287277222</v>
       </c>
     </row>
     <row r="481">
@@ -8249,13 +8249,13 @@
         <v>1.05589759349823</v>
       </c>
       <c r="C481" s="2">
-        <v>0.87429827451705933</v>
+        <v>0.87208384275436401</v>
       </c>
       <c r="D481" s="2">
         <v>1.1454439163208008</v>
       </c>
       <c r="E481" s="2">
-        <v>1.0760210752487183</v>
+        <v>1.0749626159667969</v>
       </c>
     </row>
     <row r="482">
@@ -8266,13 +8266,13 @@
         <v>0.59310775995254517</v>
       </c>
       <c r="C482" s="2">
-        <v>0.45970052480697632</v>
+        <v>0.46020945906639099</v>
       </c>
       <c r="D482" s="2">
         <v>1.1310354471206665</v>
       </c>
       <c r="E482" s="2">
-        <v>1.0568946599960327</v>
+        <v>1.0556604862213135</v>
       </c>
     </row>
     <row r="483">
@@ -8283,13 +8283,13 @@
         <v>1.0383869409561157</v>
       </c>
       <c r="C483" s="2">
-        <v>0.88800793886184692</v>
+        <v>0.88622927665710449</v>
       </c>
       <c r="D483" s="2">
         <v>1.1722795963287354</v>
       </c>
       <c r="E483" s="2">
-        <v>1.1047365665435791</v>
+        <v>1.1034764051437378</v>
       </c>
     </row>
     <row r="484">
@@ -8300,13 +8300,13 @@
         <v>1.3315544128417969</v>
       </c>
       <c r="C484" s="2">
-        <v>1.2276390790939331</v>
+        <v>1.2273591756820679</v>
       </c>
       <c r="D484" s="2">
         <v>1.1035730838775635</v>
       </c>
       <c r="E484" s="2">
-        <v>1.0158513784408569</v>
+        <v>1.0146181583404541</v>
       </c>
     </row>
     <row r="485">
@@ -8317,13 +8317,13 @@
         <v>1.7041863203048706</v>
       </c>
       <c r="C485" s="2">
-        <v>1.6636531352996826</v>
+        <v>1.6618882417678833</v>
       </c>
       <c r="D485" s="2">
         <v>1.1735711097717285</v>
       </c>
       <c r="E485" s="2">
-        <v>1.0461512804031372</v>
+        <v>1.0448328256607056</v>
       </c>
     </row>
     <row r="486">
@@ -8334,13 +8334,13 @@
         <v>0.97519654035568237</v>
       </c>
       <c r="C486" s="2">
-        <v>0.74658608436584473</v>
+        <v>0.74458861351013184</v>
       </c>
       <c r="D486" s="2">
         <v>1.1903656721115112</v>
       </c>
       <c r="E486" s="2">
-        <v>1.0873411893844605</v>
+        <v>1.0861971378326416</v>
       </c>
     </row>
     <row r="487">
@@ -8351,13 +8351,13 @@
         <v>1.546457052230835</v>
       </c>
       <c r="C487" s="2">
-        <v>1.4939359426498413</v>
+        <v>1.4928352832794189</v>
       </c>
       <c r="D487" s="2">
         <v>1.2068754434585571</v>
       </c>
       <c r="E487" s="2">
-        <v>1.1084016561508179</v>
+        <v>1.1069575548171997</v>
       </c>
     </row>
     <row r="488">
@@ -8368,13 +8368,13 @@
         <v>1.2464917898178101</v>
       </c>
       <c r="C488" s="2">
-        <v>1.0965560674667358</v>
+        <v>1.0952157974243164</v>
       </c>
       <c r="D488" s="2">
         <v>1.1788644790649414</v>
       </c>
       <c r="E488" s="2">
-        <v>1.0727604627609253</v>
+        <v>1.0713036060333252</v>
       </c>
     </row>
     <row r="489">
@@ -8385,13 +8385,13 @@
         <v>1.0708612203598022</v>
       </c>
       <c r="C489" s="2">
-        <v>0.96498441696166992</v>
+        <v>0.96308553218841553</v>
       </c>
       <c r="D489" s="2">
         <v>1.1748254299163818</v>
       </c>
       <c r="E489" s="2">
-        <v>1.0429627895355225</v>
+        <v>1.0413066148757935</v>
       </c>
     </row>
     <row r="490">
@@ -8402,13 +8402,13 @@
         <v>1.2070494890213013</v>
       </c>
       <c r="C490" s="2">
-        <v>1.2450071573257446</v>
+        <v>1.2443631887435913</v>
       </c>
       <c r="D490" s="2">
         <v>1.0085428953170776</v>
       </c>
       <c r="E490" s="2">
-        <v>0.85200059413909912</v>
+        <v>0.85023057460784912</v>
       </c>
     </row>
     <row r="491">
@@ -8419,13 +8419,13 @@
         <v>0.7416948676109314</v>
       </c>
       <c r="C491" s="2">
-        <v>0.64924466609954834</v>
+        <v>0.64705336093902588</v>
       </c>
       <c r="D491" s="2">
         <v>1.0699325799942017</v>
       </c>
       <c r="E491" s="2">
-        <v>0.91131973266601563</v>
+        <v>0.90945076942443848</v>
       </c>
     </row>
     <row r="492">
@@ -8436,13 +8436,13 @@
         <v>0.78628808259963989</v>
       </c>
       <c r="C492" s="2">
-        <v>0.5672379732131958</v>
+        <v>0.56534367799758911</v>
       </c>
       <c r="D492" s="2">
         <v>1.0181125402450562</v>
       </c>
       <c r="E492" s="2">
-        <v>0.83428245782852173</v>
+        <v>0.83236098289489746</v>
       </c>
     </row>
     <row r="493">
@@ -8453,13 +8453,13 @@
         <v>1.2952035665512085</v>
       </c>
       <c r="C493" s="2">
-        <v>0.95946007966995239</v>
+        <v>0.95738589763641357</v>
       </c>
       <c r="D493" s="2">
         <v>1.0395561456680298</v>
       </c>
       <c r="E493" s="2">
-        <v>0.85184246301651001</v>
+        <v>0.84977596998214722</v>
       </c>
     </row>
     <row r="494">
@@ -8470,13 +8470,13 @@
         <v>0.20764395594596863</v>
       </c>
       <c r="C494" s="2">
-        <v>-0.055007234215736389</v>
+        <v>-0.057796303182840347</v>
       </c>
       <c r="D494" s="2">
         <v>1.0876883268356323</v>
       </c>
       <c r="E494" s="2">
-        <v>0.90926212072372437</v>
+        <v>0.90726727247238159</v>
       </c>
     </row>
     <row r="495">
@@ -8487,13 +8487,13 @@
         <v>1.5277031660079956</v>
       </c>
       <c r="C495" s="2">
-        <v>1.2804586887359619</v>
+        <v>1.2775707244873047</v>
       </c>
       <c r="D495" s="2">
         <v>1.1220766305923462</v>
       </c>
       <c r="E495" s="2">
-        <v>0.93806564807891846</v>
+        <v>0.93578547239303589</v>
       </c>
     </row>
     <row r="496">
@@ -8504,13 +8504,13 @@
         <v>1.0800763368606567</v>
       </c>
       <c r="C496" s="2">
-        <v>0.80060005187988281</v>
+        <v>0.79902678728103638</v>
       </c>
       <c r="D496" s="2">
         <v>1.1469177007675171</v>
       </c>
       <c r="E496" s="2">
-        <v>0.96532207727432251</v>
+        <v>0.96324056386947632</v>
       </c>
     </row>
     <row r="497">
@@ -8521,13 +8521,13 @@
         <v>1.4394849538803101</v>
       </c>
       <c r="C497" s="2">
-        <v>1.2545963525772095</v>
+        <v>1.2519510984420776</v>
       </c>
       <c r="D497" s="2">
         <v>1.1727150678634644</v>
       </c>
       <c r="E497" s="2">
-        <v>0.99516254663467407</v>
+        <v>0.99313569068908692</v>
       </c>
     </row>
     <row r="498">
@@ -8538,13 +8538,13 @@
         <v>1.5040500164031983</v>
       </c>
       <c r="C498" s="2">
-        <v>1.4817612171173096</v>
+        <v>1.4805067777633667</v>
       </c>
       <c r="D498" s="2">
         <v>1.1690343618392944</v>
       </c>
       <c r="E498" s="2">
-        <v>1.0303350687026978</v>
+        <v>1.0283373594284058</v>
       </c>
     </row>
     <row r="499">
@@ -8555,13 +8555,13 @@
         <v>1.5165451765060425</v>
       </c>
       <c r="C499" s="2">
-        <v>1.5042392015457153</v>
+        <v>1.5010273456573486</v>
       </c>
       <c r="D499" s="2">
         <v>1.3005632162094116</v>
       </c>
       <c r="E499" s="2">
-        <v>1.1789448261260986</v>
+        <v>1.1771460771560669</v>
       </c>
     </row>
     <row r="500">
@@ -8572,13 +8572,13 @@
         <v>0.96526437997817993</v>
       </c>
       <c r="C500" s="2">
-        <v>0.89455223083496094</v>
+        <v>0.8941493034362793</v>
       </c>
       <c r="D500" s="2">
         <v>1.2293789386749268</v>
       </c>
       <c r="E500" s="2">
-        <v>1.1847429275512695</v>
+        <v>1.1830207109451294</v>
       </c>
     </row>
     <row r="501">
@@ -8589,13 +8589,13 @@
         <v>1.0184637308120728</v>
       </c>
       <c r="C501" s="2">
-        <v>0.83580237627029419</v>
+        <v>0.83439940214157105</v>
       </c>
       <c r="D501" s="2">
         <v>1.2130026817321777</v>
       </c>
       <c r="E501" s="2">
-        <v>1.1886049509048462</v>
+        <v>1.1867828369140625</v>
       </c>
     </row>
     <row r="502">
@@ -8606,13 +8606,13 @@
         <v>1.2620773315429688</v>
       </c>
       <c r="C502" s="2">
-        <v>1.2760128974914551</v>
+        <v>1.2742012739181519</v>
       </c>
       <c r="D502" s="2">
         <v>1.1806960105895996</v>
       </c>
       <c r="E502" s="2">
-        <v>1.1848809719085693</v>
+        <v>1.1833164691925049</v>
       </c>
     </row>
     <row r="503">
@@ -8623,13 +8623,13 @@
         <v>1.3914036750793457</v>
       </c>
       <c r="C503" s="2">
-        <v>1.2824809551239014</v>
+        <v>1.2814822196960449</v>
       </c>
       <c r="D503" s="2">
         <v>1.1312421560287476</v>
       </c>
       <c r="E503" s="2">
-        <v>1.1202044486999512</v>
+        <v>1.1185537576675415</v>
       </c>
     </row>
     <row r="504">
@@ -8640,13 +8640,13 @@
         <v>0.88704478740692139</v>
       </c>
       <c r="C504" s="2">
-        <v>1.3326410055160523</v>
+        <v>1.3304426670074463</v>
       </c>
       <c r="D504" s="2">
         <v>1.0319074392318726</v>
       </c>
       <c r="E504" s="2">
-        <v>1.0061581134796143</v>
+        <v>1.0047473907470703</v>
       </c>
     </row>
     <row r="505">
@@ -8657,13 +8657,13 @@
         <v>0.93268966674804688</v>
       </c>
       <c r="C505" s="2">
-        <v>0.83535808324813843</v>
+        <v>0.83288562297821045</v>
       </c>
       <c r="D505" s="2">
         <v>0.88965290784835815</v>
       </c>
       <c r="E505" s="2">
-        <v>0.87432825565338135</v>
+        <v>0.87297749519348145</v>
       </c>
     </row>
     <row r="506">
@@ -8674,13 +8674,13 @@
         <v>1.1487250328063965</v>
       </c>
       <c r="C506" s="2">
-        <v>1.2210804224014282</v>
+        <v>1.2207539081573486</v>
       </c>
       <c r="D506" s="2">
         <v>0.73308110237121582</v>
       </c>
       <c r="E506" s="2">
-        <v>0.7417181134223938</v>
+        <v>0.74042290449142456</v>
       </c>
     </row>
     <row r="507">
@@ -8691,13 +8691,13 @@
         <v>1.0589654445648193</v>
       </c>
       <c r="C507" s="2">
-        <v>0.89967244863510132</v>
+        <v>0.89764201641082764</v>
       </c>
       <c r="D507" s="2">
         <v>0.55847901105880737</v>
       </c>
       <c r="E507" s="2">
-        <v>0.58496683835983276</v>
+        <v>0.58388322591781616</v>
       </c>
     </row>
     <row r="508">
@@ -8708,13 +8708,13 @@
         <v>0.62253290414810181</v>
       </c>
       <c r="C508" s="2">
-        <v>0.47782301902770996</v>
+        <v>0.47676986455917358</v>
       </c>
       <c r="D508" s="2">
         <v>0.42031973600387573</v>
       </c>
       <c r="E508" s="2">
-        <v>0.46334969997406006</v>
+        <v>0.46229532361030579</v>
       </c>
     </row>
     <row r="509">
@@ -8725,13 +8725,13 @@
         <v>-0.31502664089202881</v>
       </c>
       <c r="C509" s="2">
-        <v>-0.29191684722900391</v>
+        <v>-0.29177969694137573</v>
       </c>
       <c r="D509" s="2">
         <v>0.29104846715927124</v>
       </c>
       <c r="E509" s="2">
-        <v>0.28546622395515442</v>
+        <v>0.28464391827583313</v>
       </c>
     </row>
     <row r="510">
@@ -8742,13 +8742,13 @@
         <v>-0.39068228006362915</v>
       </c>
       <c r="C510" s="2">
-        <v>-0.3576887845993042</v>
+        <v>-0.35859158635139465</v>
       </c>
       <c r="D510" s="2">
         <v>0.23398058116436005</v>
       </c>
       <c r="E510" s="2">
-        <v>0.21993185579776764</v>
+        <v>0.21936078369617462</v>
       </c>
     </row>
     <row r="511">
@@ -8759,13 +8759,13 @@
         <v>-0.30934146046638489</v>
       </c>
       <c r="C511" s="2">
-        <v>-0.13474875688552856</v>
+        <v>-0.1346561461687088</v>
       </c>
       <c r="D511" s="2">
         <v>0.17532257735729218</v>
       </c>
       <c r="E511" s="2">
-        <v>0.14806646108627319</v>
+        <v>0.14742355048656464</v>
       </c>
     </row>
     <row r="512">
@@ -8776,13 +8776,13 @@
         <v>0.14797009527683258</v>
       </c>
       <c r="C512" s="2">
-        <v>0.18792679905891418</v>
+        <v>0.18719115853309631</v>
       </c>
       <c r="D512" s="2">
         <v>0.022293118759989738</v>
       </c>
       <c r="E512" s="2">
-        <v>0.0049003860913217068</v>
+        <v>0.0043155946768820286</v>
       </c>
     </row>
     <row r="513">
@@ -8793,13 +8793,13 @@
         <v>-0.27639669179916382</v>
       </c>
       <c r="C513" s="2">
-        <v>-0.26831039786338806</v>
+        <v>-0.26841989159584045</v>
       </c>
       <c r="D513" s="2">
         <v>0.0073073357343673706</v>
       </c>
       <c r="E513" s="2">
-        <v>-0.011570221744477749</v>
+        <v>-0.012060340493917465</v>
       </c>
     </row>
     <row r="514">
@@ -8810,13 +8810,13 @@
         <v>0.41907888650894165</v>
       </c>
       <c r="C514" s="2">
-        <v>0.24554881453514099</v>
+        <v>0.24533741176128387</v>
       </c>
       <c r="D514" s="2">
         <v>0.14364174008369446</v>
       </c>
       <c r="E514" s="2">
-        <v>0.12488415092229843</v>
+        <v>0.12429171800613403</v>
       </c>
     </row>
     <row r="515">
@@ -8827,13 +8827,13 @@
         <v>0.62080293893814087</v>
       </c>
       <c r="C515" s="2">
-        <v>0.57429182529449463</v>
+        <v>0.57331877946853638</v>
       </c>
       <c r="D515" s="2">
         <v>0.28240573406219482</v>
       </c>
       <c r="E515" s="2">
-        <v>0.26092997193336487</v>
+        <v>0.26044231653213501</v>
       </c>
     </row>
     <row r="516">
@@ -8844,13 +8844,13 @@
         <v>-0.31829968094825745</v>
       </c>
       <c r="C516" s="2">
-        <v>-0.38882219791412354</v>
+        <v>-0.39032953977584839</v>
       </c>
       <c r="D516" s="2">
         <v>0.43446016311645508</v>
       </c>
       <c r="E516" s="2">
-        <v>0.3997158408164978</v>
+        <v>0.39917504787445068</v>
       </c>
     </row>
     <row r="517">
@@ -8861,13 +8861,13 @@
         <v>0.48766085505485535</v>
       </c>
       <c r="C517" s="2">
-        <v>0.32958754897117615</v>
+        <v>0.32938644289970398</v>
       </c>
       <c r="D517" s="2">
         <v>0.53930217027664185</v>
       </c>
       <c r="E517" s="2">
-        <v>0.4974464476108551</v>
+        <v>0.49689814448356628</v>
       </c>
     </row>
     <row r="518">
@@ -8878,13 +8878,13 @@
         <v>0.91198301315307617</v>
       </c>
       <c r="C518" s="2">
-        <v>0.9361724853515625</v>
+        <v>0.93538880348205567</v>
       </c>
       <c r="D518" s="2">
         <v>0.68326592445373535</v>
       </c>
       <c r="E518" s="2">
-        <v>0.66814661026000977</v>
+        <v>0.66744667291641235</v>
       </c>
     </row>
     <row r="519">
@@ -8895,13 +8895,13 @@
         <v>0.85819363594055176</v>
       </c>
       <c r="C519" s="2">
-        <v>0.86672365665435791</v>
+        <v>0.86676394939422607</v>
       </c>
       <c r="D519" s="2">
         <v>0.71588611602783203</v>
       </c>
       <c r="E519" s="2">
-        <v>0.73183858394622803</v>
+        <v>0.73102873563766479</v>
       </c>
     </row>
     <row r="520">
@@ -8912,13 +8912,13 @@
         <v>1.0591484308242798</v>
       </c>
       <c r="C520" s="2">
-        <v>1.1143239736557007</v>
+        <v>1.1139383316040039</v>
       </c>
       <c r="D520" s="2">
         <v>0.68480128049850464</v>
       </c>
       <c r="E520" s="2">
-        <v>0.69719332456588745</v>
+        <v>0.69646525382995606</v>
       </c>
     </row>
     <row r="521">
@@ -8929,13 +8929,13 @@
         <v>1.0915480852127075</v>
       </c>
       <c r="C521" s="2">
-        <v>1.0675023794174194</v>
+        <v>1.0666989088058472</v>
       </c>
       <c r="D521" s="2">
         <v>0.84871155023574829</v>
       </c>
       <c r="E521" s="2">
-        <v>0.87039941549301147</v>
+        <v>0.8698190450668335</v>
       </c>
     </row>
     <row r="522">
@@ -8946,13 +8946,13 @@
         <v>1.0192772150039673</v>
       </c>
       <c r="C522" s="2">
-        <v>1.2679911851882935</v>
+        <v>1.2665171623229981</v>
       </c>
       <c r="D522" s="2">
         <v>0.83220744132995606</v>
       </c>
       <c r="E522" s="2">
-        <v>0.87050974369049072</v>
+        <v>0.86991232633590698</v>
       </c>
     </row>
     <row r="523">
@@ -8963,13 +8963,13 @@
         <v>0.71266067028045654</v>
       </c>
       <c r="C523" s="2">
-        <v>0.81877642869949341</v>
+        <v>0.81757593154907227</v>
       </c>
       <c r="D523" s="2">
         <v>0.79856282472610474</v>
       </c>
       <c r="E523" s="2">
-        <v>0.8320268988609314</v>
+        <v>0.83150982856750488</v>
       </c>
     </row>
     <row r="524">
@@ -8980,13 +8980,13 @@
         <v>0.34103906154632568</v>
       </c>
       <c r="C524" s="2">
-        <v>0.26248469948768616</v>
+        <v>0.26224750280380249</v>
       </c>
       <c r="D524" s="2">
         <v>0.81259059906005859</v>
       </c>
       <c r="E524" s="2">
-        <v>0.84764373302459717</v>
+        <v>0.84713965654373169</v>
       </c>
     </row>
     <row r="525">
@@ -8997,13 +8997,13 @@
         <v>1.1568928956985474</v>
       </c>
       <c r="C525" s="2">
-        <v>1.1700326204299927</v>
+        <v>1.1698541641235352</v>
       </c>
       <c r="D525" s="2">
         <v>0.7372668981552124</v>
       </c>
       <c r="E525" s="2">
-        <v>0.75512945652008057</v>
+        <v>0.7545698881149292</v>
       </c>
     </row>
     <row r="526">
@@ -9014,13 +9014,13 @@
         <v>0.33912378549575806</v>
       </c>
       <c r="C526" s="2">
-        <v>0.33058008551597595</v>
+        <v>0.33022612333297729</v>
       </c>
       <c r="D526" s="2">
         <v>0.7090294361114502</v>
       </c>
       <c r="E526" s="2">
-        <v>0.7280881404876709</v>
+        <v>0.727641761302948</v>
       </c>
     </row>
     <row r="527">
@@ -9031,13 +9031,13 @@
         <v>0.60918146371841431</v>
       </c>
       <c r="C527" s="2">
-        <v>0.58982706069946289</v>
+        <v>0.58976614475250244</v>
       </c>
       <c r="D527" s="2">
         <v>0.66850030422210693</v>
       </c>
       <c r="E527" s="2">
-        <v>0.65717977285385132</v>
+        <v>0.65689092874526978</v>
       </c>
     </row>
     <row r="528">
@@ -9048,13 +9048,13 @@
         <v>0.98444372415542603</v>
       </c>
       <c r="C528" s="2">
-        <v>1.0072749853134155</v>
+        <v>1.0074325799942017</v>
       </c>
       <c r="D528" s="2">
         <v>0.67174011468887329</v>
       </c>
       <c r="E528" s="2">
-        <v>0.63522124290466309</v>
+        <v>0.63498234748840332</v>
       </c>
     </row>
     <row r="529">
@@ -9065,13 +9065,13 @@
         <v>0.38123545050621033</v>
       </c>
       <c r="C529" s="2">
-        <v>0.28169569373130798</v>
+        <v>0.28081047534942627</v>
       </c>
       <c r="D529" s="2">
         <v>0.63968777656555176</v>
       </c>
       <c r="E529" s="2">
-        <v>0.59669238328933716</v>
+        <v>0.59647488594055176</v>
       </c>
     </row>
     <row r="530">
@@ -9082,13 +9082,13 @@
         <v>0.83741074800491333</v>
       </c>
       <c r="C530" s="2">
-        <v>0.82413047552108765</v>
+        <v>0.82434564828872681</v>
       </c>
       <c r="D530" s="2">
         <v>0.4499584436416626</v>
       </c>
       <c r="E530" s="2">
-        <v>0.40985706448554993</v>
+        <v>0.40963619947433472</v>
       </c>
     </row>
     <row r="531">
@@ -9099,13 +9099,13 @@
         <v>0.6545148491859436</v>
       </c>
       <c r="C531" s="2">
-        <v>0.62981611490249634</v>
+        <v>0.62975966930389404</v>
       </c>
       <c r="D531" s="2">
         <v>0.44234931468963623</v>
       </c>
       <c r="E531" s="2">
-        <v>0.40209755301475525</v>
+        <v>0.40190958976745606</v>
       </c>
     </row>
     <row r="532">
@@ -9116,13 +9116,13 @@
         <v>0.74181884527206421</v>
       </c>
       <c r="C532" s="2">
-        <v>0.62114965915679932</v>
+        <v>0.62039870023727417</v>
       </c>
       <c r="D532" s="2">
         <v>0.40619507431983948</v>
       </c>
       <c r="E532" s="2">
-        <v>0.36997374892234802</v>
+        <v>0.36967548727989197</v>
       </c>
     </row>
     <row r="533">
@@ -9133,13 +9133,13 @@
         <v>0.05256812646985054</v>
       </c>
       <c r="C533" s="2">
-        <v>-0.084275506436824799</v>
+        <v>-0.084319509565830231</v>
       </c>
       <c r="D533" s="2">
         <v>0.29515799880027771</v>
       </c>
       <c r="E533" s="2">
-        <v>0.24523627758026123</v>
+        <v>0.24489609897136688</v>
       </c>
     </row>
     <row r="534">
@@ -9150,13 +9150,13 @@
         <v>-0.55067098140716553</v>
       </c>
       <c r="C534" s="2">
-        <v>-0.51148509979248047</v>
+        <v>-0.51169407367706299</v>
       </c>
       <c r="D534" s="2">
         <v>0.25746017694473267</v>
       </c>
       <c r="E534" s="2">
-        <v>0.20989392697811127</v>
+        <v>0.20959453284740448</v>
       </c>
     </row>
     <row r="535">
@@ -9167,13 +9167,13 @@
         <v>0.27064147591590881</v>
       </c>
       <c r="C535" s="2">
-        <v>0.26074454188346863</v>
+        <v>0.2606867253780365</v>
       </c>
       <c r="D535" s="2">
         <v>0.1633276492357254</v>
       </c>
       <c r="E535" s="2">
-        <v>0.13112001121044159</v>
+        <v>0.1307862251996994</v>
       </c>
     </row>
     <row r="536">
@@ -9184,13 +9184,13 @@
         <v>0.28379341959953308</v>
       </c>
       <c r="C536" s="2">
-        <v>0.3007129430770874</v>
+        <v>0.29965925216674805</v>
       </c>
       <c r="D536" s="2">
         <v>0.11014803498983383</v>
       </c>
       <c r="E536" s="2">
-        <v>0.07559194415807724</v>
+        <v>0.07528262585401535</v>
       </c>
     </row>
     <row r="537">
@@ -9201,13 +9201,13 @@
         <v>-0.014889826998114586</v>
       </c>
       <c r="C537" s="2">
-        <v>-0.11536235362291336</v>
+        <v>-0.11558203399181366</v>
       </c>
       <c r="D537" s="2">
         <v>0.050069317221641541</v>
       </c>
       <c r="E537" s="2">
-        <v>0.022914959117770195</v>
+        <v>0.022667020559310913</v>
       </c>
     </row>
     <row r="538">
@@ -9218,13 +9218,13 @@
         <v>0.041955038905143738</v>
       </c>
       <c r="C538" s="2">
-        <v>-0.036385495215654373</v>
+        <v>-0.036903612315654755</v>
       </c>
       <c r="D538" s="2">
         <v>0.087621346116065979</v>
       </c>
       <c r="E538" s="2">
-        <v>0.071623995900154114</v>
+        <v>0.07135387510061264</v>
       </c>
     </row>
     <row r="539">
@@ -9235,13 +9235,13 @@
         <v>-0.0097820507362484932</v>
       </c>
       <c r="C539" s="2">
-        <v>0.11516527831554413</v>
+        <v>0.11507085710763931</v>
       </c>
       <c r="D539" s="2">
         <v>0.20720434188842774</v>
       </c>
       <c r="E539" s="2">
-        <v>0.17684197425842285</v>
+        <v>0.17650805413722992</v>
       </c>
     </row>
     <row r="540">
@@ -9252,13 +9252,13 @@
         <v>0.17589828372001648</v>
       </c>
       <c r="C540" s="2">
-        <v>0.1300635039806366</v>
+        <v>0.13022734224796295</v>
       </c>
       <c r="D540" s="2">
         <v>0.17912249267101288</v>
       </c>
       <c r="E540" s="2">
-        <v>0.13768376410007477</v>
+        <v>0.13726405799388885</v>
       </c>
     </row>
     <row r="541">
@@ -9269,13 +9269,13 @@
         <v>0.20111037790775299</v>
       </c>
       <c r="C541" s="2">
-        <v>0.14705681800842285</v>
+        <v>0.14685823023319244</v>
       </c>
       <c r="D541" s="2">
         <v>0.21292875707149506</v>
       </c>
       <c r="E541" s="2">
-        <v>0.16563020646572113</v>
+        <v>0.16534329950809479</v>
       </c>
     </row>
     <row r="542">
@@ -9286,13 +9286,13 @@
         <v>0.390536367893219</v>
       </c>
       <c r="C542" s="2">
-        <v>0.35410583019256592</v>
+        <v>0.35386219620704651</v>
       </c>
       <c r="D542" s="2">
         <v>0.24846506118774414</v>
       </c>
       <c r="E542" s="2">
-        <v>0.19697548449039459</v>
+        <v>0.19662840664386749</v>
       </c>
     </row>
     <row r="543">
@@ -9303,13 +9303,13 @@
         <v>0.52557605504989624</v>
       </c>
       <c r="C543" s="2">
-        <v>0.43547675013542175</v>
+        <v>0.43469354510307312</v>
       </c>
       <c r="D543" s="2">
         <v>0.2516215443611145</v>
       </c>
       <c r="E543" s="2">
-        <v>0.20916330814361572</v>
+        <v>0.20886564254760742</v>
       </c>
     </row>
     <row r="544">
@@ -9320,13 +9320,13 @@
         <v>0.01790480874478817</v>
       </c>
       <c r="C544" s="2">
-        <v>-0.091679424047470093</v>
+        <v>-0.09250929206609726</v>
       </c>
       <c r="D544" s="2">
         <v>0.32770442962646484</v>
       </c>
       <c r="E544" s="2">
-        <v>0.2611028254032135</v>
+        <v>0.2608153223991394</v>
       </c>
     </row>
     <row r="545">
@@ -9337,13 +9337,13 @@
         <v>0.58804976940155029</v>
       </c>
       <c r="C545" s="2">
-        <v>0.55223095417022705</v>
+        <v>0.55237245559692383</v>
       </c>
       <c r="D545" s="2">
         <v>0.35874345898628235</v>
       </c>
       <c r="E545" s="2">
-        <v>0.28662315011024475</v>
+        <v>0.28627154231071472</v>
       </c>
     </row>
     <row r="546">
@@ -9354,13 +9354,13 @@
         <v>0.30493685603141785</v>
       </c>
       <c r="C546" s="2">
-        <v>0.16674517095088959</v>
+        <v>0.1659839004278183</v>
       </c>
       <c r="D546" s="2">
         <v>0.42180377244949341</v>
       </c>
       <c r="E546" s="2">
-        <v>0.36452573537826538</v>
+        <v>0.36420378088951111</v>
       </c>
     </row>
     <row r="547">
@@ -9371,13 +9371,13 @@
         <v>0.070363469421863556</v>
       </c>
       <c r="C547" s="2">
-        <v>0.073304854333400726</v>
+        <v>0.073231600224971771</v>
       </c>
       <c r="D547" s="2">
         <v>0.4432181715965271</v>
       </c>
       <c r="E547" s="2">
-        <v>0.37808281183242798</v>
+        <v>0.37780869007110596</v>
       </c>
     </row>
     <row r="548">
@@ -9388,13 +9388,13 @@
         <v>0.67496401071548462</v>
       </c>
       <c r="C548" s="2">
-        <v>0.58262085914611816</v>
+        <v>0.58261799812316895</v>
       </c>
       <c r="D548" s="2">
         <v>0.45586022734642029</v>
       </c>
       <c r="E548" s="2">
-        <v>0.39316397905349732</v>
+        <v>0.39305084943771362</v>
       </c>
     </row>
     <row r="549">
@@ -9405,13 +9405,13 @@
         <v>0.45524948835372925</v>
       </c>
       <c r="C549" s="2">
-        <v>0.35974651575088501</v>
+        <v>0.35933312773704529</v>
       </c>
       <c r="D549" s="2">
         <v>0.51921218633651733</v>
       </c>
       <c r="E549" s="2">
-        <v>0.46240529417991638</v>
+        <v>0.46230104565620422</v>
       </c>
     </row>
     <row r="550">
@@ -9422,13 +9422,13 @@
         <v>0.7686530351638794</v>
       </c>
       <c r="C550" s="2">
-        <v>0.84818005561828613</v>
+        <v>0.84824860095977783</v>
       </c>
       <c r="D550" s="2">
         <v>0.50027734041213989</v>
       </c>
       <c r="E550" s="2">
-        <v>0.44381505250930786</v>
+        <v>0.44376996159553528</v>
       </c>
     </row>
     <row r="551">
@@ -9439,13 +9439,13 @@
         <v>0.58326607942581177</v>
       </c>
       <c r="C551" s="2">
-        <v>0.47611966729164124</v>
+        <v>0.47630628943443298</v>
       </c>
       <c r="D551" s="2">
         <v>0.49675530195236206</v>
       </c>
       <c r="E551" s="2">
-        <v>0.43789952993392944</v>
+        <v>0.43789049983024597</v>
       </c>
     </row>
     <row r="552">
@@ -9456,13 +9456,13 @@
         <v>0.63935452699661255</v>
       </c>
       <c r="C552" s="2">
-        <v>0.57120722532272339</v>
+        <v>0.57187294960021973</v>
       </c>
       <c r="D552" s="2">
         <v>0.48858609795570374</v>
       </c>
       <c r="E552" s="2">
-        <v>0.42481681704521179</v>
+        <v>0.42470452189445496</v>
       </c>
     </row>
     <row r="553">
@@ -9473,13 +9473,13 @@
         <v>0.58807265758514404</v>
       </c>
       <c r="C553" s="2">
-        <v>0.53149223327636719</v>
+        <v>0.5307425856590271</v>
       </c>
       <c r="D553" s="2">
-        <v>0.49659907817840576</v>
+        <v>0.53608953952789307</v>
       </c>
       <c r="E553" s="2">
-        <v>0.43890088796615601</v>
+        <v>0.46399399638175964</v>
       </c>
     </row>
     <row r="554">
@@ -9490,13 +9490,13 @@
         <v>0.41763603687286377</v>
       </c>
       <c r="C554" s="2">
-        <v>0.38491877913475037</v>
+        <v>0.38559255003929138</v>
       </c>
       <c r="D554" s="2">
-        <v>0.47957199811935425</v>
+        <v>0.52418357133865357</v>
       </c>
       <c r="E554" s="2">
-        <v>0.40593826770782471</v>
+        <v>0.42250990867614746</v>
       </c>
     </row>
     <row r="555">
@@ -9507,13 +9507,13 @@
         <v>0.2732384204864502</v>
       </c>
       <c r="C555" s="2">
-        <v>0.113505519926548</v>
+        <v>0.11306891590356827</v>
       </c>
       <c r="D555" s="2">
-        <v>0.43887937068939209</v>
+        <v>0.48997357487678528</v>
       </c>
       <c r="E555" s="2">
-        <v>0.34102794528007507</v>
+        <v>0.36574992537498474</v>
       </c>
     </row>
     <row r="556">
@@ -9524,13 +9524,13 @@
         <v>-0.0031594929751008749</v>
       </c>
       <c r="C556" s="2">
-        <v>-0.044439598917961121</v>
+        <v>-0.045442327857017517</v>
       </c>
       <c r="D556" s="2">
-        <v>0.50237208604812622</v>
+        <v>0.50644183158874512</v>
       </c>
       <c r="E556" s="2">
-        <v>0.36664146184921265</v>
+        <v>0.39093425869941711</v>
       </c>
     </row>
     <row r="557">
@@ -9538,16 +9538,16 @@
         <v>45383</v>
       </c>
       <c r="B557" s="2">
-        <v>0.74708098173141479</v>
+        <v>1.1024953126907349</v>
       </c>
       <c r="C557" s="2">
-        <v>0.70937752723693848</v>
+        <v>0.93622314929962158</v>
       </c>
       <c r="D557" s="2">
-        <v>0.46173742413520813</v>
+        <v>0.46114709973335266</v>
       </c>
       <c r="E557" s="2">
-        <v>0.33538943529129028</v>
+        <v>0.34188061952590942</v>
       </c>
     </row>
     <row r="558">
@@ -9555,16 +9555,16 @@
         <v>45413</v>
       </c>
       <c r="B558" s="2">
-        <v>0.30200573801994324</v>
+        <v>0.34809565544128418</v>
       </c>
       <c r="C558" s="2">
-        <v>0.063083074986934662</v>
+        <v>-0.014023546129465103</v>
       </c>
       <c r="D558" s="2">
-        <v>0.44594553112983704</v>
+        <v>0.44528141617774963</v>
       </c>
       <c r="E558" s="2">
-        <v>0.31087657809257507</v>
+        <v>0.31827288866043091</v>
       </c>
     </row>
     <row r="559">
@@ -9572,16 +9572,16 @@
         <v>45444</v>
       </c>
       <c r="B559" s="2">
-        <v>0.40241944789886475</v>
+        <v>0.46076291799545288</v>
       </c>
       <c r="C559" s="2">
-        <v>0.26398715376853943</v>
+        <v>0.33740884065628052</v>
       </c>
       <c r="D559" s="2">
-        <v>0.44998973608016968</v>
+        <v>0.44923076033592224</v>
       </c>
       <c r="E559" s="2">
-        <v>0.30029913783073425</v>
+        <v>0.30865576863288879</v>
       </c>
     </row>
     <row r="560">
@@ -9589,16 +9589,16 @@
         <v>45474</v>
       </c>
       <c r="B560" s="2">
-        <v>1.1547005176544189</v>
+        <v>0.73148053884506226</v>
       </c>
       <c r="C560" s="2">
-        <v>0.70664119720458984</v>
+        <v>0.70296531915664673</v>
       </c>
       <c r="D560" s="2">
-        <v>0.47944828867912293</v>
+        <v>0.47856280207633972</v>
       </c>
       <c r="E560" s="2">
-        <v>0.33143138885498047</v>
+        <v>0.34125357866287232</v>
       </c>
     </row>
     <row r="561">
@@ -9606,16 +9606,16 @@
         <v>45505</v>
       </c>
       <c r="B561" s="2">
-        <v>0.27364248037338257</v>
+        <v>0.23170194029808045</v>
       </c>
       <c r="C561" s="2">
-        <v>0.28993904590606689</v>
+        <v>0.13039012253284454</v>
       </c>
       <c r="D561" s="2">
-        <v>0.57596981525421143</v>
+        <v>0.57490730285644531</v>
       </c>
       <c r="E561" s="2">
-        <v>0.40660560131072998</v>
+        <v>0.41859278082847595</v>
       </c>
     </row>
   </sheetData>

--- a/MSC_skewness.xlsx
+++ b/MSC_skewness.xlsx
@@ -75,7 +75,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E561"/>
+  <dimension ref="A1:E567"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -106,13 +106,13 @@
         <v>0.88469290733337402</v>
       </c>
       <c r="C2" s="2">
-        <v>0.86723554134368896</v>
+        <v>0.86907166242599487</v>
       </c>
       <c r="D2" s="2">
         <v>0.8245728611946106</v>
       </c>
       <c r="E2" s="2">
-        <v>0.79334753751754761</v>
+        <v>0.79394888877868652</v>
       </c>
     </row>
     <row r="3">
@@ -123,13 +123,13 @@
         <v>0.87288045883178711</v>
       </c>
       <c r="C3" s="2">
-        <v>0.83017361164093018</v>
+        <v>0.83037525415420532</v>
       </c>
       <c r="D3" s="2">
         <v>0.79138636589050293</v>
       </c>
       <c r="E3" s="2">
-        <v>0.75799322128295898</v>
+        <v>0.75861328840255737</v>
       </c>
     </row>
     <row r="4">
@@ -140,13 +140,13 @@
         <v>0.88555455207824707</v>
       </c>
       <c r="C4" s="2">
-        <v>0.84132927656173706</v>
+        <v>0.84212052822113037</v>
       </c>
       <c r="D4" s="2">
         <v>0.74737828969955444</v>
       </c>
       <c r="E4" s="2">
-        <v>0.71394777297973633</v>
+        <v>0.71451127529144287</v>
       </c>
     </row>
     <row r="5">
@@ -157,13 +157,13 @@
         <v>0.77309525012969971</v>
       </c>
       <c r="C5" s="2">
-        <v>0.74790704250335693</v>
+        <v>0.74791258573532105</v>
       </c>
       <c r="D5" s="2">
         <v>0.70175653696060181</v>
       </c>
       <c r="E5" s="2">
-        <v>0.66794341802597046</v>
+        <v>0.66842204332351685</v>
       </c>
     </row>
     <row r="6">
@@ -174,13 +174,13 @@
         <v>0.70664113759994507</v>
       </c>
       <c r="C6" s="2">
-        <v>0.68009233474731445</v>
+        <v>0.68026429414749146</v>
       </c>
       <c r="D6" s="2">
         <v>0.69672882556915283</v>
       </c>
       <c r="E6" s="2">
-        <v>0.66409456729888916</v>
+        <v>0.66454613208770752</v>
       </c>
     </row>
     <row r="7">
@@ -191,13 +191,13 @@
         <v>0.62545400857925415</v>
       </c>
       <c r="C7" s="2">
-        <v>0.58122146129608154</v>
+        <v>0.58193528652191162</v>
       </c>
       <c r="D7" s="2">
         <v>0.64241719245910645</v>
       </c>
       <c r="E7" s="2">
-        <v>0.61007863283157349</v>
+        <v>0.61051595211029053</v>
       </c>
     </row>
     <row r="8">
@@ -208,13 +208,13 @@
         <v>0.48332974314689636</v>
       </c>
       <c r="C8" s="2">
-        <v>0.44967508316040039</v>
+        <v>0.44989940524101257</v>
       </c>
       <c r="D8" s="2">
         <v>0.59014445543289185</v>
       </c>
       <c r="E8" s="2">
-        <v>0.56064319610595703</v>
+        <v>0.5611109733581543</v>
       </c>
     </row>
     <row r="9">
@@ -225,13 +225,13 @@
         <v>0.38240408897399902</v>
       </c>
       <c r="C9" s="2">
-        <v>0.3459128737449646</v>
+        <v>0.34579741954803467</v>
       </c>
       <c r="D9" s="2">
         <v>0.54714661836624146</v>
       </c>
       <c r="E9" s="2">
-        <v>0.52158248424530029</v>
+        <v>0.5218278169631958</v>
       </c>
     </row>
     <row r="10">
@@ -242,13 +242,13 @@
         <v>0.65650749206542969</v>
       </c>
       <c r="C10" s="2">
-        <v>0.63330405950546265</v>
+        <v>0.63353872299194336</v>
       </c>
       <c r="D10" s="2">
         <v>0.5068967342376709</v>
       </c>
       <c r="E10" s="2">
-        <v>0.4828389585018158</v>
+        <v>0.48319131135940552</v>
       </c>
     </row>
     <row r="11">
@@ -259,13 +259,13 @@
         <v>0.39588823914527893</v>
       </c>
       <c r="C11" s="2">
-        <v>0.38109195232391358</v>
+        <v>0.38280022144317627</v>
       </c>
       <c r="D11" s="2">
         <v>0.47223973274230957</v>
       </c>
       <c r="E11" s="2">
-        <v>0.44919693470001221</v>
+        <v>0.44955414533615112</v>
       </c>
     </row>
     <row r="12">
@@ -276,13 +276,13 @@
         <v>0.40242576599121094</v>
       </c>
       <c r="C12" s="2">
-        <v>0.38525485992431641</v>
+        <v>0.3857303261756897</v>
       </c>
       <c r="D12" s="2">
         <v>0.44589698314666748</v>
       </c>
       <c r="E12" s="2">
-        <v>0.42540478706359863</v>
+        <v>0.42563638091087341</v>
       </c>
     </row>
     <row r="13">
@@ -293,13 +293,13 @@
         <v>0.49857404828071594</v>
       </c>
       <c r="C13" s="2">
-        <v>0.48978286981582642</v>
+        <v>0.48857218027114868</v>
       </c>
       <c r="D13" s="2">
         <v>0.42059344053268433</v>
       </c>
       <c r="E13" s="2">
-        <v>0.4007507860660553</v>
+        <v>0.40094155073165894</v>
       </c>
     </row>
     <row r="14">
@@ -310,13 +310,13 @@
         <v>0.41084620356559753</v>
       </c>
       <c r="C14" s="2">
-        <v>0.39921519160270691</v>
+        <v>0.40018388628959656</v>
       </c>
       <c r="D14" s="2">
         <v>0.40260231494903565</v>
       </c>
       <c r="E14" s="2">
-        <v>0.38780498504638672</v>
+        <v>0.38806784152984619</v>
       </c>
     </row>
     <row r="15">
@@ -327,13 +327,13 @@
         <v>0.3947279155254364</v>
       </c>
       <c r="C15" s="2">
-        <v>0.37731394171714783</v>
+        <v>0.37752991914749146</v>
       </c>
       <c r="D15" s="2">
         <v>0.34784984588623047</v>
       </c>
       <c r="E15" s="2">
-        <v>0.33211663365364075</v>
+        <v>0.33240941166877747</v>
       </c>
     </row>
     <row r="16">
@@ -344,13 +344,13 @@
         <v>0.38836926221847534</v>
       </c>
       <c r="C16" s="2">
-        <v>0.36709237098693848</v>
+        <v>0.36667540669441223</v>
       </c>
       <c r="D16" s="2">
         <v>0.31815412640571594</v>
       </c>
       <c r="E16" s="2">
-        <v>0.30187293887138367</v>
+        <v>0.30202841758728027</v>
       </c>
     </row>
     <row r="17">
@@ -361,13 +361,13 @@
         <v>0.25559788942337036</v>
       </c>
       <c r="C17" s="2">
-        <v>0.22778896987438202</v>
+        <v>0.22764600813388825</v>
       </c>
       <c r="D17" s="2">
         <v>0.29021283984184265</v>
       </c>
       <c r="E17" s="2">
-        <v>0.27068743109703064</v>
+        <v>0.27081838250160217</v>
       </c>
     </row>
     <row r="18">
@@ -378,13 +378,13 @@
         <v>0.22048401832580566</v>
       </c>
       <c r="C18" s="2">
-        <v>0.22940076887607574</v>
+        <v>0.22993384301662445</v>
       </c>
       <c r="D18" s="2">
         <v>0.25320655107498169</v>
       </c>
       <c r="E18" s="2">
-        <v>0.23789769411087036</v>
+        <v>0.23808537423610687</v>
       </c>
     </row>
     <row r="19">
@@ -395,13 +395,13 @@
         <v>0.16373516619205475</v>
       </c>
       <c r="C19" s="2">
-        <v>0.13210874795913696</v>
+        <v>0.13261285424232483</v>
       </c>
       <c r="D19" s="2">
         <v>0.23847326636314392</v>
       </c>
       <c r="E19" s="2">
-        <v>0.22167271375656128</v>
+        <v>0.22177883982658386</v>
       </c>
     </row>
     <row r="20">
@@ -412,13 +412,13 @@
         <v>0.12862695753574371</v>
       </c>
       <c r="C20" s="2">
-        <v>0.10889871418476105</v>
+        <v>0.10937144607305527</v>
       </c>
       <c r="D20" s="2">
         <v>0.20348916947841644</v>
       </c>
       <c r="E20" s="2">
-        <v>0.18588735163211823</v>
+        <v>0.18597197532653809</v>
       </c>
     </row>
     <row r="21">
@@ -429,13 +429,13 @@
         <v>0.15095406770706177</v>
       </c>
       <c r="C21" s="2">
-        <v>0.10458521544933319</v>
+        <v>0.10483986884355545</v>
       </c>
       <c r="D21" s="2">
         <v>0.18256673216819763</v>
       </c>
       <c r="E21" s="2">
-        <v>0.1624695360660553</v>
+        <v>0.16271570324897766</v>
       </c>
     </row>
     <row r="22">
@@ -446,13 +446,13 @@
         <v>0.16551756858825684</v>
       </c>
       <c r="C22" s="2">
-        <v>0.19467538595199585</v>
+        <v>0.19397510588169098</v>
       </c>
       <c r="D22" s="2">
         <v>0.16056980192661286</v>
       </c>
       <c r="E22" s="2">
-        <v>0.14170247316360474</v>
+        <v>0.14199668169021606</v>
       </c>
     </row>
     <row r="23">
@@ -463,13 +463,13 @@
         <v>0.27824649214744568</v>
       </c>
       <c r="C23" s="2">
-        <v>0.25319027900695801</v>
+        <v>0.25342506170272827</v>
       </c>
       <c r="D23" s="2">
         <v>0.12920628488063812</v>
       </c>
       <c r="E23" s="2">
-        <v>0.10610383749008179</v>
+        <v>0.10628890246152878</v>
       </c>
     </row>
     <row r="24">
@@ -480,13 +480,13 @@
         <v>0.079871043562889099</v>
       </c>
       <c r="C24" s="2">
-        <v>0.055245701223611832</v>
+        <v>0.055268220603466034</v>
       </c>
       <c r="D24" s="2">
         <v>0.078575022518634796</v>
       </c>
       <c r="E24" s="2">
-        <v>0.068374797701835632</v>
+        <v>0.06838245689868927</v>
       </c>
     </row>
     <row r="25">
@@ -497,13 +497,13 @@
         <v>0.20006734132766724</v>
       </c>
       <c r="C25" s="2">
-        <v>0.15633201599121094</v>
+        <v>0.15736888349056244</v>
       </c>
       <c r="D25" s="2">
         <v>0.012595728971064091</v>
       </c>
       <c r="E25" s="2">
-        <v>0.0022142566740512848</v>
+        <v>0.0021164624486118555</v>
       </c>
     </row>
     <row r="26">
@@ -514,13 +514,13 @@
         <v>0.057625520974397659</v>
       </c>
       <c r="C26" s="2">
-        <v>0.040885470807552338</v>
+        <v>0.041174814105033875</v>
       </c>
       <c r="D26" s="2">
         <v>-0.0073789660818874836</v>
       </c>
       <c r="E26" s="2">
-        <v>-0.011635798960924149</v>
+        <v>-0.011761189438402653</v>
       </c>
     </row>
     <row r="27">
@@ -531,13 +531,13 @@
         <v>-0.061787586659193039</v>
       </c>
       <c r="C27" s="2">
-        <v>-0.090986959636211395</v>
+        <v>-0.091436125338077545</v>
       </c>
       <c r="D27" s="2">
         <v>-0.025387313216924667</v>
       </c>
       <c r="E27" s="2">
-        <v>-0.02735494077205658</v>
+        <v>-0.027339410036802292</v>
       </c>
     </row>
     <row r="28">
@@ -548,13 +548,13 @@
         <v>-0.2919461727142334</v>
       </c>
       <c r="C28" s="2">
-        <v>-0.20745261013507843</v>
+        <v>-0.20854517817497254</v>
       </c>
       <c r="D28" s="2">
         <v>-0.045855499804019928</v>
       </c>
       <c r="E28" s="2">
-        <v>-0.049863461405038834</v>
+        <v>-0.049812894314527512</v>
       </c>
     </row>
     <row r="29">
@@ -565,13 +565,13 @@
         <v>-0.4651867151260376</v>
       </c>
       <c r="C29" s="2">
-        <v>-0.48654618859291077</v>
+        <v>-0.48702248930931091</v>
       </c>
       <c r="D29" s="2">
         <v>-0.029576383531093598</v>
       </c>
       <c r="E29" s="2">
-        <v>-0.028316177427768707</v>
+        <v>-0.028248002752661705</v>
       </c>
     </row>
     <row r="30">
@@ -582,13 +582,13 @@
         <v>-0.02881818637251854</v>
       </c>
       <c r="C30" s="2">
-        <v>-0.020065285265445709</v>
+        <v>-0.020058995112776756</v>
       </c>
       <c r="D30" s="2">
         <v>-0.021370768547058106</v>
       </c>
       <c r="E30" s="2">
-        <v>-0.017592623829841614</v>
+        <v>-0.017670657485723495</v>
       </c>
     </row>
     <row r="31">
@@ -599,13 +599,13 @@
         <v>0.0034424467012286186</v>
       </c>
       <c r="C31" s="2">
-        <v>0.053203117102384567</v>
+        <v>0.053771123290061951</v>
       </c>
       <c r="D31" s="2">
         <v>-0.023533502593636513</v>
       </c>
       <c r="E31" s="2">
-        <v>-0.021379934623837471</v>
+        <v>-0.021519854664802551</v>
       </c>
     </row>
     <row r="32">
@@ -616,13 +616,13 @@
         <v>0.094032801687717438</v>
       </c>
       <c r="C32" s="2">
-        <v>0.050613582134246826</v>
+        <v>0.051163695752620697</v>
       </c>
       <c r="D32" s="2">
         <v>-0.025298869237303734</v>
       </c>
       <c r="E32" s="2">
-        <v>-0.026941945776343346</v>
+        <v>-0.027059977874159813</v>
       </c>
     </row>
     <row r="33">
@@ -633,13 +633,13 @@
         <v>0.22638309001922608</v>
       </c>
       <c r="C33" s="2">
-        <v>0.24917125701904297</v>
+        <v>0.24935224652290344</v>
       </c>
       <c r="D33" s="2">
         <v>-0.0035604927688837051</v>
       </c>
       <c r="E33" s="2">
-        <v>-0.011590044014155865</v>
+        <v>-0.01157018169760704</v>
       </c>
     </row>
     <row r="34">
@@ -650,13 +650,13 @@
         <v>0.27391788363456726</v>
       </c>
       <c r="C34" s="2">
-        <v>0.25284400582313538</v>
+        <v>0.25256499648094177</v>
       </c>
       <c r="D34" s="2">
         <v>-0.0050321710295975208</v>
       </c>
       <c r="E34" s="2">
-        <v>-0.016784666106104851</v>
+        <v>-0.016624076291918755</v>
       </c>
     </row>
     <row r="35">
@@ -667,13 +667,13 @@
         <v>0.038160912692546844</v>
       </c>
       <c r="C35" s="2">
-        <v>0.0067996741272509098</v>
+        <v>0.006532041821628809</v>
       </c>
       <c r="D35" s="2">
         <v>0.0051453695632517338</v>
       </c>
       <c r="E35" s="2">
-        <v>-0.0048062535934150219</v>
+        <v>-0.0046579176560044289</v>
       </c>
     </row>
     <row r="36">
@@ -684,13 +684,13 @@
         <v>-0.077675886452198029</v>
       </c>
       <c r="C36" s="2">
-        <v>-0.14104506373405457</v>
+        <v>-0.14129723608493805</v>
       </c>
       <c r="D36" s="2">
         <v>-0.0081244409084320068</v>
       </c>
       <c r="E36" s="2">
-        <v>-0.0051892828196287155</v>
+        <v>-0.0052069239318370819</v>
       </c>
     </row>
     <row r="37">
@@ -701,13 +701,13 @@
         <v>-0.096300780773162842</v>
       </c>
       <c r="C37" s="2">
-        <v>-0.069285497069358826</v>
+        <v>-0.069137014448642731</v>
       </c>
       <c r="D37" s="2">
         <v>-0.014161118306219578</v>
       </c>
       <c r="E37" s="2">
-        <v>-0.014667634852230549</v>
+        <v>-0.014701571315526962</v>
       </c>
     </row>
     <row r="38">
@@ -718,13 +718,13 @@
         <v>-0.4784318208694458</v>
       </c>
       <c r="C38" s="2">
-        <v>-0.53329777717590332</v>
+        <v>-0.53250753879547119</v>
       </c>
       <c r="D38" s="2">
         <v>-0.021746126934885979</v>
       </c>
       <c r="E38" s="2">
-        <v>-0.042209558188915253</v>
+        <v>-0.042160391807556152</v>
       </c>
     </row>
     <row r="39">
@@ -735,13 +735,13 @@
         <v>0.062779679894447327</v>
       </c>
       <c r="C39" s="2">
-        <v>0.087740421295166016</v>
+        <v>0.087636426091194153</v>
       </c>
       <c r="D39" s="2">
         <v>-0.064160771667957306</v>
       </c>
       <c r="E39" s="2">
-        <v>-0.092729620635509491</v>
+        <v>-0.092387035489082337</v>
       </c>
     </row>
     <row r="40">
@@ -752,13 +752,13 @@
         <v>-0.11598584800958633</v>
       </c>
       <c r="C40" s="2">
-        <v>0.049755852669477463</v>
+        <v>0.048830065876245499</v>
       </c>
       <c r="D40" s="2">
         <v>-0.039606906473636627</v>
       </c>
       <c r="E40" s="2">
-        <v>-0.07003619521856308</v>
+        <v>-0.0696907639503479</v>
       </c>
     </row>
     <row r="41">
@@ -769,13 +769,13 @@
         <v>0.039702706038951874</v>
       </c>
       <c r="C41" s="2">
-        <v>-0.03469158336520195</v>
+        <v>-0.034288130700588226</v>
       </c>
       <c r="D41" s="2">
         <v>0.014545240439474583</v>
       </c>
       <c r="E41" s="2">
-        <v>-0.022502003237605095</v>
+        <v>-0.022148028016090393</v>
       </c>
     </row>
     <row r="42">
@@ -786,13 +786,13 @@
         <v>0.15811800956726074</v>
       </c>
       <c r="C42" s="2">
-        <v>0.0012939330190420151</v>
+        <v>0.0022228637244552374</v>
       </c>
       <c r="D42" s="2">
         <v>0.085671938955783844</v>
       </c>
       <c r="E42" s="2">
-        <v>0.042248360812664032</v>
+        <v>0.042736101895570755</v>
       </c>
     </row>
     <row r="43">
@@ -803,13 +803,13 @@
         <v>-0.10781393945217133</v>
       </c>
       <c r="C43" s="2">
-        <v>-0.20183657109737396</v>
+        <v>-0.19947481155395508</v>
       </c>
       <c r="D43" s="2">
         <v>0.17572179436683655</v>
       </c>
       <c r="E43" s="2">
-        <v>0.13267473876476288</v>
+        <v>0.13316591084003448</v>
       </c>
     </row>
     <row r="44">
@@ -820,13 +820,13 @@
         <v>0.25914570689201355</v>
       </c>
       <c r="C44" s="2">
-        <v>0.21104051172733307</v>
+        <v>0.21079853177070618</v>
       </c>
       <c r="D44" s="2">
         <v>0.19842638075351715</v>
       </c>
       <c r="E44" s="2">
-        <v>0.14748744666576385</v>
+        <v>0.14813695847988129</v>
       </c>
     </row>
     <row r="45">
@@ -837,13 +837,13 @@
         <v>0.40969344973564148</v>
       </c>
       <c r="C45" s="2">
-        <v>0.28676268458366394</v>
+        <v>0.28658735752105713</v>
       </c>
       <c r="D45" s="2">
         <v>0.20961125195026398</v>
       </c>
       <c r="E45" s="2">
-        <v>0.13367359340190888</v>
+        <v>0.13429398834705353</v>
       </c>
     </row>
     <row r="46">
@@ -854,13 +854,13 @@
         <v>0.54383951425552368</v>
       </c>
       <c r="C46" s="2">
-        <v>0.51346778869628906</v>
+        <v>0.5148201584815979</v>
       </c>
       <c r="D46" s="2">
         <v>0.22558611631393433</v>
       </c>
       <c r="E46" s="2">
-        <v>0.15620425343513489</v>
+        <v>0.15686766803264618</v>
       </c>
     </row>
     <row r="47">
@@ -871,13 +871,13 @@
         <v>0.33201688528060913</v>
       </c>
       <c r="C47" s="2">
-        <v>0.28053960204124451</v>
+        <v>0.28136074542999268</v>
       </c>
       <c r="D47" s="2">
         <v>0.21201112866401672</v>
       </c>
       <c r="E47" s="2">
-        <v>0.15675745904445648</v>
+        <v>0.15751112997531891</v>
       </c>
     </row>
     <row r="48">
@@ -888,13 +888,13 @@
         <v>0.26712098717689514</v>
       </c>
       <c r="C48" s="2">
-        <v>0.221054807305336</v>
+        <v>0.22237583994865418</v>
       </c>
       <c r="D48" s="2">
         <v>0.25146535038948059</v>
       </c>
       <c r="E48" s="2">
-        <v>0.20477607846260071</v>
+        <v>0.20550458133220673</v>
       </c>
     </row>
     <row r="49">
@@ -905,13 +905,13 @@
         <v>-0.015322070568799973</v>
       </c>
       <c r="C49" s="2">
-        <v>-0.074568837881088257</v>
+        <v>-0.075756706297397614</v>
       </c>
       <c r="D49" s="2">
         <v>0.21374198794364929</v>
       </c>
       <c r="E49" s="2">
-        <v>0.16566622257232666</v>
+        <v>0.16652113199234009</v>
       </c>
     </row>
     <row r="50">
@@ -922,13 +922,13 @@
         <v>0.18347656726837158</v>
       </c>
       <c r="C50" s="2">
-        <v>0.16808442771434784</v>
+        <v>0.1688750833272934</v>
       </c>
       <c r="D50" s="2">
         <v>0.22338783740997315</v>
       </c>
       <c r="E50" s="2">
-        <v>0.19337747991085053</v>
+        <v>0.19431623816490173</v>
       </c>
     </row>
     <row r="51">
@@ -939,13 +939,13 @@
         <v>0.035943042486906052</v>
       </c>
       <c r="C51" s="2">
-        <v>0.0062727113254368305</v>
+        <v>0.0080139609053730965</v>
       </c>
       <c r="D51" s="2">
         <v>0.20047073066234589</v>
       </c>
       <c r="E51" s="2">
-        <v>0.1782829612493515</v>
+        <v>0.17913591861724854</v>
       </c>
     </row>
     <row r="52">
@@ -956,13 +956,13 @@
         <v>0.24727413058280945</v>
       </c>
       <c r="C52" s="2">
-        <v>0.23033104836940765</v>
+        <v>0.23246623575687408</v>
       </c>
       <c r="D52" s="2">
         <v>0.22260907292366028</v>
       </c>
       <c r="E52" s="2">
-        <v>0.20244286954402924</v>
+        <v>0.2031315416097641</v>
       </c>
     </row>
     <row r="53">
@@ -973,13 +973,13 @@
         <v>-0.080364547669887543</v>
       </c>
       <c r="C53" s="2">
-        <v>-0.14094825088977814</v>
+        <v>-0.14005249738693237</v>
       </c>
       <c r="D53" s="2">
         <v>0.2460559755563736</v>
       </c>
       <c r="E53" s="2">
-        <v>0.2201915830373764</v>
+        <v>0.22084711492061615</v>
       </c>
     </row>
     <row r="54">
@@ -990,13 +990,13 @@
         <v>0.49650606513023377</v>
       </c>
       <c r="C54" s="2">
-        <v>0.53616404533386231</v>
+        <v>0.53674334287643433</v>
       </c>
       <c r="D54" s="2">
         <v>0.29818177223205567</v>
       </c>
       <c r="E54" s="2">
-        <v>0.27507033944129944</v>
+        <v>0.27594727277755737</v>
       </c>
     </row>
     <row r="55">
@@ -1007,13 +1007,13 @@
         <v>0.33758550882339478</v>
       </c>
       <c r="C55" s="2">
-        <v>0.37761703133583069</v>
+        <v>0.37819722294807434</v>
       </c>
       <c r="D55" s="2">
         <v>0.30217429995536804</v>
       </c>
       <c r="E55" s="2">
-        <v>0.28021389245986938</v>
+        <v>0.28102549910545349</v>
       </c>
     </row>
     <row r="56">
@@ -1024,13 +1024,13 @@
         <v>0.53126192092895508</v>
       </c>
       <c r="C56" s="2">
-        <v>0.49797883629798889</v>
+        <v>0.49732133746147156</v>
       </c>
       <c r="D56" s="2">
         <v>0.30992338061332703</v>
       </c>
       <c r="E56" s="2">
-        <v>0.29547625780105591</v>
+        <v>0.29607614874839783</v>
       </c>
     </row>
     <row r="57">
@@ -1041,13 +1041,13 @@
         <v>0.4781431257724762</v>
       </c>
       <c r="C57" s="2">
-        <v>0.38079318404197693</v>
+        <v>0.38181611895561218</v>
       </c>
       <c r="D57" s="2">
         <v>0.32807862758636475</v>
       </c>
       <c r="E57" s="2">
-        <v>0.30569252371788025</v>
+        <v>0.30609628558158875</v>
       </c>
     </row>
     <row r="58">
@@ -1058,13 +1058,13 @@
         <v>0.45381012558937073</v>
       </c>
       <c r="C58" s="2">
-        <v>0.4193401038646698</v>
+        <v>0.42014455795288086</v>
       </c>
       <c r="D58" s="2">
         <v>0.41713285446166992</v>
       </c>
       <c r="E58" s="2">
-        <v>0.40019804239273071</v>
+        <v>0.40067398548126221</v>
       </c>
     </row>
     <row r="59">
@@ -1075,13 +1075,13 @@
         <v>0.21940921247005463</v>
       </c>
       <c r="C59" s="2">
-        <v>0.21437641978263855</v>
+        <v>0.21457917988300323</v>
       </c>
       <c r="D59" s="2">
         <v>0.39297589659690857</v>
       </c>
       <c r="E59" s="2">
-        <v>0.38201946020126343</v>
+        <v>0.38231343030929566</v>
       </c>
     </row>
     <row r="60">
@@ -1092,13 +1092,13 @@
         <v>0.10568485409021378</v>
       </c>
       <c r="C60" s="2">
-        <v>0.14363376796245575</v>
+        <v>0.14346979558467865</v>
       </c>
       <c r="D60" s="2">
         <v>0.35300782322883606</v>
       </c>
       <c r="E60" s="2">
-        <v>0.33586534857749939</v>
+        <v>0.33612322807312012</v>
       </c>
     </row>
     <row r="61">
@@ -1109,13 +1109,13 @@
         <v>0.41067126393318176</v>
       </c>
       <c r="C61" s="2">
-        <v>0.32227763533592224</v>
+        <v>0.32264763116836548</v>
       </c>
       <c r="D61" s="2">
         <v>0.39139395952224731</v>
       </c>
       <c r="E61" s="2">
-        <v>0.37131243944168091</v>
+        <v>0.37184533476829529</v>
       </c>
     </row>
     <row r="62">
@@ -1126,13 +1126,13 @@
         <v>0.72112351655960083</v>
       </c>
       <c r="C62" s="2">
-        <v>0.70960128307342529</v>
+        <v>0.71114665269851685</v>
       </c>
       <c r="D62" s="2">
         <v>0.33974581956863403</v>
       </c>
       <c r="E62" s="2">
-        <v>0.31498059630393982</v>
+        <v>0.31545248627662659</v>
       </c>
     </row>
     <row r="63">
@@ -1143,13 +1143,13 @@
         <v>0.27909347414970398</v>
       </c>
       <c r="C63" s="2">
-        <v>0.37255674600601196</v>
+        <v>0.37149825692176819</v>
       </c>
       <c r="D63" s="2">
         <v>0.36902338266372681</v>
       </c>
       <c r="E63" s="2">
-        <v>0.34656769037246704</v>
+        <v>0.34711802005767822</v>
       </c>
     </row>
     <row r="64">
@@ -1160,13 +1160,13 @@
         <v>-0.022126967087388039</v>
       </c>
       <c r="C64" s="2">
-        <v>-0.037769816815853119</v>
+        <v>-0.037514343857765198</v>
       </c>
       <c r="D64" s="2">
         <v>0.42787268757820129</v>
       </c>
       <c r="E64" s="2">
-        <v>0.40656512975692749</v>
+        <v>0.4070524275302887</v>
       </c>
     </row>
     <row r="65">
@@ -1177,13 +1177,13 @@
         <v>0.87673693895339966</v>
       </c>
       <c r="C65" s="2">
-        <v>0.81700253486633301</v>
+        <v>0.81882023811340332</v>
       </c>
       <c r="D65" s="2">
         <v>0.55708658695220947</v>
       </c>
       <c r="E65" s="2">
-        <v>0.52342891693115234</v>
+        <v>0.52414619922637939</v>
       </c>
     </row>
     <row r="66">
@@ -1194,13 +1194,13 @@
         <v>0.01331007108092308</v>
       </c>
       <c r="C66" s="2">
-        <v>-0.12619319558143616</v>
+        <v>-0.12571962177753448</v>
       </c>
       <c r="D66" s="2">
         <v>0.62337994575500488</v>
       </c>
       <c r="E66" s="2">
-        <v>0.59666705131530762</v>
+        <v>0.59720271825790405</v>
       </c>
     </row>
     <row r="67">
@@ -1211,13 +1211,13 @@
         <v>0.7173081636428833</v>
       </c>
       <c r="C67" s="2">
-        <v>0.70362383127212524</v>
+        <v>0.70513451099395752</v>
       </c>
       <c r="D67" s="2">
         <v>0.63638961315155029</v>
       </c>
       <c r="E67" s="2">
-        <v>0.6040307879447937</v>
+        <v>0.60447883605957031</v>
       </c>
     </row>
     <row r="68">
@@ -1228,13 +1228,13 @@
         <v>0.74905288219451904</v>
       </c>
       <c r="C68" s="2">
-        <v>0.75435334444046021</v>
+        <v>0.75398874282836914</v>
       </c>
       <c r="D68" s="2">
         <v>0.67220479249954224</v>
       </c>
       <c r="E68" s="2">
-        <v>0.62996989488601685</v>
+        <v>0.63072657585144043</v>
       </c>
     </row>
     <row r="69">
@@ -1245,13 +1245,13 @@
         <v>1.2686100006103516</v>
       </c>
       <c r="C69" s="2">
-        <v>1.1954079866409302</v>
+        <v>1.197313666343689</v>
       </c>
       <c r="D69" s="2">
         <v>0.71861350536346436</v>
       </c>
       <c r="E69" s="2">
-        <v>0.67465364933013916</v>
+        <v>0.67548137903213501</v>
       </c>
     </row>
     <row r="70">
@@ -1262,13 +1262,13 @@
         <v>1.0073114633560181</v>
       </c>
       <c r="C70" s="2">
-        <v>0.98142093420028687</v>
+        <v>0.9801563024520874</v>
       </c>
       <c r="D70" s="2">
         <v>0.69472086429595947</v>
       </c>
       <c r="E70" s="2">
-        <v>0.64553952217102051</v>
+        <v>0.64621967077255249</v>
       </c>
     </row>
     <row r="71">
@@ -1279,13 +1279,13 @@
         <v>0.83821052312850952</v>
       </c>
       <c r="C71" s="2">
-        <v>0.77587491273880005</v>
+        <v>0.77663201093673706</v>
       </c>
       <c r="D71" s="2">
         <v>0.78124850988388062</v>
       </c>
       <c r="E71" s="2">
-        <v>0.73843425512313843</v>
+        <v>0.73902672529220581</v>
       </c>
     </row>
     <row r="72">
@@ -1296,13 +1296,13 @@
         <v>0.60143023729324341</v>
       </c>
       <c r="C72" s="2">
-        <v>0.60600829124450684</v>
+        <v>0.60772764682769775</v>
       </c>
       <c r="D72" s="2">
         <v>0.75283944606781006</v>
       </c>
       <c r="E72" s="2">
-        <v>0.70334666967391968</v>
+        <v>0.70396274328231812</v>
       </c>
     </row>
     <row r="73">
@@ -1313,13 +1313,13 @@
         <v>0.39555132389068604</v>
       </c>
       <c r="C73" s="2">
-        <v>0.36438417434692383</v>
+        <v>0.36527878046035767</v>
       </c>
       <c r="D73" s="2">
         <v>0.79837191104888916</v>
       </c>
       <c r="E73" s="2">
-        <v>0.74953126907348633</v>
+        <v>0.75023096799850464</v>
       </c>
     </row>
     <row r="74">
@@ -1330,13 +1330,13 @@
         <v>0.66170322895050049</v>
       </c>
       <c r="C74" s="2">
-        <v>0.55497562885284424</v>
+        <v>0.5554649829864502</v>
       </c>
       <c r="D74" s="2">
         <v>0.69522100687026978</v>
       </c>
       <c r="E74" s="2">
-        <v>0.64850848913192749</v>
+        <v>0.64903175830841064</v>
       </c>
     </row>
     <row r="75">
@@ -1347,13 +1347,13 @@
         <v>0.79205882549285889</v>
       </c>
       <c r="C75" s="2">
-        <v>0.70985943078994751</v>
+        <v>0.70954394340515137</v>
       </c>
       <c r="D75" s="2">
         <v>0.68917214870452881</v>
       </c>
       <c r="E75" s="2">
-        <v>0.64285832643508911</v>
+        <v>0.64357554912567139</v>
       </c>
     </row>
     <row r="76">
@@ -1364,13 +1364,13 @@
         <v>0.46162635087966919</v>
       </c>
       <c r="C76" s="2">
-        <v>0.38783556222915649</v>
+        <v>0.38955867290496826</v>
       </c>
       <c r="D76" s="2">
         <v>0.72731488943099976</v>
       </c>
       <c r="E76" s="2">
-        <v>0.68278992176055908</v>
+        <v>0.68341833353042603</v>
       </c>
     </row>
     <row r="77">
@@ -1381,13 +1381,13 @@
         <v>1.1588454246520996</v>
       </c>
       <c r="C77" s="2">
-        <v>1.1700146198272705</v>
+        <v>1.1704027652740479</v>
       </c>
       <c r="D77" s="2">
         <v>0.76698648929595947</v>
       </c>
       <c r="E77" s="2">
-        <v>0.71637475490570068</v>
+        <v>0.71699708700180054</v>
       </c>
     </row>
     <row r="78">
@@ -1398,13 +1398,13 @@
         <v>0.34025192260742188</v>
       </c>
       <c r="C78" s="2">
-        <v>0.28620299696922302</v>
+        <v>0.28652068972587585</v>
       </c>
       <c r="D78" s="2">
         <v>0.89094090461730957</v>
       </c>
       <c r="E78" s="2">
-        <v>0.83942174911499023</v>
+        <v>0.84003788232803345</v>
       </c>
     </row>
     <row r="79">
@@ -1415,13 +1415,13 @@
         <v>0.95287138223648071</v>
       </c>
       <c r="C79" s="2">
-        <v>0.93056917190551758</v>
+        <v>0.93105041980743408</v>
       </c>
       <c r="D79" s="2">
         <v>0.90085816383361817</v>
       </c>
       <c r="E79" s="2">
-        <v>0.83869612216949463</v>
+        <v>0.83933722972869873</v>
       </c>
     </row>
     <row r="80">
@@ -1432,13 +1432,13 @@
         <v>1.1814954280853272</v>
       </c>
       <c r="C80" s="2">
-        <v>1.1352593898773193</v>
+        <v>1.1352169513702393</v>
       </c>
       <c r="D80" s="2">
         <v>0.90620630979537964</v>
       </c>
       <c r="E80" s="2">
-        <v>0.88662052154541016</v>
+        <v>0.88729232549667358</v>
       </c>
     </row>
     <row r="81">
@@ -1449,13 +1449,13 @@
         <v>0.95847427845001221</v>
       </c>
       <c r="C81" s="2">
-        <v>0.90827155113220215</v>
+        <v>0.90993666648864746</v>
       </c>
       <c r="D81" s="2">
         <v>0.88257771730422974</v>
       </c>
       <c r="E81" s="2">
-        <v>0.86677712202072144</v>
+        <v>0.86707299947738648</v>
       </c>
     </row>
     <row r="82">
@@ -1466,13 +1466,13 @@
         <v>1.5111415386199951</v>
       </c>
       <c r="C82" s="2">
-        <v>1.4718073606491089</v>
+        <v>1.4726457595825195</v>
       </c>
       <c r="D82" s="2">
         <v>0.8697052001953125</v>
       </c>
       <c r="E82" s="2">
-        <v>0.85635852813720703</v>
+        <v>0.8568916916847229</v>
       </c>
     </row>
     <row r="83">
@@ -1483,13 +1483,13 @@
         <v>0.75095808506011963</v>
       </c>
       <c r="C83" s="2">
-        <v>0.54844528436660767</v>
+        <v>0.54915910959243775</v>
       </c>
       <c r="D83" s="2">
         <v>0.90522098541259766</v>
       </c>
       <c r="E83" s="2">
-        <v>0.8969464898109436</v>
+        <v>0.89744913578033447</v>
       </c>
     </row>
     <row r="84">
@@ -1500,13 +1500,13 @@
         <v>0.84019225835800171</v>
       </c>
       <c r="C84" s="2">
-        <v>1.1411786079406738</v>
+        <v>1.1411397457122803</v>
       </c>
       <c r="D84" s="2">
         <v>0.89982110261917114</v>
       </c>
       <c r="E84" s="2">
-        <v>0.89224350452423096</v>
+        <v>0.89286231994628906</v>
       </c>
     </row>
     <row r="85">
@@ -1517,13 +1517,13 @@
         <v>0.24896910786628723</v>
       </c>
       <c r="C85" s="2">
-        <v>0.20924501121044159</v>
+        <v>0.20758497714996338</v>
       </c>
       <c r="D85" s="2">
         <v>0.89444327354431152</v>
       </c>
       <c r="E85" s="2">
-        <v>0.88730400800704956</v>
+        <v>0.88799571990966797</v>
       </c>
     </row>
     <row r="86">
@@ -1534,13 +1534,13 @@
         <v>1.0429925918579102</v>
       </c>
       <c r="C86" s="2">
-        <v>1.0762473344802856</v>
+        <v>1.0787711143493652</v>
       </c>
       <c r="D86" s="2">
         <v>0.88364994525909424</v>
       </c>
       <c r="E86" s="2">
-        <v>0.8713417649269104</v>
+        <v>0.87186670303344727</v>
       </c>
     </row>
     <row r="87">
@@ -1551,13 +1551,13 @@
         <v>0.65989404916763306</v>
       </c>
       <c r="C87" s="2">
-        <v>0.65149450302124023</v>
+        <v>0.65153741836547852</v>
       </c>
       <c r="D87" s="2">
         <v>0.81324732303619385</v>
       </c>
       <c r="E87" s="2">
-        <v>0.81811553239822388</v>
+        <v>0.81878077983856201</v>
       </c>
     </row>
     <row r="88">
@@ -1568,13 +1568,13 @@
         <v>0.90427273511886597</v>
       </c>
       <c r="C88" s="2">
-        <v>0.88824224472045899</v>
+        <v>0.88976925611495972</v>
       </c>
       <c r="D88" s="2">
         <v>0.83905458450317383</v>
       </c>
       <c r="E88" s="2">
-        <v>0.85969692468643188</v>
+        <v>0.86019158363342285</v>
       </c>
     </row>
     <row r="89">
@@ -1585,13 +1585,13 @@
         <v>1.1330947875976563</v>
       </c>
       <c r="C89" s="2">
-        <v>1.0908041000366211</v>
+        <v>1.0914173126220703</v>
       </c>
       <c r="D89" s="2">
         <v>0.91542172431945801</v>
       </c>
       <c r="E89" s="2">
-        <v>0.90981274843215942</v>
+        <v>0.91019344329833984</v>
       </c>
     </row>
     <row r="90">
@@ -1602,13 +1602,13 @@
         <v>0.86133444309234619</v>
       </c>
       <c r="C90" s="2">
-        <v>0.76461160182952881</v>
+        <v>0.76477557420730591</v>
       </c>
       <c r="D90" s="2">
         <v>0.99562674760818482</v>
       </c>
       <c r="E90" s="2">
-        <v>0.99683618545532227</v>
+        <v>0.99731093645095825</v>
       </c>
     </row>
     <row r="91">
@@ -1619,13 +1619,13 @@
         <v>0.87751764059066773</v>
       </c>
       <c r="C91" s="2">
-        <v>0.99277091026306152</v>
+        <v>0.99487245082855225</v>
       </c>
       <c r="D91" s="2">
         <v>1.004464864730835</v>
       </c>
       <c r="E91" s="2">
-        <v>1.0129197835922241</v>
+        <v>1.0132076740264893</v>
       </c>
     </row>
     <row r="92">
@@ -1636,13 +1636,13 @@
         <v>0.98322391510009766</v>
       </c>
       <c r="C92" s="2">
-        <v>0.92267811298370361</v>
+        <v>0.92185652256011963</v>
       </c>
       <c r="D92" s="2">
         <v>1.0346298217773438</v>
       </c>
       <c r="E92" s="2">
-        <v>1.0386244058609009</v>
+        <v>1.0390654802322388</v>
       </c>
     </row>
     <row r="93">
@@ -1653,13 +1653,13 @@
         <v>1.5274962186813354</v>
       </c>
       <c r="C93" s="2">
-        <v>1.5922209024429321</v>
+        <v>1.5911566019058228</v>
       </c>
       <c r="D93" s="2">
         <v>1.0411319732666016</v>
       </c>
       <c r="E93" s="2">
-        <v>1.03844153881073</v>
+        <v>1.0388108491897583</v>
       </c>
     </row>
     <row r="94">
@@ -1670,13 +1670,13 @@
         <v>0.97081458568572998</v>
       </c>
       <c r="C94" s="2">
-        <v>0.99245595932006836</v>
+        <v>0.9916422963142395</v>
       </c>
       <c r="D94" s="2">
         <v>1.0259832143783569</v>
       </c>
       <c r="E94" s="2">
-        <v>1.0138550996780396</v>
+        <v>1.014182448387146</v>
       </c>
     </row>
     <row r="95">
@@ -1687,13 +1687,13 @@
         <v>1.1225353479385376</v>
       </c>
       <c r="C95" s="2">
-        <v>1.2209995985031128</v>
+        <v>1.2218418121337891</v>
       </c>
       <c r="D95" s="2">
         <v>1.0800504684448242</v>
       </c>
       <c r="E95" s="2">
-        <v>1.0731855630874634</v>
+        <v>1.0735018253326416</v>
       </c>
     </row>
     <row r="96">
@@ -1704,13 +1704,13 @@
         <v>0.93137860298156738</v>
       </c>
       <c r="C96" s="2">
-        <v>0.88283652067184448</v>
+        <v>0.88425791263580322</v>
       </c>
       <c r="D96" s="2">
         <v>0.99741452932357788</v>
       </c>
       <c r="E96" s="2">
-        <v>0.94627857208251953</v>
+        <v>0.94626682996749878</v>
       </c>
     </row>
     <row r="97">
@@ -1721,13 +1721,13 @@
         <v>0.9627920389175415</v>
       </c>
       <c r="C97" s="2">
-        <v>0.88659572601318359</v>
+        <v>0.8874775767326355</v>
       </c>
       <c r="D97" s="2">
         <v>0.94559592008590698</v>
       </c>
       <c r="E97" s="2">
-        <v>0.89969062805175781</v>
+        <v>0.89990419149398804</v>
       </c>
     </row>
     <row r="98">
@@ -1738,13 +1738,13 @@
         <v>0.99675625562667847</v>
       </c>
       <c r="C98" s="2">
-        <v>0.86952674388885498</v>
+        <v>0.86976099014282227</v>
       </c>
       <c r="D98" s="2">
         <v>0.8402131199836731</v>
       </c>
       <c r="E98" s="2">
-        <v>0.77813225984573364</v>
+        <v>0.77854257822036743</v>
       </c>
     </row>
     <row r="99">
@@ -1755,13 +1755,13 @@
         <v>1.347939133644104</v>
       </c>
       <c r="C99" s="2">
-        <v>1.2985852956771851</v>
+        <v>1.2986507415771484</v>
       </c>
       <c r="D99" s="2">
         <v>0.798350989818573</v>
       </c>
       <c r="E99" s="2">
-        <v>0.72577035427093506</v>
+        <v>0.72618603706359863</v>
       </c>
     </row>
     <row r="100">
@@ -1772,13 +1772,13 @@
         <v>0.1337946355342865</v>
       </c>
       <c r="C100" s="2">
-        <v>-0.14939147233963013</v>
+        <v>-0.15024274587631226</v>
       </c>
       <c r="D100" s="2">
         <v>0.68779623508453369</v>
       </c>
       <c r="E100" s="2">
-        <v>0.59331518411636353</v>
+        <v>0.59386140108108521</v>
       </c>
     </row>
     <row r="101">
@@ -1789,13 +1789,13 @@
         <v>0.51685655117034912</v>
       </c>
       <c r="C101" s="2">
-        <v>0.50338655710220337</v>
+        <v>0.50459253787994385</v>
       </c>
       <c r="D101" s="2">
         <v>0.5831073522567749</v>
       </c>
       <c r="E101" s="2">
-        <v>0.45909908413887024</v>
+        <v>0.45921006798744202</v>
       </c>
     </row>
     <row r="102">
@@ -1806,13 +1806,13 @@
         <v>0.57905077934265137</v>
       </c>
       <c r="C102" s="2">
-        <v>0.49819520115852356</v>
+        <v>0.49890229105949402</v>
       </c>
       <c r="D102" s="2">
         <v>0.47884836792945862</v>
       </c>
       <c r="E102" s="2">
-        <v>0.35608622431755066</v>
+        <v>0.35588714480400085</v>
       </c>
     </row>
     <row r="103">
@@ -1823,13 +1823,13 @@
         <v>0.59405559301376343</v>
       </c>
       <c r="C103" s="2">
-        <v>0.52119928598403931</v>
+        <v>0.52043330669403076</v>
       </c>
       <c r="D103" s="2">
         <v>0.43610408902168274</v>
       </c>
       <c r="E103" s="2">
-        <v>0.30303922295570374</v>
+        <v>0.30275866389274597</v>
       </c>
     </row>
     <row r="104">
@@ -1840,13 +1840,13 @@
         <v>0.12754246592521667</v>
       </c>
       <c r="C104" s="2">
-        <v>0.028903035447001457</v>
+        <v>0.030920090153813362</v>
       </c>
       <c r="D104" s="2">
         <v>0.31868463754653931</v>
       </c>
       <c r="E104" s="2">
-        <v>0.17715173959732056</v>
+        <v>0.17704950273036957</v>
       </c>
     </row>
     <row r="105">
@@ -1857,13 +1857,13 @@
         <v>-0.010821492411196232</v>
       </c>
       <c r="C105" s="2">
-        <v>-0.32510870695114136</v>
+        <v>-0.32760408520698547</v>
       </c>
       <c r="D105" s="2">
         <v>0.34865710139274597</v>
       </c>
       <c r="E105" s="2">
-        <v>0.25252258777618408</v>
+        <v>0.25256237387657166</v>
       </c>
     </row>
     <row r="106">
@@ -1874,13 +1874,13 @@
         <v>0.024461500346660614</v>
       </c>
       <c r="C106" s="2">
-        <v>-0.040519852191209793</v>
+        <v>-0.042428720742464066</v>
       </c>
       <c r="D106" s="2">
         <v>0.36496809124946594</v>
       </c>
       <c r="E106" s="2">
-        <v>0.26855242252349854</v>
+        <v>0.26840639114379883</v>
       </c>
     </row>
     <row r="107">
@@ -1891,13 +1891,13 @@
         <v>0.61205774545669556</v>
       </c>
       <c r="C107" s="2">
-        <v>0.39210367202758789</v>
+        <v>0.39160457253456116</v>
       </c>
       <c r="D107" s="2">
         <v>0.40837714076042175</v>
       </c>
       <c r="E107" s="2">
-        <v>0.31390970945358276</v>
+        <v>0.31367796659469605</v>
       </c>
     </row>
     <row r="108">
@@ -1908,13 +1908,13 @@
         <v>0.29116383194923401</v>
       </c>
       <c r="C108" s="2">
-        <v>0.16559790074825287</v>
+        <v>0.16726827621459961</v>
       </c>
       <c r="D108" s="2">
         <v>0.45248091220855713</v>
       </c>
       <c r="E108" s="2">
-        <v>0.35395991802215576</v>
+        <v>0.35406219959259033</v>
       </c>
     </row>
     <row r="109">
@@ -1925,13 +1925,13 @@
         <v>0.40354686975479126</v>
       </c>
       <c r="C109" s="2">
-        <v>0.52894622087478638</v>
+        <v>0.52937322854995728</v>
       </c>
       <c r="D109" s="2">
         <v>0.59081572294235229</v>
       </c>
       <c r="E109" s="2">
-        <v>0.48322001099586487</v>
+        <v>0.48373872041702271</v>
       </c>
     </row>
     <row r="110">
@@ -1942,13 +1942,13 @@
         <v>0.66365551948547363</v>
       </c>
       <c r="C110" s="2">
-        <v>0.64765501022338867</v>
+        <v>0.64718866348266602</v>
       </c>
       <c r="D110" s="2">
         <v>0.74648410081863403</v>
       </c>
       <c r="E110" s="2">
-        <v>0.66858631372451782</v>
+        <v>0.66961121559143066</v>
       </c>
     </row>
     <row r="111">
@@ -1959,13 +1959,13 @@
         <v>0.96973216533660889</v>
       </c>
       <c r="C111" s="2">
-        <v>0.90641069412231445</v>
+        <v>0.90634632110595703</v>
       </c>
       <c r="D111" s="2">
         <v>0.87780612707138062</v>
       </c>
       <c r="E111" s="2">
-        <v>0.78285050392150879</v>
+        <v>0.78443247079849243</v>
       </c>
     </row>
     <row r="112">
@@ -1976,13 +1976,13 @@
         <v>0.99098950624465942</v>
       </c>
       <c r="C112" s="2">
-        <v>0.88165134191513062</v>
+        <v>0.88389146327972412</v>
       </c>
       <c r="D112" s="2">
         <v>0.98098856210708618</v>
       </c>
       <c r="E112" s="2">
-        <v>0.89085155725479126</v>
+        <v>0.89244157075881958</v>
       </c>
     </row>
     <row r="113">
@@ -1993,13 +1993,13 @@
         <v>1.3725557327270508</v>
       </c>
       <c r="C113" s="2">
-        <v>1.1922439336776733</v>
+        <v>1.19800865650177</v>
       </c>
       <c r="D113" s="2">
         <v>1.1153632402420044</v>
       </c>
       <c r="E113" s="2">
-        <v>1.0445431470870972</v>
+        <v>1.0460463762283325</v>
       </c>
     </row>
     <row r="114">
@@ -2010,13 +2010,13 @@
         <v>1.3901938199996948</v>
       </c>
       <c r="C114" s="2">
-        <v>1.3431880474090576</v>
+        <v>1.3452485799789429</v>
       </c>
       <c r="D114" s="2">
         <v>1.2578468322753906</v>
       </c>
       <c r="E114" s="2">
-        <v>1.1680589914321899</v>
+        <v>1.1694077253341675</v>
       </c>
     </row>
     <row r="115">
@@ -2027,13 +2027,13 @@
         <v>1.2063601016998291</v>
       </c>
       <c r="C115" s="2">
-        <v>0.98785752058029175</v>
+        <v>0.99096250534057617</v>
       </c>
       <c r="D115" s="2">
         <v>1.2326499223709107</v>
       </c>
       <c r="E115" s="2">
-        <v>1.1120352745056152</v>
+        <v>1.1135119199752808</v>
       </c>
     </row>
     <row r="116">
@@ -2044,13 +2044,13 @@
         <v>1.5406996011734009</v>
       </c>
       <c r="C116" s="2">
-        <v>1.3641133308410645</v>
+        <v>1.3636866807937622</v>
       </c>
       <c r="D116" s="2">
         <v>1.2275859117507935</v>
       </c>
       <c r="E116" s="2">
-        <v>1.1005412340164185</v>
+        <v>1.1020433902740479</v>
       </c>
     </row>
     <row r="117">
@@ -2061,13 +2061,13 @@
         <v>1.5005362033843994</v>
       </c>
       <c r="C117" s="2">
-        <v>1.5488225221633911</v>
+        <v>1.5497113466262817</v>
       </c>
       <c r="D117" s="2">
         <v>1.1623567342758179</v>
       </c>
       <c r="E117" s="2">
-        <v>1.0542665719985962</v>
+        <v>1.0558475255966187</v>
       </c>
     </row>
     <row r="118">
@@ -2078,13 +2078,13 @@
         <v>1.6858992576599121</v>
       </c>
       <c r="C118" s="2">
-        <v>1.6405882835388184</v>
+        <v>1.6396253108978272</v>
       </c>
       <c r="D118" s="2">
         <v>1.1071981191635132</v>
       </c>
       <c r="E118" s="2">
-        <v>0.99902874231338501</v>
+        <v>0.99993038177490234</v>
       </c>
     </row>
     <row r="119">
@@ -2095,13 +2095,13 @@
         <v>0.43688303232192993</v>
       </c>
       <c r="C119" s="2">
-        <v>0.14344227313995361</v>
+        <v>0.14412659406661987</v>
       </c>
       <c r="D119" s="2">
         <v>1.0871602296829224</v>
       </c>
       <c r="E119" s="2">
-        <v>0.97015869617462158</v>
+        <v>0.97104722261428833</v>
       </c>
     </row>
     <row r="120">
@@ -2112,13 +2112,13 @@
         <v>0.92415553331375122</v>
       </c>
       <c r="C120" s="2">
-        <v>0.80296361446380615</v>
+        <v>0.80312901735305786</v>
       </c>
       <c r="D120" s="2">
         <v>1.0592646598815918</v>
       </c>
       <c r="E120" s="2">
-        <v>0.95167094469070435</v>
+        <v>0.95220446586608887</v>
       </c>
     </row>
     <row r="121">
@@ -2129,13 +2129,13 @@
         <v>0.40392753481864929</v>
       </c>
       <c r="C121" s="2">
-        <v>0.46517959237098694</v>
+        <v>0.46812868118286133</v>
       </c>
       <c r="D121" s="2">
         <v>1.0128895044326782</v>
       </c>
       <c r="E121" s="2">
-        <v>0.93831324577331543</v>
+        <v>0.93908989429473877</v>
       </c>
     </row>
     <row r="122">
@@ -2146,13 +2146,13 @@
         <v>0.87612801790237427</v>
       </c>
       <c r="C122" s="2">
-        <v>0.69510364532470703</v>
+        <v>0.69475477933883667</v>
       </c>
       <c r="D122" s="2">
         <v>0.90189272165298462</v>
       </c>
       <c r="E122" s="2">
-        <v>0.79281258583068848</v>
+        <v>0.7931329607963562</v>
       </c>
     </row>
     <row r="123">
@@ -2163,13 +2163,13 @@
         <v>1.2098530530929565</v>
       </c>
       <c r="C123" s="2">
-        <v>1.0833574533462525</v>
+        <v>1.0853003263473511</v>
       </c>
       <c r="D123" s="2">
         <v>0.83154535293579102</v>
       </c>
       <c r="E123" s="2">
-        <v>0.71771562099456787</v>
+        <v>0.71851927042007446</v>
       </c>
     </row>
     <row r="124">
@@ -2180,13 +2180,13 @@
         <v>0.95529943704605103</v>
       </c>
       <c r="C124" s="2">
-        <v>0.82146787643432617</v>
+        <v>0.82137763500213623</v>
       </c>
       <c r="D124" s="2">
         <v>0.90723186731338501</v>
       </c>
       <c r="E124" s="2">
-        <v>0.81963199377059937</v>
+        <v>0.82022196054458618</v>
       </c>
     </row>
     <row r="125">
@@ -2197,13 +2197,13 @@
         <v>1.1233233213424683</v>
       </c>
       <c r="C125" s="2">
-        <v>1.2438942193984985</v>
+        <v>1.2456552982330322</v>
       </c>
       <c r="D125" s="2">
         <v>0.92720144987106323</v>
       </c>
       <c r="E125" s="2">
-        <v>0.83441907167434692</v>
+        <v>0.83513343334197998</v>
       </c>
     </row>
     <row r="126">
@@ -2214,13 +2214,13 @@
         <v>0.50156509876251221</v>
       </c>
       <c r="C126" s="2">
-        <v>0.23931644856929779</v>
+        <v>0.23609919846057892</v>
       </c>
       <c r="D126" s="2">
         <v>1.0568108558654785</v>
       </c>
       <c r="E126" s="2">
-        <v>0.95285582542419434</v>
+        <v>0.95357263088226318</v>
       </c>
     </row>
     <row r="127">
@@ -2231,13 +2231,13 @@
         <v>1.0527728796005249</v>
       </c>
       <c r="C127" s="2">
-        <v>0.96471548080444336</v>
+        <v>0.9681020975112915</v>
       </c>
       <c r="D127" s="2">
         <v>0.98809897899627686</v>
       </c>
       <c r="E127" s="2">
-        <v>0.89946490526199341</v>
+        <v>0.90031343698501587</v>
       </c>
     </row>
     <row r="128">
@@ -2248,13 +2248,13 @@
         <v>1.1180621385574341</v>
       </c>
       <c r="C128" s="2">
-        <v>1.0606894493103027</v>
+        <v>1.0594508647918701</v>
       </c>
       <c r="D128" s="2">
         <v>0.9396626353263855</v>
       </c>
       <c r="E128" s="2">
-        <v>0.85389077663421631</v>
+        <v>0.85441422462463379</v>
       </c>
     </row>
     <row r="129">
@@ -2265,13 +2265,13 @@
         <v>1.1038813591003418</v>
       </c>
       <c r="C129" s="2">
-        <v>0.93604743480682373</v>
+        <v>0.93733179569244385</v>
       </c>
       <c r="D129" s="2">
         <v>0.9810362458229065</v>
       </c>
       <c r="E129" s="2">
-        <v>0.8974454402923584</v>
+        <v>0.89808094501495361</v>
       </c>
     </row>
     <row r="130">
@@ -2282,13 +2282,13 @@
         <v>1.5704125165939331</v>
       </c>
       <c r="C130" s="2">
-        <v>1.5311102867126465</v>
+        <v>1.5340815782546997</v>
       </c>
       <c r="D130" s="2">
         <v>1.0273183584213257</v>
       </c>
       <c r="E130" s="2">
-        <v>0.93924033641815186</v>
+        <v>0.93961197137832642</v>
       </c>
     </row>
     <row r="131">
@@ -2299,13 +2299,13 @@
         <v>0.25772073864936829</v>
       </c>
       <c r="C131" s="2">
-        <v>0.2145853191614151</v>
+        <v>0.21542231738567352</v>
       </c>
       <c r="D131" s="2">
         <v>1.094713568687439</v>
       </c>
       <c r="E131" s="2">
-        <v>1.0334118604660034</v>
+        <v>1.0342700481414795</v>
       </c>
     </row>
     <row r="132">
@@ -2316,13 +2316,13 @@
         <v>0.7739260196685791</v>
       </c>
       <c r="C132" s="2">
-        <v>0.67319023609161377</v>
+        <v>0.67220741510391235</v>
       </c>
       <c r="D132" s="2">
         <v>1.0888017416000366</v>
       </c>
       <c r="E132" s="2">
-        <v>1.0442075729370117</v>
+        <v>1.0445336103439331</v>
       </c>
     </row>
     <row r="133">
@@ -2333,13 +2333,13 @@
         <v>1.3276619911193848</v>
       </c>
       <c r="C133" s="2">
-        <v>1.2134603261947632</v>
+        <v>1.2143778800964355</v>
       </c>
       <c r="D133" s="2">
         <v>1.0259606838226318</v>
       </c>
       <c r="E133" s="2">
-        <v>0.95168864727020264</v>
+        <v>0.95214617252349854</v>
       </c>
     </row>
     <row r="134">
@@ -2350,13 +2350,13 @@
         <v>1.5398620367050171</v>
       </c>
       <c r="C134" s="2">
-        <v>1.6200480461120605</v>
+        <v>1.6194348335266113</v>
       </c>
       <c r="D134" s="2">
         <v>0.9701153039932251</v>
       </c>
       <c r="E134" s="2">
-        <v>0.8786163330078125</v>
+        <v>0.87911200523376465</v>
       </c>
     </row>
     <row r="135">
@@ -2367,13 +2367,13 @@
         <v>1.1081227064132691</v>
       </c>
       <c r="C135" s="2">
-        <v>1.086860179901123</v>
+        <v>1.0880218744277954</v>
       </c>
       <c r="D135" s="2">
         <v>0.90150004625320435</v>
       </c>
       <c r="E135" s="2">
-        <v>0.80207043886184692</v>
+        <v>0.8021586537361145</v>
       </c>
     </row>
     <row r="136">
@@ -2384,13 +2384,13 @@
         <v>0.9995657205581665</v>
       </c>
       <c r="C136" s="2">
-        <v>1.061876654624939</v>
+        <v>1.0604743957519531</v>
       </c>
       <c r="D136" s="2">
         <v>1.0415375232696533</v>
       </c>
       <c r="E136" s="2">
-        <v>0.93925023078918457</v>
+        <v>0.93924176692962647</v>
       </c>
     </row>
     <row r="137">
@@ -2401,13 +2401,13 @@
         <v>0.55249351263046265</v>
       </c>
       <c r="C137" s="2">
-        <v>0.22801946103572845</v>
+        <v>0.22796328365802765</v>
       </c>
       <c r="D137" s="2">
         <v>1.0789514780044556</v>
       </c>
       <c r="E137" s="2">
-        <v>0.98656255006790161</v>
+        <v>0.98671895265579224</v>
       </c>
     </row>
     <row r="138">
@@ -2418,13 +2418,13 @@
         <v>0.60127246379852295</v>
       </c>
       <c r="C138" s="2">
-        <v>0.27839639782905579</v>
+        <v>0.28002443909645081</v>
       </c>
       <c r="D138" s="2">
         <v>1.0438895225524902</v>
       </c>
       <c r="E138" s="2">
-        <v>1.0363258123397827</v>
+        <v>1.0368055105209351</v>
       </c>
     </row>
     <row r="139">
@@ -2435,13 +2435,13 @@
         <v>0.95287501811981201</v>
       </c>
       <c r="C139" s="2">
-        <v>0.84219712018966675</v>
+        <v>0.84150147438049317</v>
       </c>
       <c r="D139" s="2">
         <v>0.98979014158248901</v>
       </c>
       <c r="E139" s="2">
-        <v>0.95950484275817871</v>
+        <v>0.96050643920898438</v>
       </c>
     </row>
     <row r="140">
@@ -2452,13 +2452,13 @@
         <v>1.5180577039718628</v>
       </c>
       <c r="C140" s="2">
-        <v>1.4492036104202271</v>
+        <v>1.4491703510284424</v>
       </c>
       <c r="D140" s="2">
         <v>1.0464777946472168</v>
       </c>
       <c r="E140" s="2">
-        <v>1.0007228851318359</v>
+        <v>1.0016964673995972</v>
       </c>
     </row>
     <row r="141">
@@ -2469,13 +2469,13 @@
         <v>1.1106525659561157</v>
       </c>
       <c r="C141" s="2">
-        <v>1.0990009307861328</v>
+        <v>1.0995019674301147</v>
       </c>
       <c r="D141" s="2">
         <v>1.0369572639465332</v>
       </c>
       <c r="E141" s="2">
-        <v>0.98677152395248413</v>
+        <v>0.98785161972045899</v>
       </c>
     </row>
     <row r="142">
@@ -2486,13 +2486,13 @@
         <v>1.0121045112609863</v>
       </c>
       <c r="C142" s="2">
-        <v>1.6613302230834961</v>
+        <v>1.6651569604873657</v>
       </c>
       <c r="D142" s="2">
         <v>1.0403944253921509</v>
       </c>
       <c r="E142" s="2">
-        <v>1.0317986011505127</v>
+        <v>1.0330584049224854</v>
       </c>
     </row>
     <row r="143">
@@ -2503,13 +2503,13 @@
         <v>1.052966833114624</v>
       </c>
       <c r="C143" s="2">
-        <v>0.92865920066833496</v>
+        <v>0.9327431321144104</v>
       </c>
       <c r="D143" s="2">
         <v>1.0907306671142578</v>
       </c>
       <c r="E143" s="2">
-        <v>1.1051461696624756</v>
+        <v>1.106339693069458</v>
       </c>
     </row>
     <row r="144">
@@ -2520,13 +2520,13 @@
         <v>1.6183123588562012</v>
       </c>
       <c r="C144" s="2">
-        <v>1.4578218460083008</v>
+        <v>1.4587322473526001</v>
       </c>
       <c r="D144" s="2">
         <v>1.1236333847045899</v>
       </c>
       <c r="E144" s="2">
-        <v>1.1433893442153931</v>
+        <v>1.1447409391403198</v>
       </c>
     </row>
     <row r="145">
@@ -2537,13 +2537,13 @@
         <v>0.91387999057769775</v>
       </c>
       <c r="C145" s="2">
-        <v>0.93631482124328613</v>
+        <v>0.93587076663970947</v>
       </c>
       <c r="D145" s="2">
         <v>1.0465196371078491</v>
       </c>
       <c r="E145" s="2">
-        <v>1.0688202381134033</v>
+        <v>1.0701637268066406</v>
       </c>
     </row>
     <row r="146">
@@ -2554,13 +2554,13 @@
         <v>0.58342814445495605</v>
       </c>
       <c r="C146" s="2">
-        <v>0.6332627534866333</v>
+        <v>0.63482469320297241</v>
       </c>
       <c r="D146" s="2">
         <v>1.0489387512207031</v>
       </c>
       <c r="E146" s="2">
-        <v>1.0578776597976685</v>
+        <v>1.0593782663345337</v>
       </c>
     </row>
     <row r="147">
@@ -2571,13 +2571,13 @@
         <v>1.0542991161346436</v>
       </c>
       <c r="C147" s="2">
-        <v>0.93852484226226807</v>
+        <v>0.93955600261688232</v>
       </c>
       <c r="D147" s="2">
         <v>1.0765870809555054</v>
       </c>
       <c r="E147" s="2">
-        <v>0.98412299156188965</v>
+        <v>0.98519760370254517</v>
       </c>
     </row>
     <row r="148">
@@ -2588,13 +2588,13 @@
         <v>1.248998761177063</v>
       </c>
       <c r="C148" s="2">
-        <v>1.1863861083984375</v>
+        <v>1.1871118545532227</v>
       </c>
       <c r="D148" s="2">
         <v>1.0753378868103027</v>
       </c>
       <c r="E148" s="2">
-        <v>0.98193055391311646</v>
+        <v>0.98254132270812988</v>
       </c>
     </row>
     <row r="149">
@@ -2605,13 +2605,13 @@
         <v>0.82403445243835449</v>
       </c>
       <c r="C149" s="2">
-        <v>0.77808099985122681</v>
+        <v>0.77797597646713257</v>
       </c>
       <c r="D149" s="2">
         <v>1.0183613300323486</v>
       </c>
       <c r="E149" s="2">
-        <v>0.93194329738616943</v>
+        <v>0.93231004476547241</v>
       </c>
     </row>
     <row r="150">
@@ -2622,13 +2622,13 @@
         <v>1.1324241161346436</v>
       </c>
       <c r="C150" s="2">
-        <v>1.0005179643630981</v>
+        <v>1.0024328231811523</v>
       </c>
       <c r="D150" s="2">
         <v>1.0164604187011719</v>
       </c>
       <c r="E150" s="2">
-        <v>0.91382920742034912</v>
+        <v>0.91436976194381714</v>
       </c>
     </row>
     <row r="151">
@@ -2639,13 +2639,13 @@
         <v>1.2609398365020752</v>
       </c>
       <c r="C151" s="2">
-        <v>0.99753844738006592</v>
+        <v>0.99753093719482422</v>
       </c>
       <c r="D151" s="2">
         <v>0.94837933778762817</v>
       </c>
       <c r="E151" s="2">
-        <v>0.82403737306594849</v>
+        <v>0.82456576824188233</v>
       </c>
     </row>
     <row r="152">
@@ -2656,13 +2656,13 @@
         <v>1.041724681854248</v>
       </c>
       <c r="C152" s="2">
-        <v>0.90892738103866577</v>
+        <v>0.90883678197860718</v>
       </c>
       <c r="D152" s="2">
         <v>0.82177597284317017</v>
       </c>
       <c r="E152" s="2">
-        <v>0.70799827575683594</v>
+        <v>0.70837748050689697</v>
       </c>
     </row>
     <row r="153">
@@ -2673,13 +2673,13 @@
         <v>1.1055232286453247</v>
       </c>
       <c r="C153" s="2">
-        <v>1.0079363584518433</v>
+        <v>1.0066503286361694</v>
       </c>
       <c r="D153" s="2">
         <v>0.65232169628143311</v>
       </c>
       <c r="E153" s="2">
-        <v>0.54426592588424683</v>
+        <v>0.54472798109054566</v>
       </c>
     </row>
     <row r="154">
@@ -2690,13 +2690,13 @@
         <v>0.89677160978317261</v>
       </c>
       <c r="C154" s="2">
-        <v>0.77328801155090332</v>
+        <v>0.77440845966339111</v>
       </c>
       <c r="D154" s="2">
         <v>0.48827815055847168</v>
       </c>
       <c r="E154" s="2">
-        <v>0.39650973677635193</v>
+        <v>0.39678430557250977</v>
       </c>
     </row>
     <row r="155">
@@ -2707,13 +2707,13 @@
         <v>-0.029301609843969345</v>
       </c>
       <c r="C155" s="2">
-        <v>-0.17486380040645599</v>
+        <v>-0.17341117560863495</v>
       </c>
       <c r="D155" s="2">
         <v>0.34072479605674744</v>
       </c>
       <c r="E155" s="2">
-        <v>0.24602130055427551</v>
+        <v>0.24606843292713165</v>
       </c>
     </row>
     <row r="156">
@@ -2724,13 +2724,13 @@
         <v>-0.085131451487541199</v>
       </c>
       <c r="C156" s="2">
-        <v>-0.10582708567380905</v>
+        <v>-0.1061386913061142</v>
       </c>
       <c r="D156" s="2">
         <v>0.17210513353347778</v>
       </c>
       <c r="E156" s="2">
-        <v>0.15091438591480255</v>
+        <v>0.15117835998535156</v>
       </c>
     </row>
     <row r="157">
@@ -2741,13 +2741,13 @@
         <v>-0.27608934044837952</v>
       </c>
       <c r="C157" s="2">
-        <v>-0.2872048020362854</v>
+        <v>-0.28573384881019592</v>
       </c>
       <c r="D157" s="2">
         <v>0.079903863370418549</v>
       </c>
       <c r="E157" s="2">
-        <v>0.05973535031080246</v>
+        <v>0.060025483369827271</v>
       </c>
     </row>
     <row r="158">
@@ -2758,13 +2758,13 @@
         <v>-0.65235769748687744</v>
       </c>
       <c r="C158" s="2">
-        <v>-0.55172497034072876</v>
+        <v>-0.5535169243812561</v>
       </c>
       <c r="D158" s="2">
         <v>0.046480540186166763</v>
       </c>
       <c r="E158" s="2">
-        <v>0.040559582412242889</v>
+        <v>0.04095950722694397</v>
       </c>
     </row>
     <row r="159">
@@ -2775,13 +2775,13 @@
         <v>-0.1955561488866806</v>
       </c>
       <c r="C159" s="2">
-        <v>-0.35387790203094483</v>
+        <v>-0.35400998592376709</v>
       </c>
       <c r="D159" s="2">
         <v>-0.065591193735599518</v>
       </c>
       <c r="E159" s="2">
-        <v>-0.074663534760475159</v>
+        <v>-0.073981694877147675</v>
       </c>
     </row>
     <row r="160">
@@ -2792,13 +2792,13 @@
         <v>-0.25663700699806213</v>
       </c>
       <c r="C160" s="2">
-        <v>0.14157624542713165</v>
+        <v>0.14352026581764221</v>
       </c>
       <c r="D160" s="2">
         <v>0.0041405675001442432</v>
       </c>
       <c r="E160" s="2">
-        <v>0.0054602622985839844</v>
+        <v>0.0061062523163855076</v>
       </c>
     </row>
     <row r="161">
@@ -2809,13 +2809,13 @@
         <v>0.21191319823265076</v>
       </c>
       <c r="C161" s="2">
-        <v>0.088316090404987335</v>
+        <v>0.088460922241210938</v>
       </c>
       <c r="D161" s="2">
         <v>0.048113804310560226</v>
       </c>
       <c r="E161" s="2">
-        <v>0.038813810795545578</v>
+        <v>0.039588376879692078</v>
       </c>
     </row>
     <row r="162">
@@ -2826,13 +2826,13 @@
         <v>0.80471330881118774</v>
       </c>
       <c r="C162" s="2">
-        <v>0.83535444736480713</v>
+        <v>0.83505654335021973</v>
       </c>
       <c r="D162" s="2">
         <v>0.078669555485248566</v>
       </c>
       <c r="E162" s="2">
-        <v>0.061720307916402817</v>
+        <v>0.062458019703626633</v>
       </c>
     </row>
     <row r="163">
@@ -2843,13 +2843,13 @@
         <v>-0.11187399923801422</v>
       </c>
       <c r="C163" s="2">
-        <v>-0.26372000575065613</v>
+        <v>-0.2600623369216919</v>
       </c>
       <c r="D163" s="2">
         <v>0.21288938820362091</v>
       </c>
       <c r="E163" s="2">
-        <v>0.17117027938365936</v>
+        <v>0.17243614792823792</v>
       </c>
     </row>
     <row r="164">
@@ -2860,13 +2860,13 @@
         <v>0.59828424453735352</v>
       </c>
       <c r="C164" s="2">
-        <v>0.54625034332275391</v>
+        <v>0.54738032817840576</v>
       </c>
       <c r="D164" s="2">
         <v>0.29645845293998718</v>
       </c>
       <c r="E164" s="2">
-        <v>0.28214788436889648</v>
+        <v>0.28356432914733887</v>
       </c>
     </row>
     <row r="165">
@@ -2877,13 +2877,13 @@
         <v>0.31062766909599304</v>
       </c>
       <c r="C165" s="2">
-        <v>0.19435484707355499</v>
+        <v>0.19520042836666107</v>
       </c>
       <c r="D165" s="2">
         <v>0.28729885816574097</v>
       </c>
       <c r="E165" s="2">
-        <v>0.22697447240352631</v>
+        <v>0.22842562198638916</v>
       </c>
     </row>
     <row r="166">
@@ -2894,13 +2894,13 @@
         <v>-0.0010875595035031438</v>
       </c>
       <c r="C166" s="2">
-        <v>-0.081046320497989655</v>
+        <v>-0.079907067120075226</v>
       </c>
       <c r="D166" s="2">
         <v>0.24615252017974854</v>
       </c>
       <c r="E166" s="2">
-        <v>0.20277920365333557</v>
+        <v>0.20434123277664185</v>
       </c>
     </row>
     <row r="167">
@@ -2911,13 +2911,13 @@
         <v>0.55562072992324829</v>
       </c>
       <c r="C167" s="2">
-        <v>0.43332478404045105</v>
+        <v>0.43628621101379395</v>
       </c>
       <c r="D167" s="2">
         <v>0.12478786706924438</v>
       </c>
       <c r="E167" s="2">
-        <v>0.063768617808818817</v>
+        <v>0.065579600632190704</v>
       </c>
     </row>
     <row r="168">
@@ -2928,13 +2928,13 @@
         <v>0.55656552314758301</v>
       </c>
       <c r="C168" s="2">
-        <v>0.64492052793502808</v>
+        <v>0.64614367485046387</v>
       </c>
       <c r="D168" s="2">
         <v>0.13145817816257477</v>
       </c>
       <c r="E168" s="2">
-        <v>0.073417939245700836</v>
+        <v>0.075212500989437103</v>
       </c>
     </row>
     <row r="169">
@@ -2945,13 +2945,13 @@
         <v>-0.33907327055931091</v>
       </c>
       <c r="C169" s="2">
-        <v>-0.35498443245887756</v>
+        <v>-0.35272809863090515</v>
       </c>
       <c r="D169" s="2">
         <v>0.094043642282485962</v>
       </c>
       <c r="E169" s="2">
-        <v>0.040703754872083664</v>
+        <v>0.042274780571460724</v>
       </c>
     </row>
     <row r="170">
@@ -2962,13 +2962,13 @@
         <v>-0.15840400755405426</v>
       </c>
       <c r="C170" s="2">
-        <v>-0.12944130599498749</v>
+        <v>-0.12829861044883728</v>
       </c>
       <c r="D170" s="2">
         <v>0.1315656453371048</v>
       </c>
       <c r="E170" s="2">
-        <v>0.083128035068511963</v>
+        <v>0.084322698414325714</v>
       </c>
     </row>
     <row r="171">
@@ -2979,13 +2979,13 @@
         <v>-0.28756853938102722</v>
       </c>
       <c r="C171" s="2">
-        <v>-0.41574090719223022</v>
+        <v>-0.41379815340042114</v>
       </c>
       <c r="D171" s="2">
         <v>0.14728274941444397</v>
       </c>
       <c r="E171" s="2">
-        <v>0.089922547340393066</v>
+        <v>0.090763285756111145</v>
       </c>
     </row>
     <row r="172">
@@ -2996,13 +2996,13 @@
         <v>-0.051841244101524353</v>
       </c>
       <c r="C172" s="2">
-        <v>-0.17687608301639557</v>
+        <v>-0.1733662337064743</v>
       </c>
       <c r="D172" s="2">
         <v>0.1753523200750351</v>
       </c>
       <c r="E172" s="2">
-        <v>0.12909567356109619</v>
+        <v>0.12962846457958221</v>
       </c>
     </row>
     <row r="173">
@@ -3013,13 +3013,13 @@
         <v>0.26155346632003784</v>
       </c>
       <c r="C173" s="2">
-        <v>0.25182268023490906</v>
+        <v>0.25094088912010193</v>
       </c>
       <c r="D173" s="2">
         <v>0.17849370837211609</v>
       </c>
       <c r="E173" s="2">
-        <v>0.10244648158550262</v>
+        <v>0.10304457694292068</v>
       </c>
     </row>
     <row r="174">
@@ -3030,13 +3030,13 @@
         <v>0.64832568168640137</v>
       </c>
       <c r="C174" s="2">
-        <v>0.57617336511611938</v>
+        <v>0.5736316442489624</v>
       </c>
       <c r="D174" s="2">
         <v>0.36803606152534485</v>
       </c>
       <c r="E174" s="2">
-        <v>0.28312599658966064</v>
+        <v>0.28337213397026062</v>
       </c>
     </row>
     <row r="175">
@@ -3047,13 +3047,13 @@
         <v>0.14036634564399719</v>
       </c>
       <c r="C175" s="2">
-        <v>-0.019895708188414574</v>
+        <v>-0.021941730752587318</v>
       </c>
       <c r="D175" s="2">
         <v>0.47030669450759888</v>
       </c>
       <c r="E175" s="2">
-        <v>0.36691415309906006</v>
+        <v>0.36721071600914002</v>
       </c>
     </row>
     <row r="176">
@@ -3064,13 +3064,13 @@
         <v>0.808246910572052</v>
       </c>
       <c r="C176" s="2">
-        <v>0.78588294982910156</v>
+        <v>0.78607279062271118</v>
       </c>
       <c r="D176" s="2">
         <v>0.49438965320587158</v>
       </c>
       <c r="E176" s="2">
-        <v>0.40462371706962586</v>
+        <v>0.40446656942367554</v>
       </c>
     </row>
     <row r="177">
@@ -3081,13 +3081,13 @@
         <v>0.58483809232711792</v>
       </c>
       <c r="C177" s="2">
-        <v>0.40507775545120239</v>
+        <v>0.40688872337341309</v>
       </c>
       <c r="D177" s="2">
         <v>0.51323997974395752</v>
       </c>
       <c r="E177" s="2">
-        <v>0.43508815765380859</v>
+        <v>0.43428638577461243</v>
       </c>
     </row>
     <row r="178">
@@ -3098,13 +3098,13 @@
         <v>1.3668078184127808</v>
       </c>
       <c r="C178" s="2">
-        <v>1.271131157875061</v>
+        <v>1.2702198028564453</v>
       </c>
       <c r="D178" s="2">
         <v>0.54678082466125488</v>
       </c>
       <c r="E178" s="2">
-        <v>0.4743383526802063</v>
+        <v>0.47373190522193909</v>
       </c>
     </row>
     <row r="179">
@@ -3115,13 +3115,13 @@
         <v>0.76203185319900513</v>
       </c>
       <c r="C179" s="2">
-        <v>0.6246522068977356</v>
+        <v>0.62624859809875488</v>
       </c>
       <c r="D179" s="2">
         <v>0.50989848375320435</v>
       </c>
       <c r="E179" s="2">
-        <v>0.43425858020782471</v>
+        <v>0.4341595470905304</v>
       </c>
     </row>
     <row r="180">
@@ -3132,13 +3132,13 @@
         <v>-0.070822089910507202</v>
       </c>
       <c r="C180" s="2">
-        <v>-0.076354809105396271</v>
+        <v>-0.078495360910892487</v>
       </c>
       <c r="D180" s="2">
         <v>0.64696335792541504</v>
       </c>
       <c r="E180" s="2">
-        <v>0.57941031455993652</v>
+        <v>0.57966470718383789</v>
       </c>
     </row>
     <row r="181">
@@ -3149,13 +3149,13 @@
         <v>0.11781155318021774</v>
       </c>
       <c r="C181" s="2">
-        <v>0.097303874790668488</v>
+        <v>0.095012113451957703</v>
       </c>
       <c r="D181" s="2">
         <v>0.50260907411575317</v>
       </c>
       <c r="E181" s="2">
-        <v>0.50593805313110352</v>
+        <v>0.50590974092483521</v>
       </c>
     </row>
     <row r="182">
@@ -3166,13 +3166,13 @@
         <v>0.56342142820358276</v>
       </c>
       <c r="C182" s="2">
-        <v>0.60507446527481079</v>
+        <v>0.60595047473907471</v>
       </c>
       <c r="D182" s="2">
         <v>0.57563948631286621</v>
       </c>
       <c r="E182" s="2">
-        <v>0.58077198266983032</v>
+        <v>0.580791175365448</v>
       </c>
     </row>
     <row r="183">
@@ -3183,13 +3183,13 @@
         <v>0.31638434529304504</v>
       </c>
       <c r="C183" s="2">
-        <v>0.21545533835887909</v>
+        <v>0.21748057007789612</v>
       </c>
       <c r="D183" s="2">
         <v>0.60031038522720337</v>
       </c>
       <c r="E183" s="2">
-        <v>0.58824491500854492</v>
+        <v>0.58862519264221192</v>
       </c>
     </row>
     <row r="184">
@@ -3200,13 +3200,13 @@
         <v>1.3739501237869263</v>
       </c>
       <c r="C184" s="2">
-        <v>1.2864700555801392</v>
+        <v>1.2876046895980835</v>
       </c>
       <c r="D184" s="2">
         <v>0.66368454694747925</v>
       </c>
       <c r="E184" s="2">
-        <v>0.63552993535995483</v>
+        <v>0.63579469919204712</v>
       </c>
     </row>
     <row r="185">
@@ -3217,13 +3217,13 @@
         <v>-0.49094125628471375</v>
       </c>
       <c r="C185" s="2">
-        <v>0.12463267147541046</v>
+        <v>0.12227780371904373</v>
       </c>
       <c r="D185" s="2">
         <v>0.7536194920539856</v>
       </c>
       <c r="E185" s="2">
-        <v>0.70468884706497192</v>
+        <v>0.70543837547302246</v>
       </c>
     </row>
     <row r="186">
@@ -3234,13 +3234,13 @@
         <v>1.2421115636825562</v>
       </c>
       <c r="C186" s="2">
-        <v>1.0785830020904541</v>
+        <v>1.0808219909667969</v>
       </c>
       <c r="D186" s="2">
         <v>0.78110557794570923</v>
       </c>
       <c r="E186" s="2">
-        <v>0.70338982343673706</v>
+        <v>0.70477193593978882</v>
       </c>
     </row>
     <row r="187">
@@ -3251,13 +3251,13 @@
         <v>1.5888462066650391</v>
       </c>
       <c r="C187" s="2">
-        <v>1.3383874893188477</v>
+        <v>1.3407258987426758</v>
       </c>
       <c r="D187" s="2">
         <v>0.8157927393913269</v>
       </c>
       <c r="E187" s="2">
-        <v>0.75633662939071655</v>
+        <v>0.75788629055023193</v>
       </c>
     </row>
     <row r="188">
@@ -3268,13 +3268,13 @@
         <v>1.3323990106582642</v>
       </c>
       <c r="C188" s="2">
-        <v>1.0502171516418457</v>
+        <v>1.0507739782333374</v>
       </c>
       <c r="D188" s="2">
         <v>0.71775144338607788</v>
       </c>
       <c r="E188" s="2">
-        <v>0.66002070903778076</v>
+        <v>0.66153150796890259</v>
       </c>
     </row>
     <row r="189">
@@ -3285,13 +3285,13 @@
         <v>0.73859226703643799</v>
       </c>
       <c r="C189" s="2">
-        <v>0.54607540369033813</v>
+        <v>0.5482977032661438</v>
       </c>
       <c r="D189" s="2">
         <v>0.58328336477279663</v>
       </c>
       <c r="E189" s="2">
-        <v>0.49272283911705017</v>
+        <v>0.49426606297492981</v>
       </c>
     </row>
     <row r="190">
@@ -3302,13 +3302,13 @@
         <v>0.36518657207489014</v>
       </c>
       <c r="C190" s="2">
-        <v>0.085612885653972626</v>
+        <v>0.089014217257499695</v>
       </c>
       <c r="D190" s="2">
         <v>0.75908178091049194</v>
       </c>
       <c r="E190" s="2">
-        <v>0.55851459503173828</v>
+        <v>0.56063628196716309</v>
       </c>
     </row>
     <row r="191">
@@ -3319,13 +3319,13 @@
         <v>0.87560582160949707</v>
       </c>
       <c r="C191" s="2">
-        <v>1.0815955400466919</v>
+        <v>1.0839799642562866</v>
       </c>
       <c r="D191" s="2">
         <v>0.7731899619102478</v>
       </c>
       <c r="E191" s="2">
-        <v>0.66351479291915894</v>
+        <v>0.66537731885910034</v>
       </c>
     </row>
     <row r="192">
@@ -3336,13 +3336,13 @@
         <v>-0.56598716974258423</v>
       </c>
       <c r="C192" s="2">
-        <v>-0.65138804912567139</v>
+        <v>-0.64971250295639038</v>
       </c>
       <c r="D192" s="2">
         <v>0.68072623014450073</v>
       </c>
       <c r="E192" s="2">
-        <v>0.66359716653823853</v>
+        <v>0.66498875617980957</v>
       </c>
     </row>
     <row r="193">
@@ -3353,13 +3353,13 @@
         <v>0.16373701393604279</v>
       </c>
       <c r="C193" s="2">
-        <v>-0.21921056509017944</v>
+        <v>-0.21778437495231629</v>
       </c>
       <c r="D193" s="2">
         <v>0.71306675672531128</v>
       </c>
       <c r="E193" s="2">
-        <v>0.70644181966781616</v>
+        <v>0.70817530155181885</v>
       </c>
     </row>
     <row r="194">
@@ -3370,13 +3370,13 @@
         <v>1.0912445783615112</v>
       </c>
       <c r="C194" s="2">
-        <v>0.71675843000411987</v>
+        <v>0.71960955858230591</v>
       </c>
       <c r="D194" s="2">
         <v>0.72874975204467774</v>
       </c>
       <c r="E194" s="2">
-        <v>0.71763622760772705</v>
+        <v>0.71929681301116943</v>
       </c>
     </row>
     <row r="195">
@@ -3387,13 +3387,13 @@
         <v>1.3690851926803589</v>
       </c>
       <c r="C195" s="2">
-        <v>2.0235846042633057</v>
+        <v>2.023491382598877</v>
       </c>
       <c r="D195" s="2">
         <v>0.79378920793533325</v>
       </c>
       <c r="E195" s="2">
-        <v>0.80091387033462525</v>
+        <v>0.80243027210235596</v>
       </c>
     </row>
     <row r="196">
@@ -3404,13 +3404,13 @@
         <v>0.75667262077331543</v>
       </c>
       <c r="C196" s="2">
-        <v>1.3391292095184326</v>
+        <v>1.3372290134429932</v>
       </c>
       <c r="D196" s="2">
         <v>0.71587240695953369</v>
       </c>
       <c r="E196" s="2">
-        <v>0.65584301948547363</v>
+        <v>0.65697658061981201</v>
       </c>
     </row>
     <row r="197">
@@ -3421,13 +3421,13 @@
         <v>1.6234637498855591</v>
       </c>
       <c r="C197" s="2">
-        <v>1.4358186721801758</v>
+        <v>1.4394527673721314</v>
       </c>
       <c r="D197" s="2">
         <v>0.86995917558670044</v>
       </c>
       <c r="E197" s="2">
-        <v>0.79880744218826294</v>
+        <v>0.8000989556312561</v>
       </c>
     </row>
     <row r="198">
@@ -3438,13 +3438,13 @@
         <v>0.87973934412002563</v>
       </c>
       <c r="C198" s="2">
-        <v>0.64682513475418091</v>
+        <v>0.64839136600494385</v>
       </c>
       <c r="D198" s="2">
         <v>1.020658016204834</v>
       </c>
       <c r="E198" s="2">
-        <v>0.98267865180969238</v>
+        <v>0.98410803079605103</v>
       </c>
     </row>
     <row r="199">
@@ -3455,13 +3455,13 @@
         <v>0.95054179430007935</v>
       </c>
       <c r="C199" s="2">
-        <v>0.83511197566986084</v>
+        <v>0.83721506595611572</v>
       </c>
       <c r="D199" s="2">
         <v>0.9815325140953064</v>
       </c>
       <c r="E199" s="2">
-        <v>0.97402060031890869</v>
+        <v>0.9751322865486145</v>
       </c>
     </row>
     <row r="200">
@@ -3472,13 +3472,13 @@
         <v>0.17435459792613983</v>
       </c>
       <c r="C200" s="2">
-        <v>-0.22404225170612335</v>
+        <v>-0.2251032292842865</v>
       </c>
       <c r="D200" s="2">
         <v>0.92877453565597534</v>
       </c>
       <c r="E200" s="2">
-        <v>0.82429498434066773</v>
+        <v>0.82538282871246338</v>
       </c>
     </row>
     <row r="201">
@@ -3489,13 +3489,13 @@
         <v>0.82079362869262695</v>
       </c>
       <c r="C201" s="2">
-        <v>0.63529157638549805</v>
+        <v>0.63838893175125122</v>
       </c>
       <c r="D201" s="2">
         <v>0.91252028942108154</v>
       </c>
       <c r="E201" s="2">
-        <v>0.70368444919586182</v>
+        <v>0.70496606826782227</v>
       </c>
     </row>
     <row r="202">
@@ -3506,13 +3506,13 @@
         <v>1.5200268030166626</v>
       </c>
       <c r="C202" s="2">
-        <v>1.4356305599212646</v>
+        <v>1.4382975101470947</v>
       </c>
       <c r="D202" s="2">
         <v>0.92546617984771729</v>
       </c>
       <c r="E202" s="2">
-        <v>0.7137371301651001</v>
+        <v>0.71462678909301758</v>
       </c>
     </row>
     <row r="203">
@@ -3523,13 +3523,13 @@
         <v>0.73911476135253906</v>
       </c>
       <c r="C203" s="2">
-        <v>0.63883566856384277</v>
+        <v>0.63882774114608765</v>
       </c>
       <c r="D203" s="2">
         <v>0.99118161201477051</v>
       </c>
       <c r="E203" s="2">
-        <v>0.78594303131103516</v>
+        <v>0.78672122955322266</v>
       </c>
     </row>
     <row r="204">
@@ -3540,13 +3540,13 @@
         <v>0.89426332712173462</v>
       </c>
       <c r="C204" s="2">
-        <v>0.67605412006378174</v>
+        <v>0.67574602365493774</v>
       </c>
       <c r="D204" s="2">
         <v>1.0618983507156372</v>
       </c>
       <c r="E204" s="2">
-        <v>0.85478746891021729</v>
+        <v>0.85562437772750855</v>
       </c>
     </row>
     <row r="205">
@@ -3557,13 +3557,13 @@
         <v>0.61038452386856079</v>
       </c>
       <c r="C205" s="2">
-        <v>0.25363463163375855</v>
+        <v>0.25347822904586792</v>
       </c>
       <c r="D205" s="2">
         <v>1.2258979082107544</v>
       </c>
       <c r="E205" s="2">
-        <v>1.0559871196746826</v>
+        <v>1.0568140745162964</v>
       </c>
     </row>
     <row r="206">
@@ -3574,13 +3574,13 @@
         <v>1.7399770021438599</v>
       </c>
       <c r="C206" s="2">
-        <v>1.5262925624847412</v>
+        <v>1.5263994932174683</v>
       </c>
       <c r="D206" s="2">
         <v>1.3178203105926514</v>
       </c>
       <c r="E206" s="2">
-        <v>1.1402527093887329</v>
+        <v>1.1407239437103272</v>
       </c>
     </row>
     <row r="207">
@@ -3591,13 +3591,13 @@
         <v>1.4711782932281494</v>
       </c>
       <c r="C207" s="2">
-        <v>1.2966784238815308</v>
+        <v>1.2972414493560791</v>
       </c>
       <c r="D207" s="2">
         <v>1.3398036956787109</v>
       </c>
       <c r="E207" s="2">
-        <v>1.1721843481063843</v>
+        <v>1.1723992824554443</v>
       </c>
     </row>
     <row r="208">
@@ -3608,13 +3608,13 @@
         <v>1.5869923830032349</v>
       </c>
       <c r="C208" s="2">
-        <v>1.4547117948532105</v>
+        <v>1.4573432207107544</v>
       </c>
       <c r="D208" s="2">
         <v>1.4396834373474121</v>
       </c>
       <c r="E208" s="2">
-        <v>1.259986162185669</v>
+        <v>1.2602921724319458</v>
       </c>
     </row>
     <row r="209">
@@ -3625,13 +3625,13 @@
         <v>1.65035080909729</v>
       </c>
       <c r="C209" s="2">
-        <v>1.5867547988891602</v>
+        <v>1.5856044292449951</v>
       </c>
       <c r="D209" s="2">
         <v>1.5172851085662842</v>
       </c>
       <c r="E209" s="2">
-        <v>1.3658071756362915</v>
+        <v>1.3662395477294922</v>
       </c>
     </row>
     <row r="210">
@@ -3642,13 +3642,13 @@
         <v>1.6480953693389893</v>
       </c>
       <c r="C210" s="2">
-        <v>1.3936817646026611</v>
+        <v>1.3935778141021729</v>
       </c>
       <c r="D210" s="2">
         <v>1.6708520650863648</v>
       </c>
       <c r="E210" s="2">
-        <v>1.555406928062439</v>
+        <v>1.5556528568267822</v>
       </c>
     </row>
     <row r="211">
@@ -3659,13 +3659,13 @@
         <v>1.717876672744751</v>
       </c>
       <c r="C211" s="2">
-        <v>1.7230155467987061</v>
+        <v>1.7233748435974121</v>
       </c>
       <c r="D211" s="2">
         <v>1.6549568176269531</v>
       </c>
       <c r="E211" s="2">
-        <v>1.5526798963546753</v>
+        <v>1.5533919334411621</v>
       </c>
     </row>
     <row r="212">
@@ -3676,13 +3676,13 @@
         <v>1.6380329132080078</v>
       </c>
       <c r="C212" s="2">
-        <v>1.4290515184402466</v>
+        <v>1.4298639297485352</v>
       </c>
       <c r="D212" s="2">
         <v>1.5762641429901123</v>
       </c>
       <c r="E212" s="2">
-        <v>1.4753439426422119</v>
+        <v>1.4758878946304321</v>
       </c>
     </row>
     <row r="213">
@@ -3693,13 +3693,13 @@
         <v>1.592678427696228</v>
       </c>
       <c r="C213" s="2">
-        <v>1.6284432411193848</v>
+        <v>1.6292719841003418</v>
       </c>
       <c r="D213" s="2">
         <v>1.5485706329345703</v>
       </c>
       <c r="E213" s="2">
-        <v>1.4484841823577881</v>
+        <v>1.448717474937439</v>
       </c>
     </row>
     <row r="214">
@@ -3710,13 +3710,13 @@
         <v>1.9924862384796143</v>
       </c>
       <c r="C214" s="2">
-        <v>1.9600330591201782</v>
+        <v>1.9581981897354126</v>
       </c>
       <c r="D214" s="2">
         <v>1.5151834487915039</v>
       </c>
       <c r="E214" s="2">
-        <v>1.4084278345108032</v>
+        <v>1.4091035127639771</v>
       </c>
     </row>
     <row r="215">
@@ -3727,13 +3727,13 @@
         <v>1.5969207286834717</v>
       </c>
       <c r="C215" s="2">
-        <v>1.50174880027771</v>
+        <v>1.5060515403747559</v>
       </c>
       <c r="D215" s="2">
         <v>1.4100573062896729</v>
       </c>
       <c r="E215" s="2">
-        <v>1.3206131458282471</v>
+        <v>1.3209275007247925</v>
       </c>
     </row>
     <row r="216">
@@ -3744,13 +3744,13 @@
         <v>0.7629433274269104</v>
       </c>
       <c r="C216" s="2">
-        <v>0.60065537691116333</v>
+        <v>0.59970521926879883</v>
       </c>
       <c r="D216" s="2">
         <v>1.4014599323272705</v>
       </c>
       <c r="E216" s="2">
-        <v>1.2872872352600098</v>
+        <v>1.2876490354537964</v>
       </c>
     </row>
     <row r="217">
@@ -3761,13 +3761,13 @@
         <v>1.3377507925033569</v>
       </c>
       <c r="C217" s="2">
-        <v>1.2129740715026856</v>
+        <v>1.2128095626831055</v>
       </c>
       <c r="D217" s="2">
         <v>1.4594326019287109</v>
       </c>
       <c r="E217" s="2">
-        <v>1.3452926874160767</v>
+        <v>1.3454984426498413</v>
       </c>
     </row>
     <row r="218">
@@ -3778,13 +3778,13 @@
         <v>1.3498668670654297</v>
       </c>
       <c r="C218" s="2">
-        <v>1.2262475490570068</v>
+        <v>1.2290785312652588</v>
       </c>
       <c r="D218" s="2">
         <v>1.3760491609573364</v>
       </c>
       <c r="E218" s="2">
-        <v>1.2522244453430176</v>
+        <v>1.2523587942123413</v>
       </c>
     </row>
     <row r="219">
@@ -3795,13 +3795,13 @@
         <v>0.70195966958999634</v>
       </c>
       <c r="C219" s="2">
-        <v>0.60334861278533936</v>
+        <v>0.59999364614486694</v>
       </c>
       <c r="D219" s="2">
         <v>1.2467386722564697</v>
       </c>
       <c r="E219" s="2">
-        <v>1.164725661277771</v>
+        <v>1.1650071144104004</v>
       </c>
     </row>
     <row r="220">
@@ -3812,13 +3812,13 @@
         <v>1.6405009031295776</v>
       </c>
       <c r="C220" s="2">
-        <v>1.4230823516845703</v>
+        <v>1.4238682985305786</v>
       </c>
       <c r="D220" s="2">
         <v>1.2592763900756836</v>
       </c>
       <c r="E220" s="2">
-        <v>1.174140453338623</v>
+        <v>1.1740466356277466</v>
       </c>
     </row>
     <row r="221">
@@ -3829,13 +3829,13 @@
         <v>2.1597869396209717</v>
       </c>
       <c r="C221" s="2">
-        <v>1.951101541519165</v>
+        <v>1.9505088329315186</v>
       </c>
       <c r="D221" s="2">
         <v>1.2806359529495239</v>
       </c>
       <c r="E221" s="2">
-        <v>1.2044222354888916</v>
+        <v>1.204485297203064</v>
       </c>
     </row>
     <row r="222">
@@ -3846,13 +3846,13 @@
         <v>0.84222668409347534</v>
       </c>
       <c r="C222" s="2">
-        <v>0.7908281683921814</v>
+        <v>0.7910153865814209</v>
       </c>
       <c r="D222" s="2">
         <v>1.3025666475296021</v>
       </c>
       <c r="E222" s="2">
-        <v>1.2207263708114624</v>
+        <v>1.220766544342041</v>
       </c>
     </row>
     <row r="223">
@@ -3863,13 +3863,13 @@
         <v>0.82869219779968262</v>
       </c>
       <c r="C223" s="2">
-        <v>1.1725443601608276</v>
+        <v>1.1720329523086548</v>
       </c>
       <c r="D223" s="2">
         <v>1.3114937543869019</v>
       </c>
       <c r="E223" s="2">
-        <v>1.2349770069122315</v>
+        <v>1.2349119186401367</v>
       </c>
     </row>
     <row r="224">
@@ -3880,13 +3880,13 @@
         <v>1.709760308265686</v>
       </c>
       <c r="C224" s="2">
-        <v>1.5864824056625366</v>
+        <v>1.5874072313308716</v>
       </c>
       <c r="D224" s="2">
         <v>1.2868443727493286</v>
       </c>
       <c r="E224" s="2">
-        <v>1.21202552318573</v>
+        <v>1.212738037109375</v>
       </c>
     </row>
     <row r="225">
@@ -3897,13 +3897,13 @@
         <v>0.95517957210540772</v>
       </c>
       <c r="C225" s="2">
-        <v>0.87319129705429077</v>
+        <v>0.87365323305130005</v>
       </c>
       <c r="D225" s="2">
         <v>1.3425217866897583</v>
       </c>
       <c r="E225" s="2">
-        <v>1.2792655229568482</v>
+        <v>1.2802342176437378</v>
       </c>
     </row>
     <row r="226">
@@ -3914,13 +3914,13 @@
         <v>1.5351262092590332</v>
       </c>
       <c r="C226" s="2">
-        <v>1.3597105741500854</v>
+        <v>1.3593407869338989</v>
       </c>
       <c r="D226" s="2">
         <v>1.2683688402175903</v>
       </c>
       <c r="E226" s="2">
-        <v>1.2051271200180054</v>
+        <v>1.2064179182052612</v>
       </c>
     </row>
     <row r="227">
@@ -3931,13 +3931,13 @@
         <v>1.4302109479904175</v>
       </c>
       <c r="C227" s="2">
-        <v>1.3545039892196655</v>
+        <v>1.3563871383666992</v>
       </c>
       <c r="D227" s="2">
         <v>1.4131536483764648</v>
       </c>
       <c r="E227" s="2">
-        <v>1.3534929752349854</v>
+        <v>1.3546262979507446</v>
       </c>
     </row>
     <row r="228">
@@ -3948,13 +3948,13 @@
         <v>0.48011556267738342</v>
       </c>
       <c r="C228" s="2">
-        <v>0.39678502082824707</v>
+        <v>0.40042895078659058</v>
       </c>
       <c r="D228" s="2">
         <v>1.4169635772705078</v>
       </c>
       <c r="E228" s="2">
-        <v>1.2879879474639893</v>
+        <v>1.2895870208740234</v>
       </c>
     </row>
     <row r="229">
@@ -3965,13 +3965,13 @@
         <v>2.1415979862213135</v>
       </c>
       <c r="C229" s="2">
-        <v>2.028242826461792</v>
+        <v>2.0313339233398438</v>
       </c>
       <c r="D229" s="2">
         <v>1.3714867830276489</v>
       </c>
       <c r="E229" s="2">
-        <v>1.2092212438583374</v>
+        <v>1.2106747627258301</v>
       </c>
     </row>
     <row r="230">
@@ -3982,13 +3982,13 @@
         <v>1.4924100637435913</v>
       </c>
       <c r="C230" s="2">
-        <v>1.2838553190231323</v>
+        <v>1.2861615419387817</v>
       </c>
       <c r="D230" s="2">
         <v>1.3999699354171753</v>
       </c>
       <c r="E230" s="2">
-        <v>1.2472707033157349</v>
+        <v>1.2490929365158081</v>
       </c>
     </row>
     <row r="231">
@@ -3999,13 +3999,13 @@
         <v>2.1452901363372803</v>
       </c>
       <c r="C231" s="2">
-        <v>2.1261205673217773</v>
+        <v>2.1248912811279297</v>
       </c>
       <c r="D231" s="2">
         <v>1.3249143362045288</v>
       </c>
       <c r="E231" s="2">
-        <v>1.1677775382995605</v>
+        <v>1.1694775819778442</v>
       </c>
     </row>
     <row r="232">
@@ -4016,13 +4016,13 @@
         <v>0.86298137903213501</v>
       </c>
       <c r="C232" s="2">
-        <v>0.5829998254776001</v>
+        <v>0.58667892217636108</v>
       </c>
       <c r="D232" s="2">
         <v>1.2097835540771484</v>
       </c>
       <c r="E232" s="2">
-        <v>1.0216872692108154</v>
+        <v>1.0232001543045044</v>
       </c>
     </row>
     <row r="233">
@@ -4033,13 +4033,13 @@
         <v>1.3004688024520874</v>
       </c>
       <c r="C233" s="2">
-        <v>0.87758153676986694</v>
+        <v>0.87719690799713135</v>
       </c>
       <c r="D233" s="2">
         <v>1.3219703435897827</v>
       </c>
       <c r="E233" s="2">
-        <v>1.053568959236145</v>
+        <v>1.0546716451644898</v>
       </c>
     </row>
     <row r="234">
@@ -4050,13 +4050,13 @@
         <v>1.2115287780761719</v>
       </c>
       <c r="C234" s="2">
-        <v>1.2156363725662232</v>
+        <v>1.2194164991378784</v>
       </c>
       <c r="D234" s="2">
         <v>1.226536750793457</v>
       </c>
       <c r="E234" s="2">
-        <v>1.0038883686065674</v>
+        <v>1.0049145221710205</v>
       </c>
     </row>
     <row r="235">
@@ -4067,13 +4067,13 @@
         <v>0.85962575674057007</v>
       </c>
       <c r="C235" s="2">
-        <v>0.64427274465560913</v>
+        <v>0.64280331134796143</v>
       </c>
       <c r="D235" s="2">
         <v>1.2475858926773071</v>
       </c>
       <c r="E235" s="2">
-        <v>1.0394785404205322</v>
+        <v>1.0401431322097778</v>
       </c>
     </row>
     <row r="236">
@@ -4084,13 +4084,13 @@
         <v>0.39403358101844788</v>
       </c>
       <c r="C236" s="2">
-        <v>0.039691369980573654</v>
+        <v>0.039890576153993607</v>
       </c>
       <c r="D236" s="2">
         <v>1.1907250881195068</v>
       </c>
       <c r="E236" s="2">
-        <v>0.95770502090454102</v>
+        <v>0.95841634273529053</v>
       </c>
     </row>
     <row r="237">
@@ -4101,13 +4101,13 @@
         <v>1.4897962808609009</v>
       </c>
       <c r="C237" s="2">
-        <v>0.68371981382369995</v>
+        <v>0.68367165327072144</v>
       </c>
       <c r="D237" s="2">
         <v>1.2677416801452637</v>
       </c>
       <c r="E237" s="2">
-        <v>1.0477883815765381</v>
+        <v>1.0482256412506104</v>
       </c>
     </row>
     <row r="238">
@@ -4118,13 +4118,13 @@
         <v>1.2826958894729614</v>
       </c>
       <c r="C238" s="2">
-        <v>1.5811173915863037</v>
+        <v>1.5835202932357788</v>
       </c>
       <c r="D238" s="2">
         <v>1.1957470178604126</v>
       </c>
       <c r="E238" s="2">
-        <v>0.9993283748626709</v>
+        <v>0.99992573261260986</v>
       </c>
     </row>
     <row r="239">
@@ -4135,13 +4135,13 @@
         <v>1.6818523406982422</v>
       </c>
       <c r="C239" s="2">
-        <v>1.6041668653488159</v>
+        <v>1.603218674659729</v>
       </c>
       <c r="D239" s="2">
         <v>1.1350691318511963</v>
       </c>
       <c r="E239" s="2">
-        <v>0.92039602994918823</v>
+        <v>0.92034786939620972</v>
       </c>
     </row>
     <row r="240">
@@ -4152,13 +4152,13 @@
         <v>1.6335426568984985</v>
       </c>
       <c r="C240" s="2">
-        <v>1.3901594877243042</v>
+        <v>1.3893500566482544</v>
       </c>
       <c r="D240" s="2">
         <v>1.1523436307907104</v>
       </c>
       <c r="E240" s="2">
-        <v>0.93590611219406128</v>
+        <v>0.93603181838989258</v>
       </c>
     </row>
     <row r="241">
@@ -4169,13 +4169,13 @@
         <v>1.5561305284500122</v>
       </c>
       <c r="C241" s="2">
-        <v>1.3937503099441528</v>
+        <v>1.3949629068374634</v>
       </c>
       <c r="D241" s="2">
         <v>1.2008846998214722</v>
       </c>
       <c r="E241" s="2">
-        <v>0.99955016374588013</v>
+        <v>0.99981462955474854</v>
       </c>
     </row>
     <row r="242">
@@ -4186,13 +4186,13 @@
         <v>0.65251767635345459</v>
       </c>
       <c r="C242" s="2">
-        <v>0.44144085049629211</v>
+        <v>0.4424976110458374</v>
       </c>
       <c r="D242" s="2">
         <v>1.0594527721405029</v>
       </c>
       <c r="E242" s="2">
-        <v>0.91251802444458008</v>
+        <v>0.91317510604858398</v>
       </c>
     </row>
     <row r="243">
@@ -4203,13 +4203,13 @@
         <v>0.66542726755142212</v>
       </c>
       <c r="C243" s="2">
-        <v>0.50524526834487915</v>
+        <v>0.50321584939956665</v>
       </c>
       <c r="D243" s="2">
         <v>0.9532167911529541</v>
       </c>
       <c r="E243" s="2">
-        <v>0.73551082611083984</v>
+        <v>0.73604708909988403</v>
       </c>
     </row>
     <row r="244">
@@ -4220,13 +4220,13 @@
         <v>1.0150959491729736</v>
       </c>
       <c r="C244" s="2">
-        <v>0.78386348485946655</v>
+        <v>0.78395885229110718</v>
       </c>
       <c r="D244" s="2">
         <v>0.92334574460983276</v>
       </c>
       <c r="E244" s="2">
-        <v>0.69167965650558472</v>
+        <v>0.69219547510147095</v>
       </c>
     </row>
     <row r="245">
@@ -4237,13 +4237,13 @@
         <v>0.83090418577194214</v>
       </c>
       <c r="C245" s="2">
-        <v>0.61248791217803955</v>
+        <v>0.61393564939498901</v>
       </c>
       <c r="D245" s="2">
         <v>0.82680964469909668</v>
       </c>
       <c r="E245" s="2">
-        <v>0.60152208805084229</v>
+        <v>0.60196995735168457</v>
       </c>
     </row>
     <row r="246">
@@ -4254,13 +4254,13 @@
         <v>0.21690866351127625</v>
       </c>
       <c r="C246" s="2">
-        <v>-0.099569462239742279</v>
+        <v>-0.096083939075469971</v>
       </c>
       <c r="D246" s="2">
         <v>0.69214910268783569</v>
       </c>
       <c r="E246" s="2">
-        <v>0.47594928741455078</v>
+        <v>0.47648289799690247</v>
       </c>
     </row>
     <row r="247">
@@ -4271,13 +4271,13 @@
         <v>0.32657158374786377</v>
       </c>
       <c r="C247" s="2">
-        <v>-0.011947222054004669</v>
+        <v>-0.010631805285811424</v>
       </c>
       <c r="D247" s="2">
         <v>0.65337765216827393</v>
       </c>
       <c r="E247" s="2">
-        <v>0.50679367780685425</v>
+        <v>0.50733816623687744</v>
       </c>
     </row>
     <row r="248">
@@ -4288,13 +4288,13 @@
         <v>1.4130131006240845</v>
       </c>
       <c r="C248" s="2">
-        <v>1.209686279296875</v>
+        <v>1.2085539102554321</v>
       </c>
       <c r="D248" s="2">
         <v>0.57381993532180786</v>
       </c>
       <c r="E248" s="2">
-        <v>0.43304643034934998</v>
+        <v>0.43371623754501343</v>
       </c>
     </row>
     <row r="249">
@@ -4305,13 +4305,13 @@
         <v>0.764717698097229</v>
       </c>
       <c r="C249" s="2">
-        <v>0.57874143123626709</v>
+        <v>0.57732033729553223</v>
       </c>
       <c r="D249" s="2">
         <v>0.60466235876083374</v>
       </c>
       <c r="E249" s="2">
-        <v>0.46053892374038696</v>
+        <v>0.46160900592803955</v>
       </c>
     </row>
     <row r="250">
@@ -4322,13 +4322,13 @@
         <v>0.34418559074401856</v>
       </c>
       <c r="C250" s="2">
-        <v>0.26359504461288452</v>
+        <v>0.26557973027229309</v>
       </c>
       <c r="D250" s="2">
         <v>0.58481937646865845</v>
       </c>
       <c r="E250" s="2">
-        <v>0.46876430511474609</v>
+        <v>0.46961221098899841</v>
       </c>
     </row>
     <row r="251">
@@ -4339,13 +4339,13 @@
         <v>0.30357509851455688</v>
       </c>
       <c r="C251" s="2">
-        <v>0.71904027462005615</v>
+        <v>0.72019475698471069</v>
       </c>
       <c r="D251" s="2">
         <v>0.60623729228973389</v>
       </c>
       <c r="E251" s="2">
-        <v>0.46839430928230286</v>
+        <v>0.46919089555740357</v>
       </c>
     </row>
     <row r="252">
@@ -4356,13 +4356,13 @@
         <v>-0.05059230700135231</v>
       </c>
       <c r="C252" s="2">
-        <v>-0.1584799736738205</v>
+        <v>-0.15938128530979156</v>
       </c>
       <c r="D252" s="2">
         <v>0.53157806396484375</v>
       </c>
       <c r="E252" s="2">
-        <v>0.38715684413909912</v>
+        <v>0.38760948181152344</v>
       </c>
     </row>
     <row r="253">
@@ -4373,13 +4373,13 @@
         <v>1.2926775217056275</v>
       </c>
       <c r="C253" s="2">
-        <v>1.0312961339950562</v>
+        <v>1.0349936485290527</v>
       </c>
       <c r="D253" s="2">
         <v>0.52091187238693237</v>
       </c>
       <c r="E253" s="2">
-        <v>0.38407474756240845</v>
+        <v>0.3849741518497467</v>
       </c>
     </row>
     <row r="254">
@@ -4390,13 +4390,13 @@
         <v>0.65231764316558838</v>
       </c>
       <c r="C254" s="2">
-        <v>0.68651634454727173</v>
+        <v>0.68596452474594116</v>
       </c>
       <c r="D254" s="2">
         <v>0.6122734546661377</v>
       </c>
       <c r="E254" s="2">
-        <v>0.46619832515716553</v>
+        <v>0.46719813346862793</v>
       </c>
     </row>
     <row r="255">
@@ -4407,13 +4407,13 @@
         <v>0.4096699059009552</v>
       </c>
       <c r="C255" s="2">
-        <v>-0.10289965569972992</v>
+        <v>-0.099875651299953461</v>
       </c>
       <c r="D255" s="2">
         <v>0.65969175100326538</v>
       </c>
       <c r="E255" s="2">
-        <v>0.51304072141647339</v>
+        <v>0.51362365484237671</v>
       </c>
     </row>
     <row r="256">
@@ -4424,13 +4424,13 @@
         <v>-0.34536159038543701</v>
       </c>
       <c r="C256" s="2">
-        <v>-0.74308419227600098</v>
+        <v>-0.74486464262008667</v>
       </c>
       <c r="D256" s="2">
         <v>0.67694485187530518</v>
       </c>
       <c r="E256" s="2">
-        <v>0.46528297662734985</v>
+        <v>0.46571865677833557</v>
       </c>
     </row>
     <row r="257">
@@ -4441,13 +4441,13 @@
         <v>1.3170170783996582</v>
       </c>
       <c r="C257" s="2">
-        <v>1.1819473505020142</v>
+        <v>1.1848359107971192</v>
       </c>
       <c r="D257" s="2">
         <v>0.81472593545913696</v>
       </c>
       <c r="E257" s="2">
-        <v>0.60752451419830322</v>
+        <v>0.60782629251480103</v>
       </c>
     </row>
     <row r="258">
@@ -4458,13 +4458,13 @@
         <v>1.5869721174240112</v>
       </c>
       <c r="C258" s="2">
-        <v>1.317853569984436</v>
+        <v>1.3173362016677856</v>
       </c>
       <c r="D258" s="2">
         <v>0.78165441751480103</v>
       </c>
       <c r="E258" s="2">
-        <v>0.59179574251174927</v>
+        <v>0.59187865257263184</v>
       </c>
     </row>
     <row r="259">
@@ -4475,13 +4475,13 @@
         <v>0.7709500789642334</v>
       </c>
       <c r="C259" s="2">
-        <v>0.68517684936523438</v>
+        <v>0.68340921401977539</v>
       </c>
       <c r="D259" s="2">
         <v>0.8881373405456543</v>
       </c>
       <c r="E259" s="2">
-        <v>0.62646687030792236</v>
+        <v>0.62675309181213379</v>
       </c>
     </row>
     <row r="260">
@@ -4492,13 +4492,13 @@
         <v>0.45885300636291504</v>
       </c>
       <c r="C260" s="2">
-        <v>0.28922024369239807</v>
+        <v>0.28904998302459717</v>
       </c>
       <c r="D260" s="2">
         <v>0.83569478988647461</v>
       </c>
       <c r="E260" s="2">
-        <v>0.61731427907943726</v>
+        <v>0.61717504262924194</v>
       </c>
     </row>
     <row r="261">
@@ -4509,13 +4509,13 @@
         <v>1.1894376277923584</v>
       </c>
       <c r="C261" s="2">
-        <v>1.1216942071914673</v>
+        <v>1.1195871829986572</v>
       </c>
       <c r="D261" s="2">
         <v>0.96169596910476685</v>
       </c>
       <c r="E261" s="2">
-        <v>0.7675786018371582</v>
+        <v>0.76727902889251709</v>
       </c>
     </row>
     <row r="262">
@@ -4526,13 +4526,13 @@
         <v>0.99503380060195923</v>
       </c>
       <c r="C262" s="2">
-        <v>0.88973689079284668</v>
+        <v>0.89146512746810913</v>
       </c>
       <c r="D262" s="2">
         <v>0.8937380313873291</v>
       </c>
       <c r="E262" s="2">
-        <v>0.72809910774230957</v>
+        <v>0.72779476642608643</v>
       </c>
     </row>
     <row r="263">
@@ -4543,13 +4543,13 @@
         <v>1.610663890838623</v>
       </c>
       <c r="C263" s="2">
-        <v>0.99855661392211914</v>
+        <v>0.99983447790145874</v>
       </c>
       <c r="D263" s="2">
         <v>0.73482543230056763</v>
       </c>
       <c r="E263" s="2">
-        <v>0.5561637282371521</v>
+        <v>0.55584532022476196</v>
       </c>
     </row>
     <row r="264">
@@ -4560,13 +4560,13 @@
         <v>-0.062313128262758255</v>
       </c>
       <c r="C264" s="2">
-        <v>-0.1852731853723526</v>
+        <v>-0.18607789278030396</v>
       </c>
       <c r="D264" s="2">
         <v>0.79958230257034302</v>
       </c>
       <c r="E264" s="2">
-        <v>0.62857115268707275</v>
+        <v>0.6285814642906189</v>
       </c>
     </row>
     <row r="265">
@@ -4577,13 +4577,13 @@
         <v>0.78864908218383789</v>
       </c>
       <c r="C265" s="2">
-        <v>0.60929471254348755</v>
+        <v>0.60607105493545532</v>
       </c>
       <c r="D265" s="2">
         <v>0.84459418058395386</v>
       </c>
       <c r="E265" s="2">
-        <v>0.641681969165802</v>
+        <v>0.64133685827255249</v>
       </c>
     </row>
     <row r="266">
@@ -4594,13 +4594,13 @@
         <v>0.70539605617523193</v>
       </c>
       <c r="C266" s="2">
-        <v>0.82663220167160034</v>
+        <v>0.82947748899459839</v>
       </c>
       <c r="D266" s="2">
         <v>0.79766225814819336</v>
       </c>
       <c r="E266" s="2">
-        <v>0.56361019611358643</v>
+        <v>0.56367594003677368</v>
       </c>
     </row>
     <row r="267">
@@ -4611,13 +4611,13 @@
         <v>0.15675865113735199</v>
       </c>
       <c r="C267" s="2">
-        <v>-0.2295650839805603</v>
+        <v>-0.23020878434181213</v>
       </c>
       <c r="D267" s="2">
         <v>0.81984817981719971</v>
       </c>
       <c r="E267" s="2">
-        <v>0.59195774793624878</v>
+        <v>0.5914272665977478</v>
       </c>
     </row>
     <row r="268">
@@ -4628,13 +4628,13 @@
         <v>1.3537617921829224</v>
       </c>
       <c r="C268" s="2">
-        <v>1.3368439674377442</v>
+        <v>1.3380343914031982</v>
       </c>
       <c r="D268" s="2">
         <v>0.65242928266525269</v>
       </c>
       <c r="E268" s="2">
-        <v>0.46606793999671936</v>
+        <v>0.46564698219299316</v>
       </c>
     </row>
     <row r="269">
@@ -4645,13 +4645,13 @@
         <v>0.8639596700668335</v>
       </c>
       <c r="C269" s="2">
-        <v>0.40721762180328369</v>
+        <v>0.40384867787361145</v>
       </c>
       <c r="D269" s="2">
         <v>0.79600381851196289</v>
       </c>
       <c r="E269" s="2">
-        <v>0.55737191438674927</v>
+        <v>0.55682897567749024</v>
       </c>
     </row>
     <row r="270">
@@ -4662,13 +4662,13 @@
         <v>0.76705074310302734</v>
       </c>
       <c r="C270" s="2">
-        <v>0.4190477728843689</v>
+        <v>0.42063897848129273</v>
       </c>
       <c r="D270" s="2">
         <v>0.85385382175445557</v>
       </c>
       <c r="E270" s="2">
-        <v>0.61998558044433594</v>
+        <v>0.61997127532958984</v>
       </c>
     </row>
     <row r="271">
@@ -4679,13 +4679,13 @@
         <v>1.1947067975997925</v>
       </c>
       <c r="C271" s="2">
-        <v>1.1448650360107422</v>
+        <v>1.1412272453308106</v>
       </c>
       <c r="D271" s="2">
         <v>0.93783879280090332</v>
       </c>
       <c r="E271" s="2">
-        <v>0.69931715726852417</v>
+        <v>0.6989971399307251</v>
       </c>
     </row>
     <row r="272">
@@ -4696,13 +4696,13 @@
         <v>0.10389363765716553</v>
       </c>
       <c r="C272" s="2">
-        <v>-0.13445162773132324</v>
+        <v>-0.13218821585178375</v>
       </c>
       <c r="D272" s="2">
         <v>1.095093846321106</v>
       </c>
       <c r="E272" s="2">
-        <v>0.87648659944534302</v>
+        <v>0.87637346982955933</v>
       </c>
     </row>
     <row r="273">
@@ -4713,13 +4713,13 @@
         <v>1.2298578023910523</v>
       </c>
       <c r="C273" s="2">
-        <v>0.6364627480506897</v>
+        <v>0.63455992937088013</v>
       </c>
       <c r="D273" s="2">
         <v>1.0210686922073364</v>
       </c>
       <c r="E273" s="2">
-        <v>0.76692801713943481</v>
+        <v>0.76667863130569458</v>
       </c>
     </row>
     <row r="274">
@@ -4730,13 +4730,13 @@
         <v>1.3092989921569824</v>
       </c>
       <c r="C274" s="2">
-        <v>1.1728178262710571</v>
+        <v>1.174351692199707</v>
       </c>
       <c r="D274" s="2">
         <v>1.0837783813476563</v>
       </c>
       <c r="E274" s="2">
-        <v>0.87889623641967773</v>
+        <v>0.87938708066940308</v>
       </c>
     </row>
     <row r="275">
@@ -4747,13 +4747,13 @@
         <v>1.4612609148025513</v>
       </c>
       <c r="C275" s="2">
-        <v>1.5406160354614258</v>
+        <v>1.54071044921875</v>
       </c>
       <c r="D275" s="2">
         <v>1.153179407119751</v>
       </c>
       <c r="E275" s="2">
-        <v>0.99599289894104004</v>
+        <v>0.99621313810348511</v>
       </c>
     </row>
     <row r="276">
@@ -4764,13 +4764,13 @@
         <v>1.5720547437667847</v>
       </c>
       <c r="C276" s="2">
-        <v>1.3649601936340332</v>
+        <v>1.3661781549453735</v>
       </c>
       <c r="D276" s="2">
         <v>1.0944944620132446</v>
       </c>
       <c r="E276" s="2">
-        <v>0.9346088171005249</v>
+        <v>0.93534362316131592</v>
       </c>
     </row>
     <row r="277">
@@ -4781,13 +4781,13 @@
         <v>0.68753510713577271</v>
       </c>
       <c r="C277" s="2">
-        <v>0.3508167564868927</v>
+        <v>0.3507806658744812</v>
       </c>
       <c r="D277" s="2">
         <v>1.1808677911758423</v>
       </c>
       <c r="E277" s="2">
-        <v>1.0460402965545654</v>
+        <v>1.0466265678405762</v>
       </c>
     </row>
     <row r="278">
@@ -4798,13 +4798,13 @@
         <v>1.4283463954925537</v>
       </c>
       <c r="C278" s="2">
-        <v>1.4149316549301147</v>
+        <v>1.418224573135376</v>
       </c>
       <c r="D278" s="2">
         <v>1.1904867887496948</v>
       </c>
       <c r="E278" s="2">
-        <v>1.1161168813705444</v>
+        <v>1.1170516014099121</v>
       </c>
     </row>
     <row r="279">
@@ -4815,13 +4815,13 @@
         <v>1.3916599750518799</v>
       </c>
       <c r="C279" s="2">
-        <v>1.4729171991348267</v>
+        <v>1.4720735549926758</v>
       </c>
       <c r="D279" s="2">
         <v>1.1723114252090454</v>
       </c>
       <c r="E279" s="2">
-        <v>1.1022213697433472</v>
+        <v>1.1029081344604492</v>
       </c>
     </row>
     <row r="280">
@@ -4832,13 +4832,13 @@
         <v>0.66654276847839356</v>
       </c>
       <c r="C280" s="2">
-        <v>0.59240883588790894</v>
+        <v>0.59340190887451172</v>
       </c>
       <c r="D280" s="2">
         <v>1.0741112232208252</v>
       </c>
       <c r="E280" s="2">
-        <v>0.99966889619827271</v>
+        <v>1.0004956722259522</v>
       </c>
     </row>
     <row r="281">
@@ -4849,13 +4849,13 @@
         <v>0.88125371932983398</v>
       </c>
       <c r="C281" s="2">
-        <v>0.8684309720993042</v>
+        <v>0.86935818195343018</v>
       </c>
       <c r="D281" s="2">
         <v>0.90581309795379639</v>
       </c>
       <c r="E281" s="2">
-        <v>0.84489166736602783</v>
+        <v>0.84576147794723511</v>
       </c>
     </row>
     <row r="282">
@@ -4866,13 +4866,13 @@
         <v>1.3164287805557251</v>
       </c>
       <c r="C282" s="2">
-        <v>1.2671527862548828</v>
+        <v>1.2683851718902588</v>
       </c>
       <c r="D282" s="2">
         <v>0.85196346044540405</v>
       </c>
       <c r="E282" s="2">
-        <v>0.797740638256073</v>
+        <v>0.79886680841445923</v>
       </c>
     </row>
     <row r="283">
@@ -4883,13 +4883,13 @@
         <v>1.1457201242446899</v>
       </c>
       <c r="C283" s="2">
-        <v>1.0477583408355713</v>
+        <v>1.0470610857009888</v>
       </c>
       <c r="D283" s="2">
         <v>0.66075843572616577</v>
       </c>
       <c r="E283" s="2">
-        <v>0.62339311838150025</v>
+        <v>0.62421756982803345</v>
       </c>
     </row>
     <row r="284">
@@ -4900,13 +4900,13 @@
         <v>0.57745933532714844</v>
       </c>
       <c r="C284" s="2">
-        <v>0.61764347553253174</v>
+        <v>0.61899799108505249</v>
       </c>
       <c r="D284" s="2">
         <v>0.48775473237037659</v>
       </c>
       <c r="E284" s="2">
-        <v>0.43120786547660828</v>
+        <v>0.43221172690391541</v>
       </c>
     </row>
     <row r="285">
@@ -4917,13 +4917,13 @@
         <v>0.057371422648429871</v>
       </c>
       <c r="C285" s="2">
-        <v>-0.028034934774041176</v>
+        <v>-0.02642960287630558</v>
       </c>
       <c r="D285" s="2">
         <v>0.38621607422828674</v>
       </c>
       <c r="E285" s="2">
-        <v>0.323233962059021</v>
+        <v>0.32406911253929138</v>
       </c>
     </row>
     <row r="286">
@@ -4934,13 +4934,13 @@
         <v>0.20288874208927155</v>
       </c>
       <c r="C286" s="2">
-        <v>-0.073542438447475433</v>
+        <v>-0.071271322667598724</v>
       </c>
       <c r="D286" s="2">
         <v>0.33505240082740784</v>
       </c>
       <c r="E286" s="2">
-        <v>0.25954434275627136</v>
+        <v>0.2600623369216919</v>
       </c>
     </row>
     <row r="287">
@@ -4951,13 +4951,13 @@
         <v>-0.29249900579452515</v>
       </c>
       <c r="C287" s="2">
-        <v>-0.15419593453407288</v>
+        <v>-0.15361905097961426</v>
       </c>
       <c r="D287" s="2">
         <v>0.17591078579425812</v>
       </c>
       <c r="E287" s="2">
-        <v>0.095535703003406525</v>
+        <v>0.095976166427135468</v>
       </c>
     </row>
     <row r="288">
@@ -4968,13 +4968,13 @@
         <v>-0.16537320613861084</v>
       </c>
       <c r="C288" s="2">
-        <v>-0.2567501962184906</v>
+        <v>-0.25597885251045227</v>
       </c>
       <c r="D288" s="2">
         <v>0.15010015666484833</v>
       </c>
       <c r="E288" s="2">
-        <v>0.12007852643728256</v>
+        <v>0.12045231461524963</v>
       </c>
     </row>
     <row r="289">
@@ -4985,13 +4985,13 @@
         <v>-0.24730530381202698</v>
       </c>
       <c r="C289" s="2">
-        <v>-0.37935647368431091</v>
+        <v>-0.37988147139549255</v>
       </c>
       <c r="D289" s="2">
         <v>0.027002451941370964</v>
       </c>
       <c r="E289" s="2">
-        <v>0.1717907041311264</v>
+        <v>0.17198328673839569</v>
       </c>
     </row>
     <row r="290">
@@ -5002,13 +5002,13 @@
         <v>0.42078080773353577</v>
       </c>
       <c r="C290" s="2">
-        <v>0.29522436857223511</v>
+        <v>0.29329696297645569</v>
       </c>
       <c r="D290" s="2">
         <v>0.18852995336055756</v>
       </c>
       <c r="E290" s="2">
-        <v>0.32371896505355835</v>
+        <v>0.32325065135955811</v>
       </c>
     </row>
     <row r="291">
@@ -5019,13 +5019,13 @@
         <v>-0.11584587395191193</v>
       </c>
       <c r="C291" s="2">
-        <v>-0.20892488956451416</v>
+        <v>-0.20839022099971771</v>
       </c>
       <c r="D291" s="2">
         <v>0.20439910888671875</v>
       </c>
       <c r="E291" s="2">
-        <v>0.37212261557579041</v>
+        <v>0.37163662910461426</v>
       </c>
     </row>
     <row r="292">
@@ -5036,13 +5036,13 @@
         <v>0.91342443227767944</v>
       </c>
       <c r="C292" s="2">
-        <v>1.2686437368392944</v>
+        <v>1.2673463821411133</v>
       </c>
       <c r="D292" s="2">
         <v>0.26482987403869629</v>
       </c>
       <c r="E292" s="2">
-        <v>0.39545610547065735</v>
+        <v>0.39513444900512695</v>
       </c>
     </row>
     <row r="293">
@@ -5053,13 +5053,13 @@
         <v>-0.53041994571685791</v>
       </c>
       <c r="C293" s="2">
-        <v>1.0830531120300293</v>
+        <v>1.0827767848968506</v>
       </c>
       <c r="D293" s="2">
         <v>0.30223485827445984</v>
       </c>
       <c r="E293" s="2">
-        <v>0.46539297699928284</v>
+        <v>0.46461054682731629</v>
       </c>
     </row>
     <row r="294">
@@ -5070,13 +5070,13 @@
         <v>1.5111188888549805</v>
       </c>
       <c r="C294" s="2">
-        <v>1.3393194675445557</v>
+        <v>1.3349765539169312</v>
       </c>
       <c r="D294" s="2">
         <v>0.37474364042282105</v>
       </c>
       <c r="E294" s="2">
-        <v>0.56005179882049561</v>
+        <v>0.55956023931503296</v>
       </c>
     </row>
     <row r="295">
@@ -5087,13 +5087,13 @@
         <v>0.34571120142936707</v>
       </c>
       <c r="C295" s="2">
-        <v>0.36209025979042053</v>
+        <v>0.36420270800590515</v>
       </c>
       <c r="D295" s="2">
         <v>0.2809697687625885</v>
       </c>
       <c r="E295" s="2">
-        <v>0.45844238996505737</v>
+        <v>0.45784217119216919</v>
       </c>
     </row>
     <row r="296">
@@ -5104,13 +5104,13 @@
         <v>0.25137794017791748</v>
       </c>
       <c r="C296" s="2">
-        <v>0.05580553412437439</v>
+        <v>0.057861290872097015</v>
       </c>
       <c r="D296" s="2">
         <v>0.33217516541481018</v>
       </c>
       <c r="E296" s="2">
-        <v>0.50003927946090698</v>
+        <v>0.49945932626724243</v>
       </c>
     </row>
     <row r="297">
@@ -5121,13 +5121,13 @@
         <v>0.17127160727977753</v>
       </c>
       <c r="C297" s="2">
-        <v>0.37268167734146118</v>
+        <v>0.3693060576915741</v>
       </c>
       <c r="D297" s="2">
         <v>0.20555849373340607</v>
       </c>
       <c r="E297" s="2">
-        <v>0.33252513408660889</v>
+        <v>0.33231493830680847</v>
       </c>
     </row>
     <row r="298">
@@ -5138,13 +5138,13 @@
         <v>0.40527382493019104</v>
       </c>
       <c r="C298" s="2">
-        <v>0.4725726842880249</v>
+        <v>0.47466585040092468</v>
       </c>
       <c r="D298" s="2">
         <v>0.31881454586982727</v>
       </c>
       <c r="E298" s="2">
-        <v>0.2438209056854248</v>
+        <v>0.24401785433292389</v>
       </c>
     </row>
     <row r="299">
@@ -5155,13 +5155,13 @@
         <v>-0.42318412661552429</v>
       </c>
       <c r="C299" s="2">
-        <v>-0.61925995349884033</v>
+        <v>-0.62216585874557495</v>
       </c>
       <c r="D299" s="2">
         <v>0.16016641259193421</v>
       </c>
       <c r="E299" s="2">
-        <v>0.10563225299119949</v>
+        <v>0.10611464083194733</v>
       </c>
     </row>
     <row r="300">
@@ -5172,13 +5172,13 @@
         <v>0.34500259160995483</v>
       </c>
       <c r="C300" s="2">
-        <v>0.16544690728187561</v>
+        <v>0.1661641001701355</v>
       </c>
       <c r="D300" s="2">
         <v>0.19310443103313446</v>
       </c>
       <c r="E300" s="2">
-        <v>0.14595247805118561</v>
+        <v>0.14611315727233887</v>
       </c>
     </row>
     <row r="301">
@@ -5189,13 +5189,13 @@
         <v>-0.22612559795379639</v>
       </c>
       <c r="C301" s="2">
-        <v>-0.2389834076166153</v>
+        <v>-0.23695293068885803</v>
       </c>
       <c r="D301" s="2">
         <v>0.18243901431560516</v>
       </c>
       <c r="E301" s="2">
-        <v>0.14219778776168823</v>
+        <v>0.14242997765541077</v>
       </c>
     </row>
     <row r="302">
@@ -5206,13 +5206,13 @@
         <v>0.48888462781906128</v>
       </c>
       <c r="C302" s="2">
-        <v>0.28471499681472778</v>
+        <v>0.28810292482376099</v>
       </c>
       <c r="D302" s="2">
         <v>0.26868537068367004</v>
       </c>
       <c r="E302" s="2">
-        <v>0.18982663750648499</v>
+        <v>0.19057169556617737</v>
       </c>
     </row>
     <row r="303">
@@ -5223,13 +5223,13 @@
         <v>0.083285599946975708</v>
       </c>
       <c r="C303" s="2">
-        <v>0.095621563494205475</v>
+        <v>0.093847639858722687</v>
       </c>
       <c r="D303" s="2">
         <v>0.32962670922279358</v>
       </c>
       <c r="E303" s="2">
-        <v>0.2290114164352417</v>
+        <v>0.22976610064506531</v>
       </c>
     </row>
     <row r="304">
@@ -5240,13 +5240,13 @@
         <v>0.64215344190597534</v>
       </c>
       <c r="C304" s="2">
-        <v>0.72497224807739258</v>
+        <v>0.72418934106826782</v>
       </c>
       <c r="D304" s="2">
         <v>0.36689767241477966</v>
       </c>
       <c r="E304" s="2">
-        <v>0.26788771152496338</v>
+        <v>0.26905041933059692</v>
       </c>
     </row>
     <row r="305">
@@ -5257,13 +5257,13 @@
         <v>0.155389204621315</v>
       </c>
       <c r="C305" s="2">
-        <v>0.022013435140252113</v>
+        <v>0.024712607264518738</v>
       </c>
       <c r="D305" s="2">
         <v>0.36518284678459168</v>
       </c>
       <c r="E305" s="2">
-        <v>0.28035059571266174</v>
+        <v>0.28153118491172791</v>
       </c>
     </row>
     <row r="306">
@@ -5274,13 +5274,13 @@
         <v>0.94748872518539429</v>
       </c>
       <c r="C306" s="2">
-        <v>0.80134129524230957</v>
+        <v>0.80258160829544067</v>
       </c>
       <c r="D306" s="2">
         <v>0.45017626881599426</v>
       </c>
       <c r="E306" s="2">
-        <v>0.35671511292457581</v>
+        <v>0.35772031545639038</v>
       </c>
     </row>
     <row r="307">
@@ -5291,13 +5291,13 @@
         <v>0.95374596118927002</v>
       </c>
       <c r="C307" s="2">
-        <v>0.82523560523986816</v>
+        <v>0.82741546630859375</v>
       </c>
       <c r="D307" s="2">
         <v>0.45430102944374085</v>
       </c>
       <c r="E307" s="2">
-        <v>0.37368199229240417</v>
+        <v>0.37453097105026245</v>
       </c>
     </row>
     <row r="308">
@@ -5308,13 +5308,13 @@
         <v>-0.087745524942874908</v>
       </c>
       <c r="C308" s="2">
-        <v>-0.26937314867973328</v>
+        <v>-0.26860705018043518</v>
       </c>
       <c r="D308" s="2">
         <v>0.53140485286712646</v>
       </c>
       <c r="E308" s="2">
-        <v>0.44749605655670166</v>
+        <v>0.44886445999145508</v>
       </c>
     </row>
     <row r="309">
@@ -5325,13 +5325,13 @@
         <v>0.32956916093826294</v>
       </c>
       <c r="C309" s="2">
-        <v>0.27761289477348328</v>
+        <v>0.27849099040031433</v>
       </c>
       <c r="D309" s="2">
         <v>0.51833826303482056</v>
       </c>
       <c r="E309" s="2">
-        <v>0.44452905654907227</v>
+        <v>0.44587486982345581</v>
       </c>
     </row>
     <row r="310">
@@ -5342,13 +5342,13 @@
         <v>0.53881531953811646</v>
       </c>
       <c r="C310" s="2">
-        <v>0.4482971727848053</v>
+        <v>0.44874930381774902</v>
       </c>
       <c r="D310" s="2">
         <v>0.47942626476287842</v>
       </c>
       <c r="E310" s="2">
-        <v>0.40563622117042542</v>
+        <v>0.40672597289085388</v>
       </c>
     </row>
     <row r="311">
@@ -5359,13 +5359,13 @@
         <v>0.52600741386413574</v>
       </c>
       <c r="C311" s="2">
-        <v>0.43741688132286072</v>
+        <v>0.43939894437789917</v>
       </c>
       <c r="D311" s="2">
         <v>0.51304388046264648</v>
       </c>
       <c r="E311" s="2">
-        <v>0.42673417925834656</v>
+        <v>0.42783987522125244</v>
       </c>
     </row>
     <row r="312">
@@ -5376,13 +5376,13 @@
         <v>0.77722018957138062</v>
       </c>
       <c r="C312" s="2">
-        <v>0.7599480152130127</v>
+        <v>0.76284897327423096</v>
       </c>
       <c r="D312" s="2">
         <v>0.52808350324630737</v>
       </c>
       <c r="E312" s="2">
-        <v>0.44421020150184631</v>
+        <v>0.44488686323165894</v>
       </c>
     </row>
     <row r="313">
@@ -5393,13 +5393,13 @@
         <v>0.52455389499664307</v>
       </c>
       <c r="C313" s="2">
-        <v>0.6982693076133728</v>
+        <v>0.69728302955627442</v>
       </c>
       <c r="D313" s="2">
         <v>0.66772037744522095</v>
       </c>
       <c r="E313" s="2">
-        <v>0.60473793745040894</v>
+        <v>0.60545074939727783</v>
       </c>
     </row>
     <row r="314">
@@ -5410,13 +5410,13 @@
         <v>-0.19481883943080902</v>
       </c>
       <c r="C314" s="2">
-        <v>-0.3280220627784729</v>
+        <v>-0.32762762904167175</v>
       </c>
       <c r="D314" s="2">
         <v>0.7510601282119751</v>
       </c>
       <c r="E314" s="2">
-        <v>0.67615675926208496</v>
+        <v>0.67691540718078613</v>
       </c>
     </row>
     <row r="315">
@@ -5427,13 +5427,13 @@
         <v>1.2500473260879517</v>
       </c>
       <c r="C315" s="2">
-        <v>0.9912230372428894</v>
+        <v>0.99260693788528442</v>
       </c>
       <c r="D315" s="2">
         <v>0.71953278779983521</v>
       </c>
       <c r="E315" s="2">
-        <v>0.63926404714584351</v>
+        <v>0.63988417387008667</v>
       </c>
     </row>
     <row r="316">
@@ -5444,13 +5444,13 @@
         <v>1.0891025066375733</v>
       </c>
       <c r="C316" s="2">
-        <v>0.98251962661743164</v>
+        <v>0.98083829879760742</v>
       </c>
       <c r="D316" s="2">
         <v>0.77530133724212646</v>
       </c>
       <c r="E316" s="2">
-        <v>0.69192665815353394</v>
+        <v>0.69228756427764893</v>
       </c>
     </row>
     <row r="317">
@@ -5461,13 +5461,13 @@
         <v>1.1689862012863159</v>
       </c>
       <c r="C317" s="2">
-        <v>1.1753764152526856</v>
+        <v>1.1764678955078125</v>
       </c>
       <c r="D317" s="2">
         <v>0.65982580184936524</v>
       </c>
       <c r="E317" s="2">
-        <v>0.58936357498168945</v>
+        <v>0.58958250284194946</v>
       </c>
     </row>
     <row r="318">
@@ -5478,13 +5478,13 @@
         <v>1.0796271562576294</v>
       </c>
       <c r="C318" s="2">
-        <v>0.92038261890411377</v>
+        <v>0.92167282104492188</v>
       </c>
       <c r="D318" s="2">
         <v>0.67685574293136597</v>
       </c>
       <c r="E318" s="2">
-        <v>0.59689462184906006</v>
+        <v>0.59757429361343384</v>
       </c>
     </row>
     <row r="319">
@@ -5495,13 +5495,13 @@
         <v>0.25506904721260071</v>
       </c>
       <c r="C319" s="2">
-        <v>0.11626275628805161</v>
+        <v>0.11546846479177475</v>
       </c>
       <c r="D319" s="2">
         <v>0.76814621686935425</v>
       </c>
       <c r="E319" s="2">
-        <v>0.69064986705780029</v>
+        <v>0.69134849309921265</v>
       </c>
     </row>
     <row r="320">
@@ -5512,13 +5512,13 @@
         <v>1.0279244184494019</v>
       </c>
       <c r="C320" s="2">
-        <v>0.91138005256652832</v>
+        <v>0.9110293984413147</v>
       </c>
       <c r="D320" s="2">
         <v>0.77619993686676025</v>
       </c>
       <c r="E320" s="2">
-        <v>0.7152366042137146</v>
+        <v>0.71583592891693115</v>
       </c>
     </row>
     <row r="321">
@@ -5529,13 +5529,13 @@
         <v>-0.26205968856811523</v>
       </c>
       <c r="C321" s="2">
-        <v>-0.16311945021152496</v>
+        <v>-0.16149657964706421</v>
       </c>
       <c r="D321" s="2">
         <v>0.75808358192443848</v>
       </c>
       <c r="E321" s="2">
-        <v>0.68114513158798218</v>
+        <v>0.68183696269989014</v>
       </c>
     </row>
     <row r="322">
@@ -5546,13 +5546,13 @@
         <v>0.67782378196716309</v>
       </c>
       <c r="C322" s="2">
-        <v>0.76604878902435303</v>
+        <v>0.76920878887176514</v>
       </c>
       <c r="D322" s="2">
         <v>0.63281553983688355</v>
       </c>
       <c r="E322" s="2">
-        <v>0.62407010793685913</v>
+        <v>0.62433242797851563</v>
       </c>
     </row>
     <row r="323">
@@ -5563,13 +5563,13 @@
         <v>0.62679529190063477</v>
       </c>
       <c r="C323" s="2">
-        <v>0.51577502489089966</v>
+        <v>0.51634019613265991</v>
       </c>
       <c r="D323" s="2">
         <v>0.59207838773727417</v>
       </c>
       <c r="E323" s="2">
-        <v>0.58747714757919312</v>
+        <v>0.58755016326904297</v>
       </c>
     </row>
     <row r="324">
@@ -5580,13 +5580,13 @@
         <v>1.32253098487854</v>
       </c>
       <c r="C324" s="2">
-        <v>1.2125035524368286</v>
+        <v>1.2129940986633301</v>
       </c>
       <c r="D324" s="2">
         <v>0.67519795894622803</v>
       </c>
       <c r="E324" s="2">
-        <v>0.67868000268936157</v>
+        <v>0.67872351408004761</v>
       </c>
     </row>
     <row r="325">
@@ -5597,13 +5597,13 @@
         <v>0.92605489492416382</v>
       </c>
       <c r="C325" s="2">
-        <v>0.67569655179977417</v>
+        <v>0.67484778165817261</v>
       </c>
       <c r="D325" s="2">
         <v>0.66264694929122925</v>
       </c>
       <c r="E325" s="2">
-        <v>0.66875243186950684</v>
+        <v>0.66871803998947144</v>
       </c>
     </row>
     <row r="326">
@@ -5614,13 +5614,13 @@
         <v>0.041573919355869293</v>
       </c>
       <c r="C326" s="2">
-        <v>0.66170084476470947</v>
+        <v>0.65892690420150757</v>
       </c>
       <c r="D326" s="2">
         <v>0.77779829502105713</v>
       </c>
       <c r="E326" s="2">
-        <v>0.76909506320953369</v>
+        <v>0.76892215013504028</v>
       </c>
     </row>
     <row r="327">
@@ -5631,13 +5631,13 @@
         <v>0.71299290657043457</v>
       </c>
       <c r="C327" s="2">
-        <v>0.59104615449905396</v>
+        <v>0.59063237905502319</v>
       </c>
       <c r="D327" s="2">
         <v>0.8151770830154419</v>
       </c>
       <c r="E327" s="2">
-        <v>0.7836536169052124</v>
+        <v>0.78295308351516724</v>
       </c>
     </row>
     <row r="328">
@@ -5648,13 +5648,13 @@
         <v>1.0031448602676392</v>
       </c>
       <c r="C328" s="2">
-        <v>0.93708831071853638</v>
+        <v>0.93602889776229858</v>
       </c>
       <c r="D328" s="2">
         <v>0.82355225086212158</v>
       </c>
       <c r="E328" s="2">
-        <v>0.78811103105545044</v>
+        <v>0.78760290145874023</v>
       </c>
     </row>
     <row r="329">
@@ -5665,13 +5665,13 @@
         <v>0.91496580839157105</v>
       </c>
       <c r="C329" s="2">
-        <v>0.82203221321105957</v>
+        <v>0.82098007202148438</v>
       </c>
       <c r="D329" s="2">
         <v>0.67846149206161499</v>
       </c>
       <c r="E329" s="2">
-        <v>0.70807647705078125</v>
+        <v>0.707233726978302</v>
       </c>
     </row>
     <row r="330">
@@ -5682,13 +5682,13 @@
         <v>0.77430212497711182</v>
       </c>
       <c r="C330" s="2">
-        <v>0.73996424674987793</v>
+        <v>0.74034029245376587</v>
       </c>
       <c r="D330" s="2">
         <v>0.67702919244766235</v>
       </c>
       <c r="E330" s="2">
-        <v>0.73271751403808594</v>
+        <v>0.73209810256958008</v>
       </c>
     </row>
     <row r="331">
@@ -5699,13 +5699,13 @@
         <v>1.0142329931259155</v>
       </c>
       <c r="C331" s="2">
-        <v>0.89707571268081665</v>
+        <v>0.89548736810684204</v>
       </c>
       <c r="D331" s="2">
         <v>0.73002344369888306</v>
       </c>
       <c r="E331" s="2">
-        <v>0.75003278255462646</v>
+        <v>0.74973022937774658</v>
       </c>
     </row>
     <row r="332">
@@ -5716,13 +5716,13 @@
         <v>0.70217156410217285</v>
       </c>
       <c r="C332" s="2">
-        <v>0.55589169263839722</v>
+        <v>0.55818831920623779</v>
       </c>
       <c r="D332" s="2">
         <v>0.77954214811325073</v>
       </c>
       <c r="E332" s="2">
-        <v>0.82114708423614502</v>
+        <v>0.82073014974594116</v>
       </c>
     </row>
     <row r="333">
@@ -5733,13 +5733,13 @@
         <v>0.016714487224817276</v>
       </c>
       <c r="C333" s="2">
-        <v>0.49219232797622681</v>
+        <v>0.48967170715332031</v>
       </c>
       <c r="D333" s="2">
         <v>0.76825737953186035</v>
       </c>
       <c r="E333" s="2">
-        <v>0.81859385967254639</v>
+        <v>0.81833618879318237</v>
       </c>
     </row>
     <row r="334">
@@ -5750,13 +5750,13 @@
         <v>0.91316384077072144</v>
       </c>
       <c r="C334" s="2">
-        <v>0.89746618270874023</v>
+        <v>0.89862704277038574</v>
       </c>
       <c r="D334" s="2">
         <v>0.65262711048126221</v>
       </c>
       <c r="E334" s="2">
-        <v>0.69074898958206177</v>
+        <v>0.69008356332778931</v>
       </c>
     </row>
     <row r="335">
@@ -5767,13 +5767,13 @@
         <v>0.51852226257324219</v>
       </c>
       <c r="C335" s="2">
-        <v>0.81753802299499512</v>
+        <v>0.8176160454750061</v>
       </c>
       <c r="D335" s="2">
         <v>0.69968503713607788</v>
       </c>
       <c r="E335" s="2">
-        <v>0.70921611785888672</v>
+        <v>0.70896416902542114</v>
       </c>
     </row>
     <row r="336">
@@ -5784,13 +5784,13 @@
         <v>1.1586616039276123</v>
       </c>
       <c r="C336" s="2">
-        <v>1.2310749292373657</v>
+        <v>1.229631781578064</v>
       </c>
       <c r="D336" s="2">
         <v>0.73506635427474976</v>
       </c>
       <c r="E336" s="2">
-        <v>0.76281064748764038</v>
+        <v>0.76275837421417236</v>
       </c>
     </row>
     <row r="337">
@@ -5801,13 +5801,13 @@
         <v>0.90158188343048096</v>
       </c>
       <c r="C337" s="2">
-        <v>0.91410946846008301</v>
+        <v>0.91448295116424561</v>
       </c>
       <c r="D337" s="2">
         <v>0.77695095539093018</v>
       </c>
       <c r="E337" s="2">
-        <v>0.79672145843505859</v>
+        <v>0.79620164632797241</v>
       </c>
     </row>
     <row r="338">
@@ -5818,13 +5818,13 @@
         <v>-0.12570691108703613</v>
       </c>
       <c r="C338" s="2">
-        <v>-0.32857173681259155</v>
+        <v>-0.33329322934150696</v>
       </c>
       <c r="D338" s="2">
         <v>0.86762511730194092</v>
       </c>
       <c r="E338" s="2">
-        <v>0.84517812728881836</v>
+        <v>0.84509468078613281</v>
       </c>
     </row>
     <row r="339">
@@ -5835,13 +5835,13 @@
         <v>1.1978235244750977</v>
       </c>
       <c r="C339" s="2">
-        <v>0.90616840124130249</v>
+        <v>0.91026532649993896</v>
       </c>
       <c r="D339" s="2">
         <v>0.82790964841842651</v>
       </c>
       <c r="E339" s="2">
-        <v>0.79896527528762817</v>
+        <v>0.79947739839553833</v>
       </c>
     </row>
     <row r="340">
@@ -5852,13 +5852,13 @@
         <v>1.3326648473739624</v>
       </c>
       <c r="C340" s="2">
-        <v>1.3794265985488892</v>
+        <v>1.3796355724334717</v>
       </c>
       <c r="D340" s="2">
         <v>0.87409299612045288</v>
       </c>
       <c r="E340" s="2">
-        <v>0.85442036390304565</v>
+        <v>0.85502153635025024</v>
       </c>
     </row>
     <row r="341">
@@ -5869,13 +5869,13 @@
         <v>1.079133152961731</v>
       </c>
       <c r="C341" s="2">
-        <v>0.86108916997909546</v>
+        <v>0.85917770862579346</v>
       </c>
       <c r="D341" s="2">
         <v>0.80900168418884277</v>
       </c>
       <c r="E341" s="2">
-        <v>0.75985223054885864</v>
+        <v>0.76079785823822021</v>
       </c>
     </row>
     <row r="342">
@@ -5886,13 +5886,13 @@
         <v>0.83278191089630127</v>
       </c>
       <c r="C342" s="2">
-        <v>0.92830228805541992</v>
+        <v>0.92970865964889526</v>
       </c>
       <c r="D342" s="2">
         <v>0.81848651170730591</v>
       </c>
       <c r="E342" s="2">
-        <v>0.71464169025421143</v>
+        <v>0.71516710519790649</v>
       </c>
     </row>
     <row r="343">
@@ -5903,13 +5903,13 @@
         <v>0.5557246208190918</v>
       </c>
       <c r="C343" s="2">
-        <v>0.48155045509338379</v>
+        <v>0.48807191848754883</v>
       </c>
       <c r="D343" s="2">
         <v>0.96024250984191895</v>
       </c>
       <c r="E343" s="2">
-        <v>0.87178462743759155</v>
+        <v>0.87302380800247192</v>
       </c>
     </row>
     <row r="344">
@@ -5920,13 +5920,13 @@
         <v>0.93417239189147949</v>
       </c>
       <c r="C344" s="2">
-        <v>1.316633939743042</v>
+        <v>1.317513108253479</v>
       </c>
       <c r="D344" s="2">
         <v>0.83412224054336548</v>
       </c>
       <c r="E344" s="2">
-        <v>0.78780180215835571</v>
+        <v>0.78853189945220947</v>
       </c>
     </row>
     <row r="345">
@@ -5937,13 +5937,13 @@
         <v>0.57283961772918701</v>
       </c>
       <c r="C345" s="2">
-        <v>0.37996149063110352</v>
+        <v>0.3816184401512146</v>
       </c>
       <c r="D345" s="2">
         <v>0.82078951597213745</v>
       </c>
       <c r="E345" s="2">
-        <v>0.75705063343048096</v>
+        <v>0.75743609666824341</v>
       </c>
     </row>
     <row r="346">
@@ -5954,13 +5954,13 @@
         <v>0.98694562911987305</v>
       </c>
       <c r="C346" s="2">
-        <v>0.50721454620361328</v>
+        <v>0.50380623340606689</v>
       </c>
       <c r="D346" s="2">
         <v>0.89196252822875977</v>
       </c>
       <c r="E346" s="2">
-        <v>0.84060811996459961</v>
+        <v>0.84118461608886719</v>
       </c>
     </row>
     <row r="347">
@@ -5971,13 +5971,13 @@
         <v>1.1500968933105469</v>
       </c>
       <c r="C347" s="2">
-        <v>1.0857148170471192</v>
+        <v>1.087417483329773</v>
       </c>
       <c r="D347" s="2">
         <v>0.93152892589569092</v>
       </c>
       <c r="E347" s="2">
-        <v>0.86437809467315674</v>
+        <v>0.86468780040740967</v>
       </c>
     </row>
     <row r="348">
@@ -5988,13 +5988,13 @@
         <v>0.062741167843341827</v>
       </c>
       <c r="C348" s="2">
-        <v>0.15032276511192322</v>
+        <v>0.14983819425106049</v>
       </c>
       <c r="D348" s="2">
         <v>0.98598110675811768</v>
       </c>
       <c r="E348" s="2">
-        <v>0.90762996673583984</v>
+        <v>0.9072028398513794</v>
       </c>
     </row>
     <row r="349">
@@ -6005,13 +6005,13 @@
         <v>1.2126703262329102</v>
       </c>
       <c r="C349" s="2">
-        <v>1.1026663780212402</v>
+        <v>1.0997732877731323</v>
       </c>
       <c r="D349" s="2">
         <v>1.0041536092758179</v>
       </c>
       <c r="E349" s="2">
-        <v>0.9229050874710083</v>
+        <v>0.9222949743270874</v>
       </c>
     </row>
     <row r="350">
@@ -6022,13 +6022,13 @@
         <v>1.719690203666687</v>
       </c>
       <c r="C350" s="2">
-        <v>1.6131061315536499</v>
+        <v>1.6129144430160522</v>
       </c>
       <c r="D350" s="2">
         <v>1.0844240188598633</v>
       </c>
       <c r="E350" s="2">
-        <v>1.0047060251235962</v>
+        <v>1.0039507150650024</v>
       </c>
     </row>
     <row r="351">
@@ -6039,13 +6039,13 @@
         <v>1.1888793706893921</v>
       </c>
       <c r="C351" s="2">
-        <v>1.1422324180603027</v>
+        <v>1.1412369012832642</v>
       </c>
       <c r="D351" s="2">
         <v>1.0903068780899048</v>
       </c>
       <c r="E351" s="2">
-        <v>1.0727688074111939</v>
+        <v>1.0727794170379639</v>
       </c>
     </row>
     <row r="352">
@@ -6056,13 +6056,13 @@
         <v>1.0457944869995117</v>
       </c>
       <c r="C352" s="2">
-        <v>0.87081700563430786</v>
+        <v>0.87070721387863159</v>
       </c>
       <c r="D352" s="2">
         <v>1.0662604570388794</v>
       </c>
       <c r="E352" s="2">
-        <v>1.0418120622634888</v>
+        <v>1.0418163537979126</v>
       </c>
     </row>
     <row r="353">
@@ -6073,13 +6073,13 @@
         <v>1.097724437713623</v>
       </c>
       <c r="C353" s="2">
-        <v>1.4541102647781372</v>
+        <v>1.4533427953720093</v>
       </c>
       <c r="D353" s="2">
         <v>1.1108037233352661</v>
       </c>
       <c r="E353" s="2">
-        <v>1.0923142433166504</v>
+        <v>1.0923763513565064</v>
       </c>
     </row>
     <row r="354">
@@ -6090,13 +6090,13 @@
         <v>1.2952731847763062</v>
       </c>
       <c r="C354" s="2">
-        <v>1.1161701679229736</v>
+        <v>1.1165194511413574</v>
       </c>
       <c r="D354" s="2">
         <v>1.0517146587371826</v>
       </c>
       <c r="E354" s="2">
-        <v>1.0378580093383789</v>
+        <v>1.0381717681884766</v>
       </c>
     </row>
     <row r="355">
@@ -6107,13 +6107,13 @@
         <v>1.0398914813995361</v>
       </c>
       <c r="C355" s="2">
-        <v>1.1197789907455444</v>
+        <v>1.1232646703720093</v>
       </c>
       <c r="D355" s="2">
         <v>0.88831794261932373</v>
       </c>
       <c r="E355" s="2">
-        <v>0.84360897541046143</v>
+        <v>0.84440100193023682</v>
       </c>
     </row>
     <row r="356">
@@ -6124,13 +6124,13 @@
         <v>0.93367987871170044</v>
       </c>
       <c r="C356" s="2">
-        <v>0.80710422992706299</v>
+        <v>0.8087499737739563</v>
       </c>
       <c r="D356" s="2">
         <v>0.84468305110931396</v>
       </c>
       <c r="E356" s="2">
-        <v>0.7773667573928833</v>
+        <v>0.77819550037384033</v>
       </c>
     </row>
     <row r="357">
@@ -6141,13 +6141,13 @@
         <v>0.4636305570602417</v>
       </c>
       <c r="C357" s="2">
-        <v>0.60484236478805542</v>
+        <v>0.60487884283065796</v>
       </c>
       <c r="D357" s="2">
         <v>0.81421780586242676</v>
       </c>
       <c r="E357" s="2">
-        <v>0.75188404321670532</v>
+        <v>0.75268685817718506</v>
       </c>
     </row>
     <row r="358">
@@ -6158,13 +6158,13 @@
         <v>0.68086826801300049</v>
       </c>
       <c r="C358" s="2">
-        <v>0.61256033182144165</v>
+        <v>0.61193174123764038</v>
       </c>
       <c r="D358" s="2">
         <v>0.74072188138961792</v>
       </c>
       <c r="E358" s="2">
-        <v>0.61525487899780274</v>
+        <v>0.61622714996337891</v>
       </c>
     </row>
     <row r="359">
@@ -6175,13 +6175,13 @@
         <v>0.24911986291408539</v>
       </c>
       <c r="C359" s="2">
-        <v>-0.13513487577438355</v>
+        <v>-0.13102264702320099</v>
       </c>
       <c r="D359" s="2">
         <v>0.60560154914855957</v>
       </c>
       <c r="E359" s="2">
-        <v>0.49068161845207214</v>
+        <v>0.49140933156013489</v>
       </c>
     </row>
     <row r="360">
@@ -6192,13 +6192,13 @@
         <v>0.7961653470993042</v>
       </c>
       <c r="C360" s="2">
-        <v>0.54605239629745483</v>
+        <v>0.5453876256942749</v>
       </c>
       <c r="D360" s="2">
         <v>0.52908146381378174</v>
       </c>
       <c r="E360" s="2">
-        <v>0.38327103853225708</v>
+        <v>0.38368231058120728</v>
       </c>
     </row>
     <row r="361">
@@ -6209,13 +6209,13 @@
         <v>0.77160722017288208</v>
       </c>
       <c r="C361" s="2">
-        <v>0.64147275686264038</v>
+        <v>0.64112907648086548</v>
       </c>
       <c r="D361" s="2">
         <v>0.45166823267936707</v>
       </c>
       <c r="E361" s="2">
-        <v>0.3419443666934967</v>
+        <v>0.34201323986053467</v>
       </c>
     </row>
     <row r="362">
@@ -6226,13 +6226,13 @@
         <v>0.43626126646995545</v>
       </c>
       <c r="C362" s="2">
-        <v>0.22444772720336914</v>
+        <v>0.22520583868026733</v>
       </c>
       <c r="D362" s="2">
         <v>0.49149194359779358</v>
       </c>
       <c r="E362" s="2">
-        <v>0.36500352621078491</v>
+        <v>0.36512121558189392</v>
       </c>
     </row>
     <row r="363">
@@ -6243,13 +6243,13 @@
         <v>0.079189814627170563</v>
       </c>
       <c r="C363" s="2">
-        <v>-0.0049893716350197792</v>
+        <v>-0.0068410104140639305</v>
       </c>
       <c r="D363" s="2">
         <v>0.44996628165245056</v>
       </c>
       <c r="E363" s="2">
-        <v>0.32071655988693237</v>
+        <v>0.32095295190811157</v>
       </c>
     </row>
     <row r="364">
@@ -6260,13 +6260,13 @@
         <v>0.35121113061904907</v>
       </c>
       <c r="C364" s="2">
-        <v>0.15308377146720886</v>
+        <v>0.15372124314308167</v>
       </c>
       <c r="D364" s="2">
         <v>0.472135990858078</v>
       </c>
       <c r="E364" s="2">
-        <v>0.39969852566719055</v>
+        <v>0.39960843324661255</v>
       </c>
     </row>
     <row r="365">
@@ -6277,13 +6277,13 @@
         <v>0.23696063458919525</v>
       </c>
       <c r="C365" s="2">
-        <v>0.43516433238983154</v>
+        <v>0.43372836709022522</v>
       </c>
       <c r="D365" s="2">
         <v>0.4344068169593811</v>
       </c>
       <c r="E365" s="2">
-        <v>0.39236006140708923</v>
+        <v>0.39215227961540222</v>
       </c>
     </row>
     <row r="366">
@@ -6294,13 +6294,13 @@
         <v>0.82204407453536987</v>
       </c>
       <c r="C366" s="2">
-        <v>0.81237471103668213</v>
+        <v>0.81285059452056885</v>
       </c>
       <c r="D366" s="2">
         <v>0.42091554403305054</v>
       </c>
       <c r="E366" s="2">
-        <v>0.38650250434875488</v>
+        <v>0.38646781444549561</v>
       </c>
     </row>
     <row r="367">
@@ -6311,13 +6311,13 @@
         <v>0.30713719129562378</v>
       </c>
       <c r="C367" s="2">
-        <v>0.21397762000560761</v>
+        <v>0.21441759169101715</v>
       </c>
       <c r="D367" s="2">
         <v>0.31707838177680969</v>
       </c>
       <c r="E367" s="2">
-        <v>0.30967244505882263</v>
+        <v>0.3095041811466217</v>
       </c>
     </row>
     <row r="368">
@@ -6328,13 +6328,13 @@
         <v>0.44864735007286072</v>
       </c>
       <c r="C368" s="2">
-        <v>0.5757027268409729</v>
+        <v>0.57687658071517944</v>
       </c>
       <c r="D368" s="2">
         <v>0.26228687167167664</v>
       </c>
       <c r="E368" s="2">
-        <v>0.26237145066261292</v>
+        <v>0.26232197880744934</v>
       </c>
     </row>
     <row r="369">
@@ -6345,13 +6345,13 @@
         <v>0.45660275220870972</v>
       </c>
       <c r="C369" s="2">
-        <v>0.48000618815422058</v>
+        <v>0.47828215360641479</v>
       </c>
       <c r="D369" s="2">
         <v>0.15488393604755402</v>
       </c>
       <c r="E369" s="2">
-        <v>0.18708308041095734</v>
+        <v>0.18703389167785645</v>
       </c>
     </row>
     <row r="370">
@@ -6362,13 +6362,13 @@
         <v>0.65018576383590698</v>
       </c>
       <c r="C370" s="2">
-        <v>0.58875477313995361</v>
+        <v>0.5899689793586731</v>
       </c>
       <c r="D370" s="2">
         <v>0.08480565994977951</v>
       </c>
       <c r="E370" s="2">
-        <v>0.10613338649272919</v>
+        <v>0.10617582499980927</v>
       </c>
     </row>
     <row r="371">
@@ -6379,13 +6379,13 @@
         <v>-0.49827328324317932</v>
       </c>
       <c r="C371" s="2">
-        <v>-0.46702271699905396</v>
+        <v>-0.46746695041656494</v>
       </c>
       <c r="D371" s="2">
         <v>-0.052686493843793869</v>
       </c>
       <c r="E371" s="2">
-        <v>-0.033328913152217865</v>
+        <v>-0.033340398222208023</v>
       </c>
     </row>
     <row r="372">
@@ -6396,13 +6396,13 @@
         <v>-0.41393366456031799</v>
       </c>
       <c r="C372" s="2">
-        <v>-0.4306984543800354</v>
+        <v>-0.43148064613342285</v>
       </c>
       <c r="D372" s="2">
         <v>-0.11322511732578278</v>
       </c>
       <c r="E372" s="2">
-        <v>-0.094384439289569855</v>
+        <v>-0.094527304172515869</v>
       </c>
     </row>
     <row r="373">
@@ -6413,13 +6413,13 @@
         <v>-0.61541545391082764</v>
       </c>
       <c r="C373" s="2">
-        <v>-0.52451151609420776</v>
+        <v>-0.52387160062789917</v>
       </c>
       <c r="D373" s="2">
         <v>-0.17811037600040436</v>
       </c>
       <c r="E373" s="2">
-        <v>-0.18385830521583557</v>
+        <v>-0.18401731550693512</v>
       </c>
     </row>
     <row r="374">
@@ -6430,13 +6430,13 @@
         <v>-0.39374378323554993</v>
       </c>
       <c r="C374" s="2">
-        <v>-0.29338288307189941</v>
+        <v>-0.29399430751800537</v>
       </c>
       <c r="D374" s="2">
         <v>-0.20896013081073761</v>
       </c>
       <c r="E374" s="2">
-        <v>-0.24065248668193817</v>
+        <v>-0.24062703549861908</v>
       </c>
     </row>
     <row r="375">
@@ -6447,13 +6447,13 @@
         <v>-0.41538530588150024</v>
       </c>
       <c r="C375" s="2">
-        <v>-0.44278594851493836</v>
+        <v>-0.44279539585113525</v>
       </c>
       <c r="D375" s="2">
         <v>-0.31952023506164551</v>
       </c>
       <c r="E375" s="2">
-        <v>-0.36526212096214295</v>
+        <v>-0.36538940668106079</v>
       </c>
     </row>
     <row r="376">
@@ -6464,13 +6464,13 @@
         <v>-0.23771043121814728</v>
       </c>
       <c r="C376" s="2">
-        <v>-0.33552214503288269</v>
+        <v>-0.33626458048820496</v>
       </c>
       <c r="D376" s="2">
         <v>-0.29558879137039185</v>
       </c>
       <c r="E376" s="2">
-        <v>-0.34548410773277283</v>
+        <v>-0.3454926609992981</v>
       </c>
     </row>
     <row r="377">
@@ -6481,13 +6481,13 @@
         <v>-0.13531991839408875</v>
       </c>
       <c r="C377" s="2">
-        <v>-0.22956198453903198</v>
+        <v>-0.22853349149227142</v>
       </c>
       <c r="D377" s="2">
         <v>-0.32506543397903442</v>
       </c>
       <c r="E377" s="2">
-        <v>-0.37035161256790161</v>
+        <v>-0.37027284502983093</v>
       </c>
     </row>
     <row r="378">
@@ -6498,13 +6498,13 @@
         <v>0.17895491421222687</v>
       </c>
       <c r="C378" s="2">
-        <v>-0.031141523271799088</v>
+        <v>-0.031205262988805771</v>
       </c>
       <c r="D378" s="2">
         <v>-0.19304193556308746</v>
       </c>
       <c r="E378" s="2">
-        <v>-0.25795754790306091</v>
+        <v>-0.25794753432273865</v>
       </c>
     </row>
     <row r="379">
@@ -6515,13 +6515,13 @@
         <v>-0.34485521912574768</v>
       </c>
       <c r="C379" s="2">
-        <v>-0.53273183107376099</v>
+        <v>-0.53289240598678589</v>
       </c>
       <c r="D379" s="2">
         <v>-0.13694508373737335</v>
       </c>
       <c r="E379" s="2">
-        <v>-0.21833090484142304</v>
+        <v>-0.2181675136089325</v>
       </c>
     </row>
     <row r="380">
@@ -6532,13 +6532,13 @@
         <v>-0.28289023041725159</v>
       </c>
       <c r="C380" s="2">
-        <v>-0.28902080655097961</v>
+        <v>-0.28839632868766785</v>
       </c>
       <c r="D380" s="2">
         <v>-0.13185589015483856</v>
       </c>
       <c r="E380" s="2">
-        <v>-0.21526283025741577</v>
+        <v>-0.21521164476871491</v>
       </c>
     </row>
     <row r="381">
@@ -6549,13 +6549,13 @@
         <v>-0.67922335863113403</v>
       </c>
       <c r="C381" s="2">
-        <v>-0.65450590848922729</v>
+        <v>-0.65450215339660645</v>
       </c>
       <c r="D381" s="2">
         <v>-0.019411737099289894</v>
       </c>
       <c r="E381" s="2">
-        <v>-0.1050463393330574</v>
+        <v>-0.10480091720819473</v>
       </c>
     </row>
     <row r="382">
@@ -6566,13 +6566,13 @@
         <v>0.57279586791992188</v>
       </c>
       <c r="C382" s="2">
-        <v>0.48703506588935852</v>
+        <v>0.4870561957359314</v>
       </c>
       <c r="D382" s="2">
         <v>-0.043574009090662003</v>
       </c>
       <c r="E382" s="2">
-        <v>-0.13560135662555695</v>
+        <v>-0.13548773527145386</v>
       </c>
     </row>
     <row r="383">
@@ -6583,13 +6583,13 @@
         <v>0.11112789064645767</v>
       </c>
       <c r="C383" s="2">
-        <v>0.063256874680519104</v>
+        <v>0.064025819301605225</v>
       </c>
       <c r="D383" s="2">
         <v>0.063766174018383026</v>
       </c>
       <c r="E383" s="2">
-        <v>-0.0090459603816270828</v>
+        <v>-0.0086554326117038727</v>
       </c>
     </row>
     <row r="384">
@@ -6600,13 +6600,13 @@
         <v>-0.36958256363868713</v>
       </c>
       <c r="C384" s="2">
-        <v>-0.41517326235771179</v>
+        <v>-0.41619265079498291</v>
       </c>
       <c r="D384" s="2">
         <v>0.20862975716590881</v>
       </c>
       <c r="E384" s="2">
-        <v>0.13179914653301239</v>
+        <v>0.13239337503910065</v>
       </c>
     </row>
     <row r="385">
@@ -6617,13 +6617,13 @@
         <v>0.77428698539733887</v>
       </c>
       <c r="C385" s="2">
-        <v>0.65642631053924561</v>
+        <v>0.65743201971054077</v>
       </c>
       <c r="D385" s="2">
         <v>0.33690136671066284</v>
       </c>
       <c r="E385" s="2">
-        <v>0.24364252388477325</v>
+        <v>0.24430128931999207</v>
       </c>
     </row>
     <row r="386">
@@ -6634,13 +6634,13 @@
         <v>-0.35278037190437317</v>
       </c>
       <c r="C386" s="2">
-        <v>-0.50455719232559204</v>
+        <v>-0.50471490621566772</v>
       </c>
       <c r="D386" s="2">
         <v>0.53222495317459106</v>
       </c>
       <c r="E386" s="2">
-        <v>0.42250433564186096</v>
+        <v>0.42318007349967957</v>
       </c>
     </row>
     <row r="387">
@@ -6651,13 +6651,13 @@
         <v>1.1450165510177612</v>
       </c>
       <c r="C387" s="2">
-        <v>1.1078571081161499</v>
+        <v>1.1102855205535889</v>
       </c>
       <c r="D387" s="2">
         <v>0.58888149261474609</v>
       </c>
       <c r="E387" s="2">
-        <v>0.46554526686668396</v>
+        <v>0.46632009744644165</v>
       </c>
     </row>
     <row r="388">
@@ -6668,13 +6668,13 @@
         <v>0.95891708135604858</v>
       </c>
       <c r="C388" s="2">
-        <v>0.73487406969070435</v>
+        <v>0.73654687404632568</v>
       </c>
       <c r="D388" s="2">
         <v>0.6556931734085083</v>
       </c>
       <c r="E388" s="2">
-        <v>0.53302472829818726</v>
+        <v>0.53400295972824097</v>
       </c>
     </row>
     <row r="389">
@@ -6685,13 +6685,13 @@
         <v>0.87155419588088989</v>
       </c>
       <c r="C389" s="2">
-        <v>0.71756958961486817</v>
+        <v>0.71877491474151611</v>
       </c>
       <c r="D389" s="2">
         <v>0.782004714012146</v>
       </c>
       <c r="E389" s="2">
-        <v>0.67851108312606812</v>
+        <v>0.67951363325119019</v>
       </c>
     </row>
     <row r="390">
@@ -6702,13 +6702,13 @@
         <v>1.0786888599395752</v>
       </c>
       <c r="C390" s="2">
-        <v>0.95525056123733521</v>
+        <v>0.95540684461593628</v>
       </c>
       <c r="D390" s="2">
         <v>0.87720280885696411</v>
       </c>
       <c r="E390" s="2">
-        <v>0.79129642248153687</v>
+        <v>0.79213255643844605</v>
       </c>
     </row>
     <row r="391">
@@ -6719,13 +6719,13 @@
         <v>1.0827047824859619</v>
       </c>
       <c r="C391" s="2">
-        <v>0.87440329790115356</v>
+        <v>0.8753165602684021</v>
       </c>
       <c r="D391" s="2">
         <v>1.0366883277893067</v>
       </c>
       <c r="E391" s="2">
-        <v>0.96271979808807373</v>
+        <v>0.96378642320632935</v>
       </c>
     </row>
     <row r="392">
@@ -6736,13 +6736,13 @@
         <v>0.71243321895599365</v>
       </c>
       <c r="C392" s="2">
-        <v>0.67057222127914429</v>
+        <v>0.67317163944244385</v>
       </c>
       <c r="D392" s="2">
         <v>0.98718959093093872</v>
       </c>
       <c r="E392" s="2">
-        <v>0.91357851028442383</v>
+        <v>0.914451003074646</v>
       </c>
     </row>
     <row r="393">
@@ -6753,13 +6753,13 @@
         <v>0.76722127199172974</v>
       </c>
       <c r="C393" s="2">
-        <v>0.894203782081604</v>
+        <v>0.89340335130691528</v>
       </c>
       <c r="D393" s="2">
         <v>1.0241857767105103</v>
       </c>
       <c r="E393" s="2">
-        <v>0.96859115362167358</v>
+        <v>0.96921271085739136</v>
       </c>
     </row>
     <row r="394">
@@ -6770,13 +6770,13 @@
         <v>1.6310696601867676</v>
       </c>
       <c r="C394" s="2">
-        <v>1.6714946031570435</v>
+        <v>1.6710022687911987</v>
       </c>
       <c r="D394" s="2">
         <v>1.0190236568450928</v>
       </c>
       <c r="E394" s="2">
-        <v>0.94932854175567627</v>
+        <v>0.94939905405044556</v>
       </c>
     </row>
     <row r="395">
@@ -6787,13 +6787,13 @@
         <v>1.0825895071029663</v>
       </c>
       <c r="C395" s="2">
-        <v>1.0382527112960816</v>
+        <v>1.0401697158813477</v>
       </c>
       <c r="D395" s="2">
         <v>1.0513321161270142</v>
       </c>
       <c r="E395" s="2">
-        <v>0.99631392955780029</v>
+        <v>0.99644744396209717</v>
       </c>
     </row>
     <row r="396">
@@ -6804,13 +6804,13 @@
         <v>0.6995278000831604</v>
       </c>
       <c r="C396" s="2">
-        <v>0.66558551788330078</v>
+        <v>0.66626691818237305</v>
       </c>
       <c r="D396" s="2">
         <v>0.9437640905380249</v>
       </c>
       <c r="E396" s="2">
-        <v>0.95307254791259766</v>
+        <v>0.95293998718261719</v>
       </c>
     </row>
     <row r="397">
@@ -6821,13 +6821,13 @@
         <v>1.2918829917907715</v>
       </c>
       <c r="C397" s="2">
-        <v>1.2299882173538208</v>
+        <v>1.2294021844863892</v>
       </c>
       <c r="D397" s="2">
         <v>0.97408795356750488</v>
       </c>
       <c r="E397" s="2">
-        <v>1.0083578824996948</v>
+        <v>1.0080645084381104</v>
       </c>
     </row>
     <row r="398">
@@ -6838,13 +6838,13 @@
         <v>0.82509505748748779</v>
       </c>
       <c r="C398" s="2">
-        <v>0.54420602321624756</v>
+        <v>0.54045182466506958</v>
       </c>
       <c r="D398" s="2">
         <v>1.0112763643264771</v>
       </c>
       <c r="E398" s="2">
-        <v>1.026793122291565</v>
+        <v>1.0265759229660034</v>
       </c>
     </row>
     <row r="399">
@@ -6855,13 +6855,13 @@
         <v>1.369464635848999</v>
       </c>
       <c r="C399" s="2">
-        <v>1.3781188726425171</v>
+        <v>1.3788423538208008</v>
       </c>
       <c r="D399" s="2">
         <v>0.93453329801559448</v>
       </c>
       <c r="E399" s="2">
-        <v>0.95574557781219482</v>
+        <v>0.95554840564727783</v>
       </c>
     </row>
     <row r="400">
@@ -6872,13 +6872,13 @@
         <v>0.11459251493215561</v>
       </c>
       <c r="C400" s="2">
-        <v>0.48523092269897461</v>
+        <v>0.48374941945075989</v>
       </c>
       <c r="D400" s="2">
         <v>0.90035146474838257</v>
       </c>
       <c r="E400" s="2">
-        <v>0.91174000501632691</v>
+        <v>0.91123950481414795</v>
       </c>
     </row>
     <row r="401">
@@ -6889,13 +6889,13 @@
         <v>0.98534834384918213</v>
       </c>
       <c r="C401" s="2">
-        <v>1.1681402921676636</v>
+        <v>1.1692929267883301</v>
       </c>
       <c r="D401" s="2">
         <v>0.87912499904632568</v>
       </c>
       <c r="E401" s="2">
-        <v>0.91134566068649292</v>
+        <v>0.91086679697036743</v>
       </c>
     </row>
     <row r="402">
@@ -6906,13 +6906,13 @@
         <v>1.101917028427124</v>
       </c>
       <c r="C402" s="2">
-        <v>1.060120701789856</v>
+        <v>1.0600051879882813</v>
       </c>
       <c r="D402" s="2">
         <v>0.8555983304977417</v>
       </c>
       <c r="E402" s="2">
-        <v>0.89255183935165405</v>
+        <v>0.89231157302856445</v>
       </c>
     </row>
     <row r="403">
@@ -6923,13 +6923,13 @@
         <v>0.94038182497024536</v>
       </c>
       <c r="C403" s="2">
-        <v>1.032066822052002</v>
+        <v>1.0317549705505371</v>
       </c>
       <c r="D403" s="2">
         <v>0.84802043437957764</v>
       </c>
       <c r="E403" s="2">
-        <v>0.90207117795944214</v>
+        <v>0.90226423740386963</v>
       </c>
     </row>
     <row r="404">
@@ -6940,13 +6940,13 @@
         <v>0.77495282888412476</v>
       </c>
       <c r="C404" s="2">
-        <v>0.64220243692398071</v>
+        <v>0.64139002561569214</v>
       </c>
       <c r="D404" s="2">
         <v>0.79919761419296265</v>
       </c>
       <c r="E404" s="2">
-        <v>0.8526461124420166</v>
+        <v>0.85265535116195679</v>
       </c>
     </row>
     <row r="405">
@@ -6957,13 +6957,13 @@
         <v>0.50848954916000366</v>
       </c>
       <c r="C405" s="2">
-        <v>0.66203677654266357</v>
+        <v>0.66291207075119019</v>
       </c>
       <c r="D405" s="2">
         <v>0.85822886228561401</v>
       </c>
       <c r="E405" s="2">
-        <v>0.91548323631286621</v>
+        <v>0.91534239053726196</v>
       </c>
     </row>
     <row r="406">
@@ -6974,13 +6974,13 @@
         <v>1.0801432132720947</v>
       </c>
       <c r="C406" s="2">
-        <v>1.060843825340271</v>
+        <v>1.0624055862426758</v>
       </c>
       <c r="D406" s="2">
         <v>0.89354676008224487</v>
       </c>
       <c r="E406" s="2">
-        <v>0.90916043519973755</v>
+        <v>0.90858161449432373</v>
       </c>
     </row>
     <row r="407">
@@ -6991,13 +6991,13 @@
         <v>0.75689375400543213</v>
       </c>
       <c r="C407" s="2">
-        <v>0.62987977266311646</v>
+        <v>0.63002544641494751</v>
       </c>
       <c r="D407" s="2">
         <v>0.88906985521316528</v>
       </c>
       <c r="E407" s="2">
-        <v>0.87626028060913086</v>
+        <v>0.87579935789108276</v>
       </c>
     </row>
     <row r="408">
@@ -7008,13 +7008,13 @@
         <v>0.93005943298339844</v>
       </c>
       <c r="C408" s="2">
-        <v>0.93329346179962158</v>
+        <v>0.93236231803894043</v>
       </c>
       <c r="D408" s="2">
         <v>0.85903811454772949</v>
       </c>
       <c r="E408" s="2">
-        <v>0.81631380319595337</v>
+        <v>0.81626051664352417</v>
       </c>
     </row>
     <row r="409">
@@ -7025,13 +7025,13 @@
         <v>0.6458735466003418</v>
       </c>
       <c r="C409" s="2">
-        <v>1.0507651567459107</v>
+        <v>1.0479328632354736</v>
       </c>
       <c r="D409" s="2">
         <v>0.90191388130187988</v>
       </c>
       <c r="E409" s="2">
-        <v>0.86198395490646362</v>
+        <v>0.86224144697189331</v>
       </c>
     </row>
     <row r="410">
@@ -7042,13 +7042,13 @@
         <v>1.3032097816467285</v>
       </c>
       <c r="C410" s="2">
-        <v>1.1112349033355713</v>
+        <v>1.1084460020065308</v>
       </c>
       <c r="D410" s="2">
         <v>0.92176163196563721</v>
       </c>
       <c r="E410" s="2">
-        <v>0.8865465521812439</v>
+        <v>0.88687825202941895</v>
       </c>
     </row>
     <row r="411">
@@ -7059,13 +7059,13 @@
         <v>1.0616248846054077</v>
       </c>
       <c r="C411" s="2">
-        <v>0.76401931047439575</v>
+        <v>0.76496481895446777</v>
       </c>
       <c r="D411" s="2">
         <v>0.90702003240585327</v>
       </c>
       <c r="E411" s="2">
-        <v>0.84937006235122681</v>
+        <v>0.84974676370620728</v>
       </c>
     </row>
     <row r="412">
@@ -7076,13 +7076,13 @@
         <v>0.67009603977203369</v>
       </c>
       <c r="C412" s="2">
-        <v>0.49254864454269409</v>
+        <v>0.49590566754341126</v>
       </c>
       <c r="D412" s="2">
         <v>0.92580026388168335</v>
       </c>
       <c r="E412" s="2">
-        <v>0.87394070625305176</v>
+        <v>0.874545156955719</v>
       </c>
     </row>
     <row r="413">
@@ -7093,13 +7093,13 @@
         <v>1.1608346700668335</v>
       </c>
       <c r="C413" s="2">
-        <v>1.0532338619232178</v>
+        <v>1.0552183389663696</v>
       </c>
       <c r="D413" s="2">
         <v>0.8668673038482666</v>
       </c>
       <c r="E413" s="2">
-        <v>0.81155902147293091</v>
+        <v>0.81238579750061035</v>
       </c>
     </row>
     <row r="414">
@@ -7110,13 +7110,13 @@
         <v>0.68711954355239868</v>
       </c>
       <c r="C414" s="2">
-        <v>0.88309997320175171</v>
+        <v>0.88464337587356567</v>
       </c>
       <c r="D414" s="2">
         <v>0.86721569299697876</v>
       </c>
       <c r="E414" s="2">
-        <v>0.75743412971496582</v>
+        <v>0.75868082046508789</v>
       </c>
     </row>
     <row r="415">
@@ -7127,13 +7127,13 @@
         <v>0.94746881723403931</v>
       </c>
       <c r="C415" s="2">
-        <v>0.72625559568405151</v>
+        <v>0.7282218337059021</v>
       </c>
       <c r="D415" s="2">
         <v>0.84596908092498779</v>
       </c>
       <c r="E415" s="2">
-        <v>0.74973911046981812</v>
+        <v>0.75139683485031128</v>
       </c>
     </row>
     <row r="416">
@@ -7144,13 +7144,13 @@
         <v>0.92591571807861328</v>
       </c>
       <c r="C416" s="2">
-        <v>0.85101526975631714</v>
+        <v>0.85321104526519775</v>
       </c>
       <c r="D416" s="2">
         <v>0.79986089468002319</v>
       </c>
       <c r="E416" s="2">
-        <v>0.72904700040817261</v>
+        <v>0.73039853572845459</v>
       </c>
     </row>
     <row r="417">
@@ -7161,13 +7161,13 @@
         <v>0.39966249465942383</v>
       </c>
       <c r="C417" s="2">
-        <v>0.37185868620872498</v>
+        <v>0.37292799353599548</v>
       </c>
       <c r="D417" s="2">
         <v>0.77956610918045044</v>
       </c>
       <c r="E417" s="2">
-        <v>0.70006555318832397</v>
+        <v>0.70127511024475098</v>
       </c>
     </row>
     <row r="418">
@@ -7178,13 +7178,13 @@
         <v>0.6490093469619751</v>
       </c>
       <c r="C418" s="2">
-        <v>0.56364089250564575</v>
+        <v>0.56458836793899536</v>
       </c>
       <c r="D418" s="2">
         <v>0.81577473878860474</v>
       </c>
       <c r="E418" s="2">
-        <v>0.72258287668228149</v>
+        <v>0.72367316484451294</v>
       </c>
     </row>
     <row r="419">
@@ -7195,13 +7195,13 @@
         <v>1.1119903326034546</v>
       </c>
       <c r="C419" s="2">
-        <v>1.0419799089431763</v>
+        <v>1.042890191078186</v>
       </c>
       <c r="D419" s="2">
         <v>0.90697675943374634</v>
       </c>
       <c r="E419" s="2">
-        <v>0.78377467393875122</v>
+        <v>0.78430360555648804</v>
       </c>
     </row>
     <row r="420">
@@ -7212,13 +7212,13 @@
         <v>0.64665102958679199</v>
       </c>
       <c r="C420" s="2">
-        <v>0.57779026031494141</v>
+        <v>0.57598000764846802</v>
       </c>
       <c r="D420" s="2">
         <v>0.97265088558197021</v>
       </c>
       <c r="E420" s="2">
-        <v>0.86450612545013428</v>
+        <v>0.86488807201385498</v>
       </c>
     </row>
     <row r="421">
@@ -7229,13 +7229,13 @@
         <v>0.48744285106658936</v>
       </c>
       <c r="C421" s="2">
-        <v>0.2317156195640564</v>
+        <v>0.23379510641098022</v>
       </c>
       <c r="D421" s="2">
         <v>1.0503259897232056</v>
       </c>
       <c r="E421" s="2">
-        <v>0.94943487644195557</v>
+        <v>0.94937688112258911</v>
       </c>
     </row>
     <row r="422">
@@ -7246,13 +7246,13 @@
         <v>1.4867126941680908</v>
       </c>
       <c r="C422" s="2">
-        <v>1.255889892578125</v>
+        <v>1.2568007707595825</v>
       </c>
       <c r="D422" s="2">
         <v>1.1094783544540405</v>
       </c>
       <c r="E422" s="2">
-        <v>1.0050996541976929</v>
+        <v>1.0049904584884644</v>
       </c>
     </row>
     <row r="423">
@@ -7263,13 +7263,13 @@
         <v>1.5079374313354492</v>
       </c>
       <c r="C423" s="2">
-        <v>1.4338257312774658</v>
+        <v>1.4303171634674072</v>
       </c>
       <c r="D423" s="2">
         <v>1.2141076326370239</v>
       </c>
       <c r="E423" s="2">
-        <v>1.098095178604126</v>
+        <v>1.0980749130249024</v>
       </c>
     </row>
     <row r="424">
@@ -7280,13 +7280,13 @@
         <v>1.5385360717773438</v>
       </c>
       <c r="C424" s="2">
-        <v>1.4528391361236572</v>
+        <v>1.4534822702407837</v>
       </c>
       <c r="D424" s="2">
         <v>1.2800841331481934</v>
       </c>
       <c r="E424" s="2">
-        <v>1.1555972099304199</v>
+        <v>1.155306339263916</v>
       </c>
     </row>
     <row r="425">
@@ -7297,13 +7297,13 @@
         <v>1.6249912977218628</v>
       </c>
       <c r="C425" s="2">
-        <v>1.6153738498687744</v>
+        <v>1.6136099100112915</v>
       </c>
       <c r="D425" s="2">
         <v>1.4140897989273071</v>
       </c>
       <c r="E425" s="2">
-        <v>1.2909256219863892</v>
+        <v>1.2907233238220215</v>
       </c>
     </row>
     <row r="426">
@@ -7314,13 +7314,13 @@
         <v>0.93203449249267578</v>
       </c>
       <c r="C426" s="2">
-        <v>0.87284171581268311</v>
+        <v>0.87345021963119507</v>
       </c>
       <c r="D426" s="2">
         <v>1.5190967321395874</v>
       </c>
       <c r="E426" s="2">
-        <v>1.4122549295425415</v>
+        <v>1.4116917848587036</v>
       </c>
     </row>
     <row r="427">
@@ -7331,13 +7331,13 @@
         <v>1.5906722545623779</v>
       </c>
       <c r="C427" s="2">
-        <v>1.400600790977478</v>
+        <v>1.4023491144180298</v>
       </c>
       <c r="D427" s="2">
         <v>1.4140794277191162</v>
       </c>
       <c r="E427" s="2">
-        <v>1.2935324907302856</v>
+        <v>1.2931139469146729</v>
       </c>
     </row>
     <row r="428">
@@ -7348,13 +7348,13 @@
         <v>1.7057793140411377</v>
       </c>
       <c r="C428" s="2">
-        <v>1.5594974756240845</v>
+        <v>1.5579720735549927</v>
       </c>
       <c r="D428" s="2">
         <v>1.3148138523101807</v>
       </c>
       <c r="E428" s="2">
-        <v>1.1790324449539185</v>
+        <v>1.1790072917938232</v>
       </c>
     </row>
     <row r="429">
@@ -7365,13 +7365,13 @@
         <v>1.852702260017395</v>
       </c>
       <c r="C429" s="2">
-        <v>1.7957460880279541</v>
+        <v>1.7947337627410889</v>
       </c>
       <c r="D429" s="2">
         <v>1.3418480157852173</v>
       </c>
       <c r="E429" s="2">
-        <v>1.1970226764678955</v>
+        <v>1.196924090385437</v>
       </c>
     </row>
     <row r="430">
@@ -7382,13 +7382,13 @@
         <v>1.4325052499771118</v>
       </c>
       <c r="C430" s="2">
-        <v>1.32368004322052</v>
+        <v>1.3225110769271851</v>
       </c>
       <c r="D430" s="2">
         <v>1.3412728309631348</v>
       </c>
       <c r="E430" s="2">
-        <v>1.1834421157836914</v>
+        <v>1.183430552482605</v>
       </c>
     </row>
     <row r="431">
@@ -7399,13 +7399,13 @@
         <v>0.54155635833740234</v>
       </c>
       <c r="C431" s="2">
-        <v>0.18738777935504913</v>
+        <v>0.18960009515285492</v>
       </c>
       <c r="D431" s="2">
         <v>1.3974676132202149</v>
       </c>
       <c r="E431" s="2">
-        <v>1.2562353610992432</v>
+        <v>1.256462574005127</v>
       </c>
     </row>
     <row r="432">
@@ -7416,13 +7416,13 @@
         <v>0.61454790830612183</v>
       </c>
       <c r="C432" s="2">
-        <v>0.40332490205764771</v>
+        <v>0.40335670113563538</v>
       </c>
       <c r="D432" s="2">
         <v>1.376063346862793</v>
       </c>
       <c r="E432" s="2">
-        <v>1.2452400922775269</v>
+        <v>1.2450035810470581</v>
       </c>
     </row>
     <row r="433">
@@ -7433,13 +7433,13 @@
         <v>1.7818427085876465</v>
       </c>
       <c r="C433" s="2">
-        <v>1.6147514581680298</v>
+        <v>1.6147339344024658</v>
       </c>
       <c r="D433" s="2">
         <v>1.3577823638916016</v>
       </c>
       <c r="E433" s="2">
-        <v>1.2410514354705811</v>
+        <v>1.2408829927444458</v>
       </c>
     </row>
     <row r="434">
@@ -7450,13 +7450,13 @@
         <v>1.6198147535324097</v>
       </c>
       <c r="C434" s="2">
-        <v>1.4931490421295166</v>
+        <v>1.4921677112579346</v>
       </c>
       <c r="D434" s="2">
         <v>1.3073022365570068</v>
       </c>
       <c r="E434" s="2">
-        <v>1.1885038614273071</v>
+        <v>1.1885385513305664</v>
       </c>
     </row>
     <row r="435">
@@ -7467,13 +7467,13 @@
         <v>1.4377872943878174</v>
       </c>
       <c r="C435" s="2">
-        <v>1.5279805660247803</v>
+        <v>1.5307384729385376</v>
       </c>
       <c r="D435" s="2">
         <v>1.2218259572982788</v>
       </c>
       <c r="E435" s="2">
-        <v>1.0790719985961914</v>
+        <v>1.0791810750961304</v>
       </c>
     </row>
     <row r="436">
@@ -7484,13 +7484,13 @@
         <v>1.3980338573455811</v>
       </c>
       <c r="C436" s="2">
-        <v>1.3016437292098999</v>
+        <v>1.2992186546325684</v>
       </c>
       <c r="D436" s="2">
         <v>1.3016650676727295</v>
       </c>
       <c r="E436" s="2">
-        <v>1.1915490627288818</v>
+        <v>1.1914983987808228</v>
       </c>
     </row>
     <row r="437">
@@ -7501,13 +7501,13 @@
         <v>1.5412513017654419</v>
       </c>
       <c r="C437" s="2">
-        <v>1.521798849105835</v>
+        <v>1.5208861827850342</v>
       </c>
       <c r="D437" s="2">
         <v>1.3165289163589478</v>
       </c>
       <c r="E437" s="2">
-        <v>1.2212929725646973</v>
+        <v>1.2208439111709595</v>
       </c>
     </row>
     <row r="438">
@@ -7518,13 +7518,13 @@
         <v>1.3983807563781738</v>
       </c>
       <c r="C438" s="2">
-        <v>1.3228186368942261</v>
+        <v>1.323634147644043</v>
       </c>
       <c r="D438" s="2">
         <v>1.2534675598144531</v>
       </c>
       <c r="E438" s="2">
-        <v>1.1313756704330444</v>
+        <v>1.1308925151824951</v>
       </c>
     </row>
     <row r="439">
@@ -7535,13 +7535,13 @@
         <v>0.66321885585784912</v>
       </c>
       <c r="C439" s="2">
-        <v>0.3387933075428009</v>
+        <v>0.33829411864280701</v>
       </c>
       <c r="D439" s="2">
         <v>1.1250491142272949</v>
       </c>
       <c r="E439" s="2">
-        <v>0.9943389892578125</v>
+        <v>0.99384033679962158</v>
       </c>
     </row>
     <row r="440">
@@ -7552,13 +7552,13 @@
         <v>1.2601083517074585</v>
       </c>
       <c r="C440" s="2">
-        <v>1.1996805667877197</v>
+        <v>1.2004555463790894</v>
       </c>
       <c r="D440" s="2">
         <v>1.0078127384185791</v>
       </c>
       <c r="E440" s="2">
-        <v>0.80114144086837769</v>
+        <v>0.80033218860626221</v>
       </c>
     </row>
     <row r="441">
@@ -7569,13 +7569,13 @@
         <v>0.74832195043563843</v>
       </c>
       <c r="C441" s="2">
-        <v>0.67102009057998657</v>
+        <v>0.66746675968170166</v>
       </c>
       <c r="D441" s="2">
         <v>0.87404412031173706</v>
       </c>
       <c r="E441" s="2">
-        <v>0.63235515356063843</v>
+        <v>0.63189470767974854</v>
       </c>
     </row>
     <row r="442">
@@ -7586,13 +7586,13 @@
         <v>1.2142910957336426</v>
       </c>
       <c r="C442" s="2">
-        <v>0.80549627542495728</v>
+        <v>0.80517148971557617</v>
       </c>
       <c r="D442" s="2">
         <v>0.75587773323059082</v>
       </c>
       <c r="E442" s="2">
-        <v>0.49839362502098084</v>
+        <v>0.49815309047698975</v>
       </c>
     </row>
     <row r="443">
@@ -7603,13 +7603,13 @@
         <v>0.46404901146888733</v>
       </c>
       <c r="C443" s="2">
-        <v>0.25981897115707398</v>
+        <v>0.25869759917259216</v>
       </c>
       <c r="D443" s="2">
         <v>0.62694966793060303</v>
       </c>
       <c r="E443" s="2">
-        <v>0.34730657935142517</v>
+        <v>0.34698325395584107</v>
       </c>
     </row>
     <row r="444">
@@ -7620,13 +7620,13 @@
         <v>0.38265931606292725</v>
       </c>
       <c r="C444" s="2">
-        <v>-0.21079757809638977</v>
+        <v>-0.21083490550518036</v>
       </c>
       <c r="D444" s="2">
         <v>0.64612221717834473</v>
       </c>
       <c r="E444" s="2">
-        <v>0.37535887956619263</v>
+        <v>0.37518393993377686</v>
       </c>
     </row>
     <row r="445">
@@ -7637,13 +7637,13 @@
         <v>0.19411665201187134</v>
       </c>
       <c r="C445" s="2">
-        <v>-0.21743291616439819</v>
+        <v>-0.21671850979328156</v>
       </c>
       <c r="D445" s="2">
         <v>0.68885123729705811</v>
       </c>
       <c r="E445" s="2">
-        <v>0.41035687923431397</v>
+        <v>0.40996578335762024</v>
       </c>
     </row>
     <row r="446">
@@ -7654,13 +7654,13 @@
         <v>0.47775378823280334</v>
       </c>
       <c r="C446" s="2">
-        <v>0.31614524126052857</v>
+        <v>0.31721168756484985</v>
       </c>
       <c r="D446" s="2">
         <v>0.76461941003799438</v>
       </c>
       <c r="E446" s="2">
-        <v>0.49037626385688782</v>
+        <v>0.48997551202774048</v>
       </c>
     </row>
     <row r="447">
@@ -7671,13 +7671,13 @@
         <v>0.23802781105041504</v>
       </c>
       <c r="C447" s="2">
-        <v>-0.036964729428291321</v>
+        <v>-0.036894522607326508</v>
       </c>
       <c r="D447" s="2">
         <v>0.80404645204544067</v>
       </c>
       <c r="E447" s="2">
-        <v>0.56561625003814697</v>
+        <v>0.56525927782058716</v>
       </c>
     </row>
     <row r="448">
@@ -7688,13 +7688,13 @@
         <v>0.83577215671539307</v>
       </c>
       <c r="C448" s="2">
-        <v>0.59126406908035278</v>
+        <v>0.59210038185119629</v>
       </c>
       <c r="D448" s="2">
         <v>0.89525926113128662</v>
       </c>
       <c r="E448" s="2">
-        <v>0.65204191207885742</v>
+        <v>0.65180939435958862</v>
       </c>
     </row>
     <row r="449">
@@ -7705,13 +7705,13 @@
         <v>1.6446695327758789</v>
       </c>
       <c r="C449" s="2">
-        <v>1.5146623849868774</v>
+        <v>1.5134919881820679</v>
       </c>
       <c r="D449" s="2">
         <v>1.0777924060821533</v>
       </c>
       <c r="E449" s="2">
-        <v>0.88800919055938721</v>
+        <v>0.887562096118927</v>
       </c>
     </row>
     <row r="450">
@@ -7722,13 +7722,13 @@
         <v>1.4302351474761963</v>
       </c>
       <c r="C450" s="2">
-        <v>1.3911947011947632</v>
+        <v>1.3875545263290405</v>
       </c>
       <c r="D450" s="2">
         <v>1.1732653379440308</v>
       </c>
       <c r="E450" s="2">
-        <v>1.0158278942108154</v>
+        <v>1.0152014493942261</v>
       </c>
     </row>
     <row r="451">
@@ -7739,13 +7739,13 @@
         <v>1.5691344738006592</v>
       </c>
       <c r="C451" s="2">
-        <v>1.4826562404632568</v>
+        <v>1.4827255010604858</v>
       </c>
       <c r="D451" s="2">
         <v>1.1963180303573608</v>
       </c>
       <c r="E451" s="2">
-        <v>1.0459580421447754</v>
+        <v>1.0449906587600708</v>
       </c>
     </row>
     <row r="452">
@@ -7756,13 +7756,13 @@
         <v>1.2849646806716919</v>
       </c>
       <c r="C452" s="2">
-        <v>1.0376496315002442</v>
+        <v>1.0376483201980591</v>
       </c>
       <c r="D452" s="2">
         <v>1.3056085109710693</v>
       </c>
       <c r="E452" s="2">
-        <v>1.1660302877426147</v>
+        <v>1.1653563976287842</v>
       </c>
     </row>
     <row r="453">
@@ -7773,13 +7773,13 @@
         <v>2.0254571437835693</v>
       </c>
       <c r="C453" s="2">
-        <v>1.9129078388214111</v>
+        <v>1.9109393358230591</v>
       </c>
       <c r="D453" s="2">
         <v>1.2520724534988403</v>
       </c>
       <c r="E453" s="2">
-        <v>1.1175423860549927</v>
+        <v>1.1172900199890137</v>
       </c>
     </row>
     <row r="454">
@@ -7790,13 +7790,13 @@
         <v>1.0533736944198608</v>
       </c>
       <c r="C454" s="2">
-        <v>0.93293583393096924</v>
+        <v>0.93203562498092651</v>
       </c>
       <c r="D454" s="2">
         <v>1.1558821201324463</v>
       </c>
       <c r="E454" s="2">
-        <v>1.0336520671844483</v>
+        <v>1.0333349704742432</v>
       </c>
     </row>
     <row r="455">
@@ -7807,13 +7807,13 @@
         <v>0.68522787094116211</v>
       </c>
       <c r="C455" s="2">
-        <v>0.58731633424758911</v>
+        <v>0.58531463146209717</v>
       </c>
       <c r="D455" s="2">
         <v>1.0856019258499146</v>
       </c>
       <c r="E455" s="2">
-        <v>0.94162249565124512</v>
+        <v>0.9415401816368103</v>
       </c>
     </row>
     <row r="456">
@@ -7824,13 +7824,13 @@
         <v>1.221642017364502</v>
       </c>
       <c r="C456" s="2">
-        <v>1.0436851978302002</v>
+        <v>1.0463970899581909</v>
       </c>
       <c r="D456" s="2">
         <v>1.0407259464263916</v>
       </c>
       <c r="E456" s="2">
-        <v>0.88785570859909058</v>
+        <v>0.88793402910232544</v>
       </c>
     </row>
     <row r="457">
@@ -7841,13 +7841,13 @@
         <v>0.35394710302352905</v>
       </c>
       <c r="C457" s="2">
-        <v>0.15487337112426758</v>
+        <v>0.1595030426979065</v>
       </c>
       <c r="D457" s="2">
         <v>1.0347837209701538</v>
       </c>
       <c r="E457" s="2">
-        <v>0.88380759954452515</v>
+        <v>0.88391005992889404</v>
       </c>
     </row>
     <row r="458">
@@ -7858,13 +7858,13 @@
         <v>0.77895659208297729</v>
       </c>
       <c r="C458" s="2">
-        <v>0.75964945554733276</v>
+        <v>0.75789707899093628</v>
       </c>
       <c r="D458" s="2">
         <v>1.0140653848648071</v>
       </c>
       <c r="E458" s="2">
-        <v>0.86890298128128052</v>
+        <v>0.86934483051300049</v>
       </c>
     </row>
     <row r="459">
@@ -7875,13 +7875,13 @@
         <v>0.79771333932876587</v>
       </c>
       <c r="C459" s="2">
-        <v>0.56292873620986938</v>
+        <v>0.56140118837356567</v>
       </c>
       <c r="D459" s="2">
         <v>1.0479123592376709</v>
       </c>
       <c r="E459" s="2">
-        <v>0.89531779289245606</v>
+        <v>0.89566117525100708</v>
       </c>
     </row>
     <row r="460">
@@ -7892,13 +7892,13 @@
         <v>1.1652513742446899</v>
       </c>
       <c r="C460" s="2">
-        <v>0.99875503778457642</v>
+        <v>1.0002697706222534</v>
       </c>
       <c r="D460" s="2">
         <v>1.0122791528701782</v>
       </c>
       <c r="E460" s="2">
-        <v>0.86909735202789307</v>
+        <v>0.8697548508644104</v>
       </c>
     </row>
     <row r="461">
@@ -7909,13 +7909,13 @@
         <v>1.231484055519104</v>
       </c>
       <c r="C461" s="2">
-        <v>1.0012166500091553</v>
+        <v>1.0014327764511108</v>
       </c>
       <c r="D461" s="2">
         <v>1.0125010013580322</v>
       </c>
       <c r="E461" s="2">
-        <v>0.86156880855560303</v>
+        <v>0.86183041334152222</v>
       </c>
     </row>
     <row r="462">
@@ -7926,13 +7926,13 @@
         <v>1.838992714881897</v>
       </c>
       <c r="C462" s="2">
-        <v>1.7787661552429199</v>
+        <v>1.7798521518707275</v>
       </c>
       <c r="D462" s="2">
         <v>1.0631570816040039</v>
       </c>
       <c r="E462" s="2">
-        <v>0.94897830486297608</v>
+        <v>0.9488946795463562</v>
       </c>
     </row>
     <row r="463">
@@ -7943,13 +7943,13 @@
         <v>1.3579961061477661</v>
       </c>
       <c r="C463" s="2">
-        <v>1.1706689596176147</v>
+        <v>1.1688827276229858</v>
       </c>
       <c r="D463" s="2">
         <v>1.1241216659545899</v>
       </c>
       <c r="E463" s="2">
-        <v>1.000713586807251</v>
+        <v>1.0007166862487793</v>
       </c>
     </row>
     <row r="464">
@@ -7960,13 +7960,13 @@
         <v>0.36452889442443848</v>
       </c>
       <c r="C464" s="2">
-        <v>0.35133251547813416</v>
+        <v>0.35215801000595093</v>
       </c>
       <c r="D464" s="2">
         <v>1.168189287185669</v>
       </c>
       <c r="E464" s="2">
-        <v>1.0615048408508301</v>
+        <v>1.0614016056060791</v>
       </c>
     </row>
     <row r="465">
@@ -7977,13 +7977,13 @@
         <v>1.2236387729644775</v>
       </c>
       <c r="C465" s="2">
-        <v>0.97592842578887939</v>
+        <v>0.97507715225219727</v>
       </c>
       <c r="D465" s="2">
         <v>1.1613845825195313</v>
       </c>
       <c r="E465" s="2">
-        <v>1.0456713438034058</v>
+        <v>1.0457818508148193</v>
       </c>
     </row>
     <row r="466">
@@ -7994,13 +7994,13 @@
         <v>0.8098522424697876</v>
       </c>
       <c r="C466" s="2">
-        <v>0.9415585994720459</v>
+        <v>0.94308102130889893</v>
       </c>
       <c r="D466" s="2">
         <v>1.1409300565719605</v>
       </c>
       <c r="E466" s="2">
-        <v>1.0244663953781128</v>
+        <v>1.0247969627380371</v>
       </c>
     </row>
     <row r="467">
@@ -8011,13 +8011,13 @@
         <v>1.3276380300521851</v>
       </c>
       <c r="C467" s="2">
-        <v>1.225266695022583</v>
+        <v>1.2242956161499024</v>
       </c>
       <c r="D467" s="2">
         <v>1.0339982509613037</v>
       </c>
       <c r="E467" s="2">
-        <v>0.89746743440628052</v>
+        <v>0.89774566888809204</v>
       </c>
     </row>
     <row r="468">
@@ -8028,13 +8028,13 @@
         <v>1.1943215131759644</v>
       </c>
       <c r="C468" s="2">
-        <v>1.1100509166717529</v>
+        <v>1.1075657606124878</v>
       </c>
       <c r="D468" s="2">
         <v>1.0126972198486328</v>
       </c>
       <c r="E468" s="2">
-        <v>0.87950265407562256</v>
+        <v>0.87989187240600586</v>
       </c>
     </row>
     <row r="469">
@@ -8045,13 +8045,13 @@
         <v>1.104008674621582</v>
       </c>
       <c r="C469" s="2">
-        <v>0.85625272989273071</v>
+        <v>0.85969114303588867</v>
       </c>
       <c r="D469" s="2">
         <v>1.0297791957855225</v>
       </c>
       <c r="E469" s="2">
-        <v>0.86658179759979248</v>
+        <v>0.8670615553855896</v>
       </c>
     </row>
     <row r="470">
@@ -8062,13 +8062,13 @@
         <v>1.0473933219909668</v>
       </c>
       <c r="C470" s="2">
-        <v>0.81037306785583496</v>
+        <v>0.8125690221786499</v>
       </c>
       <c r="D470" s="2">
         <v>0.975303053855896</v>
       </c>
       <c r="E470" s="2">
-        <v>0.815543532371521</v>
+        <v>0.81598913669586182</v>
       </c>
     </row>
     <row r="471">
@@ -8079,13 +8079,13 @@
         <v>0.87660664319992065</v>
       </c>
       <c r="C471" s="2">
-        <v>0.63577520847320557</v>
+        <v>0.63639068603515625</v>
       </c>
       <c r="D471" s="2">
         <v>0.99800574779510498</v>
       </c>
       <c r="E471" s="2">
-        <v>0.80560636520385742</v>
+        <v>0.80590975284576416</v>
       </c>
     </row>
     <row r="472">
@@ -8096,13 +8096,13 @@
         <v>1.1662865877151489</v>
       </c>
       <c r="C472" s="2">
-        <v>1.0089857578277588</v>
+        <v>1.0081984996795654</v>
       </c>
       <c r="D472" s="2">
         <v>0.98124015331268311</v>
       </c>
       <c r="E472" s="2">
-        <v>0.77166396379470825</v>
+        <v>0.77238917350769043</v>
       </c>
     </row>
     <row r="473">
@@ -8113,13 +8113,13 @@
         <v>0.51826679706573486</v>
       </c>
       <c r="C473" s="2">
-        <v>0.23504465818405151</v>
+        <v>0.23668533563613892</v>
       </c>
       <c r="D473" s="2">
         <v>0.97130143642425537</v>
       </c>
       <c r="E473" s="2">
-        <v>0.75035911798477173</v>
+        <v>0.75145214796066284</v>
       </c>
     </row>
     <row r="474">
@@ -8130,13 +8130,13 @@
         <v>0.73335343599319458</v>
       </c>
       <c r="C474" s="2">
-        <v>0.51658409833908081</v>
+        <v>0.51542538404464722</v>
       </c>
       <c r="D474" s="2">
         <v>0.97921824455261231</v>
       </c>
       <c r="E474" s="2">
-        <v>0.77327460050582886</v>
+        <v>0.77366816997528076</v>
       </c>
     </row>
     <row r="475">
@@ -8147,13 +8147,13 @@
         <v>1.0141769647598267</v>
       </c>
       <c r="C475" s="2">
-        <v>0.85212421417236328</v>
+        <v>0.85236650705337524</v>
       </c>
       <c r="D475" s="2">
         <v>1.0700467824935913</v>
       </c>
       <c r="E475" s="2">
-        <v>0.89378201961517334</v>
+        <v>0.89389246702194214</v>
       </c>
     </row>
     <row r="476">
@@ -8164,13 +8164,13 @@
         <v>1.1767474412918091</v>
       </c>
       <c r="C476" s="2">
-        <v>0.91978520154953003</v>
+        <v>0.92261040210723877</v>
       </c>
       <c r="D476" s="2">
         <v>1.0216326713562012</v>
       </c>
       <c r="E476" s="2">
-        <v>0.89993524551391602</v>
+        <v>0.90010601282119751</v>
       </c>
     </row>
     <row r="477">
@@ -8181,13 +8181,13 @@
         <v>1.1048728227615357</v>
       </c>
       <c r="C477" s="2">
-        <v>0.91830718517303467</v>
+        <v>0.91913211345672607</v>
       </c>
       <c r="D477" s="2">
         <v>1.0093672275543213</v>
       </c>
       <c r="E477" s="2">
-        <v>0.88472390174865723</v>
+        <v>0.88501596450805664</v>
       </c>
     </row>
     <row r="478">
@@ -8198,13 +8198,13 @@
         <v>1.1752603054046631</v>
       </c>
       <c r="C478" s="2">
-        <v>1.0624920129776001</v>
+        <v>1.0596354007720947</v>
       </c>
       <c r="D478" s="2">
         <v>1.0176829099655151</v>
       </c>
       <c r="E478" s="2">
-        <v>0.90974223613739014</v>
+        <v>0.91002106666564941</v>
       </c>
     </row>
     <row r="479">
@@ -8215,13 +8215,13 @@
         <v>1.8648504018783569</v>
       </c>
       <c r="C479" s="2">
-        <v>1.8949398994445801</v>
+        <v>1.8945879936218262</v>
       </c>
       <c r="D479" s="2">
         <v>1.0515755414962769</v>
       </c>
       <c r="E479" s="2">
-        <v>0.950813889503479</v>
+        <v>0.95125949382781982</v>
       </c>
     </row>
     <row r="480">
@@ -8232,13 +8232,13 @@
         <v>0.44087919592857361</v>
       </c>
       <c r="C480" s="2">
-        <v>0.69115406274795532</v>
+        <v>0.69231241941452026</v>
       </c>
       <c r="D480" s="2">
         <v>1.0868396759033203</v>
       </c>
       <c r="E480" s="2">
-        <v>0.99250668287277222</v>
+        <v>0.99301719665527344</v>
       </c>
     </row>
     <row r="481">
@@ -8249,13 +8249,13 @@
         <v>1.05589759349823</v>
       </c>
       <c r="C481" s="2">
-        <v>0.87208384275436401</v>
+        <v>0.87238788604736328</v>
       </c>
       <c r="D481" s="2">
         <v>1.1454439163208008</v>
       </c>
       <c r="E481" s="2">
-        <v>1.0749626159667969</v>
+        <v>1.0751395225524902</v>
       </c>
     </row>
     <row r="482">
@@ -8266,13 +8266,13 @@
         <v>0.59310775995254517</v>
       </c>
       <c r="C482" s="2">
-        <v>0.46020945906639099</v>
+        <v>0.46173152327537537</v>
       </c>
       <c r="D482" s="2">
         <v>1.1310354471206665</v>
       </c>
       <c r="E482" s="2">
-        <v>1.0556604862213135</v>
+        <v>1.0552786588668823</v>
       </c>
     </row>
     <row r="483">
@@ -8283,13 +8283,13 @@
         <v>1.0383869409561157</v>
       </c>
       <c r="C483" s="2">
-        <v>0.88622927665710449</v>
+        <v>0.88657140731811523</v>
       </c>
       <c r="D483" s="2">
         <v>1.1722795963287354</v>
       </c>
       <c r="E483" s="2">
-        <v>1.1034764051437378</v>
+        <v>1.1034929752349854</v>
       </c>
     </row>
     <row r="484">
@@ -8300,13 +8300,13 @@
         <v>1.3315544128417969</v>
       </c>
       <c r="C484" s="2">
-        <v>1.2273591756820679</v>
+        <v>1.2281856536865234</v>
       </c>
       <c r="D484" s="2">
         <v>1.1035730838775635</v>
       </c>
       <c r="E484" s="2">
-        <v>1.0146181583404541</v>
+        <v>1.014646053314209</v>
       </c>
     </row>
     <row r="485">
@@ -8317,13 +8317,13 @@
         <v>1.7041863203048706</v>
       </c>
       <c r="C485" s="2">
-        <v>1.6618882417678833</v>
+        <v>1.6617114543914795</v>
       </c>
       <c r="D485" s="2">
         <v>1.1735711097717285</v>
       </c>
       <c r="E485" s="2">
-        <v>1.0448328256607056</v>
+        <v>1.0448902845382691</v>
       </c>
     </row>
     <row r="486">
@@ -8334,13 +8334,13 @@
         <v>0.97519654035568237</v>
       </c>
       <c r="C486" s="2">
-        <v>0.74458861351013184</v>
+        <v>0.74038368463516235</v>
       </c>
       <c r="D486" s="2">
         <v>1.1903656721115112</v>
       </c>
       <c r="E486" s="2">
-        <v>1.0861971378326416</v>
+        <v>1.0864564180374146</v>
       </c>
     </row>
     <row r="487">
@@ -8351,13 +8351,13 @@
         <v>1.546457052230835</v>
       </c>
       <c r="C487" s="2">
-        <v>1.4928352832794189</v>
+        <v>1.4935652017593384</v>
       </c>
       <c r="D487" s="2">
         <v>1.2068754434585571</v>
       </c>
       <c r="E487" s="2">
-        <v>1.1069575548171997</v>
+        <v>1.106773853302002</v>
       </c>
     </row>
     <row r="488">
@@ -8368,13 +8368,13 @@
         <v>1.2464917898178101</v>
       </c>
       <c r="C488" s="2">
-        <v>1.0952157974243164</v>
+        <v>1.094964861869812</v>
       </c>
       <c r="D488" s="2">
         <v>1.1788644790649414</v>
       </c>
       <c r="E488" s="2">
-        <v>1.0713036060333252</v>
+        <v>1.0710618495941162</v>
       </c>
     </row>
     <row r="489">
@@ -8385,13 +8385,13 @@
         <v>1.0708612203598022</v>
       </c>
       <c r="C489" s="2">
-        <v>0.96308553218841553</v>
+        <v>0.96451115608215332</v>
       </c>
       <c r="D489" s="2">
         <v>1.1748254299163818</v>
       </c>
       <c r="E489" s="2">
-        <v>1.0413066148757935</v>
+        <v>1.0410568714141846</v>
       </c>
     </row>
     <row r="490">
@@ -8402,13 +8402,13 @@
         <v>1.2070494890213013</v>
       </c>
       <c r="C490" s="2">
-        <v>1.2443631887435913</v>
+        <v>1.2464830875396729</v>
       </c>
       <c r="D490" s="2">
         <v>1.0085428953170776</v>
       </c>
       <c r="E490" s="2">
-        <v>0.85023057460784912</v>
+        <v>0.84988176822662354</v>
       </c>
     </row>
     <row r="491">
@@ -8419,13 +8419,13 @@
         <v>0.7416948676109314</v>
       </c>
       <c r="C491" s="2">
-        <v>0.64705336093902588</v>
+        <v>0.64458769559860229</v>
       </c>
       <c r="D491" s="2">
         <v>1.0699325799942017</v>
       </c>
       <c r="E491" s="2">
-        <v>0.90945076942443848</v>
+        <v>0.90961366891860962</v>
       </c>
     </row>
     <row r="492">
@@ -8436,13 +8436,13 @@
         <v>0.78628808259963989</v>
       </c>
       <c r="C492" s="2">
-        <v>0.56534367799758911</v>
+        <v>0.56516361236572266</v>
       </c>
       <c r="D492" s="2">
         <v>1.0181125402450562</v>
       </c>
       <c r="E492" s="2">
-        <v>0.83236098289489746</v>
+        <v>0.83277767896652222</v>
       </c>
     </row>
     <row r="493">
@@ -8453,13 +8453,13 @@
         <v>1.2952035665512085</v>
       </c>
       <c r="C493" s="2">
-        <v>0.95738589763641357</v>
+        <v>0.95814096927642822</v>
       </c>
       <c r="D493" s="2">
         <v>1.0395561456680298</v>
       </c>
       <c r="E493" s="2">
-        <v>0.84977596998214722</v>
+        <v>0.85035520792007446</v>
       </c>
     </row>
     <row r="494">
@@ -8470,13 +8470,13 @@
         <v>0.20764395594596863</v>
       </c>
       <c r="C494" s="2">
-        <v>-0.057796303182840347</v>
+        <v>-0.058864191174507141</v>
       </c>
       <c r="D494" s="2">
         <v>1.0876883268356323</v>
       </c>
       <c r="E494" s="2">
-        <v>0.90726727247238159</v>
+        <v>0.90775734186172485</v>
       </c>
     </row>
     <row r="495">
@@ -8487,13 +8487,13 @@
         <v>1.5277031660079956</v>
       </c>
       <c r="C495" s="2">
-        <v>1.2775707244873047</v>
+        <v>1.2779707908630371</v>
       </c>
       <c r="D495" s="2">
         <v>1.1220766305923462</v>
       </c>
       <c r="E495" s="2">
-        <v>0.93578547239303589</v>
+        <v>0.93583464622497559</v>
       </c>
     </row>
     <row r="496">
@@ -8504,13 +8504,13 @@
         <v>1.0800763368606567</v>
       </c>
       <c r="C496" s="2">
-        <v>0.79902678728103638</v>
+        <v>0.80204111337661743</v>
       </c>
       <c r="D496" s="2">
         <v>1.1469177007675171</v>
       </c>
       <c r="E496" s="2">
-        <v>0.96324056386947632</v>
+        <v>0.96349215507507324</v>
       </c>
     </row>
     <row r="497">
@@ -8521,13 +8521,13 @@
         <v>1.4394849538803101</v>
       </c>
       <c r="C497" s="2">
-        <v>1.2519510984420776</v>
+        <v>1.2531626224517822</v>
       </c>
       <c r="D497" s="2">
         <v>1.1727150678634644</v>
       </c>
       <c r="E497" s="2">
-        <v>0.99313569068908692</v>
+        <v>0.99358439445495605</v>
       </c>
     </row>
     <row r="498">
@@ -8538,13 +8538,13 @@
         <v>1.5040500164031983</v>
       </c>
       <c r="C498" s="2">
-        <v>1.4805067777633667</v>
+        <v>1.4811303615570068</v>
       </c>
       <c r="D498" s="2">
         <v>1.1690343618392944</v>
       </c>
       <c r="E498" s="2">
-        <v>1.0283373594284058</v>
+        <v>1.0286595821380615</v>
       </c>
     </row>
     <row r="499">
@@ -8555,13 +8555,13 @@
         <v>1.5165451765060425</v>
       </c>
       <c r="C499" s="2">
-        <v>1.5010273456573486</v>
+        <v>1.4991787672042847</v>
       </c>
       <c r="D499" s="2">
         <v>1.3005632162094116</v>
       </c>
       <c r="E499" s="2">
-        <v>1.1771460771560669</v>
+        <v>1.1776844263076782</v>
       </c>
     </row>
     <row r="500">
@@ -8572,13 +8572,13 @@
         <v>0.96526437997817993</v>
       </c>
       <c r="C500" s="2">
-        <v>0.8941493034362793</v>
+        <v>0.89350545406341553</v>
       </c>
       <c r="D500" s="2">
         <v>1.2293789386749268</v>
       </c>
       <c r="E500" s="2">
-        <v>1.1830207109451294</v>
+        <v>1.1834299564361572</v>
       </c>
     </row>
     <row r="501">
@@ -8589,13 +8589,13 @@
         <v>1.0184637308120728</v>
       </c>
       <c r="C501" s="2">
-        <v>0.83439940214157105</v>
+        <v>0.83599364757537842</v>
       </c>
       <c r="D501" s="2">
         <v>1.2130026817321777</v>
       </c>
       <c r="E501" s="2">
-        <v>1.1867828369140625</v>
+        <v>1.1868890523910523</v>
       </c>
     </row>
     <row r="502">
@@ -8606,13 +8606,13 @@
         <v>1.2620773315429688</v>
       </c>
       <c r="C502" s="2">
-        <v>1.2742012739181519</v>
+        <v>1.2738176584243774</v>
       </c>
       <c r="D502" s="2">
         <v>1.1806960105895996</v>
       </c>
       <c r="E502" s="2">
-        <v>1.1833164691925049</v>
+        <v>1.1837047338485718</v>
       </c>
     </row>
     <row r="503">
@@ -8623,13 +8623,13 @@
         <v>1.3914036750793457</v>
       </c>
       <c r="C503" s="2">
-        <v>1.2814822196960449</v>
+        <v>1.28235924243927</v>
       </c>
       <c r="D503" s="2">
         <v>1.1312421560287476</v>
       </c>
       <c r="E503" s="2">
-        <v>1.1185537576675415</v>
+        <v>1.1187136173248291</v>
       </c>
     </row>
     <row r="504">
@@ -8640,13 +8640,13 @@
         <v>0.88704478740692139</v>
       </c>
       <c r="C504" s="2">
-        <v>1.3304426670074463</v>
+        <v>1.3296805620193482</v>
       </c>
       <c r="D504" s="2">
         <v>1.0319074392318726</v>
       </c>
       <c r="E504" s="2">
-        <v>1.0047473907470703</v>
+        <v>1.0047669410705566</v>
       </c>
     </row>
     <row r="505">
@@ -8657,13 +8657,13 @@
         <v>0.93268966674804688</v>
       </c>
       <c r="C505" s="2">
-        <v>0.83288562297821045</v>
+        <v>0.83317333459854126</v>
       </c>
       <c r="D505" s="2">
         <v>0.88965290784835815</v>
       </c>
       <c r="E505" s="2">
-        <v>0.87297749519348145</v>
+        <v>0.8730812668800354</v>
       </c>
     </row>
     <row r="506">
@@ -8674,13 +8674,13 @@
         <v>1.1487250328063965</v>
       </c>
       <c r="C506" s="2">
-        <v>1.2207539081573486</v>
+        <v>1.2245033979415894</v>
       </c>
       <c r="D506" s="2">
         <v>0.73308110237121582</v>
       </c>
       <c r="E506" s="2">
-        <v>0.74042290449142456</v>
+        <v>0.74034106731414795</v>
       </c>
     </row>
     <row r="507">
@@ -8691,13 +8691,13 @@
         <v>1.0589654445648193</v>
       </c>
       <c r="C507" s="2">
-        <v>0.89764201641082764</v>
+        <v>0.8962099552154541</v>
       </c>
       <c r="D507" s="2">
         <v>0.55847901105880737</v>
       </c>
       <c r="E507" s="2">
-        <v>0.58388322591781616</v>
+        <v>0.58386069536209106</v>
       </c>
     </row>
     <row r="508">
@@ -8708,13 +8708,13 @@
         <v>0.62253290414810181</v>
       </c>
       <c r="C508" s="2">
-        <v>0.47676986455917358</v>
+        <v>0.47365903854370117</v>
       </c>
       <c r="D508" s="2">
         <v>0.42031973600387573</v>
       </c>
       <c r="E508" s="2">
-        <v>0.46229532361030579</v>
+        <v>0.46192041039466858</v>
       </c>
     </row>
     <row r="509">
@@ -8725,13 +8725,13 @@
         <v>-0.31502664089202881</v>
       </c>
       <c r="C509" s="2">
-        <v>-0.29177969694137573</v>
+        <v>-0.2916654646396637</v>
       </c>
       <c r="D509" s="2">
         <v>0.29104846715927124</v>
       </c>
       <c r="E509" s="2">
-        <v>0.28464391827583313</v>
+        <v>0.28418815135955811</v>
       </c>
     </row>
     <row r="510">
@@ -8742,13 +8742,13 @@
         <v>-0.39068228006362915</v>
       </c>
       <c r="C510" s="2">
-        <v>-0.35859158635139465</v>
+        <v>-0.35866788029670715</v>
       </c>
       <c r="D510" s="2">
         <v>0.23398058116436005</v>
       </c>
       <c r="E510" s="2">
-        <v>0.21936078369617462</v>
+        <v>0.21885660290718079</v>
       </c>
     </row>
     <row r="511">
@@ -8759,13 +8759,13 @@
         <v>-0.30934146046638489</v>
       </c>
       <c r="C511" s="2">
-        <v>-0.1346561461687088</v>
+        <v>-0.1345057487487793</v>
       </c>
       <c r="D511" s="2">
         <v>0.17532257735729218</v>
       </c>
       <c r="E511" s="2">
-        <v>0.14742355048656464</v>
+        <v>0.14656510949134827</v>
       </c>
     </row>
     <row r="512">
@@ -8776,13 +8776,13 @@
         <v>0.14797009527683258</v>
       </c>
       <c r="C512" s="2">
-        <v>0.18719115853309631</v>
+        <v>0.18489652872085571</v>
       </c>
       <c r="D512" s="2">
         <v>0.022293118759989738</v>
       </c>
       <c r="E512" s="2">
-        <v>0.0043155946768820286</v>
+        <v>0.0033021436538547277</v>
       </c>
     </row>
     <row r="513">
@@ -8793,13 +8793,13 @@
         <v>-0.27639669179916382</v>
       </c>
       <c r="C513" s="2">
-        <v>-0.26841989159584045</v>
+        <v>-0.26990991830825806</v>
       </c>
       <c r="D513" s="2">
         <v>0.0073073357343673706</v>
       </c>
       <c r="E513" s="2">
-        <v>-0.012060340493917465</v>
+        <v>-0.01248377189040184</v>
       </c>
     </row>
     <row r="514">
@@ -8810,13 +8810,13 @@
         <v>0.41907888650894165</v>
       </c>
       <c r="C514" s="2">
-        <v>0.24533741176128387</v>
+        <v>0.24518954753875732</v>
       </c>
       <c r="D514" s="2">
         <v>0.14364174008369446</v>
       </c>
       <c r="E514" s="2">
-        <v>0.12429171800613403</v>
+        <v>0.12367036193609238</v>
       </c>
     </row>
     <row r="515">
@@ -8827,13 +8827,13 @@
         <v>0.62080293893814087</v>
       </c>
       <c r="C515" s="2">
-        <v>0.57331877946853638</v>
+        <v>0.57387995719909668</v>
       </c>
       <c r="D515" s="2">
         <v>0.28240573406219482</v>
       </c>
       <c r="E515" s="2">
-        <v>0.26044231653213501</v>
+        <v>0.25994259119033814</v>
       </c>
     </row>
     <row r="516">
@@ -8844,13 +8844,13 @@
         <v>-0.31829968094825745</v>
       </c>
       <c r="C516" s="2">
-        <v>-0.39032953977584839</v>
+        <v>-0.39315676689147949</v>
       </c>
       <c r="D516" s="2">
         <v>0.43446016311645508</v>
       </c>
       <c r="E516" s="2">
-        <v>0.39917504787445068</v>
+        <v>0.39859563112258911</v>
       </c>
     </row>
     <row r="517">
@@ -8861,13 +8861,13 @@
         <v>0.48766085505485535</v>
       </c>
       <c r="C517" s="2">
-        <v>0.32938644289970398</v>
+        <v>0.33158579468727112</v>
       </c>
       <c r="D517" s="2">
         <v>0.53930217027664185</v>
       </c>
       <c r="E517" s="2">
-        <v>0.49689814448356628</v>
+        <v>0.49647867679595947</v>
       </c>
     </row>
     <row r="518">
@@ -8878,13 +8878,13 @@
         <v>0.91198301315307617</v>
       </c>
       <c r="C518" s="2">
-        <v>0.93538880348205567</v>
+        <v>0.93372172117233276</v>
       </c>
       <c r="D518" s="2">
         <v>0.68326592445373535</v>
       </c>
       <c r="E518" s="2">
-        <v>0.66744667291641235</v>
+        <v>0.66707688570022583</v>
       </c>
     </row>
     <row r="519">
@@ -8895,13 +8895,13 @@
         <v>0.85819363594055176</v>
       </c>
       <c r="C519" s="2">
-        <v>0.86676394939422607</v>
+        <v>0.86778217554092407</v>
       </c>
       <c r="D519" s="2">
         <v>0.71588611602783203</v>
       </c>
       <c r="E519" s="2">
-        <v>0.73102873563766479</v>
+        <v>0.73046499490737915</v>
       </c>
     </row>
     <row r="520">
@@ -8912,13 +8912,13 @@
         <v>1.0591484308242798</v>
       </c>
       <c r="C520" s="2">
-        <v>1.1139383316040039</v>
+        <v>1.1133717298507691</v>
       </c>
       <c r="D520" s="2">
         <v>0.68480128049850464</v>
       </c>
       <c r="E520" s="2">
-        <v>0.69646525382995606</v>
+        <v>0.69580346345901489</v>
       </c>
     </row>
     <row r="521">
@@ -8929,13 +8929,13 @@
         <v>1.0915480852127075</v>
       </c>
       <c r="C521" s="2">
-        <v>1.0666989088058472</v>
+        <v>1.065843939781189</v>
       </c>
       <c r="D521" s="2">
         <v>0.84871155023574829</v>
       </c>
       <c r="E521" s="2">
-        <v>0.8698190450668335</v>
+        <v>0.8695034384727478</v>
       </c>
     </row>
     <row r="522">
@@ -8946,13 +8946,13 @@
         <v>1.0192772150039673</v>
       </c>
       <c r="C522" s="2">
-        <v>1.2665171623229981</v>
+        <v>1.2654739618301392</v>
       </c>
       <c r="D522" s="2">
         <v>0.83220744132995606</v>
       </c>
       <c r="E522" s="2">
-        <v>0.86991232633590698</v>
+        <v>0.86930364370346069</v>
       </c>
     </row>
     <row r="523">
@@ -8963,13 +8963,13 @@
         <v>0.71266067028045654</v>
       </c>
       <c r="C523" s="2">
-        <v>0.81757593154907227</v>
+        <v>0.81568229198455811</v>
       </c>
       <c r="D523" s="2">
         <v>0.79856282472610474</v>
       </c>
       <c r="E523" s="2">
-        <v>0.83150982856750488</v>
+        <v>0.8311799168586731</v>
       </c>
     </row>
     <row r="524">
@@ -8980,13 +8980,13 @@
         <v>0.34103906154632568</v>
       </c>
       <c r="C524" s="2">
-        <v>0.26224750280380249</v>
+        <v>0.26192629337310791</v>
       </c>
       <c r="D524" s="2">
         <v>0.81259059906005859</v>
       </c>
       <c r="E524" s="2">
-        <v>0.84713965654373169</v>
+        <v>0.84679609537124634</v>
       </c>
     </row>
     <row r="525">
@@ -8997,13 +8997,13 @@
         <v>1.1568928956985474</v>
       </c>
       <c r="C525" s="2">
-        <v>1.1698541641235352</v>
+        <v>1.1701430082321167</v>
       </c>
       <c r="D525" s="2">
         <v>0.7372668981552124</v>
       </c>
       <c r="E525" s="2">
-        <v>0.7545698881149292</v>
+        <v>0.75432753562927246</v>
       </c>
     </row>
     <row r="526">
@@ -9014,13 +9014,13 @@
         <v>0.33912378549575806</v>
       </c>
       <c r="C526" s="2">
-        <v>0.33022612333297729</v>
+        <v>0.32978767156600952</v>
       </c>
       <c r="D526" s="2">
         <v>0.7090294361114502</v>
       </c>
       <c r="E526" s="2">
-        <v>0.727641761302948</v>
+        <v>0.72761070728302002</v>
       </c>
     </row>
     <row r="527">
@@ -9031,13 +9031,13 @@
         <v>0.60918146371841431</v>
       </c>
       <c r="C527" s="2">
-        <v>0.58976614475250244</v>
+        <v>0.59060823917388916</v>
       </c>
       <c r="D527" s="2">
         <v>0.66850030422210693</v>
       </c>
       <c r="E527" s="2">
-        <v>0.65689092874526978</v>
+        <v>0.65688949823379517</v>
       </c>
     </row>
     <row r="528">
@@ -9048,13 +9048,13 @@
         <v>0.98444372415542603</v>
       </c>
       <c r="C528" s="2">
-        <v>1.0074325799942017</v>
+        <v>1.0083276033401489</v>
       </c>
       <c r="D528" s="2">
         <v>0.67174011468887329</v>
       </c>
       <c r="E528" s="2">
-        <v>0.63498234748840332</v>
+        <v>0.63520175218582153</v>
       </c>
     </row>
     <row r="529">
@@ -9065,13 +9065,13 @@
         <v>0.38123545050621033</v>
       </c>
       <c r="C529" s="2">
-        <v>0.28081047534942627</v>
+        <v>0.2811548113822937</v>
       </c>
       <c r="D529" s="2">
         <v>0.63968777656555176</v>
       </c>
       <c r="E529" s="2">
-        <v>0.59647488594055176</v>
+        <v>0.59689974784851074</v>
       </c>
     </row>
     <row r="530">
@@ -9082,13 +9082,13 @@
         <v>0.83741074800491333</v>
       </c>
       <c r="C530" s="2">
-        <v>0.82434564828872681</v>
+        <v>0.82539260387420654</v>
       </c>
       <c r="D530" s="2">
         <v>0.4499584436416626</v>
       </c>
       <c r="E530" s="2">
-        <v>0.40963619947433472</v>
+        <v>0.41003966331481934</v>
       </c>
     </row>
     <row r="531">
@@ -9099,13 +9099,13 @@
         <v>0.6545148491859436</v>
       </c>
       <c r="C531" s="2">
-        <v>0.62975966930389404</v>
+        <v>0.62898290157318115</v>
       </c>
       <c r="D531" s="2">
         <v>0.44234931468963623</v>
       </c>
       <c r="E531" s="2">
-        <v>0.40190958976745606</v>
+        <v>0.40222275257110596</v>
       </c>
     </row>
     <row r="532">
@@ -9116,13 +9116,13 @@
         <v>0.74181884527206421</v>
       </c>
       <c r="C532" s="2">
-        <v>0.62039870023727417</v>
+        <v>0.62049287557601929</v>
       </c>
       <c r="D532" s="2">
         <v>0.40619507431983948</v>
       </c>
       <c r="E532" s="2">
-        <v>0.36967548727989197</v>
+        <v>0.36965861916542053</v>
       </c>
     </row>
     <row r="533">
@@ -9133,13 +9133,13 @@
         <v>0.05256812646985054</v>
       </c>
       <c r="C533" s="2">
-        <v>-0.084319509565830231</v>
+        <v>-0.082792185246944427</v>
       </c>
       <c r="D533" s="2">
         <v>0.29515799880027771</v>
       </c>
       <c r="E533" s="2">
-        <v>0.24489609897136688</v>
+        <v>0.24473391473293305</v>
       </c>
     </row>
     <row r="534">
@@ -9150,13 +9150,13 @@
         <v>-0.55067098140716553</v>
       </c>
       <c r="C534" s="2">
-        <v>-0.51169407367706299</v>
+        <v>-0.51159751415252686</v>
       </c>
       <c r="D534" s="2">
         <v>0.25746017694473267</v>
       </c>
       <c r="E534" s="2">
-        <v>0.20959453284740448</v>
+        <v>0.2094542533159256</v>
       </c>
     </row>
     <row r="535">
@@ -9167,13 +9167,13 @@
         <v>0.27064147591590881</v>
       </c>
       <c r="C535" s="2">
-        <v>0.2606867253780365</v>
+        <v>0.25943553447723389</v>
       </c>
       <c r="D535" s="2">
         <v>0.1633276492357254</v>
       </c>
       <c r="E535" s="2">
-        <v>0.1307862251996994</v>
+        <v>0.13065122067928314</v>
       </c>
     </row>
     <row r="536">
@@ -9184,13 +9184,13 @@
         <v>0.28379341959953308</v>
       </c>
       <c r="C536" s="2">
-        <v>0.29965925216674805</v>
+        <v>0.29753082990646362</v>
       </c>
       <c r="D536" s="2">
         <v>0.11014803498983383</v>
       </c>
       <c r="E536" s="2">
-        <v>0.07528262585401535</v>
+        <v>0.075302720069885254</v>
       </c>
     </row>
     <row r="537">
@@ -9201,13 +9201,13 @@
         <v>-0.014889826998114586</v>
       </c>
       <c r="C537" s="2">
-        <v>-0.11558203399181366</v>
+        <v>-0.11599456518888474</v>
       </c>
       <c r="D537" s="2">
         <v>0.050069317221641541</v>
       </c>
       <c r="E537" s="2">
-        <v>0.022667020559310913</v>
+        <v>0.022761113941669464</v>
       </c>
     </row>
     <row r="538">
@@ -9218,13 +9218,13 @@
         <v>0.041955038905143738</v>
       </c>
       <c r="C538" s="2">
-        <v>-0.036903612315654755</v>
+        <v>-0.036362253129482269</v>
       </c>
       <c r="D538" s="2">
         <v>0.087621346116065979</v>
       </c>
       <c r="E538" s="2">
-        <v>0.07135387510061264</v>
+        <v>0.071283042430877686</v>
       </c>
     </row>
     <row r="539">
@@ -9235,13 +9235,13 @@
         <v>-0.0097820507362484932</v>
       </c>
       <c r="C539" s="2">
-        <v>0.11507085710763931</v>
+        <v>0.1161654070019722</v>
       </c>
       <c r="D539" s="2">
         <v>0.20720434188842774</v>
       </c>
       <c r="E539" s="2">
-        <v>0.17650805413722992</v>
+        <v>0.17642667889595032</v>
       </c>
     </row>
     <row r="540">
@@ -9252,13 +9252,13 @@
         <v>0.17589828372001648</v>
       </c>
       <c r="C540" s="2">
-        <v>0.13022734224796295</v>
+        <v>0.13084633648395538</v>
       </c>
       <c r="D540" s="2">
         <v>0.17912249267101288</v>
       </c>
       <c r="E540" s="2">
-        <v>0.13726405799388885</v>
+        <v>0.13727807998657227</v>
       </c>
     </row>
     <row r="541">
@@ -9269,13 +9269,13 @@
         <v>0.20111037790775299</v>
       </c>
       <c r="C541" s="2">
-        <v>0.14685823023319244</v>
+        <v>0.14761844277381897</v>
       </c>
       <c r="D541" s="2">
         <v>0.21292875707149506</v>
       </c>
       <c r="E541" s="2">
-        <v>0.16534329950809479</v>
+        <v>0.16560479998588562</v>
       </c>
     </row>
     <row r="542">
@@ -9286,13 +9286,13 @@
         <v>0.390536367893219</v>
       </c>
       <c r="C542" s="2">
-        <v>0.35386219620704651</v>
+        <v>0.35390517115592957</v>
       </c>
       <c r="D542" s="2">
         <v>0.24846506118774414</v>
       </c>
       <c r="E542" s="2">
-        <v>0.19662840664386749</v>
+        <v>0.19701455533504486</v>
       </c>
     </row>
     <row r="543">
@@ -9303,13 +9303,13 @@
         <v>0.52557605504989624</v>
       </c>
       <c r="C543" s="2">
-        <v>0.43469354510307312</v>
+        <v>0.43469521403312683</v>
       </c>
       <c r="D543" s="2">
         <v>0.2516215443611145</v>
       </c>
       <c r="E543" s="2">
-        <v>0.20886564254760742</v>
+        <v>0.20934832096099854</v>
       </c>
     </row>
     <row r="544">
@@ -9320,13 +9320,13 @@
         <v>0.01790480874478817</v>
       </c>
       <c r="C544" s="2">
-        <v>-0.09250929206609726</v>
+        <v>-0.092901796102523804</v>
       </c>
       <c r="D544" s="2">
         <v>0.32770442962646484</v>
       </c>
       <c r="E544" s="2">
-        <v>0.2608153223991394</v>
+        <v>0.26131591200828552</v>
       </c>
     </row>
     <row r="545">
@@ -9337,13 +9337,13 @@
         <v>0.58804976940155029</v>
       </c>
       <c r="C545" s="2">
-        <v>0.55237245559692383</v>
+        <v>0.55247122049331665</v>
       </c>
       <c r="D545" s="2">
         <v>0.35874345898628235</v>
       </c>
       <c r="E545" s="2">
-        <v>0.28627154231071472</v>
+        <v>0.28661435842514038</v>
       </c>
     </row>
     <row r="546">
@@ -9354,13 +9354,13 @@
         <v>0.30493685603141785</v>
       </c>
       <c r="C546" s="2">
-        <v>0.1659839004278183</v>
+        <v>0.16669328510761261</v>
       </c>
       <c r="D546" s="2">
         <v>0.42180377244949341</v>
       </c>
       <c r="E546" s="2">
-        <v>0.36420378088951111</v>
+        <v>0.36457139253616333</v>
       </c>
     </row>
     <row r="547">
@@ -9371,13 +9371,13 @@
         <v>0.070363469421863556</v>
       </c>
       <c r="C547" s="2">
-        <v>0.073231600224971771</v>
+        <v>0.074641622602939606</v>
       </c>
       <c r="D547" s="2">
         <v>0.4432181715965271</v>
       </c>
       <c r="E547" s="2">
-        <v>0.37780869007110596</v>
+        <v>0.37821877002716064</v>
       </c>
     </row>
     <row r="548">
@@ -9388,13 +9388,13 @@
         <v>0.67496401071548462</v>
       </c>
       <c r="C548" s="2">
-        <v>0.58261799812316895</v>
+        <v>0.58387374877929688</v>
       </c>
       <c r="D548" s="2">
         <v>0.45586022734642029</v>
       </c>
       <c r="E548" s="2">
-        <v>0.39305084943771362</v>
+        <v>0.39373677968978882</v>
       </c>
     </row>
     <row r="549">
@@ -9405,13 +9405,13 @@
         <v>0.45524948835372925</v>
       </c>
       <c r="C549" s="2">
-        <v>0.35933312773704529</v>
+        <v>0.35853222012519836</v>
       </c>
       <c r="D549" s="2">
         <v>0.51921218633651733</v>
       </c>
       <c r="E549" s="2">
-        <v>0.46230104565620422</v>
+        <v>0.462983638048172</v>
       </c>
     </row>
     <row r="550">
@@ -9422,13 +9422,13 @@
         <v>0.7686530351638794</v>
       </c>
       <c r="C550" s="2">
-        <v>0.84824860095977783</v>
+        <v>0.84923183917999268</v>
       </c>
       <c r="D550" s="2">
         <v>0.50027734041213989</v>
       </c>
       <c r="E550" s="2">
-        <v>0.44376996159553528</v>
+        <v>0.4446236789226532</v>
       </c>
     </row>
     <row r="551">
@@ -9439,13 +9439,13 @@
         <v>0.58326607942581177</v>
       </c>
       <c r="C551" s="2">
-        <v>0.47630628943443298</v>
+        <v>0.47673165798187256</v>
       </c>
       <c r="D551" s="2">
         <v>0.49675530195236206</v>
       </c>
       <c r="E551" s="2">
-        <v>0.43789049983024597</v>
+        <v>0.4387488067150116</v>
       </c>
     </row>
     <row r="552">
@@ -9456,13 +9456,13 @@
         <v>0.63935452699661255</v>
       </c>
       <c r="C552" s="2">
-        <v>0.57187294960021973</v>
+        <v>0.57435709238052368</v>
       </c>
       <c r="D552" s="2">
         <v>0.48858609795570374</v>
       </c>
       <c r="E552" s="2">
-        <v>0.42470452189445496</v>
+        <v>0.42529267072677612</v>
       </c>
     </row>
     <row r="553">
@@ -9473,13 +9473,13 @@
         <v>0.58807265758514404</v>
       </c>
       <c r="C553" s="2">
-        <v>0.5307425856590271</v>
+        <v>0.53032004833221436</v>
       </c>
       <c r="D553" s="2">
         <v>0.53608953952789307</v>
       </c>
       <c r="E553" s="2">
-        <v>0.46399399638175964</v>
+        <v>0.46470129489898682</v>
       </c>
     </row>
     <row r="554">
@@ -9490,13 +9490,13 @@
         <v>0.41763603687286377</v>
       </c>
       <c r="C554" s="2">
-        <v>0.38559255003929138</v>
+        <v>0.38723155856132507</v>
       </c>
       <c r="D554" s="2">
         <v>0.52418357133865357</v>
       </c>
       <c r="E554" s="2">
-        <v>0.42250990867614746</v>
+        <v>0.42358812689781189</v>
       </c>
     </row>
     <row r="555">
@@ -9507,13 +9507,13 @@
         <v>0.2732384204864502</v>
       </c>
       <c r="C555" s="2">
-        <v>0.11306891590356827</v>
+        <v>0.11381941288709641</v>
       </c>
       <c r="D555" s="2">
         <v>0.48997357487678528</v>
       </c>
       <c r="E555" s="2">
-        <v>0.36574992537498474</v>
+        <v>0.36684286594390869</v>
       </c>
     </row>
     <row r="556">
@@ -9524,13 +9524,13 @@
         <v>-0.0031594929751008749</v>
       </c>
       <c r="C556" s="2">
-        <v>-0.045442327857017517</v>
+        <v>-0.046463429927825928</v>
       </c>
       <c r="D556" s="2">
         <v>0.50644183158874512</v>
       </c>
       <c r="E556" s="2">
-        <v>0.39093425869941711</v>
+        <v>0.39218208193778992</v>
       </c>
     </row>
     <row r="557">
@@ -9541,13 +9541,13 @@
         <v>1.1024953126907349</v>
       </c>
       <c r="C557" s="2">
-        <v>0.93622314929962158</v>
+        <v>0.93855112791061401</v>
       </c>
       <c r="D557" s="2">
         <v>0.46114709973335266</v>
       </c>
       <c r="E557" s="2">
-        <v>0.34188061952590942</v>
+        <v>0.34315481781959534</v>
       </c>
     </row>
     <row r="558">
@@ -9558,13 +9558,13 @@
         <v>0.34809565544128418</v>
       </c>
       <c r="C558" s="2">
-        <v>-0.014023546129465103</v>
+        <v>-0.011486264877021313</v>
       </c>
       <c r="D558" s="2">
-        <v>0.44528141617774963</v>
+        <v>0.47829693555831909</v>
       </c>
       <c r="E558" s="2">
-        <v>0.31827288866043091</v>
+        <v>0.36697384715080261</v>
       </c>
     </row>
     <row r="559">
@@ -9575,13 +9575,13 @@
         <v>0.46076291799545288</v>
       </c>
       <c r="C559" s="2">
-        <v>0.33740884065628052</v>
+        <v>0.33852460980415344</v>
       </c>
       <c r="D559" s="2">
-        <v>0.44923076033592224</v>
+        <v>0.47211351990699768</v>
       </c>
       <c r="E559" s="2">
-        <v>0.30865576863288879</v>
+        <v>0.33255153894424439</v>
       </c>
     </row>
     <row r="560">
@@ -9592,13 +9592,13 @@
         <v>0.73148053884506226</v>
       </c>
       <c r="C560" s="2">
-        <v>0.70296531915664673</v>
+        <v>0.70478463172912598</v>
       </c>
       <c r="D560" s="2">
-        <v>0.47856280207633972</v>
+        <v>0.41165083646774292</v>
       </c>
       <c r="E560" s="2">
-        <v>0.34125357866287232</v>
+        <v>0.25800767540931702</v>
       </c>
     </row>
     <row r="561">
@@ -9609,13 +9609,115 @@
         <v>0.23170194029808045</v>
       </c>
       <c r="C561" s="2">
-        <v>0.13039012253284454</v>
+        <v>0.13311168551445007</v>
       </c>
       <c r="D561" s="2">
-        <v>0.57490730285644531</v>
+        <v>0.35831114649772644</v>
       </c>
       <c r="E561" s="2">
-        <v>0.41859278082847595</v>
+        <v>0.19353705644607544</v>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" s="1">
+        <v>45536</v>
+      </c>
+      <c r="B562" s="2">
+        <v>0.74242097139358521</v>
+      </c>
+      <c r="C562" s="2">
+        <v>0.74469119310379028</v>
+      </c>
+      <c r="D562" s="2">
+        <v>0.24022203683853149</v>
+      </c>
+      <c r="E562" s="2">
+        <v>0.085088618099689484</v>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" s="1">
+        <v>45566</v>
+      </c>
+      <c r="B563" s="2">
+        <v>0.36198541522026062</v>
+      </c>
+      <c r="C563" s="2">
+        <v>0.077430814504623413</v>
+      </c>
+      <c r="D563" s="2">
+        <v>0.16548432409763336</v>
+      </c>
+      <c r="E563" s="2">
+        <v>0.038035884499549866</v>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" s="1">
+        <v>45597</v>
+      </c>
+      <c r="B564" s="2">
+        <v>-0.27092579007148743</v>
+      </c>
+      <c r="C564" s="2">
+        <v>-0.55707526206970215</v>
+      </c>
+      <c r="D564" s="2">
+        <v>0.12857449054718018</v>
+      </c>
+      <c r="E564" s="2">
+        <v>0.00047479430213570595</v>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" s="1">
+        <v>45627</v>
+      </c>
+      <c r="B565" s="2">
+        <v>-0.48321673274040222</v>
+      </c>
+      <c r="C565" s="2">
+        <v>-0.62669903039932251</v>
+      </c>
+      <c r="D565" s="2">
+        <v>0.042445063591003418</v>
+      </c>
+      <c r="E565" s="2">
+        <v>-0.10014089941978455</v>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" s="1">
+        <v>45658</v>
+      </c>
+      <c r="B566" s="2">
+        <v>0.039693348109722138</v>
+      </c>
+      <c r="C566" s="2">
+        <v>-0.037484806030988693</v>
+      </c>
+      <c r="D566" s="2">
+        <v>0.010902249254286289</v>
+      </c>
+      <c r="E566" s="2">
+        <v>-0.13901633024215698</v>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" s="1">
+        <v>45689</v>
+      </c>
+      <c r="B567" s="2">
+        <v>-0.32454371452331543</v>
+      </c>
+      <c r="C567" s="2">
+        <v>-0.43496087193489075</v>
+      </c>
+      <c r="D567" s="2">
+        <v>-0.13540148735046387</v>
+      </c>
+      <c r="E567" s="2">
+        <v>-0.31575784087181091</v>
       </c>
     </row>
   </sheetData>

--- a/MSC_skewness.xlsx
+++ b/MSC_skewness.xlsx
@@ -75,7 +75,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E567"/>
+  <dimension ref="A1:E569"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -106,13 +106,13 @@
         <v>0.88469290733337402</v>
       </c>
       <c r="C2" s="2">
-        <v>0.86907166242599487</v>
+        <v>0.86878508329391479</v>
       </c>
       <c r="D2" s="2">
         <v>0.8245728611946106</v>
       </c>
       <c r="E2" s="2">
-        <v>0.79394888877868652</v>
+        <v>0.79396891593933105</v>
       </c>
     </row>
     <row r="3">
@@ -123,13 +123,13 @@
         <v>0.87288045883178711</v>
       </c>
       <c r="C3" s="2">
-        <v>0.83037525415420532</v>
+        <v>0.83073115348815918</v>
       </c>
       <c r="D3" s="2">
         <v>0.79138636589050293</v>
       </c>
       <c r="E3" s="2">
-        <v>0.75861328840255737</v>
+        <v>0.75860655307769775</v>
       </c>
     </row>
     <row r="4">
@@ -140,13 +140,13 @@
         <v>0.88555455207824707</v>
       </c>
       <c r="C4" s="2">
-        <v>0.84212052822113037</v>
+        <v>0.84204047918319702</v>
       </c>
       <c r="D4" s="2">
         <v>0.74737828969955444</v>
       </c>
       <c r="E4" s="2">
-        <v>0.71451127529144287</v>
+        <v>0.71440279483795166</v>
       </c>
     </row>
     <row r="5">
@@ -157,13 +157,13 @@
         <v>0.77309525012969971</v>
       </c>
       <c r="C5" s="2">
-        <v>0.74791258573532105</v>
+        <v>0.74763202667236328</v>
       </c>
       <c r="D5" s="2">
         <v>0.70175653696060181</v>
       </c>
       <c r="E5" s="2">
-        <v>0.66842204332351685</v>
+        <v>0.66839486360549927</v>
       </c>
     </row>
     <row r="6">
@@ -174,13 +174,13 @@
         <v>0.70664113759994507</v>
       </c>
       <c r="C6" s="2">
-        <v>0.68026429414749146</v>
+        <v>0.680655837059021</v>
       </c>
       <c r="D6" s="2">
         <v>0.69672882556915283</v>
       </c>
       <c r="E6" s="2">
-        <v>0.66454613208770752</v>
+        <v>0.66451871395111084</v>
       </c>
     </row>
     <row r="7">
@@ -191,13 +191,13 @@
         <v>0.62545400857925415</v>
       </c>
       <c r="C7" s="2">
-        <v>0.58193528652191162</v>
+        <v>0.5817946195602417</v>
       </c>
       <c r="D7" s="2">
         <v>0.64241719245910645</v>
       </c>
       <c r="E7" s="2">
-        <v>0.61051595211029053</v>
+        <v>0.61050927639007568</v>
       </c>
     </row>
     <row r="8">
@@ -208,13 +208,13 @@
         <v>0.48332974314689636</v>
       </c>
       <c r="C8" s="2">
-        <v>0.44989940524101257</v>
+        <v>0.44918045401573181</v>
       </c>
       <c r="D8" s="2">
         <v>0.59014445543289185</v>
       </c>
       <c r="E8" s="2">
-        <v>0.5611109733581543</v>
+        <v>0.56105518341064453</v>
       </c>
     </row>
     <row r="9">
@@ -225,13 +225,13 @@
         <v>0.38240408897399902</v>
       </c>
       <c r="C9" s="2">
-        <v>0.34579741954803467</v>
+        <v>0.34633907675743103</v>
       </c>
       <c r="D9" s="2">
         <v>0.54714661836624146</v>
       </c>
       <c r="E9" s="2">
-        <v>0.5218278169631958</v>
+        <v>0.52173572778701782</v>
       </c>
     </row>
     <row r="10">
@@ -242,13 +242,13 @@
         <v>0.65650749206542969</v>
       </c>
       <c r="C10" s="2">
-        <v>0.63353872299194336</v>
+        <v>0.63350957632064819</v>
       </c>
       <c r="D10" s="2">
         <v>0.5068967342376709</v>
       </c>
       <c r="E10" s="2">
-        <v>0.48319131135940552</v>
+        <v>0.48309522867202759</v>
       </c>
     </row>
     <row r="11">
@@ -259,13 +259,13 @@
         <v>0.39588823914527893</v>
       </c>
       <c r="C11" s="2">
-        <v>0.38280022144317627</v>
+        <v>0.3827003538608551</v>
       </c>
       <c r="D11" s="2">
         <v>0.47223973274230957</v>
       </c>
       <c r="E11" s="2">
-        <v>0.44955414533615112</v>
+        <v>0.44941484928131104</v>
       </c>
     </row>
     <row r="12">
@@ -276,13 +276,13 @@
         <v>0.40242576599121094</v>
       </c>
       <c r="C12" s="2">
-        <v>0.3857303261756897</v>
+        <v>0.38564422726631165</v>
       </c>
       <c r="D12" s="2">
         <v>0.44589698314666748</v>
       </c>
       <c r="E12" s="2">
-        <v>0.42563638091087341</v>
+        <v>0.42554342746734619</v>
       </c>
     </row>
     <row r="13">
@@ -293,13 +293,13 @@
         <v>0.49857404828071594</v>
       </c>
       <c r="C13" s="2">
-        <v>0.48857218027114868</v>
+        <v>0.48816519975662231</v>
       </c>
       <c r="D13" s="2">
         <v>0.42059344053268433</v>
       </c>
       <c r="E13" s="2">
-        <v>0.40094155073165894</v>
+        <v>0.40096035599708557</v>
       </c>
     </row>
     <row r="14">
@@ -310,13 +310,13 @@
         <v>0.41084620356559753</v>
       </c>
       <c r="C14" s="2">
-        <v>0.40018388628959656</v>
+        <v>0.39986768364906311</v>
       </c>
       <c r="D14" s="2">
-        <v>0.40260231494903565</v>
+        <v>0.40260231494903564</v>
       </c>
       <c r="E14" s="2">
-        <v>0.38806784152984619</v>
+        <v>0.38805818557739258</v>
       </c>
     </row>
     <row r="15">
@@ -327,13 +327,13 @@
         <v>0.3947279155254364</v>
       </c>
       <c r="C15" s="2">
-        <v>0.37752991914749146</v>
+        <v>0.37753242254257202</v>
       </c>
       <c r="D15" s="2">
         <v>0.34784984588623047</v>
       </c>
       <c r="E15" s="2">
-        <v>0.33240941166877747</v>
+        <v>0.33241522312164307</v>
       </c>
     </row>
     <row r="16">
@@ -344,13 +344,13 @@
         <v>0.38836926221847534</v>
       </c>
       <c r="C16" s="2">
-        <v>0.36667540669441223</v>
+        <v>0.36695197224617004</v>
       </c>
       <c r="D16" s="2">
         <v>0.31815412640571594</v>
       </c>
       <c r="E16" s="2">
-        <v>0.30202841758728027</v>
+        <v>0.30204561352729797</v>
       </c>
     </row>
     <row r="17">
@@ -361,13 +361,13 @@
         <v>0.25559788942337036</v>
       </c>
       <c r="C17" s="2">
-        <v>0.22764600813388825</v>
+        <v>0.22793278098106384</v>
       </c>
       <c r="D17" s="2">
         <v>0.29021283984184265</v>
       </c>
       <c r="E17" s="2">
-        <v>0.27081838250160217</v>
+        <v>0.27081340551376343</v>
       </c>
     </row>
     <row r="18">
@@ -378,13 +378,13 @@
         <v>0.22048401832580566</v>
       </c>
       <c r="C18" s="2">
-        <v>0.22993384301662445</v>
+        <v>0.23021958768367767</v>
       </c>
       <c r="D18" s="2">
         <v>0.25320655107498169</v>
       </c>
       <c r="E18" s="2">
-        <v>0.23808537423610687</v>
+        <v>0.23812238872051239</v>
       </c>
     </row>
     <row r="19">
@@ -395,13 +395,13 @@
         <v>0.16373516619205475</v>
       </c>
       <c r="C19" s="2">
-        <v>0.13261285424232483</v>
+        <v>0.13272285461425781</v>
       </c>
       <c r="D19" s="2">
         <v>0.23847326636314392</v>
       </c>
       <c r="E19" s="2">
-        <v>0.22177883982658386</v>
+        <v>0.22182649374008179</v>
       </c>
     </row>
     <row r="20">
@@ -412,13 +412,13 @@
         <v>0.12862695753574371</v>
       </c>
       <c r="C20" s="2">
-        <v>0.10937144607305527</v>
+        <v>0.10937388241291046</v>
       </c>
       <c r="D20" s="2">
         <v>0.20348916947841644</v>
       </c>
       <c r="E20" s="2">
-        <v>0.18597197532653809</v>
+        <v>0.18599212169647217</v>
       </c>
     </row>
     <row r="21">
@@ -429,13 +429,13 @@
         <v>0.15095406770706177</v>
       </c>
       <c r="C21" s="2">
-        <v>0.10483986884355545</v>
+        <v>0.10455428063869476</v>
       </c>
       <c r="D21" s="2">
         <v>0.18256673216819763</v>
       </c>
       <c r="E21" s="2">
-        <v>0.16271570324897766</v>
+        <v>0.16275519132614136</v>
       </c>
     </row>
     <row r="22">
@@ -446,13 +446,13 @@
         <v>0.16551756858825684</v>
       </c>
       <c r="C22" s="2">
-        <v>0.19397510588169098</v>
+        <v>0.1939459890127182</v>
       </c>
       <c r="D22" s="2">
-        <v>0.16056980192661286</v>
+        <v>0.16056980192661285</v>
       </c>
       <c r="E22" s="2">
-        <v>0.14199668169021606</v>
+        <v>0.14201577007770538</v>
       </c>
     </row>
     <row r="23">
@@ -463,13 +463,13 @@
         <v>0.27824649214744568</v>
       </c>
       <c r="C23" s="2">
-        <v>0.25342506170272827</v>
+        <v>0.25320473313331604</v>
       </c>
       <c r="D23" s="2">
         <v>0.12920628488063812</v>
       </c>
       <c r="E23" s="2">
-        <v>0.10628890246152878</v>
+        <v>0.10630407184362411</v>
       </c>
     </row>
     <row r="24">
@@ -480,13 +480,13 @@
         <v>0.079871043562889099</v>
       </c>
       <c r="C24" s="2">
-        <v>0.055268220603466034</v>
+        <v>0.055023059248924255</v>
       </c>
       <c r="D24" s="2">
         <v>0.078575022518634796</v>
       </c>
       <c r="E24" s="2">
-        <v>0.06838245689868927</v>
+        <v>0.068424209952354431</v>
       </c>
     </row>
     <row r="25">
@@ -497,13 +497,13 @@
         <v>0.20006734132766724</v>
       </c>
       <c r="C25" s="2">
-        <v>0.15736888349056244</v>
+        <v>0.15781959891319275</v>
       </c>
       <c r="D25" s="2">
         <v>0.012595728971064091</v>
       </c>
       <c r="E25" s="2">
-        <v>0.0021164624486118555</v>
+        <v>0.0022017629817128181</v>
       </c>
     </row>
     <row r="26">
@@ -514,13 +514,13 @@
         <v>0.057625520974397659</v>
       </c>
       <c r="C26" s="2">
-        <v>0.041174814105033875</v>
+        <v>0.041277986019849777</v>
       </c>
       <c r="D26" s="2">
         <v>-0.0073789660818874836</v>
       </c>
       <c r="E26" s="2">
-        <v>-0.011761189438402653</v>
+        <v>-0.011639420874416828</v>
       </c>
     </row>
     <row r="27">
@@ -531,13 +531,13 @@
         <v>-0.061787586659193039</v>
       </c>
       <c r="C27" s="2">
-        <v>-0.091436125338077545</v>
+        <v>-0.091185741126537323</v>
       </c>
       <c r="D27" s="2">
         <v>-0.025387313216924667</v>
       </c>
       <c r="E27" s="2">
-        <v>-0.027339410036802292</v>
+        <v>-0.027188656851649284</v>
       </c>
     </row>
     <row r="28">
@@ -548,13 +548,13 @@
         <v>-0.2919461727142334</v>
       </c>
       <c r="C28" s="2">
-        <v>-0.20854517817497254</v>
+        <v>-0.20819586515426636</v>
       </c>
       <c r="D28" s="2">
         <v>-0.045855499804019928</v>
       </c>
       <c r="E28" s="2">
-        <v>-0.049812894314527512</v>
+        <v>-0.049646537750959396</v>
       </c>
     </row>
     <row r="29">
@@ -565,13 +565,13 @@
         <v>-0.4651867151260376</v>
       </c>
       <c r="C29" s="2">
-        <v>-0.48702248930931091</v>
+        <v>-0.48662817478179932</v>
       </c>
       <c r="D29" s="2">
-        <v>-0.029576383531093598</v>
+        <v>-0.029576383531093597</v>
       </c>
       <c r="E29" s="2">
-        <v>-0.028248002752661705</v>
+        <v>-0.028047747910022736</v>
       </c>
     </row>
     <row r="30">
@@ -579,16 +579,16 @@
         <v>29342</v>
       </c>
       <c r="B30" s="2">
-        <v>-0.02881818637251854</v>
+        <v>-0.028818186372518539</v>
       </c>
       <c r="C30" s="2">
-        <v>-0.020058995112776756</v>
+        <v>-0.020016372203826904</v>
       </c>
       <c r="D30" s="2">
-        <v>-0.021370768547058106</v>
+        <v>-0.021370768547058105</v>
       </c>
       <c r="E30" s="2">
-        <v>-0.017670657485723495</v>
+        <v>-0.017498742789030075</v>
       </c>
     </row>
     <row r="31">
@@ -599,13 +599,13 @@
         <v>0.0034424467012286186</v>
       </c>
       <c r="C31" s="2">
-        <v>0.053771123290061951</v>
+        <v>0.054002858698368073</v>
       </c>
       <c r="D31" s="2">
         <v>-0.023533502593636513</v>
       </c>
       <c r="E31" s="2">
-        <v>-0.021519854664802551</v>
+        <v>-0.021362917497754097</v>
       </c>
     </row>
     <row r="32">
@@ -616,13 +616,13 @@
         <v>0.094032801687717438</v>
       </c>
       <c r="C32" s="2">
-        <v>0.051163695752620697</v>
+        <v>0.051083803176879883</v>
       </c>
       <c r="D32" s="2">
         <v>-0.025298869237303734</v>
       </c>
       <c r="E32" s="2">
-        <v>-0.027059977874159813</v>
+        <v>-0.026938024908304214</v>
       </c>
     </row>
     <row r="33">
@@ -630,16 +630,16 @@
         <v>29434</v>
       </c>
       <c r="B33" s="2">
-        <v>0.22638309001922608</v>
+        <v>0.22638309001922607</v>
       </c>
       <c r="C33" s="2">
-        <v>0.24935224652290344</v>
+        <v>0.2494121789932251</v>
       </c>
       <c r="D33" s="2">
         <v>-0.0035604927688837051</v>
       </c>
       <c r="E33" s="2">
-        <v>-0.01157018169760704</v>
+        <v>-0.011496266350150108</v>
       </c>
     </row>
     <row r="34">
@@ -650,13 +650,13 @@
         <v>0.27391788363456726</v>
       </c>
       <c r="C34" s="2">
-        <v>0.25256499648094177</v>
+        <v>0.25276064872741699</v>
       </c>
       <c r="D34" s="2">
         <v>-0.0050321710295975208</v>
       </c>
       <c r="E34" s="2">
-        <v>-0.016624076291918755</v>
+        <v>-0.01666746474802494</v>
       </c>
     </row>
     <row r="35">
@@ -667,13 +667,13 @@
         <v>0.038160912692546844</v>
       </c>
       <c r="C35" s="2">
-        <v>0.006532041821628809</v>
+        <v>0.0065004061907529831</v>
       </c>
       <c r="D35" s="2">
         <v>0.0051453695632517338</v>
       </c>
       <c r="E35" s="2">
-        <v>-0.0046579176560044289</v>
+        <v>-0.004772404208779335</v>
       </c>
     </row>
     <row r="36">
@@ -684,13 +684,13 @@
         <v>-0.077675886452198029</v>
       </c>
       <c r="C36" s="2">
-        <v>-0.14129723608493805</v>
+        <v>-0.14136171340942383</v>
       </c>
       <c r="D36" s="2">
         <v>-0.0081244409084320068</v>
       </c>
       <c r="E36" s="2">
-        <v>-0.0052069239318370819</v>
+        <v>-0.0052544311620295048</v>
       </c>
     </row>
     <row r="37">
@@ -701,13 +701,13 @@
         <v>-0.096300780773162842</v>
       </c>
       <c r="C37" s="2">
-        <v>-0.069137014448642731</v>
+        <v>-0.069220028817653656</v>
       </c>
       <c r="D37" s="2">
         <v>-0.014161118306219578</v>
       </c>
       <c r="E37" s="2">
-        <v>-0.014701571315526962</v>
+        <v>-0.01487338449805975</v>
       </c>
     </row>
     <row r="38">
@@ -718,13 +718,13 @@
         <v>-0.4784318208694458</v>
       </c>
       <c r="C38" s="2">
-        <v>-0.53250753879547119</v>
+        <v>-0.5331689715385437</v>
       </c>
       <c r="D38" s="2">
         <v>-0.021746126934885979</v>
       </c>
       <c r="E38" s="2">
-        <v>-0.042160391807556152</v>
+        <v>-0.04234744980931282</v>
       </c>
     </row>
     <row r="39">
@@ -735,13 +735,13 @@
         <v>0.062779679894447327</v>
       </c>
       <c r="C39" s="2">
-        <v>0.087636426091194153</v>
+        <v>0.087039180099964142</v>
       </c>
       <c r="D39" s="2">
         <v>-0.064160771667957306</v>
       </c>
       <c r="E39" s="2">
-        <v>-0.092387035489082337</v>
+        <v>-0.092490315437316895</v>
       </c>
     </row>
     <row r="40">
@@ -752,13 +752,13 @@
         <v>-0.11598584800958633</v>
       </c>
       <c r="C40" s="2">
-        <v>0.048830065876245499</v>
+        <v>0.049664616584777832</v>
       </c>
       <c r="D40" s="2">
         <v>-0.039606906473636627</v>
       </c>
       <c r="E40" s="2">
-        <v>-0.0696907639503479</v>
+        <v>-0.069789275527000427</v>
       </c>
     </row>
     <row r="41">
@@ -769,13 +769,13 @@
         <v>0.039702706038951874</v>
       </c>
       <c r="C41" s="2">
-        <v>-0.034288130700588226</v>
+        <v>-0.035486776381731033</v>
       </c>
       <c r="D41" s="2">
         <v>0.014545240439474583</v>
       </c>
       <c r="E41" s="2">
-        <v>-0.022148028016090393</v>
+        <v>-0.022217558696866035</v>
       </c>
     </row>
     <row r="42">
@@ -786,13 +786,13 @@
         <v>0.15811800956726074</v>
       </c>
       <c r="C42" s="2">
-        <v>0.0022228637244552374</v>
+        <v>0.00214557652361691</v>
       </c>
       <c r="D42" s="2">
         <v>0.085671938955783844</v>
       </c>
       <c r="E42" s="2">
-        <v>0.042736101895570755</v>
+        <v>0.042566049844026566</v>
       </c>
     </row>
     <row r="43">
@@ -803,13 +803,13 @@
         <v>-0.10781393945217133</v>
       </c>
       <c r="C43" s="2">
-        <v>-0.19947481155395508</v>
+        <v>-0.19852514564990997</v>
       </c>
       <c r="D43" s="2">
         <v>0.17572179436683655</v>
       </c>
       <c r="E43" s="2">
-        <v>0.13316591084003448</v>
+        <v>0.1330285519361496</v>
       </c>
     </row>
     <row r="44">
@@ -820,13 +820,13 @@
         <v>0.25914570689201355</v>
       </c>
       <c r="C44" s="2">
-        <v>0.21079853177070618</v>
+        <v>0.21080976724624634</v>
       </c>
       <c r="D44" s="2">
         <v>0.19842638075351715</v>
       </c>
       <c r="E44" s="2">
-        <v>0.14813695847988129</v>
+        <v>0.14795833826065063</v>
       </c>
     </row>
     <row r="45">
@@ -837,13 +837,13 @@
         <v>0.40969344973564148</v>
       </c>
       <c r="C45" s="2">
-        <v>0.28658735752105713</v>
+        <v>0.28678375482559204</v>
       </c>
       <c r="D45" s="2">
         <v>0.20961125195026398</v>
       </c>
       <c r="E45" s="2">
-        <v>0.13429398834705353</v>
+        <v>0.134006068110466</v>
       </c>
     </row>
     <row r="46">
@@ -854,13 +854,13 @@
         <v>0.54383951425552368</v>
       </c>
       <c r="C46" s="2">
-        <v>0.5148201584815979</v>
+        <v>0.5138324499130249</v>
       </c>
       <c r="D46" s="2">
         <v>0.22558611631393433</v>
       </c>
       <c r="E46" s="2">
-        <v>0.15686766803264618</v>
+        <v>0.15666702389717102</v>
       </c>
     </row>
     <row r="47">
@@ -871,13 +871,13 @@
         <v>0.33201688528060913</v>
       </c>
       <c r="C47" s="2">
-        <v>0.28136074542999268</v>
+        <v>0.28099355101585388</v>
       </c>
       <c r="D47" s="2">
         <v>0.21201112866401672</v>
       </c>
       <c r="E47" s="2">
-        <v>0.15751112997531891</v>
+        <v>0.15725155174732208</v>
       </c>
     </row>
     <row r="48">
@@ -888,13 +888,13 @@
         <v>0.26712098717689514</v>
       </c>
       <c r="C48" s="2">
-        <v>0.22237583994865418</v>
+        <v>0.2214072048664093</v>
       </c>
       <c r="D48" s="2">
         <v>0.25146535038948059</v>
       </c>
       <c r="E48" s="2">
-        <v>0.20550458133220673</v>
+        <v>0.20515789091587067</v>
       </c>
     </row>
     <row r="49">
@@ -905,13 +905,13 @@
         <v>-0.015322070568799973</v>
       </c>
       <c r="C49" s="2">
-        <v>-0.075756706297397614</v>
+        <v>-0.075905725359916687</v>
       </c>
       <c r="D49" s="2">
         <v>0.21374198794364929</v>
       </c>
       <c r="E49" s="2">
-        <v>0.16652113199234009</v>
+        <v>0.16621193289756775</v>
       </c>
     </row>
     <row r="50">
@@ -922,13 +922,13 @@
         <v>0.18347656726837158</v>
       </c>
       <c r="C50" s="2">
-        <v>0.1688750833272934</v>
+        <v>0.16846174001693726</v>
       </c>
       <c r="D50" s="2">
-        <v>0.22338783740997315</v>
+        <v>0.22338783740997314</v>
       </c>
       <c r="E50" s="2">
-        <v>0.19431623816490173</v>
+        <v>0.19390162825584412</v>
       </c>
     </row>
     <row r="51">
@@ -939,13 +939,13 @@
         <v>0.035943042486906052</v>
       </c>
       <c r="C51" s="2">
-        <v>0.0080139609053730965</v>
+        <v>0.0074063492938876152</v>
       </c>
       <c r="D51" s="2">
         <v>0.20047073066234589</v>
       </c>
       <c r="E51" s="2">
-        <v>0.17913591861724854</v>
+        <v>0.17885960638523102</v>
       </c>
     </row>
     <row r="52">
@@ -956,13 +956,13 @@
         <v>0.24727413058280945</v>
       </c>
       <c r="C52" s="2">
-        <v>0.23246623575687408</v>
+        <v>0.23263198137283325</v>
       </c>
       <c r="D52" s="2">
         <v>0.22260907292366028</v>
       </c>
       <c r="E52" s="2">
-        <v>0.2031315416097641</v>
+        <v>0.20300133526325226</v>
       </c>
     </row>
     <row r="53">
@@ -973,13 +973,13 @@
         <v>-0.080364547669887543</v>
       </c>
       <c r="C53" s="2">
-        <v>-0.14005249738693237</v>
+        <v>-0.13970395922660828</v>
       </c>
       <c r="D53" s="2">
         <v>0.2460559755563736</v>
       </c>
       <c r="E53" s="2">
-        <v>0.22084711492061615</v>
+        <v>0.22076939046382904</v>
       </c>
     </row>
     <row r="54">
@@ -987,16 +987,16 @@
         <v>30072</v>
       </c>
       <c r="B54" s="2">
-        <v>0.49650606513023377</v>
+        <v>0.49650606513023376</v>
       </c>
       <c r="C54" s="2">
-        <v>0.53674334287643433</v>
+        <v>0.53599107265472412</v>
       </c>
       <c r="D54" s="2">
-        <v>0.29818177223205567</v>
+        <v>0.29818177223205566</v>
       </c>
       <c r="E54" s="2">
-        <v>0.27594727277755737</v>
+        <v>0.2759249210357666</v>
       </c>
     </row>
     <row r="55">
@@ -1007,13 +1007,13 @@
         <v>0.33758550882339478</v>
       </c>
       <c r="C55" s="2">
-        <v>0.37819722294807434</v>
+        <v>0.37845420837402344</v>
       </c>
       <c r="D55" s="2">
         <v>0.30217429995536804</v>
       </c>
       <c r="E55" s="2">
-        <v>0.28102549910545349</v>
+        <v>0.28108242154121399</v>
       </c>
     </row>
     <row r="56">
@@ -1024,13 +1024,13 @@
         <v>0.53126192092895508</v>
       </c>
       <c r="C56" s="2">
-        <v>0.49732133746147156</v>
+        <v>0.49826920032501221</v>
       </c>
       <c r="D56" s="2">
         <v>0.30992338061332703</v>
       </c>
       <c r="E56" s="2">
-        <v>0.29607614874839783</v>
+        <v>0.2962128221988678</v>
       </c>
     </row>
     <row r="57">
@@ -1041,13 +1041,13 @@
         <v>0.4781431257724762</v>
       </c>
       <c r="C57" s="2">
-        <v>0.38181611895561218</v>
+        <v>0.38131970167160034</v>
       </c>
       <c r="D57" s="2">
         <v>0.32807862758636475</v>
       </c>
       <c r="E57" s="2">
-        <v>0.30609628558158875</v>
+        <v>0.30628281831741333</v>
       </c>
     </row>
     <row r="58">
@@ -1058,13 +1058,13 @@
         <v>0.45381012558937073</v>
       </c>
       <c r="C58" s="2">
-        <v>0.42014455795288086</v>
+        <v>0.42049401998519897</v>
       </c>
       <c r="D58" s="2">
         <v>0.41713285446166992</v>
       </c>
       <c r="E58" s="2">
-        <v>0.40067398548126221</v>
+        <v>0.40085282921791077</v>
       </c>
     </row>
     <row r="59">
@@ -1075,13 +1075,13 @@
         <v>0.21940921247005463</v>
       </c>
       <c r="C59" s="2">
-        <v>0.21457917988300323</v>
+        <v>0.21487912535667419</v>
       </c>
       <c r="D59" s="2">
         <v>0.39297589659690857</v>
       </c>
       <c r="E59" s="2">
-        <v>0.38231343030929566</v>
+        <v>0.38262182474136353</v>
       </c>
     </row>
     <row r="60">
@@ -1092,13 +1092,13 @@
         <v>0.10568485409021378</v>
       </c>
       <c r="C60" s="2">
-        <v>0.14346979558467865</v>
+        <v>0.1435801237821579</v>
       </c>
       <c r="D60" s="2">
         <v>0.35300782322883606</v>
       </c>
       <c r="E60" s="2">
-        <v>0.33612322807312012</v>
+        <v>0.33659306168556213</v>
       </c>
     </row>
     <row r="61">
@@ -1109,13 +1109,13 @@
         <v>0.41067126393318176</v>
       </c>
       <c r="C61" s="2">
-        <v>0.32264763116836548</v>
+        <v>0.32326194643974304</v>
       </c>
       <c r="D61" s="2">
         <v>0.39139395952224731</v>
       </c>
       <c r="E61" s="2">
-        <v>0.37184533476829529</v>
+        <v>0.37226331233978271</v>
       </c>
     </row>
     <row r="62">
@@ -1126,13 +1126,13 @@
         <v>0.72112351655960083</v>
       </c>
       <c r="C62" s="2">
-        <v>0.71114665269851685</v>
+        <v>0.71142613887786865</v>
       </c>
       <c r="D62" s="2">
         <v>0.33974581956863403</v>
       </c>
       <c r="E62" s="2">
-        <v>0.31545248627662659</v>
+        <v>0.31607058644294739</v>
       </c>
     </row>
     <row r="63">
@@ -1143,13 +1143,13 @@
         <v>0.27909347414970398</v>
       </c>
       <c r="C63" s="2">
-        <v>0.37149825692176819</v>
+        <v>0.3719119131565094</v>
       </c>
       <c r="D63" s="2">
         <v>0.36902338266372681</v>
       </c>
       <c r="E63" s="2">
-        <v>0.34711802005767822</v>
+        <v>0.34774801135063171</v>
       </c>
     </row>
     <row r="64">
@@ -1160,13 +1160,13 @@
         <v>-0.022126967087388039</v>
       </c>
       <c r="C64" s="2">
-        <v>-0.037514343857765198</v>
+        <v>-0.035804536193609238</v>
       </c>
       <c r="D64" s="2">
         <v>0.42787268757820129</v>
       </c>
       <c r="E64" s="2">
-        <v>0.4070524275302887</v>
+        <v>0.40773025155067444</v>
       </c>
     </row>
     <row r="65">
@@ -1177,13 +1177,13 @@
         <v>0.87673693895339966</v>
       </c>
       <c r="C65" s="2">
-        <v>0.81882023811340332</v>
+        <v>0.81930124759674072</v>
       </c>
       <c r="D65" s="2">
         <v>0.55708658695220947</v>
       </c>
       <c r="E65" s="2">
-        <v>0.52414619922637939</v>
+        <v>0.52480542659759521</v>
       </c>
     </row>
     <row r="66">
@@ -1194,13 +1194,13 @@
         <v>0.01331007108092308</v>
       </c>
       <c r="C66" s="2">
-        <v>-0.12571962177753448</v>
+        <v>-0.12441465258598328</v>
       </c>
       <c r="D66" s="2">
         <v>0.62337994575500488</v>
       </c>
       <c r="E66" s="2">
-        <v>0.59720271825790405</v>
+        <v>0.59785342216491699</v>
       </c>
     </row>
     <row r="67">
@@ -1211,13 +1211,13 @@
         <v>0.7173081636428833</v>
       </c>
       <c r="C67" s="2">
-        <v>0.70513451099395752</v>
+        <v>0.70559090375900269</v>
       </c>
       <c r="D67" s="2">
         <v>0.63638961315155029</v>
       </c>
       <c r="E67" s="2">
-        <v>0.60447883605957031</v>
+        <v>0.60506314039230347</v>
       </c>
     </row>
     <row r="68">
@@ -1228,13 +1228,13 @@
         <v>0.74905288219451904</v>
       </c>
       <c r="C68" s="2">
-        <v>0.75398874282836914</v>
+        <v>0.754719078540802</v>
       </c>
       <c r="D68" s="2">
         <v>0.67220479249954224</v>
       </c>
       <c r="E68" s="2">
-        <v>0.63072657585144043</v>
+        <v>0.63134187459945679</v>
       </c>
     </row>
     <row r="69">
@@ -1245,13 +1245,13 @@
         <v>1.2686100006103516</v>
       </c>
       <c r="C69" s="2">
-        <v>1.197313666343689</v>
+        <v>1.1972569227218628</v>
       </c>
       <c r="D69" s="2">
         <v>0.71861350536346436</v>
       </c>
       <c r="E69" s="2">
-        <v>0.67548137903213501</v>
+        <v>0.67594629526138306</v>
       </c>
     </row>
     <row r="70">
@@ -1262,13 +1262,13 @@
         <v>1.0073114633560181</v>
       </c>
       <c r="C70" s="2">
-        <v>0.9801563024520874</v>
+        <v>0.98069363832473755</v>
       </c>
       <c r="D70" s="2">
         <v>0.69472086429595947</v>
       </c>
       <c r="E70" s="2">
-        <v>0.64621967077255249</v>
+        <v>0.64674568176269531</v>
       </c>
     </row>
     <row r="71">
@@ -1279,13 +1279,13 @@
         <v>0.83821052312850952</v>
       </c>
       <c r="C71" s="2">
-        <v>0.77663201093673706</v>
+        <v>0.77631372213363647</v>
       </c>
       <c r="D71" s="2">
         <v>0.78124850988388062</v>
       </c>
       <c r="E71" s="2">
-        <v>0.73902672529220581</v>
+        <v>0.73952144384384155</v>
       </c>
     </row>
     <row r="72">
@@ -1296,13 +1296,13 @@
         <v>0.60143023729324341</v>
       </c>
       <c r="C72" s="2">
-        <v>0.60772764682769775</v>
+        <v>0.608420729637146</v>
       </c>
       <c r="D72" s="2">
         <v>0.75283944606781006</v>
       </c>
       <c r="E72" s="2">
-        <v>0.70396274328231812</v>
+        <v>0.70433521270751953</v>
       </c>
     </row>
     <row r="73">
@@ -1313,13 +1313,13 @@
         <v>0.39555132389068604</v>
       </c>
       <c r="C73" s="2">
-        <v>0.36527878046035767</v>
+        <v>0.3656349778175354</v>
       </c>
       <c r="D73" s="2">
         <v>0.79837191104888916</v>
       </c>
       <c r="E73" s="2">
-        <v>0.75023096799850464</v>
+        <v>0.75051462650299072</v>
       </c>
     </row>
     <row r="74">
@@ -1330,13 +1330,13 @@
         <v>0.66170322895050049</v>
       </c>
       <c r="C74" s="2">
-        <v>0.5554649829864502</v>
+        <v>0.55649608373641968</v>
       </c>
       <c r="D74" s="2">
         <v>0.69522100687026978</v>
       </c>
       <c r="E74" s="2">
-        <v>0.64903175830841064</v>
+        <v>0.64938628673553467</v>
       </c>
     </row>
     <row r="75">
@@ -1347,13 +1347,13 @@
         <v>0.79205882549285889</v>
       </c>
       <c r="C75" s="2">
-        <v>0.70954394340515137</v>
+        <v>0.71056687831878662</v>
       </c>
       <c r="D75" s="2">
         <v>0.68917214870452881</v>
       </c>
       <c r="E75" s="2">
-        <v>0.64357554912567139</v>
+        <v>0.64361828565597534</v>
       </c>
     </row>
     <row r="76">
@@ -1364,13 +1364,13 @@
         <v>0.46162635087966919</v>
       </c>
       <c r="C76" s="2">
-        <v>0.38955867290496826</v>
+        <v>0.38891476392745972</v>
       </c>
       <c r="D76" s="2">
         <v>0.72731488943099976</v>
       </c>
       <c r="E76" s="2">
-        <v>0.68341833353042603</v>
+        <v>0.68352454900741577</v>
       </c>
     </row>
     <row r="77">
@@ -1381,13 +1381,13 @@
         <v>1.1588454246520996</v>
       </c>
       <c r="C77" s="2">
-        <v>1.1704027652740479</v>
+        <v>1.1703339815139771</v>
       </c>
       <c r="D77" s="2">
         <v>0.76698648929595947</v>
       </c>
       <c r="E77" s="2">
-        <v>0.71699708700180054</v>
+        <v>0.71707326173782349</v>
       </c>
     </row>
     <row r="78">
@@ -1398,13 +1398,13 @@
         <v>0.34025192260742188</v>
       </c>
       <c r="C78" s="2">
-        <v>0.28652068972587585</v>
+        <v>0.28710204362869263</v>
       </c>
       <c r="D78" s="2">
         <v>0.89094090461730957</v>
       </c>
       <c r="E78" s="2">
-        <v>0.84003788232803345</v>
+        <v>0.84006297588348389</v>
       </c>
     </row>
     <row r="79">
@@ -1415,13 +1415,13 @@
         <v>0.95287138223648071</v>
       </c>
       <c r="C79" s="2">
-        <v>0.93105041980743408</v>
+        <v>0.92878115177154541</v>
       </c>
       <c r="D79" s="2">
-        <v>0.90085816383361817</v>
+        <v>0.90085816383361816</v>
       </c>
       <c r="E79" s="2">
-        <v>0.83933722972869873</v>
+        <v>0.83920067548751831</v>
       </c>
     </row>
     <row r="80">
@@ -1429,16 +1429,16 @@
         <v>30864</v>
       </c>
       <c r="B80" s="2">
-        <v>1.1814954280853272</v>
+        <v>1.1814954280853271</v>
       </c>
       <c r="C80" s="2">
-        <v>1.1352169513702393</v>
+        <v>1.1354701519012451</v>
       </c>
       <c r="D80" s="2">
         <v>0.90620630979537964</v>
       </c>
       <c r="E80" s="2">
-        <v>0.88729232549667358</v>
+        <v>0.88708037137985229</v>
       </c>
     </row>
     <row r="81">
@@ -1449,13 +1449,13 @@
         <v>0.95847427845001221</v>
       </c>
       <c r="C81" s="2">
-        <v>0.90993666648864746</v>
+        <v>0.91035932302474976</v>
       </c>
       <c r="D81" s="2">
         <v>0.88257771730422974</v>
       </c>
       <c r="E81" s="2">
-        <v>0.86707299947738648</v>
+        <v>0.8669133186340332</v>
       </c>
     </row>
     <row r="82">
@@ -1466,13 +1466,13 @@
         <v>1.5111415386199951</v>
       </c>
       <c r="C82" s="2">
-        <v>1.4726457595825195</v>
+        <v>1.4725426435470581</v>
       </c>
       <c r="D82" s="2">
         <v>0.8697052001953125</v>
       </c>
       <c r="E82" s="2">
-        <v>0.8568916916847229</v>
+        <v>0.85652917623519897</v>
       </c>
     </row>
     <row r="83">
@@ -1483,13 +1483,13 @@
         <v>0.75095808506011963</v>
       </c>
       <c r="C83" s="2">
-        <v>0.54915910959243775</v>
+        <v>0.54873538017272949</v>
       </c>
       <c r="D83" s="2">
         <v>0.90522098541259766</v>
       </c>
       <c r="E83" s="2">
-        <v>0.89744913578033447</v>
+        <v>0.89700961112976074</v>
       </c>
     </row>
     <row r="84">
@@ -1500,13 +1500,13 @@
         <v>0.84019225835800171</v>
       </c>
       <c r="C84" s="2">
-        <v>1.1411397457122803</v>
+        <v>1.1414840221405029</v>
       </c>
       <c r="D84" s="2">
         <v>0.89982110261917114</v>
       </c>
       <c r="E84" s="2">
-        <v>0.89286231994628906</v>
+        <v>0.89266622066497803</v>
       </c>
     </row>
     <row r="85">
@@ -1517,13 +1517,13 @@
         <v>0.24896910786628723</v>
       </c>
       <c r="C85" s="2">
-        <v>0.20758497714996338</v>
+        <v>0.20741122961044312</v>
       </c>
       <c r="D85" s="2">
         <v>0.89444327354431152</v>
       </c>
       <c r="E85" s="2">
-        <v>0.88799571990966797</v>
+        <v>0.88774728775024414</v>
       </c>
     </row>
     <row r="86">
@@ -1534,13 +1534,13 @@
         <v>1.0429925918579102</v>
       </c>
       <c r="C86" s="2">
-        <v>1.0787711143493652</v>
+        <v>1.0768766403198242</v>
       </c>
       <c r="D86" s="2">
         <v>0.88364994525909424</v>
       </c>
       <c r="E86" s="2">
-        <v>0.87186670303344727</v>
+        <v>0.87170785665512085</v>
       </c>
     </row>
     <row r="87">
@@ -1551,13 +1551,13 @@
         <v>0.65989404916763306</v>
       </c>
       <c r="C87" s="2">
-        <v>0.65153741836547852</v>
+        <v>0.65142583847045898</v>
       </c>
       <c r="D87" s="2">
         <v>0.81324732303619385</v>
       </c>
       <c r="E87" s="2">
-        <v>0.81878077983856201</v>
+        <v>0.81864702701568604</v>
       </c>
     </row>
     <row r="88">
@@ -1568,13 +1568,13 @@
         <v>0.90427273511886597</v>
       </c>
       <c r="C88" s="2">
-        <v>0.88976925611495972</v>
+        <v>0.88969069719314575</v>
       </c>
       <c r="D88" s="2">
         <v>0.83905458450317383</v>
       </c>
       <c r="E88" s="2">
-        <v>0.86019158363342285</v>
+        <v>0.86020565032958984</v>
       </c>
     </row>
     <row r="89">
@@ -1582,16 +1582,16 @@
         <v>31138</v>
       </c>
       <c r="B89" s="2">
-        <v>1.1330947875976563</v>
+        <v>1.1330947875976562</v>
       </c>
       <c r="C89" s="2">
-        <v>1.0914173126220703</v>
+        <v>1.0911997556686401</v>
       </c>
       <c r="D89" s="2">
         <v>0.91542172431945801</v>
       </c>
       <c r="E89" s="2">
-        <v>0.91019344329833984</v>
+        <v>0.91027873754501343</v>
       </c>
     </row>
     <row r="90">
@@ -1602,13 +1602,13 @@
         <v>0.86133444309234619</v>
       </c>
       <c r="C90" s="2">
-        <v>0.76477557420730591</v>
+        <v>0.76600462198257446</v>
       </c>
       <c r="D90" s="2">
-        <v>0.99562674760818482</v>
+        <v>0.99562674760818481</v>
       </c>
       <c r="E90" s="2">
-        <v>0.99731093645095825</v>
+        <v>0.99727511405944824</v>
       </c>
     </row>
     <row r="91">
@@ -1616,16 +1616,16 @@
         <v>31199</v>
       </c>
       <c r="B91" s="2">
-        <v>0.87751764059066773</v>
+        <v>0.87751764059066772</v>
       </c>
       <c r="C91" s="2">
-        <v>0.99487245082855225</v>
+        <v>0.99499523639678955</v>
       </c>
       <c r="D91" s="2">
         <v>1.004464864730835</v>
       </c>
       <c r="E91" s="2">
-        <v>1.0132076740264893</v>
+        <v>1.0133572816848755</v>
       </c>
     </row>
     <row r="92">
@@ -1636,13 +1636,13 @@
         <v>0.98322391510009766</v>
       </c>
       <c r="C92" s="2">
-        <v>0.92185652256011963</v>
+        <v>0.92276281118392944</v>
       </c>
       <c r="D92" s="2">
         <v>1.0346298217773438</v>
       </c>
       <c r="E92" s="2">
-        <v>1.0390654802322388</v>
+        <v>1.0391275882720947</v>
       </c>
     </row>
     <row r="93">
@@ -1653,13 +1653,13 @@
         <v>1.5274962186813354</v>
       </c>
       <c r="C93" s="2">
-        <v>1.5911566019058228</v>
+        <v>1.5921416282653809</v>
       </c>
       <c r="D93" s="2">
         <v>1.0411319732666016</v>
       </c>
       <c r="E93" s="2">
-        <v>1.0388108491897583</v>
+        <v>1.0389492511749268</v>
       </c>
     </row>
     <row r="94">
@@ -1670,13 +1670,13 @@
         <v>0.97081458568572998</v>
       </c>
       <c r="C94" s="2">
-        <v>0.9916422963142395</v>
+        <v>0.9903789758682251</v>
       </c>
       <c r="D94" s="2">
         <v>1.0259832143783569</v>
       </c>
       <c r="E94" s="2">
-        <v>1.014182448387146</v>
+        <v>1.0144020318984985</v>
       </c>
     </row>
     <row r="95">
@@ -1687,13 +1687,13 @@
         <v>1.1225353479385376</v>
       </c>
       <c r="C95" s="2">
-        <v>1.2218418121337891</v>
+        <v>1.2216163873672485</v>
       </c>
       <c r="D95" s="2">
         <v>1.0800504684448242</v>
       </c>
       <c r="E95" s="2">
-        <v>1.0735018253326416</v>
+        <v>1.0735170841217041</v>
       </c>
     </row>
     <row r="96">
@@ -1704,13 +1704,13 @@
         <v>0.93137860298156738</v>
       </c>
       <c r="C96" s="2">
-        <v>0.88425791263580322</v>
+        <v>0.88335812091827393</v>
       </c>
       <c r="D96" s="2">
         <v>0.99741452932357788</v>
       </c>
       <c r="E96" s="2">
-        <v>0.94626682996749878</v>
+        <v>0.94627022743225098</v>
       </c>
     </row>
     <row r="97">
@@ -1721,13 +1721,13 @@
         <v>0.9627920389175415</v>
       </c>
       <c r="C97" s="2">
-        <v>0.8874775767326355</v>
+        <v>0.88808596134185791</v>
       </c>
       <c r="D97" s="2">
         <v>0.94559592008590698</v>
       </c>
       <c r="E97" s="2">
-        <v>0.89990419149398804</v>
+        <v>0.89998191595077515</v>
       </c>
     </row>
     <row r="98">
@@ -1738,13 +1738,13 @@
         <v>0.99675625562667847</v>
       </c>
       <c r="C98" s="2">
-        <v>0.86976099014282227</v>
+        <v>0.87027406692504883</v>
       </c>
       <c r="D98" s="2">
         <v>0.8402131199836731</v>
       </c>
       <c r="E98" s="2">
-        <v>0.77854257822036743</v>
+        <v>0.77846336364746094</v>
       </c>
     </row>
     <row r="99">
@@ -1755,13 +1755,13 @@
         <v>1.347939133644104</v>
       </c>
       <c r="C99" s="2">
-        <v>1.2986507415771484</v>
+        <v>1.2980408668518066</v>
       </c>
       <c r="D99" s="2">
         <v>0.798350989818573</v>
       </c>
       <c r="E99" s="2">
-        <v>0.72618603706359863</v>
+        <v>0.72647082805633545</v>
       </c>
     </row>
     <row r="100">
@@ -1772,13 +1772,13 @@
         <v>0.1337946355342865</v>
       </c>
       <c r="C100" s="2">
-        <v>-0.15024274587631226</v>
+        <v>-0.15022669732570648</v>
       </c>
       <c r="D100" s="2">
         <v>0.68779623508453369</v>
       </c>
       <c r="E100" s="2">
-        <v>0.59386140108108521</v>
+        <v>0.59422439336776733</v>
       </c>
     </row>
     <row r="101">
@@ -1789,13 +1789,13 @@
         <v>0.51685655117034912</v>
       </c>
       <c r="C101" s="2">
-        <v>0.50459253787994385</v>
+        <v>0.50616776943206787</v>
       </c>
       <c r="D101" s="2">
         <v>0.5831073522567749</v>
       </c>
       <c r="E101" s="2">
-        <v>0.45921006798744202</v>
+        <v>0.45973917841911316</v>
       </c>
     </row>
     <row r="102">
@@ -1806,13 +1806,13 @@
         <v>0.57905077934265137</v>
       </c>
       <c r="C102" s="2">
-        <v>0.49890229105949402</v>
+        <v>0.49847504496574402</v>
       </c>
       <c r="D102" s="2">
         <v>0.47884836792945862</v>
       </c>
       <c r="E102" s="2">
-        <v>0.35588714480400085</v>
+        <v>0.35637173056602478</v>
       </c>
     </row>
     <row r="103">
@@ -1823,13 +1823,13 @@
         <v>0.59405559301376343</v>
       </c>
       <c r="C103" s="2">
-        <v>0.52043330669403076</v>
+        <v>0.52244579792022705</v>
       </c>
       <c r="D103" s="2">
         <v>0.43610408902168274</v>
       </c>
       <c r="E103" s="2">
-        <v>0.30275866389274597</v>
+        <v>0.3032810389995575</v>
       </c>
     </row>
     <row r="104">
@@ -1840,13 +1840,13 @@
         <v>0.12754246592521667</v>
       </c>
       <c r="C104" s="2">
-        <v>0.030920090153813362</v>
+        <v>0.031398512423038483</v>
       </c>
       <c r="D104" s="2">
         <v>0.31868463754653931</v>
       </c>
       <c r="E104" s="2">
-        <v>0.17704950273036957</v>
+        <v>0.17772006988525391</v>
       </c>
     </row>
     <row r="105">
@@ -1857,13 +1857,13 @@
         <v>-0.010821492411196232</v>
       </c>
       <c r="C105" s="2">
-        <v>-0.32760408520698547</v>
+        <v>-0.32700863480567932</v>
       </c>
       <c r="D105" s="2">
         <v>0.34865710139274597</v>
       </c>
       <c r="E105" s="2">
-        <v>0.25256237387657166</v>
+        <v>0.25326567888259888</v>
       </c>
     </row>
     <row r="106">
@@ -1874,13 +1874,13 @@
         <v>0.024461500346660614</v>
       </c>
       <c r="C106" s="2">
-        <v>-0.042428720742464066</v>
+        <v>-0.042221151292324066</v>
       </c>
       <c r="D106" s="2">
         <v>0.36496809124946594</v>
       </c>
       <c r="E106" s="2">
-        <v>0.26840639114379883</v>
+        <v>0.26915264129638672</v>
       </c>
     </row>
     <row r="107">
@@ -1891,13 +1891,13 @@
         <v>0.61205774545669556</v>
       </c>
       <c r="C107" s="2">
-        <v>0.39160457253456116</v>
+        <v>0.3924577534198761</v>
       </c>
       <c r="D107" s="2">
         <v>0.40837714076042175</v>
       </c>
       <c r="E107" s="2">
-        <v>0.31367796659469605</v>
+        <v>0.31471109390258789</v>
       </c>
     </row>
     <row r="108">
@@ -1908,13 +1908,13 @@
         <v>0.29116383194923401</v>
       </c>
       <c r="C108" s="2">
-        <v>0.16726827621459961</v>
+        <v>0.16799221932888031</v>
       </c>
       <c r="D108" s="2">
         <v>0.45248091220855713</v>
       </c>
       <c r="E108" s="2">
-        <v>0.35406219959259033</v>
+        <v>0.35489684343338013</v>
       </c>
     </row>
     <row r="109">
@@ -1925,13 +1925,13 @@
         <v>0.40354686975479126</v>
       </c>
       <c r="C109" s="2">
-        <v>0.52937322854995728</v>
+        <v>0.52968376874923706</v>
       </c>
       <c r="D109" s="2">
         <v>0.59081572294235229</v>
       </c>
       <c r="E109" s="2">
-        <v>0.48373872041702271</v>
+        <v>0.48435747623443604</v>
       </c>
     </row>
     <row r="110">
@@ -1942,13 +1942,13 @@
         <v>0.66365551948547363</v>
       </c>
       <c r="C110" s="2">
-        <v>0.64718866348266602</v>
+        <v>0.64915043115615845</v>
       </c>
       <c r="D110" s="2">
         <v>0.74648410081863403</v>
       </c>
       <c r="E110" s="2">
-        <v>0.66961121559143066</v>
+        <v>0.67042481899261475</v>
       </c>
     </row>
     <row r="111">
@@ -1959,13 +1959,13 @@
         <v>0.96973216533660889</v>
       </c>
       <c r="C111" s="2">
-        <v>0.90634632110595703</v>
+        <v>0.90850108861923218</v>
       </c>
       <c r="D111" s="2">
         <v>0.87780612707138062</v>
       </c>
       <c r="E111" s="2">
-        <v>0.78443247079849243</v>
+        <v>0.78524714708328247</v>
       </c>
     </row>
     <row r="112">
@@ -1976,13 +1976,13 @@
         <v>0.99098950624465942</v>
       </c>
       <c r="C112" s="2">
-        <v>0.88389146327972412</v>
+        <v>0.88411754369735718</v>
       </c>
       <c r="D112" s="2">
         <v>0.98098856210708618</v>
       </c>
       <c r="E112" s="2">
-        <v>0.89244157075881958</v>
+        <v>0.89332538843154907</v>
       </c>
     </row>
     <row r="113">
@@ -1993,13 +1993,13 @@
         <v>1.3725557327270508</v>
       </c>
       <c r="C113" s="2">
-        <v>1.19800865650177</v>
+        <v>1.1965441703796387</v>
       </c>
       <c r="D113" s="2">
         <v>1.1153632402420044</v>
       </c>
       <c r="E113" s="2">
-        <v>1.0460463762283325</v>
+        <v>1.0468214750289917</v>
       </c>
     </row>
     <row r="114">
@@ -2010,13 +2010,13 @@
         <v>1.3901938199996948</v>
       </c>
       <c r="C114" s="2">
-        <v>1.3452485799789429</v>
+        <v>1.3475974798202515</v>
       </c>
       <c r="D114" s="2">
         <v>1.2578468322753906</v>
       </c>
       <c r="E114" s="2">
-        <v>1.1694077253341675</v>
+        <v>1.1702704429626465</v>
       </c>
     </row>
     <row r="115">
@@ -2027,13 +2027,13 @@
         <v>1.2063601016998291</v>
       </c>
       <c r="C115" s="2">
-        <v>0.99096250534057617</v>
+        <v>0.99117976427078247</v>
       </c>
       <c r="D115" s="2">
-        <v>1.2326499223709107</v>
+        <v>1.2326499223709106</v>
       </c>
       <c r="E115" s="2">
-        <v>1.1135119199752808</v>
+        <v>1.1142134666442871</v>
       </c>
     </row>
     <row r="116">
@@ -2044,13 +2044,13 @@
         <v>1.5406996011734009</v>
       </c>
       <c r="C116" s="2">
-        <v>1.3636866807937622</v>
+        <v>1.3651620149612427</v>
       </c>
       <c r="D116" s="2">
         <v>1.2275859117507935</v>
       </c>
       <c r="E116" s="2">
-        <v>1.1020433902740479</v>
+        <v>1.1026532649993896</v>
       </c>
     </row>
     <row r="117">
@@ -2061,13 +2061,13 @@
         <v>1.5005362033843994</v>
       </c>
       <c r="C117" s="2">
-        <v>1.5497113466262817</v>
+        <v>1.5494570732116699</v>
       </c>
       <c r="D117" s="2">
         <v>1.1623567342758179</v>
       </c>
       <c r="E117" s="2">
-        <v>1.0558475255966187</v>
+        <v>1.0564489364624023</v>
       </c>
     </row>
     <row r="118">
@@ -2078,13 +2078,13 @@
         <v>1.6858992576599121</v>
       </c>
       <c r="C118" s="2">
-        <v>1.6396253108978272</v>
+        <v>1.6407244205474854</v>
       </c>
       <c r="D118" s="2">
         <v>1.1071981191635132</v>
       </c>
       <c r="E118" s="2">
-        <v>0.99993038177490234</v>
+        <v>1.0008788108825684</v>
       </c>
     </row>
     <row r="119">
@@ -2095,13 +2095,13 @@
         <v>0.43688303232192993</v>
       </c>
       <c r="C119" s="2">
-        <v>0.14412659406661987</v>
+        <v>0.14463748037815094</v>
       </c>
       <c r="D119" s="2">
         <v>1.0871602296829224</v>
       </c>
       <c r="E119" s="2">
-        <v>0.97104722261428833</v>
+        <v>0.97177892923355103</v>
       </c>
     </row>
     <row r="120">
@@ -2112,13 +2112,13 @@
         <v>0.92415553331375122</v>
       </c>
       <c r="C120" s="2">
-        <v>0.80312901735305786</v>
+        <v>0.80445915460586548</v>
       </c>
       <c r="D120" s="2">
         <v>1.0592646598815918</v>
       </c>
       <c r="E120" s="2">
-        <v>0.95220446586608887</v>
+        <v>0.95320940017700195</v>
       </c>
     </row>
     <row r="121">
@@ -2129,13 +2129,13 @@
         <v>0.40392753481864929</v>
       </c>
       <c r="C121" s="2">
-        <v>0.46812868118286133</v>
+        <v>0.46827903389930725</v>
       </c>
       <c r="D121" s="2">
         <v>1.0128895044326782</v>
       </c>
       <c r="E121" s="2">
-        <v>0.93908989429473877</v>
+        <v>0.93995487689971924</v>
       </c>
     </row>
     <row r="122">
@@ -2146,13 +2146,13 @@
         <v>0.87612801790237427</v>
       </c>
       <c r="C122" s="2">
-        <v>0.69475477933883667</v>
+        <v>0.69641262292861938</v>
       </c>
       <c r="D122" s="2">
         <v>0.90189272165298462</v>
       </c>
       <c r="E122" s="2">
-        <v>0.7931329607963562</v>
+        <v>0.79428631067276001</v>
       </c>
     </row>
     <row r="123">
@@ -2163,13 +2163,13 @@
         <v>1.2098530530929565</v>
       </c>
       <c r="C123" s="2">
-        <v>1.0853003263473511</v>
+        <v>1.0856986045837402</v>
       </c>
       <c r="D123" s="2">
         <v>0.83154535293579102</v>
       </c>
       <c r="E123" s="2">
-        <v>0.71851927042007446</v>
+        <v>0.71971625089645386</v>
       </c>
     </row>
     <row r="124">
@@ -2180,13 +2180,13 @@
         <v>0.95529943704605103</v>
       </c>
       <c r="C124" s="2">
-        <v>0.82137763500213623</v>
+        <v>0.8240543007850647</v>
       </c>
       <c r="D124" s="2">
         <v>0.90723186731338501</v>
       </c>
       <c r="E124" s="2">
-        <v>0.82022196054458618</v>
+        <v>0.82148283720016479</v>
       </c>
     </row>
     <row r="125">
@@ -2197,13 +2197,13 @@
         <v>1.1233233213424683</v>
       </c>
       <c r="C125" s="2">
-        <v>1.2456552982330322</v>
+        <v>1.2458710670471191</v>
       </c>
       <c r="D125" s="2">
         <v>0.92720144987106323</v>
       </c>
       <c r="E125" s="2">
-        <v>0.83513343334197998</v>
+        <v>0.83636075258255005</v>
       </c>
     </row>
     <row r="126">
@@ -2214,13 +2214,13 @@
         <v>0.50156509876251221</v>
       </c>
       <c r="C126" s="2">
-        <v>0.23609919846057892</v>
+        <v>0.2384401261806488</v>
       </c>
       <c r="D126" s="2">
         <v>1.0568108558654785</v>
       </c>
       <c r="E126" s="2">
-        <v>0.95357263088226318</v>
+        <v>0.95513927936553955</v>
       </c>
     </row>
     <row r="127">
@@ -2231,13 +2231,13 @@
         <v>1.0527728796005249</v>
       </c>
       <c r="C127" s="2">
-        <v>0.9681020975112915</v>
+        <v>0.96959394216537476</v>
       </c>
       <c r="D127" s="2">
         <v>0.98809897899627686</v>
       </c>
       <c r="E127" s="2">
-        <v>0.90031343698501587</v>
+        <v>0.9014926552772522</v>
       </c>
     </row>
     <row r="128">
@@ -2248,13 +2248,13 @@
         <v>1.1180621385574341</v>
       </c>
       <c r="C128" s="2">
-        <v>1.0594508647918701</v>
+        <v>1.0605366230010986</v>
       </c>
       <c r="D128" s="2">
         <v>0.9396626353263855</v>
       </c>
       <c r="E128" s="2">
-        <v>0.85441422462463379</v>
+        <v>0.8558800220489502</v>
       </c>
     </row>
     <row r="129">
@@ -2265,13 +2265,13 @@
         <v>1.1038813591003418</v>
       </c>
       <c r="C129" s="2">
-        <v>0.93733179569244385</v>
+        <v>0.93836057186126709</v>
       </c>
       <c r="D129" s="2">
-        <v>0.9810362458229065</v>
+        <v>0.98103624582290649</v>
       </c>
       <c r="E129" s="2">
-        <v>0.89808094501495361</v>
+        <v>0.89944803714752197</v>
       </c>
     </row>
     <row r="130">
@@ -2282,13 +2282,13 @@
         <v>1.5704125165939331</v>
       </c>
       <c r="C130" s="2">
-        <v>1.5340815782546997</v>
+        <v>1.5372858047485352</v>
       </c>
       <c r="D130" s="2">
         <v>1.0273183584213257</v>
       </c>
       <c r="E130" s="2">
-        <v>0.93961197137832642</v>
+        <v>0.94120323657989502</v>
       </c>
     </row>
     <row r="131">
@@ -2299,13 +2299,13 @@
         <v>0.25772073864936829</v>
       </c>
       <c r="C131" s="2">
-        <v>0.21542231738567352</v>
+        <v>0.2135930061340332</v>
       </c>
       <c r="D131" s="2">
         <v>1.094713568687439</v>
       </c>
       <c r="E131" s="2">
-        <v>1.0342700481414795</v>
+        <v>1.035536527633667</v>
       </c>
     </row>
     <row r="132">
@@ -2316,13 +2316,13 @@
         <v>0.7739260196685791</v>
       </c>
       <c r="C132" s="2">
-        <v>0.67220741510391235</v>
+        <v>0.67518454790115356</v>
       </c>
       <c r="D132" s="2">
         <v>1.0888017416000366</v>
       </c>
       <c r="E132" s="2">
-        <v>1.0445336103439331</v>
+        <v>1.0458190441131592</v>
       </c>
     </row>
     <row r="133">
@@ -2333,13 +2333,13 @@
         <v>1.3276619911193848</v>
       </c>
       <c r="C133" s="2">
-        <v>1.2143778800964355</v>
+        <v>1.2161668539047241</v>
       </c>
       <c r="D133" s="2">
         <v>1.0259606838226318</v>
       </c>
       <c r="E133" s="2">
-        <v>0.95214617252349854</v>
+        <v>0.95326578617095947</v>
       </c>
     </row>
     <row r="134">
@@ -2350,13 +2350,13 @@
         <v>1.5398620367050171</v>
       </c>
       <c r="C134" s="2">
-        <v>1.6194348335266113</v>
+        <v>1.6216675043106079</v>
       </c>
       <c r="D134" s="2">
         <v>0.9701153039932251</v>
       </c>
       <c r="E134" s="2">
-        <v>0.87911200523376465</v>
+        <v>0.88028466701507568</v>
       </c>
     </row>
     <row r="135">
@@ -2364,16 +2364,16 @@
         <v>32540</v>
       </c>
       <c r="B135" s="2">
-        <v>1.1081227064132691</v>
+        <v>1.108122706413269</v>
       </c>
       <c r="C135" s="2">
-        <v>1.0880218744277954</v>
+        <v>1.0874397754669189</v>
       </c>
       <c r="D135" s="2">
         <v>0.90150004625320435</v>
       </c>
       <c r="E135" s="2">
-        <v>0.8021586537361145</v>
+        <v>0.80315697193145752</v>
       </c>
     </row>
     <row r="136">
@@ -2384,13 +2384,13 @@
         <v>0.9995657205581665</v>
       </c>
       <c r="C136" s="2">
-        <v>1.0604743957519531</v>
+        <v>1.062136173248291</v>
       </c>
       <c r="D136" s="2">
         <v>1.0415375232696533</v>
       </c>
       <c r="E136" s="2">
-        <v>0.93924176692962647</v>
+        <v>0.94070172309875488</v>
       </c>
     </row>
     <row r="137">
@@ -2401,13 +2401,13 @@
         <v>0.55249351263046265</v>
       </c>
       <c r="C137" s="2">
-        <v>0.22796328365802765</v>
+        <v>0.22755809128284454</v>
       </c>
       <c r="D137" s="2">
         <v>1.0789514780044556</v>
       </c>
       <c r="E137" s="2">
-        <v>0.98671895265579224</v>
+        <v>0.98782956600189209</v>
       </c>
     </row>
     <row r="138">
@@ -2418,13 +2418,13 @@
         <v>0.60127246379852295</v>
       </c>
       <c r="C138" s="2">
-        <v>0.28002443909645081</v>
+        <v>0.28153011202812195</v>
       </c>
       <c r="D138" s="2">
         <v>1.0438895225524902</v>
       </c>
       <c r="E138" s="2">
-        <v>1.0368055105209351</v>
+        <v>1.0375964641571045</v>
       </c>
     </row>
     <row r="139">
@@ -2435,13 +2435,13 @@
         <v>0.95287501811981201</v>
       </c>
       <c r="C139" s="2">
-        <v>0.84150147438049317</v>
+        <v>0.84313642978668213</v>
       </c>
       <c r="D139" s="2">
         <v>0.98979014158248901</v>
       </c>
       <c r="E139" s="2">
-        <v>0.96050643920898438</v>
+        <v>0.96132844686508179</v>
       </c>
     </row>
     <row r="140">
@@ -2452,13 +2452,13 @@
         <v>1.5180577039718628</v>
       </c>
       <c r="C140" s="2">
-        <v>1.4491703510284424</v>
+        <v>1.4514960050582886</v>
       </c>
       <c r="D140" s="2">
         <v>1.0464777946472168</v>
       </c>
       <c r="E140" s="2">
-        <v>1.0016964673995972</v>
+        <v>1.0027461051940918</v>
       </c>
     </row>
     <row r="141">
@@ -2469,13 +2469,13 @@
         <v>1.1106525659561157</v>
       </c>
       <c r="C141" s="2">
-        <v>1.0995019674301147</v>
+        <v>1.0993350744247437</v>
       </c>
       <c r="D141" s="2">
         <v>1.0369572639465332</v>
       </c>
       <c r="E141" s="2">
-        <v>0.98785161972045899</v>
+        <v>0.98859792947769165</v>
       </c>
     </row>
     <row r="142">
@@ -2486,13 +2486,13 @@
         <v>1.0121045112609863</v>
       </c>
       <c r="C142" s="2">
-        <v>1.6651569604873657</v>
+        <v>1.6640686988830566</v>
       </c>
       <c r="D142" s="2">
         <v>1.0403944253921509</v>
       </c>
       <c r="E142" s="2">
-        <v>1.0330584049224854</v>
+        <v>1.0339751243591309</v>
       </c>
     </row>
     <row r="143">
@@ -2503,13 +2503,13 @@
         <v>1.052966833114624</v>
       </c>
       <c r="C143" s="2">
-        <v>0.9327431321144104</v>
+        <v>0.93525552749633789</v>
       </c>
       <c r="D143" s="2">
         <v>1.0907306671142578</v>
       </c>
       <c r="E143" s="2">
-        <v>1.106339693069458</v>
+        <v>1.1071207523345947</v>
       </c>
     </row>
     <row r="144">
@@ -2520,13 +2520,13 @@
         <v>1.6183123588562012</v>
       </c>
       <c r="C144" s="2">
-        <v>1.4587322473526001</v>
+        <v>1.4601985216140747</v>
       </c>
       <c r="D144" s="2">
-        <v>1.1236333847045899</v>
+        <v>1.1236333847045898</v>
       </c>
       <c r="E144" s="2">
-        <v>1.1447409391403198</v>
+        <v>1.1456632614135742</v>
       </c>
     </row>
     <row r="145">
@@ -2537,13 +2537,13 @@
         <v>0.91387999057769775</v>
       </c>
       <c r="C145" s="2">
-        <v>0.93587076663970947</v>
+        <v>0.93480277061462402</v>
       </c>
       <c r="D145" s="2">
         <v>1.0465196371078491</v>
       </c>
       <c r="E145" s="2">
-        <v>1.0701637268066406</v>
+        <v>1.0710999965667725</v>
       </c>
     </row>
     <row r="146">
@@ -2554,13 +2554,13 @@
         <v>0.58342814445495605</v>
       </c>
       <c r="C146" s="2">
-        <v>0.63482469320297241</v>
+        <v>0.63595277070999146</v>
       </c>
       <c r="D146" s="2">
         <v>1.0489387512207031</v>
       </c>
       <c r="E146" s="2">
-        <v>1.0593782663345337</v>
+        <v>1.0603952407836914</v>
       </c>
     </row>
     <row r="147">
@@ -2571,13 +2571,13 @@
         <v>1.0542991161346436</v>
       </c>
       <c r="C147" s="2">
-        <v>0.93955600261688232</v>
+        <v>0.93984073400497437</v>
       </c>
       <c r="D147" s="2">
         <v>1.0765870809555054</v>
       </c>
       <c r="E147" s="2">
-        <v>0.98519760370254517</v>
+        <v>0.98640644550323486</v>
       </c>
     </row>
     <row r="148">
@@ -2588,13 +2588,13 @@
         <v>1.248998761177063</v>
       </c>
       <c r="C148" s="2">
-        <v>1.1871118545532227</v>
+        <v>1.1900193691253662</v>
       </c>
       <c r="D148" s="2">
         <v>1.0753378868103027</v>
       </c>
       <c r="E148" s="2">
-        <v>0.98254132270812988</v>
+        <v>0.98363709449768066</v>
       </c>
     </row>
     <row r="149">
@@ -2605,13 +2605,13 @@
         <v>0.82403445243835449</v>
       </c>
       <c r="C149" s="2">
-        <v>0.77797597646713257</v>
+        <v>0.78042691946029663</v>
       </c>
       <c r="D149" s="2">
         <v>1.0183613300323486</v>
       </c>
       <c r="E149" s="2">
-        <v>0.93231004476547241</v>
+        <v>0.93331873416900635</v>
       </c>
     </row>
     <row r="150">
@@ -2622,13 +2622,13 @@
         <v>1.1324241161346436</v>
       </c>
       <c r="C150" s="2">
-        <v>1.0024328231811523</v>
+        <v>1.0029916763305664</v>
       </c>
       <c r="D150" s="2">
         <v>1.0164604187011719</v>
       </c>
       <c r="E150" s="2">
-        <v>0.91436976194381714</v>
+        <v>0.91557031869888306</v>
       </c>
     </row>
     <row r="151">
@@ -2639,13 +2639,13 @@
         <v>1.2609398365020752</v>
       </c>
       <c r="C151" s="2">
-        <v>0.99753093719482422</v>
+        <v>0.9981696605682373</v>
       </c>
       <c r="D151" s="2">
         <v>0.94837933778762817</v>
       </c>
       <c r="E151" s="2">
-        <v>0.82456576824188233</v>
+        <v>0.8256373405456543</v>
       </c>
     </row>
     <row r="152">
@@ -2656,13 +2656,13 @@
         <v>1.041724681854248</v>
       </c>
       <c r="C152" s="2">
-        <v>0.90883678197860718</v>
+        <v>0.91033148765563965</v>
       </c>
       <c r="D152" s="2">
         <v>0.82177597284317017</v>
       </c>
       <c r="E152" s="2">
-        <v>0.70837748050689697</v>
+        <v>0.70932656526565552</v>
       </c>
     </row>
     <row r="153">
@@ -2673,13 +2673,13 @@
         <v>1.1055232286453247</v>
       </c>
       <c r="C153" s="2">
-        <v>1.0066503286361694</v>
+        <v>1.0073330402374268</v>
       </c>
       <c r="D153" s="2">
         <v>0.65232169628143311</v>
       </c>
       <c r="E153" s="2">
-        <v>0.54472798109054566</v>
+        <v>0.54525130987167358</v>
       </c>
     </row>
     <row r="154">
@@ -2690,13 +2690,13 @@
         <v>0.89677160978317261</v>
       </c>
       <c r="C154" s="2">
-        <v>0.77440845966339111</v>
+        <v>0.7750670313835144</v>
       </c>
       <c r="D154" s="2">
         <v>0.48827815055847168</v>
       </c>
       <c r="E154" s="2">
-        <v>0.39678430557250977</v>
+        <v>0.39709457755088806</v>
       </c>
     </row>
     <row r="155">
@@ -2707,13 +2707,13 @@
         <v>-0.029301609843969345</v>
       </c>
       <c r="C155" s="2">
-        <v>-0.17341117560863495</v>
+        <v>-0.17344406247138977</v>
       </c>
       <c r="D155" s="2">
         <v>0.34072479605674744</v>
       </c>
       <c r="E155" s="2">
-        <v>0.24606843292713165</v>
+        <v>0.24636688828468323</v>
       </c>
     </row>
     <row r="156">
@@ -2724,13 +2724,13 @@
         <v>-0.085131451487541199</v>
       </c>
       <c r="C156" s="2">
-        <v>-0.1061386913061142</v>
+        <v>-0.10695597529411316</v>
       </c>
       <c r="D156" s="2">
         <v>0.17210513353347778</v>
       </c>
       <c r="E156" s="2">
-        <v>0.15117835998535156</v>
+        <v>0.15098704397678375</v>
       </c>
     </row>
     <row r="157">
@@ -2741,13 +2741,13 @@
         <v>-0.27608934044837952</v>
       </c>
       <c r="C157" s="2">
-        <v>-0.28573384881019592</v>
+        <v>-0.28665798902511597</v>
       </c>
       <c r="D157" s="2">
         <v>0.079903863370418549</v>
       </c>
       <c r="E157" s="2">
-        <v>0.060025483369827271</v>
+        <v>0.059688784182071686</v>
       </c>
     </row>
     <row r="158">
@@ -2758,13 +2758,13 @@
         <v>-0.65235769748687744</v>
       </c>
       <c r="C158" s="2">
-        <v>-0.5535169243812561</v>
+        <v>-0.55298370122909546</v>
       </c>
       <c r="D158" s="2">
         <v>0.046480540186166763</v>
       </c>
       <c r="E158" s="2">
-        <v>0.04095950722694397</v>
+        <v>0.040724664926528931</v>
       </c>
     </row>
     <row r="159">
@@ -2775,13 +2775,13 @@
         <v>-0.1955561488866806</v>
       </c>
       <c r="C159" s="2">
-        <v>-0.35400998592376709</v>
+        <v>-0.35355743765830994</v>
       </c>
       <c r="D159" s="2">
         <v>-0.065591193735599518</v>
       </c>
       <c r="E159" s="2">
-        <v>-0.073981694877147675</v>
+        <v>-0.074330762028694153</v>
       </c>
     </row>
     <row r="160">
@@ -2792,13 +2792,13 @@
         <v>-0.25663700699806213</v>
       </c>
       <c r="C160" s="2">
-        <v>0.14352026581764221</v>
+        <v>0.13975097239017487</v>
       </c>
       <c r="D160" s="2">
         <v>0.0041405675001442432</v>
       </c>
       <c r="E160" s="2">
-        <v>0.0061062523163855076</v>
+        <v>0.0056122126989066601</v>
       </c>
     </row>
     <row r="161">
@@ -2809,13 +2809,13 @@
         <v>0.21191319823265076</v>
       </c>
       <c r="C161" s="2">
-        <v>0.088460922241210938</v>
+        <v>0.088647186756134033</v>
       </c>
       <c r="D161" s="2">
         <v>0.048113804310560226</v>
       </c>
       <c r="E161" s="2">
-        <v>0.039588376879692078</v>
+        <v>0.038999840617179871</v>
       </c>
     </row>
     <row r="162">
@@ -2826,13 +2826,13 @@
         <v>0.80471330881118774</v>
       </c>
       <c r="C162" s="2">
-        <v>0.83505654335021973</v>
+        <v>0.83665597438812256</v>
       </c>
       <c r="D162" s="2">
         <v>0.078669555485248566</v>
       </c>
       <c r="E162" s="2">
-        <v>0.062458019703626633</v>
+        <v>0.061887007206678391</v>
       </c>
     </row>
     <row r="163">
@@ -2843,13 +2843,13 @@
         <v>-0.11187399923801422</v>
       </c>
       <c r="C163" s="2">
-        <v>-0.2600623369216919</v>
+        <v>-0.26043185591697693</v>
       </c>
       <c r="D163" s="2">
         <v>0.21288938820362091</v>
       </c>
       <c r="E163" s="2">
-        <v>0.17243614792823792</v>
+        <v>0.17194551229476929</v>
       </c>
     </row>
     <row r="164">
@@ -2860,13 +2860,13 @@
         <v>0.59828424453735352</v>
       </c>
       <c r="C164" s="2">
-        <v>0.54738032817840576</v>
+        <v>0.54604274034500122</v>
       </c>
       <c r="D164" s="2">
         <v>0.29645845293998718</v>
       </c>
       <c r="E164" s="2">
-        <v>0.28356432914733887</v>
+        <v>0.28312546014785767</v>
       </c>
     </row>
     <row r="165">
@@ -2877,13 +2877,13 @@
         <v>0.31062766909599304</v>
       </c>
       <c r="C165" s="2">
-        <v>0.19520042836666107</v>
+        <v>0.19353269040584564</v>
       </c>
       <c r="D165" s="2">
         <v>0.28729885816574097</v>
       </c>
       <c r="E165" s="2">
-        <v>0.22842562198638916</v>
+        <v>0.22811681032180786</v>
       </c>
     </row>
     <row r="166">
@@ -2894,13 +2894,13 @@
         <v>-0.0010875595035031438</v>
       </c>
       <c r="C166" s="2">
-        <v>-0.079907067120075226</v>
+        <v>-0.080673493444919586</v>
       </c>
       <c r="D166" s="2">
         <v>0.24615252017974854</v>
       </c>
       <c r="E166" s="2">
-        <v>0.20434123277664185</v>
+        <v>0.20401844382286072</v>
       </c>
     </row>
     <row r="167">
@@ -2911,13 +2911,13 @@
         <v>0.55562072992324829</v>
       </c>
       <c r="C167" s="2">
-        <v>0.43628621101379395</v>
+        <v>0.43754276633262634</v>
       </c>
       <c r="D167" s="2">
         <v>0.12478786706924438</v>
       </c>
       <c r="E167" s="2">
-        <v>0.065579600632190704</v>
+        <v>0.065076246857643127</v>
       </c>
     </row>
     <row r="168">
@@ -2928,13 +2928,13 @@
         <v>0.55656552314758301</v>
       </c>
       <c r="C168" s="2">
-        <v>0.64614367485046387</v>
+        <v>0.64706224203109741</v>
       </c>
       <c r="D168" s="2">
         <v>0.13145817816257477</v>
       </c>
       <c r="E168" s="2">
-        <v>0.075212500989437103</v>
+        <v>0.074978835880756378</v>
       </c>
     </row>
     <row r="169">
@@ -2945,13 +2945,13 @@
         <v>-0.33907327055931091</v>
       </c>
       <c r="C169" s="2">
-        <v>-0.35272809863090515</v>
+        <v>-0.35532701015472412</v>
       </c>
       <c r="D169" s="2">
         <v>0.094043642282485962</v>
       </c>
       <c r="E169" s="2">
-        <v>0.042274780571460724</v>
+        <v>0.042374409735202789</v>
       </c>
     </row>
     <row r="170">
@@ -2962,13 +2962,13 @@
         <v>-0.15840400755405426</v>
       </c>
       <c r="C170" s="2">
-        <v>-0.12829861044883728</v>
+        <v>-0.12823805212974548</v>
       </c>
       <c r="D170" s="2">
         <v>0.1315656453371048</v>
       </c>
       <c r="E170" s="2">
-        <v>0.084322698414325714</v>
+        <v>0.084892004728317261</v>
       </c>
     </row>
     <row r="171">
@@ -2979,13 +2979,13 @@
         <v>-0.28756853938102722</v>
       </c>
       <c r="C171" s="2">
-        <v>-0.41379815340042114</v>
+        <v>-0.41382381319999695</v>
       </c>
       <c r="D171" s="2">
         <v>0.14728274941444397</v>
       </c>
       <c r="E171" s="2">
-        <v>0.090763285756111145</v>
+        <v>0.091423317790031433</v>
       </c>
     </row>
     <row r="172">
@@ -2996,13 +2996,13 @@
         <v>-0.051841244101524353</v>
       </c>
       <c r="C172" s="2">
-        <v>-0.1733662337064743</v>
+        <v>-0.17130856215953827</v>
       </c>
       <c r="D172" s="2">
         <v>0.1753523200750351</v>
       </c>
       <c r="E172" s="2">
-        <v>0.12962846457958221</v>
+        <v>0.1302313506603241</v>
       </c>
     </row>
     <row r="173">
@@ -3013,13 +3013,13 @@
         <v>0.26155346632003784</v>
       </c>
       <c r="C173" s="2">
-        <v>0.25094088912010193</v>
+        <v>0.25260290503501892</v>
       </c>
       <c r="D173" s="2">
         <v>0.17849370837211609</v>
       </c>
       <c r="E173" s="2">
-        <v>0.10304457694292068</v>
+        <v>0.10355373471975327</v>
       </c>
     </row>
     <row r="174">
@@ -3030,13 +3030,13 @@
         <v>0.64832568168640137</v>
       </c>
       <c r="C174" s="2">
-        <v>0.5736316442489624</v>
+        <v>0.57619106769561768</v>
       </c>
       <c r="D174" s="2">
         <v>0.36803606152534485</v>
       </c>
       <c r="E174" s="2">
-        <v>0.28337213397026062</v>
+        <v>0.28432309627532959</v>
       </c>
     </row>
     <row r="175">
@@ -3047,13 +3047,13 @@
         <v>0.14036634564399719</v>
       </c>
       <c r="C175" s="2">
-        <v>-0.021941730752587318</v>
+        <v>-0.021891701966524124</v>
       </c>
       <c r="D175" s="2">
         <v>0.47030669450759888</v>
       </c>
       <c r="E175" s="2">
-        <v>0.36721071600914002</v>
+        <v>0.36831668019294739</v>
       </c>
     </row>
     <row r="176">
@@ -3064,13 +3064,13 @@
         <v>0.808246910572052</v>
       </c>
       <c r="C176" s="2">
-        <v>0.78607279062271118</v>
+        <v>0.78681504726409912</v>
       </c>
       <c r="D176" s="2">
         <v>0.49438965320587158</v>
       </c>
       <c r="E176" s="2">
-        <v>0.40446656942367554</v>
+        <v>0.40556198358535767</v>
       </c>
     </row>
     <row r="177">
@@ -3081,13 +3081,13 @@
         <v>0.58483809232711792</v>
       </c>
       <c r="C177" s="2">
-        <v>0.40688872337341309</v>
+        <v>0.40696370601654053</v>
       </c>
       <c r="D177" s="2">
         <v>0.51323997974395752</v>
       </c>
       <c r="E177" s="2">
-        <v>0.43428638577461243</v>
+        <v>0.43517440557479858</v>
       </c>
     </row>
     <row r="178">
@@ -3098,13 +3098,13 @@
         <v>1.3668078184127808</v>
       </c>
       <c r="C178" s="2">
-        <v>1.2702198028564453</v>
+        <v>1.2715973854064941</v>
       </c>
       <c r="D178" s="2">
         <v>0.54678082466125488</v>
       </c>
       <c r="E178" s="2">
-        <v>0.47373190522193909</v>
+        <v>0.47492262721061707</v>
       </c>
     </row>
     <row r="179">
@@ -3115,13 +3115,13 @@
         <v>0.76203185319900513</v>
       </c>
       <c r="C179" s="2">
-        <v>0.62624859809875488</v>
+        <v>0.62770414352416992</v>
       </c>
       <c r="D179" s="2">
         <v>0.50989848375320435</v>
       </c>
       <c r="E179" s="2">
-        <v>0.4341595470905304</v>
+        <v>0.43505948781967163</v>
       </c>
     </row>
     <row r="180">
@@ -3132,13 +3132,13 @@
         <v>-0.070822089910507202</v>
       </c>
       <c r="C180" s="2">
-        <v>-0.078495360910892487</v>
+        <v>-0.078616194427013397</v>
       </c>
       <c r="D180" s="2">
         <v>0.64696335792541504</v>
       </c>
       <c r="E180" s="2">
-        <v>0.57966470718383789</v>
+        <v>0.58073335886001587</v>
       </c>
     </row>
     <row r="181">
@@ -3149,13 +3149,13 @@
         <v>0.11781155318021774</v>
       </c>
       <c r="C181" s="2">
-        <v>0.095012113451957703</v>
+        <v>0.095203272998332977</v>
       </c>
       <c r="D181" s="2">
         <v>0.50260907411575317</v>
       </c>
       <c r="E181" s="2">
-        <v>0.50590974092483521</v>
+        <v>0.50694841146469116</v>
       </c>
     </row>
     <row r="182">
@@ -3166,13 +3166,13 @@
         <v>0.56342142820358276</v>
       </c>
       <c r="C182" s="2">
-        <v>0.60595047473907471</v>
+        <v>0.61033684015274048</v>
       </c>
       <c r="D182" s="2">
         <v>0.57563948631286621</v>
       </c>
       <c r="E182" s="2">
-        <v>0.580791175365448</v>
+        <v>0.58190250396728516</v>
       </c>
     </row>
     <row r="183">
@@ -3183,13 +3183,13 @@
         <v>0.31638434529304504</v>
       </c>
       <c r="C183" s="2">
-        <v>0.21748057007789612</v>
+        <v>0.21742285788059235</v>
       </c>
       <c r="D183" s="2">
         <v>0.60031038522720337</v>
       </c>
       <c r="E183" s="2">
-        <v>0.58862519264221192</v>
+        <v>0.58955389261245728</v>
       </c>
     </row>
     <row r="184">
@@ -3200,13 +3200,13 @@
         <v>1.3739501237869263</v>
       </c>
       <c r="C184" s="2">
-        <v>1.2876046895980835</v>
+        <v>1.2891733646392822</v>
       </c>
       <c r="D184" s="2">
         <v>0.66368454694747925</v>
       </c>
       <c r="E184" s="2">
-        <v>0.63579469919204712</v>
+        <v>0.63672369718551636</v>
       </c>
     </row>
     <row r="185">
@@ -3217,13 +3217,13 @@
         <v>-0.49094125628471375</v>
       </c>
       <c r="C185" s="2">
-        <v>0.12227780371904373</v>
+        <v>0.12275011092424393</v>
       </c>
       <c r="D185" s="2">
         <v>0.7536194920539856</v>
       </c>
       <c r="E185" s="2">
-        <v>0.70543837547302246</v>
+        <v>0.70644807815551758</v>
       </c>
     </row>
     <row r="186">
@@ -3234,13 +3234,13 @@
         <v>1.2421115636825562</v>
       </c>
       <c r="C186" s="2">
-        <v>1.0808219909667969</v>
+        <v>1.0815507173538208</v>
       </c>
       <c r="D186" s="2">
         <v>0.78110557794570923</v>
       </c>
       <c r="E186" s="2">
-        <v>0.70477193593978882</v>
+        <v>0.70592838525772095</v>
       </c>
     </row>
     <row r="187">
@@ -3251,13 +3251,13 @@
         <v>1.5888462066650391</v>
       </c>
       <c r="C187" s="2">
-        <v>1.3407258987426758</v>
+        <v>1.3404598236083984</v>
       </c>
       <c r="D187" s="2">
         <v>0.8157927393913269</v>
       </c>
       <c r="E187" s="2">
-        <v>0.75788629055023193</v>
+        <v>0.75874650478363037</v>
       </c>
     </row>
     <row r="188">
@@ -3268,13 +3268,13 @@
         <v>1.3323990106582642</v>
       </c>
       <c r="C188" s="2">
-        <v>1.0507739782333374</v>
+        <v>1.0522326231002808</v>
       </c>
       <c r="D188" s="2">
         <v>0.71775144338607788</v>
       </c>
       <c r="E188" s="2">
-        <v>0.66153150796890259</v>
+        <v>0.66281747817993164</v>
       </c>
     </row>
     <row r="189">
@@ -3285,13 +3285,13 @@
         <v>0.73859226703643799</v>
       </c>
       <c r="C189" s="2">
-        <v>0.5482977032661438</v>
+        <v>0.54890298843383789</v>
       </c>
       <c r="D189" s="2">
         <v>0.58328336477279663</v>
       </c>
       <c r="E189" s="2">
-        <v>0.49426606297492981</v>
+        <v>0.49525940418243408</v>
       </c>
     </row>
     <row r="190">
@@ -3302,13 +3302,13 @@
         <v>0.36518657207489014</v>
       </c>
       <c r="C190" s="2">
-        <v>0.089014217257499695</v>
+        <v>0.090526111423969269</v>
       </c>
       <c r="D190" s="2">
         <v>0.75908178091049194</v>
       </c>
       <c r="E190" s="2">
-        <v>0.56063628196716309</v>
+        <v>0.56185036897659302</v>
       </c>
     </row>
     <row r="191">
@@ -3319,13 +3319,13 @@
         <v>0.87560582160949707</v>
       </c>
       <c r="C191" s="2">
-        <v>1.0839799642562866</v>
+        <v>1.0856996774673462</v>
       </c>
       <c r="D191" s="2">
         <v>0.7731899619102478</v>
       </c>
       <c r="E191" s="2">
-        <v>0.66537731885910034</v>
+        <v>0.66657161712646484</v>
       </c>
     </row>
     <row r="192">
@@ -3336,13 +3336,13 @@
         <v>-0.56598716974258423</v>
       </c>
       <c r="C192" s="2">
-        <v>-0.64971250295639038</v>
+        <v>-0.64593833684921265</v>
       </c>
       <c r="D192" s="2">
         <v>0.68072623014450073</v>
       </c>
       <c r="E192" s="2">
-        <v>0.66498875617980957</v>
+        <v>0.66678130626678467</v>
       </c>
     </row>
     <row r="193">
@@ -3353,13 +3353,13 @@
         <v>0.16373701393604279</v>
       </c>
       <c r="C193" s="2">
-        <v>-0.21778437495231629</v>
+        <v>-0.21884919703006744</v>
       </c>
       <c r="D193" s="2">
         <v>0.71306675672531128</v>
       </c>
       <c r="E193" s="2">
-        <v>0.70817530155181885</v>
+        <v>0.71008831262588501</v>
       </c>
     </row>
     <row r="194">
@@ -3370,13 +3370,13 @@
         <v>1.0912445783615112</v>
       </c>
       <c r="C194" s="2">
-        <v>0.71960955858230591</v>
+        <v>0.72206908464431763</v>
       </c>
       <c r="D194" s="2">
-        <v>0.72874975204467774</v>
+        <v>0.72874975204467773</v>
       </c>
       <c r="E194" s="2">
-        <v>0.71929681301116943</v>
+        <v>0.7213592529296875</v>
       </c>
     </row>
     <row r="195">
@@ -3387,13 +3387,13 @@
         <v>1.3690851926803589</v>
       </c>
       <c r="C195" s="2">
-        <v>2.023491382598877</v>
+        <v>2.0240418910980225</v>
       </c>
       <c r="D195" s="2">
         <v>0.79378920793533325</v>
       </c>
       <c r="E195" s="2">
-        <v>0.80243027210235596</v>
+        <v>0.80442488193511963</v>
       </c>
     </row>
     <row r="196">
@@ -3404,13 +3404,13 @@
         <v>0.75667262077331543</v>
       </c>
       <c r="C196" s="2">
-        <v>1.3372290134429932</v>
+        <v>1.3423466682434082</v>
       </c>
       <c r="D196" s="2">
         <v>0.71587240695953369</v>
       </c>
       <c r="E196" s="2">
-        <v>0.65697658061981201</v>
+        <v>0.65914267301559448</v>
       </c>
     </row>
     <row r="197">
@@ -3421,13 +3421,13 @@
         <v>1.6234637498855591</v>
       </c>
       <c r="C197" s="2">
-        <v>1.4394527673721314</v>
+        <v>1.4419960975646973</v>
       </c>
       <c r="D197" s="2">
         <v>0.86995917558670044</v>
       </c>
       <c r="E197" s="2">
-        <v>0.8000989556312561</v>
+        <v>0.80168330669403076</v>
       </c>
     </row>
     <row r="198">
@@ -3438,13 +3438,13 @@
         <v>0.87973934412002563</v>
       </c>
       <c r="C198" s="2">
-        <v>0.64839136600494385</v>
+        <v>0.6503414511680603</v>
       </c>
       <c r="D198" s="2">
         <v>1.020658016204834</v>
       </c>
       <c r="E198" s="2">
-        <v>0.98410803079605103</v>
+        <v>0.985676109790802</v>
       </c>
     </row>
     <row r="199">
@@ -3455,13 +3455,13 @@
         <v>0.95054179430007935</v>
       </c>
       <c r="C199" s="2">
-        <v>0.83721506595611572</v>
+        <v>0.83811652660369873</v>
       </c>
       <c r="D199" s="2">
         <v>0.9815325140953064</v>
       </c>
       <c r="E199" s="2">
-        <v>0.9751322865486145</v>
+        <v>0.9763864278793335</v>
       </c>
     </row>
     <row r="200">
@@ -3472,13 +3472,13 @@
         <v>0.17435459792613983</v>
       </c>
       <c r="C200" s="2">
-        <v>-0.2251032292842865</v>
+        <v>-0.22183996438980103</v>
       </c>
       <c r="D200" s="2">
         <v>0.92877453565597534</v>
       </c>
       <c r="E200" s="2">
-        <v>0.82538282871246338</v>
+        <v>0.82682740688323975</v>
       </c>
     </row>
     <row r="201">
@@ -3489,13 +3489,13 @@
         <v>0.82079362869262695</v>
       </c>
       <c r="C201" s="2">
-        <v>0.63838893175125122</v>
+        <v>0.63692724704742432</v>
       </c>
       <c r="D201" s="2">
         <v>0.91252028942108154</v>
       </c>
       <c r="E201" s="2">
-        <v>0.70496606826782227</v>
+        <v>0.7061648964881897</v>
       </c>
     </row>
     <row r="202">
@@ -3506,13 +3506,13 @@
         <v>1.5200268030166626</v>
       </c>
       <c r="C202" s="2">
-        <v>1.4382975101470947</v>
+        <v>1.4370859861373901</v>
       </c>
       <c r="D202" s="2">
         <v>0.92546617984771729</v>
       </c>
       <c r="E202" s="2">
-        <v>0.71462678909301758</v>
+        <v>0.71563911437988281</v>
       </c>
     </row>
     <row r="203">
@@ -3523,13 +3523,13 @@
         <v>0.73911476135253906</v>
       </c>
       <c r="C203" s="2">
-        <v>0.63882774114608765</v>
+        <v>0.63846182823181152</v>
       </c>
       <c r="D203" s="2">
         <v>0.99118161201477051</v>
       </c>
       <c r="E203" s="2">
-        <v>0.78672122955322266</v>
+        <v>0.78786289691925049</v>
       </c>
     </row>
     <row r="204">
@@ -3540,13 +3540,13 @@
         <v>0.89426332712173462</v>
       </c>
       <c r="C204" s="2">
-        <v>0.67574602365493774</v>
+        <v>0.67801076173782349</v>
       </c>
       <c r="D204" s="2">
         <v>1.0618983507156372</v>
       </c>
       <c r="E204" s="2">
-        <v>0.85562437772750855</v>
+        <v>0.85701709985733032</v>
       </c>
     </row>
     <row r="205">
@@ -3557,13 +3557,13 @@
         <v>0.61038452386856079</v>
       </c>
       <c r="C205" s="2">
-        <v>0.25347822904586792</v>
+        <v>0.25638410449028015</v>
       </c>
       <c r="D205" s="2">
         <v>1.2258979082107544</v>
       </c>
       <c r="E205" s="2">
-        <v>1.0568140745162964</v>
+        <v>1.0583637952804565</v>
       </c>
     </row>
     <row r="206">
@@ -3574,13 +3574,13 @@
         <v>1.7399770021438599</v>
       </c>
       <c r="C206" s="2">
-        <v>1.5263994932174683</v>
+        <v>1.527263879776001</v>
       </c>
       <c r="D206" s="2">
         <v>1.3178203105926514</v>
       </c>
       <c r="E206" s="2">
-        <v>1.1407239437103272</v>
+        <v>1.1426804065704346</v>
       </c>
     </row>
     <row r="207">
@@ -3591,13 +3591,13 @@
         <v>1.4711782932281494</v>
       </c>
       <c r="C207" s="2">
-        <v>1.2972414493560791</v>
+        <v>1.3003556728363037</v>
       </c>
       <c r="D207" s="2">
         <v>1.3398036956787109</v>
       </c>
       <c r="E207" s="2">
-        <v>1.1723992824554443</v>
+        <v>1.1745071411132812</v>
       </c>
     </row>
     <row r="208">
@@ -3608,13 +3608,13 @@
         <v>1.5869923830032349</v>
       </c>
       <c r="C208" s="2">
-        <v>1.4573432207107544</v>
+        <v>1.4605045318603516</v>
       </c>
       <c r="D208" s="2">
         <v>1.4396834373474121</v>
       </c>
       <c r="E208" s="2">
-        <v>1.2602921724319458</v>
+        <v>1.2627246379852295</v>
       </c>
     </row>
     <row r="209">
@@ -3625,13 +3625,13 @@
         <v>1.65035080909729</v>
       </c>
       <c r="C209" s="2">
-        <v>1.5856044292449951</v>
+        <v>1.5902798175811768</v>
       </c>
       <c r="D209" s="2">
         <v>1.5172851085662842</v>
       </c>
       <c r="E209" s="2">
-        <v>1.3662395477294922</v>
+        <v>1.3683604001998901</v>
       </c>
     </row>
     <row r="210">
@@ -3642,13 +3642,13 @@
         <v>1.6480953693389893</v>
       </c>
       <c r="C210" s="2">
-        <v>1.3935778141021729</v>
+        <v>1.3957772254943848</v>
       </c>
       <c r="D210" s="2">
-        <v>1.6708520650863648</v>
+        <v>1.6708520650863647</v>
       </c>
       <c r="E210" s="2">
-        <v>1.5556528568267822</v>
+        <v>1.5576657056808472</v>
       </c>
     </row>
     <row r="211">
@@ -3659,13 +3659,13 @@
         <v>1.717876672744751</v>
       </c>
       <c r="C211" s="2">
-        <v>1.7233748435974121</v>
+        <v>1.7235268354415894</v>
       </c>
       <c r="D211" s="2">
         <v>1.6549568176269531</v>
       </c>
       <c r="E211" s="2">
-        <v>1.5533919334411621</v>
+        <v>1.5553814172744751</v>
       </c>
     </row>
     <row r="212">
@@ -3676,13 +3676,13 @@
         <v>1.6380329132080078</v>
       </c>
       <c r="C212" s="2">
-        <v>1.4298639297485352</v>
+        <v>1.4324191808700562</v>
       </c>
       <c r="D212" s="2">
         <v>1.5762641429901123</v>
       </c>
       <c r="E212" s="2">
-        <v>1.4758878946304321</v>
+        <v>1.4776835441589355</v>
       </c>
     </row>
     <row r="213">
@@ -3693,13 +3693,13 @@
         <v>1.592678427696228</v>
       </c>
       <c r="C213" s="2">
-        <v>1.6292719841003418</v>
+        <v>1.6287325620651245</v>
       </c>
       <c r="D213" s="2">
         <v>1.5485706329345703</v>
       </c>
       <c r="E213" s="2">
-        <v>1.448717474937439</v>
+        <v>1.4503356218338013</v>
       </c>
     </row>
     <row r="214">
@@ -3710,13 +3710,13 @@
         <v>1.9924862384796143</v>
       </c>
       <c r="C214" s="2">
-        <v>1.9581981897354126</v>
+        <v>1.9601321220397949</v>
       </c>
       <c r="D214" s="2">
         <v>1.5151834487915039</v>
       </c>
       <c r="E214" s="2">
-        <v>1.4091035127639771</v>
+        <v>1.4103527069091797</v>
       </c>
     </row>
     <row r="215">
@@ -3727,13 +3727,13 @@
         <v>1.5969207286834717</v>
       </c>
       <c r="C215" s="2">
-        <v>1.5060515403747559</v>
+        <v>1.5067046880722046</v>
       </c>
       <c r="D215" s="2">
         <v>1.4100573062896729</v>
       </c>
       <c r="E215" s="2">
-        <v>1.3209275007247925</v>
+        <v>1.322571873664856</v>
       </c>
     </row>
     <row r="216">
@@ -3744,13 +3744,13 @@
         <v>0.7629433274269104</v>
       </c>
       <c r="C216" s="2">
-        <v>0.59970521926879883</v>
+        <v>0.60107529163360596</v>
       </c>
       <c r="D216" s="2">
         <v>1.4014599323272705</v>
       </c>
       <c r="E216" s="2">
-        <v>1.2876490354537964</v>
+        <v>1.2895797491073608</v>
       </c>
     </row>
     <row r="217">
@@ -3761,13 +3761,13 @@
         <v>1.3377507925033569</v>
       </c>
       <c r="C217" s="2">
-        <v>1.2128095626831055</v>
+        <v>1.214372992515564</v>
       </c>
       <c r="D217" s="2">
         <v>1.4594326019287109</v>
       </c>
       <c r="E217" s="2">
-        <v>1.3454984426498413</v>
+        <v>1.3476977348327637</v>
       </c>
     </row>
     <row r="218">
@@ -3778,13 +3778,13 @@
         <v>1.3498668670654297</v>
       </c>
       <c r="C218" s="2">
-        <v>1.2290785312652588</v>
+        <v>1.2304339408874512</v>
       </c>
       <c r="D218" s="2">
         <v>1.3760491609573364</v>
       </c>
       <c r="E218" s="2">
-        <v>1.2523587942123413</v>
+        <v>1.2547335624694824</v>
       </c>
     </row>
     <row r="219">
@@ -3795,13 +3795,13 @@
         <v>0.70195966958999634</v>
       </c>
       <c r="C219" s="2">
-        <v>0.59999364614486694</v>
+        <v>0.60574954748153687</v>
       </c>
       <c r="D219" s="2">
         <v>1.2467386722564697</v>
       </c>
       <c r="E219" s="2">
-        <v>1.1650071144104004</v>
+        <v>1.1675716638565063</v>
       </c>
     </row>
     <row r="220">
@@ -3812,13 +3812,13 @@
         <v>1.6405009031295776</v>
       </c>
       <c r="C220" s="2">
-        <v>1.4238682985305786</v>
+        <v>1.4265973567962646</v>
       </c>
       <c r="D220" s="2">
         <v>1.2592763900756836</v>
       </c>
       <c r="E220" s="2">
-        <v>1.1740466356277466</v>
+        <v>1.1765795946121216</v>
       </c>
     </row>
     <row r="221">
@@ -3829,13 +3829,13 @@
         <v>2.1597869396209717</v>
       </c>
       <c r="C221" s="2">
-        <v>1.9505088329315186</v>
+        <v>1.9554816484451294</v>
       </c>
       <c r="D221" s="2">
         <v>1.2806359529495239</v>
       </c>
       <c r="E221" s="2">
-        <v>1.204485297203064</v>
+        <v>1.2073032855987549</v>
       </c>
     </row>
     <row r="222">
@@ -3846,13 +3846,13 @@
         <v>0.84222668409347534</v>
       </c>
       <c r="C222" s="2">
-        <v>0.7910153865814209</v>
+        <v>0.79205459356307983</v>
       </c>
       <c r="D222" s="2">
         <v>1.3025666475296021</v>
       </c>
       <c r="E222" s="2">
-        <v>1.220766544342041</v>
+        <v>1.2238106727600098</v>
       </c>
     </row>
     <row r="223">
@@ -3863,13 +3863,13 @@
         <v>0.82869219779968262</v>
       </c>
       <c r="C223" s="2">
-        <v>1.1720329523086548</v>
+        <v>1.1756746768951416</v>
       </c>
       <c r="D223" s="2">
         <v>1.3114937543869019</v>
       </c>
       <c r="E223" s="2">
-        <v>1.2349119186401367</v>
+        <v>1.2380057573318481</v>
       </c>
     </row>
     <row r="224">
@@ -3880,13 +3880,13 @@
         <v>1.709760308265686</v>
       </c>
       <c r="C224" s="2">
-        <v>1.5874072313308716</v>
+        <v>1.5877765417098999</v>
       </c>
       <c r="D224" s="2">
         <v>1.2868443727493286</v>
       </c>
       <c r="E224" s="2">
-        <v>1.212738037109375</v>
+        <v>1.2150390148162842</v>
       </c>
     </row>
     <row r="225">
@@ -3894,16 +3894,16 @@
         <v>35278</v>
       </c>
       <c r="B225" s="2">
-        <v>0.95517957210540772</v>
+        <v>0.95517957210540771</v>
       </c>
       <c r="C225" s="2">
-        <v>0.87365323305130005</v>
+        <v>0.87758797407150269</v>
       </c>
       <c r="D225" s="2">
         <v>1.3425217866897583</v>
       </c>
       <c r="E225" s="2">
-        <v>1.2802342176437378</v>
+        <v>1.2826181650161743</v>
       </c>
     </row>
     <row r="226">
@@ -3914,13 +3914,13 @@
         <v>1.5351262092590332</v>
       </c>
       <c r="C226" s="2">
-        <v>1.3593407869338989</v>
+        <v>1.3629398345947266</v>
       </c>
       <c r="D226" s="2">
         <v>1.2683688402175903</v>
       </c>
       <c r="E226" s="2">
-        <v>1.2064179182052612</v>
+        <v>1.2085527181625366</v>
       </c>
     </row>
     <row r="227">
@@ -3931,13 +3931,13 @@
         <v>1.4302109479904175</v>
       </c>
       <c r="C227" s="2">
-        <v>1.3563871383666992</v>
+        <v>1.3581898212432861</v>
       </c>
       <c r="D227" s="2">
         <v>1.4131536483764648</v>
       </c>
       <c r="E227" s="2">
-        <v>1.3546262979507446</v>
+        <v>1.3571908473968506</v>
       </c>
     </row>
     <row r="228">
@@ -3948,13 +3948,13 @@
         <v>0.48011556267738342</v>
       </c>
       <c r="C228" s="2">
-        <v>0.40042895078659058</v>
+        <v>0.39904877543449402</v>
       </c>
       <c r="D228" s="2">
         <v>1.4169635772705078</v>
       </c>
       <c r="E228" s="2">
-        <v>1.2895870208740234</v>
+        <v>1.2919466495513916</v>
       </c>
     </row>
     <row r="229">
@@ -3965,13 +3965,13 @@
         <v>2.1415979862213135</v>
       </c>
       <c r="C229" s="2">
-        <v>2.0313339233398438</v>
+        <v>2.0348098278045654</v>
       </c>
       <c r="D229" s="2">
         <v>1.3714867830276489</v>
       </c>
       <c r="E229" s="2">
-        <v>1.2106747627258301</v>
+        <v>1.2133537530899048</v>
       </c>
     </row>
     <row r="230">
@@ -3982,13 +3982,13 @@
         <v>1.4924100637435913</v>
       </c>
       <c r="C230" s="2">
-        <v>1.2861615419387817</v>
+        <v>1.2888927459716797</v>
       </c>
       <c r="D230" s="2">
         <v>1.3999699354171753</v>
       </c>
       <c r="E230" s="2">
-        <v>1.2490929365158081</v>
+        <v>1.2510753870010376</v>
       </c>
     </row>
     <row r="231">
@@ -3999,13 +3999,13 @@
         <v>2.1452901363372803</v>
       </c>
       <c r="C231" s="2">
-        <v>2.1248912811279297</v>
+        <v>2.1297969818115234</v>
       </c>
       <c r="D231" s="2">
         <v>1.3249143362045288</v>
       </c>
       <c r="E231" s="2">
-        <v>1.1694775819778442</v>
+        <v>1.1715329885482788</v>
       </c>
     </row>
     <row r="232">
@@ -4016,13 +4016,13 @@
         <v>0.86298137903213501</v>
       </c>
       <c r="C232" s="2">
-        <v>0.58667892217636108</v>
+        <v>0.58847689628601074</v>
       </c>
       <c r="D232" s="2">
         <v>1.2097835540771484</v>
       </c>
       <c r="E232" s="2">
-        <v>1.0232001543045044</v>
+        <v>1.0249738693237305</v>
       </c>
     </row>
     <row r="233">
@@ -4033,13 +4033,13 @@
         <v>1.3004688024520874</v>
       </c>
       <c r="C233" s="2">
-        <v>0.87719690799713135</v>
+        <v>0.88044136762619019</v>
       </c>
       <c r="D233" s="2">
         <v>1.3219703435897827</v>
       </c>
       <c r="E233" s="2">
-        <v>1.0546716451644898</v>
+        <v>1.0569883584976196</v>
       </c>
     </row>
     <row r="234">
@@ -4050,13 +4050,13 @@
         <v>1.2115287780761719</v>
       </c>
       <c r="C234" s="2">
-        <v>1.2194164991378784</v>
+        <v>1.2170826196670532</v>
       </c>
       <c r="D234" s="2">
         <v>1.226536750793457</v>
       </c>
       <c r="E234" s="2">
-        <v>1.0049145221710205</v>
+        <v>1.0069293975830078</v>
       </c>
     </row>
     <row r="235">
@@ -4067,13 +4067,13 @@
         <v>0.85962575674057007</v>
       </c>
       <c r="C235" s="2">
-        <v>0.64280331134796143</v>
+        <v>0.64705818891525269</v>
       </c>
       <c r="D235" s="2">
         <v>1.2475858926773071</v>
       </c>
       <c r="E235" s="2">
-        <v>1.0401431322097778</v>
+        <v>1.0420880317687988</v>
       </c>
     </row>
     <row r="236">
@@ -4084,13 +4084,13 @@
         <v>0.39403358101844788</v>
       </c>
       <c r="C236" s="2">
-        <v>0.039890576153993607</v>
+        <v>0.039157949388027191</v>
       </c>
       <c r="D236" s="2">
         <v>1.1907250881195068</v>
       </c>
       <c r="E236" s="2">
-        <v>0.95841634273529053</v>
+        <v>0.96037197113037109</v>
       </c>
     </row>
     <row r="237">
@@ -4101,13 +4101,13 @@
         <v>1.4897962808609009</v>
       </c>
       <c r="C237" s="2">
-        <v>0.68367165327072144</v>
+        <v>0.6871788501739502</v>
       </c>
       <c r="D237" s="2">
         <v>1.2677416801452637</v>
       </c>
       <c r="E237" s="2">
-        <v>1.0482256412506104</v>
+        <v>1.0502499341964722</v>
       </c>
     </row>
     <row r="238">
@@ -4118,13 +4118,13 @@
         <v>1.2826958894729614</v>
       </c>
       <c r="C238" s="2">
-        <v>1.5835202932357788</v>
+        <v>1.5842785835266113</v>
       </c>
       <c r="D238" s="2">
         <v>1.1957470178604126</v>
       </c>
       <c r="E238" s="2">
-        <v>0.99992573261260986</v>
+        <v>1.0018665790557861</v>
       </c>
     </row>
     <row r="239">
@@ -4135,13 +4135,13 @@
         <v>1.6818523406982422</v>
       </c>
       <c r="C239" s="2">
-        <v>1.603218674659729</v>
+        <v>1.6053211688995361</v>
       </c>
       <c r="D239" s="2">
         <v>1.1350691318511963</v>
       </c>
       <c r="E239" s="2">
-        <v>0.92034786939620972</v>
+        <v>0.92300224304199219</v>
       </c>
     </row>
     <row r="240">
@@ -4152,13 +4152,13 @@
         <v>1.6335426568984985</v>
       </c>
       <c r="C240" s="2">
-        <v>1.3893500566482544</v>
+        <v>1.3943519592285156</v>
       </c>
       <c r="D240" s="2">
         <v>1.1523436307907104</v>
       </c>
       <c r="E240" s="2">
-        <v>0.93603181838989258</v>
+        <v>0.93849700689315796</v>
       </c>
     </row>
     <row r="241">
@@ -4169,13 +4169,13 @@
         <v>1.5561305284500122</v>
       </c>
       <c r="C241" s="2">
-        <v>1.3949629068374634</v>
+        <v>1.39737868309021</v>
       </c>
       <c r="D241" s="2">
         <v>1.2008846998214722</v>
       </c>
       <c r="E241" s="2">
-        <v>0.99981462955474854</v>
+        <v>1.0021853446960449</v>
       </c>
     </row>
     <row r="242">
@@ -4186,13 +4186,13 @@
         <v>0.65251767635345459</v>
       </c>
       <c r="C242" s="2">
-        <v>0.4424976110458374</v>
+        <v>0.44499090313911438</v>
       </c>
       <c r="D242" s="2">
         <v>1.0594527721405029</v>
       </c>
       <c r="E242" s="2">
-        <v>0.91317510604858398</v>
+        <v>0.91467893123626709</v>
       </c>
     </row>
     <row r="243">
@@ -4203,13 +4203,13 @@
         <v>0.66542726755142212</v>
       </c>
       <c r="C243" s="2">
-        <v>0.50321584939956665</v>
+        <v>0.50730407238006592</v>
       </c>
       <c r="D243" s="2">
         <v>0.9532167911529541</v>
       </c>
       <c r="E243" s="2">
-        <v>0.73604708909988403</v>
+        <v>0.73802649974822998</v>
       </c>
     </row>
     <row r="244">
@@ -4220,13 +4220,13 @@
         <v>1.0150959491729736</v>
       </c>
       <c r="C244" s="2">
-        <v>0.78395885229110718</v>
+        <v>0.78651070594787598</v>
       </c>
       <c r="D244" s="2">
         <v>0.92334574460983276</v>
       </c>
       <c r="E244" s="2">
-        <v>0.69219547510147095</v>
+        <v>0.69439864158630371</v>
       </c>
     </row>
     <row r="245">
@@ -4237,13 +4237,13 @@
         <v>0.83090418577194214</v>
       </c>
       <c r="C245" s="2">
-        <v>0.61393564939498901</v>
+        <v>0.61235314607620239</v>
       </c>
       <c r="D245" s="2">
         <v>0.82680964469909668</v>
       </c>
       <c r="E245" s="2">
-        <v>0.60196995735168457</v>
+        <v>0.60345852375030518</v>
       </c>
     </row>
     <row r="246">
@@ -4254,13 +4254,13 @@
         <v>0.21690866351127625</v>
       </c>
       <c r="C246" s="2">
-        <v>-0.096083939075469971</v>
+        <v>-0.10037865489721298</v>
       </c>
       <c r="D246" s="2">
         <v>0.69214910268783569</v>
       </c>
       <c r="E246" s="2">
-        <v>0.47648289799690247</v>
+        <v>0.47799959778785706</v>
       </c>
     </row>
     <row r="247">
@@ -4271,13 +4271,13 @@
         <v>0.32657158374786377</v>
       </c>
       <c r="C247" s="2">
-        <v>-0.010631805285811424</v>
+        <v>-0.0055934898555278778</v>
       </c>
       <c r="D247" s="2">
         <v>0.65337765216827393</v>
       </c>
       <c r="E247" s="2">
-        <v>0.50733816623687744</v>
+        <v>0.50833559036254883</v>
       </c>
     </row>
     <row r="248">
@@ -4288,13 +4288,13 @@
         <v>1.4130131006240845</v>
       </c>
       <c r="C248" s="2">
-        <v>1.2085539102554321</v>
+        <v>1.2126704454421997</v>
       </c>
       <c r="D248" s="2">
         <v>0.57381993532180786</v>
       </c>
       <c r="E248" s="2">
-        <v>0.43371623754501343</v>
+        <v>0.43426123261451721</v>
       </c>
     </row>
     <row r="249">
@@ -4305,13 +4305,13 @@
         <v>0.764717698097229</v>
       </c>
       <c r="C249" s="2">
-        <v>0.57732033729553223</v>
+        <v>0.57589101791381836</v>
       </c>
       <c r="D249" s="2">
         <v>0.60466235876083374</v>
       </c>
       <c r="E249" s="2">
-        <v>0.46160900592803955</v>
+        <v>0.46192914247512817</v>
       </c>
     </row>
     <row r="250">
@@ -4319,16 +4319,16 @@
         <v>36039</v>
       </c>
       <c r="B250" s="2">
-        <v>0.34418559074401856</v>
+        <v>0.34418559074401855</v>
       </c>
       <c r="C250" s="2">
-        <v>0.26557973027229309</v>
+        <v>0.26824817061424255</v>
       </c>
       <c r="D250" s="2">
         <v>0.58481937646865845</v>
       </c>
       <c r="E250" s="2">
-        <v>0.46961221098899841</v>
+        <v>0.46996352076530457</v>
       </c>
     </row>
     <row r="251">
@@ -4339,13 +4339,13 @@
         <v>0.30357509851455688</v>
       </c>
       <c r="C251" s="2">
-        <v>0.72019475698471069</v>
+        <v>0.71801513433456421</v>
       </c>
       <c r="D251" s="2">
         <v>0.60623729228973389</v>
       </c>
       <c r="E251" s="2">
-        <v>0.46919089555740357</v>
+        <v>0.47022014856338501</v>
       </c>
     </row>
     <row r="252">
@@ -4356,13 +4356,13 @@
         <v>-0.05059230700135231</v>
       </c>
       <c r="C252" s="2">
-        <v>-0.15938128530979156</v>
+        <v>-0.1593654453754425</v>
       </c>
       <c r="D252" s="2">
         <v>0.53157806396484375</v>
       </c>
       <c r="E252" s="2">
-        <v>0.38760948181152344</v>
+        <v>0.38831949234008789</v>
       </c>
     </row>
     <row r="253">
@@ -4370,16 +4370,16 @@
         <v>36130</v>
       </c>
       <c r="B253" s="2">
-        <v>1.2926775217056275</v>
+        <v>1.2926775217056274</v>
       </c>
       <c r="C253" s="2">
-        <v>1.0349936485290527</v>
+        <v>1.0355219841003418</v>
       </c>
       <c r="D253" s="2">
         <v>0.52091187238693237</v>
       </c>
       <c r="E253" s="2">
-        <v>0.3849741518497467</v>
+        <v>0.38545727729797363</v>
       </c>
     </row>
     <row r="254">
@@ -4390,13 +4390,13 @@
         <v>0.65231764316558838</v>
       </c>
       <c r="C254" s="2">
-        <v>0.68596452474594116</v>
+        <v>0.68466246128082275</v>
       </c>
       <c r="D254" s="2">
         <v>0.6122734546661377</v>
       </c>
       <c r="E254" s="2">
-        <v>0.46719813346862793</v>
+        <v>0.46808966994285583</v>
       </c>
     </row>
     <row r="255">
@@ -4407,13 +4407,13 @@
         <v>0.4096699059009552</v>
       </c>
       <c r="C255" s="2">
-        <v>-0.099875651299953461</v>
+        <v>-0.098068833351135254</v>
       </c>
       <c r="D255" s="2">
         <v>0.65969175100326538</v>
       </c>
       <c r="E255" s="2">
-        <v>0.51362365484237671</v>
+        <v>0.51477235555648804</v>
       </c>
     </row>
     <row r="256">
@@ -4424,13 +4424,13 @@
         <v>-0.34536159038543701</v>
       </c>
       <c r="C256" s="2">
-        <v>-0.74486464262008667</v>
+        <v>-0.74269938468933105</v>
       </c>
       <c r="D256" s="2">
         <v>0.67694485187530518</v>
       </c>
       <c r="E256" s="2">
-        <v>0.46571865677833557</v>
+        <v>0.46726861596107483</v>
       </c>
     </row>
     <row r="257">
@@ -4441,13 +4441,13 @@
         <v>1.3170170783996582</v>
       </c>
       <c r="C257" s="2">
-        <v>1.1848359107971192</v>
+        <v>1.1869103908538818</v>
       </c>
       <c r="D257" s="2">
         <v>0.81472593545913696</v>
       </c>
       <c r="E257" s="2">
-        <v>0.60782629251480103</v>
+        <v>0.60985773801803589</v>
       </c>
     </row>
     <row r="258">
@@ -4458,13 +4458,13 @@
         <v>1.5869721174240112</v>
       </c>
       <c r="C258" s="2">
-        <v>1.3173362016677856</v>
+        <v>1.319582462310791</v>
       </c>
       <c r="D258" s="2">
         <v>0.78165441751480103</v>
       </c>
       <c r="E258" s="2">
-        <v>0.59187865257263184</v>
+        <v>0.59406769275665283</v>
       </c>
     </row>
     <row r="259">
@@ -4475,13 +4475,13 @@
         <v>0.7709500789642334</v>
       </c>
       <c r="C259" s="2">
-        <v>0.68340921401977539</v>
+        <v>0.68839263916015625</v>
       </c>
       <c r="D259" s="2">
         <v>0.8881373405456543</v>
       </c>
       <c r="E259" s="2">
-        <v>0.62675309181213379</v>
+        <v>0.62944144010543823</v>
       </c>
     </row>
     <row r="260">
@@ -4492,13 +4492,13 @@
         <v>0.45885300636291504</v>
       </c>
       <c r="C260" s="2">
-        <v>0.28904998302459717</v>
+        <v>0.29048115015029907</v>
       </c>
       <c r="D260" s="2">
         <v>0.83569478988647461</v>
       </c>
       <c r="E260" s="2">
-        <v>0.61717504262924194</v>
+        <v>0.62021970748901367</v>
       </c>
     </row>
     <row r="261">
@@ -4509,13 +4509,13 @@
         <v>1.1894376277923584</v>
       </c>
       <c r="C261" s="2">
-        <v>1.1195871829986572</v>
+        <v>1.1239367723464966</v>
       </c>
       <c r="D261" s="2">
         <v>0.96169596910476685</v>
       </c>
       <c r="E261" s="2">
-        <v>0.76727902889251709</v>
+        <v>0.77064204216003418</v>
       </c>
     </row>
     <row r="262">
@@ -4526,13 +4526,13 @@
         <v>0.99503380060195923</v>
       </c>
       <c r="C262" s="2">
-        <v>0.89146512746810913</v>
+        <v>0.89341133832931519</v>
       </c>
       <c r="D262" s="2">
         <v>0.8937380313873291</v>
       </c>
       <c r="E262" s="2">
-        <v>0.72779476642608643</v>
+        <v>0.73115319013595581</v>
       </c>
     </row>
     <row r="263">
@@ -4543,13 +4543,13 @@
         <v>1.610663890838623</v>
       </c>
       <c r="C263" s="2">
-        <v>0.99983447790145874</v>
+        <v>1.0030264854431152</v>
       </c>
       <c r="D263" s="2">
         <v>0.73482543230056763</v>
       </c>
       <c r="E263" s="2">
-        <v>0.55584532022476196</v>
+        <v>0.55879378318786621</v>
       </c>
     </row>
     <row r="264">
@@ -4560,13 +4560,13 @@
         <v>-0.062313128262758255</v>
       </c>
       <c r="C264" s="2">
-        <v>-0.18607789278030396</v>
+        <v>-0.18106468021869659</v>
       </c>
       <c r="D264" s="2">
         <v>0.79958230257034302</v>
       </c>
       <c r="E264" s="2">
-        <v>0.6285814642906189</v>
+        <v>0.63132673501968384</v>
       </c>
     </row>
     <row r="265">
@@ -4577,13 +4577,13 @@
         <v>0.78864908218383789</v>
       </c>
       <c r="C265" s="2">
-        <v>0.60607105493545532</v>
+        <v>0.61110204458236694</v>
       </c>
       <c r="D265" s="2">
         <v>0.84459418058395386</v>
       </c>
       <c r="E265" s="2">
-        <v>0.64133685827255249</v>
+        <v>0.64416879415512085</v>
       </c>
     </row>
     <row r="266">
@@ -4594,13 +4594,13 @@
         <v>0.70539605617523193</v>
       </c>
       <c r="C266" s="2">
-        <v>0.82947748899459839</v>
+        <v>0.83151048421859741</v>
       </c>
       <c r="D266" s="2">
         <v>0.79766225814819336</v>
       </c>
       <c r="E266" s="2">
-        <v>0.56367594003677368</v>
+        <v>0.56646084785461426</v>
       </c>
     </row>
     <row r="267">
@@ -4611,13 +4611,13 @@
         <v>0.15675865113735199</v>
       </c>
       <c r="C267" s="2">
-        <v>-0.23020878434181213</v>
+        <v>-0.2316521555185318</v>
       </c>
       <c r="D267" s="2">
         <v>0.81984817981719971</v>
       </c>
       <c r="E267" s="2">
-        <v>0.5914272665977478</v>
+        <v>0.59467595815658569</v>
       </c>
     </row>
     <row r="268">
@@ -4628,13 +4628,13 @@
         <v>1.3537617921829224</v>
       </c>
       <c r="C268" s="2">
-        <v>1.3380343914031982</v>
+        <v>1.3411892652511597</v>
       </c>
       <c r="D268" s="2">
         <v>0.65242928266525269</v>
       </c>
       <c r="E268" s="2">
-        <v>0.46564698219299316</v>
+        <v>0.46886077523231506</v>
       </c>
     </row>
     <row r="269">
@@ -4645,13 +4645,13 @@
         <v>0.8639596700668335</v>
       </c>
       <c r="C269" s="2">
-        <v>0.40384867787361145</v>
+        <v>0.40605977177619934</v>
       </c>
       <c r="D269" s="2">
         <v>0.79600381851196289</v>
       </c>
       <c r="E269" s="2">
-        <v>0.55682897567749024</v>
+        <v>0.55993545055389404</v>
       </c>
     </row>
     <row r="270">
@@ -4662,13 +4662,13 @@
         <v>0.76705074310302734</v>
       </c>
       <c r="C270" s="2">
-        <v>0.42063897848129273</v>
+        <v>0.42456519603729248</v>
       </c>
       <c r="D270" s="2">
         <v>0.85385382175445557</v>
       </c>
       <c r="E270" s="2">
-        <v>0.61997127532958984</v>
+        <v>0.62276732921600342</v>
       </c>
     </row>
     <row r="271">
@@ -4679,13 +4679,13 @@
         <v>1.1947067975997925</v>
       </c>
       <c r="C271" s="2">
-        <v>1.1412272453308106</v>
+        <v>1.1473472118377686</v>
       </c>
       <c r="D271" s="2">
         <v>0.93783879280090332</v>
       </c>
       <c r="E271" s="2">
-        <v>0.6989971399307251</v>
+        <v>0.70219653844833374</v>
       </c>
     </row>
     <row r="272">
@@ -4696,13 +4696,13 @@
         <v>0.10389363765716553</v>
       </c>
       <c r="C272" s="2">
-        <v>-0.13218821585178375</v>
+        <v>-0.12931007146835327</v>
       </c>
       <c r="D272" s="2">
         <v>1.095093846321106</v>
       </c>
       <c r="E272" s="2">
-        <v>0.87637346982955933</v>
+        <v>0.88003206253051758</v>
       </c>
     </row>
     <row r="273">
@@ -4710,16 +4710,16 @@
         <v>36739</v>
       </c>
       <c r="B273" s="2">
-        <v>1.2298578023910523</v>
+        <v>1.2298578023910522</v>
       </c>
       <c r="C273" s="2">
-        <v>0.63455992937088013</v>
+        <v>0.63860750198364258</v>
       </c>
       <c r="D273" s="2">
         <v>1.0210686922073364</v>
       </c>
       <c r="E273" s="2">
-        <v>0.76667863130569458</v>
+        <v>0.77013897895812988</v>
       </c>
     </row>
     <row r="274">
@@ -4730,13 +4730,13 @@
         <v>1.3092989921569824</v>
       </c>
       <c r="C274" s="2">
-        <v>1.174351692199707</v>
+        <v>1.1765885353088379</v>
       </c>
       <c r="D274" s="2">
-        <v>1.0837783813476563</v>
+        <v>1.0837783813476562</v>
       </c>
       <c r="E274" s="2">
-        <v>0.87938708066940308</v>
+        <v>0.88292717933654785</v>
       </c>
     </row>
     <row r="275">
@@ -4747,13 +4747,13 @@
         <v>1.4612609148025513</v>
       </c>
       <c r="C275" s="2">
-        <v>1.54071044921875</v>
+        <v>1.5463738441467285</v>
       </c>
       <c r="D275" s="2">
         <v>1.153179407119751</v>
       </c>
       <c r="E275" s="2">
-        <v>0.99621313810348511</v>
+        <v>0.99938732385635376</v>
       </c>
     </row>
     <row r="276">
@@ -4764,13 +4764,13 @@
         <v>1.5720547437667847</v>
       </c>
       <c r="C276" s="2">
-        <v>1.3661781549453735</v>
+        <v>1.3688672780990601</v>
       </c>
       <c r="D276" s="2">
         <v>1.0944944620132446</v>
       </c>
       <c r="E276" s="2">
-        <v>0.93534362316131592</v>
+        <v>0.93781578540802002</v>
       </c>
     </row>
     <row r="277">
@@ -4781,13 +4781,13 @@
         <v>0.68753510713577271</v>
       </c>
       <c r="C277" s="2">
-        <v>0.3507806658744812</v>
+        <v>0.35215151309967041</v>
       </c>
       <c r="D277" s="2">
         <v>1.1808677911758423</v>
       </c>
       <c r="E277" s="2">
-        <v>1.0466265678405762</v>
+        <v>1.0487111806869507</v>
       </c>
     </row>
     <row r="278">
@@ -4798,13 +4798,13 @@
         <v>1.4283463954925537</v>
       </c>
       <c r="C278" s="2">
-        <v>1.418224573135376</v>
+        <v>1.4211537837982178</v>
       </c>
       <c r="D278" s="2">
         <v>1.1904867887496948</v>
       </c>
       <c r="E278" s="2">
-        <v>1.1170516014099121</v>
+        <v>1.1188925504684448</v>
       </c>
     </row>
     <row r="279">
@@ -4815,13 +4815,13 @@
         <v>1.3916599750518799</v>
       </c>
       <c r="C279" s="2">
-        <v>1.4720735549926758</v>
+        <v>1.4727061986923218</v>
       </c>
       <c r="D279" s="2">
         <v>1.1723114252090454</v>
       </c>
       <c r="E279" s="2">
-        <v>1.1029081344604492</v>
+        <v>1.1044204235076904</v>
       </c>
     </row>
     <row r="280">
@@ -4829,16 +4829,16 @@
         <v>36951</v>
       </c>
       <c r="B280" s="2">
-        <v>0.66654276847839356</v>
+        <v>0.66654276847839355</v>
       </c>
       <c r="C280" s="2">
-        <v>0.59340190887451172</v>
+        <v>0.59320354461669922</v>
       </c>
       <c r="D280" s="2">
         <v>1.0741112232208252</v>
       </c>
       <c r="E280" s="2">
-        <v>1.0004956722259522</v>
+        <v>1.0013208389282227</v>
       </c>
     </row>
     <row r="281">
@@ -4849,13 +4849,13 @@
         <v>0.88125371932983398</v>
       </c>
       <c r="C281" s="2">
-        <v>0.86935818195343018</v>
+        <v>0.8687482476234436</v>
       </c>
       <c r="D281" s="2">
         <v>0.90581309795379639</v>
       </c>
       <c r="E281" s="2">
-        <v>0.84576147794723511</v>
+        <v>0.84605258703231812</v>
       </c>
     </row>
     <row r="282">
@@ -4866,13 +4866,13 @@
         <v>1.3164287805557251</v>
       </c>
       <c r="C282" s="2">
-        <v>1.2683851718902588</v>
+        <v>1.2702397108078003</v>
       </c>
       <c r="D282" s="2">
         <v>0.85196346044540405</v>
       </c>
       <c r="E282" s="2">
-        <v>0.79886680841445923</v>
+        <v>0.79888933897018433</v>
       </c>
     </row>
     <row r="283">
@@ -4883,13 +4883,13 @@
         <v>1.1457201242446899</v>
       </c>
       <c r="C283" s="2">
-        <v>1.0470610857009888</v>
+        <v>1.0463399887084961</v>
       </c>
       <c r="D283" s="2">
         <v>0.66075843572616577</v>
       </c>
       <c r="E283" s="2">
-        <v>0.62421756982803345</v>
+        <v>0.62418323755264282</v>
       </c>
     </row>
     <row r="284">
@@ -4900,13 +4900,13 @@
         <v>0.57745933532714844</v>
       </c>
       <c r="C284" s="2">
-        <v>0.61899799108505249</v>
+        <v>0.61847692728042603</v>
       </c>
       <c r="D284" s="2">
         <v>0.48775473237037659</v>
       </c>
       <c r="E284" s="2">
-        <v>0.43221172690391541</v>
+        <v>0.4322698712348938</v>
       </c>
     </row>
     <row r="285">
@@ -4917,13 +4917,13 @@
         <v>0.057371422648429871</v>
       </c>
       <c r="C285" s="2">
-        <v>-0.02642960287630558</v>
+        <v>-0.028546413406729698</v>
       </c>
       <c r="D285" s="2">
         <v>0.38621607422828674</v>
       </c>
       <c r="E285" s="2">
-        <v>0.32406911253929138</v>
+        <v>0.32409504055976868</v>
       </c>
     </row>
     <row r="286">
@@ -4934,13 +4934,13 @@
         <v>0.20288874208927155</v>
       </c>
       <c r="C286" s="2">
-        <v>-0.071271322667598724</v>
+        <v>-0.072318106889724731</v>
       </c>
       <c r="D286" s="2">
         <v>0.33505240082740784</v>
       </c>
       <c r="E286" s="2">
-        <v>0.2600623369216919</v>
+        <v>0.26045536994934082</v>
       </c>
     </row>
     <row r="287">
@@ -4951,13 +4951,13 @@
         <v>-0.29249900579452515</v>
       </c>
       <c r="C287" s="2">
-        <v>-0.15361905097961426</v>
+        <v>-0.1512007862329483</v>
       </c>
       <c r="D287" s="2">
         <v>0.17591078579425812</v>
       </c>
       <c r="E287" s="2">
-        <v>0.095976166427135468</v>
+        <v>0.096305049955844879</v>
       </c>
     </row>
     <row r="288">
@@ -4968,13 +4968,13 @@
         <v>-0.16537320613861084</v>
       </c>
       <c r="C288" s="2">
-        <v>-0.25597885251045227</v>
+        <v>-0.25451433658599854</v>
       </c>
       <c r="D288" s="2">
         <v>0.15010015666484833</v>
       </c>
       <c r="E288" s="2">
-        <v>0.12045231461524963</v>
+        <v>0.12102463096380234</v>
       </c>
     </row>
     <row r="289">
@@ -4985,13 +4985,13 @@
         <v>-0.24730530381202698</v>
       </c>
       <c r="C289" s="2">
-        <v>-0.37988147139549255</v>
+        <v>-0.38036981225013733</v>
       </c>
       <c r="D289" s="2">
         <v>0.027002451941370964</v>
       </c>
       <c r="E289" s="2">
-        <v>0.17198328673839569</v>
+        <v>0.17274484038352966</v>
       </c>
     </row>
     <row r="290">
@@ -5002,13 +5002,13 @@
         <v>0.42078080773353577</v>
       </c>
       <c r="C290" s="2">
-        <v>0.29329696297645569</v>
+        <v>0.2959912121295929</v>
       </c>
       <c r="D290" s="2">
         <v>0.18852995336055756</v>
       </c>
       <c r="E290" s="2">
-        <v>0.32325065135955811</v>
+        <v>0.32427644729614258</v>
       </c>
     </row>
     <row r="291">
@@ -5019,13 +5019,13 @@
         <v>-0.11584587395191193</v>
       </c>
       <c r="C291" s="2">
-        <v>-0.20839022099971771</v>
+        <v>-0.20711320638656616</v>
       </c>
       <c r="D291" s="2">
         <v>0.20439910888671875</v>
       </c>
       <c r="E291" s="2">
-        <v>0.37163662910461426</v>
+        <v>0.37310746312141418</v>
       </c>
     </row>
     <row r="292">
@@ -5036,13 +5036,13 @@
         <v>0.91342443227767944</v>
       </c>
       <c r="C292" s="2">
-        <v>1.2673463821411133</v>
+        <v>1.2688162326812744</v>
       </c>
       <c r="D292" s="2">
         <v>0.26482987403869629</v>
       </c>
       <c r="E292" s="2">
-        <v>0.39513444900512695</v>
+        <v>0.39652031660079956</v>
       </c>
     </row>
     <row r="293">
@@ -5053,13 +5053,13 @@
         <v>-0.53041994571685791</v>
       </c>
       <c r="C293" s="2">
-        <v>1.0827767848968506</v>
+        <v>1.0839587450027466</v>
       </c>
       <c r="D293" s="2">
         <v>0.30223485827445984</v>
       </c>
       <c r="E293" s="2">
-        <v>0.46461054682731629</v>
+        <v>0.46605736017227173</v>
       </c>
     </row>
     <row r="294">
@@ -5070,13 +5070,13 @@
         <v>1.5111188888549805</v>
       </c>
       <c r="C294" s="2">
-        <v>1.3349765539169312</v>
+        <v>1.335237979888916</v>
       </c>
       <c r="D294" s="2">
-        <v>0.37474364042282105</v>
+        <v>0.37474364042282104</v>
       </c>
       <c r="E294" s="2">
-        <v>0.55956023931503296</v>
+        <v>0.56116729974746704</v>
       </c>
     </row>
     <row r="295">
@@ -5087,13 +5087,13 @@
         <v>0.34571120142936707</v>
       </c>
       <c r="C295" s="2">
-        <v>0.36420270800590515</v>
+        <v>0.36716118454933167</v>
       </c>
       <c r="D295" s="2">
         <v>0.2809697687625885</v>
       </c>
       <c r="E295" s="2">
-        <v>0.45784217119216919</v>
+        <v>0.45916807651519775</v>
       </c>
     </row>
     <row r="296">
@@ -5104,13 +5104,13 @@
         <v>0.25137794017791748</v>
       </c>
       <c r="C296" s="2">
-        <v>0.057861290872097015</v>
+        <v>0.059514738619327545</v>
       </c>
       <c r="D296" s="2">
         <v>0.33217516541481018</v>
       </c>
       <c r="E296" s="2">
-        <v>0.49945932626724243</v>
+        <v>0.50111126899719238</v>
       </c>
     </row>
     <row r="297">
@@ -5121,13 +5121,13 @@
         <v>0.17127160727977753</v>
       </c>
       <c r="C297" s="2">
-        <v>0.3693060576915741</v>
+        <v>0.37131917476654053</v>
       </c>
       <c r="D297" s="2">
         <v>0.20555849373340607</v>
       </c>
       <c r="E297" s="2">
-        <v>0.33231493830680847</v>
+        <v>0.3337017297744751</v>
       </c>
     </row>
     <row r="298">
@@ -5138,13 +5138,13 @@
         <v>0.40527382493019104</v>
       </c>
       <c r="C298" s="2">
-        <v>0.47466585040092468</v>
+        <v>0.4756198525428772</v>
       </c>
       <c r="D298" s="2">
         <v>0.31881454586982727</v>
       </c>
       <c r="E298" s="2">
-        <v>0.24401785433292389</v>
+        <v>0.24546228349208832</v>
       </c>
     </row>
     <row r="299">
@@ -5155,13 +5155,13 @@
         <v>-0.42318412661552429</v>
       </c>
       <c r="C299" s="2">
-        <v>-0.62216585874557495</v>
+        <v>-0.62200206518173218</v>
       </c>
       <c r="D299" s="2">
-        <v>0.16016641259193421</v>
+        <v>0.1601664125919342</v>
       </c>
       <c r="E299" s="2">
-        <v>0.10611464083194733</v>
+        <v>0.10749863833189011</v>
       </c>
     </row>
     <row r="300">
@@ -5172,13 +5172,13 @@
         <v>0.34500259160995483</v>
       </c>
       <c r="C300" s="2">
-        <v>0.1661641001701355</v>
+        <v>0.17037568986415863</v>
       </c>
       <c r="D300" s="2">
         <v>0.19310443103313446</v>
       </c>
       <c r="E300" s="2">
-        <v>0.14611315727233887</v>
+        <v>0.14712309837341309</v>
       </c>
     </row>
     <row r="301">
@@ -5189,13 +5189,13 @@
         <v>-0.22612559795379639</v>
       </c>
       <c r="C301" s="2">
-        <v>-0.23695293068885803</v>
+        <v>-0.23786972463130951</v>
       </c>
       <c r="D301" s="2">
         <v>0.18243901431560516</v>
       </c>
       <c r="E301" s="2">
-        <v>0.14242997765541077</v>
+        <v>0.14337417483329773</v>
       </c>
     </row>
     <row r="302">
@@ -5206,13 +5206,13 @@
         <v>0.48888462781906128</v>
       </c>
       <c r="C302" s="2">
-        <v>0.28810292482376099</v>
+        <v>0.28980371356010437</v>
       </c>
       <c r="D302" s="2">
         <v>0.26868537068367004</v>
       </c>
       <c r="E302" s="2">
-        <v>0.19057169556617737</v>
+        <v>0.19179260730743408</v>
       </c>
     </row>
     <row r="303">
@@ -5223,13 +5223,13 @@
         <v>0.083285599946975708</v>
       </c>
       <c r="C303" s="2">
-        <v>0.093847639858722687</v>
+        <v>0.093565165996551514</v>
       </c>
       <c r="D303" s="2">
         <v>0.32962670922279358</v>
       </c>
       <c r="E303" s="2">
-        <v>0.22976610064506531</v>
+        <v>0.23087397217750549</v>
       </c>
     </row>
     <row r="304">
@@ -5240,13 +5240,13 @@
         <v>0.64215344190597534</v>
       </c>
       <c r="C304" s="2">
-        <v>0.72418934106826782</v>
+        <v>0.72378134727478027</v>
       </c>
       <c r="D304" s="2">
         <v>0.36689767241477966</v>
       </c>
       <c r="E304" s="2">
-        <v>0.26905041933059692</v>
+        <v>0.27014869451522827</v>
       </c>
     </row>
     <row r="305">
@@ -5257,13 +5257,13 @@
         <v>0.155389204621315</v>
       </c>
       <c r="C305" s="2">
-        <v>0.024712607264518738</v>
+        <v>0.025774471461772919</v>
       </c>
       <c r="D305" s="2">
-        <v>0.36518284678459168</v>
+        <v>0.36518284678459167</v>
       </c>
       <c r="E305" s="2">
-        <v>0.28153118491172791</v>
+        <v>0.28233873844146729</v>
       </c>
     </row>
     <row r="306">
@@ -5274,13 +5274,13 @@
         <v>0.94748872518539429</v>
       </c>
       <c r="C306" s="2">
-        <v>0.80258160829544067</v>
+        <v>0.80708497762680054</v>
       </c>
       <c r="D306" s="2">
         <v>0.45017626881599426</v>
       </c>
       <c r="E306" s="2">
-        <v>0.35772031545639038</v>
+        <v>0.35876056551933289</v>
       </c>
     </row>
     <row r="307">
@@ -5291,13 +5291,13 @@
         <v>0.95374596118927002</v>
       </c>
       <c r="C307" s="2">
-        <v>0.82741546630859375</v>
+        <v>0.82735216617584229</v>
       </c>
       <c r="D307" s="2">
-        <v>0.45430102944374085</v>
+        <v>0.45430102944374084</v>
       </c>
       <c r="E307" s="2">
-        <v>0.37453097105026245</v>
+        <v>0.37541148066520691</v>
       </c>
     </row>
     <row r="308">
@@ -5308,13 +5308,13 @@
         <v>-0.087745524942874908</v>
       </c>
       <c r="C308" s="2">
-        <v>-0.26860705018043518</v>
+        <v>-0.26852959394454956</v>
       </c>
       <c r="D308" s="2">
         <v>0.53140485286712646</v>
       </c>
       <c r="E308" s="2">
-        <v>0.44886445999145508</v>
+        <v>0.44985350966453552</v>
       </c>
     </row>
     <row r="309">
@@ -5325,13 +5325,13 @@
         <v>0.32956916093826294</v>
       </c>
       <c r="C309" s="2">
-        <v>0.27849099040031433</v>
+        <v>0.28008607029914856</v>
       </c>
       <c r="D309" s="2">
         <v>0.51833826303482056</v>
       </c>
       <c r="E309" s="2">
-        <v>0.44587486982345581</v>
+        <v>0.44716858863830566</v>
       </c>
     </row>
     <row r="310">
@@ -5342,13 +5342,13 @@
         <v>0.53881531953811646</v>
       </c>
       <c r="C310" s="2">
-        <v>0.44874930381774902</v>
+        <v>0.44992688298225403</v>
       </c>
       <c r="D310" s="2">
         <v>0.47942626476287842</v>
       </c>
       <c r="E310" s="2">
-        <v>0.40672597289085388</v>
+        <v>0.4080035388469696</v>
       </c>
     </row>
     <row r="311">
@@ -5359,13 +5359,13 @@
         <v>0.52600741386413574</v>
       </c>
       <c r="C311" s="2">
-        <v>0.43939894437789917</v>
+        <v>0.43966177105903625</v>
       </c>
       <c r="D311" s="2">
         <v>0.51304388046264648</v>
       </c>
       <c r="E311" s="2">
-        <v>0.42783987522125244</v>
+        <v>0.4286058247089386</v>
       </c>
     </row>
     <row r="312">
@@ -5376,13 +5376,13 @@
         <v>0.77722018957138062</v>
       </c>
       <c r="C312" s="2">
-        <v>0.76284897327423096</v>
+        <v>0.76354342699050903</v>
       </c>
       <c r="D312" s="2">
         <v>0.52808350324630737</v>
       </c>
       <c r="E312" s="2">
-        <v>0.44488686323165894</v>
+        <v>0.44605281949043274</v>
       </c>
     </row>
     <row r="313">
@@ -5393,13 +5393,13 @@
         <v>0.52455389499664307</v>
       </c>
       <c r="C313" s="2">
-        <v>0.69728302955627442</v>
+        <v>0.69961714744567871</v>
       </c>
       <c r="D313" s="2">
         <v>0.66772037744522095</v>
       </c>
       <c r="E313" s="2">
-        <v>0.60545074939727783</v>
+        <v>0.606589674949646</v>
       </c>
     </row>
     <row r="314">
@@ -5410,13 +5410,13 @@
         <v>-0.19481883943080902</v>
       </c>
       <c r="C314" s="2">
-        <v>-0.32762762904167175</v>
+        <v>-0.32671108841896057</v>
       </c>
       <c r="D314" s="2">
         <v>0.7510601282119751</v>
       </c>
       <c r="E314" s="2">
-        <v>0.67691540718078613</v>
+        <v>0.67811739444732666</v>
       </c>
     </row>
     <row r="315">
@@ -5427,13 +5427,13 @@
         <v>1.2500473260879517</v>
       </c>
       <c r="C315" s="2">
-        <v>0.99260693788528442</v>
+        <v>0.99250555038452148</v>
       </c>
       <c r="D315" s="2">
         <v>0.71953278779983521</v>
       </c>
       <c r="E315" s="2">
-        <v>0.63988417387008667</v>
+        <v>0.64115184545516968</v>
       </c>
     </row>
     <row r="316">
@@ -5441,16 +5441,16 @@
         <v>38047</v>
       </c>
       <c r="B316" s="2">
-        <v>1.0891025066375733</v>
+        <v>1.0891025066375732</v>
       </c>
       <c r="C316" s="2">
-        <v>0.98083829879760742</v>
+        <v>0.9843752384185791</v>
       </c>
       <c r="D316" s="2">
         <v>0.77530133724212646</v>
       </c>
       <c r="E316" s="2">
-        <v>0.69228756427764893</v>
+        <v>0.69381833076477051</v>
       </c>
     </row>
     <row r="317">
@@ -5461,13 +5461,13 @@
         <v>1.1689862012863159</v>
       </c>
       <c r="C317" s="2">
-        <v>1.1764678955078125</v>
+        <v>1.1763018369674683</v>
       </c>
       <c r="D317" s="2">
-        <v>0.65982580184936524</v>
+        <v>0.65982580184936523</v>
       </c>
       <c r="E317" s="2">
-        <v>0.58958250284194946</v>
+        <v>0.59167706966400146</v>
       </c>
     </row>
     <row r="318">
@@ -5478,13 +5478,13 @@
         <v>1.0796271562576294</v>
       </c>
       <c r="C318" s="2">
-        <v>0.92167282104492188</v>
+        <v>0.92383599281311035</v>
       </c>
       <c r="D318" s="2">
         <v>0.67685574293136597</v>
       </c>
       <c r="E318" s="2">
-        <v>0.59757429361343384</v>
+        <v>0.59994405508041382</v>
       </c>
     </row>
     <row r="319">
@@ -5495,13 +5495,13 @@
         <v>0.25506904721260071</v>
       </c>
       <c r="C319" s="2">
-        <v>0.11546846479177475</v>
+        <v>0.11723698675632477</v>
       </c>
       <c r="D319" s="2">
         <v>0.76814621686935425</v>
       </c>
       <c r="E319" s="2">
-        <v>0.69134849309921265</v>
+        <v>0.69403266906738281</v>
       </c>
     </row>
     <row r="320">
@@ -5512,13 +5512,13 @@
         <v>1.0279244184494019</v>
       </c>
       <c r="C320" s="2">
-        <v>0.9110293984413147</v>
+        <v>0.91366010904312134</v>
       </c>
       <c r="D320" s="2">
         <v>0.77619993686676025</v>
       </c>
       <c r="E320" s="2">
-        <v>0.71583592891693115</v>
+        <v>0.71877306699752808</v>
       </c>
     </row>
     <row r="321">
@@ -5529,13 +5529,13 @@
         <v>-0.26205968856811523</v>
       </c>
       <c r="C321" s="2">
-        <v>-0.16149657964706421</v>
+        <v>-0.15572834014892578</v>
       </c>
       <c r="D321" s="2">
         <v>0.75808358192443848</v>
       </c>
       <c r="E321" s="2">
-        <v>0.68183696269989014</v>
+        <v>0.68506789207458496</v>
       </c>
     </row>
     <row r="322">
@@ -5546,13 +5546,13 @@
         <v>0.67782378196716309</v>
       </c>
       <c r="C322" s="2">
-        <v>0.76920878887176514</v>
+        <v>0.77401995658874512</v>
       </c>
       <c r="D322" s="2">
-        <v>0.63281553983688355</v>
+        <v>0.63281553983688354</v>
       </c>
       <c r="E322" s="2">
-        <v>0.62433242797851563</v>
+        <v>0.62787806987762451</v>
       </c>
     </row>
     <row r="323">
@@ -5563,13 +5563,13 @@
         <v>0.62679529190063477</v>
       </c>
       <c r="C323" s="2">
-        <v>0.51634019613265991</v>
+        <v>0.52008676528930664</v>
       </c>
       <c r="D323" s="2">
         <v>0.59207838773727417</v>
       </c>
       <c r="E323" s="2">
-        <v>0.58755016326904297</v>
+        <v>0.59136193990707397</v>
       </c>
     </row>
     <row r="324">
@@ -5580,13 +5580,13 @@
         <v>1.32253098487854</v>
       </c>
       <c r="C324" s="2">
-        <v>1.2129940986633301</v>
+        <v>1.2151690721511841</v>
       </c>
       <c r="D324" s="2">
         <v>0.67519795894622803</v>
       </c>
       <c r="E324" s="2">
-        <v>0.67872351408004761</v>
+        <v>0.6829371452331543</v>
       </c>
     </row>
     <row r="325">
@@ -5597,13 +5597,13 @@
         <v>0.92605489492416382</v>
       </c>
       <c r="C325" s="2">
-        <v>0.67484778165817261</v>
+        <v>0.68102878332138062</v>
       </c>
       <c r="D325" s="2">
         <v>0.66264694929122925</v>
       </c>
       <c r="E325" s="2">
-        <v>0.66871803998947144</v>
+        <v>0.67307555675506592</v>
       </c>
     </row>
     <row r="326">
@@ -5614,13 +5614,13 @@
         <v>0.041573919355869293</v>
       </c>
       <c r="C326" s="2">
-        <v>0.65892690420150757</v>
+        <v>0.66159331798553467</v>
       </c>
       <c r="D326" s="2">
         <v>0.77779829502105713</v>
       </c>
       <c r="E326" s="2">
-        <v>0.76892215013504028</v>
+        <v>0.77273517847061157</v>
       </c>
     </row>
     <row r="327">
@@ -5631,13 +5631,13 @@
         <v>0.71299290657043457</v>
       </c>
       <c r="C327" s="2">
-        <v>0.59063237905502319</v>
+        <v>0.59519082307815552</v>
       </c>
       <c r="D327" s="2">
-        <v>0.8151770830154419</v>
+        <v>0.81517708301544189</v>
       </c>
       <c r="E327" s="2">
-        <v>0.78295308351516724</v>
+        <v>0.78642821311950684</v>
       </c>
     </row>
     <row r="328">
@@ -5648,13 +5648,13 @@
         <v>1.0031448602676392</v>
       </c>
       <c r="C328" s="2">
-        <v>0.93602889776229858</v>
+        <v>0.9414139986038208</v>
       </c>
       <c r="D328" s="2">
         <v>0.82355225086212158</v>
       </c>
       <c r="E328" s="2">
-        <v>0.78760290145874023</v>
+        <v>0.79085379838943481</v>
       </c>
     </row>
     <row r="329">
@@ -5662,16 +5662,16 @@
         <v>38443</v>
       </c>
       <c r="B329" s="2">
-        <v>0.91496580839157105</v>
+        <v>0.91496580839157104</v>
       </c>
       <c r="C329" s="2">
-        <v>0.82098007202148438</v>
+        <v>0.8249056339263916</v>
       </c>
       <c r="D329" s="2">
         <v>0.67846149206161499</v>
       </c>
       <c r="E329" s="2">
-        <v>0.707233726978302</v>
+        <v>0.71040582656860352</v>
       </c>
     </row>
     <row r="330">
@@ -5682,13 +5682,13 @@
         <v>0.77430212497711182</v>
       </c>
       <c r="C330" s="2">
-        <v>0.74034029245376587</v>
+        <v>0.74120801687240601</v>
       </c>
       <c r="D330" s="2">
         <v>0.67702919244766235</v>
       </c>
       <c r="E330" s="2">
-        <v>0.73209810256958008</v>
+        <v>0.73480820655822754</v>
       </c>
     </row>
     <row r="331">
@@ -5699,13 +5699,13 @@
         <v>1.0142329931259155</v>
       </c>
       <c r="C331" s="2">
-        <v>0.89548736810684204</v>
+        <v>0.89725762605667114</v>
       </c>
       <c r="D331" s="2">
         <v>0.73002344369888306</v>
       </c>
       <c r="E331" s="2">
-        <v>0.74973022937774658</v>
+        <v>0.75225746631622314</v>
       </c>
     </row>
     <row r="332">
@@ -5716,13 +5716,13 @@
         <v>0.70217156410217285</v>
       </c>
       <c r="C332" s="2">
-        <v>0.55818831920623779</v>
+        <v>0.559917151927948</v>
       </c>
       <c r="D332" s="2">
         <v>0.77954214811325073</v>
       </c>
       <c r="E332" s="2">
-        <v>0.82073014974594116</v>
+        <v>0.82295888662338257</v>
       </c>
     </row>
     <row r="333">
@@ -5733,13 +5733,13 @@
         <v>0.016714487224817276</v>
       </c>
       <c r="C333" s="2">
-        <v>0.48967170715332031</v>
+        <v>0.49113714694976807</v>
       </c>
       <c r="D333" s="2">
         <v>0.76825737953186035</v>
       </c>
       <c r="E333" s="2">
-        <v>0.81833618879318237</v>
+        <v>0.81995552778244019</v>
       </c>
     </row>
     <row r="334">
@@ -5750,13 +5750,13 @@
         <v>0.91316384077072144</v>
       </c>
       <c r="C334" s="2">
-        <v>0.89862704277038574</v>
+        <v>0.90064990520477295</v>
       </c>
       <c r="D334" s="2">
         <v>0.65262711048126221</v>
       </c>
       <c r="E334" s="2">
-        <v>0.69008356332778931</v>
+        <v>0.69198781251907349</v>
       </c>
     </row>
     <row r="335">
@@ -5767,13 +5767,13 @@
         <v>0.51852226257324219</v>
       </c>
       <c r="C335" s="2">
-        <v>0.8176160454750061</v>
+        <v>0.81863671541213989</v>
       </c>
       <c r="D335" s="2">
         <v>0.69968503713607788</v>
       </c>
       <c r="E335" s="2">
-        <v>0.70896416902542114</v>
+        <v>0.71140933036804199</v>
       </c>
     </row>
     <row r="336">
@@ -5784,13 +5784,13 @@
         <v>1.1586616039276123</v>
       </c>
       <c r="C336" s="2">
-        <v>1.229631781578064</v>
+        <v>1.2315037250518799</v>
       </c>
       <c r="D336" s="2">
         <v>0.73506635427474976</v>
       </c>
       <c r="E336" s="2">
-        <v>0.76275837421417236</v>
+        <v>0.76518672704696655</v>
       </c>
     </row>
     <row r="337">
@@ -5801,13 +5801,13 @@
         <v>0.90158188343048096</v>
       </c>
       <c r="C337" s="2">
-        <v>0.91448295116424561</v>
+        <v>0.9143836498260498</v>
       </c>
       <c r="D337" s="2">
         <v>0.77695095539093018</v>
       </c>
       <c r="E337" s="2">
-        <v>0.79620164632797241</v>
+        <v>0.7986907958984375</v>
       </c>
     </row>
     <row r="338">
@@ -5818,13 +5818,13 @@
         <v>-0.12570691108703613</v>
       </c>
       <c r="C338" s="2">
-        <v>-0.33329322934150696</v>
+        <v>-0.32680371403694153</v>
       </c>
       <c r="D338" s="2">
         <v>0.86762511730194092</v>
       </c>
       <c r="E338" s="2">
-        <v>0.84509468078613281</v>
+        <v>0.84764569997787476</v>
       </c>
     </row>
     <row r="339">
@@ -5835,13 +5835,13 @@
         <v>1.1978235244750977</v>
       </c>
       <c r="C339" s="2">
-        <v>0.91026532649993896</v>
+        <v>0.91600191593170166</v>
       </c>
       <c r="D339" s="2">
         <v>0.82790964841842651</v>
       </c>
       <c r="E339" s="2">
-        <v>0.79947739839553833</v>
+        <v>0.80143845081329346</v>
       </c>
     </row>
     <row r="340">
@@ -5852,13 +5852,13 @@
         <v>1.3326648473739624</v>
       </c>
       <c r="C340" s="2">
-        <v>1.3796355724334717</v>
+        <v>1.3812539577484131</v>
       </c>
       <c r="D340" s="2">
         <v>0.87409299612045288</v>
       </c>
       <c r="E340" s="2">
-        <v>0.85502153635025024</v>
+        <v>0.85730040073394775</v>
       </c>
     </row>
     <row r="341">
@@ -5869,13 +5869,13 @@
         <v>1.079133152961731</v>
       </c>
       <c r="C341" s="2">
-        <v>0.85917770862579346</v>
+        <v>0.86145401000976562</v>
       </c>
       <c r="D341" s="2">
         <v>0.80900168418884277</v>
       </c>
       <c r="E341" s="2">
-        <v>0.76079785823822021</v>
+        <v>0.76334214210510254</v>
       </c>
     </row>
     <row r="342">
@@ -5886,13 +5886,13 @@
         <v>0.83278191089630127</v>
       </c>
       <c r="C342" s="2">
-        <v>0.92970865964889526</v>
+        <v>0.93173128366470337</v>
       </c>
       <c r="D342" s="2">
         <v>0.81848651170730591</v>
       </c>
       <c r="E342" s="2">
-        <v>0.71516710519790649</v>
+        <v>0.7182459831237793</v>
       </c>
     </row>
     <row r="343">
@@ -5903,13 +5903,13 @@
         <v>0.5557246208190918</v>
       </c>
       <c r="C343" s="2">
-        <v>0.48807191848754883</v>
+        <v>0.4847845733165741</v>
       </c>
       <c r="D343" s="2">
         <v>0.96024250984191895</v>
       </c>
       <c r="E343" s="2">
-        <v>0.87302380800247192</v>
+        <v>0.87596422433853149</v>
       </c>
     </row>
     <row r="344">
@@ -5920,13 +5920,13 @@
         <v>0.93417239189147949</v>
       </c>
       <c r="C344" s="2">
-        <v>1.317513108253479</v>
+        <v>1.3213942050933838</v>
       </c>
       <c r="D344" s="2">
         <v>0.83412224054336548</v>
       </c>
       <c r="E344" s="2">
-        <v>0.78853189945220947</v>
+        <v>0.79104197025299072</v>
       </c>
     </row>
     <row r="345">
@@ -5937,13 +5937,13 @@
         <v>0.57283961772918701</v>
       </c>
       <c r="C345" s="2">
-        <v>0.3816184401512146</v>
+        <v>0.38587942719459534</v>
       </c>
       <c r="D345" s="2">
         <v>0.82078951597213745</v>
       </c>
       <c r="E345" s="2">
-        <v>0.75743609666824341</v>
+        <v>0.76020467281341553</v>
       </c>
     </row>
     <row r="346">
@@ -5954,13 +5954,13 @@
         <v>0.98694562911987305</v>
       </c>
       <c r="C346" s="2">
-        <v>0.50380623340606689</v>
+        <v>0.50851839780807495</v>
       </c>
       <c r="D346" s="2">
         <v>0.89196252822875977</v>
       </c>
       <c r="E346" s="2">
-        <v>0.84118461608886719</v>
+        <v>0.8442075252532959</v>
       </c>
     </row>
     <row r="347">
@@ -5971,13 +5971,13 @@
         <v>1.1500968933105469</v>
       </c>
       <c r="C347" s="2">
-        <v>1.087417483329773</v>
+        <v>1.0926601886749268</v>
       </c>
       <c r="D347" s="2">
         <v>0.93152892589569092</v>
       </c>
       <c r="E347" s="2">
-        <v>0.86468780040740967</v>
+        <v>0.86774295568466187</v>
       </c>
     </row>
     <row r="348">
@@ -5988,13 +5988,13 @@
         <v>0.062741167843341827</v>
       </c>
       <c r="C348" s="2">
-        <v>0.14983819425106049</v>
+        <v>0.15170177817344666</v>
       </c>
       <c r="D348" s="2">
         <v>0.98598110675811768</v>
       </c>
       <c r="E348" s="2">
-        <v>0.9072028398513794</v>
+        <v>0.91069227457046509</v>
       </c>
     </row>
     <row r="349">
@@ -6005,13 +6005,13 @@
         <v>1.2126703262329102</v>
       </c>
       <c r="C349" s="2">
-        <v>1.0997732877731323</v>
+        <v>1.1037179231643677</v>
       </c>
       <c r="D349" s="2">
         <v>1.0041536092758179</v>
       </c>
       <c r="E349" s="2">
-        <v>0.9222949743270874</v>
+        <v>0.92586898803710938</v>
       </c>
     </row>
     <row r="350">
@@ -6022,13 +6022,13 @@
         <v>1.719690203666687</v>
       </c>
       <c r="C350" s="2">
-        <v>1.6129144430160522</v>
+        <v>1.6174801588058472</v>
       </c>
       <c r="D350" s="2">
         <v>1.0844240188598633</v>
       </c>
       <c r="E350" s="2">
-        <v>1.0039507150650024</v>
+        <v>1.0074014663696289</v>
       </c>
     </row>
     <row r="351">
@@ -6039,13 +6039,13 @@
         <v>1.1888793706893921</v>
       </c>
       <c r="C351" s="2">
-        <v>1.1412369012832642</v>
+        <v>1.1435500383377075</v>
       </c>
       <c r="D351" s="2">
         <v>1.0903068780899048</v>
       </c>
       <c r="E351" s="2">
-        <v>1.0727794170379639</v>
+        <v>1.0757935047149658</v>
       </c>
     </row>
     <row r="352">
@@ -6056,13 +6056,13 @@
         <v>1.0457944869995117</v>
       </c>
       <c r="C352" s="2">
-        <v>0.87070721387863159</v>
+        <v>0.87132841348648071</v>
       </c>
       <c r="D352" s="2">
         <v>1.0662604570388794</v>
       </c>
       <c r="E352" s="2">
-        <v>1.0418163537979126</v>
+        <v>1.0443702936172485</v>
       </c>
     </row>
     <row r="353">
@@ -6073,13 +6073,13 @@
         <v>1.097724437713623</v>
       </c>
       <c r="C353" s="2">
-        <v>1.4533427953720093</v>
+        <v>1.4579843282699585</v>
       </c>
       <c r="D353" s="2">
         <v>1.1108037233352661</v>
       </c>
       <c r="E353" s="2">
-        <v>1.0923763513565064</v>
+        <v>1.0950009822845459</v>
       </c>
     </row>
     <row r="354">
@@ -6090,13 +6090,13 @@
         <v>1.2952731847763062</v>
       </c>
       <c r="C354" s="2">
-        <v>1.1165194511413574</v>
+        <v>1.119672417640686</v>
       </c>
       <c r="D354" s="2">
         <v>1.0517146587371826</v>
       </c>
       <c r="E354" s="2">
-        <v>1.0381717681884766</v>
+        <v>1.0404727458953857</v>
       </c>
     </row>
     <row r="355">
@@ -6107,13 +6107,13 @@
         <v>1.0398914813995361</v>
       </c>
       <c r="C355" s="2">
-        <v>1.1232646703720093</v>
+        <v>1.124046802520752</v>
       </c>
       <c r="D355" s="2">
         <v>0.88831794261932373</v>
       </c>
       <c r="E355" s="2">
-        <v>0.84440100193023682</v>
+        <v>0.8464963436126709</v>
       </c>
     </row>
     <row r="356">
@@ -6124,13 +6124,13 @@
         <v>0.93367987871170044</v>
       </c>
       <c r="C356" s="2">
-        <v>0.8087499737739563</v>
+        <v>0.80985063314437866</v>
       </c>
       <c r="D356" s="2">
         <v>0.84468305110931396</v>
       </c>
       <c r="E356" s="2">
-        <v>0.77819550037384033</v>
+        <v>0.78033661842346191</v>
       </c>
     </row>
     <row r="357">
@@ -6141,13 +6141,13 @@
         <v>0.4636305570602417</v>
       </c>
       <c r="C357" s="2">
-        <v>0.60487884283065796</v>
+        <v>0.60737842321395874</v>
       </c>
       <c r="D357" s="2">
         <v>0.81421780586242676</v>
       </c>
       <c r="E357" s="2">
-        <v>0.75268685817718506</v>
+        <v>0.75470709800720215</v>
       </c>
     </row>
     <row r="358">
@@ -6158,13 +6158,13 @@
         <v>0.68086826801300049</v>
       </c>
       <c r="C358" s="2">
-        <v>0.61193174123764038</v>
+        <v>0.61296325922012329</v>
       </c>
       <c r="D358" s="2">
         <v>0.74072188138961792</v>
       </c>
       <c r="E358" s="2">
-        <v>0.61622714996337891</v>
+        <v>0.61806714534759521</v>
       </c>
     </row>
     <row r="359">
@@ -6175,13 +6175,13 @@
         <v>0.24911986291408539</v>
       </c>
       <c r="C359" s="2">
-        <v>-0.13102264702320099</v>
+        <v>-0.12830743193626404</v>
       </c>
       <c r="D359" s="2">
         <v>0.60560154914855957</v>
       </c>
       <c r="E359" s="2">
-        <v>0.49140933156013489</v>
+        <v>0.49292567372322083</v>
       </c>
     </row>
     <row r="360">
@@ -6192,13 +6192,13 @@
         <v>0.7961653470993042</v>
       </c>
       <c r="C360" s="2">
-        <v>0.5453876256942749</v>
+        <v>0.54811275005340576</v>
       </c>
       <c r="D360" s="2">
         <v>0.52908146381378174</v>
       </c>
       <c r="E360" s="2">
-        <v>0.38368231058120728</v>
+        <v>0.38534507155418396</v>
       </c>
     </row>
     <row r="361">
@@ -6209,13 +6209,13 @@
         <v>0.77160722017288208</v>
       </c>
       <c r="C361" s="2">
-        <v>0.64112907648086548</v>
+        <v>0.64066249132156372</v>
       </c>
       <c r="D361" s="2">
         <v>0.45166823267936707</v>
       </c>
       <c r="E361" s="2">
-        <v>0.34201323986053467</v>
+        <v>0.3436439037322998</v>
       </c>
     </row>
     <row r="362">
@@ -6223,16 +6223,16 @@
         <v>39448</v>
       </c>
       <c r="B362" s="2">
-        <v>0.43626126646995545</v>
+        <v>0.43626126646995544</v>
       </c>
       <c r="C362" s="2">
-        <v>0.22520583868026733</v>
+        <v>0.22822485864162445</v>
       </c>
       <c r="D362" s="2">
         <v>0.49149194359779358</v>
       </c>
       <c r="E362" s="2">
-        <v>0.36512121558189392</v>
+        <v>0.36654117703437805</v>
       </c>
     </row>
     <row r="363">
@@ -6243,13 +6243,13 @@
         <v>0.079189814627170563</v>
       </c>
       <c r="C363" s="2">
-        <v>-0.0068410104140639305</v>
+        <v>-0.006600602064281702</v>
       </c>
       <c r="D363" s="2">
         <v>0.44996628165245056</v>
       </c>
       <c r="E363" s="2">
-        <v>0.32095295190811157</v>
+        <v>0.32221049070358276</v>
       </c>
     </row>
     <row r="364">
@@ -6260,13 +6260,13 @@
         <v>0.35121113061904907</v>
       </c>
       <c r="C364" s="2">
-        <v>0.15372124314308167</v>
+        <v>0.15582138299942017</v>
       </c>
       <c r="D364" s="2">
         <v>0.472135990858078</v>
       </c>
       <c r="E364" s="2">
-        <v>0.39960843324661255</v>
+        <v>0.40071973204612732</v>
       </c>
     </row>
     <row r="365">
@@ -6277,13 +6277,13 @@
         <v>0.23696063458919525</v>
       </c>
       <c r="C365" s="2">
-        <v>0.43372836709022522</v>
+        <v>0.43454012274742126</v>
       </c>
       <c r="D365" s="2">
         <v>0.4344068169593811</v>
       </c>
       <c r="E365" s="2">
-        <v>0.39215227961540222</v>
+        <v>0.39309468865394592</v>
       </c>
     </row>
     <row r="366">
@@ -6294,13 +6294,13 @@
         <v>0.82204407453536987</v>
       </c>
       <c r="C366" s="2">
-        <v>0.81285059452056885</v>
+        <v>0.81345385313034058</v>
       </c>
       <c r="D366" s="2">
         <v>0.42091554403305054</v>
       </c>
       <c r="E366" s="2">
-        <v>0.38646781444549561</v>
+        <v>0.38753646612167358</v>
       </c>
     </row>
     <row r="367">
@@ -6311,13 +6311,13 @@
         <v>0.30713719129562378</v>
       </c>
       <c r="C367" s="2">
-        <v>0.21441759169101715</v>
+        <v>0.21398705244064331</v>
       </c>
       <c r="D367" s="2">
         <v>0.31707838177680969</v>
       </c>
       <c r="E367" s="2">
-        <v>0.3095041811466217</v>
+        <v>0.31020092964172363</v>
       </c>
     </row>
     <row r="368">
@@ -6328,13 +6328,13 @@
         <v>0.44864735007286072</v>
       </c>
       <c r="C368" s="2">
-        <v>0.57687658071517944</v>
+        <v>0.57827574014663696</v>
       </c>
       <c r="D368" s="2">
         <v>0.26228687167167664</v>
       </c>
       <c r="E368" s="2">
-        <v>0.26232197880744934</v>
+        <v>0.2631220817565918</v>
       </c>
     </row>
     <row r="369">
@@ -6345,13 +6345,13 @@
         <v>0.45660275220870972</v>
       </c>
       <c r="C369" s="2">
-        <v>0.47828215360641479</v>
+        <v>0.47948718070983887</v>
       </c>
       <c r="D369" s="2">
         <v>0.15488393604755402</v>
       </c>
       <c r="E369" s="2">
-        <v>0.18703389167785645</v>
+        <v>0.1876467764377594</v>
       </c>
     </row>
     <row r="370">
@@ -6362,13 +6362,13 @@
         <v>0.65018576383590698</v>
       </c>
       <c r="C370" s="2">
-        <v>0.5899689793586731</v>
+        <v>0.59063851833343506</v>
       </c>
       <c r="D370" s="2">
         <v>0.08480565994977951</v>
       </c>
       <c r="E370" s="2">
-        <v>0.10617582499980927</v>
+        <v>0.10690493881702423</v>
       </c>
     </row>
     <row r="371">
@@ -6379,13 +6379,13 @@
         <v>-0.49827328324317932</v>
       </c>
       <c r="C371" s="2">
-        <v>-0.46746695041656494</v>
+        <v>-0.46779483556747437</v>
       </c>
       <c r="D371" s="2">
         <v>-0.052686493843793869</v>
       </c>
       <c r="E371" s="2">
-        <v>-0.033340398222208023</v>
+        <v>-0.032583560794591904</v>
       </c>
     </row>
     <row r="372">
@@ -6396,13 +6396,13 @@
         <v>-0.41393366456031799</v>
       </c>
       <c r="C372" s="2">
-        <v>-0.43148064613342285</v>
+        <v>-0.43031024932861328</v>
       </c>
       <c r="D372" s="2">
         <v>-0.11322511732578278</v>
       </c>
       <c r="E372" s="2">
-        <v>-0.094527304172515869</v>
+        <v>-0.09376969188451767</v>
       </c>
     </row>
     <row r="373">
@@ -6413,13 +6413,13 @@
         <v>-0.61541545391082764</v>
       </c>
       <c r="C373" s="2">
-        <v>-0.52387160062789917</v>
+        <v>-0.5234563946723938</v>
       </c>
       <c r="D373" s="2">
         <v>-0.17811037600040436</v>
       </c>
       <c r="E373" s="2">
-        <v>-0.18401731550693512</v>
+        <v>-0.18339735269546509</v>
       </c>
     </row>
     <row r="374">
@@ -6430,13 +6430,13 @@
         <v>-0.39374378323554993</v>
       </c>
       <c r="C374" s="2">
-        <v>-0.29399430751800537</v>
+        <v>-0.29213640093803406</v>
       </c>
       <c r="D374" s="2">
         <v>-0.20896013081073761</v>
       </c>
       <c r="E374" s="2">
-        <v>-0.24062703549861908</v>
+        <v>-0.24002160131931305</v>
       </c>
     </row>
     <row r="375">
@@ -6447,13 +6447,13 @@
         <v>-0.41538530588150024</v>
       </c>
       <c r="C375" s="2">
-        <v>-0.44279539585113525</v>
+        <v>-0.44194266200065613</v>
       </c>
       <c r="D375" s="2">
         <v>-0.31952023506164551</v>
       </c>
       <c r="E375" s="2">
-        <v>-0.36538940668106079</v>
+        <v>-0.36485767364501953</v>
       </c>
     </row>
     <row r="376">
@@ -6464,13 +6464,13 @@
         <v>-0.23771043121814728</v>
       </c>
       <c r="C376" s="2">
-        <v>-0.33626458048820496</v>
+        <v>-0.33668813109397888</v>
       </c>
       <c r="D376" s="2">
         <v>-0.29558879137039185</v>
       </c>
       <c r="E376" s="2">
-        <v>-0.3454926609992981</v>
+        <v>-0.34488251805305481</v>
       </c>
     </row>
     <row r="377">
@@ -6481,13 +6481,13 @@
         <v>-0.13531991839408875</v>
       </c>
       <c r="C377" s="2">
-        <v>-0.22853349149227142</v>
+        <v>-0.2283731997013092</v>
       </c>
       <c r="D377" s="2">
         <v>-0.32506543397903442</v>
       </c>
       <c r="E377" s="2">
-        <v>-0.37027284502983093</v>
+        <v>-0.36983883380889893</v>
       </c>
     </row>
     <row r="378">
@@ -6498,13 +6498,13 @@
         <v>0.17895491421222687</v>
       </c>
       <c r="C378" s="2">
-        <v>-0.031205262988805771</v>
+        <v>-0.030130991712212563</v>
       </c>
       <c r="D378" s="2">
         <v>-0.19304193556308746</v>
       </c>
       <c r="E378" s="2">
-        <v>-0.25794753432273865</v>
+        <v>-0.25751131772994995</v>
       </c>
     </row>
     <row r="379">
@@ -6515,13 +6515,13 @@
         <v>-0.34485521912574768</v>
       </c>
       <c r="C379" s="2">
-        <v>-0.53289240598678589</v>
+        <v>-0.5328860878944397</v>
       </c>
       <c r="D379" s="2">
         <v>-0.13694508373737335</v>
       </c>
       <c r="E379" s="2">
-        <v>-0.2181675136089325</v>
+        <v>-0.21785508096218109</v>
       </c>
     </row>
     <row r="380">
@@ -6532,13 +6532,13 @@
         <v>-0.28289023041725159</v>
       </c>
       <c r="C380" s="2">
-        <v>-0.28839632868766785</v>
+        <v>-0.28801843523979187</v>
       </c>
       <c r="D380" s="2">
         <v>-0.13185589015483856</v>
       </c>
       <c r="E380" s="2">
-        <v>-0.21521164476871491</v>
+        <v>-0.21487283706665039</v>
       </c>
     </row>
     <row r="381">
@@ -6549,13 +6549,13 @@
         <v>-0.67922335863113403</v>
       </c>
       <c r="C381" s="2">
-        <v>-0.65450215339660645</v>
+        <v>-0.65491712093353271</v>
       </c>
       <c r="D381" s="2">
         <v>-0.019411737099289894</v>
       </c>
       <c r="E381" s="2">
-        <v>-0.10480091720819473</v>
+        <v>-0.10413952171802521</v>
       </c>
     </row>
     <row r="382">
@@ -6566,13 +6566,13 @@
         <v>0.57279586791992188</v>
       </c>
       <c r="C382" s="2">
-        <v>0.4870561957359314</v>
+        <v>0.48749113082885742</v>
       </c>
       <c r="D382" s="2">
         <v>-0.043574009090662003</v>
       </c>
       <c r="E382" s="2">
-        <v>-0.13548773527145386</v>
+        <v>-0.134988933801651</v>
       </c>
     </row>
     <row r="383">
@@ -6583,13 +6583,13 @@
         <v>0.11112789064645767</v>
       </c>
       <c r="C383" s="2">
-        <v>0.064025819301605225</v>
+        <v>0.064769729971885681</v>
       </c>
       <c r="D383" s="2">
         <v>0.063766174018383026</v>
       </c>
       <c r="E383" s="2">
-        <v>-0.0086554326117038727</v>
+        <v>-0.0080493343994021416</v>
       </c>
     </row>
     <row r="384">
@@ -6600,13 +6600,13 @@
         <v>-0.36958256363868713</v>
       </c>
       <c r="C384" s="2">
-        <v>-0.41619265079498291</v>
+        <v>-0.41510236263275146</v>
       </c>
       <c r="D384" s="2">
         <v>0.20862975716590881</v>
       </c>
       <c r="E384" s="2">
-        <v>0.13239337503910065</v>
+        <v>0.13348370790481567</v>
       </c>
     </row>
     <row r="385">
@@ -6617,13 +6617,13 @@
         <v>0.77428698539733887</v>
       </c>
       <c r="C385" s="2">
-        <v>0.65743201971054077</v>
+        <v>0.6599116325378418</v>
       </c>
       <c r="D385" s="2">
         <v>0.33690136671066284</v>
       </c>
       <c r="E385" s="2">
-        <v>0.24430128931999207</v>
+        <v>0.24576574563980103</v>
       </c>
     </row>
     <row r="386">
@@ -6634,13 +6634,13 @@
         <v>-0.35278037190437317</v>
       </c>
       <c r="C386" s="2">
-        <v>-0.50471490621566772</v>
+        <v>-0.50601792335510254</v>
       </c>
       <c r="D386" s="2">
         <v>0.53222495317459106</v>
       </c>
       <c r="E386" s="2">
-        <v>0.42318007349967957</v>
+        <v>0.42495560646057129</v>
       </c>
     </row>
     <row r="387">
@@ -6651,13 +6651,13 @@
         <v>1.1450165510177612</v>
       </c>
       <c r="C387" s="2">
-        <v>1.1102855205535889</v>
+        <v>1.1123254299163818</v>
       </c>
       <c r="D387" s="2">
         <v>0.58888149261474609</v>
       </c>
       <c r="E387" s="2">
-        <v>0.46632009744644165</v>
+        <v>0.46821409463882446</v>
       </c>
     </row>
     <row r="388">
@@ -6668,13 +6668,13 @@
         <v>0.95891708135604858</v>
       </c>
       <c r="C388" s="2">
-        <v>0.73654687404632568</v>
+        <v>0.74091130495071411</v>
       </c>
       <c r="D388" s="2">
         <v>0.6556931734085083</v>
       </c>
       <c r="E388" s="2">
-        <v>0.53400295972824097</v>
+        <v>0.5358583927154541</v>
       </c>
     </row>
     <row r="389">
@@ -6685,13 +6685,13 @@
         <v>0.87155419588088989</v>
       </c>
       <c r="C389" s="2">
-        <v>0.71877491474151611</v>
+        <v>0.72251993417739868</v>
       </c>
       <c r="D389" s="2">
         <v>0.782004714012146</v>
       </c>
       <c r="E389" s="2">
-        <v>0.67951363325119019</v>
+        <v>0.68139398097991943</v>
       </c>
     </row>
     <row r="390">
@@ -6702,13 +6702,13 @@
         <v>1.0786888599395752</v>
       </c>
       <c r="C390" s="2">
-        <v>0.95540684461593628</v>
+        <v>0.95779150724411011</v>
       </c>
       <c r="D390" s="2">
         <v>0.87720280885696411</v>
       </c>
       <c r="E390" s="2">
-        <v>0.79213255643844605</v>
+        <v>0.79407656192779541</v>
       </c>
     </row>
     <row r="391">
@@ -6719,13 +6719,13 @@
         <v>1.0827047824859619</v>
       </c>
       <c r="C391" s="2">
-        <v>0.8753165602684021</v>
+        <v>0.87681770324707031</v>
       </c>
       <c r="D391" s="2">
-        <v>1.0366883277893067</v>
+        <v>1.0366883277893066</v>
       </c>
       <c r="E391" s="2">
-        <v>0.96378642320632935</v>
+        <v>0.9658704400062561</v>
       </c>
     </row>
     <row r="392">
@@ -6736,13 +6736,13 @@
         <v>0.71243321895599365</v>
       </c>
       <c r="C392" s="2">
-        <v>0.67317163944244385</v>
+        <v>0.67356812953948975</v>
       </c>
       <c r="D392" s="2">
         <v>0.98718959093093872</v>
       </c>
       <c r="E392" s="2">
-        <v>0.914451003074646</v>
+        <v>0.91653996706008911</v>
       </c>
     </row>
     <row r="393">
@@ -6753,13 +6753,13 @@
         <v>0.76722127199172974</v>
       </c>
       <c r="C393" s="2">
-        <v>0.89340335130691528</v>
+        <v>0.89471817016601562</v>
       </c>
       <c r="D393" s="2">
         <v>1.0241857767105103</v>
       </c>
       <c r="E393" s="2">
-        <v>0.96921271085739136</v>
+        <v>0.97079724073410034</v>
       </c>
     </row>
     <row r="394">
@@ -6770,13 +6770,13 @@
         <v>1.6310696601867676</v>
       </c>
       <c r="C394" s="2">
-        <v>1.6710022687911987</v>
+        <v>1.6740546226501465</v>
       </c>
       <c r="D394" s="2">
         <v>1.0190236568450928</v>
       </c>
       <c r="E394" s="2">
-        <v>0.94939905405044556</v>
+        <v>0.95115602016448975</v>
       </c>
     </row>
     <row r="395">
@@ -6787,13 +6787,13 @@
         <v>1.0825895071029663</v>
       </c>
       <c r="C395" s="2">
-        <v>1.0401697158813477</v>
+        <v>1.040127158164978</v>
       </c>
       <c r="D395" s="2">
         <v>1.0513321161270142</v>
       </c>
       <c r="E395" s="2">
-        <v>0.99644744396209717</v>
+        <v>0.99816137552261353</v>
       </c>
     </row>
     <row r="396">
@@ -6804,13 +6804,13 @@
         <v>0.6995278000831604</v>
       </c>
       <c r="C396" s="2">
-        <v>0.66626691818237305</v>
+        <v>0.66835117340087891</v>
       </c>
       <c r="D396" s="2">
         <v>0.9437640905380249</v>
       </c>
       <c r="E396" s="2">
-        <v>0.95293998718261719</v>
+        <v>0.9544302225112915</v>
       </c>
     </row>
     <row r="397">
@@ -6821,13 +6821,13 @@
         <v>1.2918829917907715</v>
       </c>
       <c r="C397" s="2">
-        <v>1.2294021844863892</v>
+        <v>1.2292269468307495</v>
       </c>
       <c r="D397" s="2">
         <v>0.97408795356750488</v>
       </c>
       <c r="E397" s="2">
-        <v>1.0080645084381104</v>
+        <v>1.0095045566558838</v>
       </c>
     </row>
     <row r="398">
@@ -6838,13 +6838,13 @@
         <v>0.82509505748748779</v>
       </c>
       <c r="C398" s="2">
-        <v>0.54045182466506958</v>
+        <v>0.54574882984161377</v>
       </c>
       <c r="D398" s="2">
         <v>1.0112763643264771</v>
       </c>
       <c r="E398" s="2">
-        <v>1.0265759229660034</v>
+        <v>1.0283035039901733</v>
       </c>
     </row>
     <row r="399">
@@ -6855,13 +6855,13 @@
         <v>1.369464635848999</v>
       </c>
       <c r="C399" s="2">
-        <v>1.3788423538208008</v>
+        <v>1.3808398246765137</v>
       </c>
       <c r="D399" s="2">
         <v>0.93453329801559448</v>
       </c>
       <c r="E399" s="2">
-        <v>0.95554840564727783</v>
+        <v>0.95753425359725952</v>
       </c>
     </row>
     <row r="400">
@@ -6872,13 +6872,13 @@
         <v>0.11459251493215561</v>
       </c>
       <c r="C400" s="2">
-        <v>0.48374941945075989</v>
+        <v>0.48323714733123779</v>
       </c>
       <c r="D400" s="2">
         <v>0.90035146474838257</v>
       </c>
       <c r="E400" s="2">
-        <v>0.91123950481414795</v>
+        <v>0.91343134641647339</v>
       </c>
     </row>
     <row r="401">
@@ -6889,13 +6889,13 @@
         <v>0.98534834384918213</v>
       </c>
       <c r="C401" s="2">
-        <v>1.1692929267883301</v>
+        <v>1.1692371368408203</v>
       </c>
       <c r="D401" s="2">
         <v>0.87912499904632568</v>
       </c>
       <c r="E401" s="2">
-        <v>0.91086679697036743</v>
+        <v>0.91290587186813354</v>
       </c>
     </row>
     <row r="402">
@@ -6906,13 +6906,13 @@
         <v>1.101917028427124</v>
       </c>
       <c r="C402" s="2">
-        <v>1.0600051879882813</v>
+        <v>1.0639091730117798</v>
       </c>
       <c r="D402" s="2">
         <v>0.8555983304977417</v>
       </c>
       <c r="E402" s="2">
-        <v>0.89231157302856445</v>
+        <v>0.89457273483276367</v>
       </c>
     </row>
     <row r="403">
@@ -6923,13 +6923,13 @@
         <v>0.94038182497024536</v>
       </c>
       <c r="C403" s="2">
-        <v>1.0317549705505371</v>
+        <v>1.0371309518814087</v>
       </c>
       <c r="D403" s="2">
         <v>0.84802043437957764</v>
       </c>
       <c r="E403" s="2">
-        <v>0.90226423740386963</v>
+        <v>0.90433573722839355</v>
       </c>
     </row>
     <row r="404">
@@ -6940,13 +6940,13 @@
         <v>0.77495282888412476</v>
       </c>
       <c r="C404" s="2">
-        <v>0.64139002561569214</v>
+        <v>0.64320105314254761</v>
       </c>
       <c r="D404" s="2">
         <v>0.79919761419296265</v>
       </c>
       <c r="E404" s="2">
-        <v>0.85265535116195679</v>
+        <v>0.85467433929443359</v>
       </c>
     </row>
     <row r="405">
@@ -6957,13 +6957,13 @@
         <v>0.50848954916000366</v>
       </c>
       <c r="C405" s="2">
-        <v>0.66291207075119019</v>
+        <v>0.66362202167510986</v>
       </c>
       <c r="D405" s="2">
         <v>0.85822886228561401</v>
       </c>
       <c r="E405" s="2">
-        <v>0.91534239053726196</v>
+        <v>0.91763806343078613</v>
       </c>
     </row>
     <row r="406">
@@ -6974,13 +6974,13 @@
         <v>1.0801432132720947</v>
       </c>
       <c r="C406" s="2">
-        <v>1.0624055862426758</v>
+        <v>1.0642282962799072</v>
       </c>
       <c r="D406" s="2">
         <v>0.89354676008224487</v>
       </c>
       <c r="E406" s="2">
-        <v>0.90858161449432373</v>
+        <v>0.91122972965240479</v>
       </c>
     </row>
     <row r="407">
@@ -6991,13 +6991,13 @@
         <v>0.75689375400543213</v>
       </c>
       <c r="C407" s="2">
-        <v>0.63002544641494751</v>
+        <v>0.63361608982086182</v>
       </c>
       <c r="D407" s="2">
         <v>0.88906985521316528</v>
       </c>
       <c r="E407" s="2">
-        <v>0.87579935789108276</v>
+        <v>0.87805813550949097</v>
       </c>
     </row>
     <row r="408">
@@ -7008,13 +7008,13 @@
         <v>0.93005943298339844</v>
       </c>
       <c r="C408" s="2">
-        <v>0.93236231803894043</v>
+        <v>0.93388724327087402</v>
       </c>
       <c r="D408" s="2">
         <v>0.85903811454772949</v>
       </c>
       <c r="E408" s="2">
-        <v>0.81626051664352417</v>
+        <v>0.8183632493019104</v>
       </c>
     </row>
     <row r="409">
@@ -7025,13 +7025,13 @@
         <v>0.6458735466003418</v>
       </c>
       <c r="C409" s="2">
-        <v>1.0479328632354736</v>
+        <v>1.0499106645584106</v>
       </c>
       <c r="D409" s="2">
         <v>0.90191388130187988</v>
       </c>
       <c r="E409" s="2">
-        <v>0.86224144697189331</v>
+        <v>0.8644411563873291</v>
       </c>
     </row>
     <row r="410">
@@ -7042,13 +7042,13 @@
         <v>1.3032097816467285</v>
       </c>
       <c r="C410" s="2">
-        <v>1.1084460020065308</v>
+        <v>1.1115621328353882</v>
       </c>
       <c r="D410" s="2">
         <v>0.92176163196563721</v>
       </c>
       <c r="E410" s="2">
-        <v>0.88687825202941895</v>
+        <v>0.88946437835693359</v>
       </c>
     </row>
     <row r="411">
@@ -7059,13 +7059,13 @@
         <v>1.0616248846054077</v>
       </c>
       <c r="C411" s="2">
-        <v>0.76496481895446777</v>
+        <v>0.76536458730697632</v>
       </c>
       <c r="D411" s="2">
         <v>0.90702003240585327</v>
       </c>
       <c r="E411" s="2">
-        <v>0.84974676370620728</v>
+        <v>0.85218709707260132</v>
       </c>
     </row>
     <row r="412">
@@ -7076,13 +7076,13 @@
         <v>0.67009603977203369</v>
       </c>
       <c r="C412" s="2">
-        <v>0.49590566754341126</v>
+        <v>0.49987691640853882</v>
       </c>
       <c r="D412" s="2">
         <v>0.92580026388168335</v>
       </c>
       <c r="E412" s="2">
-        <v>0.874545156955719</v>
+        <v>0.87689828872680664</v>
       </c>
     </row>
     <row r="413">
@@ -7093,13 +7093,13 @@
         <v>1.1608346700668335</v>
       </c>
       <c r="C413" s="2">
-        <v>1.0552183389663696</v>
+        <v>1.0579025745391846</v>
       </c>
       <c r="D413" s="2">
         <v>0.8668673038482666</v>
       </c>
       <c r="E413" s="2">
-        <v>0.81238579750061035</v>
+        <v>0.81457638740539551</v>
       </c>
     </row>
     <row r="414">
@@ -7110,13 +7110,13 @@
         <v>0.68711954355239868</v>
       </c>
       <c r="C414" s="2">
-        <v>0.88464337587356567</v>
+        <v>0.88883095979690552</v>
       </c>
       <c r="D414" s="2">
         <v>0.86721569299697876</v>
       </c>
       <c r="E414" s="2">
-        <v>0.75868082046508789</v>
+        <v>0.76103788614273071</v>
       </c>
     </row>
     <row r="415">
@@ -7127,13 +7127,13 @@
         <v>0.94746881723403931</v>
       </c>
       <c r="C415" s="2">
-        <v>0.7282218337059021</v>
+        <v>0.72873270511627197</v>
       </c>
       <c r="D415" s="2">
         <v>0.84596908092498779</v>
       </c>
       <c r="E415" s="2">
-        <v>0.75139683485031128</v>
+        <v>0.75363993644714355</v>
       </c>
     </row>
     <row r="416">
@@ -7144,13 +7144,13 @@
         <v>0.92591571807861328</v>
       </c>
       <c r="C416" s="2">
-        <v>0.85321104526519775</v>
+        <v>0.85601687431335449</v>
       </c>
       <c r="D416" s="2">
         <v>0.79986089468002319</v>
       </c>
       <c r="E416" s="2">
-        <v>0.73039853572845459</v>
+        <v>0.73284417390823364</v>
       </c>
     </row>
     <row r="417">
@@ -7161,13 +7161,13 @@
         <v>0.39966249465942383</v>
       </c>
       <c r="C417" s="2">
-        <v>0.37292799353599548</v>
+        <v>0.37299010157585144</v>
       </c>
       <c r="D417" s="2">
         <v>0.77956610918045044</v>
       </c>
       <c r="E417" s="2">
-        <v>0.70127511024475098</v>
+        <v>0.70369821786880493</v>
       </c>
     </row>
     <row r="418">
@@ -7178,13 +7178,13 @@
         <v>0.6490093469619751</v>
       </c>
       <c r="C418" s="2">
-        <v>0.56458836793899536</v>
+        <v>0.56806415319442749</v>
       </c>
       <c r="D418" s="2">
         <v>0.81577473878860474</v>
       </c>
       <c r="E418" s="2">
-        <v>0.72367316484451294</v>
+        <v>0.72621190547943115</v>
       </c>
     </row>
     <row r="419">
@@ -7195,13 +7195,13 @@
         <v>1.1119903326034546</v>
       </c>
       <c r="C419" s="2">
-        <v>1.042890191078186</v>
+        <v>1.044980525970459</v>
       </c>
       <c r="D419" s="2">
         <v>0.90697675943374634</v>
       </c>
       <c r="E419" s="2">
-        <v>0.78430360555648804</v>
+        <v>0.7868531346321106</v>
       </c>
     </row>
     <row r="420">
@@ -7212,13 +7212,13 @@
         <v>0.64665102958679199</v>
       </c>
       <c r="C420" s="2">
-        <v>0.57598000764846802</v>
+        <v>0.57820278406143188</v>
       </c>
       <c r="D420" s="2">
         <v>0.97265088558197021</v>
       </c>
       <c r="E420" s="2">
-        <v>0.86488807201385498</v>
+        <v>0.86767035722732544</v>
       </c>
     </row>
     <row r="421">
@@ -7229,13 +7229,13 @@
         <v>0.48744285106658936</v>
       </c>
       <c r="C421" s="2">
-        <v>0.23379510641098022</v>
+        <v>0.23756353557109833</v>
       </c>
       <c r="D421" s="2">
         <v>1.0503259897232056</v>
       </c>
       <c r="E421" s="2">
-        <v>0.94937688112258911</v>
+        <v>0.95247447490692139</v>
       </c>
     </row>
     <row r="422">
@@ -7246,13 +7246,13 @@
         <v>1.4867126941680908</v>
       </c>
       <c r="C422" s="2">
-        <v>1.2568007707595825</v>
+        <v>1.2605254650115967</v>
       </c>
       <c r="D422" s="2">
         <v>1.1094783544540405</v>
       </c>
       <c r="E422" s="2">
-        <v>1.0049904584884644</v>
+        <v>1.0083085298538208</v>
       </c>
     </row>
     <row r="423">
@@ -7263,13 +7263,13 @@
         <v>1.5079374313354492</v>
       </c>
       <c r="C423" s="2">
-        <v>1.4303171634674072</v>
+        <v>1.4346021413803101</v>
       </c>
       <c r="D423" s="2">
         <v>1.2141076326370239</v>
       </c>
       <c r="E423" s="2">
-        <v>1.0980749130249024</v>
+        <v>1.1016534566879272</v>
       </c>
     </row>
     <row r="424">
@@ -7280,13 +7280,13 @@
         <v>1.5385360717773438</v>
       </c>
       <c r="C424" s="2">
-        <v>1.4534822702407837</v>
+        <v>1.4560878276824951</v>
       </c>
       <c r="D424" s="2">
         <v>1.2800841331481934</v>
       </c>
       <c r="E424" s="2">
-        <v>1.155306339263916</v>
+        <v>1.1591516733169556</v>
       </c>
     </row>
     <row r="425">
@@ -7297,13 +7297,13 @@
         <v>1.6249912977218628</v>
       </c>
       <c r="C425" s="2">
-        <v>1.6136099100112915</v>
+        <v>1.6192537546157837</v>
       </c>
       <c r="D425" s="2">
         <v>1.4140897989273071</v>
       </c>
       <c r="E425" s="2">
-        <v>1.2907233238220215</v>
+        <v>1.2945741415023804</v>
       </c>
     </row>
     <row r="426">
@@ -7314,13 +7314,13 @@
         <v>0.93203449249267578</v>
       </c>
       <c r="C426" s="2">
-        <v>0.87345021963119507</v>
+        <v>0.8754962682723999</v>
       </c>
       <c r="D426" s="2">
         <v>1.5190967321395874</v>
       </c>
       <c r="E426" s="2">
-        <v>1.4116917848587036</v>
+        <v>1.4158254861831665</v>
       </c>
     </row>
     <row r="427">
@@ -7331,13 +7331,13 @@
         <v>1.5906722545623779</v>
       </c>
       <c r="C427" s="2">
-        <v>1.4023491144180298</v>
+        <v>1.4081683158874512</v>
       </c>
       <c r="D427" s="2">
         <v>1.4140794277191162</v>
       </c>
       <c r="E427" s="2">
-        <v>1.2931139469146729</v>
+        <v>1.2973668575286865</v>
       </c>
     </row>
     <row r="428">
@@ -7348,13 +7348,13 @@
         <v>1.7057793140411377</v>
       </c>
       <c r="C428" s="2">
-        <v>1.5579720735549927</v>
+        <v>1.5624654293060303</v>
       </c>
       <c r="D428" s="2">
         <v>1.3148138523101807</v>
       </c>
       <c r="E428" s="2">
-        <v>1.1790072917938232</v>
+        <v>1.1831800937652588</v>
       </c>
     </row>
     <row r="429">
@@ -7365,13 +7365,13 @@
         <v>1.852702260017395</v>
       </c>
       <c r="C429" s="2">
-        <v>1.7947337627410889</v>
+        <v>1.7970041036605835</v>
       </c>
       <c r="D429" s="2">
         <v>1.3418480157852173</v>
       </c>
       <c r="E429" s="2">
-        <v>1.196924090385437</v>
+        <v>1.2012404203414917</v>
       </c>
     </row>
     <row r="430">
@@ -7382,13 +7382,13 @@
         <v>1.4325052499771118</v>
       </c>
       <c r="C430" s="2">
-        <v>1.3225110769271851</v>
+        <v>1.3288263082504272</v>
       </c>
       <c r="D430" s="2">
         <v>1.3412728309631348</v>
       </c>
       <c r="E430" s="2">
-        <v>1.183430552482605</v>
+        <v>1.1880906820297241</v>
       </c>
     </row>
     <row r="431">
@@ -7399,13 +7399,13 @@
         <v>0.54155635833740234</v>
       </c>
       <c r="C431" s="2">
-        <v>0.18960009515285492</v>
+        <v>0.19439806044101715</v>
       </c>
       <c r="D431" s="2">
-        <v>1.3974676132202149</v>
+        <v>1.3974676132202148</v>
       </c>
       <c r="E431" s="2">
-        <v>1.256462574005127</v>
+        <v>1.2611600160598755</v>
       </c>
     </row>
     <row r="432">
@@ -7416,13 +7416,13 @@
         <v>0.61454790830612183</v>
       </c>
       <c r="C432" s="2">
-        <v>0.40335670113563538</v>
+        <v>0.40692096948623657</v>
       </c>
       <c r="D432" s="2">
         <v>1.376063346862793</v>
       </c>
       <c r="E432" s="2">
-        <v>1.2450035810470581</v>
+        <v>1.2495845556259155</v>
       </c>
     </row>
     <row r="433">
@@ -7433,13 +7433,13 @@
         <v>1.7818427085876465</v>
       </c>
       <c r="C433" s="2">
-        <v>1.6147339344024658</v>
+        <v>1.618630051612854</v>
       </c>
       <c r="D433" s="2">
         <v>1.3577823638916016</v>
       </c>
       <c r="E433" s="2">
-        <v>1.2408829927444458</v>
+        <v>1.2453776597976685</v>
       </c>
     </row>
     <row r="434">
@@ -7450,13 +7450,13 @@
         <v>1.6198147535324097</v>
       </c>
       <c r="C434" s="2">
-        <v>1.4921677112579346</v>
+        <v>1.5009061098098755</v>
       </c>
       <c r="D434" s="2">
         <v>1.3073022365570068</v>
       </c>
       <c r="E434" s="2">
-        <v>1.1885385513305664</v>
+        <v>1.1931109428405762</v>
       </c>
     </row>
     <row r="435">
@@ -7467,13 +7467,13 @@
         <v>1.4377872943878174</v>
       </c>
       <c r="C435" s="2">
-        <v>1.5307384729385376</v>
+        <v>1.5331206321716309</v>
       </c>
       <c r="D435" s="2">
         <v>1.2218259572982788</v>
       </c>
       <c r="E435" s="2">
-        <v>1.0791810750961304</v>
+        <v>1.0834394693374634</v>
       </c>
     </row>
     <row r="436">
@@ -7484,13 +7484,13 @@
         <v>1.3980338573455811</v>
       </c>
       <c r="C436" s="2">
-        <v>1.2992186546325684</v>
+        <v>1.3039897680282593</v>
       </c>
       <c r="D436" s="2">
         <v>1.3016650676727295</v>
       </c>
       <c r="E436" s="2">
-        <v>1.1914983987808228</v>
+        <v>1.1956849098205566</v>
       </c>
     </row>
     <row r="437">
@@ -7501,13 +7501,13 @@
         <v>1.5412513017654419</v>
       </c>
       <c r="C437" s="2">
-        <v>1.5208861827850342</v>
+        <v>1.5246031284332275</v>
       </c>
       <c r="D437" s="2">
         <v>1.3165289163589478</v>
       </c>
       <c r="E437" s="2">
-        <v>1.2208439111709595</v>
+        <v>1.2252480983734131</v>
       </c>
     </row>
     <row r="438">
@@ -7518,13 +7518,13 @@
         <v>1.3983807563781738</v>
       </c>
       <c r="C438" s="2">
-        <v>1.323634147644043</v>
+        <v>1.3266030550003052</v>
       </c>
       <c r="D438" s="2">
         <v>1.2534675598144531</v>
       </c>
       <c r="E438" s="2">
-        <v>1.1308925151824951</v>
+        <v>1.1358538866043091</v>
       </c>
     </row>
     <row r="439">
@@ -7535,13 +7535,13 @@
         <v>0.66321885585784912</v>
       </c>
       <c r="C439" s="2">
-        <v>0.33829411864280701</v>
+        <v>0.34178340435028076</v>
       </c>
       <c r="D439" s="2">
         <v>1.1250491142272949</v>
       </c>
       <c r="E439" s="2">
-        <v>0.99384033679962158</v>
+        <v>0.99832624197006226</v>
       </c>
     </row>
     <row r="440">
@@ -7552,13 +7552,13 @@
         <v>1.2601083517074585</v>
       </c>
       <c r="C440" s="2">
-        <v>1.2004555463790894</v>
+        <v>1.2046072483062744</v>
       </c>
       <c r="D440" s="2">
         <v>1.0078127384185791</v>
       </c>
       <c r="E440" s="2">
-        <v>0.80033218860626221</v>
+        <v>0.80496847629547119</v>
       </c>
     </row>
     <row r="441">
@@ -7569,13 +7569,13 @@
         <v>0.74832195043563843</v>
       </c>
       <c r="C441" s="2">
-        <v>0.66746675968170166</v>
+        <v>0.67298984527587891</v>
       </c>
       <c r="D441" s="2">
         <v>0.87404412031173706</v>
       </c>
       <c r="E441" s="2">
-        <v>0.63189470767974854</v>
+        <v>0.6369330883026123</v>
       </c>
     </row>
     <row r="442">
@@ -7586,13 +7586,13 @@
         <v>1.2142910957336426</v>
       </c>
       <c r="C442" s="2">
-        <v>0.80517148971557617</v>
+        <v>0.81408160924911499</v>
       </c>
       <c r="D442" s="2">
         <v>0.75587773323059082</v>
       </c>
       <c r="E442" s="2">
-        <v>0.49815309047698975</v>
+        <v>0.50323003530502319</v>
       </c>
     </row>
     <row r="443">
@@ -7603,13 +7603,13 @@
         <v>0.46404901146888733</v>
       </c>
       <c r="C443" s="2">
-        <v>0.25869759917259216</v>
+        <v>0.26315727829933167</v>
       </c>
       <c r="D443" s="2">
         <v>0.62694966793060303</v>
       </c>
       <c r="E443" s="2">
-        <v>0.34698325395584107</v>
+        <v>0.35252797603607178</v>
       </c>
     </row>
     <row r="444">
@@ -7620,13 +7620,13 @@
         <v>0.38265931606292725</v>
       </c>
       <c r="C444" s="2">
-        <v>-0.21083490550518036</v>
+        <v>-0.20709925889968872</v>
       </c>
       <c r="D444" s="2">
         <v>0.64612221717834473</v>
       </c>
       <c r="E444" s="2">
-        <v>0.37518393993377686</v>
+        <v>0.38073119521141052</v>
       </c>
     </row>
     <row r="445">
@@ -7637,13 +7637,13 @@
         <v>0.19411665201187134</v>
       </c>
       <c r="C445" s="2">
-        <v>-0.21671850979328156</v>
+        <v>-0.20832827687263489</v>
       </c>
       <c r="D445" s="2">
         <v>0.68885123729705811</v>
       </c>
       <c r="E445" s="2">
-        <v>0.40996578335762024</v>
+        <v>0.41567021608352661</v>
       </c>
     </row>
     <row r="446">
@@ -7654,13 +7654,13 @@
         <v>0.47775378823280334</v>
       </c>
       <c r="C446" s="2">
-        <v>0.31721168756484985</v>
+        <v>0.32127559185028076</v>
       </c>
       <c r="D446" s="2">
         <v>0.76461941003799438</v>
       </c>
       <c r="E446" s="2">
-        <v>0.48997551202774048</v>
+        <v>0.49549710750579834</v>
       </c>
     </row>
     <row r="447">
@@ -7671,13 +7671,13 @@
         <v>0.23802781105041504</v>
       </c>
       <c r="C447" s="2">
-        <v>-0.036894522607326508</v>
+        <v>-0.02971561998128891</v>
       </c>
       <c r="D447" s="2">
         <v>0.80404645204544067</v>
       </c>
       <c r="E447" s="2">
-        <v>0.56525927782058716</v>
+        <v>0.5704047679901123</v>
       </c>
     </row>
     <row r="448">
@@ -7688,13 +7688,13 @@
         <v>0.83577215671539307</v>
       </c>
       <c r="C448" s="2">
-        <v>0.59210038185119629</v>
+        <v>0.59561246633529663</v>
       </c>
       <c r="D448" s="2">
         <v>0.89525926113128662</v>
       </c>
       <c r="E448" s="2">
-        <v>0.65180939435958862</v>
+        <v>0.65652799606323242</v>
       </c>
     </row>
     <row r="449">
@@ -7705,13 +7705,13 @@
         <v>1.6446695327758789</v>
       </c>
       <c r="C449" s="2">
-        <v>1.5134919881820679</v>
+        <v>1.5190582275390625</v>
       </c>
       <c r="D449" s="2">
         <v>1.0777924060821533</v>
       </c>
       <c r="E449" s="2">
-        <v>0.887562096118927</v>
+        <v>0.89243471622467041</v>
       </c>
     </row>
     <row r="450">
@@ -7722,13 +7722,13 @@
         <v>1.4302351474761963</v>
       </c>
       <c r="C450" s="2">
-        <v>1.3875545263290405</v>
+        <v>1.3914320468902588</v>
       </c>
       <c r="D450" s="2">
         <v>1.1732653379440308</v>
       </c>
       <c r="E450" s="2">
-        <v>1.0152014493942261</v>
+        <v>1.0195482969284058</v>
       </c>
     </row>
     <row r="451">
@@ -7739,13 +7739,13 @@
         <v>1.5691344738006592</v>
       </c>
       <c r="C451" s="2">
-        <v>1.4827255010604858</v>
+        <v>1.4882506132125854</v>
       </c>
       <c r="D451" s="2">
         <v>1.1963180303573608</v>
       </c>
       <c r="E451" s="2">
-        <v>1.0449906587600708</v>
+        <v>1.049182653427124</v>
       </c>
     </row>
     <row r="452">
@@ -7756,13 +7756,13 @@
         <v>1.2849646806716919</v>
       </c>
       <c r="C452" s="2">
-        <v>1.0376483201980591</v>
+        <v>1.0382660627365112</v>
       </c>
       <c r="D452" s="2">
         <v>1.3056085109710693</v>
       </c>
       <c r="E452" s="2">
-        <v>1.1653563976287842</v>
+        <v>1.1690988540649414</v>
       </c>
     </row>
     <row r="453">
@@ -7773,13 +7773,13 @@
         <v>2.0254571437835693</v>
       </c>
       <c r="C453" s="2">
-        <v>1.9109393358230591</v>
+        <v>1.9160611629486084</v>
       </c>
       <c r="D453" s="2">
         <v>1.2520724534988403</v>
       </c>
       <c r="E453" s="2">
-        <v>1.1172900199890137</v>
+        <v>1.1207756996154785</v>
       </c>
     </row>
     <row r="454">
@@ -7790,13 +7790,13 @@
         <v>1.0533736944198608</v>
       </c>
       <c r="C454" s="2">
-        <v>0.93203562498092651</v>
+        <v>0.93569403886795044</v>
       </c>
       <c r="D454" s="2">
         <v>1.1558821201324463</v>
       </c>
       <c r="E454" s="2">
-        <v>1.0333349704742432</v>
+        <v>1.0366114377975464</v>
       </c>
     </row>
     <row r="455">
@@ -7807,13 +7807,13 @@
         <v>0.68522787094116211</v>
       </c>
       <c r="C455" s="2">
-        <v>0.58531463146209717</v>
+        <v>0.58798474073410034</v>
       </c>
       <c r="D455" s="2">
         <v>1.0856019258499146</v>
       </c>
       <c r="E455" s="2">
-        <v>0.9415401816368103</v>
+        <v>0.94483804702758789</v>
       </c>
     </row>
     <row r="456">
@@ -7824,13 +7824,13 @@
         <v>1.221642017364502</v>
       </c>
       <c r="C456" s="2">
-        <v>1.0463970899581909</v>
+        <v>1.0495297908782959</v>
       </c>
       <c r="D456" s="2">
         <v>1.0407259464263916</v>
       </c>
       <c r="E456" s="2">
-        <v>0.88793402910232544</v>
+        <v>0.89143878221511841</v>
       </c>
     </row>
     <row r="457">
@@ -7841,13 +7841,13 @@
         <v>0.35394710302352905</v>
       </c>
       <c r="C457" s="2">
-        <v>0.1595030426979065</v>
+        <v>0.16070498526096344</v>
       </c>
       <c r="D457" s="2">
         <v>1.0347837209701538</v>
       </c>
       <c r="E457" s="2">
-        <v>0.88391005992889404</v>
+        <v>0.88790518045425415</v>
       </c>
     </row>
     <row r="458">
@@ -7858,13 +7858,13 @@
         <v>0.77895659208297729</v>
       </c>
       <c r="C458" s="2">
-        <v>0.75789707899093628</v>
+        <v>0.76157963275909424</v>
       </c>
       <c r="D458" s="2">
         <v>1.0140653848648071</v>
       </c>
       <c r="E458" s="2">
-        <v>0.86934483051300049</v>
+        <v>0.87310987710952759</v>
       </c>
     </row>
     <row r="459">
@@ -7875,13 +7875,13 @@
         <v>0.79771333932876587</v>
       </c>
       <c r="C459" s="2">
-        <v>0.56140118837356567</v>
+        <v>0.5654715895652771</v>
       </c>
       <c r="D459" s="2">
         <v>1.0479123592376709</v>
       </c>
       <c r="E459" s="2">
-        <v>0.89566117525100708</v>
+        <v>0.90000462532043457</v>
       </c>
     </row>
     <row r="460">
@@ -7892,13 +7892,13 @@
         <v>1.1652513742446899</v>
       </c>
       <c r="C460" s="2">
-        <v>1.0002697706222534</v>
+        <v>1.0076568126678467</v>
       </c>
       <c r="D460" s="2">
         <v>1.0122791528701782</v>
       </c>
       <c r="E460" s="2">
-        <v>0.8697548508644104</v>
+        <v>0.87395530939102173</v>
       </c>
     </row>
     <row r="461">
@@ -7909,13 +7909,13 @@
         <v>1.231484055519104</v>
       </c>
       <c r="C461" s="2">
-        <v>1.0014327764511108</v>
+        <v>1.0064636468887329</v>
       </c>
       <c r="D461" s="2">
         <v>1.0125010013580322</v>
       </c>
       <c r="E461" s="2">
-        <v>0.86183041334152222</v>
+        <v>0.86631906032562256</v>
       </c>
     </row>
     <row r="462">
@@ -7926,13 +7926,13 @@
         <v>1.838992714881897</v>
       </c>
       <c r="C462" s="2">
-        <v>1.7798521518707275</v>
+        <v>1.7829035520553589</v>
       </c>
       <c r="D462" s="2">
         <v>1.0631570816040039</v>
       </c>
       <c r="E462" s="2">
-        <v>0.9488946795463562</v>
+        <v>0.95357632637023926</v>
       </c>
     </row>
     <row r="463">
@@ -7943,13 +7943,13 @@
         <v>1.3579961061477661</v>
       </c>
       <c r="C463" s="2">
-        <v>1.1688827276229858</v>
+        <v>1.1777470111846924</v>
       </c>
       <c r="D463" s="2">
-        <v>1.1241216659545899</v>
+        <v>1.1241216659545898</v>
       </c>
       <c r="E463" s="2">
-        <v>1.0007166862487793</v>
+        <v>1.0056318044662476</v>
       </c>
     </row>
     <row r="464">
@@ -7960,13 +7960,13 @@
         <v>0.36452889442443848</v>
       </c>
       <c r="C464" s="2">
-        <v>0.35215801000595093</v>
+        <v>0.35354062914848328</v>
       </c>
       <c r="D464" s="2">
-        <v>1.168189287185669</v>
+        <v>1.1681892871856689</v>
       </c>
       <c r="E464" s="2">
-        <v>1.0614016056060791</v>
+        <v>1.0663090944290161</v>
       </c>
     </row>
     <row r="465">
@@ -7977,13 +7977,13 @@
         <v>1.2236387729644775</v>
       </c>
       <c r="C465" s="2">
-        <v>0.97507715225219727</v>
+        <v>0.98080366849899292</v>
       </c>
       <c r="D465" s="2">
-        <v>1.1613845825195313</v>
+        <v>1.1613845825195312</v>
       </c>
       <c r="E465" s="2">
-        <v>1.0457818508148193</v>
+        <v>1.0502563714981079</v>
       </c>
     </row>
     <row r="466">
@@ -7994,13 +7994,13 @@
         <v>0.8098522424697876</v>
       </c>
       <c r="C466" s="2">
-        <v>0.94308102130889893</v>
+        <v>0.94602054357528687</v>
       </c>
       <c r="D466" s="2">
-        <v>1.1409300565719605</v>
+        <v>1.1409300565719604</v>
       </c>
       <c r="E466" s="2">
-        <v>1.0247969627380371</v>
+        <v>1.0293195247650146</v>
       </c>
     </row>
     <row r="467">
@@ -8011,13 +8011,13 @@
         <v>1.3276380300521851</v>
       </c>
       <c r="C467" s="2">
-        <v>1.2242956161499024</v>
+        <v>1.2300786972045898</v>
       </c>
       <c r="D467" s="2">
         <v>1.0339982509613037</v>
       </c>
       <c r="E467" s="2">
-        <v>0.89774566888809204</v>
+        <v>0.90231072902679443</v>
       </c>
     </row>
     <row r="468">
@@ -8028,13 +8028,13 @@
         <v>1.1943215131759644</v>
       </c>
       <c r="C468" s="2">
-        <v>1.1075657606124878</v>
+        <v>1.1115670204162598</v>
       </c>
       <c r="D468" s="2">
         <v>1.0126972198486328</v>
       </c>
       <c r="E468" s="2">
-        <v>0.87989187240600586</v>
+        <v>0.88394671678543091</v>
       </c>
     </row>
     <row r="469">
@@ -8045,13 +8045,13 @@
         <v>1.104008674621582</v>
       </c>
       <c r="C469" s="2">
-        <v>0.85969114303588867</v>
+        <v>0.8631824254989624</v>
       </c>
       <c r="D469" s="2">
         <v>1.0297791957855225</v>
       </c>
       <c r="E469" s="2">
-        <v>0.8670615553855896</v>
+        <v>0.87137722969055176</v>
       </c>
     </row>
     <row r="470">
@@ -8062,13 +8062,13 @@
         <v>1.0473933219909668</v>
       </c>
       <c r="C470" s="2">
-        <v>0.8125690221786499</v>
+        <v>0.81803232431411743</v>
       </c>
       <c r="D470" s="2">
         <v>0.975303053855896</v>
       </c>
       <c r="E470" s="2">
-        <v>0.81598913669586182</v>
+        <v>0.82020348310470581</v>
       </c>
     </row>
     <row r="471">
@@ -8079,13 +8079,13 @@
         <v>0.87660664319992065</v>
       </c>
       <c r="C471" s="2">
-        <v>0.63639068603515625</v>
+        <v>0.6398245096206665</v>
       </c>
       <c r="D471" s="2">
         <v>0.99800574779510498</v>
       </c>
       <c r="E471" s="2">
-        <v>0.80590975284576416</v>
+        <v>0.81035232543945312</v>
       </c>
     </row>
     <row r="472">
@@ -8096,13 +8096,13 @@
         <v>1.1662865877151489</v>
       </c>
       <c r="C472" s="2">
-        <v>1.0081984996795654</v>
+        <v>1.0124708414077759</v>
       </c>
       <c r="D472" s="2">
         <v>0.98124015331268311</v>
       </c>
       <c r="E472" s="2">
-        <v>0.77238917350769043</v>
+        <v>0.77660775184631348</v>
       </c>
     </row>
     <row r="473">
@@ -8113,13 +8113,13 @@
         <v>0.51826679706573486</v>
       </c>
       <c r="C473" s="2">
-        <v>0.23668533563613892</v>
+        <v>0.24041484296321869</v>
       </c>
       <c r="D473" s="2">
         <v>0.97130143642425537</v>
       </c>
       <c r="E473" s="2">
-        <v>0.75145214796066284</v>
+        <v>0.75554960966110229</v>
       </c>
     </row>
     <row r="474">
@@ -8130,13 +8130,13 @@
         <v>0.73335343599319458</v>
       </c>
       <c r="C474" s="2">
-        <v>0.51542538404464722</v>
+        <v>0.52024024724960327</v>
       </c>
       <c r="D474" s="2">
-        <v>0.97921824455261231</v>
+        <v>0.9792182445526123</v>
       </c>
       <c r="E474" s="2">
-        <v>0.77366816997528076</v>
+        <v>0.7777361273765564</v>
       </c>
     </row>
     <row r="475">
@@ -8147,13 +8147,13 @@
         <v>1.0141769647598267</v>
       </c>
       <c r="C475" s="2">
-        <v>0.85236650705337524</v>
+        <v>0.85736006498336792</v>
       </c>
       <c r="D475" s="2">
         <v>1.0700467824935913</v>
       </c>
       <c r="E475" s="2">
-        <v>0.89389246702194214</v>
+        <v>0.89795136451721191</v>
       </c>
     </row>
     <row r="476">
@@ -8164,13 +8164,13 @@
         <v>1.1767474412918091</v>
       </c>
       <c r="C476" s="2">
-        <v>0.92261040210723877</v>
+        <v>0.92637741565704346</v>
       </c>
       <c r="D476" s="2">
         <v>1.0216326713562012</v>
       </c>
       <c r="E476" s="2">
-        <v>0.90010601282119751</v>
+        <v>0.90432178974151611</v>
       </c>
     </row>
     <row r="477">
@@ -8178,16 +8178,16 @@
         <v>42948</v>
       </c>
       <c r="B477" s="2">
-        <v>1.1048728227615357</v>
+        <v>1.1048728227615356</v>
       </c>
       <c r="C477" s="2">
-        <v>0.91913211345672607</v>
+        <v>0.92204362154006958</v>
       </c>
       <c r="D477" s="2">
         <v>1.0093672275543213</v>
       </c>
       <c r="E477" s="2">
-        <v>0.88501596450805664</v>
+        <v>0.8894994854927063</v>
       </c>
     </row>
     <row r="478">
@@ -8198,13 +8198,13 @@
         <v>1.1752603054046631</v>
       </c>
       <c r="C478" s="2">
-        <v>1.0596354007720947</v>
+        <v>1.0628613233566284</v>
       </c>
       <c r="D478" s="2">
         <v>1.0176829099655151</v>
       </c>
       <c r="E478" s="2">
-        <v>0.91002106666564941</v>
+        <v>0.91411995887756348</v>
       </c>
     </row>
     <row r="479">
@@ -8215,13 +8215,13 @@
         <v>1.8648504018783569</v>
       </c>
       <c r="C479" s="2">
-        <v>1.8945879936218262</v>
+        <v>1.8999694585800171</v>
       </c>
       <c r="D479" s="2">
         <v>1.0515755414962769</v>
       </c>
       <c r="E479" s="2">
-        <v>0.95125949382781982</v>
+        <v>0.95522063970565796</v>
       </c>
     </row>
     <row r="480">
@@ -8232,13 +8232,13 @@
         <v>0.44087919592857361</v>
       </c>
       <c r="C480" s="2">
-        <v>0.69231241941452026</v>
+        <v>0.6971580982208252</v>
       </c>
       <c r="D480" s="2">
         <v>1.0868396759033203</v>
       </c>
       <c r="E480" s="2">
-        <v>0.99301719665527344</v>
+        <v>0.99674713611602783</v>
       </c>
     </row>
     <row r="481">
@@ -8249,13 +8249,13 @@
         <v>1.05589759349823</v>
       </c>
       <c r="C481" s="2">
-        <v>0.87238788604736328</v>
+        <v>0.8790704607963562</v>
       </c>
       <c r="D481" s="2">
         <v>1.1454439163208008</v>
       </c>
       <c r="E481" s="2">
-        <v>1.0751395225524902</v>
+        <v>1.078859806060791</v>
       </c>
     </row>
     <row r="482">
@@ -8266,13 +8266,13 @@
         <v>0.59310775995254517</v>
       </c>
       <c r="C482" s="2">
-        <v>0.46173152327537537</v>
+        <v>0.46199893951416016</v>
       </c>
       <c r="D482" s="2">
         <v>1.1310354471206665</v>
       </c>
       <c r="E482" s="2">
-        <v>1.0552786588668823</v>
+        <v>1.0594894886016846</v>
       </c>
     </row>
     <row r="483">
@@ -8283,13 +8283,13 @@
         <v>1.0383869409561157</v>
       </c>
       <c r="C483" s="2">
-        <v>0.88657140731811523</v>
+        <v>0.89014625549316406</v>
       </c>
       <c r="D483" s="2">
         <v>1.1722795963287354</v>
       </c>
       <c r="E483" s="2">
-        <v>1.1034929752349854</v>
+        <v>1.1078963279724121</v>
       </c>
     </row>
     <row r="484">
@@ -8300,13 +8300,13 @@
         <v>1.3315544128417969</v>
       </c>
       <c r="C484" s="2">
-        <v>1.2281856536865234</v>
+        <v>1.2310985326766968</v>
       </c>
       <c r="D484" s="2">
         <v>1.1035730838775635</v>
       </c>
       <c r="E484" s="2">
-        <v>1.014646053314209</v>
+        <v>1.0189921855926514</v>
       </c>
     </row>
     <row r="485">
@@ -8317,13 +8317,13 @@
         <v>1.7041863203048706</v>
       </c>
       <c r="C485" s="2">
-        <v>1.6617114543914795</v>
+        <v>1.6653918027877808</v>
       </c>
       <c r="D485" s="2">
         <v>1.1735711097717285</v>
       </c>
       <c r="E485" s="2">
-        <v>1.0448902845382691</v>
+        <v>1.0494000911712646</v>
       </c>
     </row>
     <row r="486">
@@ -8334,13 +8334,13 @@
         <v>0.97519654035568237</v>
       </c>
       <c r="C486" s="2">
-        <v>0.74038368463516235</v>
+        <v>0.74771022796630859</v>
       </c>
       <c r="D486" s="2">
         <v>1.1903656721115112</v>
       </c>
       <c r="E486" s="2">
-        <v>1.0864564180374146</v>
+        <v>1.0906690359115601</v>
       </c>
     </row>
     <row r="487">
@@ -8351,13 +8351,13 @@
         <v>1.546457052230835</v>
       </c>
       <c r="C487" s="2">
-        <v>1.4935652017593384</v>
+        <v>1.4985235929489136</v>
       </c>
       <c r="D487" s="2">
         <v>1.2068754434585571</v>
       </c>
       <c r="E487" s="2">
-        <v>1.106773853302002</v>
+        <v>1.1112990379333496</v>
       </c>
     </row>
     <row r="488">
@@ -8368,13 +8368,13 @@
         <v>1.2464917898178101</v>
       </c>
       <c r="C488" s="2">
-        <v>1.094964861869812</v>
+        <v>1.0998315811157227</v>
       </c>
       <c r="D488" s="2">
         <v>1.1788644790649414</v>
       </c>
       <c r="E488" s="2">
-        <v>1.0710618495941162</v>
+        <v>1.0758699178695679</v>
       </c>
     </row>
     <row r="489">
@@ -8385,13 +8385,13 @@
         <v>1.0708612203598022</v>
       </c>
       <c r="C489" s="2">
-        <v>0.96451115608215332</v>
+        <v>0.97082889080047607</v>
       </c>
       <c r="D489" s="2">
         <v>1.1748254299163818</v>
       </c>
       <c r="E489" s="2">
-        <v>1.0410568714141846</v>
+        <v>1.0460711717605591</v>
       </c>
     </row>
     <row r="490">
@@ -8402,13 +8402,13 @@
         <v>1.2070494890213013</v>
       </c>
       <c r="C490" s="2">
-        <v>1.2464830875396729</v>
+        <v>1.2504911422729492</v>
       </c>
       <c r="D490" s="2">
         <v>1.0085428953170776</v>
       </c>
       <c r="E490" s="2">
-        <v>0.84988176822662354</v>
+        <v>0.85513949394226074</v>
       </c>
     </row>
     <row r="491">
@@ -8419,13 +8419,13 @@
         <v>0.7416948676109314</v>
       </c>
       <c r="C491" s="2">
-        <v>0.64458769559860229</v>
+        <v>0.64766889810562134</v>
       </c>
       <c r="D491" s="2">
         <v>1.0699325799942017</v>
       </c>
       <c r="E491" s="2">
-        <v>0.90961366891860962</v>
+        <v>0.91484987735748291</v>
       </c>
     </row>
     <row r="492">
@@ -8436,13 +8436,13 @@
         <v>0.78628808259963989</v>
       </c>
       <c r="C492" s="2">
-        <v>0.56516361236572266</v>
+        <v>0.57128429412841797</v>
       </c>
       <c r="D492" s="2">
         <v>1.0181125402450562</v>
       </c>
       <c r="E492" s="2">
-        <v>0.83277767896652222</v>
+        <v>0.83813166618347168</v>
       </c>
     </row>
     <row r="493">
@@ -8453,13 +8453,13 @@
         <v>1.2952035665512085</v>
       </c>
       <c r="C493" s="2">
-        <v>0.95814096927642822</v>
+        <v>0.962909996509552</v>
       </c>
       <c r="D493" s="2">
         <v>1.0395561456680298</v>
       </c>
       <c r="E493" s="2">
-        <v>0.85035520792007446</v>
+        <v>0.85614109039306641</v>
       </c>
     </row>
     <row r="494">
@@ -8470,13 +8470,13 @@
         <v>0.20764395594596863</v>
       </c>
       <c r="C494" s="2">
-        <v>-0.058864191174507141</v>
+        <v>-0.052993357181549072</v>
       </c>
       <c r="D494" s="2">
         <v>1.0876883268356323</v>
       </c>
       <c r="E494" s="2">
-        <v>0.90775734186172485</v>
+        <v>0.91316473484039307</v>
       </c>
     </row>
     <row r="495">
@@ -8487,13 +8487,13 @@
         <v>1.5277031660079956</v>
       </c>
       <c r="C495" s="2">
-        <v>1.2779707908630371</v>
+        <v>1.2851039171218872</v>
       </c>
       <c r="D495" s="2">
         <v>1.1220766305923462</v>
       </c>
       <c r="E495" s="2">
-        <v>0.93583464622497559</v>
+        <v>0.94145482778549194</v>
       </c>
     </row>
     <row r="496">
@@ -8504,13 +8504,13 @@
         <v>1.0800763368606567</v>
       </c>
       <c r="C496" s="2">
-        <v>0.80204111337661743</v>
+        <v>0.80805963277816772</v>
       </c>
       <c r="D496" s="2">
         <v>1.1469177007675171</v>
       </c>
       <c r="E496" s="2">
-        <v>0.96349215507507324</v>
+        <v>0.96887004375457764</v>
       </c>
     </row>
     <row r="497">
@@ -8521,13 +8521,13 @@
         <v>1.4394849538803101</v>
       </c>
       <c r="C497" s="2">
-        <v>1.2531626224517822</v>
+        <v>1.2619166374206543</v>
       </c>
       <c r="D497" s="2">
         <v>1.1727150678634644</v>
       </c>
       <c r="E497" s="2">
-        <v>0.99358439445495605</v>
+        <v>0.99886327981948853</v>
       </c>
     </row>
     <row r="498">
@@ -8535,16 +8535,16 @@
         <v>43586</v>
       </c>
       <c r="B498" s="2">
-        <v>1.5040500164031983</v>
+        <v>1.5040500164031982</v>
       </c>
       <c r="C498" s="2">
-        <v>1.4811303615570068</v>
+        <v>1.4840412139892578</v>
       </c>
       <c r="D498" s="2">
         <v>1.1690343618392944</v>
       </c>
       <c r="E498" s="2">
-        <v>1.0286595821380615</v>
+        <v>1.0338335037231445</v>
       </c>
     </row>
     <row r="499">
@@ -8555,13 +8555,13 @@
         <v>1.5165451765060425</v>
       </c>
       <c r="C499" s="2">
-        <v>1.4991787672042847</v>
+        <v>1.5051021575927734</v>
       </c>
       <c r="D499" s="2">
         <v>1.3005632162094116</v>
       </c>
       <c r="E499" s="2">
-        <v>1.1776844263076782</v>
+        <v>1.1825886964797974</v>
       </c>
     </row>
     <row r="500">
@@ -8572,13 +8572,13 @@
         <v>0.96526437997817993</v>
       </c>
       <c r="C500" s="2">
-        <v>0.89350545406341553</v>
+        <v>0.89440613985061646</v>
       </c>
       <c r="D500" s="2">
         <v>1.2293789386749268</v>
       </c>
       <c r="E500" s="2">
-        <v>1.1834299564361572</v>
+        <v>1.1881109476089478</v>
       </c>
     </row>
     <row r="501">
@@ -8589,13 +8589,13 @@
         <v>1.0184637308120728</v>
       </c>
       <c r="C501" s="2">
-        <v>0.83599364757537842</v>
+        <v>0.84122306108474731</v>
       </c>
       <c r="D501" s="2">
         <v>1.2130026817321777</v>
       </c>
       <c r="E501" s="2">
-        <v>1.1868890523910523</v>
+        <v>1.1915608644485474</v>
       </c>
     </row>
     <row r="502">
@@ -8606,13 +8606,13 @@
         <v>1.2620773315429688</v>
       </c>
       <c r="C502" s="2">
-        <v>1.2738176584243774</v>
+        <v>1.2776426076889038</v>
       </c>
       <c r="D502" s="2">
         <v>1.1806960105895996</v>
       </c>
       <c r="E502" s="2">
-        <v>1.1837047338485718</v>
+        <v>1.187751293182373</v>
       </c>
     </row>
     <row r="503">
@@ -8623,13 +8623,13 @@
         <v>1.3914036750793457</v>
       </c>
       <c r="C503" s="2">
-        <v>1.28235924243927</v>
+        <v>1.285802960395813</v>
       </c>
       <c r="D503" s="2">
         <v>1.1312421560287476</v>
       </c>
       <c r="E503" s="2">
-        <v>1.1187136173248291</v>
+        <v>1.1231555938720703</v>
       </c>
     </row>
     <row r="504">
@@ -8640,13 +8640,13 @@
         <v>0.88704478740692139</v>
       </c>
       <c r="C504" s="2">
-        <v>1.3296805620193482</v>
+        <v>1.3348044157028198</v>
       </c>
       <c r="D504" s="2">
         <v>1.0319074392318726</v>
       </c>
       <c r="E504" s="2">
-        <v>1.0047669410705566</v>
+        <v>1.0088785886764526</v>
       </c>
     </row>
     <row r="505">
@@ -8657,13 +8657,13 @@
         <v>0.93268966674804688</v>
       </c>
       <c r="C505" s="2">
-        <v>0.83317333459854126</v>
+        <v>0.83910852670669556</v>
       </c>
       <c r="D505" s="2">
         <v>0.88965290784835815</v>
       </c>
       <c r="E505" s="2">
-        <v>0.8730812668800354</v>
+        <v>0.87706416845321655</v>
       </c>
     </row>
     <row r="506">
@@ -8674,13 +8674,13 @@
         <v>1.1487250328063965</v>
       </c>
       <c r="C506" s="2">
-        <v>1.2245033979415894</v>
+        <v>1.2276300191879272</v>
       </c>
       <c r="D506" s="2">
         <v>0.73308110237121582</v>
       </c>
       <c r="E506" s="2">
-        <v>0.74034106731414795</v>
+        <v>0.74394392967224121</v>
       </c>
     </row>
     <row r="507">
@@ -8691,13 +8691,13 @@
         <v>1.0589654445648193</v>
       </c>
       <c r="C507" s="2">
-        <v>0.8962099552154541</v>
+        <v>0.90268051624298096</v>
       </c>
       <c r="D507" s="2">
         <v>0.55847901105880737</v>
       </c>
       <c r="E507" s="2">
-        <v>0.58386069536209106</v>
+        <v>0.5868944525718689</v>
       </c>
     </row>
     <row r="508">
@@ -8708,13 +8708,13 @@
         <v>0.62253290414810181</v>
       </c>
       <c r="C508" s="2">
-        <v>0.47365903854370117</v>
+        <v>0.47660866379737854</v>
       </c>
       <c r="D508" s="2">
         <v>0.42031973600387573</v>
       </c>
       <c r="E508" s="2">
-        <v>0.46192041039466858</v>
+        <v>0.46475246548652649</v>
       </c>
     </row>
     <row r="509">
@@ -8725,13 +8725,13 @@
         <v>-0.31502664089202881</v>
       </c>
       <c r="C509" s="2">
-        <v>-0.2916654646396637</v>
+        <v>-0.29192334413528442</v>
       </c>
       <c r="D509" s="2">
         <v>0.29104846715927124</v>
       </c>
       <c r="E509" s="2">
-        <v>0.28418815135955811</v>
+        <v>0.28636765480041504</v>
       </c>
     </row>
     <row r="510">
@@ -8742,13 +8742,13 @@
         <v>-0.39068228006362915</v>
       </c>
       <c r="C510" s="2">
-        <v>-0.35866788029670715</v>
+        <v>-0.3568589985370636</v>
       </c>
       <c r="D510" s="2">
         <v>0.23398058116436005</v>
       </c>
       <c r="E510" s="2">
-        <v>0.21885660290718079</v>
+        <v>0.22047464549541473</v>
       </c>
     </row>
     <row r="511">
@@ -8759,13 +8759,13 @@
         <v>-0.30934146046638489</v>
       </c>
       <c r="C511" s="2">
-        <v>-0.1345057487487793</v>
+        <v>-0.13580290973186493</v>
       </c>
       <c r="D511" s="2">
         <v>0.17532257735729218</v>
       </c>
       <c r="E511" s="2">
-        <v>0.14656510949134827</v>
+        <v>0.14838562905788422</v>
       </c>
     </row>
     <row r="512">
@@ -8776,13 +8776,13 @@
         <v>0.14797009527683258</v>
       </c>
       <c r="C512" s="2">
-        <v>0.18489652872085571</v>
+        <v>0.18652527034282684</v>
       </c>
       <c r="D512" s="2">
         <v>0.022293118759989738</v>
       </c>
       <c r="E512" s="2">
-        <v>0.0033021436538547277</v>
+        <v>0.0047477567568421364</v>
       </c>
     </row>
     <row r="513">
@@ -8793,13 +8793,13 @@
         <v>-0.27639669179916382</v>
       </c>
       <c r="C513" s="2">
-        <v>-0.26990991830825806</v>
+        <v>-0.27065882086753845</v>
       </c>
       <c r="D513" s="2">
         <v>0.0073073357343673706</v>
       </c>
       <c r="E513" s="2">
-        <v>-0.01248377189040184</v>
+        <v>-0.011243556626141071</v>
       </c>
     </row>
     <row r="514">
@@ -8810,13 +8810,13 @@
         <v>0.41907888650894165</v>
       </c>
       <c r="C514" s="2">
-        <v>0.24518954753875732</v>
+        <v>0.24607138335704803</v>
       </c>
       <c r="D514" s="2">
         <v>0.14364174008369446</v>
       </c>
       <c r="E514" s="2">
-        <v>0.12367036193609238</v>
+        <v>0.12531784176826477</v>
       </c>
     </row>
     <row r="515">
@@ -8827,13 +8827,13 @@
         <v>0.62080293893814087</v>
       </c>
       <c r="C515" s="2">
-        <v>0.57387995719909668</v>
+        <v>0.57882887125015259</v>
       </c>
       <c r="D515" s="2">
         <v>0.28240573406219482</v>
       </c>
       <c r="E515" s="2">
-        <v>0.25994259119033814</v>
+        <v>0.26148474216461182</v>
       </c>
     </row>
     <row r="516">
@@ -8844,13 +8844,13 @@
         <v>-0.31829968094825745</v>
       </c>
       <c r="C516" s="2">
-        <v>-0.39315676689147949</v>
+        <v>-0.39006030559539795</v>
       </c>
       <c r="D516" s="2">
         <v>0.43446016311645508</v>
       </c>
       <c r="E516" s="2">
-        <v>0.39859563112258911</v>
+        <v>0.40038612484931946</v>
       </c>
     </row>
     <row r="517">
@@ -8861,13 +8861,13 @@
         <v>0.48766085505485535</v>
       </c>
       <c r="C517" s="2">
-        <v>0.33158579468727112</v>
+        <v>0.33268684148788452</v>
       </c>
       <c r="D517" s="2">
         <v>0.53930217027664185</v>
       </c>
       <c r="E517" s="2">
-        <v>0.49647867679595947</v>
+        <v>0.49830839037895203</v>
       </c>
     </row>
     <row r="518">
@@ -8878,13 +8878,13 @@
         <v>0.91198301315307617</v>
       </c>
       <c r="C518" s="2">
-        <v>0.93372172117233276</v>
+        <v>0.93712919950485229</v>
       </c>
       <c r="D518" s="2">
         <v>0.68326592445373535</v>
       </c>
       <c r="E518" s="2">
-        <v>0.66707688570022583</v>
+        <v>0.66932708024978638</v>
       </c>
     </row>
     <row r="519">
@@ -8895,13 +8895,13 @@
         <v>0.85819363594055176</v>
       </c>
       <c r="C519" s="2">
-        <v>0.86778217554092407</v>
+        <v>0.86864310503005981</v>
       </c>
       <c r="D519" s="2">
         <v>0.71588611602783203</v>
       </c>
       <c r="E519" s="2">
-        <v>0.73046499490737915</v>
+        <v>0.73294550180435181</v>
       </c>
     </row>
     <row r="520">
@@ -8912,13 +8912,13 @@
         <v>1.0591484308242798</v>
       </c>
       <c r="C520" s="2">
-        <v>1.1133717298507691</v>
+        <v>1.114309549331665</v>
       </c>
       <c r="D520" s="2">
         <v>0.68480128049850464</v>
       </c>
       <c r="E520" s="2">
-        <v>0.69580346345901489</v>
+        <v>0.69776540994644165</v>
       </c>
     </row>
     <row r="521">
@@ -8929,13 +8929,13 @@
         <v>1.0915480852127075</v>
       </c>
       <c r="C521" s="2">
-        <v>1.065843939781189</v>
+        <v>1.0678257942199707</v>
       </c>
       <c r="D521" s="2">
         <v>0.84871155023574829</v>
       </c>
       <c r="E521" s="2">
-        <v>0.8695034384727478</v>
+        <v>0.87121039628982544</v>
       </c>
     </row>
     <row r="522">
@@ -8946,13 +8946,13 @@
         <v>1.0192772150039673</v>
       </c>
       <c r="C522" s="2">
-        <v>1.2654739618301392</v>
+        <v>1.2685093879699707</v>
       </c>
       <c r="D522" s="2">
-        <v>0.83220744132995606</v>
+        <v>0.83220744132995605</v>
       </c>
       <c r="E522" s="2">
-        <v>0.86930364370346069</v>
+        <v>0.87100589275360107</v>
       </c>
     </row>
     <row r="523">
@@ -8963,13 +8963,13 @@
         <v>0.71266067028045654</v>
       </c>
       <c r="C523" s="2">
-        <v>0.81568229198455811</v>
+        <v>0.81863707304000854</v>
       </c>
       <c r="D523" s="2">
         <v>0.79856282472610474</v>
       </c>
       <c r="E523" s="2">
-        <v>0.8311799168586731</v>
+        <v>0.83263921737670898</v>
       </c>
     </row>
     <row r="524">
@@ -8980,13 +8980,13 @@
         <v>0.34103906154632568</v>
       </c>
       <c r="C524" s="2">
-        <v>0.26192629337310791</v>
+        <v>0.26220813393592834</v>
       </c>
       <c r="D524" s="2">
         <v>0.81259059906005859</v>
       </c>
       <c r="E524" s="2">
-        <v>0.84679609537124634</v>
+        <v>0.84823143482208252</v>
       </c>
     </row>
     <row r="525">
@@ -8997,13 +8997,13 @@
         <v>1.1568928956985474</v>
       </c>
       <c r="C525" s="2">
-        <v>1.1701430082321167</v>
+        <v>1.1709444522857666</v>
       </c>
       <c r="D525" s="2">
         <v>0.7372668981552124</v>
       </c>
       <c r="E525" s="2">
-        <v>0.75432753562927246</v>
+        <v>0.75603890419006348</v>
       </c>
     </row>
     <row r="526">
@@ -9014,13 +9014,13 @@
         <v>0.33912378549575806</v>
       </c>
       <c r="C526" s="2">
-        <v>0.32978767156600952</v>
+        <v>0.33084654808044434</v>
       </c>
       <c r="D526" s="2">
         <v>0.7090294361114502</v>
       </c>
       <c r="E526" s="2">
-        <v>0.72761070728302002</v>
+        <v>0.72906053066253662</v>
       </c>
     </row>
     <row r="527">
@@ -9031,13 +9031,13 @@
         <v>0.60918146371841431</v>
       </c>
       <c r="C527" s="2">
-        <v>0.59060823917388916</v>
+        <v>0.59182906150817871</v>
       </c>
       <c r="D527" s="2">
         <v>0.66850030422210693</v>
       </c>
       <c r="E527" s="2">
-        <v>0.65688949823379517</v>
+        <v>0.65804946422576904</v>
       </c>
     </row>
     <row r="528">
@@ -9048,13 +9048,13 @@
         <v>0.98444372415542603</v>
       </c>
       <c r="C528" s="2">
-        <v>1.0083276033401489</v>
+        <v>1.0089727640151978</v>
       </c>
       <c r="D528" s="2">
         <v>0.67174011468887329</v>
       </c>
       <c r="E528" s="2">
-        <v>0.63520175218582153</v>
+        <v>0.63625174760818481</v>
       </c>
     </row>
     <row r="529">
@@ -9065,13 +9065,13 @@
         <v>0.38123545050621033</v>
       </c>
       <c r="C529" s="2">
-        <v>0.2811548113822937</v>
+        <v>0.28457680344581604</v>
       </c>
       <c r="D529" s="2">
         <v>0.63968777656555176</v>
       </c>
       <c r="E529" s="2">
-        <v>0.59689974784851074</v>
+        <v>0.59797060489654541</v>
       </c>
     </row>
     <row r="530">
@@ -9082,13 +9082,13 @@
         <v>0.83741074800491333</v>
       </c>
       <c r="C530" s="2">
-        <v>0.82539260387420654</v>
+        <v>0.82502049207687378</v>
       </c>
       <c r="D530" s="2">
         <v>0.4499584436416626</v>
       </c>
       <c r="E530" s="2">
-        <v>0.41003966331481934</v>
+        <v>0.41123649477958679</v>
       </c>
     </row>
     <row r="531">
@@ -9099,13 +9099,13 @@
         <v>0.6545148491859436</v>
       </c>
       <c r="C531" s="2">
-        <v>0.62898290157318115</v>
+        <v>0.62940984964370728</v>
       </c>
       <c r="D531" s="2">
         <v>0.44234931468963623</v>
       </c>
       <c r="E531" s="2">
-        <v>0.40222275257110596</v>
+        <v>0.40330573916435242</v>
       </c>
     </row>
     <row r="532">
@@ -9116,13 +9116,13 @@
         <v>0.74181884527206421</v>
       </c>
       <c r="C532" s="2">
-        <v>0.62049287557601929</v>
+        <v>0.62245738506317139</v>
       </c>
       <c r="D532" s="2">
         <v>0.40619507431983948</v>
       </c>
       <c r="E532" s="2">
-        <v>0.36965861916542053</v>
+        <v>0.37087267637252808</v>
       </c>
     </row>
     <row r="533">
@@ -9133,13 +9133,13 @@
         <v>0.05256812646985054</v>
       </c>
       <c r="C533" s="2">
-        <v>-0.082792185246944427</v>
+        <v>-0.08232184499502182</v>
       </c>
       <c r="D533" s="2">
         <v>0.29515799880027771</v>
       </c>
       <c r="E533" s="2">
-        <v>0.24473391473293305</v>
+        <v>0.24605511128902435</v>
       </c>
     </row>
     <row r="534">
@@ -9150,13 +9150,13 @@
         <v>-0.55067098140716553</v>
       </c>
       <c r="C534" s="2">
-        <v>-0.51159751415252686</v>
+        <v>-0.50966262817382812</v>
       </c>
       <c r="D534" s="2">
         <v>0.25746017694473267</v>
       </c>
       <c r="E534" s="2">
-        <v>0.2094542533159256</v>
+        <v>0.21062543988227844</v>
       </c>
     </row>
     <row r="535">
@@ -9167,13 +9167,13 @@
         <v>0.27064147591590881</v>
       </c>
       <c r="C535" s="2">
-        <v>0.25943553447723389</v>
+        <v>0.25946986675262451</v>
       </c>
       <c r="D535" s="2">
         <v>0.1633276492357254</v>
       </c>
       <c r="E535" s="2">
-        <v>0.13065122067928314</v>
+        <v>0.13191327452659607</v>
       </c>
     </row>
     <row r="536">
@@ -9184,13 +9184,13 @@
         <v>0.28379341959953308</v>
       </c>
       <c r="C536" s="2">
-        <v>0.29753082990646362</v>
+        <v>0.29993149638175964</v>
       </c>
       <c r="D536" s="2">
         <v>0.11014803498983383</v>
       </c>
       <c r="E536" s="2">
-        <v>0.075302720069885254</v>
+        <v>0.0764918252825737</v>
       </c>
     </row>
     <row r="537">
@@ -9201,13 +9201,13 @@
         <v>-0.014889826998114586</v>
       </c>
       <c r="C537" s="2">
-        <v>-0.11599456518888474</v>
+        <v>-0.11438541859388351</v>
       </c>
       <c r="D537" s="2">
         <v>0.050069317221641541</v>
       </c>
       <c r="E537" s="2">
-        <v>0.022761113941669464</v>
+        <v>0.023845376446843147</v>
       </c>
     </row>
     <row r="538">
@@ -9218,13 +9218,13 @@
         <v>0.041955038905143738</v>
       </c>
       <c r="C538" s="2">
-        <v>-0.036362253129482269</v>
+        <v>-0.034290175884962082</v>
       </c>
       <c r="D538" s="2">
         <v>0.087621346116065979</v>
       </c>
       <c r="E538" s="2">
-        <v>0.071283042430877686</v>
+        <v>0.072366051375865936</v>
       </c>
     </row>
     <row r="539">
@@ -9235,13 +9235,13 @@
         <v>-0.0097820507362484932</v>
       </c>
       <c r="C539" s="2">
-        <v>0.1161654070019722</v>
+        <v>0.11661090701818466</v>
       </c>
       <c r="D539" s="2">
-        <v>0.20720434188842774</v>
+        <v>0.20720434188842773</v>
       </c>
       <c r="E539" s="2">
-        <v>0.17642667889595032</v>
+        <v>0.17751854658126831</v>
       </c>
     </row>
     <row r="540">
@@ -9252,13 +9252,13 @@
         <v>0.17589828372001648</v>
       </c>
       <c r="C540" s="2">
-        <v>0.13084633648395538</v>
+        <v>0.13061682879924774</v>
       </c>
       <c r="D540" s="2">
         <v>0.17912249267101288</v>
       </c>
       <c r="E540" s="2">
-        <v>0.13727807998657227</v>
+        <v>0.13855423033237457</v>
       </c>
     </row>
     <row r="541">
@@ -9269,13 +9269,13 @@
         <v>0.20111037790775299</v>
       </c>
       <c r="C541" s="2">
-        <v>0.14761844277381897</v>
+        <v>0.14863935112953186</v>
       </c>
       <c r="D541" s="2">
         <v>0.21292875707149506</v>
       </c>
       <c r="E541" s="2">
-        <v>0.16560479998588562</v>
+        <v>0.16674645245075226</v>
       </c>
     </row>
     <row r="542">
@@ -9283,16 +9283,16 @@
         <v>44927</v>
       </c>
       <c r="B542" s="2">
-        <v>0.390536367893219</v>
+        <v>0.39053636789321899</v>
       </c>
       <c r="C542" s="2">
-        <v>0.35390517115592957</v>
+        <v>0.35436421632766724</v>
       </c>
       <c r="D542" s="2">
         <v>0.24846506118774414</v>
       </c>
       <c r="E542" s="2">
-        <v>0.19701455533504486</v>
+        <v>0.19833512604236603</v>
       </c>
     </row>
     <row r="543">
@@ -9303,13 +9303,13 @@
         <v>0.52557605504989624</v>
       </c>
       <c r="C543" s="2">
-        <v>0.43469521403312683</v>
+        <v>0.43670982122421265</v>
       </c>
       <c r="D543" s="2">
         <v>0.2516215443611145</v>
       </c>
       <c r="E543" s="2">
-        <v>0.20934832096099854</v>
+        <v>0.21060270071029663</v>
       </c>
     </row>
     <row r="544">
@@ -9320,13 +9320,13 @@
         <v>0.01790480874478817</v>
       </c>
       <c r="C544" s="2">
-        <v>-0.092901796102523804</v>
+        <v>-0.091208986937999725</v>
       </c>
       <c r="D544" s="2">
         <v>0.32770442962646484</v>
       </c>
       <c r="E544" s="2">
-        <v>0.26131591200828552</v>
+        <v>0.26267814636230469</v>
       </c>
     </row>
     <row r="545">
@@ -9337,13 +9337,13 @@
         <v>0.58804976940155029</v>
       </c>
       <c r="C545" s="2">
-        <v>0.55247122049331665</v>
+        <v>0.5536615252494812</v>
       </c>
       <c r="D545" s="2">
         <v>0.35874345898628235</v>
       </c>
       <c r="E545" s="2">
-        <v>0.28661435842514038</v>
+        <v>0.28813058137893677</v>
       </c>
     </row>
     <row r="546">
@@ -9354,13 +9354,13 @@
         <v>0.30493685603141785</v>
       </c>
       <c r="C546" s="2">
-        <v>0.16669328510761261</v>
+        <v>0.1699126660823822</v>
       </c>
       <c r="D546" s="2">
         <v>0.42180377244949341</v>
       </c>
       <c r="E546" s="2">
-        <v>0.36457139253616333</v>
+        <v>0.36603528261184692</v>
       </c>
     </row>
     <row r="547">
@@ -9371,13 +9371,13 @@
         <v>0.070363469421863556</v>
       </c>
       <c r="C547" s="2">
-        <v>0.074641622602939606</v>
+        <v>0.076117910444736481</v>
       </c>
       <c r="D547" s="2">
         <v>0.4432181715965271</v>
       </c>
       <c r="E547" s="2">
-        <v>0.37821877002716064</v>
+        <v>0.37970724701881409</v>
       </c>
     </row>
     <row r="548">
@@ -9388,13 +9388,13 @@
         <v>0.67496401071548462</v>
       </c>
       <c r="C548" s="2">
-        <v>0.58387374877929688</v>
+        <v>0.58528995513916016</v>
       </c>
       <c r="D548" s="2">
         <v>0.45586022734642029</v>
       </c>
       <c r="E548" s="2">
-        <v>0.39373677968978882</v>
+        <v>0.39490309357643127</v>
       </c>
     </row>
     <row r="549">
@@ -9405,13 +9405,13 @@
         <v>0.45524948835372925</v>
       </c>
       <c r="C549" s="2">
-        <v>0.35853222012519836</v>
+        <v>0.35968872904777527</v>
       </c>
       <c r="D549" s="2">
         <v>0.51921218633651733</v>
       </c>
       <c r="E549" s="2">
-        <v>0.462983638048172</v>
+        <v>0.46420630812644958</v>
       </c>
     </row>
     <row r="550">
@@ -9419,16 +9419,16 @@
         <v>45170</v>
       </c>
       <c r="B550" s="2">
-        <v>0.7686530351638794</v>
+        <v>0.76865303516387939</v>
       </c>
       <c r="C550" s="2">
-        <v>0.84923183917999268</v>
+        <v>0.84978175163269043</v>
       </c>
       <c r="D550" s="2">
         <v>0.50027734041213989</v>
       </c>
       <c r="E550" s="2">
-        <v>0.4446236789226532</v>
+        <v>0.44572195410728455</v>
       </c>
     </row>
     <row r="551">
@@ -9439,13 +9439,13 @@
         <v>0.58326607942581177</v>
       </c>
       <c r="C551" s="2">
-        <v>0.47673165798187256</v>
+        <v>0.47741177678108215</v>
       </c>
       <c r="D551" s="2">
         <v>0.49675530195236206</v>
       </c>
       <c r="E551" s="2">
-        <v>0.4387488067150116</v>
+        <v>0.43987196683883667</v>
       </c>
     </row>
     <row r="552">
@@ -9456,13 +9456,13 @@
         <v>0.63935452699661255</v>
       </c>
       <c r="C552" s="2">
-        <v>0.57435709238052368</v>
+        <v>0.57347244024276733</v>
       </c>
       <c r="D552" s="2">
         <v>0.48858609795570374</v>
       </c>
       <c r="E552" s="2">
-        <v>0.42529267072677612</v>
+        <v>0.42664015293121338</v>
       </c>
     </row>
     <row r="553">
@@ -9473,13 +9473,13 @@
         <v>0.58807265758514404</v>
       </c>
       <c r="C553" s="2">
-        <v>0.53032004833221436</v>
+        <v>0.5325201153755188</v>
       </c>
       <c r="D553" s="2">
         <v>0.53608953952789307</v>
       </c>
       <c r="E553" s="2">
-        <v>0.46470129489898682</v>
+        <v>0.466167151927948</v>
       </c>
     </row>
     <row r="554">
@@ -9490,13 +9490,13 @@
         <v>0.41763603687286377</v>
       </c>
       <c r="C554" s="2">
-        <v>0.38723155856132507</v>
+        <v>0.38730233907699585</v>
       </c>
       <c r="D554" s="2">
-        <v>0.52418357133865357</v>
+        <v>0.5286288857460022</v>
       </c>
       <c r="E554" s="2">
-        <v>0.42358812689781189</v>
+        <v>0.42587625980377197</v>
       </c>
     </row>
     <row r="555">
@@ -9507,13 +9507,13 @@
         <v>0.2732384204864502</v>
       </c>
       <c r="C555" s="2">
-        <v>0.11381941288709641</v>
+        <v>0.11726265400648117</v>
       </c>
       <c r="D555" s="2">
-        <v>0.48997357487678528</v>
+        <v>0.5025666356086731</v>
       </c>
       <c r="E555" s="2">
-        <v>0.36684286594390869</v>
+        <v>0.37751442193984985</v>
       </c>
     </row>
     <row r="556">
@@ -9524,13 +9524,13 @@
         <v>-0.0031594929751008749</v>
       </c>
       <c r="C556" s="2">
-        <v>-0.046463429927825928</v>
+        <v>-0.042968329042196274</v>
       </c>
       <c r="D556" s="2">
-        <v>0.50644183158874512</v>
+        <v>0.51903492212295532</v>
       </c>
       <c r="E556" s="2">
-        <v>0.39218208193778992</v>
+        <v>0.40322417020797729</v>
       </c>
     </row>
     <row r="557">
@@ -9541,13 +9541,13 @@
         <v>1.1024953126907349</v>
       </c>
       <c r="C557" s="2">
-        <v>0.93855112791061401</v>
+        <v>0.94103288650512695</v>
       </c>
       <c r="D557" s="2">
-        <v>0.46114709973335266</v>
+        <v>0.47374019026756287</v>
       </c>
       <c r="E557" s="2">
-        <v>0.34315481781959534</v>
+        <v>0.3545190691947937</v>
       </c>
     </row>
     <row r="558">
@@ -9555,16 +9555,16 @@
         <v>45413</v>
       </c>
       <c r="B558" s="2">
-        <v>0.34809565544128418</v>
+        <v>0.38810345530509949</v>
       </c>
       <c r="C558" s="2">
-        <v>-0.011486264877021313</v>
+        <v>-0.0029294244013726711</v>
       </c>
       <c r="D558" s="2">
-        <v>0.47829693555831909</v>
+        <v>0.49088999629020691</v>
       </c>
       <c r="E558" s="2">
-        <v>0.36697384715080261</v>
+        <v>0.37832096219062805</v>
       </c>
     </row>
     <row r="559">
@@ -9572,16 +9572,16 @@
         <v>45444</v>
       </c>
       <c r="B559" s="2">
-        <v>0.46076291799545288</v>
+        <v>0.53409272432327271</v>
       </c>
       <c r="C559" s="2">
-        <v>0.33852460980415344</v>
+        <v>0.41452544927597046</v>
       </c>
       <c r="D559" s="2">
-        <v>0.47211351990699768</v>
+        <v>0.4772835373878479</v>
       </c>
       <c r="E559" s="2">
-        <v>0.33255153894424439</v>
+        <v>0.33257907629013062</v>
       </c>
     </row>
     <row r="560">
@@ -9592,13 +9592,13 @@
         <v>0.73148053884506226</v>
       </c>
       <c r="C560" s="2">
-        <v>0.70478463172912598</v>
+        <v>0.70879948139190674</v>
       </c>
       <c r="D560" s="2">
-        <v>0.41165083646774292</v>
+        <v>0.41873052716255188</v>
       </c>
       <c r="E560" s="2">
-        <v>0.25800767540931702</v>
+        <v>0.26216867566108704</v>
       </c>
     </row>
     <row r="561">
@@ -9606,16 +9606,16 @@
         <v>45505</v>
       </c>
       <c r="B561" s="2">
-        <v>0.23170194029808045</v>
+        <v>0.23170194029808044</v>
       </c>
       <c r="C561" s="2">
-        <v>0.13311168551445007</v>
+        <v>0.13512653112411499</v>
       </c>
       <c r="D561" s="2">
-        <v>0.35831114649772644</v>
+        <v>0.37086209654808044</v>
       </c>
       <c r="E561" s="2">
-        <v>0.19353705644607544</v>
+        <v>0.20317903161048889</v>
       </c>
     </row>
     <row r="562">
@@ -9626,13 +9626,13 @@
         <v>0.74242097139358521</v>
       </c>
       <c r="C562" s="2">
-        <v>0.74469119310379028</v>
+        <v>0.74673706293106079</v>
       </c>
       <c r="D562" s="2">
-        <v>0.24022203683853149</v>
+        <v>0.24175891280174255</v>
       </c>
       <c r="E562" s="2">
-        <v>0.085088618099689484</v>
+        <v>0.088437989354133606</v>
       </c>
     </row>
     <row r="563">
@@ -9640,16 +9640,16 @@
         <v>45566</v>
       </c>
       <c r="B563" s="2">
-        <v>0.36198541522026062</v>
+        <v>0.29517793655395508</v>
       </c>
       <c r="C563" s="2">
-        <v>0.077430814504623413</v>
+        <v>-0.024374533444643021</v>
       </c>
       <c r="D563" s="2">
-        <v>0.16548432409763336</v>
+        <v>0.16671101748943329</v>
       </c>
       <c r="E563" s="2">
-        <v>0.038035884499549866</v>
+        <v>0.046316448599100113</v>
       </c>
     </row>
     <row r="564">
@@ -9657,16 +9657,16 @@
         <v>45597</v>
       </c>
       <c r="B564" s="2">
-        <v>-0.27092579007148743</v>
+        <v>-0.25373858213424683</v>
       </c>
       <c r="C564" s="2">
-        <v>-0.55707526206970215</v>
+        <v>-0.51643115282058716</v>
       </c>
       <c r="D564" s="2">
-        <v>0.12857449054718018</v>
+        <v>0.083684705197811127</v>
       </c>
       <c r="E564" s="2">
-        <v>0.00047479430213570595</v>
+        <v>-0.026943942531943321</v>
       </c>
     </row>
     <row r="565">
@@ -9674,16 +9674,16 @@
         <v>45627</v>
       </c>
       <c r="B565" s="2">
-        <v>-0.48321673274040222</v>
+        <v>-0.43397551774978638</v>
       </c>
       <c r="C565" s="2">
-        <v>-0.62669903039932251</v>
+        <v>-0.5738750696182251</v>
       </c>
       <c r="D565" s="2">
-        <v>0.042445063591003418</v>
+        <v>-0.021118480712175369</v>
       </c>
       <c r="E565" s="2">
-        <v>-0.10014089941978455</v>
+        <v>-0.1376897394657135</v>
       </c>
     </row>
     <row r="566">
@@ -9691,16 +9691,16 @@
         <v>45658</v>
       </c>
       <c r="B566" s="2">
-        <v>0.039693348109722138</v>
+        <v>-0.059433232992887497</v>
       </c>
       <c r="C566" s="2">
-        <v>-0.037484806030988693</v>
+        <v>-0.091636426746845245</v>
       </c>
       <c r="D566" s="2">
-        <v>0.010902249254286289</v>
+        <v>-0.052721034735441208</v>
       </c>
       <c r="E566" s="2">
-        <v>-0.13901633024215698</v>
+        <v>-0.17179177701473236</v>
       </c>
     </row>
     <row r="567">
@@ -9708,16 +9708,50 @@
         <v>45689</v>
       </c>
       <c r="B567" s="2">
-        <v>-0.32454371452331543</v>
+        <v>-0.28732764720916748</v>
       </c>
       <c r="C567" s="2">
-        <v>-0.43496087193489075</v>
+        <v>-0.38202330470085144</v>
       </c>
       <c r="D567" s="2">
-        <v>-0.13540148735046387</v>
+        <v>-0.16631275415420532</v>
       </c>
       <c r="E567" s="2">
-        <v>-0.31575784087181091</v>
+        <v>-0.30301016569137573</v>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" s="1">
+        <v>45717</v>
+      </c>
+      <c r="B568" s="2">
+        <v>-0.21314406394958496</v>
+      </c>
+      <c r="C568" s="2">
+        <v>-0.2448180764913559</v>
+      </c>
+      <c r="D568" s="2">
+        <v>-0.24322786927223206</v>
+      </c>
+      <c r="E568" s="2">
+        <v>-0.34944945573806763</v>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" s="1">
+        <v>45748</v>
+      </c>
+      <c r="B569" s="2">
+        <v>-0.21174813807010651</v>
+      </c>
+      <c r="C569" s="2">
+        <v>-0.28791269659996033</v>
+      </c>
+      <c r="D569" s="2">
+        <v>-0.24112571775913239</v>
+      </c>
+      <c r="E569" s="2">
+        <v>-0.3160531222820282</v>
       </c>
     </row>
   </sheetData>
